--- a/laval.xlsx
+++ b/laval.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>RONDE 1</t>
   </si>
@@ -276,6 +276,12 @@
   <si>
     <t>Thanh Vinh Nguyen</t>
   </si>
+  <si>
+    <t>Daniel Amyot</t>
+  </si>
+  <si>
+    <t>Frédéric Lacerte</t>
+  </si>
 </sst>
 </file>
 
@@ -2026,7 +2032,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2293,9 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2433,27 +2436,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2526,9 +2508,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2556,9 +2535,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2571,24 +2547,141 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="87" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2607,122 +2700,29 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="87" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3791,7 +3791,7 @@
   <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+      <selection activeCell="U92" sqref="U92:AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3814,217 +3814,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="270"/>
-      <c r="AD1" s="270"/>
-      <c r="AE1" s="270"/>
-      <c r="AF1" s="270"/>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="267"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="272" t="s">
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="270" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="268"/>
+      <c r="Z2" s="268"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="268"/>
+      <c r="AD2" s="268"/>
+      <c r="AE2" s="268"/>
+      <c r="AF2" s="268"/>
+      <c r="AG2" s="268"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="268"/>
+      <c r="AJ2" s="268"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="270"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="270"/>
-      <c r="U3" s="270"/>
-      <c r="V3" s="270"/>
-      <c r="W3" s="270"/>
-      <c r="X3" s="270"/>
-      <c r="Y3" s="270"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="270"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="270"/>
-      <c r="AD3" s="270"/>
-      <c r="AE3" s="270"/>
-      <c r="AF3" s="270"/>
-      <c r="AG3" s="270"/>
-      <c r="AH3" s="270"/>
-      <c r="AI3" s="270"/>
-      <c r="AJ3" s="270"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="267"/>
+      <c r="L3" s="267"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="267"/>
+      <c r="O3" s="267"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="268"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="268"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="268"/>
+      <c r="AA3" s="268"/>
+      <c r="AB3" s="268"/>
+      <c r="AC3" s="268"/>
+      <c r="AD3" s="268"/>
+      <c r="AE3" s="268"/>
+      <c r="AF3" s="268"/>
+      <c r="AG3" s="268"/>
+      <c r="AH3" s="268"/>
+      <c r="AI3" s="268"/>
+      <c r="AJ3" s="268"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="289" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="290"/>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
-      <c r="M4" s="290"/>
-      <c r="N4" s="290"/>
-      <c r="O4" s="290"/>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="290"/>
-      <c r="R4" s="290"/>
-      <c r="S4" s="291"/>
-      <c r="T4" s="289" t="s">
+      <c r="C4" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="252"/>
+      <c r="S4" s="253"/>
+      <c r="T4" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="290"/>
-      <c r="V4" s="290"/>
-      <c r="W4" s="290"/>
-      <c r="X4" s="290"/>
-      <c r="Y4" s="290"/>
-      <c r="Z4" s="290"/>
-      <c r="AA4" s="290"/>
-      <c r="AB4" s="291"/>
-      <c r="AC4" s="289" t="s">
+      <c r="U4" s="252"/>
+      <c r="V4" s="252"/>
+      <c r="W4" s="252"/>
+      <c r="X4" s="252"/>
+      <c r="Y4" s="252"/>
+      <c r="Z4" s="252"/>
+      <c r="AA4" s="252"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="290"/>
-      <c r="AE4" s="290"/>
-      <c r="AF4" s="290"/>
-      <c r="AG4" s="292"/>
-      <c r="AH4" s="289" t="s">
+      <c r="AD4" s="252"/>
+      <c r="AE4" s="252"/>
+      <c r="AF4" s="252"/>
+      <c r="AG4" s="254"/>
+      <c r="AH4" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="290"/>
-      <c r="AJ4" s="291"/>
+      <c r="AI4" s="252"/>
+      <c r="AJ4" s="253"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="298"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="297" t="s">
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="298"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="298"/>
-      <c r="P5" s="298"/>
-      <c r="Q5" s="298"/>
-      <c r="R5" s="299"/>
-      <c r="S5" s="293" t="s">
+      <c r="L5" s="260"/>
+      <c r="M5" s="260"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
+      <c r="R5" s="261"/>
+      <c r="S5" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="301" t="s">
+      <c r="T5" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="298"/>
-      <c r="V5" s="298"/>
-      <c r="W5" s="299"/>
-      <c r="X5" s="297" t="s">
+      <c r="U5" s="260"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="261"/>
+      <c r="X5" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="298"/>
-      <c r="Z5" s="298"/>
-      <c r="AA5" s="299"/>
-      <c r="AB5" s="293" t="s">
+      <c r="Y5" s="260"/>
+      <c r="Z5" s="260"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="255" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="300" t="s">
+      <c r="AC5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="299"/>
-      <c r="AE5" s="297" t="s">
+      <c r="AD5" s="261"/>
+      <c r="AE5" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="299"/>
-      <c r="AG5" s="293" t="s">
+      <c r="AF5" s="261"/>
+      <c r="AG5" s="255" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="57"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="293" t="s">
+      <c r="AJ5" s="255" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4032,7 +4032,7 @@
     <row r="6" spans="1:38" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="193">
+      <c r="C6" s="192">
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
@@ -4040,7 +4040,7 @@
         <f>Résultats!$J$4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="196">
+      <c r="E6" s="195">
         <f>Résultats!$J$6</f>
         <v>0</v>
       </c>
@@ -4048,7 +4048,7 @@
         <f>Résultats!$J$7</f>
         <v>0</v>
       </c>
-      <c r="G6" s="196">
+      <c r="G6" s="195">
         <f>Résultats!$J$10</f>
         <v>0</v>
       </c>
@@ -4056,7 +4056,7 @@
         <f>Résultats!$J$11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="196">
+      <c r="I6" s="195">
         <f>Résultats!$J$13</f>
         <v>0</v>
       </c>
@@ -4072,7 +4072,7 @@
         <f>Résultats!$J$18</f>
         <v>0</v>
       </c>
-      <c r="M6" s="196">
+      <c r="M6" s="195">
         <f>Résultats!$J$20</f>
         <v>0</v>
       </c>
@@ -4080,7 +4080,7 @@
         <f>Résultats!$J$21</f>
         <v>0</v>
       </c>
-      <c r="O6" s="196">
+      <c r="O6" s="195">
         <f>Résultats!$J$24</f>
         <v>0</v>
       </c>
@@ -4096,8 +4096,8 @@
         <f>Résultats!$J$28</f>
         <v>0</v>
       </c>
-      <c r="S6" s="294"/>
-      <c r="T6" s="193">
+      <c r="S6" s="256"/>
+      <c r="T6" s="192">
         <f>Résultats!$V$6</f>
         <v>0</v>
       </c>
@@ -4105,7 +4105,7 @@
         <f>Résultats!$V$7</f>
         <v>0</v>
       </c>
-      <c r="V6" s="196">
+      <c r="V6" s="195">
         <f>Résultats!$V$10</f>
         <v>0</v>
       </c>
@@ -4129,7 +4129,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="294"/>
+      <c r="AB6" s="256"/>
       <c r="AC6" s="119">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4146,8 +4146,8 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="294"/>
-      <c r="AH6" s="302">
+      <c r="AG6" s="256"/>
+      <c r="AH6" s="246">
         <f>Résultats!$AH$15</f>
         <v>0</v>
       </c>
@@ -4155,179 +4155,179 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="294"/>
+      <c r="AJ6" s="256"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="194">
+      <c r="C7" s="193">
         <f>IF(ISBLANK($C10),0,($C$6*PT_VICTOIRE_R1)+IF($C$6=4,PT_PREDICTION_EQUIPE_R1+IF($C10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
       <c r="D7" s="125"/>
-      <c r="E7" s="197"/>
+      <c r="E7" s="196"/>
       <c r="F7" s="126"/>
       <c r="G7" s="127"/>
       <c r="H7" s="125"/>
-      <c r="I7" s="197"/>
+      <c r="I7" s="196"/>
       <c r="J7" s="125"/>
       <c r="K7" s="128"/>
       <c r="L7" s="125"/>
-      <c r="M7" s="197"/>
+      <c r="M7" s="196"/>
       <c r="N7" s="126"/>
-      <c r="O7" s="197"/>
+      <c r="O7" s="196"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="127"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="294"/>
-      <c r="T7" s="194"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="193"/>
       <c r="U7" s="125"/>
-      <c r="V7" s="197"/>
+      <c r="V7" s="196"/>
       <c r="W7" s="125"/>
       <c r="X7" s="128"/>
       <c r="Y7" s="126"/>
       <c r="Z7" s="127"/>
       <c r="AA7" s="125"/>
-      <c r="AB7" s="294"/>
+      <c r="AB7" s="256"/>
       <c r="AC7" s="127"/>
       <c r="AD7" s="125"/>
       <c r="AE7" s="128"/>
       <c r="AF7" s="125"/>
-      <c r="AG7" s="294"/>
-      <c r="AH7" s="302"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="246"/>
       <c r="AI7" s="120"/>
-      <c r="AJ7" s="294"/>
+      <c r="AJ7" s="256"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="195" t="str">
+      <c r="C8" s="194" t="str">
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="198" t="str">
+      <c r="D8" s="197" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>Résultats!$B$6</f>
         <v>BOSTON</v>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>Résultats!$B$7</f>
         <v>TORONTO</v>
       </c>
-      <c r="G8" s="201" t="str">
+      <c r="G8" s="200" t="str">
         <f>Résultats!$B$10</f>
         <v>WASHINGTON</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="197" t="str">
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="197" t="str">
         <f>Résultats!$B$14</f>
         <v>PITTSBURGH</v>
       </c>
-      <c r="K8" s="202" t="str">
+      <c r="K8" s="201" t="str">
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="197" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="200" t="str">
+      <c r="N8" s="199" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
-      <c r="O8" s="199" t="str">
+      <c r="O8" s="198" t="str">
         <f>Résultats!$B$24</f>
         <v>NASHVILLE</v>
       </c>
-      <c r="P8" s="200" t="str">
+      <c r="P8" s="199" t="str">
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="Q8" s="201" t="str">
+      <c r="Q8" s="200" t="str">
         <f>Résultats!$B$27</f>
         <v>SAN JOSE</v>
       </c>
-      <c r="R8" s="198" t="str">
+      <c r="R8" s="197" t="str">
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="294"/>
-      <c r="T8" s="195" t="str">
+      <c r="S8" s="256"/>
+      <c r="T8" s="194" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U8" s="198" t="str">
+      <c r="U8" s="197" t="str">
         <f>Résultats!$N$7</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V8" s="199" t="str">
+      <c r="V8" s="198" t="str">
         <f>Résultats!$N$10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W8" s="198" t="str">
+      <c r="W8" s="197" t="str">
         <f>Résultats!$N$11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X8" s="202" t="str">
+      <c r="X8" s="201" t="str">
         <f>Résultats!$N$20</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y8" s="200" t="str">
+      <c r="Y8" s="199" t="str">
         <f>Résultats!$N$21</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z8" s="201" t="str">
+      <c r="Z8" s="200" t="str">
         <f>Résultats!$N$24</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA8" s="198" t="str">
+      <c r="AA8" s="197" t="str">
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="294"/>
-      <c r="AC8" s="201" t="str">
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="200" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD8" s="198" t="str">
+      <c r="AD8" s="197" t="str">
         <f>Résultats!$Z$9</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE8" s="202" t="str">
+      <c r="AE8" s="201" t="str">
         <f>Résultats!$Z$22</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AF8" s="198" t="str">
+      <c r="AF8" s="197" t="str">
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="294"/>
-      <c r="AH8" s="303" t="str">
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="247" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI8" s="304" t="str">
+      <c r="AI8" s="248" t="str">
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="294"/>
+      <c r="AJ8" s="256"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4337,130 +4337,130 @@
       <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="203" t="str">
+      <c r="C9" s="202" t="str">
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="204" t="str">
+      <c r="D9" s="203" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
-      <c r="E9" s="205" t="str">
+      <c r="E9" s="204" t="str">
         <f>Résultats!$A$6</f>
         <v>A2</v>
       </c>
-      <c r="F9" s="206" t="str">
+      <c r="F9" s="205" t="str">
         <f>Résultats!$A$7</f>
         <v>A3</v>
       </c>
-      <c r="G9" s="207" t="str">
+      <c r="G9" s="206" t="str">
         <f>Résultats!$A$10</f>
         <v>M1</v>
       </c>
-      <c r="H9" s="204" t="str">
+      <c r="H9" s="203" t="str">
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="205" t="str">
+      <c r="I9" s="204" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
-      <c r="J9" s="204" t="str">
+      <c r="J9" s="203" t="str">
         <f>Résultats!$A$14</f>
         <v>M3</v>
       </c>
-      <c r="K9" s="208" t="str">
+      <c r="K9" s="207" t="str">
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="204" t="str">
+      <c r="L9" s="203" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
-      <c r="M9" s="205" t="str">
+      <c r="M9" s="204" t="str">
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="206" t="str">
+      <c r="N9" s="205" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
-      <c r="O9" s="205" t="str">
+      <c r="O9" s="204" t="str">
         <f>Résultats!$A$24</f>
         <v>P1</v>
       </c>
-      <c r="P9" s="206" t="str">
+      <c r="P9" s="205" t="str">
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
-      <c r="Q9" s="207" t="str">
+      <c r="Q9" s="206" t="str">
         <f>Résultats!$A$27</f>
         <v>P2</v>
       </c>
-      <c r="R9" s="209" t="str">
+      <c r="R9" s="208" t="str">
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="296"/>
-      <c r="T9" s="203" t="str">
+      <c r="S9" s="258"/>
+      <c r="T9" s="202" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U9" s="204" t="str">
+      <c r="U9" s="203" t="str">
         <f>Résultats!$M$7</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V9" s="205" t="str">
+      <c r="V9" s="204" t="str">
         <f>Résultats!$M$10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W9" s="204" t="str">
+      <c r="W9" s="203" t="str">
         <f>Résultats!$M$11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X9" s="208" t="str">
+      <c r="X9" s="207" t="str">
         <f>Résultats!$M$20</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y9" s="206" t="str">
+      <c r="Y9" s="205" t="str">
         <f>Résultats!$M$21</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z9" s="207" t="str">
+      <c r="Z9" s="206" t="str">
         <f>Résultats!$M$24</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA9" s="209" t="str">
+      <c r="AA9" s="208" t="str">
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="295"/>
-      <c r="AC9" s="207" t="str">
+      <c r="AB9" s="257"/>
+      <c r="AC9" s="206" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD9" s="204" t="str">
+      <c r="AD9" s="203" t="str">
         <f>Résultats!$Y$9</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE9" s="208" t="str">
+      <c r="AE9" s="207" t="str">
         <f>Résultats!$Y$22</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AF9" s="204" t="str">
+      <c r="AF9" s="203" t="str">
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="295"/>
-      <c r="AH9" s="305" t="str">
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="249" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI9" s="306" t="str">
+      <c r="AI9" s="250" t="str">
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="296"/>
+      <c r="AJ9" s="258"/>
       <c r="AK9" s="122" t="s">
         <v>51</v>
       </c>
@@ -4469,80 +4469,80 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="217">
+      <c r="A10" s="209">
         <f>RANK(AL10,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="218">
+      <c r="C10" s="210">
         <v>7</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220">
+      <c r="D10" s="211"/>
+      <c r="E10" s="212">
         <v>6</v>
       </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222">
+      <c r="F10" s="211"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="214">
         <v>6</v>
       </c>
-      <c r="I10" s="220"/>
-      <c r="J10" s="222">
+      <c r="I10" s="212"/>
+      <c r="J10" s="214">
         <v>7</v>
       </c>
-      <c r="K10" s="223">
+      <c r="K10" s="215">
         <v>5</v>
       </c>
-      <c r="L10" s="222"/>
-      <c r="M10" s="224">
+      <c r="L10" s="214"/>
+      <c r="M10" s="216">
         <v>7</v>
       </c>
-      <c r="N10" s="219"/>
-      <c r="O10" s="224">
+      <c r="N10" s="211"/>
+      <c r="O10" s="216">
         <v>6</v>
       </c>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="225">
+      <c r="P10" s="211"/>
+      <c r="Q10" s="217">
         <v>6</v>
       </c>
-      <c r="R10" s="226"/>
-      <c r="S10" s="227">
+      <c r="R10" s="218"/>
+      <c r="S10" s="219">
         <f>SUM(C11:R11)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="218"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="228"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="223"/>
-      <c r="Y10" s="229"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="226"/>
-      <c r="AB10" s="227">
+      <c r="T10" s="210"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="217"/>
+      <c r="AA10" s="218"/>
+      <c r="AB10" s="219">
         <f>SUM(T11:AA11)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="225"/>
-      <c r="AD10" s="222"/>
-      <c r="AE10" s="223"/>
-      <c r="AF10" s="222"/>
-      <c r="AG10" s="227">
+      <c r="AC10" s="217"/>
+      <c r="AD10" s="214"/>
+      <c r="AE10" s="215"/>
+      <c r="AF10" s="214"/>
+      <c r="AG10" s="219">
         <f>SUM(AC11:AF11)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="230"/>
-      <c r="AI10" s="231"/>
-      <c r="AJ10" s="227">
+      <c r="AH10" s="222"/>
+      <c r="AI10" s="223"/>
+      <c r="AJ10" s="219">
         <f>AH11</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="232">
+      <c r="AK10" s="224">
         <f>MAX($AL$10:$AL$82) - AL10</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="145">
+      <c r="AL10" s="144">
         <f>$S10+$AB10+$AG10+$AJ10</f>
         <v>0</v>
       </c>
@@ -4553,70 +4553,70 @@
         <v>1</v>
       </c>
       <c r="B11" s="107"/>
-      <c r="C11" s="149">
+      <c r="C11" s="148">
         <f>(IF($C10&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C10=$C$6+$D$6,$O$91,0),0),0)+IF($D10&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D10=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="148">
+      <c r="D11" s="149"/>
+      <c r="E11" s="147">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E10=$E$6+$F$6,$O$91,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F10=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="148">
+      <c r="F11" s="149"/>
+      <c r="G11" s="147">
         <f>(IF($G10&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G10=$G$6+$H$6,$O$91,0),0),0)+IF($H10&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H10=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151">
+      <c r="H11" s="149"/>
+      <c r="I11" s="150">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I10=$I$6+$J$6,$O$91,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J10=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153">
+      <c r="J11" s="151"/>
+      <c r="K11" s="152">
         <f>(IF($K10&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K10=$K$6+$L$6,$O$91,0),0),0)+IF($L10&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L10=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="150"/>
-      <c r="M11" s="148">
+      <c r="L11" s="149"/>
+      <c r="M11" s="147">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M10=$M$6+$N$6,$O$91,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N10=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="150"/>
-      <c r="O11" s="151">
+      <c r="N11" s="149"/>
+      <c r="O11" s="150">
         <f>(IF($O10&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O10=$O$6+$P$6,$O$91,0),0),0)+IF($P10&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P10=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="151">
+      <c r="P11" s="149"/>
+      <c r="Q11" s="150">
         <f>(IF($Q10&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q10=$Q$6+$R$6,$O$91,0),0),0)+IF($R10&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R10=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R11" s="154"/>
-      <c r="S11" s="139"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="139"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="154"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="158"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="159"/>
+      <c r="AJ11" s="138"/>
       <c r="AK11" s="123"/>
-      <c r="AL11" s="139"/>
+      <c r="AL11" s="138"/>
     </row>
     <row r="12" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="108"/>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="134">
@@ -4715,7 +4715,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S12" s="163"/>
+      <c r="S12" s="162"/>
       <c r="T12" s="134"/>
       <c r="U12" s="134"/>
       <c r="V12" s="134"/>
@@ -4724,24 +4724,24 @@
       <c r="Y12" s="134"/>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134"/>
-      <c r="AB12" s="163"/>
+      <c r="AB12" s="162"/>
       <c r="AC12" s="134"/>
       <c r="AD12" s="134"/>
       <c r="AE12" s="134"/>
       <c r="AF12" s="134"/>
-      <c r="AG12" s="163"/>
+      <c r="AG12" s="162"/>
       <c r="AH12" s="134"/>
       <c r="AI12" s="134"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="164">
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="163">
         <f>SUM(C12:AI12)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="141"/>
+      <c r="AL12" s="140"/>
     </row>
     <row r="13" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="108"/>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="134">
@@ -4840,7 +4840,7 @@
 IF(R10 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S13" s="163"/>
+      <c r="S13" s="162"/>
       <c r="T13" s="134"/>
       <c r="U13" s="134"/>
       <c r="V13" s="134"/>
@@ -4849,20 +4849,20 @@
       <c r="Y13" s="134"/>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134"/>
-      <c r="AB13" s="163"/>
+      <c r="AB13" s="162"/>
       <c r="AC13" s="134"/>
       <c r="AD13" s="134"/>
       <c r="AE13" s="134"/>
       <c r="AF13" s="134"/>
-      <c r="AG13" s="163"/>
+      <c r="AG13" s="162"/>
       <c r="AH13" s="134"/>
       <c r="AI13" s="134"/>
-      <c r="AJ13" s="163"/>
-      <c r="AK13" s="164">
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="163">
         <f>SUM(C13:AI13)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="141"/>
+      <c r="AL13" s="140"/>
     </row>
     <row r="14" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="130">
@@ -4904,7 +4904,7 @@
       <c r="R14" s="51">
         <v>6</v>
       </c>
-      <c r="S14" s="140">
+      <c r="S14" s="139">
         <f>SUM(C15:R15)</f>
         <v>0</v>
       </c>
@@ -4913,10 +4913,10 @@
       <c r="V14" s="45"/>
       <c r="W14" s="48"/>
       <c r="X14" s="50"/>
-      <c r="Y14" s="138"/>
+      <c r="Y14" s="137"/>
       <c r="Z14" s="49"/>
       <c r="AA14" s="51"/>
-      <c r="AB14" s="140">
+      <c r="AB14" s="139">
         <f>SUM(T15:AA15)</f>
         <v>0</v>
       </c>
@@ -4924,13 +4924,13 @@
       <c r="AD14" s="48"/>
       <c r="AE14" s="50"/>
       <c r="AF14" s="48"/>
-      <c r="AG14" s="140">
+      <c r="AG14" s="139">
         <f>SUM(AC15:AF15)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="82"/>
       <c r="AI14" s="59"/>
-      <c r="AJ14" s="140">
+      <c r="AJ14" s="139">
         <f>AH15</f>
         <v>0</v>
       </c>
@@ -4938,7 +4938,7 @@
         <f>MAX($AL$10:$AL$82) - AL14</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="142">
+      <c r="AL14" s="141">
         <f>$S14+$AB14+$AG14+$AJ14</f>
         <v>0</v>
       </c>
@@ -4953,69 +4953,69 @@
         <f>(IF($C14&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C14=$C$6+$D$6,$O$91,0),0),0)+IF($D14&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D14=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="148">
+      <c r="D15" s="165"/>
+      <c r="E15" s="147">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E14=$E$6+$F$6,$O$91,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F14=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="148">
+      <c r="F15" s="165"/>
+      <c r="G15" s="147">
         <f>(IF($G14&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G14=$G$6+$H$6,$O$91,0),0),0)+IF($H14&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H14=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="166"/>
-      <c r="I15" s="137">
+      <c r="H15" s="165"/>
+      <c r="I15" s="136">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I14=$I$6+$J$6,$O$91,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J14=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="168">
+      <c r="J15" s="166"/>
+      <c r="K15" s="167">
         <f>(IF($K14&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K14=$K$6+$L$6,$O$91,0),0),0)+IF($L14&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L14=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="166"/>
-      <c r="M15" s="148">
+      <c r="L15" s="165"/>
+      <c r="M15" s="147">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M14=$M$6+$N$6,$O$91,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N14=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="166"/>
-      <c r="O15" s="137">
+      <c r="N15" s="165"/>
+      <c r="O15" s="136">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O14=$O$6+$P$6,$O$91,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P14=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="166"/>
-      <c r="Q15" s="137">
+      <c r="P15" s="165"/>
+      <c r="Q15" s="136">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q14=$Q$6+$R$6,$O$91,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R14=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R15" s="169"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="170"/>
-      <c r="AC15" s="177"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="177"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="171"/>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="139"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="170"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="169"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="173"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="175"/>
+      <c r="AJ15" s="138"/>
       <c r="AK15" s="101">
         <f>MAX($AL$10:$AL$82) - AL15</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="139"/>
+      <c r="AL15" s="138"/>
     </row>
     <row r="16" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="108"/>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="134">
@@ -5114,7 +5114,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S16" s="163"/>
+      <c r="S16" s="162"/>
       <c r="T16" s="134"/>
       <c r="U16" s="134"/>
       <c r="V16" s="134"/>
@@ -5123,24 +5123,24 @@
       <c r="Y16" s="134"/>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134"/>
-      <c r="AB16" s="163"/>
+      <c r="AB16" s="162"/>
       <c r="AC16" s="134"/>
       <c r="AD16" s="134"/>
       <c r="AE16" s="134"/>
       <c r="AF16" s="134"/>
-      <c r="AG16" s="163"/>
+      <c r="AG16" s="162"/>
       <c r="AH16" s="134"/>
       <c r="AI16" s="134"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="164">
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="163">
         <f>SUM(C16:AI16)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="141"/>
+      <c r="AL16" s="140"/>
     </row>
     <row r="17" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="108"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="134">
@@ -5239,7 +5239,7 @@
 IF(R14 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="163"/>
+      <c r="S17" s="162"/>
       <c r="T17" s="134"/>
       <c r="U17" s="134"/>
       <c r="V17" s="134"/>
@@ -5248,96 +5248,96 @@
       <c r="Y17" s="134"/>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134"/>
-      <c r="AB17" s="163"/>
+      <c r="AB17" s="162"/>
       <c r="AC17" s="134"/>
       <c r="AD17" s="134"/>
       <c r="AE17" s="134"/>
       <c r="AF17" s="134"/>
-      <c r="AG17" s="163"/>
+      <c r="AG17" s="162"/>
       <c r="AH17" s="134"/>
       <c r="AI17" s="134"/>
-      <c r="AJ17" s="163"/>
-      <c r="AK17" s="164">
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="163">
         <f>SUM(C17:AI17)</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="141"/>
+      <c r="AL17" s="140"/>
     </row>
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="217">
+      <c r="A18" s="209">
         <f>RANK(AL18,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B18" s="250" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="233">
+      <c r="B18" s="241" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="225">
         <v>5</v>
       </c>
-      <c r="D18" s="234"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="234">
+      <c r="D18" s="226"/>
+      <c r="E18" s="227">
+        <v>6</v>
+      </c>
+      <c r="F18" s="226"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="229">
         <v>7</v>
       </c>
-      <c r="G18" s="236">
-        <v>4</v>
-      </c>
-      <c r="H18" s="237"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="237">
-        <v>7</v>
-      </c>
-      <c r="K18" s="238">
+      <c r="I18" s="227"/>
+      <c r="J18" s="229">
         <v>6</v>
       </c>
-      <c r="L18" s="237"/>
-      <c r="M18" s="235">
+      <c r="K18" s="230">
+        <v>5</v>
+      </c>
+      <c r="L18" s="229"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="226">
         <v>6</v>
       </c>
-      <c r="N18" s="234"/>
-      <c r="O18" s="235">
-        <v>7</v>
-      </c>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="239">
+      <c r="O18" s="227">
         <v>6</v>
       </c>
-      <c r="S18" s="240">
+      <c r="P18" s="226"/>
+      <c r="Q18" s="228">
+        <v>6</v>
+      </c>
+      <c r="R18" s="231"/>
+      <c r="S18" s="232">
         <f>SUM(C19:R19)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="233"/>
-      <c r="U18" s="237"/>
-      <c r="V18" s="235"/>
-      <c r="W18" s="237"/>
-      <c r="X18" s="238"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="236"/>
-      <c r="AA18" s="239"/>
-      <c r="AB18" s="242">
+      <c r="T18" s="225"/>
+      <c r="U18" s="229"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="229"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="226"/>
+      <c r="Z18" s="228"/>
+      <c r="AA18" s="231"/>
+      <c r="AB18" s="233">
         <f>SUM(T19:AA19)</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="236"/>
-      <c r="AD18" s="237"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="237"/>
-      <c r="AG18" s="242">
+      <c r="AC18" s="228"/>
+      <c r="AD18" s="229"/>
+      <c r="AE18" s="230"/>
+      <c r="AF18" s="229"/>
+      <c r="AG18" s="233">
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="243"/>
-      <c r="AI18" s="244"/>
-      <c r="AJ18" s="242">
+      <c r="AH18" s="234"/>
+      <c r="AI18" s="235"/>
+      <c r="AJ18" s="233">
         <f>AH19</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="245">
+      <c r="AK18" s="236">
         <f>MAX($AL$10:$AL$82) - AL18</f>
         <v>0</v>
       </c>
-      <c r="AL18" s="140">
+      <c r="AL18" s="139">
         <f>$S18+$AB18+$AG18+$AJ18</f>
         <v>0</v>
       </c>
@@ -5352,69 +5352,69 @@
         <f>(IF($C18&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C18=$C$6+$D$6,$O$91,0),0),0)+IF($D18&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D18=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="166"/>
-      <c r="E19" s="137">
+      <c r="D19" s="165"/>
+      <c r="E19" s="136">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E18=$E$6+$F$6,$O$91,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F18=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="166"/>
-      <c r="G19" s="137">
+      <c r="F19" s="165"/>
+      <c r="G19" s="136">
         <f>(IF($G18&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G18=$G$6+$H$6,$O$91,0),0),0)+IF($H18&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H18=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="137">
+      <c r="H19" s="165"/>
+      <c r="I19" s="136">
         <f>(IF($I18&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I18=$I$6+$J$6,$O$91,0),0),0)+IF($J18&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J18=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J19" s="167"/>
-      <c r="K19" s="168">
+      <c r="J19" s="166"/>
+      <c r="K19" s="167">
         <f>(IF($K18&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K18=$K$6+$L$6,$O$91,0),0),0)+IF($L18&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L18=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L19" s="166"/>
-      <c r="M19" s="137">
+      <c r="L19" s="165"/>
+      <c r="M19" s="136">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M18=$M$6+$N$6,$O$91,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N18=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="166"/>
-      <c r="O19" s="137">
+      <c r="N19" s="165"/>
+      <c r="O19" s="136">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O18=$O$6+$P$6,$O$91,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P18=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="166"/>
-      <c r="Q19" s="137">
+      <c r="P19" s="165"/>
+      <c r="Q19" s="136">
         <f>(IF($Q18&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q18=$Q$6+$R$6,$O$91,0),0),0)+IF($R18&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R18=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R19" s="169"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="171"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="175"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="176"/>
-      <c r="AB19" s="170"/>
-      <c r="AC19" s="177"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="177"/>
-      <c r="AG19" s="170"/>
-      <c r="AH19" s="171"/>
-      <c r="AI19" s="176"/>
-      <c r="AJ19" s="170"/>
-      <c r="AK19" s="178">
+      <c r="R19" s="168"/>
+      <c r="S19" s="169"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="171"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="176"/>
+      <c r="AD19" s="173"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="176"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="175"/>
+      <c r="AJ19" s="169"/>
+      <c r="AK19" s="177">
         <f>MAX($AL$10:$AL$82) - AL19</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="139"/>
+      <c r="AL19" s="138"/>
     </row>
     <row r="20" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="130"/>
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="134">
@@ -5513,7 +5513,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S20" s="163"/>
+      <c r="S20" s="162"/>
       <c r="T20" s="134"/>
       <c r="U20" s="134"/>
       <c r="V20" s="134"/>
@@ -5522,24 +5522,24 @@
       <c r="Y20" s="134"/>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134"/>
-      <c r="AB20" s="163"/>
+      <c r="AB20" s="162"/>
       <c r="AC20" s="134"/>
       <c r="AD20" s="134"/>
       <c r="AE20" s="134"/>
       <c r="AF20" s="134"/>
-      <c r="AG20" s="163"/>
+      <c r="AG20" s="162"/>
       <c r="AH20" s="134"/>
       <c r="AI20" s="134"/>
-      <c r="AJ20" s="163"/>
-      <c r="AK20" s="164">
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="163">
         <f>SUM(C20:AI20)</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="141"/>
+      <c r="AL20" s="140"/>
     </row>
     <row r="21" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="130"/>
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="134">
@@ -5638,7 +5638,7 @@
 IF(R18 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S21" s="163"/>
+      <c r="S21" s="162"/>
       <c r="T21" s="134"/>
       <c r="U21" s="134"/>
       <c r="V21" s="134"/>
@@ -5647,20 +5647,20 @@
       <c r="Y21" s="134"/>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134"/>
-      <c r="AB21" s="163"/>
+      <c r="AB21" s="162"/>
       <c r="AC21" s="134"/>
       <c r="AD21" s="134"/>
       <c r="AE21" s="134"/>
       <c r="AF21" s="134"/>
-      <c r="AG21" s="163"/>
+      <c r="AG21" s="162"/>
       <c r="AH21" s="134"/>
       <c r="AI21" s="134"/>
-      <c r="AJ21" s="163"/>
-      <c r="AK21" s="164">
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="163">
         <f>SUM(C21:AI21)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="141"/>
+      <c r="AL21" s="140"/>
     </row>
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="130">
@@ -5668,41 +5668,41 @@
         <v>1</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="47">
+        <v>5</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46">
+        <v>7</v>
+      </c>
+      <c r="G22" s="49">
         <v>4</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="45">
-        <v>4</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="49">
-        <v>6</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="45"/>
       <c r="J22" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22" s="50">
         <v>6</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N22" s="46"/>
       <c r="O22" s="45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="51">
         <v>6</v>
       </c>
-      <c r="S22" s="142">
+      <c r="S22" s="139">
         <f>SUM(C23:R23)</f>
         <v>0</v>
       </c>
@@ -5711,24 +5711,24 @@
       <c r="V22" s="45"/>
       <c r="W22" s="48"/>
       <c r="X22" s="50"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="131"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="49"/>
       <c r="AA22" s="51"/>
-      <c r="AB22" s="142">
+      <c r="AB22" s="139">
         <f>SUM(T23:AA23)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="49"/>
-      <c r="AD22" s="144"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="50"/>
       <c r="AF22" s="48"/>
-      <c r="AG22" s="142">
+      <c r="AG22" s="139">
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="44"/>
       <c r="AI22" s="58"/>
-      <c r="AJ22" s="142">
+      <c r="AJ22" s="139">
         <f>AH23</f>
         <v>0</v>
       </c>
@@ -5736,7 +5736,7 @@
         <f>MAX($AL$10:$AL$82) - AL22</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="142">
+      <c r="AL22" s="139">
         <f>$S22+$AB22+$AG22+$AJ22</f>
         <v>0</v>
       </c>
@@ -5747,73 +5747,73 @@
         <v>1</v>
       </c>
       <c r="B23" s="101"/>
-      <c r="C23" s="162">
+      <c r="C23" s="161">
         <f>(IF($C22&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C22=$C$6+$D$6,$O$91,0),0),0)+IF($D22&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D22=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="179"/>
-      <c r="E23" s="148">
+      <c r="D23" s="178"/>
+      <c r="E23" s="147">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E22=$E$6+$F$6,$O$91,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F22=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="179"/>
-      <c r="G23" s="148">
+      <c r="F23" s="178"/>
+      <c r="G23" s="147">
         <f>(IF($G22&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G22=$G$6+$H$6,$O$91,0),0),0)+IF($H22&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H22=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="179"/>
-      <c r="I23" s="148">
+      <c r="H23" s="178"/>
+      <c r="I23" s="147">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I22=$I$6+$J$6,$O$91,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J22=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J23" s="180"/>
-      <c r="K23" s="181">
+      <c r="J23" s="179"/>
+      <c r="K23" s="180">
         <f>(IF($K22&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K22=$K$6+$L$6,$O$91,0),0),0)+IF($L22&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L22=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L23" s="179"/>
-      <c r="M23" s="148">
+      <c r="L23" s="178"/>
+      <c r="M23" s="147">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M22=$M$6+$N$6,$O$91,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N22=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N23" s="179"/>
-      <c r="O23" s="148">
+      <c r="N23" s="178"/>
+      <c r="O23" s="147">
         <f>(IF($O22&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O22=$O$6+$P$6,$O$91,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P22=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="148">
+      <c r="P23" s="178"/>
+      <c r="Q23" s="147">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q22=$Q$6+$R$6,$O$91,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R22=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R23" s="182"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="171"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="175"/>
-      <c r="Y23" s="172"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="176"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="177"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="177"/>
-      <c r="AG23" s="170"/>
-      <c r="AH23" s="171"/>
-      <c r="AI23" s="176"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="178">
+      <c r="R23" s="181"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="170"/>
+      <c r="U23" s="171"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="174"/>
+      <c r="Y23" s="171"/>
+      <c r="Z23" s="172"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="174"/>
+      <c r="AF23" s="176"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="175"/>
+      <c r="AJ23" s="169"/>
+      <c r="AK23" s="177">
         <f>MAX($AL$10:$AL$82) - AL23</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="139"/>
+      <c r="AL23" s="138"/>
     </row>
     <row r="24" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="108"/>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="134">
@@ -5912,7 +5912,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="163"/>
+      <c r="S24" s="162"/>
       <c r="T24" s="134"/>
       <c r="U24" s="134"/>
       <c r="V24" s="134"/>
@@ -5921,24 +5921,24 @@
       <c r="Y24" s="134"/>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134"/>
-      <c r="AB24" s="163"/>
+      <c r="AB24" s="162"/>
       <c r="AC24" s="134"/>
       <c r="AD24" s="134"/>
       <c r="AE24" s="134"/>
       <c r="AF24" s="134"/>
-      <c r="AG24" s="163"/>
+      <c r="AG24" s="162"/>
       <c r="AH24" s="134"/>
       <c r="AI24" s="134"/>
-      <c r="AJ24" s="163"/>
-      <c r="AK24" s="164">
+      <c r="AJ24" s="162"/>
+      <c r="AK24" s="163">
         <f>SUM(C24:AI24)</f>
         <v>0</v>
       </c>
-      <c r="AL24" s="141"/>
+      <c r="AL24" s="140"/>
     </row>
     <row r="25" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="108"/>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="134">
@@ -6037,7 +6037,7 @@
 IF(R22 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S25" s="163"/>
+      <c r="S25" s="162"/>
       <c r="T25" s="134"/>
       <c r="U25" s="134"/>
       <c r="V25" s="134"/>
@@ -6046,96 +6046,96 @@
       <c r="Y25" s="134"/>
       <c r="Z25" s="134"/>
       <c r="AA25" s="134"/>
-      <c r="AB25" s="163"/>
+      <c r="AB25" s="162"/>
       <c r="AC25" s="134"/>
       <c r="AD25" s="134"/>
       <c r="AE25" s="134"/>
       <c r="AF25" s="134"/>
-      <c r="AG25" s="163"/>
+      <c r="AG25" s="162"/>
       <c r="AH25" s="134"/>
       <c r="AI25" s="134"/>
-      <c r="AJ25" s="163"/>
-      <c r="AK25" s="164">
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="163">
         <f>SUM(C25:AI25)</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="141"/>
+      <c r="AL25" s="140"/>
     </row>
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="217">
+      <c r="A26" s="209">
         <f>RANK(AL26,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B26" s="250" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="233">
+      <c r="B26" s="241" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="225">
+        <v>4</v>
+      </c>
+      <c r="D26" s="226"/>
+      <c r="E26" s="227">
+        <v>4</v>
+      </c>
+      <c r="F26" s="226"/>
+      <c r="G26" s="228">
         <v>6</v>
       </c>
-      <c r="D26" s="234"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="234">
-        <v>7</v>
-      </c>
-      <c r="G26" s="236">
-        <v>7</v>
-      </c>
-      <c r="H26" s="237"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="237">
+      <c r="H26" s="229"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="229">
         <v>6</v>
       </c>
-      <c r="K26" s="238">
+      <c r="K26" s="230">
         <v>6</v>
       </c>
-      <c r="L26" s="237"/>
-      <c r="M26" s="235">
-        <v>7</v>
-      </c>
-      <c r="N26" s="234"/>
-      <c r="O26" s="235">
+      <c r="L26" s="229"/>
+      <c r="M26" s="227">
         <v>5</v>
       </c>
-      <c r="P26" s="234"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="239">
+      <c r="N26" s="226"/>
+      <c r="O26" s="227">
         <v>6</v>
       </c>
-      <c r="S26" s="242">
+      <c r="P26" s="226"/>
+      <c r="Q26" s="228"/>
+      <c r="R26" s="231">
+        <v>6</v>
+      </c>
+      <c r="S26" s="233">
         <f>SUM(C27:R27)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="233"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="235"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="238"/>
-      <c r="Y26" s="234"/>
-      <c r="Z26" s="236"/>
-      <c r="AA26" s="239"/>
-      <c r="AB26" s="242">
+      <c r="T26" s="225"/>
+      <c r="U26" s="229"/>
+      <c r="V26" s="227"/>
+      <c r="W26" s="229"/>
+      <c r="X26" s="230"/>
+      <c r="Y26" s="226"/>
+      <c r="Z26" s="237"/>
+      <c r="AA26" s="231"/>
+      <c r="AB26" s="233">
         <f>SUM(T27:AA27)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="236"/>
-      <c r="AD26" s="237"/>
-      <c r="AE26" s="238"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="242">
+      <c r="AC26" s="228"/>
+      <c r="AD26" s="304"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="229"/>
+      <c r="AG26" s="233">
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="230"/>
-      <c r="AI26" s="231"/>
-      <c r="AJ26" s="242">
+      <c r="AH26" s="222"/>
+      <c r="AI26" s="223"/>
+      <c r="AJ26" s="233">
         <f>AH27</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="245">
+      <c r="AK26" s="236">
         <f>MAX($AL$10:$AL$82) - AL26</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="142">
+      <c r="AL26" s="141">
         <f>$S26+$AB26+$AG26+$AJ26</f>
         <v>0</v>
       </c>
@@ -6150,69 +6150,69 @@
         <f>(IF($C26&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C26=$C$6+$D$6,$O$91,0),0),0)+IF($D26&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D26=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="137">
+      <c r="D27" s="165"/>
+      <c r="E27" s="136">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E26=$E$6+$F$6,$O$91,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F26=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="137">
+      <c r="F27" s="165"/>
+      <c r="G27" s="136">
         <f>(IF($G26&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G26=$G$6+$H$6,$O$91,0),0),0)+IF($H26&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H26=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="137">
+      <c r="H27" s="165"/>
+      <c r="I27" s="136">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I26=$I$6+$J$6,$O$91,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J26=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J27" s="167"/>
-      <c r="K27" s="168">
+      <c r="J27" s="166"/>
+      <c r="K27" s="167">
         <f>(IF($K26&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K26=$K$6+$L$6,$O$91,0),0),0)+IF($L26&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L26=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L27" s="166"/>
-      <c r="M27" s="137">
+      <c r="L27" s="165"/>
+      <c r="M27" s="136">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M26=$M$6+$N$6,$O$91,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N26=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N27" s="166"/>
-      <c r="O27" s="137">
+      <c r="N27" s="165"/>
+      <c r="O27" s="136">
         <f>(IF($O26&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O26=$O$6+$P$6,$O$91,0),0),0)+IF($P26&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P26=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="137">
+      <c r="P27" s="165"/>
+      <c r="Q27" s="136">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q26=$Q$6+$R$6,$O$91,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R26=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R27" s="169"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="175"/>
-      <c r="Y27" s="172"/>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="177"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="177"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="177"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="177"/>
-      <c r="AI27" s="176"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="178">
+      <c r="R27" s="168"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="171"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="171"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="176"/>
+      <c r="AB27" s="182"/>
+      <c r="AC27" s="176"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="174"/>
+      <c r="AF27" s="176"/>
+      <c r="AG27" s="182"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="175"/>
+      <c r="AJ27" s="169"/>
+      <c r="AK27" s="177">
         <f>MAX($AL$10:$AL$82) - AL27</f>
         <v>0</v>
       </c>
-      <c r="AL27" s="139"/>
+      <c r="AL27" s="138"/>
     </row>
     <row r="28" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="108"/>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="134">
@@ -6311,7 +6311,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S28" s="163"/>
+      <c r="S28" s="162"/>
       <c r="T28" s="134"/>
       <c r="U28" s="134"/>
       <c r="V28" s="134"/>
@@ -6320,24 +6320,24 @@
       <c r="Y28" s="134"/>
       <c r="Z28" s="134"/>
       <c r="AA28" s="134"/>
-      <c r="AB28" s="163"/>
+      <c r="AB28" s="162"/>
       <c r="AC28" s="134"/>
       <c r="AD28" s="134"/>
       <c r="AE28" s="134"/>
       <c r="AF28" s="134"/>
-      <c r="AG28" s="163"/>
+      <c r="AG28" s="162"/>
       <c r="AH28" s="134"/>
       <c r="AI28" s="134"/>
-      <c r="AJ28" s="163"/>
-      <c r="AK28" s="164">
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="163">
         <f>SUM(C28:AI28)</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="141"/>
+      <c r="AL28" s="140"/>
     </row>
     <row r="29" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="108"/>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="134">
@@ -6436,7 +6436,7 @@
 IF(R26 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S29" s="163"/>
+      <c r="S29" s="162"/>
       <c r="T29" s="134"/>
       <c r="U29" s="134"/>
       <c r="V29" s="134"/>
@@ -6445,20 +6445,20 @@
       <c r="Y29" s="134"/>
       <c r="Z29" s="134"/>
       <c r="AA29" s="134"/>
-      <c r="AB29" s="163"/>
+      <c r="AB29" s="162"/>
       <c r="AC29" s="134"/>
       <c r="AD29" s="134"/>
       <c r="AE29" s="134"/>
       <c r="AF29" s="134"/>
-      <c r="AG29" s="163"/>
+      <c r="AG29" s="162"/>
       <c r="AH29" s="134"/>
       <c r="AI29" s="134"/>
-      <c r="AJ29" s="163"/>
-      <c r="AK29" s="164">
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="163">
         <f>SUM(C29:AI29)</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="141"/>
+      <c r="AL29" s="140"/>
     </row>
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="130">
@@ -6466,41 +6466,41 @@
         <v>1</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="210">
+        <v>69</v>
+      </c>
+      <c r="C30" s="47">
+        <v>6</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46">
+        <v>7</v>
+      </c>
+      <c r="G30" s="49">
+        <v>7</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="48">
+        <v>6</v>
+      </c>
+      <c r="K30" s="50">
+        <v>6</v>
+      </c>
+      <c r="L30" s="48"/>
+      <c r="M30" s="45">
+        <v>7</v>
+      </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="45">
         <v>5</v>
       </c>
-      <c r="D30" s="214"/>
-      <c r="E30" s="211">
+      <c r="P30" s="46"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="51">
         <v>6</v>
       </c>
-      <c r="F30" s="214"/>
-      <c r="G30" s="212">
-        <v>5</v>
-      </c>
-      <c r="H30" s="215"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="215">
-        <v>6</v>
-      </c>
-      <c r="K30" s="213">
-        <v>6</v>
-      </c>
-      <c r="L30" s="215"/>
-      <c r="M30" s="211">
-        <v>7</v>
-      </c>
-      <c r="N30" s="214"/>
-      <c r="O30" s="211">
-        <v>6</v>
-      </c>
-      <c r="P30" s="214"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="216">
-        <v>6</v>
-      </c>
-      <c r="S30" s="142">
+      <c r="S30" s="139">
         <f>SUM(C31:R31)</f>
         <v>0</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="Y30" s="46"/>
       <c r="Z30" s="49"/>
       <c r="AA30" s="48"/>
-      <c r="AB30" s="142">
+      <c r="AB30" s="139">
         <f>SUM(T31:AA31)</f>
         <v>0</v>
       </c>
@@ -6520,13 +6520,13 @@
       <c r="AD30" s="48"/>
       <c r="AE30" s="50"/>
       <c r="AF30" s="48"/>
-      <c r="AG30" s="142">
+      <c r="AG30" s="139">
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
       <c r="AH30" s="113"/>
       <c r="AI30" s="58"/>
-      <c r="AJ30" s="142">
+      <c r="AJ30" s="139">
         <f>AH31</f>
         <v>0</v>
       </c>
@@ -6534,7 +6534,7 @@
         <f>MAX($AL$10:$AL$82) - AL30</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="142">
+      <c r="AL30" s="141">
         <f>$S30+$AB30+$AG30+$AJ30</f>
         <v>0</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="88"/>
-      <c r="S31" s="139"/>
+      <c r="S31" s="138"/>
       <c r="T31" s="60"/>
       <c r="U31" s="61"/>
       <c r="V31" s="62"/>
@@ -6594,24 +6594,24 @@
       <c r="Y31" s="61"/>
       <c r="Z31" s="132"/>
       <c r="AA31" s="94"/>
-      <c r="AB31" s="139"/>
+      <c r="AB31" s="138"/>
       <c r="AC31" s="94"/>
       <c r="AD31" s="63"/>
       <c r="AE31" s="64"/>
       <c r="AF31" s="94"/>
-      <c r="AG31" s="139"/>
+      <c r="AG31" s="138"/>
       <c r="AH31" s="94"/>
       <c r="AI31" s="65"/>
-      <c r="AJ31" s="139"/>
+      <c r="AJ31" s="138"/>
       <c r="AK31" s="101">
         <f>MAX($AL$10:$AL$82) - AL31</f>
         <v>0</v>
       </c>
-      <c r="AL31" s="139"/>
+      <c r="AL31" s="138"/>
     </row>
     <row r="32" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="108"/>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="134">
@@ -6710,7 +6710,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S32" s="163"/>
+      <c r="S32" s="162"/>
       <c r="T32" s="134"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
@@ -6719,24 +6719,24 @@
       <c r="Y32" s="134"/>
       <c r="Z32" s="134"/>
       <c r="AA32" s="134"/>
-      <c r="AB32" s="163"/>
+      <c r="AB32" s="162"/>
       <c r="AC32" s="134"/>
       <c r="AD32" s="134"/>
       <c r="AE32" s="134"/>
       <c r="AF32" s="134"/>
-      <c r="AG32" s="163"/>
+      <c r="AG32" s="162"/>
       <c r="AH32" s="134"/>
       <c r="AI32" s="134"/>
-      <c r="AJ32" s="163"/>
-      <c r="AK32" s="164">
+      <c r="AJ32" s="162"/>
+      <c r="AK32" s="163">
         <f>SUM(C32:AI32)</f>
         <v>0</v>
       </c>
-      <c r="AL32" s="141"/>
+      <c r="AL32" s="140"/>
     </row>
     <row r="33" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="108"/>
-      <c r="B33" s="147" t="s">
+      <c r="B33" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="134">
@@ -6835,7 +6835,7 @@
 IF(R30 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S33" s="163"/>
+      <c r="S33" s="162"/>
       <c r="T33" s="134"/>
       <c r="U33" s="134"/>
       <c r="V33" s="134"/>
@@ -6844,96 +6844,96 @@
       <c r="Y33" s="134"/>
       <c r="Z33" s="134"/>
       <c r="AA33" s="134"/>
-      <c r="AB33" s="163"/>
+      <c r="AB33" s="162"/>
       <c r="AC33" s="134"/>
       <c r="AD33" s="134"/>
       <c r="AE33" s="134"/>
       <c r="AF33" s="134"/>
-      <c r="AG33" s="163"/>
+      <c r="AG33" s="162"/>
       <c r="AH33" s="134"/>
       <c r="AI33" s="134"/>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="164">
+      <c r="AJ33" s="162"/>
+      <c r="AK33" s="163">
         <f>SUM(C33:AI33)</f>
         <v>0</v>
       </c>
-      <c r="AL33" s="141"/>
+      <c r="AL33" s="140"/>
     </row>
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="217">
+      <c r="A34" s="209">
         <f>RANK(AL34,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B34" s="250" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="233">
+      <c r="B34" s="241" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="297">
         <v>5</v>
       </c>
-      <c r="D34" s="234"/>
-      <c r="E34" s="235">
+      <c r="D34" s="298"/>
+      <c r="E34" s="299">
+        <v>6</v>
+      </c>
+      <c r="F34" s="298"/>
+      <c r="G34" s="300">
+        <v>5</v>
+      </c>
+      <c r="H34" s="301"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="301">
+        <v>6</v>
+      </c>
+      <c r="K34" s="302">
+        <v>6</v>
+      </c>
+      <c r="L34" s="301"/>
+      <c r="M34" s="299">
         <v>7</v>
       </c>
-      <c r="F34" s="234"/>
-      <c r="G34" s="236">
-        <v>5</v>
-      </c>
-      <c r="H34" s="237"/>
-      <c r="I34" s="235">
+      <c r="N34" s="298"/>
+      <c r="O34" s="299">
         <v>6</v>
       </c>
-      <c r="J34" s="237"/>
-      <c r="K34" s="238">
-        <v>5</v>
-      </c>
-      <c r="L34" s="237"/>
-      <c r="M34" s="235">
+      <c r="P34" s="298"/>
+      <c r="Q34" s="300"/>
+      <c r="R34" s="303">
         <v>6</v>
       </c>
-      <c r="N34" s="234"/>
-      <c r="O34" s="235">
-        <v>5</v>
-      </c>
-      <c r="P34" s="234"/>
-      <c r="Q34" s="236">
-        <v>7</v>
-      </c>
-      <c r="R34" s="239"/>
-      <c r="S34" s="242">
+      <c r="S34" s="233">
         <f>SUM(C35:R35)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="233"/>
-      <c r="U34" s="237"/>
-      <c r="V34" s="235"/>
-      <c r="W34" s="237"/>
-      <c r="X34" s="238"/>
-      <c r="Y34" s="234"/>
-      <c r="Z34" s="246"/>
-      <c r="AA34" s="237"/>
-      <c r="AB34" s="242">
+      <c r="T34" s="225"/>
+      <c r="U34" s="229"/>
+      <c r="V34" s="227"/>
+      <c r="W34" s="229"/>
+      <c r="X34" s="230"/>
+      <c r="Y34" s="226"/>
+      <c r="Z34" s="228"/>
+      <c r="AA34" s="229"/>
+      <c r="AB34" s="233">
         <f>SUM(T35:AA35)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="236"/>
-      <c r="AD34" s="237"/>
-      <c r="AE34" s="238"/>
-      <c r="AF34" s="237"/>
-      <c r="AG34" s="242">
+      <c r="AC34" s="228"/>
+      <c r="AD34" s="229"/>
+      <c r="AE34" s="230"/>
+      <c r="AF34" s="229"/>
+      <c r="AG34" s="233">
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="247"/>
-      <c r="AI34" s="231"/>
-      <c r="AJ34" s="242">
+      <c r="AH34" s="238"/>
+      <c r="AI34" s="223"/>
+      <c r="AJ34" s="233">
         <f>AH35</f>
         <v>0</v>
       </c>
-      <c r="AK34" s="245">
+      <c r="AK34" s="236">
         <f>MAX($AL$10:$AL$82) - AL34</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="142">
+      <c r="AL34" s="141">
         <f>$S34+$AB34+$AG34+$AJ34</f>
         <v>0</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="88"/>
-      <c r="S35" s="139"/>
+      <c r="S35" s="138"/>
       <c r="T35" s="60"/>
       <c r="U35" s="61"/>
       <c r="V35" s="62"/>
@@ -6993,24 +6993,24 @@
       <c r="Y35" s="61"/>
       <c r="Z35" s="62"/>
       <c r="AA35" s="94"/>
-      <c r="AB35" s="139"/>
+      <c r="AB35" s="138"/>
       <c r="AC35" s="94"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
       <c r="AF35" s="94"/>
-      <c r="AG35" s="139"/>
+      <c r="AG35" s="138"/>
       <c r="AH35" s="94"/>
       <c r="AI35" s="65"/>
-      <c r="AJ35" s="139"/>
+      <c r="AJ35" s="138"/>
       <c r="AK35" s="101">
         <f>MAX($AL$10:$AL$82) - AL35</f>
         <v>0</v>
       </c>
-      <c r="AL35" s="139"/>
+      <c r="AL35" s="138"/>
     </row>
     <row r="36" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="108"/>
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="134">
@@ -7109,7 +7109,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S36" s="163"/>
+      <c r="S36" s="162"/>
       <c r="T36" s="134"/>
       <c r="U36" s="134"/>
       <c r="V36" s="134"/>
@@ -7118,24 +7118,24 @@
       <c r="Y36" s="134"/>
       <c r="Z36" s="134"/>
       <c r="AA36" s="134"/>
-      <c r="AB36" s="163"/>
+      <c r="AB36" s="162"/>
       <c r="AC36" s="134"/>
       <c r="AD36" s="134"/>
       <c r="AE36" s="134"/>
       <c r="AF36" s="134"/>
-      <c r="AG36" s="163"/>
+      <c r="AG36" s="162"/>
       <c r="AH36" s="134"/>
       <c r="AI36" s="134"/>
-      <c r="AJ36" s="163"/>
-      <c r="AK36" s="164">
+      <c r="AJ36" s="162"/>
+      <c r="AK36" s="163">
         <f>SUM(C36:AI36)</f>
         <v>0</v>
       </c>
-      <c r="AL36" s="141"/>
+      <c r="AL36" s="140"/>
     </row>
     <row r="37" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="108"/>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="134">
@@ -7234,7 +7234,7 @@
 IF(R34 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S37" s="163"/>
+      <c r="S37" s="162"/>
       <c r="T37" s="134"/>
       <c r="U37" s="134"/>
       <c r="V37" s="134"/>
@@ -7243,20 +7243,20 @@
       <c r="Y37" s="134"/>
       <c r="Z37" s="134"/>
       <c r="AA37" s="134"/>
-      <c r="AB37" s="163"/>
+      <c r="AB37" s="162"/>
       <c r="AC37" s="134"/>
       <c r="AD37" s="134"/>
       <c r="AE37" s="134"/>
       <c r="AF37" s="134"/>
-      <c r="AG37" s="163"/>
+      <c r="AG37" s="162"/>
       <c r="AH37" s="134"/>
       <c r="AI37" s="134"/>
-      <c r="AJ37" s="163"/>
-      <c r="AK37" s="164">
+      <c r="AJ37" s="162"/>
+      <c r="AK37" s="163">
         <f>SUM(C37:AI37)</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="141"/>
+      <c r="AL37" s="140"/>
     </row>
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="130">
@@ -7264,45 +7264,45 @@
         <v>1</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C38" s="47">
         <v>5</v>
       </c>
       <c r="D38" s="46"/>
-      <c r="E38" s="45">
-        <v>5</v>
-      </c>
-      <c r="F38" s="46"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46">
+        <v>7</v>
+      </c>
       <c r="G38" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="45"/>
       <c r="J38" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="50">
         <v>5</v>
       </c>
       <c r="L38" s="48"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="46">
+      <c r="M38" s="45">
         <v>6</v>
       </c>
+      <c r="N38" s="46"/>
       <c r="O38" s="45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P38" s="46"/>
       <c r="Q38" s="49"/>
       <c r="R38" s="51">
-        <v>6</v>
-      </c>
-      <c r="S38" s="140">
+        <v>7</v>
+      </c>
+      <c r="S38" s="139">
         <f>SUM(C39:R39)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="47"/>
+      <c r="T38" s="133"/>
       <c r="U38" s="48"/>
       <c r="V38" s="45"/>
       <c r="W38" s="48"/>
@@ -7310,7 +7310,7 @@
       <c r="Y38" s="46"/>
       <c r="Z38" s="49"/>
       <c r="AA38" s="48"/>
-      <c r="AB38" s="140">
+      <c r="AB38" s="139">
         <f>SUM(T39:AA39)</f>
         <v>0</v>
       </c>
@@ -7318,13 +7318,13 @@
       <c r="AD38" s="48"/>
       <c r="AE38" s="50"/>
       <c r="AF38" s="48"/>
-      <c r="AG38" s="140">
+      <c r="AG38" s="139">
         <f>SUM(AC39:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="146"/>
+      <c r="AH38" s="113"/>
       <c r="AI38" s="58"/>
-      <c r="AJ38" s="140">
+      <c r="AJ38" s="139">
         <f>AH39</f>
         <v>0</v>
       </c>
@@ -7332,7 +7332,7 @@
         <f>MAX($AL$10:$AL$82) - AL38</f>
         <v>0</v>
       </c>
-      <c r="AL38" s="140">
+      <c r="AL38" s="141">
         <f>$S38+$AB38+$AG38+$AJ38</f>
         <v>0</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="88"/>
-      <c r="S39" s="139"/>
+      <c r="S39" s="138"/>
       <c r="T39" s="60"/>
       <c r="U39" s="61"/>
       <c r="V39" s="62"/>
@@ -7392,24 +7392,24 @@
       <c r="Y39" s="61"/>
       <c r="Z39" s="62"/>
       <c r="AA39" s="94"/>
-      <c r="AB39" s="139"/>
+      <c r="AB39" s="138"/>
       <c r="AC39" s="94"/>
       <c r="AD39" s="63"/>
       <c r="AE39" s="64"/>
       <c r="AF39" s="94"/>
-      <c r="AG39" s="139"/>
+      <c r="AG39" s="138"/>
       <c r="AH39" s="94"/>
       <c r="AI39" s="65"/>
-      <c r="AJ39" s="139"/>
+      <c r="AJ39" s="138"/>
       <c r="AK39" s="101">
         <f>MAX($AL$10:$AL$82) - AL39</f>
         <v>0</v>
       </c>
-      <c r="AL39" s="139"/>
+      <c r="AL39" s="138"/>
     </row>
     <row r="40" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="108"/>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="134">
@@ -7508,7 +7508,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S40" s="163"/>
+      <c r="S40" s="162"/>
       <c r="T40" s="134"/>
       <c r="U40" s="134"/>
       <c r="V40" s="134"/>
@@ -7517,24 +7517,24 @@
       <c r="Y40" s="134"/>
       <c r="Z40" s="134"/>
       <c r="AA40" s="134"/>
-      <c r="AB40" s="163"/>
+      <c r="AB40" s="162"/>
       <c r="AC40" s="134"/>
       <c r="AD40" s="134"/>
       <c r="AE40" s="134"/>
       <c r="AF40" s="134"/>
-      <c r="AG40" s="163"/>
+      <c r="AG40" s="162"/>
       <c r="AH40" s="134"/>
       <c r="AI40" s="134"/>
-      <c r="AJ40" s="163"/>
-      <c r="AK40" s="164">
+      <c r="AJ40" s="162"/>
+      <c r="AK40" s="163">
         <f>SUM(C40:AI40)</f>
         <v>0</v>
       </c>
-      <c r="AL40" s="141"/>
+      <c r="AL40" s="140"/>
     </row>
     <row r="41" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="108"/>
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="134">
@@ -7633,7 +7633,7 @@
 IF(R38 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S41" s="163"/>
+      <c r="S41" s="162"/>
       <c r="T41" s="134"/>
       <c r="U41" s="134"/>
       <c r="V41" s="134"/>
@@ -7642,96 +7642,96 @@
       <c r="Y41" s="134"/>
       <c r="Z41" s="134"/>
       <c r="AA41" s="134"/>
-      <c r="AB41" s="163"/>
+      <c r="AB41" s="162"/>
       <c r="AC41" s="134"/>
       <c r="AD41" s="134"/>
       <c r="AE41" s="134"/>
       <c r="AF41" s="134"/>
-      <c r="AG41" s="163"/>
+      <c r="AG41" s="162"/>
       <c r="AH41" s="134"/>
       <c r="AI41" s="134"/>
-      <c r="AJ41" s="163"/>
-      <c r="AK41" s="164">
+      <c r="AJ41" s="162"/>
+      <c r="AK41" s="163">
         <f>SUM(C41:AI41)</f>
         <v>0</v>
       </c>
-      <c r="AL41" s="141"/>
+      <c r="AL41" s="140"/>
     </row>
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="217">
+      <c r="A42" s="209">
         <f>RANK(AL42,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B42" s="250" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="233">
+      <c r="B42" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="225">
         <v>5</v>
       </c>
-      <c r="D42" s="234"/>
-      <c r="E42" s="235">
+      <c r="D42" s="226"/>
+      <c r="E42" s="227">
         <v>7</v>
       </c>
-      <c r="F42" s="234"/>
-      <c r="G42" s="236">
-        <v>4</v>
-      </c>
-      <c r="H42" s="237"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="237">
+      <c r="F42" s="226"/>
+      <c r="G42" s="228">
+        <v>5</v>
+      </c>
+      <c r="H42" s="229"/>
+      <c r="I42" s="227">
         <v>6</v>
       </c>
-      <c r="K42" s="238">
+      <c r="J42" s="229"/>
+      <c r="K42" s="230">
         <v>5</v>
       </c>
-      <c r="L42" s="237"/>
-      <c r="M42" s="235"/>
-      <c r="N42" s="234">
+      <c r="L42" s="229"/>
+      <c r="M42" s="227">
         <v>6</v>
       </c>
-      <c r="O42" s="235">
+      <c r="N42" s="226"/>
+      <c r="O42" s="227">
+        <v>5</v>
+      </c>
+      <c r="P42" s="226"/>
+      <c r="Q42" s="228">
         <v>7</v>
       </c>
-      <c r="P42" s="234"/>
-      <c r="Q42" s="236">
-        <v>6</v>
-      </c>
-      <c r="R42" s="239"/>
-      <c r="S42" s="242">
+      <c r="R42" s="231"/>
+      <c r="S42" s="233">
         <f>SUM(C43:R43)</f>
         <v>0</v>
       </c>
-      <c r="T42" s="233"/>
-      <c r="U42" s="237"/>
-      <c r="V42" s="235"/>
-      <c r="W42" s="237"/>
-      <c r="X42" s="238"/>
-      <c r="Y42" s="234"/>
-      <c r="Z42" s="236"/>
-      <c r="AA42" s="237"/>
-      <c r="AB42" s="242">
+      <c r="T42" s="225"/>
+      <c r="U42" s="229"/>
+      <c r="V42" s="227"/>
+      <c r="W42" s="229"/>
+      <c r="X42" s="230"/>
+      <c r="Y42" s="226"/>
+      <c r="Z42" s="237"/>
+      <c r="AA42" s="229"/>
+      <c r="AB42" s="233">
         <f>SUM(T43:AA43)</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="236"/>
-      <c r="AD42" s="237"/>
-      <c r="AE42" s="238"/>
-      <c r="AF42" s="237"/>
-      <c r="AG42" s="242">
+      <c r="AC42" s="228"/>
+      <c r="AD42" s="229"/>
+      <c r="AE42" s="230"/>
+      <c r="AF42" s="229"/>
+      <c r="AG42" s="233">
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="248"/>
-      <c r="AI42" s="231"/>
-      <c r="AJ42" s="242">
+      <c r="AH42" s="238"/>
+      <c r="AI42" s="223"/>
+      <c r="AJ42" s="233">
         <f>AH43</f>
         <v>0</v>
       </c>
-      <c r="AK42" s="245">
+      <c r="AK42" s="236">
         <f>MAX($AL$10:$AL$82) - AL42</f>
         <v>0</v>
       </c>
-      <c r="AL42" s="142">
+      <c r="AL42" s="141">
         <f>$S42+$AB42+$AG42+$AJ42</f>
         <v>0</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="88"/>
-      <c r="S43" s="139"/>
+      <c r="S43" s="138"/>
       <c r="T43" s="60"/>
       <c r="U43" s="61"/>
       <c r="V43" s="62"/>
@@ -7791,24 +7791,24 @@
       <c r="Y43" s="61"/>
       <c r="Z43" s="132"/>
       <c r="AA43" s="94"/>
-      <c r="AB43" s="139"/>
+      <c r="AB43" s="138"/>
       <c r="AC43" s="94"/>
       <c r="AD43" s="63"/>
       <c r="AE43" s="64"/>
       <c r="AF43" s="94"/>
-      <c r="AG43" s="139"/>
+      <c r="AG43" s="138"/>
       <c r="AH43" s="94"/>
       <c r="AI43" s="65"/>
-      <c r="AJ43" s="139"/>
+      <c r="AJ43" s="138"/>
       <c r="AK43" s="124">
         <f>MAX($AL$10:$AL$82) - AL43</f>
         <v>0</v>
       </c>
-      <c r="AL43" s="139"/>
+      <c r="AL43" s="138"/>
     </row>
     <row r="44" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="108"/>
-      <c r="B44" s="147" t="s">
+      <c r="B44" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="134">
@@ -7907,7 +7907,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S44" s="163"/>
+      <c r="S44" s="162"/>
       <c r="T44" s="134"/>
       <c r="U44" s="134"/>
       <c r="V44" s="134"/>
@@ -7916,24 +7916,24 @@
       <c r="Y44" s="134"/>
       <c r="Z44" s="134"/>
       <c r="AA44" s="134"/>
-      <c r="AB44" s="163"/>
+      <c r="AB44" s="162"/>
       <c r="AC44" s="134"/>
       <c r="AD44" s="134"/>
       <c r="AE44" s="134"/>
       <c r="AF44" s="134"/>
-      <c r="AG44" s="163"/>
+      <c r="AG44" s="162"/>
       <c r="AH44" s="134"/>
       <c r="AI44" s="134"/>
-      <c r="AJ44" s="163"/>
-      <c r="AK44" s="164">
+      <c r="AJ44" s="162"/>
+      <c r="AK44" s="163">
         <f>SUM(C44:AI44)</f>
         <v>0</v>
       </c>
-      <c r="AL44" s="141"/>
+      <c r="AL44" s="140"/>
     </row>
     <row r="45" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="108"/>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="134">
@@ -8032,7 +8032,7 @@
 IF(R42 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S45" s="163"/>
+      <c r="S45" s="162"/>
       <c r="T45" s="134"/>
       <c r="U45" s="134"/>
       <c r="V45" s="134"/>
@@ -8041,20 +8041,20 @@
       <c r="Y45" s="134"/>
       <c r="Z45" s="134"/>
       <c r="AA45" s="134"/>
-      <c r="AB45" s="163"/>
+      <c r="AB45" s="162"/>
       <c r="AC45" s="134"/>
       <c r="AD45" s="134"/>
       <c r="AE45" s="134"/>
       <c r="AF45" s="134"/>
-      <c r="AG45" s="163"/>
+      <c r="AG45" s="162"/>
       <c r="AH45" s="134"/>
       <c r="AI45" s="134"/>
-      <c r="AJ45" s="163"/>
-      <c r="AK45" s="164">
+      <c r="AJ45" s="162"/>
+      <c r="AK45" s="163">
         <f>SUM(C45:AI45)</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="141"/>
+      <c r="AL45" s="140"/>
     </row>
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="130">
@@ -8062,39 +8062,41 @@
         <v>1</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="47">
         <v>5</v>
       </c>
       <c r="D46" s="46"/>
       <c r="E46" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" s="46"/>
       <c r="G46" s="49">
+        <v>5</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="48">
         <v>6</v>
       </c>
-      <c r="H46" s="48"/>
-      <c r="I46" s="45">
+      <c r="K46" s="50">
+        <v>5</v>
+      </c>
+      <c r="L46" s="48"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="46">
         <v>6</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="50">
-        <v>4</v>
-      </c>
-      <c r="L46" s="48"/>
-      <c r="M46" s="45">
+      <c r="O46" s="45">
         <v>5</v>
       </c>
-      <c r="N46" s="46"/>
-      <c r="O46" s="45"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="49"/>
       <c r="R46" s="51">
-        <v>7</v>
-      </c>
-      <c r="S46" s="140">
+        <v>6</v>
+      </c>
+      <c r="S46" s="139">
         <f>SUM(C47:R47)</f>
         <v>0</v>
       </c>
@@ -8103,24 +8105,24 @@
       <c r="V46" s="45"/>
       <c r="W46" s="48"/>
       <c r="X46" s="50"/>
-      <c r="Y46" s="138"/>
+      <c r="Y46" s="46"/>
       <c r="Z46" s="49"/>
       <c r="AA46" s="48"/>
-      <c r="AB46" s="140">
+      <c r="AB46" s="139">
         <f>SUM(T47:AA47)</f>
         <v>0</v>
       </c>
       <c r="AC46" s="49"/>
-      <c r="AD46" s="144"/>
+      <c r="AD46" s="48"/>
       <c r="AE46" s="50"/>
       <c r="AF46" s="48"/>
-      <c r="AG46" s="140">
+      <c r="AG46" s="139">
         <f>SUM(AC47:AF47)</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="113"/>
+      <c r="AH46" s="145"/>
       <c r="AI46" s="58"/>
-      <c r="AJ46" s="140">
+      <c r="AJ46" s="139">
         <f>AH47</f>
         <v>0</v>
       </c>
@@ -8128,7 +8130,7 @@
         <f>MAX($AL$10:$AL$82) - AL46</f>
         <v>0</v>
       </c>
-      <c r="AL46" s="140">
+      <c r="AL46" s="139">
         <f>$S46+$AB46+$AG46+$AJ46</f>
         <v>0</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="88"/>
-      <c r="S47" s="139"/>
+      <c r="S47" s="138"/>
       <c r="T47" s="60"/>
       <c r="U47" s="61"/>
       <c r="V47" s="62"/>
@@ -8188,24 +8190,24 @@
       <c r="Y47" s="61"/>
       <c r="Z47" s="62"/>
       <c r="AA47" s="94"/>
-      <c r="AB47" s="139"/>
+      <c r="AB47" s="138"/>
       <c r="AC47" s="94"/>
       <c r="AD47" s="63"/>
       <c r="AE47" s="64"/>
       <c r="AF47" s="94"/>
-      <c r="AG47" s="139"/>
+      <c r="AG47" s="138"/>
       <c r="AH47" s="94"/>
       <c r="AI47" s="65"/>
-      <c r="AJ47" s="139"/>
+      <c r="AJ47" s="138"/>
       <c r="AK47" s="124">
         <f>MAX($AL$10:$AL$82) - AL47</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="139"/>
+      <c r="AL47" s="138"/>
     </row>
     <row r="48" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="108"/>
-      <c r="B48" s="147" t="s">
+      <c r="B48" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="134">
@@ -8304,7 +8306,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S48" s="163"/>
+      <c r="S48" s="162"/>
       <c r="T48" s="134"/>
       <c r="U48" s="134"/>
       <c r="V48" s="134"/>
@@ -8313,24 +8315,24 @@
       <c r="Y48" s="134"/>
       <c r="Z48" s="134"/>
       <c r="AA48" s="134"/>
-      <c r="AB48" s="163"/>
+      <c r="AB48" s="162"/>
       <c r="AC48" s="134"/>
       <c r="AD48" s="134"/>
       <c r="AE48" s="134"/>
       <c r="AF48" s="134"/>
-      <c r="AG48" s="163"/>
+      <c r="AG48" s="162"/>
       <c r="AH48" s="134"/>
       <c r="AI48" s="134"/>
-      <c r="AJ48" s="163"/>
-      <c r="AK48" s="164">
+      <c r="AJ48" s="162"/>
+      <c r="AK48" s="163">
         <f>SUM(C48:AI48)</f>
         <v>0</v>
       </c>
-      <c r="AL48" s="141"/>
+      <c r="AL48" s="140"/>
     </row>
     <row r="49" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="108"/>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="134">
@@ -8429,7 +8431,7 @@
 IF(R46 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S49" s="163"/>
+      <c r="S49" s="162"/>
       <c r="T49" s="134"/>
       <c r="U49" s="134"/>
       <c r="V49" s="134"/>
@@ -8438,96 +8440,96 @@
       <c r="Y49" s="134"/>
       <c r="Z49" s="134"/>
       <c r="AA49" s="134"/>
-      <c r="AB49" s="163"/>
+      <c r="AB49" s="162"/>
       <c r="AC49" s="134"/>
       <c r="AD49" s="134"/>
       <c r="AE49" s="134"/>
       <c r="AF49" s="134"/>
-      <c r="AG49" s="163"/>
+      <c r="AG49" s="162"/>
       <c r="AH49" s="134"/>
       <c r="AI49" s="134"/>
-      <c r="AJ49" s="163"/>
-      <c r="AK49" s="164">
+      <c r="AJ49" s="162"/>
+      <c r="AK49" s="163">
         <f>SUM(C49:AI49)</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="141"/>
+      <c r="AL49" s="140"/>
     </row>
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="217">
+      <c r="A50" s="209">
         <f>RANK(AL50,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B50" s="250" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="233">
+      <c r="B50" s="241" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="225">
+        <v>5</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="227">
+        <v>7</v>
+      </c>
+      <c r="F50" s="226"/>
+      <c r="G50" s="228">
         <v>4</v>
       </c>
-      <c r="D50" s="234"/>
-      <c r="E50" s="235">
+      <c r="H50" s="229"/>
+      <c r="I50" s="227"/>
+      <c r="J50" s="229">
+        <v>6</v>
+      </c>
+      <c r="K50" s="230">
         <v>5</v>
       </c>
-      <c r="F50" s="234"/>
-      <c r="G50" s="236">
+      <c r="L50" s="229"/>
+      <c r="M50" s="227"/>
+      <c r="N50" s="226">
         <v>6</v>
       </c>
-      <c r="H50" s="237"/>
-      <c r="I50" s="235">
+      <c r="O50" s="227">
         <v>7</v>
       </c>
-      <c r="J50" s="237"/>
-      <c r="K50" s="238">
-        <v>5</v>
-      </c>
-      <c r="L50" s="237"/>
-      <c r="M50" s="235"/>
-      <c r="N50" s="234">
-        <v>7</v>
-      </c>
-      <c r="O50" s="235">
+      <c r="P50" s="226"/>
+      <c r="Q50" s="228">
         <v>6</v>
       </c>
-      <c r="P50" s="234"/>
-      <c r="Q50" s="236">
-        <v>7</v>
-      </c>
-      <c r="R50" s="239"/>
-      <c r="S50" s="245">
+      <c r="R50" s="231"/>
+      <c r="S50" s="233">
         <f>SUM(C51:R51)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="233"/>
-      <c r="U50" s="237"/>
-      <c r="V50" s="235"/>
-      <c r="W50" s="237"/>
-      <c r="X50" s="238"/>
-      <c r="Y50" s="234"/>
-      <c r="Z50" s="236"/>
-      <c r="AA50" s="237"/>
-      <c r="AB50" s="242">
+      <c r="T50" s="225"/>
+      <c r="U50" s="229"/>
+      <c r="V50" s="227"/>
+      <c r="W50" s="229"/>
+      <c r="X50" s="230"/>
+      <c r="Y50" s="226"/>
+      <c r="Z50" s="228"/>
+      <c r="AA50" s="229"/>
+      <c r="AB50" s="233">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
-      <c r="AC50" s="236"/>
-      <c r="AD50" s="237"/>
-      <c r="AE50" s="238"/>
-      <c r="AF50" s="237"/>
-      <c r="AG50" s="242">
+      <c r="AC50" s="228"/>
+      <c r="AD50" s="229"/>
+      <c r="AE50" s="230"/>
+      <c r="AF50" s="229"/>
+      <c r="AG50" s="233">
         <f>SUM(AC51:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="247"/>
-      <c r="AI50" s="231"/>
-      <c r="AJ50" s="242">
+      <c r="AH50" s="239"/>
+      <c r="AI50" s="223"/>
+      <c r="AJ50" s="233">
         <f>AH51</f>
         <v>0</v>
       </c>
-      <c r="AK50" s="245">
+      <c r="AK50" s="236">
         <f>MAX($AL$10:$AL$82) - AL50</f>
         <v>0</v>
       </c>
-      <c r="AL50" s="140">
+      <c r="AL50" s="141">
         <f>$S50+$AB50+$AG50+$AJ50</f>
         <v>0</v>
       </c>
@@ -8538,70 +8540,70 @@
         <v>1</v>
       </c>
       <c r="B51" s="107"/>
-      <c r="C51" s="149">
+      <c r="C51" s="148">
         <f>(IF($C50&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C50=$C$6+$D$6,$O$91,0),0),0)+IF($D50&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D50=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="150"/>
-      <c r="E51" s="148">
+      <c r="D51" s="149"/>
+      <c r="E51" s="147">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E50=$E$6+$F$6,$O$91,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F50=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F51" s="150"/>
-      <c r="G51" s="148">
+      <c r="F51" s="149"/>
+      <c r="G51" s="147">
         <f>(IF($G50&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G50=$G$6+$H$6,$O$91,0),0),0)+IF($H50&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H50=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H51" s="150"/>
-      <c r="I51" s="151">
+      <c r="H51" s="149"/>
+      <c r="I51" s="150">
         <f>(IF($I50&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I50=$I$6+$J$6,$O$91,0),0),0)+IF($J50&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J50=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J51" s="152"/>
-      <c r="K51" s="153">
+      <c r="J51" s="151"/>
+      <c r="K51" s="152">
         <f>(IF($K50&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K50=$K$6+$L$6,$O$91,0),0),0)+IF($L50&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L50=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L51" s="150"/>
-      <c r="M51" s="148">
+      <c r="L51" s="149"/>
+      <c r="M51" s="147">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M50=$M$6+$N$6,$O$91,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N50=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="150"/>
-      <c r="O51" s="151">
+      <c r="N51" s="149"/>
+      <c r="O51" s="150">
         <f>(IF($O50&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O50=$O$6+$P$6,$O$91,0),0),0)+IF($P50&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P50=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P51" s="150"/>
-      <c r="Q51" s="151">
+      <c r="P51" s="149"/>
+      <c r="Q51" s="150">
         <f>(IF($Q50&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q50=$Q$6+$R$6,$O$91,0),0),0)+IF($R50&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R50=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R51" s="154"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="155"/>
-      <c r="U51" s="156"/>
-      <c r="V51" s="157"/>
-      <c r="W51" s="158"/>
-      <c r="X51" s="159"/>
-      <c r="Y51" s="156"/>
-      <c r="Z51" s="157"/>
-      <c r="AA51" s="160"/>
-      <c r="AB51" s="139"/>
-      <c r="AC51" s="161"/>
-      <c r="AD51" s="158"/>
-      <c r="AE51" s="159"/>
-      <c r="AF51" s="161"/>
-      <c r="AG51" s="139"/>
-      <c r="AH51" s="155"/>
-      <c r="AI51" s="160"/>
-      <c r="AJ51" s="139"/>
+      <c r="R51" s="153"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="155"/>
+      <c r="V51" s="156"/>
+      <c r="W51" s="157"/>
+      <c r="X51" s="158"/>
+      <c r="Y51" s="155"/>
+      <c r="Z51" s="156"/>
+      <c r="AA51" s="159"/>
+      <c r="AB51" s="138"/>
+      <c r="AC51" s="160"/>
+      <c r="AD51" s="157"/>
+      <c r="AE51" s="158"/>
+      <c r="AF51" s="160"/>
+      <c r="AG51" s="138"/>
+      <c r="AH51" s="154"/>
+      <c r="AI51" s="159"/>
+      <c r="AJ51" s="138"/>
       <c r="AK51" s="123"/>
-      <c r="AL51" s="139"/>
+      <c r="AL51" s="138"/>
     </row>
     <row r="52" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="108"/>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="134">
@@ -8700,7 +8702,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S52" s="163"/>
+      <c r="S52" s="162"/>
       <c r="T52" s="134"/>
       <c r="U52" s="134"/>
       <c r="V52" s="134"/>
@@ -8709,24 +8711,24 @@
       <c r="Y52" s="134"/>
       <c r="Z52" s="134"/>
       <c r="AA52" s="134"/>
-      <c r="AB52" s="163"/>
+      <c r="AB52" s="162"/>
       <c r="AC52" s="134"/>
       <c r="AD52" s="134"/>
       <c r="AE52" s="134"/>
       <c r="AF52" s="134"/>
-      <c r="AG52" s="163"/>
+      <c r="AG52" s="162"/>
       <c r="AH52" s="134"/>
       <c r="AI52" s="134"/>
-      <c r="AJ52" s="163"/>
-      <c r="AK52" s="164">
+      <c r="AJ52" s="162"/>
+      <c r="AK52" s="163">
         <f>SUM(C52:AI52)</f>
         <v>0</v>
       </c>
-      <c r="AL52" s="141"/>
+      <c r="AL52" s="140"/>
     </row>
     <row r="53" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="108"/>
-      <c r="B53" s="147" t="s">
+      <c r="B53" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="134">
@@ -8825,7 +8827,7 @@
 IF(R50 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S53" s="163"/>
+      <c r="S53" s="162"/>
       <c r="T53" s="134"/>
       <c r="U53" s="134"/>
       <c r="V53" s="134"/>
@@ -8834,20 +8836,20 @@
       <c r="Y53" s="134"/>
       <c r="Z53" s="134"/>
       <c r="AA53" s="134"/>
-      <c r="AB53" s="163"/>
+      <c r="AB53" s="162"/>
       <c r="AC53" s="134"/>
       <c r="AD53" s="134"/>
       <c r="AE53" s="134"/>
       <c r="AF53" s="134"/>
-      <c r="AG53" s="163"/>
+      <c r="AG53" s="162"/>
       <c r="AH53" s="134"/>
       <c r="AI53" s="134"/>
-      <c r="AJ53" s="163"/>
-      <c r="AK53" s="164">
+      <c r="AJ53" s="162"/>
+      <c r="AK53" s="163">
         <f>SUM(C53:AI53)</f>
         <v>0</v>
       </c>
-      <c r="AL53" s="141"/>
+      <c r="AL53" s="140"/>
     </row>
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="130">
@@ -8855,41 +8857,39 @@
         <v>1</v>
       </c>
       <c r="B54" s="93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="47">
         <v>5</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="45">
+        <v>7</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="49">
         <v>6</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="48">
-        <v>7</v>
-      </c>
-      <c r="I54" s="45"/>
-      <c r="J54" s="48">
+      <c r="H54" s="48"/>
+      <c r="I54" s="45">
         <v>6</v>
       </c>
+      <c r="J54" s="48"/>
       <c r="K54" s="50">
+        <v>4</v>
+      </c>
+      <c r="L54" s="48"/>
+      <c r="M54" s="45">
         <v>5</v>
       </c>
-      <c r="L54" s="48"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="46">
-        <v>7</v>
-      </c>
-      <c r="O54" s="45">
-        <v>5</v>
-      </c>
+      <c r="N54" s="46"/>
+      <c r="O54" s="45"/>
       <c r="P54" s="46"/>
       <c r="Q54" s="49"/>
       <c r="R54" s="51">
-        <v>6</v>
-      </c>
-      <c r="S54" s="140">
+        <v>7</v>
+      </c>
+      <c r="S54" s="139">
         <f>SUM(C55:R55)</f>
         <v>0</v>
       </c>
@@ -8898,24 +8898,24 @@
       <c r="V54" s="45"/>
       <c r="W54" s="48"/>
       <c r="X54" s="50"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="131"/>
+      <c r="Y54" s="137"/>
+      <c r="Z54" s="49"/>
       <c r="AA54" s="48"/>
-      <c r="AB54" s="140">
+      <c r="AB54" s="139">
         <f>SUM(T55:AA55)</f>
         <v>0</v>
       </c>
       <c r="AC54" s="49"/>
-      <c r="AD54" s="48"/>
+      <c r="AD54" s="143"/>
       <c r="AE54" s="50"/>
       <c r="AF54" s="48"/>
-      <c r="AG54" s="140">
+      <c r="AG54" s="139">
         <f>SUM(AC55:AF55)</f>
         <v>0</v>
       </c>
       <c r="AH54" s="113"/>
       <c r="AI54" s="58"/>
-      <c r="AJ54" s="140">
+      <c r="AJ54" s="139">
         <f>AH55</f>
         <v>0</v>
       </c>
@@ -8923,7 +8923,7 @@
         <f>MAX($AL$10:$AL$82) - AL54</f>
         <v>0</v>
       </c>
-      <c r="AL54" s="140">
+      <c r="AL54" s="139">
         <f>$S54+$AB54+$AG54+$AJ54</f>
         <v>0</v>
       </c>
@@ -8934,70 +8934,70 @@
         <v>1</v>
       </c>
       <c r="B55" s="107"/>
-      <c r="C55" s="149">
+      <c r="C55" s="148">
         <f>(IF($C54&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C54=$C$6+$D$6,$O$91,0),0),0)+IF($D54&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D54=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D55" s="150"/>
-      <c r="E55" s="148">
+      <c r="D55" s="149"/>
+      <c r="E55" s="147">
         <f>(IF($E54&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E54=$E$6+$F$6,$O$91,0),0),0)+IF($F54&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F54=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F55" s="150"/>
-      <c r="G55" s="148">
+      <c r="F55" s="149"/>
+      <c r="G55" s="147">
         <f>(IF($G54&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G54=$G$6+$H$6,$O$91,0),0),0)+IF($H54&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H54=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H55" s="150"/>
-      <c r="I55" s="151">
+      <c r="H55" s="149"/>
+      <c r="I55" s="150">
         <f>(IF($I54&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I54=$I$6+$J$6,$O$91,0),0),0)+IF($J54&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J54=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J55" s="152"/>
-      <c r="K55" s="153">
+      <c r="J55" s="151"/>
+      <c r="K55" s="152">
         <f>(IF($K54&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K54=$K$6+$L$6,$O$91,0),0),0)+IF($L54&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L54=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L55" s="150"/>
-      <c r="M55" s="148">
+      <c r="L55" s="149"/>
+      <c r="M55" s="147">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M54=$M$6+$N$6,$O$91,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N54=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N55" s="150"/>
-      <c r="O55" s="151">
+      <c r="N55" s="149"/>
+      <c r="O55" s="150">
         <f>(IF($O54&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O54=$O$6+$P$6,$O$91,0),0),0)+IF($P54&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P54=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P55" s="150"/>
-      <c r="Q55" s="151">
+      <c r="P55" s="149"/>
+      <c r="Q55" s="150">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q54=$Q$6+$R$6,$O$91,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R54=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R55" s="154"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="155"/>
-      <c r="U55" s="156"/>
-      <c r="V55" s="157"/>
-      <c r="W55" s="158"/>
-      <c r="X55" s="159"/>
-      <c r="Y55" s="156"/>
-      <c r="Z55" s="157"/>
-      <c r="AA55" s="160"/>
-      <c r="AB55" s="139"/>
-      <c r="AC55" s="161"/>
-      <c r="AD55" s="158"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="161"/>
-      <c r="AG55" s="139"/>
-      <c r="AH55" s="155"/>
-      <c r="AI55" s="160"/>
-      <c r="AJ55" s="139"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="138"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="156"/>
+      <c r="W55" s="157"/>
+      <c r="X55" s="158"/>
+      <c r="Y55" s="155"/>
+      <c r="Z55" s="156"/>
+      <c r="AA55" s="159"/>
+      <c r="AB55" s="138"/>
+      <c r="AC55" s="160"/>
+      <c r="AD55" s="157"/>
+      <c r="AE55" s="158"/>
+      <c r="AF55" s="160"/>
+      <c r="AG55" s="138"/>
+      <c r="AH55" s="154"/>
+      <c r="AI55" s="159"/>
+      <c r="AJ55" s="138"/>
       <c r="AK55" s="123"/>
-      <c r="AL55" s="139"/>
+      <c r="AL55" s="138"/>
     </row>
     <row r="56" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="108"/>
-      <c r="B56" s="147" t="s">
+      <c r="B56" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="134">
@@ -9096,7 +9096,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S56" s="163"/>
+      <c r="S56" s="162"/>
       <c r="T56" s="134"/>
       <c r="U56" s="134"/>
       <c r="V56" s="134"/>
@@ -9105,24 +9105,24 @@
       <c r="Y56" s="134"/>
       <c r="Z56" s="134"/>
       <c r="AA56" s="134"/>
-      <c r="AB56" s="163"/>
+      <c r="AB56" s="162"/>
       <c r="AC56" s="134"/>
       <c r="AD56" s="134"/>
       <c r="AE56" s="134"/>
       <c r="AF56" s="134"/>
-      <c r="AG56" s="163"/>
+      <c r="AG56" s="162"/>
       <c r="AH56" s="134"/>
       <c r="AI56" s="134"/>
-      <c r="AJ56" s="163"/>
-      <c r="AK56" s="164">
+      <c r="AJ56" s="162"/>
+      <c r="AK56" s="163">
         <f>SUM(C56:AI56)</f>
         <v>0</v>
       </c>
-      <c r="AL56" s="141"/>
+      <c r="AL56" s="140"/>
     </row>
     <row r="57" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="108"/>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="134">
@@ -9221,7 +9221,7 @@
 IF(R54 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S57" s="163"/>
+      <c r="S57" s="162"/>
       <c r="T57" s="134"/>
       <c r="U57" s="134"/>
       <c r="V57" s="134"/>
@@ -9230,96 +9230,96 @@
       <c r="Y57" s="134"/>
       <c r="Z57" s="134"/>
       <c r="AA57" s="134"/>
-      <c r="AB57" s="163"/>
+      <c r="AB57" s="162"/>
       <c r="AC57" s="134"/>
       <c r="AD57" s="134"/>
       <c r="AE57" s="134"/>
       <c r="AF57" s="134"/>
-      <c r="AG57" s="163"/>
+      <c r="AG57" s="162"/>
       <c r="AH57" s="134"/>
       <c r="AI57" s="134"/>
-      <c r="AJ57" s="163"/>
-      <c r="AK57" s="164">
+      <c r="AJ57" s="162"/>
+      <c r="AK57" s="163">
         <f>SUM(C57:AI57)</f>
         <v>0</v>
       </c>
-      <c r="AL57" s="141"/>
+      <c r="AL57" s="140"/>
     </row>
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="217">
+      <c r="A58" s="209">
         <f>RANK(AL58,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B58" s="250" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="233">
+      <c r="B58" s="241" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="225">
+        <v>4</v>
+      </c>
+      <c r="D58" s="226"/>
+      <c r="E58" s="227">
         <v>5</v>
       </c>
-      <c r="D58" s="234"/>
-      <c r="E58" s="235">
+      <c r="F58" s="226"/>
+      <c r="G58" s="228">
         <v>6</v>
       </c>
-      <c r="F58" s="234"/>
-      <c r="G58" s="236">
+      <c r="H58" s="229"/>
+      <c r="I58" s="227">
+        <v>7</v>
+      </c>
+      <c r="J58" s="229"/>
+      <c r="K58" s="230">
+        <v>5</v>
+      </c>
+      <c r="L58" s="229"/>
+      <c r="M58" s="227"/>
+      <c r="N58" s="226">
+        <v>7</v>
+      </c>
+      <c r="O58" s="227">
         <v>6</v>
       </c>
-      <c r="H58" s="237"/>
-      <c r="I58" s="235"/>
-      <c r="J58" s="237">
+      <c r="P58" s="226"/>
+      <c r="Q58" s="228">
         <v>7</v>
       </c>
-      <c r="K58" s="238">
-        <v>5</v>
-      </c>
-      <c r="L58" s="237"/>
-      <c r="M58" s="235"/>
-      <c r="N58" s="234">
-        <v>6</v>
-      </c>
-      <c r="O58" s="235">
-        <v>7</v>
-      </c>
-      <c r="P58" s="234"/>
-      <c r="Q58" s="236"/>
-      <c r="R58" s="239">
-        <v>6</v>
-      </c>
-      <c r="S58" s="242">
+      <c r="R58" s="231"/>
+      <c r="S58" s="236">
         <f>SUM(C59:R59)</f>
         <v>0</v>
       </c>
-      <c r="T58" s="233"/>
-      <c r="U58" s="237"/>
-      <c r="V58" s="235"/>
-      <c r="W58" s="237"/>
-      <c r="X58" s="238"/>
-      <c r="Y58" s="234"/>
-      <c r="Z58" s="236"/>
-      <c r="AA58" s="237"/>
-      <c r="AB58" s="242">
+      <c r="T58" s="225"/>
+      <c r="U58" s="229"/>
+      <c r="V58" s="227"/>
+      <c r="W58" s="229"/>
+      <c r="X58" s="230"/>
+      <c r="Y58" s="226"/>
+      <c r="Z58" s="228"/>
+      <c r="AA58" s="229"/>
+      <c r="AB58" s="233">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AC58" s="236"/>
-      <c r="AD58" s="237"/>
-      <c r="AE58" s="238"/>
-      <c r="AF58" s="237"/>
-      <c r="AG58" s="242">
+      <c r="AC58" s="228"/>
+      <c r="AD58" s="229"/>
+      <c r="AE58" s="230"/>
+      <c r="AF58" s="229"/>
+      <c r="AG58" s="233">
         <f>SUM(AC59:AF59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="247"/>
-      <c r="AI58" s="231"/>
-      <c r="AJ58" s="242">
+      <c r="AH58" s="238"/>
+      <c r="AI58" s="223"/>
+      <c r="AJ58" s="233">
         <f>AH59</f>
         <v>0</v>
       </c>
-      <c r="AK58" s="245">
+      <c r="AK58" s="236">
         <f>MAX($AL$10:$AL$82) - AL58</f>
         <v>0</v>
       </c>
-      <c r="AL58" s="142">
+      <c r="AL58" s="139">
         <f>$S58+$AB58+$AG58+$AJ58</f>
         <v>0</v>
       </c>
@@ -9330,70 +9330,70 @@
         <v>1</v>
       </c>
       <c r="B59" s="107"/>
-      <c r="C59" s="149">
+      <c r="C59" s="148">
         <f>(IF($C58&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C58=$C$6+$D$6,$O$91,0),0),0)+IF($D58&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D58=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="148">
+      <c r="D59" s="149"/>
+      <c r="E59" s="147">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E58=$E$6+$F$6,$O$91,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F58=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F59" s="150"/>
-      <c r="G59" s="148">
+      <c r="F59" s="149"/>
+      <c r="G59" s="147">
         <f>(IF($G58&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G58=$G$6+$H$6,$O$91,0),0),0)+IF($H58&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H58=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H59" s="150"/>
-      <c r="I59" s="151">
+      <c r="H59" s="149"/>
+      <c r="I59" s="150">
         <f>(IF($I58&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I58=$I$6+$J$6,$O$91,0),0),0)+IF($J58&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J58=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J59" s="152"/>
-      <c r="K59" s="153">
+      <c r="J59" s="151"/>
+      <c r="K59" s="152">
         <f>(IF($K58&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K58=$K$6+$L$6,$O$91,0),0),0)+IF($L58&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L58=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L59" s="150"/>
-      <c r="M59" s="148">
+      <c r="L59" s="149"/>
+      <c r="M59" s="147">
         <f>(IF($M58&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M58=$M$6+$N$6,$O$91,0),0),0)+IF($N58&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N58=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N59" s="150"/>
-      <c r="O59" s="151">
+      <c r="N59" s="149"/>
+      <c r="O59" s="150">
         <f>(IF($O58&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O58=$O$6+$P$6,$O$91,0),0),0)+IF($P58&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P58=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="151">
+      <c r="P59" s="149"/>
+      <c r="Q59" s="150">
         <f>(IF($Q58&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q58=$Q$6+$R$6,$O$91,0),0),0)+IF($R58&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R58=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R59" s="154"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="155"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="157"/>
-      <c r="W59" s="158"/>
-      <c r="X59" s="159"/>
-      <c r="Y59" s="156"/>
-      <c r="Z59" s="157"/>
-      <c r="AA59" s="160"/>
-      <c r="AB59" s="139"/>
-      <c r="AC59" s="161"/>
-      <c r="AD59" s="158"/>
-      <c r="AE59" s="159"/>
-      <c r="AF59" s="161"/>
-      <c r="AG59" s="139"/>
-      <c r="AH59" s="155"/>
-      <c r="AI59" s="160"/>
-      <c r="AJ59" s="139"/>
+      <c r="R59" s="153"/>
+      <c r="S59" s="138"/>
+      <c r="T59" s="154"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="156"/>
+      <c r="W59" s="157"/>
+      <c r="X59" s="158"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="156"/>
+      <c r="AA59" s="159"/>
+      <c r="AB59" s="138"/>
+      <c r="AC59" s="160"/>
+      <c r="AD59" s="157"/>
+      <c r="AE59" s="158"/>
+      <c r="AF59" s="160"/>
+      <c r="AG59" s="138"/>
+      <c r="AH59" s="154"/>
+      <c r="AI59" s="159"/>
+      <c r="AJ59" s="138"/>
       <c r="AK59" s="123"/>
-      <c r="AL59" s="139"/>
+      <c r="AL59" s="138"/>
     </row>
     <row r="60" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="108"/>
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C60" s="134">
@@ -9492,7 +9492,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S60" s="163"/>
+      <c r="S60" s="162"/>
       <c r="T60" s="134"/>
       <c r="U60" s="134"/>
       <c r="V60" s="134"/>
@@ -9501,24 +9501,24 @@
       <c r="Y60" s="134"/>
       <c r="Z60" s="134"/>
       <c r="AA60" s="134"/>
-      <c r="AB60" s="163"/>
+      <c r="AB60" s="162"/>
       <c r="AC60" s="134"/>
       <c r="AD60" s="134"/>
       <c r="AE60" s="134"/>
       <c r="AF60" s="134"/>
-      <c r="AG60" s="163"/>
+      <c r="AG60" s="162"/>
       <c r="AH60" s="134"/>
       <c r="AI60" s="134"/>
-      <c r="AJ60" s="163"/>
-      <c r="AK60" s="164">
+      <c r="AJ60" s="162"/>
+      <c r="AK60" s="163">
         <f>SUM(C60:AI60)</f>
         <v>0</v>
       </c>
-      <c r="AL60" s="141"/>
+      <c r="AL60" s="140"/>
     </row>
     <row r="61" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="108"/>
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="134">
@@ -9617,7 +9617,7 @@
 IF(R58 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S61" s="163"/>
+      <c r="S61" s="162"/>
       <c r="T61" s="134"/>
       <c r="U61" s="134"/>
       <c r="V61" s="134"/>
@@ -9626,20 +9626,20 @@
       <c r="Y61" s="134"/>
       <c r="Z61" s="134"/>
       <c r="AA61" s="134"/>
-      <c r="AB61" s="163"/>
+      <c r="AB61" s="162"/>
       <c r="AC61" s="134"/>
       <c r="AD61" s="134"/>
       <c r="AE61" s="134"/>
       <c r="AF61" s="134"/>
-      <c r="AG61" s="163"/>
+      <c r="AG61" s="162"/>
       <c r="AH61" s="134"/>
       <c r="AI61" s="134"/>
-      <c r="AJ61" s="163"/>
-      <c r="AK61" s="164">
+      <c r="AJ61" s="162"/>
+      <c r="AK61" s="163">
         <f>SUM(C61:AI61)</f>
         <v>0</v>
       </c>
-      <c r="AL61" s="141"/>
+      <c r="AL61" s="140"/>
     </row>
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="130">
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="47">
         <v>5</v>
@@ -9657,31 +9657,31 @@
         <v>6</v>
       </c>
       <c r="F62" s="46"/>
-      <c r="G62" s="49">
-        <v>6</v>
-      </c>
-      <c r="H62" s="48"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="48">
+        <v>7</v>
+      </c>
       <c r="I62" s="45"/>
       <c r="J62" s="48">
         <v>6</v>
       </c>
       <c r="K62" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L62" s="48"/>
-      <c r="M62" s="45">
+      <c r="M62" s="45"/>
+      <c r="N62" s="46">
         <v>7</v>
       </c>
-      <c r="N62" s="46"/>
       <c r="O62" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P62" s="46"/>
       <c r="Q62" s="49"/>
       <c r="R62" s="51">
-        <v>7</v>
-      </c>
-      <c r="S62" s="142">
+        <v>6</v>
+      </c>
+      <c r="S62" s="139">
         <f>SUM(C63:R63)</f>
         <v>0</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="Y62" s="46"/>
       <c r="Z62" s="131"/>
       <c r="AA62" s="48"/>
-      <c r="AB62" s="142">
+      <c r="AB62" s="139">
         <f>SUM(T63:AA63)</f>
         <v>0</v>
       </c>
@@ -9701,13 +9701,13 @@
       <c r="AD62" s="48"/>
       <c r="AE62" s="50"/>
       <c r="AF62" s="48"/>
-      <c r="AG62" s="142">
+      <c r="AG62" s="139">
         <f>SUM(AC63:AF63)</f>
         <v>0</v>
       </c>
       <c r="AH62" s="113"/>
       <c r="AI62" s="58"/>
-      <c r="AJ62" s="142">
+      <c r="AJ62" s="139">
         <f>AH63</f>
         <v>0</v>
       </c>
@@ -9715,7 +9715,7 @@
         <f>MAX($AL$10:$AL$82) - AL62</f>
         <v>0</v>
       </c>
-      <c r="AL62" s="142">
+      <c r="AL62" s="139">
         <f>$S62+$AB62+$AG62+$AJ62</f>
         <v>0</v>
       </c>
@@ -9726,70 +9726,70 @@
         <v>1</v>
       </c>
       <c r="B63" s="107"/>
-      <c r="C63" s="149">
+      <c r="C63" s="148">
         <f>(IF($C62&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C62=$C$6+$D$6,$O$91,0),0),0)+IF($D62&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D62=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="148">
+      <c r="D63" s="149"/>
+      <c r="E63" s="147">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E62=$E$6+$F$6,$O$91,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F62=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F63" s="150"/>
-      <c r="G63" s="148">
+      <c r="F63" s="149"/>
+      <c r="G63" s="147">
         <f>(IF($G62&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G62=$G$6+$H$6,$O$91,0),0),0)+IF($H62&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H62=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H63" s="150"/>
-      <c r="I63" s="151">
+      <c r="H63" s="149"/>
+      <c r="I63" s="150">
         <f>(IF($I62&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I62=$I$6+$J$6,$O$91,0),0),0)+IF($J62&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J62=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J63" s="152"/>
-      <c r="K63" s="153">
+      <c r="J63" s="151"/>
+      <c r="K63" s="152">
         <f>(IF($K62&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K62=$K$6+$L$6,$O$91,0),0),0)+IF($L62&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L62=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L63" s="150"/>
-      <c r="M63" s="148">
+      <c r="L63" s="149"/>
+      <c r="M63" s="147">
         <f>(IF($M62&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M62=$M$6+$N$6,$O$91,0),0),0)+IF($N62&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N62=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N63" s="150"/>
-      <c r="O63" s="151">
+      <c r="N63" s="149"/>
+      <c r="O63" s="150">
         <f>(IF($O62&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O62=$O$6+$P$6,$O$91,0),0),0)+IF($P62&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P62=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P63" s="150"/>
-      <c r="Q63" s="151">
+      <c r="P63" s="149"/>
+      <c r="Q63" s="150">
         <f>(IF($Q62&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q62=$Q$6+$R$6,$O$91,0),0),0)+IF($R62&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R62=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R63" s="154"/>
-      <c r="S63" s="139"/>
-      <c r="T63" s="155"/>
-      <c r="U63" s="156"/>
-      <c r="V63" s="157"/>
-      <c r="W63" s="158"/>
-      <c r="X63" s="159"/>
-      <c r="Y63" s="156"/>
-      <c r="Z63" s="157"/>
-      <c r="AA63" s="160"/>
-      <c r="AB63" s="139"/>
-      <c r="AC63" s="161"/>
-      <c r="AD63" s="158"/>
-      <c r="AE63" s="159"/>
-      <c r="AF63" s="161"/>
-      <c r="AG63" s="139"/>
-      <c r="AH63" s="155"/>
-      <c r="AI63" s="160"/>
-      <c r="AJ63" s="139"/>
+      <c r="R63" s="153"/>
+      <c r="S63" s="138"/>
+      <c r="T63" s="154"/>
+      <c r="U63" s="155"/>
+      <c r="V63" s="156"/>
+      <c r="W63" s="157"/>
+      <c r="X63" s="158"/>
+      <c r="Y63" s="155"/>
+      <c r="Z63" s="156"/>
+      <c r="AA63" s="159"/>
+      <c r="AB63" s="138"/>
+      <c r="AC63" s="160"/>
+      <c r="AD63" s="157"/>
+      <c r="AE63" s="158"/>
+      <c r="AF63" s="160"/>
+      <c r="AG63" s="138"/>
+      <c r="AH63" s="154"/>
+      <c r="AI63" s="159"/>
+      <c r="AJ63" s="138"/>
       <c r="AK63" s="123"/>
-      <c r="AL63" s="139"/>
+      <c r="AL63" s="138"/>
     </row>
     <row r="64" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="108"/>
-      <c r="B64" s="147" t="s">
+      <c r="B64" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="134">
@@ -9888,7 +9888,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S64" s="163"/>
+      <c r="S64" s="162"/>
       <c r="T64" s="134"/>
       <c r="U64" s="134"/>
       <c r="V64" s="134"/>
@@ -9897,24 +9897,24 @@
       <c r="Y64" s="134"/>
       <c r="Z64" s="134"/>
       <c r="AA64" s="134"/>
-      <c r="AB64" s="163"/>
+      <c r="AB64" s="162"/>
       <c r="AC64" s="134"/>
       <c r="AD64" s="134"/>
       <c r="AE64" s="134"/>
       <c r="AF64" s="134"/>
-      <c r="AG64" s="163"/>
+      <c r="AG64" s="162"/>
       <c r="AH64" s="134"/>
       <c r="AI64" s="134"/>
-      <c r="AJ64" s="163"/>
-      <c r="AK64" s="164">
+      <c r="AJ64" s="162"/>
+      <c r="AK64" s="163">
         <f>SUM(C64:AI64)</f>
         <v>0</v>
       </c>
-      <c r="AL64" s="141"/>
+      <c r="AL64" s="140"/>
     </row>
     <row r="65" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="108"/>
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="134">
@@ -10013,7 +10013,7 @@
 IF(R62 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S65" s="163"/>
+      <c r="S65" s="162"/>
       <c r="T65" s="134"/>
       <c r="U65" s="134"/>
       <c r="V65" s="134"/>
@@ -10022,96 +10022,96 @@
       <c r="Y65" s="134"/>
       <c r="Z65" s="134"/>
       <c r="AA65" s="134"/>
-      <c r="AB65" s="163"/>
+      <c r="AB65" s="162"/>
       <c r="AC65" s="134"/>
       <c r="AD65" s="134"/>
       <c r="AE65" s="134"/>
       <c r="AF65" s="134"/>
-      <c r="AG65" s="163"/>
+      <c r="AG65" s="162"/>
       <c r="AH65" s="134"/>
       <c r="AI65" s="134"/>
-      <c r="AJ65" s="163"/>
-      <c r="AK65" s="164">
+      <c r="AJ65" s="162"/>
+      <c r="AK65" s="163">
         <f>SUM(C65:AI65)</f>
         <v>0</v>
       </c>
-      <c r="AL65" s="141"/>
+      <c r="AL65" s="140"/>
     </row>
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="217">
+      <c r="A66" s="209">
         <f>RANK(AL66,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B66" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="233">
+      <c r="B66" s="241" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="225">
+        <v>5</v>
+      </c>
+      <c r="D66" s="226"/>
+      <c r="E66" s="227">
         <v>6</v>
       </c>
-      <c r="D66" s="234"/>
-      <c r="E66" s="235">
+      <c r="F66" s="226"/>
+      <c r="G66" s="228">
+        <v>6</v>
+      </c>
+      <c r="H66" s="229"/>
+      <c r="I66" s="227"/>
+      <c r="J66" s="229">
         <v>7</v>
       </c>
-      <c r="F66" s="234"/>
-      <c r="G66" s="236">
+      <c r="K66" s="230">
+        <v>5</v>
+      </c>
+      <c r="L66" s="229"/>
+      <c r="M66" s="227"/>
+      <c r="N66" s="226">
         <v>6</v>
       </c>
-      <c r="H66" s="237"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="237">
+      <c r="O66" s="227">
         <v>7</v>
       </c>
-      <c r="K66" s="238">
-        <v>7</v>
-      </c>
-      <c r="L66" s="237"/>
-      <c r="M66" s="235">
+      <c r="P66" s="226"/>
+      <c r="Q66" s="228"/>
+      <c r="R66" s="231">
         <v>6</v>
       </c>
-      <c r="N66" s="234"/>
-      <c r="O66" s="235">
-        <v>6</v>
-      </c>
-      <c r="P66" s="234"/>
-      <c r="Q66" s="236"/>
-      <c r="R66" s="239">
-        <v>7</v>
-      </c>
-      <c r="S66" s="242">
+      <c r="S66" s="233">
         <f>SUM(C67:R67)</f>
         <v>0</v>
       </c>
-      <c r="T66" s="233"/>
-      <c r="U66" s="237"/>
-      <c r="V66" s="235"/>
-      <c r="W66" s="237"/>
-      <c r="X66" s="238"/>
-      <c r="Y66" s="234"/>
-      <c r="Z66" s="236"/>
-      <c r="AA66" s="237"/>
-      <c r="AB66" s="242">
+      <c r="T66" s="225"/>
+      <c r="U66" s="229"/>
+      <c r="V66" s="227"/>
+      <c r="W66" s="229"/>
+      <c r="X66" s="230"/>
+      <c r="Y66" s="226"/>
+      <c r="Z66" s="228"/>
+      <c r="AA66" s="229"/>
+      <c r="AB66" s="233">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
-      <c r="AC66" s="236"/>
-      <c r="AD66" s="237"/>
-      <c r="AE66" s="238"/>
-      <c r="AF66" s="237"/>
-      <c r="AG66" s="242">
+      <c r="AC66" s="228"/>
+      <c r="AD66" s="229"/>
+      <c r="AE66" s="230"/>
+      <c r="AF66" s="229"/>
+      <c r="AG66" s="233">
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="249"/>
-      <c r="AI66" s="244"/>
-      <c r="AJ66" s="242">
+      <c r="AH66" s="240"/>
+      <c r="AI66" s="235"/>
+      <c r="AJ66" s="233">
         <f>AH67</f>
         <v>0</v>
       </c>
-      <c r="AK66" s="245">
+      <c r="AK66" s="236">
         <f>MAX($AL$10:$AL$82) - AL66</f>
         <v>0</v>
       </c>
-      <c r="AL66" s="140">
+      <c r="AL66" s="141">
         <f>$S66+$AB66+$AG66+$AJ66</f>
         <v>0</v>
       </c>
@@ -10122,70 +10122,70 @@
         <v>1</v>
       </c>
       <c r="B67" s="107"/>
-      <c r="C67" s="149">
+      <c r="C67" s="148">
         <f>(IF($C66&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C66=$C$6+$D$6,$O$91,0),0),0)+IF($D66&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D66=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D67" s="150"/>
-      <c r="E67" s="148">
+      <c r="D67" s="149"/>
+      <c r="E67" s="147">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E66=$E$6+$F$6,$O$91,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F66=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F67" s="150"/>
-      <c r="G67" s="148">
+      <c r="F67" s="149"/>
+      <c r="G67" s="147">
         <f>(IF($G66&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G66=$G$6+$H$6,$O$91,0),0),0)+IF($H66&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H66=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H67" s="150"/>
-      <c r="I67" s="151">
+      <c r="H67" s="149"/>
+      <c r="I67" s="150">
         <f>(IF($I66&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I66=$I$6+$J$6,$O$91,0),0),0)+IF($J66&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J66=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J67" s="152"/>
-      <c r="K67" s="153">
+      <c r="J67" s="151"/>
+      <c r="K67" s="152">
         <f>(IF($K66&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K66=$K$6+$L$6,$O$91,0),0),0)+IF($L66&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L66=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L67" s="150"/>
-      <c r="M67" s="148">
+      <c r="L67" s="149"/>
+      <c r="M67" s="147">
         <f>(IF($M66&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M66=$M$6+$N$6,$O$91,0),0),0)+IF($N66&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N66=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N67" s="150"/>
-      <c r="O67" s="151">
+      <c r="N67" s="149"/>
+      <c r="O67" s="150">
         <f>(IF($O66&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O66=$O$6+$P$6,$O$91,0),0),0)+IF($P66&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P66=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P67" s="150"/>
-      <c r="Q67" s="151">
+      <c r="P67" s="149"/>
+      <c r="Q67" s="150">
         <f>(IF($Q66&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q66=$Q$6+$R$6,$O$91,0),0),0)+IF($R66&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R66=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R67" s="154"/>
-      <c r="S67" s="139"/>
-      <c r="T67" s="155"/>
-      <c r="U67" s="156"/>
-      <c r="V67" s="157"/>
-      <c r="W67" s="158"/>
-      <c r="X67" s="159"/>
-      <c r="Y67" s="156"/>
-      <c r="Z67" s="157"/>
-      <c r="AA67" s="160"/>
-      <c r="AB67" s="139"/>
-      <c r="AC67" s="161"/>
-      <c r="AD67" s="158"/>
-      <c r="AE67" s="159"/>
-      <c r="AF67" s="161"/>
-      <c r="AG67" s="139"/>
-      <c r="AH67" s="155"/>
-      <c r="AI67" s="160"/>
-      <c r="AJ67" s="139"/>
+      <c r="R67" s="153"/>
+      <c r="S67" s="138"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="155"/>
+      <c r="V67" s="156"/>
+      <c r="W67" s="157"/>
+      <c r="X67" s="158"/>
+      <c r="Y67" s="155"/>
+      <c r="Z67" s="156"/>
+      <c r="AA67" s="159"/>
+      <c r="AB67" s="138"/>
+      <c r="AC67" s="160"/>
+      <c r="AD67" s="157"/>
+      <c r="AE67" s="158"/>
+      <c r="AF67" s="160"/>
+      <c r="AG67" s="138"/>
+      <c r="AH67" s="154"/>
+      <c r="AI67" s="159"/>
+      <c r="AJ67" s="138"/>
       <c r="AK67" s="123"/>
-      <c r="AL67" s="139"/>
+      <c r="AL67" s="138"/>
     </row>
     <row r="68" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="108"/>
-      <c r="B68" s="147" t="s">
+      <c r="B68" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="134">
@@ -10284,7 +10284,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S68" s="163"/>
+      <c r="S68" s="162"/>
       <c r="T68" s="134"/>
       <c r="U68" s="134"/>
       <c r="V68" s="134"/>
@@ -10293,24 +10293,24 @@
       <c r="Y68" s="134"/>
       <c r="Z68" s="134"/>
       <c r="AA68" s="134"/>
-      <c r="AB68" s="163"/>
+      <c r="AB68" s="162"/>
       <c r="AC68" s="134"/>
       <c r="AD68" s="134"/>
       <c r="AE68" s="134"/>
       <c r="AF68" s="134"/>
-      <c r="AG68" s="163"/>
+      <c r="AG68" s="162"/>
       <c r="AH68" s="134"/>
       <c r="AI68" s="134"/>
-      <c r="AJ68" s="163"/>
-      <c r="AK68" s="164">
+      <c r="AJ68" s="162"/>
+      <c r="AK68" s="163">
         <f>SUM(C68:AI68)</f>
         <v>0</v>
       </c>
-      <c r="AL68" s="141"/>
+      <c r="AL68" s="140"/>
     </row>
     <row r="69" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="108"/>
-      <c r="B69" s="147" t="s">
+      <c r="B69" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="134">
@@ -10409,7 +10409,7 @@
 IF(R66 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S69" s="163"/>
+      <c r="S69" s="162"/>
       <c r="T69" s="134"/>
       <c r="U69" s="134"/>
       <c r="V69" s="134"/>
@@ -10418,44 +10418,62 @@
       <c r="Y69" s="134"/>
       <c r="Z69" s="134"/>
       <c r="AA69" s="134"/>
-      <c r="AB69" s="163"/>
+      <c r="AB69" s="162"/>
       <c r="AC69" s="134"/>
       <c r="AD69" s="134"/>
       <c r="AE69" s="134"/>
       <c r="AF69" s="134"/>
-      <c r="AG69" s="163"/>
+      <c r="AG69" s="162"/>
       <c r="AH69" s="134"/>
       <c r="AI69" s="134"/>
-      <c r="AJ69" s="163"/>
-      <c r="AK69" s="164">
+      <c r="AJ69" s="162"/>
+      <c r="AK69" s="163">
         <f>SUM(C69:AI69)</f>
         <v>0</v>
       </c>
-      <c r="AL69" s="141"/>
+      <c r="AL69" s="140"/>
     </row>
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="130">
         <f>RANK(AL70,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B70" s="93"/>
-      <c r="C70" s="133"/>
+      <c r="B70" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="47">
+        <v>5</v>
+      </c>
       <c r="D70" s="46"/>
-      <c r="E70" s="45"/>
+      <c r="E70" s="45">
+        <v>6</v>
+      </c>
       <c r="F70" s="46"/>
-      <c r="G70" s="49"/>
+      <c r="G70" s="49">
+        <v>6</v>
+      </c>
       <c r="H70" s="48"/>
-      <c r="I70" s="136"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="50"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="48">
+        <v>6</v>
+      </c>
+      <c r="K70" s="50">
+        <v>6</v>
+      </c>
       <c r="L70" s="48"/>
-      <c r="M70" s="136"/>
+      <c r="M70" s="45">
+        <v>7</v>
+      </c>
       <c r="N70" s="46"/>
-      <c r="O70" s="45"/>
+      <c r="O70" s="45">
+        <v>6</v>
+      </c>
       <c r="P70" s="46"/>
       <c r="Q70" s="49"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="140">
+      <c r="R70" s="51">
+        <v>7</v>
+      </c>
+      <c r="S70" s="139">
         <f>SUM(C71:R71)</f>
         <v>0</v>
       </c>
@@ -10465,9 +10483,9 @@
       <c r="W70" s="48"/>
       <c r="X70" s="50"/>
       <c r="Y70" s="46"/>
-      <c r="Z70" s="49"/>
+      <c r="Z70" s="131"/>
       <c r="AA70" s="48"/>
-      <c r="AB70" s="140">
+      <c r="AB70" s="139">
         <f>SUM(T71:AA71)</f>
         <v>0</v>
       </c>
@@ -10475,13 +10493,13 @@
       <c r="AD70" s="48"/>
       <c r="AE70" s="50"/>
       <c r="AF70" s="48"/>
-      <c r="AG70" s="140">
+      <c r="AG70" s="139">
         <f>SUM(AC71:AF71)</f>
         <v>0</v>
       </c>
       <c r="AH70" s="111"/>
       <c r="AI70" s="59"/>
-      <c r="AJ70" s="140">
+      <c r="AJ70" s="139">
         <f>AH71</f>
         <v>0</v>
       </c>
@@ -10489,7 +10507,7 @@
         <f>MAX($AL$10:$AL$82) - AL70</f>
         <v>0</v>
       </c>
-      <c r="AL70" s="140">
+      <c r="AL70" s="141">
         <f>$S70+$AB70+$AG70+$AJ70</f>
         <v>0</v>
       </c>
@@ -10500,70 +10518,70 @@
         <v>1</v>
       </c>
       <c r="B71" s="107"/>
-      <c r="C71" s="149">
+      <c r="C71" s="148">
         <f>(IF($C70&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C70=$C$6+$D$6,$O$91,0),0),0)+IF($D70&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D70=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="150"/>
-      <c r="E71" s="148">
+      <c r="D71" s="149"/>
+      <c r="E71" s="147">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E70=$E$6+$F$6,$O$91,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F70=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F71" s="150"/>
-      <c r="G71" s="148">
+      <c r="F71" s="149"/>
+      <c r="G71" s="147">
         <f>(IF($G70&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G70=$G$6+$H$6,$O$91,0),0),0)+IF($H70&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H70=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H71" s="150"/>
-      <c r="I71" s="151">
+      <c r="H71" s="149"/>
+      <c r="I71" s="150">
         <f>(IF($I70&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I70=$I$6+$J$6,$O$91,0),0),0)+IF($J70&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J70=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J71" s="152"/>
-      <c r="K71" s="153">
+      <c r="J71" s="151"/>
+      <c r="K71" s="152">
         <f>(IF($K70&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K70=$K$6+$L$6,$O$91,0),0),0)+IF($L70&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L70=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L71" s="150"/>
-      <c r="M71" s="148">
+      <c r="L71" s="149"/>
+      <c r="M71" s="147">
         <f>(IF($M70&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M70=$M$6+$N$6,$O$91,0),0),0)+IF($N70&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N70=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N71" s="150"/>
-      <c r="O71" s="151">
+      <c r="N71" s="149"/>
+      <c r="O71" s="150">
         <f>(IF($O70&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O70=$O$6+$P$6,$O$91,0),0),0)+IF($P70&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P70=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="150"/>
-      <c r="Q71" s="151">
+      <c r="P71" s="149"/>
+      <c r="Q71" s="150">
         <f>(IF($Q70&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q70=$Q$6+$R$6,$O$91,0),0),0)+IF($R70&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R70=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R71" s="154"/>
-      <c r="S71" s="139"/>
-      <c r="T71" s="155"/>
-      <c r="U71" s="156"/>
-      <c r="V71" s="157"/>
-      <c r="W71" s="158"/>
-      <c r="X71" s="159"/>
-      <c r="Y71" s="156"/>
-      <c r="Z71" s="157"/>
-      <c r="AA71" s="160"/>
-      <c r="AB71" s="139"/>
-      <c r="AC71" s="161"/>
-      <c r="AD71" s="158"/>
-      <c r="AE71" s="159"/>
-      <c r="AF71" s="161"/>
-      <c r="AG71" s="139"/>
-      <c r="AH71" s="155"/>
-      <c r="AI71" s="160"/>
-      <c r="AJ71" s="139"/>
+      <c r="R71" s="153"/>
+      <c r="S71" s="138"/>
+      <c r="T71" s="154"/>
+      <c r="U71" s="155"/>
+      <c r="V71" s="156"/>
+      <c r="W71" s="157"/>
+      <c r="X71" s="158"/>
+      <c r="Y71" s="155"/>
+      <c r="Z71" s="156"/>
+      <c r="AA71" s="159"/>
+      <c r="AB71" s="138"/>
+      <c r="AC71" s="160"/>
+      <c r="AD71" s="157"/>
+      <c r="AE71" s="158"/>
+      <c r="AF71" s="160"/>
+      <c r="AG71" s="138"/>
+      <c r="AH71" s="154"/>
+      <c r="AI71" s="159"/>
+      <c r="AJ71" s="138"/>
       <c r="AK71" s="123"/>
-      <c r="AL71" s="139"/>
+      <c r="AL71" s="138"/>
     </row>
     <row r="72" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="108"/>
-      <c r="B72" s="147" t="s">
+      <c r="B72" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="134">
@@ -10662,7 +10680,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S72" s="163"/>
+      <c r="S72" s="162"/>
       <c r="T72" s="134"/>
       <c r="U72" s="134"/>
       <c r="V72" s="134"/>
@@ -10671,24 +10689,24 @@
       <c r="Y72" s="134"/>
       <c r="Z72" s="134"/>
       <c r="AA72" s="134"/>
-      <c r="AB72" s="163"/>
+      <c r="AB72" s="162"/>
       <c r="AC72" s="134"/>
       <c r="AD72" s="134"/>
       <c r="AE72" s="134"/>
       <c r="AF72" s="134"/>
-      <c r="AG72" s="163"/>
+      <c r="AG72" s="162"/>
       <c r="AH72" s="134"/>
       <c r="AI72" s="134"/>
-      <c r="AJ72" s="163"/>
-      <c r="AK72" s="164">
+      <c r="AJ72" s="162"/>
+      <c r="AK72" s="163">
         <f>SUM(C72:AI72)</f>
         <v>0</v>
       </c>
-      <c r="AL72" s="141"/>
+      <c r="AL72" s="140"/>
     </row>
     <row r="73" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="108"/>
-      <c r="B73" s="147" t="s">
+      <c r="B73" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="134">
@@ -10787,7 +10805,7 @@
 IF(R70 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S73" s="163"/>
+      <c r="S73" s="162"/>
       <c r="T73" s="134"/>
       <c r="U73" s="134"/>
       <c r="V73" s="134"/>
@@ -10796,78 +10814,96 @@
       <c r="Y73" s="134"/>
       <c r="Z73" s="134"/>
       <c r="AA73" s="134"/>
-      <c r="AB73" s="163"/>
+      <c r="AB73" s="162"/>
       <c r="AC73" s="134"/>
       <c r="AD73" s="134"/>
       <c r="AE73" s="134"/>
       <c r="AF73" s="134"/>
-      <c r="AG73" s="163"/>
+      <c r="AG73" s="162"/>
       <c r="AH73" s="134"/>
       <c r="AI73" s="134"/>
-      <c r="AJ73" s="163"/>
-      <c r="AK73" s="164">
+      <c r="AJ73" s="162"/>
+      <c r="AK73" s="163">
         <f>SUM(C73:AI73)</f>
         <v>0</v>
       </c>
-      <c r="AL73" s="141"/>
+      <c r="AL73" s="140"/>
     </row>
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="217">
+      <c r="A74" s="209">
         <f>RANK(AL74,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B74" s="250"/>
-      <c r="C74" s="251"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="235"/>
-      <c r="F74" s="234"/>
-      <c r="G74" s="246"/>
-      <c r="H74" s="237"/>
-      <c r="I74" s="235"/>
-      <c r="J74" s="237"/>
-      <c r="K74" s="238"/>
-      <c r="L74" s="237"/>
-      <c r="M74" s="235"/>
-      <c r="N74" s="234"/>
-      <c r="O74" s="235"/>
-      <c r="P74" s="234"/>
-      <c r="Q74" s="236"/>
-      <c r="R74" s="239"/>
-      <c r="S74" s="242">
+      <c r="B74" s="241" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="225">
+        <v>6</v>
+      </c>
+      <c r="D74" s="226"/>
+      <c r="E74" s="227">
+        <v>7</v>
+      </c>
+      <c r="F74" s="226"/>
+      <c r="G74" s="228">
+        <v>6</v>
+      </c>
+      <c r="H74" s="229"/>
+      <c r="I74" s="227"/>
+      <c r="J74" s="229">
+        <v>7</v>
+      </c>
+      <c r="K74" s="230">
+        <v>7</v>
+      </c>
+      <c r="L74" s="229"/>
+      <c r="M74" s="227">
+        <v>6</v>
+      </c>
+      <c r="N74" s="226"/>
+      <c r="O74" s="227">
+        <v>6</v>
+      </c>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="228"/>
+      <c r="R74" s="231">
+        <v>7</v>
+      </c>
+      <c r="S74" s="233">
         <f>SUM(C75:R75)</f>
         <v>0</v>
       </c>
-      <c r="T74" s="251"/>
-      <c r="U74" s="237"/>
-      <c r="V74" s="235"/>
-      <c r="W74" s="237"/>
-      <c r="X74" s="238"/>
-      <c r="Y74" s="234"/>
-      <c r="Z74" s="236"/>
-      <c r="AA74" s="237"/>
-      <c r="AB74" s="242">
+      <c r="T74" s="225"/>
+      <c r="U74" s="229"/>
+      <c r="V74" s="227"/>
+      <c r="W74" s="229"/>
+      <c r="X74" s="230"/>
+      <c r="Y74" s="226"/>
+      <c r="Z74" s="228"/>
+      <c r="AA74" s="229"/>
+      <c r="AB74" s="233">
         <f>SUM(T75:AA75)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="236"/>
-      <c r="AD74" s="237"/>
-      <c r="AE74" s="238"/>
-      <c r="AF74" s="237"/>
-      <c r="AG74" s="242">
+      <c r="AC74" s="228"/>
+      <c r="AD74" s="229"/>
+      <c r="AE74" s="230"/>
+      <c r="AF74" s="229"/>
+      <c r="AG74" s="233">
         <f>SUM(AC75:AF75)</f>
         <v>0</v>
       </c>
-      <c r="AH74" s="249"/>
-      <c r="AI74" s="244"/>
-      <c r="AJ74" s="242">
+      <c r="AH74" s="240"/>
+      <c r="AI74" s="235"/>
+      <c r="AJ74" s="233">
         <f>AH75</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="245">
+      <c r="AK74" s="236">
         <f>MAX($AL$10:$AL$82) - AL74</f>
         <v>0</v>
       </c>
-      <c r="AL74" s="142">
+      <c r="AL74" s="139">
         <f>$S74+$AB74+$AG74+$AJ74</f>
         <v>0</v>
       </c>
@@ -10878,70 +10914,70 @@
         <v>1</v>
       </c>
       <c r="B75" s="107"/>
-      <c r="C75" s="149">
+      <c r="C75" s="148">
         <f>(IF($C74&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C74=$C$6+$D$6,$O$91,0),0),0)+IF($D74&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D74=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="150"/>
-      <c r="E75" s="148">
+      <c r="D75" s="149"/>
+      <c r="E75" s="147">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E74=$E$6+$F$6,$O$91,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F74=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F75" s="150"/>
-      <c r="G75" s="148">
+      <c r="F75" s="149"/>
+      <c r="G75" s="147">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G74=$G$6+$H$6,$O$91,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H74=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H75" s="150"/>
-      <c r="I75" s="151">
+      <c r="H75" s="149"/>
+      <c r="I75" s="150">
         <f>(IF($I74&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I74=$I$6+$J$6,$O$91,0),0),0)+IF($J74&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J74=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J75" s="152"/>
-      <c r="K75" s="153">
+      <c r="J75" s="151"/>
+      <c r="K75" s="152">
         <f>(IF($K74&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K74=$K$6+$L$6,$O$91,0),0),0)+IF($L74&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L74=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L75" s="150"/>
-      <c r="M75" s="148">
+      <c r="L75" s="149"/>
+      <c r="M75" s="147">
         <f>(IF($M74&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M74=$M$6+$N$6,$O$91,0),0),0)+IF($N74&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N74=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N75" s="150"/>
-      <c r="O75" s="151">
+      <c r="N75" s="149"/>
+      <c r="O75" s="150">
         <f>(IF($O74&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O74=$O$6+$P$6,$O$91,0),0),0)+IF($P74&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P74=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P75" s="150"/>
-      <c r="Q75" s="151">
+      <c r="P75" s="149"/>
+      <c r="Q75" s="150">
         <f>(IF($Q74&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q74=$Q$6+$R$6,$O$91,0),0),0)+IF($R74&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R74=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R75" s="154"/>
-      <c r="S75" s="139"/>
-      <c r="T75" s="155"/>
-      <c r="U75" s="156"/>
-      <c r="V75" s="157"/>
-      <c r="W75" s="158"/>
-      <c r="X75" s="159"/>
-      <c r="Y75" s="156"/>
-      <c r="Z75" s="157"/>
-      <c r="AA75" s="160"/>
-      <c r="AB75" s="139"/>
-      <c r="AC75" s="161"/>
-      <c r="AD75" s="158"/>
-      <c r="AE75" s="159"/>
-      <c r="AF75" s="161"/>
-      <c r="AG75" s="139"/>
-      <c r="AH75" s="155"/>
-      <c r="AI75" s="160"/>
-      <c r="AJ75" s="139"/>
+      <c r="R75" s="153"/>
+      <c r="S75" s="138"/>
+      <c r="T75" s="154"/>
+      <c r="U75" s="155"/>
+      <c r="V75" s="156"/>
+      <c r="W75" s="157"/>
+      <c r="X75" s="158"/>
+      <c r="Y75" s="155"/>
+      <c r="Z75" s="156"/>
+      <c r="AA75" s="159"/>
+      <c r="AB75" s="138"/>
+      <c r="AC75" s="160"/>
+      <c r="AD75" s="157"/>
+      <c r="AE75" s="158"/>
+      <c r="AF75" s="160"/>
+      <c r="AG75" s="138"/>
+      <c r="AH75" s="154"/>
+      <c r="AI75" s="159"/>
+      <c r="AJ75" s="138"/>
       <c r="AK75" s="123"/>
-      <c r="AL75" s="139"/>
+      <c r="AL75" s="138"/>
     </row>
     <row r="76" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="108"/>
-      <c r="B76" s="147" t="s">
+      <c r="B76" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="134">
@@ -11040,7 +11076,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S76" s="163"/>
+      <c r="S76" s="162"/>
       <c r="T76" s="134"/>
       <c r="U76" s="134"/>
       <c r="V76" s="134"/>
@@ -11049,24 +11085,24 @@
       <c r="Y76" s="134"/>
       <c r="Z76" s="134"/>
       <c r="AA76" s="134"/>
-      <c r="AB76" s="163"/>
+      <c r="AB76" s="162"/>
       <c r="AC76" s="134"/>
       <c r="AD76" s="134"/>
       <c r="AE76" s="134"/>
       <c r="AF76" s="134"/>
-      <c r="AG76" s="163"/>
+      <c r="AG76" s="162"/>
       <c r="AH76" s="134"/>
       <c r="AI76" s="134"/>
-      <c r="AJ76" s="163"/>
-      <c r="AK76" s="164">
+      <c r="AJ76" s="162"/>
+      <c r="AK76" s="163">
         <f>SUM(C76:AI76)</f>
         <v>0</v>
       </c>
-      <c r="AL76" s="141"/>
+      <c r="AL76" s="140"/>
     </row>
     <row r="77" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="108"/>
-      <c r="B77" s="147" t="s">
+      <c r="B77" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="134">
@@ -11165,7 +11201,7 @@
 IF(R74 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S77" s="163"/>
+      <c r="S77" s="162"/>
       <c r="T77" s="134"/>
       <c r="U77" s="134"/>
       <c r="V77" s="134"/>
@@ -11174,20 +11210,20 @@
       <c r="Y77" s="134"/>
       <c r="Z77" s="134"/>
       <c r="AA77" s="134"/>
-      <c r="AB77" s="163"/>
+      <c r="AB77" s="162"/>
       <c r="AC77" s="134"/>
       <c r="AD77" s="134"/>
       <c r="AE77" s="134"/>
       <c r="AF77" s="134"/>
-      <c r="AG77" s="163"/>
+      <c r="AG77" s="162"/>
       <c r="AH77" s="134"/>
       <c r="AI77" s="134"/>
-      <c r="AJ77" s="163"/>
-      <c r="AK77" s="164">
+      <c r="AJ77" s="162"/>
+      <c r="AK77" s="163">
         <f>SUM(C77:AI77)</f>
         <v>0</v>
       </c>
-      <c r="AL77" s="141"/>
+      <c r="AL77" s="140"/>
     </row>
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="130">
@@ -11195,13 +11231,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="93"/>
-      <c r="C78" s="133"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="46"/>
       <c r="E78" s="45"/>
       <c r="F78" s="46"/>
-      <c r="G78" s="131"/>
+      <c r="G78" s="49"/>
       <c r="H78" s="48"/>
-      <c r="I78" s="136"/>
+      <c r="I78" s="45"/>
       <c r="J78" s="48"/>
       <c r="K78" s="50"/>
       <c r="L78" s="48"/>
@@ -11211,7 +11247,7 @@
       <c r="P78" s="46"/>
       <c r="Q78" s="49"/>
       <c r="R78" s="51"/>
-      <c r="S78" s="140">
+      <c r="S78" s="139">
         <f>SUM(C79:R79)</f>
         <v>0</v>
       </c>
@@ -11223,7 +11259,7 @@
       <c r="Y78" s="46"/>
       <c r="Z78" s="131"/>
       <c r="AA78" s="48"/>
-      <c r="AB78" s="140">
+      <c r="AB78" s="139">
         <f>SUM(T79:AA79)</f>
         <v>0</v>
       </c>
@@ -11231,13 +11267,13 @@
       <c r="AD78" s="48"/>
       <c r="AE78" s="50"/>
       <c r="AF78" s="48"/>
-      <c r="AG78" s="140">
+      <c r="AG78" s="139">
         <f>SUM(AC79:AF79)</f>
         <v>0</v>
       </c>
       <c r="AH78" s="111"/>
       <c r="AI78" s="59"/>
-      <c r="AJ78" s="140">
+      <c r="AJ78" s="139">
         <f>AH79</f>
         <v>0</v>
       </c>
@@ -11245,7 +11281,7 @@
         <f>MAX($AL$10:$AL$82) - AL78</f>
         <v>0</v>
       </c>
-      <c r="AL78" s="140">
+      <c r="AL78" s="139">
         <f>$S78+$AB78+$AG78+$AJ78</f>
         <v>0</v>
       </c>
@@ -11256,70 +11292,70 @@
         <v>1</v>
       </c>
       <c r="B79" s="107"/>
-      <c r="C79" s="149">
+      <c r="C79" s="148">
         <f>(IF($C78&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C78=$C$6+$D$6,$O$91,0),0),0)+IF($D78&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D78=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="150"/>
-      <c r="E79" s="148">
+      <c r="D79" s="149"/>
+      <c r="E79" s="147">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E78=$E$6+$F$6,$O$91,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F78=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F79" s="150"/>
-      <c r="G79" s="148">
+      <c r="F79" s="149"/>
+      <c r="G79" s="147">
         <f>(IF($G78&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G78=$G$6+$H$6,$O$91,0),0),0)+IF($H78&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H78=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H79" s="150"/>
-      <c r="I79" s="151">
+      <c r="H79" s="149"/>
+      <c r="I79" s="150">
         <f>(IF($I78&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I78=$I$6+$J$6,$O$91,0),0),0)+IF($J78&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J78=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J79" s="152"/>
-      <c r="K79" s="153">
+      <c r="J79" s="151"/>
+      <c r="K79" s="152">
         <f>(IF($K78&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K78=$K$6+$L$6,$O$91,0),0),0)+IF($L78&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L78=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L79" s="150"/>
-      <c r="M79" s="148">
+      <c r="L79" s="149"/>
+      <c r="M79" s="147">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M78=$M$6+$N$6,$O$91,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N78=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N79" s="150"/>
-      <c r="O79" s="151">
+      <c r="N79" s="149"/>
+      <c r="O79" s="150">
         <f>(IF($O78&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O78=$O$6+$P$6,$O$91,0),0),0)+IF($P78&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P78=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P79" s="150"/>
-      <c r="Q79" s="151">
+      <c r="P79" s="149"/>
+      <c r="Q79" s="150">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q78=$Q$6+$R$6,$O$91,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R78=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R79" s="154"/>
-      <c r="S79" s="139"/>
-      <c r="T79" s="155"/>
-      <c r="U79" s="156"/>
-      <c r="V79" s="157"/>
-      <c r="W79" s="158"/>
-      <c r="X79" s="159"/>
-      <c r="Y79" s="156"/>
-      <c r="Z79" s="157"/>
-      <c r="AA79" s="160"/>
-      <c r="AB79" s="139"/>
-      <c r="AC79" s="161"/>
-      <c r="AD79" s="158"/>
-      <c r="AE79" s="159"/>
-      <c r="AF79" s="161"/>
-      <c r="AG79" s="139"/>
-      <c r="AH79" s="155"/>
-      <c r="AI79" s="160"/>
-      <c r="AJ79" s="139"/>
+      <c r="R79" s="153"/>
+      <c r="S79" s="138"/>
+      <c r="T79" s="154"/>
+      <c r="U79" s="155"/>
+      <c r="V79" s="156"/>
+      <c r="W79" s="157"/>
+      <c r="X79" s="158"/>
+      <c r="Y79" s="155"/>
+      <c r="Z79" s="156"/>
+      <c r="AA79" s="159"/>
+      <c r="AB79" s="138"/>
+      <c r="AC79" s="160"/>
+      <c r="AD79" s="157"/>
+      <c r="AE79" s="158"/>
+      <c r="AF79" s="160"/>
+      <c r="AG79" s="138"/>
+      <c r="AH79" s="154"/>
+      <c r="AI79" s="159"/>
+      <c r="AJ79" s="138"/>
       <c r="AK79" s="123"/>
-      <c r="AL79" s="139"/>
+      <c r="AL79" s="138"/>
     </row>
     <row r="80" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="108"/>
-      <c r="B80" s="147" t="s">
+      <c r="B80" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="134">
@@ -11418,7 +11454,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S80" s="163"/>
+      <c r="S80" s="162"/>
       <c r="T80" s="134"/>
       <c r="U80" s="134"/>
       <c r="V80" s="134"/>
@@ -11427,24 +11463,24 @@
       <c r="Y80" s="134"/>
       <c r="Z80" s="134"/>
       <c r="AA80" s="134"/>
-      <c r="AB80" s="163"/>
+      <c r="AB80" s="162"/>
       <c r="AC80" s="134"/>
       <c r="AD80" s="134"/>
       <c r="AE80" s="134"/>
       <c r="AF80" s="134"/>
-      <c r="AG80" s="163"/>
+      <c r="AG80" s="162"/>
       <c r="AH80" s="134"/>
       <c r="AI80" s="134"/>
-      <c r="AJ80" s="163"/>
-      <c r="AK80" s="164">
+      <c r="AJ80" s="162"/>
+      <c r="AK80" s="163">
         <f>SUM(C80:AI80)</f>
         <v>0</v>
       </c>
-      <c r="AL80" s="141"/>
+      <c r="AL80" s="140"/>
     </row>
     <row r="81" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="108"/>
-      <c r="B81" s="147" t="s">
+      <c r="B81" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="134">
@@ -11543,7 +11579,7 @@
 IF(R78 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S81" s="163"/>
+      <c r="S81" s="162"/>
       <c r="T81" s="134"/>
       <c r="U81" s="134"/>
       <c r="V81" s="134"/>
@@ -11552,78 +11588,78 @@
       <c r="Y81" s="134"/>
       <c r="Z81" s="134"/>
       <c r="AA81" s="134"/>
-      <c r="AB81" s="163"/>
+      <c r="AB81" s="162"/>
       <c r="AC81" s="134"/>
       <c r="AD81" s="134"/>
       <c r="AE81" s="134"/>
       <c r="AF81" s="134"/>
-      <c r="AG81" s="163"/>
+      <c r="AG81" s="162"/>
       <c r="AH81" s="134"/>
       <c r="AI81" s="134"/>
-      <c r="AJ81" s="163"/>
-      <c r="AK81" s="164">
+      <c r="AJ81" s="162"/>
+      <c r="AK81" s="163">
         <f>SUM(C81:AI81)</f>
         <v>0</v>
       </c>
-      <c r="AL81" s="141"/>
+      <c r="AL81" s="140"/>
     </row>
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="217">
+      <c r="A82" s="209">
         <f>RANK(AL82,$AL$10:$AL$82,)</f>
         <v>1</v>
       </c>
-      <c r="B82" s="252"/>
-      <c r="C82" s="233"/>
-      <c r="D82" s="234"/>
-      <c r="E82" s="235"/>
-      <c r="F82" s="234"/>
-      <c r="G82" s="236"/>
-      <c r="H82" s="237"/>
-      <c r="I82" s="235"/>
-      <c r="J82" s="237"/>
-      <c r="K82" s="238"/>
-      <c r="L82" s="237"/>
-      <c r="M82" s="235"/>
-      <c r="N82" s="234"/>
-      <c r="O82" s="235"/>
-      <c r="P82" s="234"/>
-      <c r="Q82" s="236"/>
-      <c r="R82" s="239"/>
-      <c r="S82" s="253">
+      <c r="B82" s="242"/>
+      <c r="C82" s="225"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="227"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="228"/>
+      <c r="H82" s="229"/>
+      <c r="I82" s="227"/>
+      <c r="J82" s="229"/>
+      <c r="K82" s="230"/>
+      <c r="L82" s="229"/>
+      <c r="M82" s="227"/>
+      <c r="N82" s="226"/>
+      <c r="O82" s="227"/>
+      <c r="P82" s="226"/>
+      <c r="Q82" s="228"/>
+      <c r="R82" s="231"/>
+      <c r="S82" s="243">
         <f>SUM(C83:R83)</f>
         <v>0</v>
       </c>
-      <c r="T82" s="233"/>
-      <c r="U82" s="237"/>
-      <c r="V82" s="235"/>
-      <c r="W82" s="237"/>
-      <c r="X82" s="238"/>
-      <c r="Y82" s="234"/>
-      <c r="Z82" s="246"/>
-      <c r="AA82" s="237"/>
-      <c r="AB82" s="254">
+      <c r="T82" s="225"/>
+      <c r="U82" s="229"/>
+      <c r="V82" s="227"/>
+      <c r="W82" s="229"/>
+      <c r="X82" s="230"/>
+      <c r="Y82" s="226"/>
+      <c r="Z82" s="237"/>
+      <c r="AA82" s="229"/>
+      <c r="AB82" s="244">
         <f>SUM(T83:AA83)</f>
         <v>0</v>
       </c>
-      <c r="AC82" s="236"/>
-      <c r="AD82" s="237"/>
-      <c r="AE82" s="238"/>
-      <c r="AF82" s="237"/>
-      <c r="AG82" s="254">
+      <c r="AC82" s="228"/>
+      <c r="AD82" s="229"/>
+      <c r="AE82" s="230"/>
+      <c r="AF82" s="229"/>
+      <c r="AG82" s="244">
         <f>SUM(AC83:AF83)</f>
         <v>0</v>
       </c>
-      <c r="AH82" s="249"/>
-      <c r="AI82" s="244"/>
-      <c r="AJ82" s="253">
+      <c r="AH82" s="240"/>
+      <c r="AI82" s="235"/>
+      <c r="AJ82" s="243">
         <f>AH83</f>
         <v>0</v>
       </c>
-      <c r="AK82" s="255">
+      <c r="AK82" s="245">
         <f>MAX($AL$10:$AL$82) - AL82</f>
         <v>0</v>
       </c>
-      <c r="AL82" s="143">
+      <c r="AL82" s="142">
         <f>$S82+$AB82+$AG82+$AJ82</f>
         <v>0</v>
       </c>
@@ -11631,90 +11667,90 @@
     <row r="83" spans="1:38" s="27" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="79"/>
       <c r="B83" s="78"/>
-      <c r="C83" s="186">
+      <c r="C83" s="185">
         <f>(IF($C82&lt;&gt;"",($C$6*$O$92)+IF($C$6=4,($O$90)+IF($C82=$C$6+$D$6,$O$91,0),0),0)+IF($D82&lt;&gt;"",($D$6*$O$92)+IF($D$6=4,($O$90)+IF($D82=$C$6+$D$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="187"/>
-      <c r="E83" s="188">
+      <c r="D83" s="186"/>
+      <c r="E83" s="187">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$92)+IF($E$6=4,($O$90)+IF($E82=$E$6+$F$6,$O$91,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$92)+IF($F$6=4,($O$90)+IF($F82=$E$6+$F$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F83" s="187"/>
-      <c r="G83" s="188">
+      <c r="F83" s="186"/>
+      <c r="G83" s="187">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$92)+IF($G$6=4,($O$90)+IF($G82=$G$6+$H$6,$O$91,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$92)+IF($H$6=4,($O$90)+IF($H82=$G$6+$H$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H83" s="187"/>
-      <c r="I83" s="188">
+      <c r="H83" s="186"/>
+      <c r="I83" s="187">
         <f>(IF($I82&lt;&gt;"",($I$6*$O$92)+IF($I$6=4,($O$90)+IF($I82=$I$6+$J$6,$O$91,0),0),0)+IF($J82&lt;&gt;"",($J$6*$O$92)+IF($J$6=4,($O$90)+IF($J82=$I$6+$J$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J83" s="189"/>
-      <c r="K83" s="190">
+      <c r="J83" s="188"/>
+      <c r="K83" s="189">
         <f>(IF($K82&lt;&gt;"",($K$6*$O$92)+IF($K$6=4,($O$90)+IF($K82=$K$6+$L$6,$O$91,0),0),0)+IF($L82&lt;&gt;"",($L$6*$O$92)+IF($L$6=4,($O$90)+IF($L82=$K$6+$L$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L83" s="187"/>
-      <c r="M83" s="188">
+      <c r="L83" s="186"/>
+      <c r="M83" s="187">
         <f>(IF($M82&lt;&gt;"",($M$6*$O$92)+IF($M$6=4,($O$90)+IF($M82=$M$6+$N$6,$O$91,0),0),0)+IF($N82&lt;&gt;"",($N$6*$O$92)+IF($N$6=4,($O$90)+IF($N82=$M$6+$N$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N83" s="187"/>
-      <c r="O83" s="188">
+      <c r="N83" s="186"/>
+      <c r="O83" s="187">
         <f>(IF($O82&lt;&gt;"",($O$6*$O$92)+IF($O$6=4,($O$90)+IF($O82=$O$6+$P$6,$O$91,0),0),0)+IF($P82&lt;&gt;"",($P$6*$O$92)+IF($P$6=4,($O$90)+IF($P82=$O$6+$P$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P83" s="187"/>
-      <c r="Q83" s="188">
+      <c r="P83" s="186"/>
+      <c r="Q83" s="187">
         <f>(IF($Q82&lt;&gt;"",($Q$6*$O$92)+IF($Q$6=4,($O$90)+IF($Q82=$Q$6+$R$6,$O$91,0),0),0)+IF($R82&lt;&gt;"",($R$6*$O$92)+IF($R$6=4,($O$90)+IF($R82=$Q$6+$R$6,$O$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R83" s="191"/>
-      <c r="S83" s="185"/>
-      <c r="T83" s="186">
+      <c r="R83" s="190"/>
+      <c r="S83" s="184"/>
+      <c r="T83" s="185">
         <f>(IF($T82&lt;&gt;"",($T$6*$P$92)+IF($T$6=4,($P$90)+IF($T82=$T$6+$U$6,$P$91,0),0),0)+IF($U82&lt;&gt;"",($U$6*$P$92)+IF($U$6=4,($P$90)+IF($U82=$T$6+$U$6,$P$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="U83" s="187"/>
-      <c r="V83" s="188">
+      <c r="U83" s="186"/>
+      <c r="V83" s="187">
         <f>(IF($V82&lt;&gt;"",($V$6*$P$92)+IF($V$6=4,($P$90)+IF($V82=$V$6+$W$6,$P$91,0),0),0)+IF($W82&lt;&gt;"",($W$6*$P$92)+IF($W$6=4,($P$90)+IF($W82=$V$6+$W$6,$P$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="W83" s="189"/>
-      <c r="X83" s="190">
+      <c r="W83" s="188"/>
+      <c r="X83" s="189">
         <f>(IF($X82&lt;&gt;"",($X$6*$P$92)+IF($X$6=4,($P$90)+IF($X82=$X$6+$Y$6,$P$91,0),0),0)+IF($Y82&lt;&gt;"",($Y$6*$P$92)+IF($Y$6=4,($P$90)+IF($Y82=$X$6+$Y$6,$P$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="187"/>
-      <c r="Z83" s="188">
+      <c r="Y83" s="186"/>
+      <c r="Z83" s="187">
         <f>(IF($Z82&lt;&gt;"",($Z$6*$P$92)+IF($Z$6=4,($P$90)+IF($Z82=$Z$6+$AA$6,$P$91,0),0),0)+IF($AA82&lt;&gt;"",($AA$6*$P$92)+IF($AA$6=4,($P$90)+IF($AA82=$Z$6+$AA$6,$P$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="AA83" s="191"/>
+      <c r="AA83" s="190"/>
       <c r="AB83" s="114"/>
-      <c r="AC83" s="186">
+      <c r="AC83" s="185">
         <f>(IF($AC82&lt;&gt;"",($AC$6*$Q$92)+IF($AC$6=4,($Q$90)+IF($AC82=$AC$6+$AD$6,$Q$91,0),0),0)+IF($AD82&lt;&gt;"",($AD$6*$Q$92)+IF($AD$6=4,($Q$90)+IF($AD82=$AC$6+$AD$6,$Q$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="AD83" s="189"/>
-      <c r="AE83" s="190">
+      <c r="AD83" s="188"/>
+      <c r="AE83" s="189">
         <f>(IF($AE82&lt;&gt;"",($AE$6*$Q$92)+IF($AE$6=4,($Q$90)+IF($AE82=$AE$6+$AF$6,$Q$91,0),0),0)+IF($AF82&lt;&gt;"",($AF$6*$Q$92)+IF($AF$6=4,($Q$90)+IF($AF82=$AE$6+$AF$6,$Q$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="AF83" s="191"/>
+      <c r="AF83" s="190"/>
       <c r="AG83" s="114"/>
-      <c r="AH83" s="186">
+      <c r="AH83" s="185">
         <f>(IF($AH82&lt;&gt;"",($AH$6*$R$92)+IF($AH$6=4,($R$90)+IF($AH82=$AH$6+$AI$6,$R$91,0),0),0)+IF($AI82&lt;&gt;"",($AI$6*$R$92)+IF($AI$6=4,($R$90)+IF($AI82=$AH$6+$AI$6,$R$91,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="AI83" s="191"/>
-      <c r="AJ83" s="192"/>
+      <c r="AI83" s="190"/>
+      <c r="AJ83" s="191"/>
       <c r="AK83" s="115"/>
     </row>
     <row r="84" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="108"/>
-      <c r="B84" s="147" t="s">
+      <c r="B84" s="146" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="134">
@@ -11813,7 +11849,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S84" s="163"/>
+      <c r="S84" s="162"/>
       <c r="T84" s="134">
         <f>IF(ISBLANK(T82),
 0,
@@ -11862,7 +11898,7 @@
 IF(AA$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="AB84" s="163"/>
+      <c r="AB84" s="162"/>
       <c r="AC84" s="134">
         <f>IF(ISBLANK(AC82),
 0,
@@ -11887,7 +11923,7 @@
 IF(AF$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="AG84" s="163"/>
+      <c r="AG84" s="162"/>
       <c r="AH84" s="134">
         <f>IF(ISBLANK(AH82),
 0,
@@ -11900,16 +11936,16 @@
 IF(AI$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="AJ84" s="163"/>
-      <c r="AK84" s="164">
+      <c r="AJ84" s="162"/>
+      <c r="AK84" s="163">
         <f>SUM(C84:AI84)</f>
         <v>0</v>
       </c>
-      <c r="AL84" s="141"/>
+      <c r="AL84" s="140"/>
     </row>
     <row r="85" spans="1:38" s="27" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="108"/>
-      <c r="B85" s="147" t="s">
+      <c r="B85" s="146" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="134">
@@ -12008,7 +12044,7 @@
 IF(R82 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S85" s="163"/>
+      <c r="S85" s="162"/>
       <c r="T85" s="134">
         <f>IF(T84 = 0,
 0,
@@ -12057,7 +12093,7 @@
 IF(AA82 = (Z$6+AA$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="AB85" s="163"/>
+      <c r="AB85" s="162"/>
       <c r="AC85" s="134">
         <f>IF(AC84 = 0,
 0,
@@ -12082,7 +12118,7 @@
 IF(AF82 = (AE$6+AF$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="AG85" s="163"/>
+      <c r="AG85" s="162"/>
       <c r="AH85" s="134">
         <f>IF(AH84 = 0,
 0,
@@ -12095,19 +12131,19 @@
 IF(AI82 = (AH$6+AI$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="AJ85" s="163"/>
-      <c r="AK85" s="164">
+      <c r="AJ85" s="162"/>
+      <c r="AK85" s="163">
         <f>SUM(C85:AI85)</f>
         <v>0</v>
       </c>
-      <c r="AL85" s="141"/>
+      <c r="AL85" s="140"/>
     </row>
     <row r="86" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="66"/>
       <c r="B86" s="56"/>
       <c r="C86" s="67">
         <f>COUNT(C10,C14,C18,C22,C26,C30,C34, C38, C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="68">
         <f>COUNT(D10,D14,D18,D22,D26,D30,D34, D38, D42,D46,D50,D54,D58,D62,D66,D70,D78,D82)</f>
@@ -12115,19 +12151,19 @@
       </c>
       <c r="E86" s="69">
         <f t="shared" ref="E86:R86" si="0">COUNT(E10,E14,E18,E22,E26,E30,E34, E38, E42,E46,E50,E54,E58,E62,E66,E70,E74,E78,E82)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="68">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="69">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" s="70">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86" s="71">
         <f t="shared" si="0"/>
@@ -12135,11 +12171,11 @@
       </c>
       <c r="J86" s="89">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K86" s="67">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86" s="68">
         <f t="shared" si="0"/>
@@ -12147,15 +12183,15 @@
       </c>
       <c r="M86" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N86" s="68">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O86" s="69">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P86" s="70">
         <f t="shared" si="0"/>
@@ -12163,11 +12199,11 @@
       </c>
       <c r="Q86" s="71">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R86" s="89">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S86" s="74"/>
       <c r="T86" s="67">
@@ -12235,12 +12271,12 @@
     <row r="88" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="43"/>
       <c r="N88" s="26"/>
-      <c r="O88" s="262" t="s">
+      <c r="O88" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="P88" s="263"/>
-      <c r="Q88" s="263"/>
-      <c r="R88" s="264"/>
+      <c r="P88" s="292"/>
+      <c r="Q88" s="292"/>
+      <c r="R88" s="293"/>
       <c r="AG88" s="30"/>
       <c r="AH88" s="30"/>
       <c r="AI88" s="30"/>
@@ -12249,21 +12285,21 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
-      <c r="B89" s="273" t="s">
+      <c r="B89" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="274"/>
-      <c r="D89" s="274"/>
-      <c r="E89" s="274"/>
-      <c r="F89" s="274"/>
-      <c r="G89" s="274"/>
-      <c r="H89" s="274"/>
-      <c r="I89" s="274"/>
-      <c r="J89" s="274"/>
-      <c r="K89" s="274"/>
-      <c r="L89" s="274"/>
-      <c r="M89" s="274"/>
-      <c r="N89" s="275"/>
+      <c r="C89" s="272"/>
+      <c r="D89" s="272"/>
+      <c r="E89" s="272"/>
+      <c r="F89" s="272"/>
+      <c r="G89" s="272"/>
+      <c r="H89" s="272"/>
+      <c r="I89" s="272"/>
+      <c r="J89" s="272"/>
+      <c r="K89" s="272"/>
+      <c r="L89" s="272"/>
+      <c r="M89" s="272"/>
+      <c r="N89" s="273"/>
       <c r="O89" s="21">
         <v>1</v>
       </c>
@@ -12276,45 +12312,45 @@
       <c r="R89" s="22">
         <v>4</v>
       </c>
-      <c r="U89" s="265" t="s">
+      <c r="U89" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="V89" s="266"/>
-      <c r="W89" s="266"/>
-      <c r="X89" s="266"/>
-      <c r="Y89" s="266"/>
-      <c r="Z89" s="266"/>
-      <c r="AA89" s="266"/>
-      <c r="AB89" s="266"/>
-      <c r="AC89" s="266"/>
-      <c r="AD89" s="267"/>
+      <c r="V89" s="295"/>
+      <c r="W89" s="295"/>
+      <c r="X89" s="295"/>
+      <c r="Y89" s="295"/>
+      <c r="Z89" s="295"/>
+      <c r="AA89" s="295"/>
+      <c r="AB89" s="295"/>
+      <c r="AC89" s="295"/>
+      <c r="AD89" s="296"/>
       <c r="AE89" s="28"/>
       <c r="AF89" s="28"/>
-      <c r="AG89" s="265" t="s">
+      <c r="AG89" s="294" t="s">
         <v>24</v>
       </c>
-      <c r="AH89" s="266"/>
-      <c r="AI89" s="266"/>
-      <c r="AJ89" s="266"/>
-      <c r="AK89" s="267"/>
+      <c r="AH89" s="295"/>
+      <c r="AI89" s="295"/>
+      <c r="AJ89" s="295"/>
+      <c r="AK89" s="296"/>
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="34"/>
-      <c r="B90" s="280" t="s">
+      <c r="B90" s="278" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="260"/>
-      <c r="D90" s="260"/>
-      <c r="E90" s="260"/>
-      <c r="F90" s="260"/>
-      <c r="G90" s="260"/>
-      <c r="H90" s="260"/>
-      <c r="I90" s="260"/>
-      <c r="J90" s="260"/>
-      <c r="K90" s="260"/>
-      <c r="L90" s="260"/>
-      <c r="M90" s="260"/>
-      <c r="N90" s="261"/>
+      <c r="C90" s="279"/>
+      <c r="D90" s="279"/>
+      <c r="E90" s="279"/>
+      <c r="F90" s="279"/>
+      <c r="G90" s="279"/>
+      <c r="H90" s="279"/>
+      <c r="I90" s="279"/>
+      <c r="J90" s="279"/>
+      <c r="K90" s="279"/>
+      <c r="L90" s="279"/>
+      <c r="M90" s="279"/>
+      <c r="N90" s="280"/>
       <c r="O90" s="20">
         <v>5</v>
       </c>
@@ -12327,49 +12363,49 @@
       <c r="R90" s="23">
         <v>20</v>
       </c>
-      <c r="U90" s="278" t="s">
+      <c r="U90" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="V90" s="279"/>
-      <c r="W90" s="279"/>
-      <c r="X90" s="279"/>
-      <c r="Y90" s="279"/>
-      <c r="Z90" s="279"/>
-      <c r="AA90" s="279"/>
-      <c r="AB90" s="276">
-        <v>15</v>
-      </c>
-      <c r="AC90" s="276"/>
-      <c r="AD90" s="277"/>
+      <c r="V90" s="277"/>
+      <c r="W90" s="277"/>
+      <c r="X90" s="277"/>
+      <c r="Y90" s="277"/>
+      <c r="Z90" s="277"/>
+      <c r="AA90" s="277"/>
+      <c r="AB90" s="274">
+        <v>17</v>
+      </c>
+      <c r="AC90" s="274"/>
+      <c r="AD90" s="275"/>
       <c r="AE90" s="29"/>
       <c r="AF90" s="29"/>
-      <c r="AG90" s="259" t="s">
+      <c r="AG90" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="AH90" s="260"/>
-      <c r="AI90" s="260"/>
-      <c r="AJ90" s="261"/>
+      <c r="AH90" s="279"/>
+      <c r="AI90" s="279"/>
+      <c r="AJ90" s="280"/>
       <c r="AK90" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
-      <c r="B91" s="280" t="s">
+      <c r="B91" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C91" s="260"/>
-      <c r="D91" s="260"/>
-      <c r="E91" s="260"/>
-      <c r="F91" s="260"/>
-      <c r="G91" s="260"/>
-      <c r="H91" s="260"/>
-      <c r="I91" s="260"/>
-      <c r="J91" s="260"/>
-      <c r="K91" s="260"/>
-      <c r="L91" s="260"/>
-      <c r="M91" s="260"/>
-      <c r="N91" s="261"/>
+      <c r="C91" s="279"/>
+      <c r="D91" s="279"/>
+      <c r="E91" s="279"/>
+      <c r="F91" s="279"/>
+      <c r="G91" s="279"/>
+      <c r="H91" s="279"/>
+      <c r="I91" s="279"/>
+      <c r="J91" s="279"/>
+      <c r="K91" s="279"/>
+      <c r="L91" s="279"/>
+      <c r="M91" s="279"/>
+      <c r="N91" s="280"/>
       <c r="O91" s="20">
         <v>2</v>
       </c>
@@ -12398,33 +12434,33 @@
       <c r="AD91" s="288"/>
       <c r="AE91" s="29"/>
       <c r="AF91" s="29"/>
-      <c r="AG91" s="259" t="s">
+      <c r="AG91" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="AH91" s="260"/>
-      <c r="AI91" s="260"/>
-      <c r="AJ91" s="261"/>
+      <c r="AH91" s="279"/>
+      <c r="AI91" s="279"/>
+      <c r="AJ91" s="280"/>
       <c r="AK91" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
-      <c r="B92" s="268" t="s">
+      <c r="B92" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="257"/>
-      <c r="D92" s="257"/>
-      <c r="E92" s="257"/>
-      <c r="F92" s="257"/>
-      <c r="G92" s="257"/>
-      <c r="H92" s="257"/>
-      <c r="I92" s="257"/>
-      <c r="J92" s="257"/>
-      <c r="K92" s="257"/>
-      <c r="L92" s="257"/>
-      <c r="M92" s="257"/>
-      <c r="N92" s="258"/>
+      <c r="C92" s="265"/>
+      <c r="D92" s="265"/>
+      <c r="E92" s="265"/>
+      <c r="F92" s="265"/>
+      <c r="G92" s="265"/>
+      <c r="H92" s="265"/>
+      <c r="I92" s="265"/>
+      <c r="J92" s="265"/>
+      <c r="K92" s="265"/>
+      <c r="L92" s="265"/>
+      <c r="M92" s="265"/>
+      <c r="N92" s="266"/>
       <c r="O92" s="3">
         <v>1</v>
       </c>
@@ -12448,29 +12484,29 @@
       <c r="AA92" s="282"/>
       <c r="AB92" s="283">
         <f>AB90*AB91</f>
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AC92" s="283"/>
       <c r="AD92" s="284"/>
       <c r="AE92" s="29"/>
       <c r="AF92" s="29"/>
-      <c r="AG92" s="259" t="s">
+      <c r="AG92" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="AH92" s="260"/>
-      <c r="AI92" s="260"/>
-      <c r="AJ92" s="261"/>
+      <c r="AH92" s="279"/>
+      <c r="AI92" s="279"/>
+      <c r="AJ92" s="280"/>
       <c r="AK92" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG93" s="256" t="s">
+      <c r="AG93" s="289" t="s">
         <v>23</v>
       </c>
-      <c r="AH93" s="257"/>
-      <c r="AI93" s="257"/>
-      <c r="AJ93" s="258"/>
+      <c r="AH93" s="265"/>
+      <c r="AI93" s="265"/>
+      <c r="AJ93" s="266"/>
       <c r="AK93" s="109" t="s">
         <v>64</v>
       </c>
@@ -12481,20 +12517,13 @@
     <sortCondition ref="B10:B82"/>
   </sortState>
   <mergeCells count="37">
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="AG93:AJ93"/>
+    <mergeCell ref="AG90:AJ90"/>
+    <mergeCell ref="AG92:AJ92"/>
+    <mergeCell ref="AG91:AJ91"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="U89:AD89"/>
+    <mergeCell ref="AG89:AK89"/>
     <mergeCell ref="B92:N92"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AJ1"/>
@@ -12511,13 +12540,20 @@
     <mergeCell ref="U91:AA91"/>
     <mergeCell ref="AB91:AD91"/>
     <mergeCell ref="B91:N91"/>
-    <mergeCell ref="AG93:AJ93"/>
-    <mergeCell ref="AG90:AJ90"/>
-    <mergeCell ref="AG92:AJ92"/>
-    <mergeCell ref="AG91:AJ91"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="U89:AD89"/>
-    <mergeCell ref="AG89:AK89"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="T5:W5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1954,7 +1954,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2209,9 +2209,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2372,9 +2369,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2417,9 +2411,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2433,9 +2424,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,18 +2462,171 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2498,157 +2639,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3849,7 +3846,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP98" sqref="AP98"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3872,217 +3869,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="268"/>
-      <c r="T1" s="268"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="268"/>
-      <c r="W1" s="268"/>
-      <c r="X1" s="268"/>
-      <c r="Y1" s="268"/>
-      <c r="Z1" s="268"/>
-      <c r="AA1" s="268"/>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="268"/>
-      <c r="AD1" s="268"/>
-      <c r="AE1" s="268"/>
-      <c r="AF1" s="268"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="268"/>
-      <c r="AI1" s="268"/>
-      <c r="AJ1" s="268"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="280"/>
+      <c r="L1" s="280"/>
+      <c r="M1" s="280"/>
+      <c r="N1" s="280"/>
+      <c r="O1" s="280"/>
+      <c r="P1" s="281"/>
+      <c r="Q1" s="281"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="281"/>
+      <c r="U1" s="281"/>
+      <c r="V1" s="281"/>
+      <c r="W1" s="281"/>
+      <c r="X1" s="281"/>
+      <c r="Y1" s="281"/>
+      <c r="Z1" s="281"/>
+      <c r="AA1" s="281"/>
+      <c r="AB1" s="281"/>
+      <c r="AC1" s="281"/>
+      <c r="AD1" s="281"/>
+      <c r="AE1" s="281"/>
+      <c r="AF1" s="281"/>
+      <c r="AG1" s="281"/>
+      <c r="AH1" s="281"/>
+      <c r="AI1" s="281"/>
+      <c r="AJ1" s="281"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="282" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="270" t="s">
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="268"/>
-      <c r="X2" s="268"/>
-      <c r="Y2" s="268"/>
-      <c r="Z2" s="268"/>
-      <c r="AA2" s="268"/>
-      <c r="AB2" s="268"/>
-      <c r="AC2" s="268"/>
-      <c r="AD2" s="268"/>
-      <c r="AE2" s="268"/>
-      <c r="AF2" s="268"/>
-      <c r="AG2" s="268"/>
-      <c r="AH2" s="268"/>
-      <c r="AI2" s="268"/>
-      <c r="AJ2" s="268"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="281"/>
+      <c r="U2" s="281"/>
+      <c r="V2" s="281"/>
+      <c r="W2" s="281"/>
+      <c r="X2" s="281"/>
+      <c r="Y2" s="281"/>
+      <c r="Z2" s="281"/>
+      <c r="AA2" s="281"/>
+      <c r="AB2" s="281"/>
+      <c r="AC2" s="281"/>
+      <c r="AD2" s="281"/>
+      <c r="AE2" s="281"/>
+      <c r="AF2" s="281"/>
+      <c r="AG2" s="281"/>
+      <c r="AH2" s="281"/>
+      <c r="AI2" s="281"/>
+      <c r="AJ2" s="281"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="268"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="268"/>
-      <c r="S3" s="268"/>
-      <c r="T3" s="268"/>
-      <c r="U3" s="268"/>
-      <c r="V3" s="268"/>
-      <c r="W3" s="268"/>
-      <c r="X3" s="268"/>
-      <c r="Y3" s="268"/>
-      <c r="Z3" s="268"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="268"/>
-      <c r="AC3" s="268"/>
-      <c r="AD3" s="268"/>
-      <c r="AE3" s="268"/>
-      <c r="AF3" s="268"/>
-      <c r="AG3" s="268"/>
-      <c r="AH3" s="268"/>
-      <c r="AI3" s="268"/>
-      <c r="AJ3" s="268"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="281"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="281"/>
+      <c r="AE3" s="281"/>
+      <c r="AF3" s="281"/>
+      <c r="AG3" s="281"/>
+      <c r="AH3" s="281"/>
+      <c r="AI3" s="281"/>
+      <c r="AJ3" s="281"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="284" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="285"/>
-      <c r="N4" s="285"/>
-      <c r="O4" s="285"/>
-      <c r="P4" s="285"/>
-      <c r="Q4" s="285"/>
-      <c r="R4" s="285"/>
-      <c r="S4" s="286"/>
-      <c r="T4" s="284" t="s">
+      <c r="C4" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="250"/>
+      <c r="T4" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="285"/>
-      <c r="V4" s="285"/>
-      <c r="W4" s="285"/>
-      <c r="X4" s="285"/>
-      <c r="Y4" s="285"/>
-      <c r="Z4" s="285"/>
-      <c r="AA4" s="285"/>
-      <c r="AB4" s="286"/>
-      <c r="AC4" s="284" t="s">
+      <c r="U4" s="249"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
+      <c r="X4" s="249"/>
+      <c r="Y4" s="249"/>
+      <c r="Z4" s="249"/>
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="250"/>
+      <c r="AC4" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="285"/>
-      <c r="AE4" s="285"/>
-      <c r="AF4" s="285"/>
-      <c r="AG4" s="287"/>
-      <c r="AH4" s="284" t="s">
+      <c r="AD4" s="249"/>
+      <c r="AE4" s="249"/>
+      <c r="AF4" s="249"/>
+      <c r="AG4" s="266"/>
+      <c r="AH4" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="285"/>
-      <c r="AJ4" s="286"/>
+      <c r="AI4" s="249"/>
+      <c r="AJ4" s="250"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="292" t="s">
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="293"/>
-      <c r="M5" s="293"/>
-      <c r="N5" s="293"/>
-      <c r="O5" s="293"/>
-      <c r="P5" s="293"/>
-      <c r="Q5" s="293"/>
-      <c r="R5" s="294"/>
-      <c r="S5" s="288" t="s">
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="296" t="s">
+      <c r="T5" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="293"/>
-      <c r="V5" s="293"/>
-      <c r="W5" s="294"/>
-      <c r="X5" s="292" t="s">
+      <c r="U5" s="256"/>
+      <c r="V5" s="256"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="293"/>
-      <c r="Z5" s="293"/>
-      <c r="AA5" s="294"/>
-      <c r="AB5" s="288" t="s">
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="257"/>
+      <c r="AB5" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="295" t="s">
+      <c r="AC5" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="294"/>
-      <c r="AE5" s="292" t="s">
+      <c r="AD5" s="257"/>
+      <c r="AE5" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="294"/>
-      <c r="AG5" s="288" t="s">
+      <c r="AF5" s="257"/>
+      <c r="AG5" s="251" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="288" t="s">
+      <c r="AJ5" s="251" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4090,7 +4087,7 @@
     <row r="6" spans="1:38" s="39" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="171">
+      <c r="C6" s="170">
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
@@ -4098,23 +4095,23 @@
         <f>Résultats!$J$4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="174">
+      <c r="E6" s="173">
         <f>Résultats!$J$6</f>
         <v>0</v>
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="174">
+        <v>1</v>
+      </c>
+      <c r="G6" s="173">
         <f>Résultats!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="174">
+      <c r="I6" s="173">
         <f>Résultats!$J$13</f>
         <v>1</v>
       </c>
@@ -4124,13 +4121,13 @@
       </c>
       <c r="K6" s="110">
         <f>Résultats!$J$17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="108">
         <f>Résultats!$J$18</f>
         <v>0</v>
       </c>
-      <c r="M6" s="174">
+      <c r="M6" s="173">
         <f>Résultats!$J$20</f>
         <v>0</v>
       </c>
@@ -4138,7 +4135,7 @@
         <f>Résultats!$J$21</f>
         <v>1</v>
       </c>
-      <c r="O6" s="174">
+      <c r="O6" s="173">
         <f>Résultats!$J$24</f>
         <v>0</v>
       </c>
@@ -4154,8 +4151,8 @@
         <f>Résultats!$J$28</f>
         <v>0</v>
       </c>
-      <c r="S6" s="289"/>
-      <c r="T6" s="171">
+      <c r="S6" s="252"/>
+      <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
       </c>
@@ -4163,7 +4160,7 @@
         <f>Résultats!$V$7</f>
         <v>0</v>
       </c>
-      <c r="V6" s="174">
+      <c r="V6" s="173">
         <f>Résultats!$V$10</f>
         <v>0</v>
       </c>
@@ -4187,7 +4184,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="289"/>
+      <c r="AB6" s="252"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4204,8 +4201,8 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="289"/>
-      <c r="AH6" s="216">
+      <c r="AG6" s="252"/>
+      <c r="AH6" s="214">
         <f>Résultats!$AH$15</f>
         <v>0</v>
       </c>
@@ -4213,179 +4210,179 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="289"/>
+      <c r="AJ6" s="252"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="172">
+      <c r="C7" s="171">
         <f>IF(ISBLANK($C10),0,($C$6*PT_VICTOIRE_R1)+IF($C$6=4,PT_PREDICTION_EQUIPE_R1+IF($C10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
       <c r="D7" s="117"/>
-      <c r="E7" s="175"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="175"/>
+      <c r="I7" s="174"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
       <c r="L7" s="117"/>
-      <c r="M7" s="175"/>
+      <c r="M7" s="174"/>
       <c r="N7" s="118"/>
-      <c r="O7" s="175"/>
+      <c r="O7" s="174"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="172"/>
+      <c r="S7" s="252"/>
+      <c r="T7" s="171"/>
       <c r="U7" s="117"/>
-      <c r="V7" s="175"/>
+      <c r="V7" s="174"/>
       <c r="W7" s="117"/>
       <c r="X7" s="120"/>
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="289"/>
+      <c r="AB7" s="252"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="289"/>
-      <c r="AH7" s="216"/>
+      <c r="AG7" s="252"/>
+      <c r="AH7" s="214"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="289"/>
+      <c r="AJ7" s="252"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="173" t="str">
+      <c r="C8" s="172" t="str">
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="176" t="str">
+      <c r="D8" s="175" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
-      <c r="E8" s="177" t="str">
+      <c r="E8" s="176" t="str">
         <f>Résultats!$B$6</f>
         <v>BOSTON</v>
       </c>
-      <c r="F8" s="178" t="str">
+      <c r="F8" s="177" t="str">
         <f>Résultats!$B$7</f>
         <v>TORONTO</v>
       </c>
-      <c r="G8" s="179" t="str">
+      <c r="G8" s="178" t="str">
         <f>Résultats!$B$10</f>
         <v>WASHINGTON</v>
       </c>
-      <c r="H8" s="176" t="str">
+      <c r="H8" s="175" t="str">
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="177" t="str">
+      <c r="I8" s="176" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
-      <c r="J8" s="176" t="str">
+      <c r="J8" s="175" t="str">
         <f>Résultats!$B$14</f>
         <v>PITTSBURGH</v>
       </c>
-      <c r="K8" s="180" t="str">
+      <c r="K8" s="179" t="str">
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="176" t="str">
+      <c r="L8" s="175" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
-      <c r="M8" s="177" t="str">
+      <c r="M8" s="176" t="str">
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="178" t="str">
+      <c r="N8" s="177" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
-      <c r="O8" s="177" t="str">
+      <c r="O8" s="176" t="str">
         <f>Résultats!$B$24</f>
         <v>NASHVILLE</v>
       </c>
-      <c r="P8" s="178" t="str">
+      <c r="P8" s="177" t="str">
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="Q8" s="179" t="str">
+      <c r="Q8" s="178" t="str">
         <f>Résultats!$B$27</f>
         <v>SAN JOSE</v>
       </c>
-      <c r="R8" s="176" t="str">
+      <c r="R8" s="175" t="str">
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="289"/>
-      <c r="T8" s="173" t="str">
+      <c r="S8" s="252"/>
+      <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U8" s="176" t="str">
+      <c r="U8" s="175" t="str">
         <f>Résultats!$N$7</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V8" s="177" t="str">
+      <c r="V8" s="176" t="str">
         <f>Résultats!$N$10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W8" s="176" t="str">
+      <c r="W8" s="175" t="str">
         <f>Résultats!$N$11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X8" s="180" t="str">
+      <c r="X8" s="179" t="str">
         <f>Résultats!$N$20</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y8" s="178" t="str">
+      <c r="Y8" s="177" t="str">
         <f>Résultats!$N$21</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z8" s="179" t="str">
+      <c r="Z8" s="178" t="str">
         <f>Résultats!$N$24</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA8" s="176" t="str">
+      <c r="AA8" s="175" t="str">
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="289"/>
-      <c r="AC8" s="179" t="str">
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD8" s="176" t="str">
+      <c r="AD8" s="175" t="str">
         <f>Résultats!$Z$9</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE8" s="180" t="str">
+      <c r="AE8" s="179" t="str">
         <f>Résultats!$Z$22</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AF8" s="176" t="str">
+      <c r="AF8" s="175" t="str">
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="289"/>
-      <c r="AH8" s="217" t="str">
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="215" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI8" s="218" t="str">
+      <c r="AI8" s="216" t="str">
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="289"/>
+      <c r="AJ8" s="252"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4395,130 +4392,130 @@
       <c r="B9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="181" t="str">
+      <c r="C9" s="180" t="str">
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="182" t="str">
+      <c r="D9" s="181" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
-      <c r="E9" s="183" t="str">
+      <c r="E9" s="182" t="str">
         <f>Résultats!$A$6</f>
         <v>A2</v>
       </c>
-      <c r="F9" s="184" t="str">
+      <c r="F9" s="183" t="str">
         <f>Résultats!$A$7</f>
         <v>A3</v>
       </c>
-      <c r="G9" s="185" t="str">
+      <c r="G9" s="184" t="str">
         <f>Résultats!$A$10</f>
         <v>M1</v>
       </c>
-      <c r="H9" s="182" t="str">
+      <c r="H9" s="181" t="str">
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="183" t="str">
+      <c r="I9" s="182" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
-      <c r="J9" s="182" t="str">
+      <c r="J9" s="181" t="str">
         <f>Résultats!$A$14</f>
         <v>M3</v>
       </c>
-      <c r="K9" s="186" t="str">
+      <c r="K9" s="185" t="str">
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="182" t="str">
+      <c r="L9" s="181" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
-      <c r="M9" s="183" t="str">
+      <c r="M9" s="182" t="str">
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="184" t="str">
+      <c r="N9" s="183" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
-      <c r="O9" s="183" t="str">
+      <c r="O9" s="182" t="str">
         <f>Résultats!$A$24</f>
         <v>P1</v>
       </c>
-      <c r="P9" s="184" t="str">
+      <c r="P9" s="183" t="str">
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
-      <c r="Q9" s="185" t="str">
+      <c r="Q9" s="184" t="str">
         <f>Résultats!$A$27</f>
         <v>P2</v>
       </c>
-      <c r="R9" s="187" t="str">
+      <c r="R9" s="186" t="str">
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="291"/>
-      <c r="T9" s="181" t="str">
+      <c r="S9" s="254"/>
+      <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U9" s="182" t="str">
+      <c r="U9" s="181" t="str">
         <f>Résultats!$M$7</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V9" s="183" t="str">
+      <c r="V9" s="182" t="str">
         <f>Résultats!$M$10</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W9" s="182" t="str">
+      <c r="W9" s="181" t="str">
         <f>Résultats!$M$11</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X9" s="186" t="str">
+      <c r="X9" s="185" t="str">
         <f>Résultats!$M$20</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y9" s="184" t="str">
+      <c r="Y9" s="183" t="str">
         <f>Résultats!$M$21</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z9" s="185" t="str">
+      <c r="Z9" s="184" t="str">
         <f>Résultats!$M$24</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA9" s="187" t="str">
+      <c r="AA9" s="186" t="str">
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="185" t="str">
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD9" s="182" t="str">
+      <c r="AD9" s="181" t="str">
         <f>Résultats!$Y$9</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE9" s="186" t="str">
+      <c r="AE9" s="185" t="str">
         <f>Résultats!$Y$22</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AF9" s="182" t="str">
+      <c r="AF9" s="181" t="str">
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="219" t="str">
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="217" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI9" s="220" t="str">
+      <c r="AI9" s="218" t="str">
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="291"/>
+      <c r="AJ9" s="254"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4527,154 +4524,154 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="188">
+      <c r="A10" s="187">
         <f>RANK(AL10,$AL$10:$AL$97,)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="189">
+      <c r="C10" s="188">
         <v>4</v>
       </c>
-      <c r="D10" s="190"/>
-      <c r="E10" s="193">
+      <c r="D10" s="189"/>
+      <c r="E10" s="192">
         <v>5</v>
       </c>
-      <c r="F10" s="190"/>
-      <c r="G10" s="194">
+      <c r="F10" s="189"/>
+      <c r="G10" s="193">
         <v>6</v>
       </c>
-      <c r="H10" s="191"/>
-      <c r="I10" s="193">
+      <c r="H10" s="190"/>
+      <c r="I10" s="192">
         <v>7</v>
       </c>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192">
+      <c r="J10" s="190"/>
+      <c r="K10" s="191">
         <v>5</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="190">
+      <c r="L10" s="190"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="189">
         <v>7</v>
       </c>
-      <c r="O10" s="193">
+      <c r="O10" s="192">
         <v>6</v>
       </c>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="194">
+      <c r="P10" s="189"/>
+      <c r="Q10" s="193">
         <v>7</v>
       </c>
-      <c r="R10" s="195"/>
-      <c r="S10" s="199">
+      <c r="R10" s="194"/>
+      <c r="S10" s="198">
         <f>SUM(C11:R11)</f>
-        <v>3</v>
-      </c>
-      <c r="T10" s="189"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="196">
+        <v>5</v>
+      </c>
+      <c r="T10" s="188"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="195">
         <f>SUM(T11:AA11)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="196">
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="191"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="195">
         <f>SUM(AC11:AF11)</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="198"/>
-      <c r="AJ10" s="196">
+      <c r="AH10" s="196"/>
+      <c r="AI10" s="197"/>
+      <c r="AJ10" s="195">
         <f>AH11</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="199">
+      <c r="AK10" s="198">
         <f>MAX($AL$10:$AL$97) - AL10</f>
         <v>0</v>
       </c>
-      <c r="AL10" s="132">
+      <c r="AL10" s="195">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122">
+      <c r="A11" s="122" t="e">
         <f>RANK(AL11,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B11" s="102"/>
-      <c r="C11" s="135">
+      <c r="C11" s="134">
         <f>(IF($C10&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C10=$C$6+$D$6,$O$103,0),0),0)+IF($D10&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D10=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="134">
+      <c r="D11" s="135"/>
+      <c r="E11" s="133">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E10=$E$6+$F$6,$O$103,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F10=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="134">
+      <c r="F11" s="135"/>
+      <c r="G11" s="133">
         <f>(IF($G10&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G10=$G$6+$H$6,$O$103,0),0),0)+IF($H10&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H10=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137">
+        <v>1</v>
+      </c>
+      <c r="H11" s="135"/>
+      <c r="I11" s="136">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I10=$I$6+$J$6,$O$103,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J10=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139">
+      <c r="J11" s="137"/>
+      <c r="K11" s="138">
         <f>(IF($K10&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K10=$K$6+$L$6,$O$103,0),0),0)+IF($L10&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L10=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="136"/>
-      <c r="M11" s="134">
+        <v>1</v>
+      </c>
+      <c r="L11" s="135"/>
+      <c r="M11" s="133">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="N11" s="136"/>
-      <c r="O11" s="137">
+      <c r="N11" s="135"/>
+      <c r="O11" s="136">
         <f>(IF($O10&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O10=$O$6+$P$6,$O$103,0),0),0)+IF($P10&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P10=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="136"/>
-      <c r="Q11" s="137">
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136">
         <f>(IF($Q10&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q10=$Q$6+$R$6,$O$103,0),0),0)+IF($R10&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R10=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="R11" s="140"/>
+      <c r="R11" s="139"/>
       <c r="S11" s="129"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="146"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="145"/>
       <c r="AB11" s="129"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="144"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="147"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="146"/>
       <c r="AG11" s="129"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="146"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="145"/>
       <c r="AJ11" s="129"/>
       <c r="AK11" s="115"/>
       <c r="AL11" s="129"/>
     </row>
     <row r="12" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="125">
@@ -4773,7 +4770,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S12" s="149"/>
+      <c r="S12" s="148"/>
       <c r="T12" s="125"/>
       <c r="U12" s="125"/>
       <c r="V12" s="125"/>
@@ -4782,16 +4779,16 @@
       <c r="Y12" s="125"/>
       <c r="Z12" s="125"/>
       <c r="AA12" s="125"/>
-      <c r="AB12" s="149"/>
+      <c r="AB12" s="148"/>
       <c r="AC12" s="125"/>
       <c r="AD12" s="125"/>
       <c r="AE12" s="125"/>
       <c r="AF12" s="125"/>
-      <c r="AG12" s="149"/>
+      <c r="AG12" s="148"/>
       <c r="AH12" s="125"/>
       <c r="AI12" s="125"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="150">
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="149">
         <f>SUM(C12:AI12)</f>
         <v>0</v>
       </c>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="13" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="103"/>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="125">
@@ -4898,7 +4895,7 @@
 IF(R10 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S13" s="149"/>
+      <c r="S13" s="148"/>
       <c r="T13" s="125"/>
       <c r="U13" s="125"/>
       <c r="V13" s="125"/>
@@ -4907,16 +4904,16 @@
       <c r="Y13" s="125"/>
       <c r="Z13" s="125"/>
       <c r="AA13" s="125"/>
-      <c r="AB13" s="149"/>
+      <c r="AB13" s="148"/>
       <c r="AC13" s="125"/>
       <c r="AD13" s="125"/>
       <c r="AE13" s="125"/>
       <c r="AF13" s="125"/>
-      <c r="AG13" s="149"/>
+      <c r="AG13" s="148"/>
       <c r="AH13" s="125"/>
       <c r="AI13" s="125"/>
-      <c r="AJ13" s="149"/>
-      <c r="AK13" s="150">
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="149">
         <f>SUM(C13:AI13)</f>
         <v>0</v>
       </c>
@@ -4928,43 +4925,43 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C14" s="46">
         <v>5</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
+        <v>7</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="48">
+        <v>5</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="44">
         <v>6</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="47">
-        <v>7</v>
-      </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="47">
-        <v>6</v>
-      </c>
+      <c r="J14" s="47"/>
       <c r="K14" s="49">
         <v>5</v>
       </c>
       <c r="L14" s="47"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45">
+      <c r="M14" s="44">
         <v>6</v>
       </c>
+      <c r="N14" s="45"/>
       <c r="O14" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R14" s="50"/>
       <c r="S14" s="130">
         <f>SUM(C15:R15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -4972,7 +4969,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
       <c r="Y14" s="45"/>
-      <c r="Z14" s="48"/>
+      <c r="Z14" s="123"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="130">
         <f>SUM(T15:AA15)</f>
@@ -4998,82 +4995,82 @@
       </c>
       <c r="AL14" s="130">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122">
+      <c r="A15" s="122" t="e">
         <f>RANK(AL15,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="125">
         <f>(IF($C14&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C14=$C$6+$D$6,$O$103,0),0),0)+IF($D14&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D14=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="134">
+      <c r="D15" s="151"/>
+      <c r="E15" s="133">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="152"/>
-      <c r="G15" s="134">
+      <c r="F15" s="151"/>
+      <c r="G15" s="133">
         <f>(IF($G14&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G14=$G$6+$H$6,$O$103,0),0),0)+IF($H14&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H14=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="151"/>
       <c r="I15" s="127">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I14=$I$6+$J$6,$O$103,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J14=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154">
+        <v>1</v>
+      </c>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153">
         <f>(IF($K14&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K14=$K$6+$L$6,$O$103,0),0),0)+IF($L14&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L14=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="152"/>
-      <c r="M15" s="134">
+        <v>1</v>
+      </c>
+      <c r="L15" s="151"/>
+      <c r="M15" s="133">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="152"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="151"/>
       <c r="O15" s="127">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="152"/>
+      <c r="P15" s="151"/>
       <c r="Q15" s="127">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="R15" s="155"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="162"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="158"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="159"/>
+      <c r="AE15" s="160"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="161"/>
       <c r="AJ15" s="129"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="129"/>
     </row>
     <row r="16" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="103"/>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="125">
@@ -5172,7 +5169,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S16" s="149"/>
+      <c r="S16" s="148"/>
       <c r="T16" s="125"/>
       <c r="U16" s="125"/>
       <c r="V16" s="125"/>
@@ -5181,16 +5178,16 @@
       <c r="Y16" s="125"/>
       <c r="Z16" s="125"/>
       <c r="AA16" s="125"/>
-      <c r="AB16" s="149"/>
+      <c r="AB16" s="148"/>
       <c r="AC16" s="125"/>
       <c r="AD16" s="125"/>
       <c r="AE16" s="125"/>
       <c r="AF16" s="125"/>
-      <c r="AG16" s="149"/>
+      <c r="AG16" s="148"/>
       <c r="AH16" s="125"/>
       <c r="AI16" s="125"/>
-      <c r="AJ16" s="149"/>
-      <c r="AK16" s="150">
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="149">
         <f>SUM(C16:AI16)</f>
         <v>0</v>
       </c>
@@ -5198,7 +5195,7 @@
     </row>
     <row r="17" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="103"/>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="125">
@@ -5297,7 +5294,7 @@
 IF(R14 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="149"/>
+      <c r="S17" s="148"/>
       <c r="T17" s="125"/>
       <c r="U17" s="125"/>
       <c r="V17" s="125"/>
@@ -5306,173 +5303,173 @@
       <c r="Y17" s="125"/>
       <c r="Z17" s="125"/>
       <c r="AA17" s="125"/>
-      <c r="AB17" s="149"/>
+      <c r="AB17" s="148"/>
       <c r="AC17" s="125"/>
       <c r="AD17" s="125"/>
       <c r="AE17" s="125"/>
       <c r="AF17" s="125"/>
-      <c r="AG17" s="149"/>
+      <c r="AG17" s="148"/>
       <c r="AH17" s="125"/>
       <c r="AI17" s="125"/>
-      <c r="AJ17" s="149"/>
-      <c r="AK17" s="150">
+      <c r="AJ17" s="148"/>
+      <c r="AK17" s="149">
         <f>SUM(C17:AI17)</f>
         <v>0</v>
       </c>
       <c r="AL17" s="131"/>
     </row>
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="188">
+      <c r="A18" s="187">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
         <v>2</v>
       </c>
-      <c r="B18" s="215" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="200">
+      <c r="B18" s="213" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="199">
         <v>5</v>
       </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202">
+      <c r="D18" s="200"/>
+      <c r="E18" s="201">
         <v>7</v>
       </c>
-      <c r="F18" s="201"/>
-      <c r="G18" s="203">
+      <c r="F18" s="200"/>
+      <c r="G18" s="202">
+        <v>4</v>
+      </c>
+      <c r="H18" s="203"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="203">
+        <v>6</v>
+      </c>
+      <c r="K18" s="204">
         <v>5</v>
       </c>
-      <c r="H18" s="204"/>
-      <c r="I18" s="202">
+      <c r="L18" s="203"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="200">
         <v>6</v>
       </c>
-      <c r="J18" s="204"/>
-      <c r="K18" s="205">
-        <v>5</v>
-      </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="202">
+      <c r="O18" s="201">
+        <v>7</v>
+      </c>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="202">
         <v>6</v>
       </c>
-      <c r="N18" s="201"/>
-      <c r="O18" s="202">
-        <v>5</v>
-      </c>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="203">
-        <v>7</v>
-      </c>
-      <c r="R18" s="206"/>
-      <c r="S18" s="207">
+      <c r="R18" s="205"/>
+      <c r="S18" s="206">
         <f>SUM(C19:R19)</f>
-        <v>2</v>
-      </c>
-      <c r="T18" s="200"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="202"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="201"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="206"/>
-      <c r="AB18" s="208">
+        <v>4</v>
+      </c>
+      <c r="T18" s="199"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="203"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="200"/>
+      <c r="Z18" s="202"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="207">
         <f>SUM(T19:AA19)</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="204"/>
-      <c r="AE18" s="205"/>
-      <c r="AF18" s="204"/>
-      <c r="AG18" s="208">
+      <c r="AC18" s="202"/>
+      <c r="AD18" s="203"/>
+      <c r="AE18" s="204"/>
+      <c r="AF18" s="203"/>
+      <c r="AG18" s="207">
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="209"/>
-      <c r="AI18" s="210"/>
-      <c r="AJ18" s="208">
+      <c r="AH18" s="302"/>
+      <c r="AI18" s="208"/>
+      <c r="AJ18" s="207">
         <f>AH19</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="211">
+      <c r="AK18" s="209">
         <f>MAX($AL$10:$AL$97) - AL18</f>
         <v>1</v>
       </c>
-      <c r="AL18" s="130">
+      <c r="AL18" s="207">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="122">
+      <c r="A19" s="122" t="e">
         <f>RANK(AL19,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="125">
         <f>(IF($C18&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C18=$C$6+$D$6,$O$103,0),0),0)+IF($D18&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D18=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="127">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E18=$E$6+$F$6,$O$103,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F18=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="152"/>
+      <c r="F19" s="151"/>
       <c r="G19" s="127">
         <f>(IF($G18&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G18=$G$6+$H$6,$O$103,0),0),0)+IF($H18&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H18=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="151"/>
       <c r="I19" s="127">
         <f>(IF($I18&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I18=$I$6+$J$6,$O$103,0),0),0)+IF($J18&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J18=$I$6+$J$6,$O$103,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153">
+        <f>(IF($K18&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K18=$K$6+$L$6,$O$103,0),0),0)+IF($L18&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L18=$K$6+$L$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="J19" s="153"/>
-      <c r="K19" s="154">
-        <f>(IF($K18&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K18=$K$6+$L$6,$O$103,0),0),0)+IF($L18&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L18=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="152"/>
+      <c r="L19" s="151"/>
       <c r="M19" s="127">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="151"/>
       <c r="O19" s="127">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="152"/>
+      <c r="P19" s="151"/>
       <c r="Q19" s="127">
         <f>(IF($Q18&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q18=$Q$6+$R$6,$O$103,0),0),0)+IF($R18&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R18=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="R19" s="155"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="163"/>
-      <c r="AG19" s="156"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="164">
+      <c r="R19" s="154"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="158"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="159"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="155"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="161"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="163">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="129"/>
     </row>
     <row r="20" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="122"/>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="125">
@@ -5571,7 +5568,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S20" s="149"/>
+      <c r="S20" s="148"/>
       <c r="T20" s="125"/>
       <c r="U20" s="125"/>
       <c r="V20" s="125"/>
@@ -5580,16 +5577,16 @@
       <c r="Y20" s="125"/>
       <c r="Z20" s="125"/>
       <c r="AA20" s="125"/>
-      <c r="AB20" s="149"/>
+      <c r="AB20" s="148"/>
       <c r="AC20" s="125"/>
       <c r="AD20" s="125"/>
       <c r="AE20" s="125"/>
       <c r="AF20" s="125"/>
-      <c r="AG20" s="149"/>
+      <c r="AG20" s="148"/>
       <c r="AH20" s="125"/>
       <c r="AI20" s="125"/>
-      <c r="AJ20" s="149"/>
-      <c r="AK20" s="150">
+      <c r="AJ20" s="148"/>
+      <c r="AK20" s="149">
         <f>SUM(C20:AI20)</f>
         <v>0</v>
       </c>
@@ -5597,7 +5594,7 @@
     </row>
     <row r="21" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="125">
@@ -5696,7 +5693,7 @@
 IF(R18 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S21" s="149"/>
+      <c r="S21" s="148"/>
       <c r="T21" s="125"/>
       <c r="U21" s="125"/>
       <c r="V21" s="125"/>
@@ -5705,16 +5702,16 @@
       <c r="Y21" s="125"/>
       <c r="Z21" s="125"/>
       <c r="AA21" s="125"/>
-      <c r="AB21" s="149"/>
+      <c r="AB21" s="148"/>
       <c r="AC21" s="125"/>
       <c r="AD21" s="125"/>
       <c r="AE21" s="125"/>
       <c r="AF21" s="125"/>
-      <c r="AG21" s="149"/>
+      <c r="AG21" s="148"/>
       <c r="AH21" s="125"/>
       <c r="AI21" s="125"/>
-      <c r="AJ21" s="149"/>
-      <c r="AK21" s="150">
+      <c r="AJ21" s="148"/>
+      <c r="AK21" s="149">
         <f>SUM(C21:AI21)</f>
         <v>0</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
@@ -5737,39 +5734,39 @@
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
+        <v>6</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="44">
+        <v>6</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49">
         <v>4</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47">
-        <v>6</v>
-      </c>
-      <c r="K22" s="49">
+      <c r="L22" s="47"/>
+      <c r="M22" s="44">
         <v>5</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45">
-        <v>6</v>
-      </c>
-      <c r="O22" s="44">
+      <c r="N22" s="45"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45">
         <v>7</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="48">
-        <v>6</v>
-      </c>
-      <c r="R22" s="50"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="50">
+        <v>7</v>
+      </c>
       <c r="S22" s="130">
         <f>SUM(C23:R23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
       <c r="V22" s="44"/>
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
-      <c r="Y22" s="45"/>
+      <c r="Y22" s="128"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="130">
@@ -5777,14 +5774,14 @@
         <v>0</v>
       </c>
       <c r="AC22" s="48"/>
-      <c r="AD22" s="47"/>
+      <c r="AD22" s="301"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="47"/>
       <c r="AG22" s="130">
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="224"/>
+      <c r="AH22" s="300"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -5796,82 +5793,82 @@
       </c>
       <c r="AL22" s="130">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="122">
+      <c r="A23" s="122" t="e">
         <f>RANK(AL23,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B23" s="96"/>
-      <c r="C23" s="148">
+      <c r="C23" s="147">
         <f>(IF($C22&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C22=$C$6+$D$6,$O$103,0),0),0)+IF($D22&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D22=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="165"/>
-      <c r="E23" s="134">
+      <c r="D23" s="164"/>
+      <c r="E23" s="133">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E22=$E$6+$F$6,$O$103,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F22=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="165"/>
-      <c r="G23" s="134">
+      <c r="F23" s="164"/>
+      <c r="G23" s="133">
         <f>(IF($G22&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G22=$G$6+$H$6,$O$103,0),0),0)+IF($H22&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H22=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="165"/>
-      <c r="I23" s="134">
+        <v>1</v>
+      </c>
+      <c r="H23" s="164"/>
+      <c r="I23" s="133">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="166"/>
-      <c r="K23" s="167">
+        <v>1</v>
+      </c>
+      <c r="J23" s="165"/>
+      <c r="K23" s="166">
         <f>(IF($K22&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K22=$K$6+$L$6,$O$103,0),0),0)+IF($L22&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L22=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="165"/>
-      <c r="M23" s="134">
+        <v>1</v>
+      </c>
+      <c r="L23" s="164"/>
+      <c r="M23" s="133">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="164"/>
+      <c r="O23" s="133">
+        <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="N23" s="165"/>
-      <c r="O23" s="134">
-        <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="134">
+      <c r="P23" s="164"/>
+      <c r="Q23" s="133">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="168"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="161"/>
-      <c r="AF23" s="163"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="156"/>
-      <c r="AK23" s="164">
+        <v>0</v>
+      </c>
+      <c r="R23" s="167"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="159"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="159"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="155"/>
+      <c r="AH23" s="156"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="155"/>
+      <c r="AK23" s="163">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="129"/>
     </row>
     <row r="24" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="103"/>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="125">
@@ -5970,7 +5967,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="149"/>
+      <c r="S24" s="148"/>
       <c r="T24" s="125"/>
       <c r="U24" s="125"/>
       <c r="V24" s="125"/>
@@ -5979,16 +5976,16 @@
       <c r="Y24" s="125"/>
       <c r="Z24" s="125"/>
       <c r="AA24" s="125"/>
-      <c r="AB24" s="149"/>
+      <c r="AB24" s="148"/>
       <c r="AC24" s="125"/>
       <c r="AD24" s="125"/>
       <c r="AE24" s="125"/>
       <c r="AF24" s="125"/>
-      <c r="AG24" s="149"/>
+      <c r="AG24" s="148"/>
       <c r="AH24" s="125"/>
       <c r="AI24" s="125"/>
-      <c r="AJ24" s="149"/>
-      <c r="AK24" s="150">
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="149">
         <f>SUM(C24:AI24)</f>
         <v>0</v>
       </c>
@@ -5996,7 +5993,7 @@
     </row>
     <row r="25" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="103"/>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="125">
@@ -6095,7 +6092,7 @@
 IF(R22 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S25" s="149"/>
+      <c r="S25" s="148"/>
       <c r="T25" s="125"/>
       <c r="U25" s="125"/>
       <c r="V25" s="125"/>
@@ -6104,173 +6101,173 @@
       <c r="Y25" s="125"/>
       <c r="Z25" s="125"/>
       <c r="AA25" s="125"/>
-      <c r="AB25" s="149"/>
+      <c r="AB25" s="148"/>
       <c r="AC25" s="125"/>
       <c r="AD25" s="125"/>
       <c r="AE25" s="125"/>
       <c r="AF25" s="125"/>
-      <c r="AG25" s="149"/>
+      <c r="AG25" s="148"/>
       <c r="AH25" s="125"/>
       <c r="AI25" s="125"/>
-      <c r="AJ25" s="149"/>
-      <c r="AK25" s="150">
+      <c r="AJ25" s="148"/>
+      <c r="AK25" s="149">
         <f>SUM(C25:AI25)</f>
         <v>0</v>
       </c>
       <c r="AL25" s="131"/>
     </row>
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="188">
+      <c r="A26" s="187">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
         <v>2</v>
       </c>
-      <c r="B26" s="215" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="200">
+      <c r="B26" s="213" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="199">
+        <v>6</v>
+      </c>
+      <c r="D26" s="200"/>
+      <c r="E26" s="201">
         <v>5</v>
       </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="202">
+      <c r="F26" s="200"/>
+      <c r="G26" s="202">
         <v>7</v>
       </c>
-      <c r="F26" s="201"/>
-      <c r="G26" s="203">
+      <c r="H26" s="203"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="203">
         <v>6</v>
       </c>
-      <c r="H26" s="204"/>
-      <c r="I26" s="202">
+      <c r="K26" s="204">
         <v>6</v>
       </c>
-      <c r="J26" s="204"/>
-      <c r="K26" s="205">
+      <c r="L26" s="203"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="200">
+        <v>7</v>
+      </c>
+      <c r="O26" s="201">
+        <v>6</v>
+      </c>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="202">
+        <v>7</v>
+      </c>
+      <c r="R26" s="205"/>
+      <c r="S26" s="207">
+        <f>SUM(C27:R27)</f>
         <v>4</v>
       </c>
-      <c r="L26" s="204"/>
-      <c r="M26" s="202">
-        <v>5</v>
-      </c>
-      <c r="N26" s="201"/>
-      <c r="O26" s="202"/>
-      <c r="P26" s="201">
-        <v>7</v>
-      </c>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="206">
-        <v>7</v>
-      </c>
-      <c r="S26" s="208">
-        <f>SUM(C27:R27)</f>
-        <v>2</v>
-      </c>
-      <c r="T26" s="200"/>
-      <c r="U26" s="204"/>
-      <c r="V26" s="202"/>
-      <c r="W26" s="204"/>
-      <c r="X26" s="205"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="203"/>
-      <c r="AA26" s="206"/>
-      <c r="AB26" s="208">
+      <c r="T26" s="199"/>
+      <c r="U26" s="203"/>
+      <c r="V26" s="201"/>
+      <c r="W26" s="203"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="200"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="207">
         <f>SUM(T27:AA27)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="203"/>
-      <c r="AD26" s="230"/>
-      <c r="AE26" s="205"/>
-      <c r="AF26" s="204"/>
-      <c r="AG26" s="208">
+      <c r="AC26" s="202"/>
+      <c r="AD26" s="203"/>
+      <c r="AE26" s="204"/>
+      <c r="AF26" s="203"/>
+      <c r="AG26" s="207">
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="197"/>
-      <c r="AI26" s="198"/>
-      <c r="AJ26" s="208">
+      <c r="AH26" s="196"/>
+      <c r="AI26" s="197"/>
+      <c r="AJ26" s="207">
         <f>AH27</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="211">
+      <c r="AK26" s="209">
         <f>MAX($AL$10:$AL$97) - AL26</f>
         <v>1</v>
       </c>
-      <c r="AL26" s="130">
+      <c r="AL26" s="207">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="122">
+      <c r="A27" s="122" t="e">
         <f>RANK(AL27,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B27" s="96"/>
       <c r="C27" s="125">
         <f>(IF($C26&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C26=$C$6+$D$6,$O$103,0),0),0)+IF($D26&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D26=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D27" s="152"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="127">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E26=$E$6+$F$6,$O$103,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F26=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="152"/>
+      <c r="F27" s="151"/>
       <c r="G27" s="127">
         <f>(IF($G26&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G26=$G$6+$H$6,$O$103,0),0),0)+IF($H26&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H26=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="151"/>
       <c r="I27" s="127">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153">
+        <f>(IF($K26&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K26=$K$6+$L$6,$O$103,0),0),0)+IF($L26&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L26=$K$6+$L$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154">
-        <f>(IF($K26&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K26=$K$6+$L$6,$O$103,0),0),0)+IF($L26&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L26=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="152"/>
+      <c r="L27" s="151"/>
       <c r="M27" s="127">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="152"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="151"/>
       <c r="O27" s="127">
         <f>(IF($O26&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O26=$O$6+$P$6,$O$103,0),0),0)+IF($P26&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P26=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
-      </c>
-      <c r="P27" s="152"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="151"/>
       <c r="Q27" s="127">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q26=$Q$6+$R$6,$O$103,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R26=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="155"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="157"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="169"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="161"/>
-      <c r="AF27" s="163"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="156"/>
-      <c r="AK27" s="164">
+        <v>1</v>
+      </c>
+      <c r="R27" s="154"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="157"/>
+      <c r="Z27" s="169"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="168"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="159"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="168"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="161"/>
+      <c r="AJ27" s="155"/>
+      <c r="AK27" s="163">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="129"/>
     </row>
     <row r="28" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="103"/>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="125">
@@ -6369,7 +6366,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S28" s="149"/>
+      <c r="S28" s="148"/>
       <c r="T28" s="125"/>
       <c r="U28" s="125"/>
       <c r="V28" s="125"/>
@@ -6378,16 +6375,16 @@
       <c r="Y28" s="125"/>
       <c r="Z28" s="125"/>
       <c r="AA28" s="125"/>
-      <c r="AB28" s="149"/>
+      <c r="AB28" s="148"/>
       <c r="AC28" s="125"/>
       <c r="AD28" s="125"/>
       <c r="AE28" s="125"/>
       <c r="AF28" s="125"/>
-      <c r="AG28" s="149"/>
+      <c r="AG28" s="148"/>
       <c r="AH28" s="125"/>
       <c r="AI28" s="125"/>
-      <c r="AJ28" s="149"/>
-      <c r="AK28" s="150">
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="149">
         <f>SUM(C28:AI28)</f>
         <v>0</v>
       </c>
@@ -6395,7 +6392,7 @@
     </row>
     <row r="29" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="103"/>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="125">
@@ -6494,7 +6491,7 @@
 IF(R26 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S29" s="149"/>
+      <c r="S29" s="148"/>
       <c r="T29" s="125"/>
       <c r="U29" s="125"/>
       <c r="V29" s="125"/>
@@ -6503,16 +6500,16 @@
       <c r="Y29" s="125"/>
       <c r="Z29" s="125"/>
       <c r="AA29" s="125"/>
-      <c r="AB29" s="149"/>
+      <c r="AB29" s="148"/>
       <c r="AC29" s="125"/>
       <c r="AD29" s="125"/>
       <c r="AE29" s="125"/>
       <c r="AF29" s="125"/>
-      <c r="AG29" s="149"/>
+      <c r="AG29" s="148"/>
       <c r="AH29" s="125"/>
       <c r="AI29" s="125"/>
-      <c r="AJ29" s="149"/>
-      <c r="AK29" s="150">
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="149">
         <f>SUM(C29:AI29)</f>
         <v>0</v>
       </c>
@@ -6521,54 +6518,54 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C30" s="46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="48">
+        <v>6</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="44">
+        <v>6</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="49">
         <v>7</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="47">
+      <c r="L30" s="47"/>
+      <c r="M30" s="44">
+        <v>5</v>
+      </c>
+      <c r="N30" s="45"/>
+      <c r="O30" s="44">
+        <v>4</v>
+      </c>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="50">
         <v>6</v>
       </c>
-      <c r="K30" s="49">
-        <v>6</v>
-      </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45">
-        <v>7</v>
-      </c>
-      <c r="O30" s="44">
-        <v>6</v>
-      </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="48">
-        <v>7</v>
-      </c>
-      <c r="R30" s="50"/>
       <c r="S30" s="130">
         <f>SUM(C31:R31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="123"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="130">
         <f>SUM(T31:AA31)</f>
@@ -6590,17 +6587,17 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" s="130">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="122">
+      <c r="A31" s="122" t="e">
         <f>RANK(AL31,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="79">
@@ -6615,22 +6612,22 @@
       <c r="F31" s="80"/>
       <c r="G31" s="81">
         <f>(IF($G30&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G30=$G$6+$H$6,$O$103,0),0),0)+IF($H30&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H30=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="80"/>
       <c r="I31" s="81">
         <f>(IF($I30&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I30=$I$6+$J$6,$O$103,0),0),0)+IF($J30&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J30=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="82"/>
       <c r="K31" s="83">
         <f>(IF($K30&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K30=$K$6+$L$6,$O$103,0),0),0)+IF($L30&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L30=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6640,7 +6637,7 @@
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
         <f>(IF($Q30&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q30=$Q$6+$R$6,$O$103,0),0),0)+IF($R30&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R30=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="84"/>
       <c r="S31" s="129"/>
@@ -6663,13 +6660,13 @@
       <c r="AJ31" s="129"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="129"/>
     </row>
     <row r="32" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="103"/>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="125">
@@ -6768,7 +6765,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S32" s="149"/>
+      <c r="S32" s="148"/>
       <c r="T32" s="125"/>
       <c r="U32" s="125"/>
       <c r="V32" s="125"/>
@@ -6777,16 +6774,16 @@
       <c r="Y32" s="125"/>
       <c r="Z32" s="125"/>
       <c r="AA32" s="125"/>
-      <c r="AB32" s="149"/>
+      <c r="AB32" s="148"/>
       <c r="AC32" s="125"/>
       <c r="AD32" s="125"/>
       <c r="AE32" s="125"/>
       <c r="AF32" s="125"/>
-      <c r="AG32" s="149"/>
+      <c r="AG32" s="148"/>
       <c r="AH32" s="125"/>
       <c r="AI32" s="125"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="150">
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="149">
         <f>SUM(C32:AI32)</f>
         <v>0</v>
       </c>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="33" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="103"/>
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="125">
@@ -6893,7 +6890,7 @@
 IF(R30 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S33" s="149"/>
+      <c r="S33" s="148"/>
       <c r="T33" s="125"/>
       <c r="U33" s="125"/>
       <c r="V33" s="125"/>
@@ -6902,104 +6899,104 @@
       <c r="Y33" s="125"/>
       <c r="Z33" s="125"/>
       <c r="AA33" s="125"/>
-      <c r="AB33" s="149"/>
+      <c r="AB33" s="148"/>
       <c r="AC33" s="125"/>
       <c r="AD33" s="125"/>
       <c r="AE33" s="125"/>
       <c r="AF33" s="125"/>
-      <c r="AG33" s="149"/>
+      <c r="AG33" s="148"/>
       <c r="AH33" s="125"/>
       <c r="AI33" s="125"/>
-      <c r="AJ33" s="149"/>
-      <c r="AK33" s="150">
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="149">
         <f>SUM(C33:AI33)</f>
         <v>0</v>
       </c>
       <c r="AL33" s="131"/>
     </row>
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="188">
+      <c r="A34" s="187">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="199">
+        <v>5</v>
+      </c>
+      <c r="D34" s="200"/>
+      <c r="E34" s="201">
+        <v>6</v>
+      </c>
+      <c r="F34" s="200"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="203">
         <v>7</v>
       </c>
-      <c r="B34" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="200">
-        <v>7</v>
-      </c>
-      <c r="D34" s="201"/>
-      <c r="E34" s="231">
+      <c r="I34" s="201"/>
+      <c r="J34" s="203">
         <v>6</v>
       </c>
-      <c r="F34" s="201"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="204">
+      <c r="K34" s="204">
+        <v>5</v>
+      </c>
+      <c r="L34" s="203"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="200">
         <v>6</v>
       </c>
-      <c r="I34" s="231"/>
-      <c r="J34" s="204">
-        <v>7</v>
-      </c>
-      <c r="K34" s="205">
-        <v>5</v>
-      </c>
-      <c r="L34" s="204"/>
-      <c r="M34" s="202">
-        <v>7</v>
-      </c>
-      <c r="N34" s="201"/>
-      <c r="O34" s="202">
+      <c r="O34" s="201">
         <v>6</v>
       </c>
-      <c r="P34" s="201"/>
-      <c r="Q34" s="203">
+      <c r="P34" s="200"/>
+      <c r="Q34" s="202">
         <v>6</v>
       </c>
-      <c r="R34" s="206"/>
-      <c r="S34" s="208">
+      <c r="R34" s="205"/>
+      <c r="S34" s="207">
         <f>SUM(C35:R35)</f>
-        <v>1</v>
-      </c>
-      <c r="T34" s="200"/>
-      <c r="U34" s="204"/>
-      <c r="V34" s="233"/>
-      <c r="W34" s="204"/>
-      <c r="X34" s="205"/>
-      <c r="Y34" s="222"/>
-      <c r="Z34" s="203"/>
-      <c r="AA34" s="204"/>
-      <c r="AB34" s="208">
+        <v>3</v>
+      </c>
+      <c r="T34" s="199"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="201"/>
+      <c r="W34" s="203"/>
+      <c r="X34" s="204"/>
+      <c r="Y34" s="200"/>
+      <c r="Z34" s="202"/>
+      <c r="AA34" s="203"/>
+      <c r="AB34" s="207">
         <f>SUM(T35:AA35)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="203"/>
-      <c r="AD34" s="204"/>
-      <c r="AE34" s="205"/>
-      <c r="AF34" s="204"/>
-      <c r="AG34" s="208">
+      <c r="AC34" s="202"/>
+      <c r="AD34" s="203"/>
+      <c r="AE34" s="204"/>
+      <c r="AF34" s="203"/>
+      <c r="AG34" s="207">
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="213"/>
-      <c r="AI34" s="198"/>
-      <c r="AJ34" s="208">
+      <c r="AH34" s="211"/>
+      <c r="AI34" s="197"/>
+      <c r="AJ34" s="207">
         <f>AH35</f>
         <v>0</v>
       </c>
-      <c r="AK34" s="211">
+      <c r="AK34" s="209">
         <f>MAX($AL$10:$AL$97) - AL34</f>
         <v>2</v>
       </c>
-      <c r="AL34" s="130">
+      <c r="AL34" s="207">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="122">
+      <c r="A35" s="122" t="e">
         <f>RANK(AL35,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="79">
@@ -7024,12 +7021,12 @@
       <c r="J35" s="82"/>
       <c r="K35" s="83">
         <f>(IF($K34&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K34=$K$6+$L$6,$O$103,0),0),0)+IF($L34&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L34=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7062,13 +7059,13 @@
       <c r="AJ35" s="129"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="129"/>
     </row>
     <row r="36" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="103"/>
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="125">
@@ -7167,7 +7164,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S36" s="149"/>
+      <c r="S36" s="148"/>
       <c r="T36" s="125"/>
       <c r="U36" s="125"/>
       <c r="V36" s="125"/>
@@ -7176,16 +7173,16 @@
       <c r="Y36" s="125"/>
       <c r="Z36" s="125"/>
       <c r="AA36" s="125"/>
-      <c r="AB36" s="149"/>
+      <c r="AB36" s="148"/>
       <c r="AC36" s="125"/>
       <c r="AD36" s="125"/>
       <c r="AE36" s="125"/>
       <c r="AF36" s="125"/>
-      <c r="AG36" s="149"/>
+      <c r="AG36" s="148"/>
       <c r="AH36" s="125"/>
       <c r="AI36" s="125"/>
-      <c r="AJ36" s="149"/>
-      <c r="AK36" s="150">
+      <c r="AJ36" s="148"/>
+      <c r="AK36" s="149">
         <f>SUM(C36:AI36)</f>
         <v>0</v>
       </c>
@@ -7193,7 +7190,7 @@
     </row>
     <row r="37" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="103"/>
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="125">
@@ -7292,7 +7289,7 @@
 IF(R34 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S37" s="149"/>
+      <c r="S37" s="148"/>
       <c r="T37" s="125"/>
       <c r="U37" s="125"/>
       <c r="V37" s="125"/>
@@ -7301,16 +7298,16 @@
       <c r="Y37" s="125"/>
       <c r="Z37" s="125"/>
       <c r="AA37" s="125"/>
-      <c r="AB37" s="149"/>
+      <c r="AB37" s="148"/>
       <c r="AC37" s="125"/>
       <c r="AD37" s="125"/>
       <c r="AE37" s="125"/>
       <c r="AF37" s="125"/>
-      <c r="AG37" s="149"/>
+      <c r="AG37" s="148"/>
       <c r="AH37" s="125"/>
       <c r="AI37" s="125"/>
-      <c r="AJ37" s="149"/>
-      <c r="AK37" s="150">
+      <c r="AJ37" s="148"/>
+      <c r="AK37" s="149">
         <f>SUM(C37:AI37)</f>
         <v>0</v>
       </c>
@@ -7319,37 +7316,37 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="46">
+        <v>5</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45">
         <v>7</v>
       </c>
-      <c r="B38" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="46">
+      <c r="G38" s="48">
         <v>4</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44">
-        <v>4</v>
-      </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="48">
+      <c r="H38" s="47"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="47">
+        <v>7</v>
+      </c>
+      <c r="K38" s="49">
         <v>6</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="44">
-        <v>6</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="49">
-        <v>7</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38" s="45"/>
       <c r="Q38" s="48"/>
@@ -7358,7 +7355,7 @@
       </c>
       <c r="S38" s="130">
         <f>SUM(C39:R39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
@@ -7392,13 +7389,13 @@
       </c>
       <c r="AL38" s="130">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="122">
+      <c r="A39" s="122" t="e">
         <f>RANK(AL39,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B39" s="102"/>
       <c r="C39" s="125">
@@ -7408,22 +7405,22 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="126">
         <f>(IF($G38&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G38=$G$6+$H$6,$O$103,0),0),0)+IF($H38&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H38=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="80"/>
       <c r="I39" s="121">
         <f>(IF($I38&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I38=$I$6+$J$6,$O$103,0),0),0)+IF($J38&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J38=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="82"/>
       <c r="K39" s="83">
         <f>(IF($K38&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K38=$K$6+$L$6,$O$103,0),0),0)+IF($L38&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L38=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="80"/>
       <c r="M39" s="81">
@@ -7461,13 +7458,13 @@
       <c r="AJ39" s="129"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="129"/>
     </row>
     <row r="40" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="103"/>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="125">
@@ -7566,7 +7563,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S40" s="149"/>
+      <c r="S40" s="148"/>
       <c r="T40" s="125"/>
       <c r="U40" s="125"/>
       <c r="V40" s="125"/>
@@ -7575,16 +7572,16 @@
       <c r="Y40" s="125"/>
       <c r="Z40" s="125"/>
       <c r="AA40" s="125"/>
-      <c r="AB40" s="149"/>
+      <c r="AB40" s="148"/>
       <c r="AC40" s="125"/>
       <c r="AD40" s="125"/>
       <c r="AE40" s="125"/>
       <c r="AF40" s="125"/>
-      <c r="AG40" s="149"/>
+      <c r="AG40" s="148"/>
       <c r="AH40" s="125"/>
       <c r="AI40" s="125"/>
-      <c r="AJ40" s="149"/>
-      <c r="AK40" s="150">
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="149">
         <f>SUM(C40:AI40)</f>
         <v>0</v>
       </c>
@@ -7592,7 +7589,7 @@
     </row>
     <row r="41" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="103"/>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="125">
@@ -7691,7 +7688,7 @@
 IF(R38 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S41" s="149"/>
+      <c r="S41" s="148"/>
       <c r="T41" s="125"/>
       <c r="U41" s="125"/>
       <c r="V41" s="125"/>
@@ -7700,104 +7697,104 @@
       <c r="Y41" s="125"/>
       <c r="Z41" s="125"/>
       <c r="AA41" s="125"/>
-      <c r="AB41" s="149"/>
+      <c r="AB41" s="148"/>
       <c r="AC41" s="125"/>
       <c r="AD41" s="125"/>
       <c r="AE41" s="125"/>
       <c r="AF41" s="125"/>
-      <c r="AG41" s="149"/>
+      <c r="AG41" s="148"/>
       <c r="AH41" s="125"/>
       <c r="AI41" s="125"/>
-      <c r="AJ41" s="149"/>
-      <c r="AK41" s="150">
+      <c r="AJ41" s="148"/>
+      <c r="AK41" s="149">
         <f>SUM(C41:AI41)</f>
         <v>0</v>
       </c>
       <c r="AL41" s="131"/>
     </row>
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="188">
+      <c r="A42" s="187">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B42" s="213" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="199">
+        <v>6</v>
+      </c>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="200">
         <v>7</v>
       </c>
-      <c r="B42" s="215" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="200">
+      <c r="G42" s="202">
+        <v>7</v>
+      </c>
+      <c r="H42" s="203"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="203">
+        <v>6</v>
+      </c>
+      <c r="K42" s="204">
+        <v>6</v>
+      </c>
+      <c r="L42" s="203"/>
+      <c r="M42" s="201">
+        <v>7</v>
+      </c>
+      <c r="N42" s="200"/>
+      <c r="O42" s="201">
         <v>5</v>
       </c>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202">
-        <v>5</v>
-      </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="203">
-        <v>5</v>
-      </c>
-      <c r="H42" s="204"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="204">
+      <c r="P42" s="200"/>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="205">
         <v>6</v>
       </c>
-      <c r="K42" s="205">
-        <v>5</v>
-      </c>
-      <c r="L42" s="204"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="201">
-        <v>6</v>
-      </c>
-      <c r="O42" s="202">
-        <v>5</v>
-      </c>
-      <c r="P42" s="201"/>
-      <c r="Q42" s="203"/>
-      <c r="R42" s="206">
-        <v>6</v>
-      </c>
-      <c r="S42" s="208">
+      <c r="S42" s="207">
         <f>SUM(C43:R43)</f>
-        <v>1</v>
-      </c>
-      <c r="T42" s="200"/>
-      <c r="U42" s="204"/>
-      <c r="V42" s="202"/>
-      <c r="W42" s="204"/>
-      <c r="X42" s="205"/>
-      <c r="Y42" s="201"/>
-      <c r="Z42" s="203"/>
-      <c r="AA42" s="204"/>
-      <c r="AB42" s="208">
+        <v>3</v>
+      </c>
+      <c r="T42" s="199"/>
+      <c r="U42" s="203"/>
+      <c r="V42" s="201"/>
+      <c r="W42" s="203"/>
+      <c r="X42" s="204"/>
+      <c r="Y42" s="200"/>
+      <c r="Z42" s="202"/>
+      <c r="AA42" s="203"/>
+      <c r="AB42" s="207">
         <f>SUM(T43:AA43)</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="203"/>
-      <c r="AD42" s="204"/>
-      <c r="AE42" s="205"/>
-      <c r="AF42" s="204"/>
-      <c r="AG42" s="208">
+      <c r="AC42" s="202"/>
+      <c r="AD42" s="203"/>
+      <c r="AE42" s="204"/>
+      <c r="AF42" s="203"/>
+      <c r="AG42" s="207">
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="234"/>
-      <c r="AI42" s="198"/>
-      <c r="AJ42" s="208">
+      <c r="AH42" s="211"/>
+      <c r="AI42" s="197"/>
+      <c r="AJ42" s="207">
         <f>AH43</f>
         <v>0</v>
       </c>
-      <c r="AK42" s="211">
+      <c r="AK42" s="209">
         <f>MAX($AL$10:$AL$97) - AL42</f>
         <v>2</v>
       </c>
-      <c r="AL42" s="130">
+      <c r="AL42" s="207">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122">
+      <c r="A43" s="122" t="e">
         <f>RANK(AL43,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B43" s="102"/>
       <c r="C43" s="79">
@@ -7807,12 +7804,12 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
         <f>(IF($G42&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G42=$G$6+$H$6,$O$103,0),0),0)+IF($H42&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H42=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="80"/>
       <c r="I43" s="121">
@@ -7822,12 +7819,12 @@
       <c r="J43" s="82"/>
       <c r="K43" s="83">
         <f>(IF($K42&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K42=$K$6+$L$6,$O$103,0),0),0)+IF($L42&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L42=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
@@ -7860,13 +7857,13 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="129"/>
     </row>
     <row r="44" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="103"/>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="125">
@@ -7965,7 +7962,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S44" s="149"/>
+      <c r="S44" s="148"/>
       <c r="T44" s="125"/>
       <c r="U44" s="125"/>
       <c r="V44" s="125"/>
@@ -7974,16 +7971,16 @@
       <c r="Y44" s="125"/>
       <c r="Z44" s="125"/>
       <c r="AA44" s="125"/>
-      <c r="AB44" s="149"/>
+      <c r="AB44" s="148"/>
       <c r="AC44" s="125"/>
       <c r="AD44" s="125"/>
       <c r="AE44" s="125"/>
       <c r="AF44" s="125"/>
-      <c r="AG44" s="149"/>
+      <c r="AG44" s="148"/>
       <c r="AH44" s="125"/>
       <c r="AI44" s="125"/>
-      <c r="AJ44" s="149"/>
-      <c r="AK44" s="150">
+      <c r="AJ44" s="148"/>
+      <c r="AK44" s="149">
         <f>SUM(C44:AI44)</f>
         <v>0</v>
       </c>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="45" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="103"/>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="125">
@@ -8090,7 +8087,7 @@
 IF(R42 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S45" s="149"/>
+      <c r="S45" s="148"/>
       <c r="T45" s="125"/>
       <c r="U45" s="125"/>
       <c r="V45" s="125"/>
@@ -8099,16 +8096,16 @@
       <c r="Y45" s="125"/>
       <c r="Z45" s="125"/>
       <c r="AA45" s="125"/>
-      <c r="AB45" s="149"/>
+      <c r="AB45" s="148"/>
       <c r="AC45" s="125"/>
       <c r="AD45" s="125"/>
       <c r="AE45" s="125"/>
       <c r="AF45" s="125"/>
-      <c r="AG45" s="149"/>
+      <c r="AG45" s="148"/>
       <c r="AH45" s="125"/>
       <c r="AI45" s="125"/>
-      <c r="AJ45" s="149"/>
-      <c r="AK45" s="150">
+      <c r="AJ45" s="148"/>
+      <c r="AK45" s="149">
         <f>SUM(C45:AI45)</f>
         <v>0</v>
       </c>
@@ -8117,13 +8114,13 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="44"/>
@@ -8136,35 +8133,35 @@
       <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
+        <v>7</v>
+      </c>
+      <c r="K46" s="49">
+        <v>5</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="44">
         <v>6</v>
       </c>
-      <c r="K46" s="49"/>
-      <c r="L46" s="47">
-        <v>6</v>
-      </c>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45">
-        <v>6</v>
-      </c>
+      <c r="N46" s="45"/>
       <c r="O46" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="48"/>
       <c r="R46" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S46" s="130">
         <f>SUM(C47:R47)</f>
-        <v>1</v>
-      </c>
-      <c r="T46" s="46"/>
+        <v>3</v>
+      </c>
+      <c r="T46" s="226"/>
       <c r="U46" s="47"/>
       <c r="V46" s="44"/>
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
       <c r="Y46" s="45"/>
-      <c r="Z46" s="123"/>
+      <c r="Z46" s="48"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="130">
         <f>SUM(T47:AA47)</f>
@@ -8190,13 +8187,13 @@
       </c>
       <c r="AL46" s="130">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122">
+      <c r="A47" s="122" t="e">
         <f>RANK(AL47,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B47" s="102"/>
       <c r="C47" s="79">
@@ -8206,12 +8203,12 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
         <f>(IF($G46&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G46=$G$6+$H$6,$O$103,0),0),0)+IF($H46&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H46=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="80"/>
       <c r="I47" s="81">
@@ -8221,12 +8218,12 @@
       <c r="J47" s="82"/>
       <c r="K47" s="83">
         <f>(IF($K46&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K46=$K$6+$L$6,$O$103,0),0),0)+IF($L46&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L46=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -8259,13 +8256,13 @@
       <c r="AJ47" s="129"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="129"/>
     </row>
     <row r="48" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="103"/>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="125">
@@ -8364,7 +8361,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S48" s="149"/>
+      <c r="S48" s="148"/>
       <c r="T48" s="125"/>
       <c r="U48" s="125"/>
       <c r="V48" s="125"/>
@@ -8373,16 +8370,16 @@
       <c r="Y48" s="125"/>
       <c r="Z48" s="125"/>
       <c r="AA48" s="125"/>
-      <c r="AB48" s="149"/>
+      <c r="AB48" s="148"/>
       <c r="AC48" s="125"/>
       <c r="AD48" s="125"/>
       <c r="AE48" s="125"/>
       <c r="AF48" s="125"/>
-      <c r="AG48" s="149"/>
+      <c r="AG48" s="148"/>
       <c r="AH48" s="125"/>
       <c r="AI48" s="125"/>
-      <c r="AJ48" s="149"/>
-      <c r="AK48" s="150">
+      <c r="AJ48" s="148"/>
+      <c r="AK48" s="149">
         <f>SUM(C48:AI48)</f>
         <v>0</v>
       </c>
@@ -8390,7 +8387,7 @@
     </row>
     <row r="49" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="103"/>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="125">
@@ -8489,7 +8486,7 @@
 IF(R46 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S49" s="149"/>
+      <c r="S49" s="148"/>
       <c r="T49" s="125"/>
       <c r="U49" s="125"/>
       <c r="V49" s="125"/>
@@ -8498,170 +8495,170 @@
       <c r="Y49" s="125"/>
       <c r="Z49" s="125"/>
       <c r="AA49" s="125"/>
-      <c r="AB49" s="149"/>
+      <c r="AB49" s="148"/>
       <c r="AC49" s="125"/>
       <c r="AD49" s="125"/>
       <c r="AE49" s="125"/>
       <c r="AF49" s="125"/>
-      <c r="AG49" s="149"/>
+      <c r="AG49" s="148"/>
       <c r="AH49" s="125"/>
       <c r="AI49" s="125"/>
-      <c r="AJ49" s="149"/>
-      <c r="AK49" s="150">
+      <c r="AJ49" s="148"/>
+      <c r="AK49" s="149">
         <f>SUM(C49:AI49)</f>
         <v>0</v>
       </c>
       <c r="AL49" s="131"/>
     </row>
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="188">
+      <c r="A50" s="187">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>7</v>
-      </c>
-      <c r="B50" s="215" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="200">
+        <v>6</v>
+      </c>
+      <c r="B50" s="213" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="199">
         <v>5</v>
       </c>
-      <c r="D50" s="201"/>
-      <c r="E50" s="202">
+      <c r="D50" s="200"/>
+      <c r="E50" s="201">
+        <v>5</v>
+      </c>
+      <c r="F50" s="200"/>
+      <c r="G50" s="202">
+        <v>5</v>
+      </c>
+      <c r="H50" s="203"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="203">
         <v>6</v>
       </c>
-      <c r="F50" s="201"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="204">
-        <v>7</v>
-      </c>
-      <c r="I50" s="202"/>
-      <c r="J50" s="204">
+      <c r="K50" s="204">
+        <v>5</v>
+      </c>
+      <c r="L50" s="203"/>
+      <c r="M50" s="201"/>
+      <c r="N50" s="200">
         <v>6</v>
       </c>
-      <c r="K50" s="205">
+      <c r="O50" s="201">
         <v>5</v>
       </c>
-      <c r="L50" s="204"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="201">
-        <v>7</v>
-      </c>
-      <c r="O50" s="202">
-        <v>5</v>
-      </c>
-      <c r="P50" s="201"/>
-      <c r="Q50" s="203"/>
-      <c r="R50" s="206">
+      <c r="P50" s="200"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="205">
         <v>6</v>
       </c>
-      <c r="S50" s="208">
+      <c r="S50" s="207">
         <f>SUM(C51:R51)</f>
-        <v>1</v>
-      </c>
-      <c r="T50" s="200"/>
-      <c r="U50" s="204"/>
-      <c r="V50" s="202"/>
-      <c r="W50" s="204"/>
-      <c r="X50" s="205"/>
-      <c r="Y50" s="201"/>
-      <c r="Z50" s="212"/>
-      <c r="AA50" s="204"/>
-      <c r="AB50" s="208">
+        <v>3</v>
+      </c>
+      <c r="T50" s="199"/>
+      <c r="U50" s="203"/>
+      <c r="V50" s="201"/>
+      <c r="W50" s="203"/>
+      <c r="X50" s="204"/>
+      <c r="Y50" s="200"/>
+      <c r="Z50" s="202"/>
+      <c r="AA50" s="203"/>
+      <c r="AB50" s="207">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
-      <c r="AC50" s="203"/>
-      <c r="AD50" s="204"/>
-      <c r="AE50" s="205"/>
-      <c r="AF50" s="204"/>
-      <c r="AG50" s="208">
+      <c r="AC50" s="202"/>
+      <c r="AD50" s="203"/>
+      <c r="AE50" s="204"/>
+      <c r="AF50" s="203"/>
+      <c r="AG50" s="207">
         <f>SUM(AC51:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="213"/>
-      <c r="AI50" s="198"/>
-      <c r="AJ50" s="208">
+      <c r="AH50" s="230"/>
+      <c r="AI50" s="197"/>
+      <c r="AJ50" s="207">
         <f>AH51</f>
         <v>0</v>
       </c>
-      <c r="AK50" s="211">
+      <c r="AK50" s="209">
         <f>MAX($AL$10:$AL$97) - AL50</f>
         <v>2</v>
       </c>
-      <c r="AL50" s="130">
+      <c r="AL50" s="207">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="122">
+      <c r="A51" s="122" t="e">
         <f>RANK(AL51,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B51" s="102"/>
-      <c r="C51" s="135">
+      <c r="C51" s="134">
         <f>(IF($C50&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C50=$C$6+$D$6,$O$103,0),0),0)+IF($D50&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D50=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="136"/>
-      <c r="E51" s="134">
+      <c r="D51" s="135"/>
+      <c r="E51" s="133">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E50=$E$6+$F$6,$O$103,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F50=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F51" s="136"/>
-      <c r="G51" s="134">
+      <c r="F51" s="135"/>
+      <c r="G51" s="133">
         <f>(IF($G50&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G50=$G$6+$H$6,$O$103,0),0),0)+IF($H50&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H50=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="136"/>
-      <c r="I51" s="137">
+        <v>1</v>
+      </c>
+      <c r="H51" s="135"/>
+      <c r="I51" s="136">
         <f>(IF($I50&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I50=$I$6+$J$6,$O$103,0),0),0)+IF($J50&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J50=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J51" s="138"/>
-      <c r="K51" s="139">
+      <c r="J51" s="137"/>
+      <c r="K51" s="138">
         <f>(IF($K50&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K50=$K$6+$L$6,$O$103,0),0),0)+IF($L50&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L50=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="136"/>
-      <c r="M51" s="134">
+        <v>1</v>
+      </c>
+      <c r="L51" s="135"/>
+      <c r="M51" s="133">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="N51" s="136"/>
-      <c r="O51" s="137">
+      <c r="N51" s="135"/>
+      <c r="O51" s="136">
         <f>(IF($O50&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O50=$O$6+$P$6,$O$103,0),0),0)+IF($P50&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P50=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P51" s="136"/>
-      <c r="Q51" s="137">
+      <c r="P51" s="135"/>
+      <c r="Q51" s="136">
         <f>(IF($Q50&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q50=$Q$6+$R$6,$O$103,0),0),0)+IF($R50&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R50=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R51" s="140"/>
+      <c r="R51" s="139"/>
       <c r="S51" s="129"/>
-      <c r="T51" s="141"/>
-      <c r="U51" s="142"/>
-      <c r="V51" s="143"/>
-      <c r="W51" s="144"/>
-      <c r="X51" s="145"/>
-      <c r="Y51" s="142"/>
-      <c r="Z51" s="143"/>
-      <c r="AA51" s="146"/>
+      <c r="T51" s="140"/>
+      <c r="U51" s="141"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="143"/>
+      <c r="X51" s="144"/>
+      <c r="Y51" s="141"/>
+      <c r="Z51" s="142"/>
+      <c r="AA51" s="145"/>
       <c r="AB51" s="129"/>
-      <c r="AC51" s="147"/>
-      <c r="AD51" s="144"/>
-      <c r="AE51" s="145"/>
-      <c r="AF51" s="147"/>
+      <c r="AC51" s="146"/>
+      <c r="AD51" s="143"/>
+      <c r="AE51" s="144"/>
+      <c r="AF51" s="146"/>
       <c r="AG51" s="129"/>
-      <c r="AH51" s="141"/>
-      <c r="AI51" s="146"/>
+      <c r="AH51" s="140"/>
+      <c r="AI51" s="145"/>
       <c r="AJ51" s="129"/>
       <c r="AK51" s="115"/>
       <c r="AL51" s="129"/>
     </row>
     <row r="52" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="103"/>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="125">
@@ -8760,7 +8757,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S52" s="149"/>
+      <c r="S52" s="148"/>
       <c r="T52" s="125"/>
       <c r="U52" s="125"/>
       <c r="V52" s="125"/>
@@ -8769,16 +8766,16 @@
       <c r="Y52" s="125"/>
       <c r="Z52" s="125"/>
       <c r="AA52" s="125"/>
-      <c r="AB52" s="149"/>
+      <c r="AB52" s="148"/>
       <c r="AC52" s="125"/>
       <c r="AD52" s="125"/>
       <c r="AE52" s="125"/>
       <c r="AF52" s="125"/>
-      <c r="AG52" s="149"/>
+      <c r="AG52" s="148"/>
       <c r="AH52" s="125"/>
       <c r="AI52" s="125"/>
-      <c r="AJ52" s="149"/>
-      <c r="AK52" s="150">
+      <c r="AJ52" s="148"/>
+      <c r="AK52" s="149">
         <f>SUM(C52:AI52)</f>
         <v>0</v>
       </c>
@@ -8786,7 +8783,7 @@
     </row>
     <row r="53" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="103"/>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="125">
@@ -8885,7 +8882,7 @@
 IF(R50 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S53" s="149"/>
+      <c r="S53" s="148"/>
       <c r="T53" s="125"/>
       <c r="U53" s="125"/>
       <c r="V53" s="125"/>
@@ -8894,16 +8891,16 @@
       <c r="Y53" s="125"/>
       <c r="Z53" s="125"/>
       <c r="AA53" s="125"/>
-      <c r="AB53" s="149"/>
+      <c r="AB53" s="148"/>
       <c r="AC53" s="125"/>
       <c r="AD53" s="125"/>
       <c r="AE53" s="125"/>
       <c r="AF53" s="125"/>
-      <c r="AG53" s="149"/>
+      <c r="AG53" s="148"/>
       <c r="AH53" s="125"/>
       <c r="AI53" s="125"/>
-      <c r="AJ53" s="149"/>
-      <c r="AK53" s="150">
+      <c r="AJ53" s="148"/>
+      <c r="AK53" s="149">
         <f>SUM(C53:AI53)</f>
         <v>0</v>
       </c>
@@ -8912,37 +8909,37 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="46">
+        <v>6</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45">
         <v>7</v>
       </c>
-      <c r="B54" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="46">
-        <v>5</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44">
-        <v>6</v>
-      </c>
-      <c r="F54" s="45"/>
       <c r="G54" s="48">
         <v>6</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
-        <v>7</v>
-      </c>
-      <c r="K54" s="49">
-        <v>5</v>
-      </c>
-      <c r="L54" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="K54" s="49"/>
+      <c r="L54" s="47">
+        <v>6</v>
+      </c>
       <c r="M54" s="44"/>
       <c r="N54" s="45">
         <v>6</v>
       </c>
       <c r="O54" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P54" s="45"/>
       <c r="Q54" s="48"/>
@@ -8951,7 +8948,7 @@
       </c>
       <c r="S54" s="130">
         <f>SUM(C55:R55)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
@@ -8959,7 +8956,7 @@
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="45"/>
-      <c r="Z54" s="48"/>
+      <c r="Z54" s="123"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="130">
         <f>SUM(T55:AA55)</f>
@@ -8985,79 +8982,79 @@
       </c>
       <c r="AL54" s="130">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="122">
+      <c r="A55" s="122" t="e">
         <f>RANK(AL55,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B55" s="102"/>
-      <c r="C55" s="135">
+      <c r="C55" s="134">
         <f>(IF($C54&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C54=$C$6+$D$6,$O$103,0),0),0)+IF($D54&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D54=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D55" s="136"/>
-      <c r="E55" s="134">
+      <c r="D55" s="135"/>
+      <c r="E55" s="133">
         <f>(IF($E54&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E54=$E$6+$F$6,$O$103,0),0),0)+IF($F54&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F54=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="136"/>
-      <c r="G55" s="134">
+        <v>1</v>
+      </c>
+      <c r="F55" s="135"/>
+      <c r="G55" s="133">
         <f>(IF($G54&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G54=$G$6+$H$6,$O$103,0),0),0)+IF($H54&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H54=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="136"/>
-      <c r="I55" s="137">
+        <v>1</v>
+      </c>
+      <c r="H55" s="135"/>
+      <c r="I55" s="136">
         <f>(IF($I54&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I54=$I$6+$J$6,$O$103,0),0),0)+IF($J54&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J54=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J55" s="138"/>
-      <c r="K55" s="139">
+      <c r="J55" s="137"/>
+      <c r="K55" s="138">
         <f>(IF($K54&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K54=$K$6+$L$6,$O$103,0),0),0)+IF($L54&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L54=$K$6+$L$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="L55" s="136"/>
-      <c r="M55" s="134">
+      <c r="L55" s="135"/>
+      <c r="M55" s="133">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>1</v>
       </c>
-      <c r="N55" s="136"/>
-      <c r="O55" s="137">
+      <c r="N55" s="135"/>
+      <c r="O55" s="136">
         <f>(IF($O54&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O54=$O$6+$P$6,$O$103,0),0),0)+IF($P54&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P54=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P55" s="136"/>
-      <c r="Q55" s="137">
+      <c r="P55" s="135"/>
+      <c r="Q55" s="136">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q54=$Q$6+$R$6,$O$103,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R54=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R55" s="140"/>
+      <c r="R55" s="139"/>
       <c r="S55" s="129"/>
-      <c r="T55" s="141"/>
-      <c r="U55" s="142"/>
-      <c r="V55" s="143"/>
-      <c r="W55" s="144"/>
-      <c r="X55" s="145"/>
-      <c r="Y55" s="142"/>
-      <c r="Z55" s="143"/>
-      <c r="AA55" s="146"/>
+      <c r="T55" s="140"/>
+      <c r="U55" s="141"/>
+      <c r="V55" s="142"/>
+      <c r="W55" s="143"/>
+      <c r="X55" s="144"/>
+      <c r="Y55" s="141"/>
+      <c r="Z55" s="142"/>
+      <c r="AA55" s="145"/>
       <c r="AB55" s="129"/>
-      <c r="AC55" s="147"/>
-      <c r="AD55" s="144"/>
-      <c r="AE55" s="145"/>
-      <c r="AF55" s="147"/>
+      <c r="AC55" s="146"/>
+      <c r="AD55" s="143"/>
+      <c r="AE55" s="144"/>
+      <c r="AF55" s="146"/>
       <c r="AG55" s="129"/>
-      <c r="AH55" s="141"/>
-      <c r="AI55" s="146"/>
+      <c r="AH55" s="140"/>
+      <c r="AI55" s="145"/>
       <c r="AJ55" s="129"/>
       <c r="AK55" s="115"/>
       <c r="AL55" s="129"/>
     </row>
     <row r="56" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="103"/>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="125">
@@ -9156,7 +9153,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S56" s="149"/>
+      <c r="S56" s="148"/>
       <c r="T56" s="125"/>
       <c r="U56" s="125"/>
       <c r="V56" s="125"/>
@@ -9165,16 +9162,16 @@
       <c r="Y56" s="125"/>
       <c r="Z56" s="125"/>
       <c r="AA56" s="125"/>
-      <c r="AB56" s="149"/>
+      <c r="AB56" s="148"/>
       <c r="AC56" s="125"/>
       <c r="AD56" s="125"/>
       <c r="AE56" s="125"/>
       <c r="AF56" s="125"/>
-      <c r="AG56" s="149"/>
+      <c r="AG56" s="148"/>
       <c r="AH56" s="125"/>
       <c r="AI56" s="125"/>
-      <c r="AJ56" s="149"/>
-      <c r="AK56" s="150">
+      <c r="AJ56" s="148"/>
+      <c r="AK56" s="149">
         <f>SUM(C56:AI56)</f>
         <v>0</v>
       </c>
@@ -9182,7 +9179,7 @@
     </row>
     <row r="57" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="103"/>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C57" s="125">
@@ -9281,7 +9278,7 @@
 IF(R54 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S57" s="149"/>
+      <c r="S57" s="148"/>
       <c r="T57" s="125"/>
       <c r="U57" s="125"/>
       <c r="V57" s="125"/>
@@ -9290,170 +9287,170 @@
       <c r="Y57" s="125"/>
       <c r="Z57" s="125"/>
       <c r="AA57" s="125"/>
-      <c r="AB57" s="149"/>
+      <c r="AB57" s="148"/>
       <c r="AC57" s="125"/>
       <c r="AD57" s="125"/>
       <c r="AE57" s="125"/>
       <c r="AF57" s="125"/>
-      <c r="AG57" s="149"/>
+      <c r="AG57" s="148"/>
       <c r="AH57" s="125"/>
       <c r="AI57" s="125"/>
-      <c r="AJ57" s="149"/>
-      <c r="AK57" s="150">
+      <c r="AJ57" s="148"/>
+      <c r="AK57" s="149">
         <f>SUM(C57:AI57)</f>
         <v>0</v>
       </c>
       <c r="AL57" s="131"/>
     </row>
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="188">
+      <c r="A58" s="187">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B58" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="199">
+        <v>5</v>
+      </c>
+      <c r="D58" s="200"/>
+      <c r="E58" s="201">
+        <v>6</v>
+      </c>
+      <c r="F58" s="200"/>
+      <c r="G58" s="202">
+        <v>6</v>
+      </c>
+      <c r="H58" s="203"/>
+      <c r="I58" s="201"/>
+      <c r="J58" s="203">
         <v>7</v>
       </c>
-      <c r="B58" s="215" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="200">
+      <c r="K58" s="204">
+        <v>5</v>
+      </c>
+      <c r="L58" s="203"/>
+      <c r="M58" s="201"/>
+      <c r="N58" s="200">
         <v>6</v>
       </c>
-      <c r="D58" s="201"/>
-      <c r="E58" s="202">
+      <c r="O58" s="201">
         <v>7</v>
       </c>
-      <c r="F58" s="201"/>
-      <c r="G58" s="203">
-        <v>5</v>
-      </c>
-      <c r="H58" s="204"/>
-      <c r="I58" s="202"/>
-      <c r="J58" s="204">
-        <v>5</v>
-      </c>
-      <c r="K58" s="205">
-        <v>7</v>
-      </c>
-      <c r="L58" s="204"/>
-      <c r="M58" s="202">
+      <c r="P58" s="200"/>
+      <c r="Q58" s="202"/>
+      <c r="R58" s="205">
         <v>6</v>
       </c>
-      <c r="N58" s="201"/>
-      <c r="O58" s="202">
-        <v>7</v>
-      </c>
-      <c r="P58" s="201"/>
-      <c r="Q58" s="203">
-        <v>5</v>
-      </c>
-      <c r="R58" s="206"/>
-      <c r="S58" s="208">
+      <c r="S58" s="207">
         <f>SUM(C59:R59)</f>
-        <v>1</v>
-      </c>
-      <c r="T58" s="200"/>
-      <c r="U58" s="204"/>
-      <c r="V58" s="202"/>
-      <c r="W58" s="204"/>
-      <c r="X58" s="205"/>
-      <c r="Y58" s="201"/>
-      <c r="Z58" s="203"/>
-      <c r="AA58" s="204"/>
-      <c r="AB58" s="208">
+        <v>3</v>
+      </c>
+      <c r="T58" s="199"/>
+      <c r="U58" s="203"/>
+      <c r="V58" s="201"/>
+      <c r="W58" s="203"/>
+      <c r="X58" s="204"/>
+      <c r="Y58" s="200"/>
+      <c r="Z58" s="202"/>
+      <c r="AA58" s="203"/>
+      <c r="AB58" s="207">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AC58" s="203"/>
-      <c r="AD58" s="204"/>
-      <c r="AE58" s="205"/>
-      <c r="AF58" s="204"/>
-      <c r="AG58" s="208">
+      <c r="AC58" s="202"/>
+      <c r="AD58" s="203"/>
+      <c r="AE58" s="204"/>
+      <c r="AF58" s="203"/>
+      <c r="AG58" s="207">
         <f>SUM(AC59:AF59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="213"/>
-      <c r="AI58" s="198"/>
-      <c r="AJ58" s="208">
+      <c r="AH58" s="211"/>
+      <c r="AI58" s="197"/>
+      <c r="AJ58" s="207">
         <f>AH59</f>
         <v>0</v>
       </c>
-      <c r="AK58" s="211">
+      <c r="AK58" s="209">
         <f>MAX($AL$10:$AL$97) - AL58</f>
         <v>2</v>
       </c>
-      <c r="AL58" s="130">
+      <c r="AL58" s="207">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="122">
+      <c r="A59" s="122" t="e">
         <f>RANK(AL59,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B59" s="102"/>
-      <c r="C59" s="135">
+      <c r="C59" s="134">
         <f>(IF($C58&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C58=$C$6+$D$6,$O$103,0),0),0)+IF($D58&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D58=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="134">
+      <c r="D59" s="135"/>
+      <c r="E59" s="133">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E58=$E$6+$F$6,$O$103,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F58=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F59" s="136"/>
-      <c r="G59" s="134">
+      <c r="F59" s="135"/>
+      <c r="G59" s="133">
         <f>(IF($G58&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G58=$G$6+$H$6,$O$103,0),0),0)+IF($H58&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H58=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="136"/>
-      <c r="I59" s="137">
+        <v>1</v>
+      </c>
+      <c r="H59" s="135"/>
+      <c r="I59" s="136">
         <f>(IF($I58&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I58=$I$6+$J$6,$O$103,0),0),0)+IF($J58&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J58=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J59" s="138"/>
-      <c r="K59" s="139">
+      <c r="J59" s="137"/>
+      <c r="K59" s="138">
         <f>(IF($K58&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K58=$K$6+$L$6,$O$103,0),0),0)+IF($L58&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L58=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="136"/>
-      <c r="M59" s="134">
+        <v>1</v>
+      </c>
+      <c r="L59" s="135"/>
+      <c r="M59" s="133">
         <f>(IF($M58&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M58=$M$6+$N$6,$O$103,0),0),0)+IF($N58&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N58=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="136"/>
-      <c r="O59" s="137">
+        <v>1</v>
+      </c>
+      <c r="N59" s="135"/>
+      <c r="O59" s="136">
         <f>(IF($O58&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O58=$O$6+$P$6,$O$103,0),0),0)+IF($P58&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P58=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="137">
+      <c r="P59" s="135"/>
+      <c r="Q59" s="136">
         <f>(IF($Q58&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q58=$Q$6+$R$6,$O$103,0),0),0)+IF($R58&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R58=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
-      </c>
-      <c r="R59" s="140"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="139"/>
       <c r="S59" s="129"/>
-      <c r="T59" s="141"/>
-      <c r="U59" s="142"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="144"/>
-      <c r="X59" s="145"/>
-      <c r="Y59" s="142"/>
-      <c r="Z59" s="143"/>
-      <c r="AA59" s="146"/>
+      <c r="T59" s="140"/>
+      <c r="U59" s="141"/>
+      <c r="V59" s="142"/>
+      <c r="W59" s="143"/>
+      <c r="X59" s="144"/>
+      <c r="Y59" s="141"/>
+      <c r="Z59" s="142"/>
+      <c r="AA59" s="145"/>
       <c r="AB59" s="129"/>
-      <c r="AC59" s="147"/>
-      <c r="AD59" s="144"/>
-      <c r="AE59" s="145"/>
-      <c r="AF59" s="147"/>
+      <c r="AC59" s="146"/>
+      <c r="AD59" s="143"/>
+      <c r="AE59" s="144"/>
+      <c r="AF59" s="146"/>
       <c r="AG59" s="129"/>
-      <c r="AH59" s="141"/>
-      <c r="AI59" s="146"/>
+      <c r="AH59" s="140"/>
+      <c r="AI59" s="145"/>
       <c r="AJ59" s="129"/>
       <c r="AK59" s="115"/>
       <c r="AL59" s="129"/>
     </row>
     <row r="60" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="103"/>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C60" s="125">
@@ -9552,7 +9549,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S60" s="149"/>
+      <c r="S60" s="148"/>
       <c r="T60" s="125"/>
       <c r="U60" s="125"/>
       <c r="V60" s="125"/>
@@ -9561,16 +9558,16 @@
       <c r="Y60" s="125"/>
       <c r="Z60" s="125"/>
       <c r="AA60" s="125"/>
-      <c r="AB60" s="149"/>
+      <c r="AB60" s="148"/>
       <c r="AC60" s="125"/>
       <c r="AD60" s="125"/>
       <c r="AE60" s="125"/>
       <c r="AF60" s="125"/>
-      <c r="AG60" s="149"/>
+      <c r="AG60" s="148"/>
       <c r="AH60" s="125"/>
       <c r="AI60" s="125"/>
-      <c r="AJ60" s="149"/>
-      <c r="AK60" s="150">
+      <c r="AJ60" s="148"/>
+      <c r="AK60" s="149">
         <f>SUM(C60:AI60)</f>
         <v>0</v>
       </c>
@@ -9578,7 +9575,7 @@
     </row>
     <row r="61" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="103"/>
-      <c r="B61" s="133" t="s">
+      <c r="B61" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="125">
@@ -9677,7 +9674,7 @@
 IF(R58 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S61" s="149"/>
+      <c r="S61" s="148"/>
       <c r="T61" s="125"/>
       <c r="U61" s="125"/>
       <c r="V61" s="125"/>
@@ -9686,16 +9683,16 @@
       <c r="Y61" s="125"/>
       <c r="Z61" s="125"/>
       <c r="AA61" s="125"/>
-      <c r="AB61" s="149"/>
+      <c r="AB61" s="148"/>
       <c r="AC61" s="125"/>
       <c r="AD61" s="125"/>
       <c r="AE61" s="125"/>
       <c r="AF61" s="125"/>
-      <c r="AG61" s="149"/>
+      <c r="AG61" s="148"/>
       <c r="AH61" s="125"/>
       <c r="AI61" s="125"/>
-      <c r="AJ61" s="149"/>
-      <c r="AK61" s="150">
+      <c r="AJ61" s="148"/>
+      <c r="AK61" s="149">
         <f>SUM(C61:AI61)</f>
         <v>0</v>
       </c>
@@ -9704,29 +9701,29 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C62" s="46">
+        <v>6</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="44">
+        <v>7</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="48">
         <v>5</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45">
-        <v>7</v>
-      </c>
-      <c r="G62" s="48">
-        <v>4</v>
       </c>
       <c r="H62" s="47"/>
       <c r="I62" s="44"/>
       <c r="J62" s="47">
+        <v>5</v>
+      </c>
+      <c r="K62" s="49">
         <v>7</v>
-      </c>
-      <c r="K62" s="49">
-        <v>6</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="44">
@@ -9737,20 +9734,20 @@
         <v>7</v>
       </c>
       <c r="P62" s="45"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q62" s="48">
+        <v>5</v>
+      </c>
+      <c r="R62" s="50"/>
       <c r="S62" s="130">
         <f>SUM(C63:R63)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
       <c r="V62" s="44"/>
       <c r="W62" s="47"/>
       <c r="X62" s="49"/>
-      <c r="Y62" s="128"/>
+      <c r="Y62" s="45"/>
       <c r="Z62" s="48"/>
       <c r="AA62" s="47"/>
       <c r="AB62" s="130">
@@ -9773,83 +9770,83 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL62" s="130">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="122">
+      <c r="A63" s="122" t="e">
         <f>RANK(AL63,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B63" s="102"/>
-      <c r="C63" s="135">
+      <c r="C63" s="134">
         <f>(IF($C62&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C62=$C$6+$D$6,$O$103,0),0),0)+IF($D62&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D62=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="136"/>
-      <c r="E63" s="134">
+      <c r="D63" s="135"/>
+      <c r="E63" s="133">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E62=$E$6+$F$6,$O$103,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F62=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F63" s="136"/>
-      <c r="G63" s="134">
+      <c r="F63" s="135"/>
+      <c r="G63" s="133">
         <f>(IF($G62&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G62=$G$6+$H$6,$O$103,0),0),0)+IF($H62&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H62=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="136"/>
-      <c r="I63" s="137">
+        <v>1</v>
+      </c>
+      <c r="H63" s="135"/>
+      <c r="I63" s="136">
         <f>(IF($I62&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I62=$I$6+$J$6,$O$103,0),0),0)+IF($J62&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J62=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J63" s="138"/>
-      <c r="K63" s="139">
+      <c r="J63" s="137"/>
+      <c r="K63" s="138">
         <f>(IF($K62&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K62=$K$6+$L$6,$O$103,0),0),0)+IF($L62&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L62=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="136"/>
-      <c r="M63" s="134">
+        <v>1</v>
+      </c>
+      <c r="L63" s="135"/>
+      <c r="M63" s="133">
         <f>(IF($M62&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M62=$M$6+$N$6,$O$103,0),0),0)+IF($N62&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N62=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N63" s="136"/>
-      <c r="O63" s="137">
+      <c r="N63" s="135"/>
+      <c r="O63" s="136">
         <f>(IF($O62&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O62=$O$6+$P$6,$O$103,0),0),0)+IF($P62&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P62=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="137">
+      <c r="P63" s="135"/>
+      <c r="Q63" s="136">
         <f>(IF($Q62&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q62=$Q$6+$R$6,$O$103,0),0),0)+IF($R62&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R62=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="R63" s="139"/>
       <c r="S63" s="129"/>
-      <c r="T63" s="141"/>
-      <c r="U63" s="142"/>
-      <c r="V63" s="143"/>
-      <c r="W63" s="144"/>
-      <c r="X63" s="145"/>
-      <c r="Y63" s="142"/>
-      <c r="Z63" s="143"/>
-      <c r="AA63" s="146"/>
+      <c r="T63" s="140"/>
+      <c r="U63" s="141"/>
+      <c r="V63" s="142"/>
+      <c r="W63" s="143"/>
+      <c r="X63" s="144"/>
+      <c r="Y63" s="141"/>
+      <c r="Z63" s="142"/>
+      <c r="AA63" s="145"/>
       <c r="AB63" s="129"/>
-      <c r="AC63" s="147"/>
-      <c r="AD63" s="144"/>
-      <c r="AE63" s="145"/>
-      <c r="AF63" s="147"/>
+      <c r="AC63" s="146"/>
+      <c r="AD63" s="143"/>
+      <c r="AE63" s="144"/>
+      <c r="AF63" s="146"/>
       <c r="AG63" s="129"/>
-      <c r="AH63" s="141"/>
-      <c r="AI63" s="146"/>
+      <c r="AH63" s="140"/>
+      <c r="AI63" s="145"/>
       <c r="AJ63" s="129"/>
       <c r="AK63" s="115"/>
       <c r="AL63" s="129"/>
     </row>
     <row r="64" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="103"/>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C64" s="125">
@@ -9948,7 +9945,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S64" s="149"/>
+      <c r="S64" s="148"/>
       <c r="T64" s="125"/>
       <c r="U64" s="125"/>
       <c r="V64" s="125"/>
@@ -9957,16 +9954,16 @@
       <c r="Y64" s="125"/>
       <c r="Z64" s="125"/>
       <c r="AA64" s="125"/>
-      <c r="AB64" s="149"/>
+      <c r="AB64" s="148"/>
       <c r="AC64" s="125"/>
       <c r="AD64" s="125"/>
       <c r="AE64" s="125"/>
       <c r="AF64" s="125"/>
-      <c r="AG64" s="149"/>
+      <c r="AG64" s="148"/>
       <c r="AH64" s="125"/>
       <c r="AI64" s="125"/>
-      <c r="AJ64" s="149"/>
-      <c r="AK64" s="150">
+      <c r="AJ64" s="148"/>
+      <c r="AK64" s="149">
         <f>SUM(C64:AI64)</f>
         <v>0</v>
       </c>
@@ -9974,7 +9971,7 @@
     </row>
     <row r="65" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="103"/>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="125">
@@ -10073,7 +10070,7 @@
 IF(R62 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S65" s="149"/>
+      <c r="S65" s="148"/>
       <c r="T65" s="125"/>
       <c r="U65" s="125"/>
       <c r="V65" s="125"/>
@@ -10082,170 +10079,170 @@
       <c r="Y65" s="125"/>
       <c r="Z65" s="125"/>
       <c r="AA65" s="125"/>
-      <c r="AB65" s="149"/>
+      <c r="AB65" s="148"/>
       <c r="AC65" s="125"/>
       <c r="AD65" s="125"/>
       <c r="AE65" s="125"/>
       <c r="AF65" s="125"/>
-      <c r="AG65" s="149"/>
+      <c r="AG65" s="148"/>
       <c r="AH65" s="125"/>
       <c r="AI65" s="125"/>
-      <c r="AJ65" s="149"/>
-      <c r="AK65" s="150">
+      <c r="AJ65" s="148"/>
+      <c r="AK65" s="149">
         <f>SUM(C65:AI65)</f>
         <v>0</v>
       </c>
       <c r="AL65" s="131"/>
     </row>
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="188">
+      <c r="A66" s="187">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>14</v>
-      </c>
-      <c r="B66" s="215" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="200">
-        <v>4</v>
-      </c>
-      <c r="D66" s="201"/>
-      <c r="E66" s="202">
-        <v>4</v>
-      </c>
-      <c r="F66" s="201"/>
-      <c r="G66" s="203">
+        <v>15</v>
+      </c>
+      <c r="B66" s="213" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="199">
+        <v>7</v>
+      </c>
+      <c r="D66" s="200"/>
+      <c r="E66" s="227">
         <v>6</v>
       </c>
-      <c r="H66" s="204"/>
-      <c r="I66" s="202"/>
-      <c r="J66" s="204">
+      <c r="F66" s="200"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="203">
         <v>6</v>
       </c>
-      <c r="K66" s="205">
+      <c r="I66" s="227"/>
+      <c r="J66" s="203">
+        <v>7</v>
+      </c>
+      <c r="K66" s="204">
+        <v>5</v>
+      </c>
+      <c r="L66" s="203"/>
+      <c r="M66" s="201">
+        <v>7</v>
+      </c>
+      <c r="N66" s="200"/>
+      <c r="O66" s="201">
         <v>6</v>
       </c>
-      <c r="L66" s="204"/>
-      <c r="M66" s="202">
-        <v>5</v>
-      </c>
-      <c r="N66" s="201"/>
-      <c r="O66" s="202">
+      <c r="P66" s="200"/>
+      <c r="Q66" s="202">
         <v>6</v>
       </c>
-      <c r="P66" s="201"/>
-      <c r="Q66" s="203"/>
-      <c r="R66" s="206">
-        <v>6</v>
-      </c>
-      <c r="S66" s="208">
+      <c r="R66" s="205"/>
+      <c r="S66" s="207">
         <f>SUM(C67:R67)</f>
-        <v>0</v>
-      </c>
-      <c r="T66" s="200"/>
-      <c r="U66" s="204"/>
-      <c r="V66" s="202"/>
-      <c r="W66" s="204"/>
-      <c r="X66" s="205"/>
-      <c r="Y66" s="201"/>
-      <c r="Z66" s="212"/>
-      <c r="AA66" s="204"/>
-      <c r="AB66" s="208">
+        <v>2</v>
+      </c>
+      <c r="T66" s="199"/>
+      <c r="U66" s="203"/>
+      <c r="V66" s="229"/>
+      <c r="W66" s="203"/>
+      <c r="X66" s="204"/>
+      <c r="Y66" s="220"/>
+      <c r="Z66" s="202"/>
+      <c r="AA66" s="203"/>
+      <c r="AB66" s="207">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
-      <c r="AC66" s="203"/>
-      <c r="AD66" s="230"/>
-      <c r="AE66" s="205"/>
-      <c r="AF66" s="204"/>
-      <c r="AG66" s="208">
+      <c r="AC66" s="202"/>
+      <c r="AD66" s="203"/>
+      <c r="AE66" s="204"/>
+      <c r="AF66" s="203"/>
+      <c r="AG66" s="207">
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="214"/>
-      <c r="AI66" s="210"/>
-      <c r="AJ66" s="208">
+      <c r="AH66" s="212"/>
+      <c r="AI66" s="208"/>
+      <c r="AJ66" s="207">
         <f>AH67</f>
         <v>0</v>
       </c>
-      <c r="AK66" s="211">
+      <c r="AK66" s="209">
         <f>MAX($AL$10:$AL$97) - AL66</f>
         <v>3</v>
       </c>
-      <c r="AL66" s="130">
+      <c r="AL66" s="207">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="122">
+      <c r="A67" s="122" t="e">
         <f>RANK(AL67,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B67" s="102"/>
-      <c r="C67" s="135">
+      <c r="C67" s="134">
         <f>(IF($C66&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C66=$C$6+$D$6,$O$103,0),0),0)+IF($D66&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D66=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D67" s="136"/>
-      <c r="E67" s="134">
+      <c r="D67" s="135"/>
+      <c r="E67" s="133">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E66=$E$6+$F$6,$O$103,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F66=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F67" s="136"/>
-      <c r="G67" s="134">
+      <c r="F67" s="135"/>
+      <c r="G67" s="133">
         <f>(IF($G66&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G66=$G$6+$H$6,$O$103,0),0),0)+IF($H66&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H66=$G$6+$H$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H67" s="136"/>
-      <c r="I67" s="137">
+      <c r="H67" s="135"/>
+      <c r="I67" s="136">
         <f>(IF($I66&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I66=$I$6+$J$6,$O$103,0),0),0)+IF($J66&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J66=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J67" s="138"/>
-      <c r="K67" s="139">
+      <c r="J67" s="137"/>
+      <c r="K67" s="138">
         <f>(IF($K66&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K66=$K$6+$L$6,$O$103,0),0),0)+IF($L66&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L66=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="136"/>
-      <c r="M67" s="134">
+        <v>1</v>
+      </c>
+      <c r="L67" s="135"/>
+      <c r="M67" s="133">
         <f>(IF($M66&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M66=$M$6+$N$6,$O$103,0),0),0)+IF($N66&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N66=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N67" s="136"/>
-      <c r="O67" s="137">
+      <c r="N67" s="135"/>
+      <c r="O67" s="136">
         <f>(IF($O66&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O66=$O$6+$P$6,$O$103,0),0),0)+IF($P66&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P66=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P67" s="136"/>
-      <c r="Q67" s="137">
+      <c r="P67" s="135"/>
+      <c r="Q67" s="136">
         <f>(IF($Q66&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q66=$Q$6+$R$6,$O$103,0),0),0)+IF($R66&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R66=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="140"/>
+        <v>1</v>
+      </c>
+      <c r="R67" s="139"/>
       <c r="S67" s="129"/>
-      <c r="T67" s="141"/>
-      <c r="U67" s="142"/>
-      <c r="V67" s="143"/>
-      <c r="W67" s="144"/>
-      <c r="X67" s="145"/>
-      <c r="Y67" s="142"/>
-      <c r="Z67" s="143"/>
-      <c r="AA67" s="146"/>
+      <c r="T67" s="140"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="142"/>
+      <c r="W67" s="143"/>
+      <c r="X67" s="144"/>
+      <c r="Y67" s="141"/>
+      <c r="Z67" s="142"/>
+      <c r="AA67" s="145"/>
       <c r="AB67" s="129"/>
-      <c r="AC67" s="147"/>
-      <c r="AD67" s="144"/>
-      <c r="AE67" s="145"/>
-      <c r="AF67" s="147"/>
+      <c r="AC67" s="146"/>
+      <c r="AD67" s="143"/>
+      <c r="AE67" s="144"/>
+      <c r="AF67" s="146"/>
       <c r="AG67" s="129"/>
-      <c r="AH67" s="141"/>
-      <c r="AI67" s="146"/>
+      <c r="AH67" s="140"/>
+      <c r="AI67" s="145"/>
       <c r="AJ67" s="129"/>
       <c r="AK67" s="115"/>
       <c r="AL67" s="129"/>
     </row>
     <row r="68" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="103"/>
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C68" s="125">
@@ -10344,7 +10341,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S68" s="149"/>
+      <c r="S68" s="148"/>
       <c r="T68" s="125"/>
       <c r="U68" s="125"/>
       <c r="V68" s="125"/>
@@ -10353,16 +10350,16 @@
       <c r="Y68" s="125"/>
       <c r="Z68" s="125"/>
       <c r="AA68" s="125"/>
-      <c r="AB68" s="149"/>
+      <c r="AB68" s="148"/>
       <c r="AC68" s="125"/>
       <c r="AD68" s="125"/>
       <c r="AE68" s="125"/>
       <c r="AF68" s="125"/>
-      <c r="AG68" s="149"/>
+      <c r="AG68" s="148"/>
       <c r="AH68" s="125"/>
       <c r="AI68" s="125"/>
-      <c r="AJ68" s="149"/>
-      <c r="AK68" s="150">
+      <c r="AJ68" s="148"/>
+      <c r="AK68" s="149">
         <f>SUM(C68:AI68)</f>
         <v>0</v>
       </c>
@@ -10370,7 +10367,7 @@
     </row>
     <row r="69" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="103"/>
-      <c r="B69" s="133" t="s">
+      <c r="B69" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="125">
@@ -10469,7 +10466,7 @@
 IF(R66 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S69" s="149"/>
+      <c r="S69" s="148"/>
       <c r="T69" s="125"/>
       <c r="U69" s="125"/>
       <c r="V69" s="125"/>
@@ -10478,16 +10475,16 @@
       <c r="Y69" s="125"/>
       <c r="Z69" s="125"/>
       <c r="AA69" s="125"/>
-      <c r="AB69" s="149"/>
+      <c r="AB69" s="148"/>
       <c r="AC69" s="125"/>
       <c r="AD69" s="125"/>
       <c r="AE69" s="125"/>
       <c r="AF69" s="125"/>
-      <c r="AG69" s="149"/>
+      <c r="AG69" s="148"/>
       <c r="AH69" s="125"/>
       <c r="AI69" s="125"/>
-      <c r="AJ69" s="149"/>
-      <c r="AK69" s="150">
+      <c r="AJ69" s="148"/>
+      <c r="AK69" s="149">
         <f>SUM(C69:AI69)</f>
         <v>0</v>
       </c>
@@ -10496,21 +10493,21 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="46">
+        <v>4</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="44">
+        <v>4</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="48">
         <v>6</v>
-      </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="45">
-        <v>7</v>
-      </c>
-      <c r="G70" s="48">
-        <v>7</v>
       </c>
       <c r="H70" s="47"/>
       <c r="I70" s="44"/>
@@ -10522,11 +10519,11 @@
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N70" s="45"/>
       <c r="O70" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P70" s="45"/>
       <c r="Q70" s="48"/>
@@ -10535,7 +10532,7 @@
       </c>
       <c r="S70" s="130">
         <f>SUM(C71:R71)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10543,14 +10540,14 @@
       <c r="W70" s="47"/>
       <c r="X70" s="49"/>
       <c r="Y70" s="45"/>
-      <c r="Z70" s="48"/>
+      <c r="Z70" s="123"/>
       <c r="AA70" s="47"/>
       <c r="AB70" s="130">
         <f>SUM(T71:AA71)</f>
         <v>0</v>
       </c>
       <c r="AC70" s="48"/>
-      <c r="AD70" s="47"/>
+      <c r="AD70" s="301"/>
       <c r="AE70" s="49"/>
       <c r="AF70" s="47"/>
       <c r="AG70" s="130">
@@ -10569,79 +10566,79 @@
       </c>
       <c r="AL70" s="130">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="122">
+      <c r="A71" s="122" t="e">
         <f>RANK(AL71,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B71" s="102"/>
-      <c r="C71" s="135">
+      <c r="C71" s="134">
         <f>(IF($C70&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C70=$C$6+$D$6,$O$103,0),0),0)+IF($D70&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D70=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="136"/>
-      <c r="E71" s="134">
+      <c r="D71" s="135"/>
+      <c r="E71" s="133">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E70=$E$6+$F$6,$O$103,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F70=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F71" s="136"/>
-      <c r="G71" s="134">
+      <c r="F71" s="135"/>
+      <c r="G71" s="133">
         <f>(IF($G70&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G70=$G$6+$H$6,$O$103,0),0),0)+IF($H70&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H70=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="136"/>
-      <c r="I71" s="137">
+        <v>1</v>
+      </c>
+      <c r="H71" s="135"/>
+      <c r="I71" s="136">
         <f>(IF($I70&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I70=$I$6+$J$6,$O$103,0),0),0)+IF($J70&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J70=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J71" s="138"/>
-      <c r="K71" s="139">
+      <c r="J71" s="137"/>
+      <c r="K71" s="138">
         <f>(IF($K70&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K70=$K$6+$L$6,$O$103,0),0),0)+IF($L70&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L70=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="136"/>
-      <c r="M71" s="134">
+        <v>1</v>
+      </c>
+      <c r="L71" s="135"/>
+      <c r="M71" s="133">
         <f>(IF($M70&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M70=$M$6+$N$6,$O$103,0),0),0)+IF($N70&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N70=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N71" s="136"/>
-      <c r="O71" s="137">
+      <c r="N71" s="135"/>
+      <c r="O71" s="136">
         <f>(IF($O70&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O70=$O$6+$P$6,$O$103,0),0),0)+IF($P70&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P70=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="136"/>
-      <c r="Q71" s="137">
+      <c r="P71" s="135"/>
+      <c r="Q71" s="136">
         <f>(IF($Q70&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q70=$Q$6+$R$6,$O$103,0),0),0)+IF($R70&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R70=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R71" s="140"/>
+      <c r="R71" s="139"/>
       <c r="S71" s="129"/>
-      <c r="T71" s="141"/>
-      <c r="U71" s="142"/>
-      <c r="V71" s="143"/>
-      <c r="W71" s="144"/>
-      <c r="X71" s="145"/>
-      <c r="Y71" s="142"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="146"/>
+      <c r="T71" s="140"/>
+      <c r="U71" s="141"/>
+      <c r="V71" s="142"/>
+      <c r="W71" s="143"/>
+      <c r="X71" s="144"/>
+      <c r="Y71" s="141"/>
+      <c r="Z71" s="142"/>
+      <c r="AA71" s="145"/>
       <c r="AB71" s="129"/>
-      <c r="AC71" s="147"/>
-      <c r="AD71" s="144"/>
-      <c r="AE71" s="145"/>
-      <c r="AF71" s="147"/>
+      <c r="AC71" s="146"/>
+      <c r="AD71" s="143"/>
+      <c r="AE71" s="144"/>
+      <c r="AF71" s="146"/>
       <c r="AG71" s="129"/>
-      <c r="AH71" s="141"/>
-      <c r="AI71" s="146"/>
+      <c r="AH71" s="140"/>
+      <c r="AI71" s="145"/>
       <c r="AJ71" s="129"/>
       <c r="AK71" s="115"/>
       <c r="AL71" s="129"/>
     </row>
     <row r="72" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="103"/>
-      <c r="B72" s="133" t="s">
+      <c r="B72" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="125">
@@ -10740,7 +10737,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S72" s="149"/>
+      <c r="S72" s="148"/>
       <c r="T72" s="125"/>
       <c r="U72" s="125"/>
       <c r="V72" s="125"/>
@@ -10749,16 +10746,16 @@
       <c r="Y72" s="125"/>
       <c r="Z72" s="125"/>
       <c r="AA72" s="125"/>
-      <c r="AB72" s="149"/>
+      <c r="AB72" s="148"/>
       <c r="AC72" s="125"/>
       <c r="AD72" s="125"/>
       <c r="AE72" s="125"/>
       <c r="AF72" s="125"/>
-      <c r="AG72" s="149"/>
+      <c r="AG72" s="148"/>
       <c r="AH72" s="125"/>
       <c r="AI72" s="125"/>
-      <c r="AJ72" s="149"/>
-      <c r="AK72" s="150">
+      <c r="AJ72" s="148"/>
+      <c r="AK72" s="149">
         <f>SUM(C72:AI72)</f>
         <v>0</v>
       </c>
@@ -10766,7 +10763,7 @@
     </row>
     <row r="73" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="103"/>
-      <c r="B73" s="133" t="s">
+      <c r="B73" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C73" s="125">
@@ -10865,7 +10862,7 @@
 IF(R70 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S73" s="149"/>
+      <c r="S73" s="148"/>
       <c r="T73" s="125"/>
       <c r="U73" s="125"/>
       <c r="V73" s="125"/>
@@ -10874,170 +10871,170 @@
       <c r="Y73" s="125"/>
       <c r="Z73" s="125"/>
       <c r="AA73" s="125"/>
-      <c r="AB73" s="149"/>
+      <c r="AB73" s="148"/>
       <c r="AC73" s="125"/>
       <c r="AD73" s="125"/>
       <c r="AE73" s="125"/>
       <c r="AF73" s="125"/>
-      <c r="AG73" s="149"/>
+      <c r="AG73" s="148"/>
       <c r="AH73" s="125"/>
       <c r="AI73" s="125"/>
-      <c r="AJ73" s="149"/>
-      <c r="AK73" s="150">
+      <c r="AJ73" s="148"/>
+      <c r="AK73" s="149">
         <f>SUM(C73:AI73)</f>
         <v>0</v>
       </c>
       <c r="AL73" s="131"/>
     </row>
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="188">
+      <c r="A74" s="187">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>14</v>
-      </c>
-      <c r="B74" s="215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="235">
+      <c r="C74" s="231">
         <v>5</v>
       </c>
-      <c r="D74" s="236"/>
-      <c r="E74" s="237">
+      <c r="D74" s="232"/>
+      <c r="E74" s="233">
         <v>6</v>
       </c>
-      <c r="F74" s="236"/>
-      <c r="G74" s="238">
+      <c r="F74" s="232"/>
+      <c r="G74" s="234">
         <v>5</v>
       </c>
-      <c r="H74" s="239"/>
-      <c r="I74" s="237"/>
-      <c r="J74" s="239">
+      <c r="H74" s="235"/>
+      <c r="I74" s="233"/>
+      <c r="J74" s="235">
         <v>6</v>
       </c>
-      <c r="K74" s="240">
+      <c r="K74" s="236">
         <v>6</v>
       </c>
-      <c r="L74" s="239"/>
-      <c r="M74" s="237">
+      <c r="L74" s="235"/>
+      <c r="M74" s="233">
         <v>7</v>
       </c>
-      <c r="N74" s="236"/>
-      <c r="O74" s="237">
+      <c r="N74" s="232"/>
+      <c r="O74" s="233">
         <v>6</v>
       </c>
-      <c r="P74" s="236"/>
-      <c r="Q74" s="238"/>
-      <c r="R74" s="241">
+      <c r="P74" s="232"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="237">
         <v>6</v>
       </c>
-      <c r="S74" s="208">
+      <c r="S74" s="207">
         <f>SUM(C75:R75)</f>
-        <v>0</v>
-      </c>
-      <c r="T74" s="200"/>
-      <c r="U74" s="204"/>
-      <c r="V74" s="202"/>
-      <c r="W74" s="204"/>
-      <c r="X74" s="205"/>
-      <c r="Y74" s="201"/>
-      <c r="Z74" s="203"/>
-      <c r="AA74" s="204"/>
-      <c r="AB74" s="208">
+        <v>2</v>
+      </c>
+      <c r="T74" s="199"/>
+      <c r="U74" s="203"/>
+      <c r="V74" s="201"/>
+      <c r="W74" s="203"/>
+      <c r="X74" s="204"/>
+      <c r="Y74" s="200"/>
+      <c r="Z74" s="202"/>
+      <c r="AA74" s="203"/>
+      <c r="AB74" s="207">
         <f>SUM(T75:AA75)</f>
         <v>0</v>
       </c>
-      <c r="AC74" s="203"/>
-      <c r="AD74" s="204"/>
-      <c r="AE74" s="205"/>
-      <c r="AF74" s="204"/>
-      <c r="AG74" s="208">
+      <c r="AC74" s="202"/>
+      <c r="AD74" s="203"/>
+      <c r="AE74" s="204"/>
+      <c r="AF74" s="203"/>
+      <c r="AG74" s="207">
         <f>SUM(AC75:AF75)</f>
         <v>0</v>
       </c>
-      <c r="AH74" s="214"/>
-      <c r="AI74" s="210"/>
-      <c r="AJ74" s="208">
+      <c r="AH74" s="212"/>
+      <c r="AI74" s="208"/>
+      <c r="AJ74" s="207">
         <f>AH75</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="211">
+      <c r="AK74" s="209">
         <f>MAX($AL$10:$AL$97) - AL74</f>
         <v>3</v>
       </c>
-      <c r="AL74" s="130">
+      <c r="AL74" s="207">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="122">
+      <c r="A75" s="122" t="e">
         <f>RANK(AL75,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B75" s="102"/>
-      <c r="C75" s="135">
+      <c r="C75" s="134">
         <f>(IF($C74&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C74=$C$6+$D$6,$O$103,0),0),0)+IF($D74&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D74=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="136"/>
-      <c r="E75" s="134">
+      <c r="D75" s="135"/>
+      <c r="E75" s="133">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E74=$E$6+$F$6,$O$103,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F74=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F75" s="136"/>
-      <c r="G75" s="134">
+      <c r="F75" s="135"/>
+      <c r="G75" s="133">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G74=$G$6+$H$6,$O$103,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H74=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="136"/>
-      <c r="I75" s="137">
+        <v>1</v>
+      </c>
+      <c r="H75" s="135"/>
+      <c r="I75" s="136">
         <f>(IF($I74&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I74=$I$6+$J$6,$O$103,0),0),0)+IF($J74&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J74=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J75" s="138"/>
-      <c r="K75" s="139">
+      <c r="J75" s="137"/>
+      <c r="K75" s="138">
         <f>(IF($K74&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K74=$K$6+$L$6,$O$103,0),0),0)+IF($L74&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L74=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="136"/>
-      <c r="M75" s="134">
+        <v>1</v>
+      </c>
+      <c r="L75" s="135"/>
+      <c r="M75" s="133">
         <f>(IF($M74&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M74=$M$6+$N$6,$O$103,0),0),0)+IF($N74&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N74=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N75" s="136"/>
-      <c r="O75" s="137">
+      <c r="N75" s="135"/>
+      <c r="O75" s="136">
         <f>(IF($O74&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O74=$O$6+$P$6,$O$103,0),0),0)+IF($P74&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P74=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P75" s="136"/>
-      <c r="Q75" s="137">
+      <c r="P75" s="135"/>
+      <c r="Q75" s="136">
         <f>(IF($Q74&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q74=$Q$6+$R$6,$O$103,0),0),0)+IF($R74&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R74=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R75" s="140"/>
+      <c r="R75" s="139"/>
       <c r="S75" s="129"/>
-      <c r="T75" s="141"/>
-      <c r="U75" s="142"/>
-      <c r="V75" s="143"/>
-      <c r="W75" s="144"/>
-      <c r="X75" s="145"/>
-      <c r="Y75" s="142"/>
-      <c r="Z75" s="143"/>
-      <c r="AA75" s="146"/>
+      <c r="T75" s="140"/>
+      <c r="U75" s="141"/>
+      <c r="V75" s="142"/>
+      <c r="W75" s="143"/>
+      <c r="X75" s="144"/>
+      <c r="Y75" s="141"/>
+      <c r="Z75" s="142"/>
+      <c r="AA75" s="145"/>
       <c r="AB75" s="129"/>
-      <c r="AC75" s="147"/>
-      <c r="AD75" s="144"/>
-      <c r="AE75" s="145"/>
-      <c r="AF75" s="147"/>
+      <c r="AC75" s="146"/>
+      <c r="AD75" s="143"/>
+      <c r="AE75" s="144"/>
+      <c r="AF75" s="146"/>
       <c r="AG75" s="129"/>
-      <c r="AH75" s="141"/>
-      <c r="AI75" s="146"/>
+      <c r="AH75" s="140"/>
+      <c r="AI75" s="145"/>
       <c r="AJ75" s="129"/>
       <c r="AK75" s="115"/>
       <c r="AL75" s="129"/>
     </row>
     <row r="76" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="103"/>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="125">
@@ -11136,7 +11133,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S76" s="149"/>
+      <c r="S76" s="148"/>
       <c r="T76" s="125"/>
       <c r="U76" s="125"/>
       <c r="V76" s="125"/>
@@ -11145,16 +11142,16 @@
       <c r="Y76" s="125"/>
       <c r="Z76" s="125"/>
       <c r="AA76" s="125"/>
-      <c r="AB76" s="149"/>
+      <c r="AB76" s="148"/>
       <c r="AC76" s="125"/>
       <c r="AD76" s="125"/>
       <c r="AE76" s="125"/>
       <c r="AF76" s="125"/>
-      <c r="AG76" s="149"/>
+      <c r="AG76" s="148"/>
       <c r="AH76" s="125"/>
       <c r="AI76" s="125"/>
-      <c r="AJ76" s="149"/>
-      <c r="AK76" s="150">
+      <c r="AJ76" s="148"/>
+      <c r="AK76" s="149">
         <f>SUM(C76:AI76)</f>
         <v>0</v>
       </c>
@@ -11162,7 +11159,7 @@
     </row>
     <row r="77" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="103"/>
-      <c r="B77" s="133" t="s">
+      <c r="B77" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C77" s="125">
@@ -11261,7 +11258,7 @@
 IF(R74 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S77" s="149"/>
+      <c r="S77" s="148"/>
       <c r="T77" s="125"/>
       <c r="U77" s="125"/>
       <c r="V77" s="125"/>
@@ -11270,16 +11267,16 @@
       <c r="Y77" s="125"/>
       <c r="Z77" s="125"/>
       <c r="AA77" s="125"/>
-      <c r="AB77" s="149"/>
+      <c r="AB77" s="148"/>
       <c r="AC77" s="125"/>
       <c r="AD77" s="125"/>
       <c r="AE77" s="125"/>
       <c r="AF77" s="125"/>
-      <c r="AG77" s="149"/>
+      <c r="AG77" s="148"/>
       <c r="AH77" s="125"/>
       <c r="AI77" s="125"/>
-      <c r="AJ77" s="149"/>
-      <c r="AK77" s="150">
+      <c r="AJ77" s="148"/>
+      <c r="AK77" s="149">
         <f>SUM(C77:AI77)</f>
         <v>0</v>
       </c>
@@ -11288,19 +11285,19 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C78" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="45"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="45">
-        <v>7</v>
-      </c>
+      <c r="E78" s="44">
+        <v>6</v>
+      </c>
+      <c r="F78" s="45"/>
       <c r="G78" s="48">
         <v>6</v>
       </c>
@@ -11314,22 +11311,22 @@
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="45"/>
       <c r="O78" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48"/>
       <c r="R78" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S78" s="130">
         <f>SUM(C79:R79)</f>
-        <v>0</v>
-      </c>
-      <c r="T78" s="229"/>
+        <v>2</v>
+      </c>
+      <c r="T78" s="46"/>
       <c r="U78" s="47"/>
       <c r="V78" s="44"/>
       <c r="W78" s="47"/>
@@ -11361,79 +11358,79 @@
       </c>
       <c r="AL78" s="130">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="122">
+      <c r="A79" s="122" t="e">
         <f>RANK(AL79,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B79" s="102"/>
-      <c r="C79" s="135">
+      <c r="C79" s="134">
         <f>(IF($C78&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C78=$C$6+$D$6,$O$103,0),0),0)+IF($D78&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D78=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D79" s="136"/>
-      <c r="E79" s="134">
+      <c r="D79" s="135"/>
+      <c r="E79" s="133">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E78=$E$6+$F$6,$O$103,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F78=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F79" s="136"/>
-      <c r="G79" s="134">
+      <c r="F79" s="135"/>
+      <c r="G79" s="133">
         <f>(IF($G78&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G78=$G$6+$H$6,$O$103,0),0),0)+IF($H78&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H78=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="136"/>
-      <c r="I79" s="137">
+        <v>1</v>
+      </c>
+      <c r="H79" s="135"/>
+      <c r="I79" s="136">
         <f>(IF($I78&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I78=$I$6+$J$6,$O$103,0),0),0)+IF($J78&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J78=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J79" s="138"/>
-      <c r="K79" s="139">
+      <c r="J79" s="137"/>
+      <c r="K79" s="138">
         <f>(IF($K78&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K78=$K$6+$L$6,$O$103,0),0),0)+IF($L78&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L78=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="136"/>
-      <c r="M79" s="134">
+        <v>1</v>
+      </c>
+      <c r="L79" s="135"/>
+      <c r="M79" s="133">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M78=$M$6+$N$6,$O$103,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N78=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N79" s="136"/>
-      <c r="O79" s="137">
+      <c r="N79" s="135"/>
+      <c r="O79" s="136">
         <f>(IF($O78&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O78=$O$6+$P$6,$O$103,0),0),0)+IF($P78&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P78=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P79" s="136"/>
-      <c r="Q79" s="137">
+      <c r="P79" s="135"/>
+      <c r="Q79" s="136">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q78=$Q$6+$R$6,$O$103,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R78=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R79" s="140"/>
+      <c r="R79" s="139"/>
       <c r="S79" s="129"/>
-      <c r="T79" s="141"/>
-      <c r="U79" s="142"/>
-      <c r="V79" s="143"/>
-      <c r="W79" s="144"/>
-      <c r="X79" s="145"/>
-      <c r="Y79" s="142"/>
-      <c r="Z79" s="143"/>
-      <c r="AA79" s="146"/>
+      <c r="T79" s="140"/>
+      <c r="U79" s="141"/>
+      <c r="V79" s="142"/>
+      <c r="W79" s="143"/>
+      <c r="X79" s="144"/>
+      <c r="Y79" s="141"/>
+      <c r="Z79" s="142"/>
+      <c r="AA79" s="145"/>
       <c r="AB79" s="129"/>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="144"/>
-      <c r="AE79" s="145"/>
-      <c r="AF79" s="147"/>
+      <c r="AC79" s="146"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="144"/>
+      <c r="AF79" s="146"/>
       <c r="AG79" s="129"/>
-      <c r="AH79" s="141"/>
-      <c r="AI79" s="146"/>
+      <c r="AH79" s="140"/>
+      <c r="AI79" s="145"/>
       <c r="AJ79" s="129"/>
       <c r="AK79" s="115"/>
       <c r="AL79" s="129"/>
     </row>
     <row r="80" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="103"/>
-      <c r="B80" s="133" t="s">
+      <c r="B80" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C80" s="125">
@@ -11532,7 +11529,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S80" s="149"/>
+      <c r="S80" s="148"/>
       <c r="T80" s="125"/>
       <c r="U80" s="125"/>
       <c r="V80" s="125"/>
@@ -11541,16 +11538,16 @@
       <c r="Y80" s="125"/>
       <c r="Z80" s="125"/>
       <c r="AA80" s="125"/>
-      <c r="AB80" s="149"/>
+      <c r="AB80" s="148"/>
       <c r="AC80" s="125"/>
       <c r="AD80" s="125"/>
       <c r="AE80" s="125"/>
       <c r="AF80" s="125"/>
-      <c r="AG80" s="149"/>
+      <c r="AG80" s="148"/>
       <c r="AH80" s="125"/>
       <c r="AI80" s="125"/>
-      <c r="AJ80" s="149"/>
-      <c r="AK80" s="150">
+      <c r="AJ80" s="148"/>
+      <c r="AK80" s="149">
         <f>SUM(C80:AI80)</f>
         <v>0</v>
       </c>
@@ -11558,7 +11555,7 @@
     </row>
     <row r="81" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="103"/>
-      <c r="B81" s="133" t="s">
+      <c r="B81" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="125">
@@ -11657,7 +11654,7 @@
 IF(R78 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S81" s="149"/>
+      <c r="S81" s="148"/>
       <c r="T81" s="125"/>
       <c r="U81" s="125"/>
       <c r="V81" s="125"/>
@@ -11666,170 +11663,170 @@
       <c r="Y81" s="125"/>
       <c r="Z81" s="125"/>
       <c r="AA81" s="125"/>
-      <c r="AB81" s="149"/>
+      <c r="AB81" s="148"/>
       <c r="AC81" s="125"/>
       <c r="AD81" s="125"/>
       <c r="AE81" s="125"/>
       <c r="AF81" s="125"/>
-      <c r="AG81" s="149"/>
+      <c r="AG81" s="148"/>
       <c r="AH81" s="125"/>
       <c r="AI81" s="125"/>
-      <c r="AJ81" s="149"/>
-      <c r="AK81" s="150">
+      <c r="AJ81" s="148"/>
+      <c r="AK81" s="149">
         <f>SUM(C81:AI81)</f>
         <v>0</v>
       </c>
       <c r="AL81" s="131"/>
     </row>
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="188">
+      <c r="A82" s="187">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>14</v>
-      </c>
-      <c r="B82" s="215" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="200">
+        <v>15</v>
+      </c>
+      <c r="B82" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="199">
+        <v>5</v>
+      </c>
+      <c r="D82" s="200"/>
+      <c r="E82" s="201">
         <v>6</v>
       </c>
-      <c r="D82" s="201"/>
-      <c r="E82" s="202">
+      <c r="F82" s="200"/>
+      <c r="G82" s="202">
         <v>6</v>
       </c>
-      <c r="F82" s="201"/>
-      <c r="G82" s="203">
+      <c r="H82" s="203"/>
+      <c r="I82" s="201"/>
+      <c r="J82" s="203">
         <v>6</v>
       </c>
-      <c r="H82" s="204"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="204">
+      <c r="K82" s="204">
         <v>7</v>
       </c>
-      <c r="K82" s="205">
+      <c r="L82" s="203"/>
+      <c r="M82" s="201">
+        <v>6</v>
+      </c>
+      <c r="N82" s="200"/>
+      <c r="O82" s="201">
         <v>5</v>
       </c>
-      <c r="L82" s="204"/>
-      <c r="M82" s="202">
-        <v>7</v>
-      </c>
-      <c r="N82" s="201"/>
-      <c r="O82" s="202">
+      <c r="P82" s="200"/>
+      <c r="Q82" s="202"/>
+      <c r="R82" s="205">
         <v>6</v>
       </c>
-      <c r="P82" s="201"/>
-      <c r="Q82" s="203"/>
-      <c r="R82" s="206">
-        <v>6</v>
-      </c>
-      <c r="S82" s="208">
+      <c r="S82" s="207">
         <f>SUM(C83:R83)</f>
-        <v>0</v>
-      </c>
-      <c r="T82" s="200"/>
-      <c r="U82" s="204"/>
-      <c r="V82" s="202"/>
-      <c r="W82" s="204"/>
-      <c r="X82" s="205"/>
-      <c r="Y82" s="201"/>
-      <c r="Z82" s="203"/>
-      <c r="AA82" s="204"/>
-      <c r="AB82" s="208">
+        <v>2</v>
+      </c>
+      <c r="T82" s="199"/>
+      <c r="U82" s="203"/>
+      <c r="V82" s="201"/>
+      <c r="W82" s="203"/>
+      <c r="X82" s="204"/>
+      <c r="Y82" s="200"/>
+      <c r="Z82" s="202"/>
+      <c r="AA82" s="203"/>
+      <c r="AB82" s="207">
         <f>SUM(T83:AA83)</f>
         <v>0</v>
       </c>
-      <c r="AC82" s="203"/>
-      <c r="AD82" s="204"/>
-      <c r="AE82" s="205"/>
-      <c r="AF82" s="204"/>
-      <c r="AG82" s="208">
+      <c r="AC82" s="202"/>
+      <c r="AD82" s="203"/>
+      <c r="AE82" s="204"/>
+      <c r="AF82" s="203"/>
+      <c r="AG82" s="207">
         <f>SUM(AC83:AF83)</f>
         <v>0</v>
       </c>
-      <c r="AH82" s="214"/>
-      <c r="AI82" s="210"/>
-      <c r="AJ82" s="208">
+      <c r="AH82" s="212"/>
+      <c r="AI82" s="208"/>
+      <c r="AJ82" s="207">
         <f>AH83</f>
         <v>0</v>
       </c>
-      <c r="AK82" s="211">
+      <c r="AK82" s="209">
         <f>MAX($AL$10:$AL$97) - AL82</f>
         <v>3</v>
       </c>
-      <c r="AL82" s="130">
+      <c r="AL82" s="207">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="122">
+      <c r="A83" s="122" t="e">
         <f>RANK(AL83,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B83" s="102"/>
-      <c r="C83" s="135">
+      <c r="C83" s="134">
         <f>(IF($C82&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C82=$C$6+$D$6,$O$103,0),0),0)+IF($D82&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D82=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="136"/>
-      <c r="E83" s="134">
+      <c r="D83" s="135"/>
+      <c r="E83" s="133">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E82=$E$6+$F$6,$O$103,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F82=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F83" s="136"/>
-      <c r="G83" s="134">
+      <c r="F83" s="135"/>
+      <c r="G83" s="133">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G82=$G$6+$H$6,$O$103,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H82=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="136"/>
-      <c r="I83" s="137">
+        <v>1</v>
+      </c>
+      <c r="H83" s="135"/>
+      <c r="I83" s="136">
         <f>(IF($I82&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I82=$I$6+$J$6,$O$103,0),0),0)+IF($J82&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J82=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J83" s="138"/>
-      <c r="K83" s="139">
+      <c r="J83" s="137"/>
+      <c r="K83" s="138">
         <f>(IF($K82&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K82=$K$6+$L$6,$O$103,0),0),0)+IF($L82&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L82=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="136"/>
-      <c r="M83" s="134">
+        <v>1</v>
+      </c>
+      <c r="L83" s="135"/>
+      <c r="M83" s="133">
         <f>(IF($M82&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M82=$M$6+$N$6,$O$103,0),0),0)+IF($N82&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N82=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N83" s="136"/>
-      <c r="O83" s="137">
+      <c r="N83" s="135"/>
+      <c r="O83" s="136">
         <f>(IF($O82&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O82=$O$6+$P$6,$O$103,0),0),0)+IF($P82&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P82=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P83" s="136"/>
-      <c r="Q83" s="137">
+      <c r="P83" s="135"/>
+      <c r="Q83" s="136">
         <f>(IF($Q82&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q82=$Q$6+$R$6,$O$103,0),0),0)+IF($R82&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R82=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R83" s="140"/>
+      <c r="R83" s="139"/>
       <c r="S83" s="129"/>
-      <c r="T83" s="141"/>
-      <c r="U83" s="142"/>
-      <c r="V83" s="143"/>
-      <c r="W83" s="144"/>
-      <c r="X83" s="145"/>
-      <c r="Y83" s="142"/>
-      <c r="Z83" s="143"/>
-      <c r="AA83" s="146"/>
+      <c r="T83" s="140"/>
+      <c r="U83" s="141"/>
+      <c r="V83" s="142"/>
+      <c r="W83" s="143"/>
+      <c r="X83" s="144"/>
+      <c r="Y83" s="141"/>
+      <c r="Z83" s="142"/>
+      <c r="AA83" s="145"/>
       <c r="AB83" s="129"/>
-      <c r="AC83" s="147"/>
-      <c r="AD83" s="144"/>
-      <c r="AE83" s="145"/>
-      <c r="AF83" s="147"/>
+      <c r="AC83" s="146"/>
+      <c r="AD83" s="143"/>
+      <c r="AE83" s="144"/>
+      <c r="AF83" s="146"/>
       <c r="AG83" s="129"/>
-      <c r="AH83" s="141"/>
-      <c r="AI83" s="146"/>
+      <c r="AH83" s="140"/>
+      <c r="AI83" s="145"/>
       <c r="AJ83" s="129"/>
       <c r="AK83" s="115"/>
       <c r="AL83" s="129"/>
     </row>
     <row r="84" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="103"/>
-      <c r="B84" s="133" t="s">
+      <c r="B84" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="125">
@@ -11928,7 +11925,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S84" s="149"/>
+      <c r="S84" s="148"/>
       <c r="T84" s="125"/>
       <c r="U84" s="125"/>
       <c r="V84" s="125"/>
@@ -11937,16 +11934,16 @@
       <c r="Y84" s="125"/>
       <c r="Z84" s="125"/>
       <c r="AA84" s="125"/>
-      <c r="AB84" s="149"/>
+      <c r="AB84" s="148"/>
       <c r="AC84" s="125"/>
       <c r="AD84" s="125"/>
       <c r="AE84" s="125"/>
       <c r="AF84" s="125"/>
-      <c r="AG84" s="149"/>
+      <c r="AG84" s="148"/>
       <c r="AH84" s="125"/>
       <c r="AI84" s="125"/>
-      <c r="AJ84" s="149"/>
-      <c r="AK84" s="150">
+      <c r="AJ84" s="148"/>
+      <c r="AK84" s="149">
         <f>SUM(C84:AI84)</f>
         <v>0</v>
       </c>
@@ -11954,7 +11951,7 @@
     </row>
     <row r="85" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="103"/>
-      <c r="B85" s="133" t="s">
+      <c r="B85" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="125">
@@ -12053,7 +12050,7 @@
 IF(R82 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S85" s="149"/>
+      <c r="S85" s="148"/>
       <c r="T85" s="125"/>
       <c r="U85" s="125"/>
       <c r="V85" s="125"/>
@@ -12062,16 +12059,16 @@
       <c r="Y85" s="125"/>
       <c r="Z85" s="125"/>
       <c r="AA85" s="125"/>
-      <c r="AB85" s="149"/>
+      <c r="AB85" s="148"/>
       <c r="AC85" s="125"/>
       <c r="AD85" s="125"/>
       <c r="AE85" s="125"/>
       <c r="AF85" s="125"/>
-      <c r="AG85" s="149"/>
+      <c r="AG85" s="148"/>
       <c r="AH85" s="125"/>
       <c r="AI85" s="125"/>
-      <c r="AJ85" s="149"/>
-      <c r="AK85" s="150">
+      <c r="AJ85" s="148"/>
+      <c r="AK85" s="149">
         <f>SUM(C85:AI85)</f>
         <v>0</v>
       </c>
@@ -12080,10 +12077,10 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C86" s="46">
         <v>5</v>
@@ -12093,22 +12090,22 @@
         <v>6</v>
       </c>
       <c r="F86" s="45"/>
-      <c r="G86" s="48">
-        <v>6</v>
-      </c>
-      <c r="H86" s="47"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="47">
+        <v>7</v>
+      </c>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
         <v>6</v>
       </c>
       <c r="K86" s="49">
+        <v>5</v>
+      </c>
+      <c r="L86" s="47"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="45">
         <v>7</v>
       </c>
-      <c r="L86" s="47"/>
-      <c r="M86" s="44">
-        <v>6</v>
-      </c>
-      <c r="N86" s="45"/>
       <c r="O86" s="44">
         <v>5</v>
       </c>
@@ -12119,7 +12116,7 @@
       </c>
       <c r="S86" s="130">
         <f>SUM(C87:R87)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12127,7 +12124,7 @@
       <c r="W86" s="47"/>
       <c r="X86" s="49"/>
       <c r="Y86" s="45"/>
-      <c r="Z86" s="48"/>
+      <c r="Z86" s="123"/>
       <c r="AA86" s="47"/>
       <c r="AB86" s="130">
         <f>SUM(T87:AA87)</f>
@@ -12153,79 +12150,79 @@
       </c>
       <c r="AL86" s="130">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="122">
+      <c r="A87" s="122" t="e">
         <f>RANK(AL87,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B87" s="102"/>
-      <c r="C87" s="135">
+      <c r="C87" s="134">
         <f>(IF($C86&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C86=$C$6+$D$6,$O$103,0),0),0)+IF($D86&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D86=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="136"/>
-      <c r="E87" s="134">
+      <c r="D87" s="135"/>
+      <c r="E87" s="133">
         <f>(IF($E86&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E86=$E$6+$F$6,$O$103,0),0),0)+IF($F86&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F86=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F87" s="136"/>
-      <c r="G87" s="134">
+      <c r="F87" s="135"/>
+      <c r="G87" s="133">
         <f>(IF($G86&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G86=$G$6+$H$6,$O$103,0),0),0)+IF($H86&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H86=$G$6+$H$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="H87" s="136"/>
-      <c r="I87" s="137">
+      <c r="H87" s="135"/>
+      <c r="I87" s="136">
         <f>(IF($I86&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I86=$I$6+$J$6,$O$103,0),0),0)+IF($J86&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J86=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J87" s="138"/>
-      <c r="K87" s="139">
+      <c r="J87" s="137"/>
+      <c r="K87" s="138">
         <f>(IF($K86&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K86=$K$6+$L$6,$O$103,0),0),0)+IF($L86&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L86=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="136"/>
-      <c r="M87" s="134">
+        <v>1</v>
+      </c>
+      <c r="L87" s="135"/>
+      <c r="M87" s="133">
         <f>(IF($M86&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M86=$M$6+$N$6,$O$103,0),0),0)+IF($N86&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N86=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="N87" s="136"/>
-      <c r="O87" s="137">
+        <v>1</v>
+      </c>
+      <c r="N87" s="135"/>
+      <c r="O87" s="136">
         <f>(IF($O86&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O86=$O$6+$P$6,$O$103,0),0),0)+IF($P86&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P86=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P87" s="136"/>
-      <c r="Q87" s="137">
+      <c r="P87" s="135"/>
+      <c r="Q87" s="136">
         <f>(IF($Q86&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q86=$Q$6+$R$6,$O$103,0),0),0)+IF($R86&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R86=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R87" s="140"/>
+      <c r="R87" s="139"/>
       <c r="S87" s="129"/>
-      <c r="T87" s="141"/>
-      <c r="U87" s="142"/>
-      <c r="V87" s="143"/>
-      <c r="W87" s="144"/>
-      <c r="X87" s="145"/>
-      <c r="Y87" s="142"/>
-      <c r="Z87" s="143"/>
-      <c r="AA87" s="146"/>
+      <c r="T87" s="140"/>
+      <c r="U87" s="141"/>
+      <c r="V87" s="142"/>
+      <c r="W87" s="143"/>
+      <c r="X87" s="144"/>
+      <c r="Y87" s="141"/>
+      <c r="Z87" s="142"/>
+      <c r="AA87" s="145"/>
       <c r="AB87" s="129"/>
-      <c r="AC87" s="147"/>
-      <c r="AD87" s="144"/>
-      <c r="AE87" s="145"/>
-      <c r="AF87" s="147"/>
+      <c r="AC87" s="146"/>
+      <c r="AD87" s="143"/>
+      <c r="AE87" s="144"/>
+      <c r="AF87" s="146"/>
       <c r="AG87" s="129"/>
-      <c r="AH87" s="141"/>
-      <c r="AI87" s="146"/>
+      <c r="AH87" s="140"/>
+      <c r="AI87" s="145"/>
       <c r="AJ87" s="129"/>
       <c r="AK87" s="115"/>
       <c r="AL87" s="129"/>
     </row>
     <row r="88" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="103"/>
-      <c r="B88" s="133" t="s">
+      <c r="B88" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C88" s="125">
@@ -12324,7 +12321,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S88" s="149"/>
+      <c r="S88" s="148"/>
       <c r="T88" s="125"/>
       <c r="U88" s="125"/>
       <c r="V88" s="125"/>
@@ -12333,16 +12330,16 @@
       <c r="Y88" s="125"/>
       <c r="Z88" s="125"/>
       <c r="AA88" s="125"/>
-      <c r="AB88" s="149"/>
+      <c r="AB88" s="148"/>
       <c r="AC88" s="125"/>
       <c r="AD88" s="125"/>
       <c r="AE88" s="125"/>
       <c r="AF88" s="125"/>
-      <c r="AG88" s="149"/>
+      <c r="AG88" s="148"/>
       <c r="AH88" s="125"/>
       <c r="AI88" s="125"/>
-      <c r="AJ88" s="149"/>
-      <c r="AK88" s="150">
+      <c r="AJ88" s="148"/>
+      <c r="AK88" s="149">
         <f>SUM(C88:AI88)</f>
         <v>0</v>
       </c>
@@ -12350,7 +12347,7 @@
     </row>
     <row r="89" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="103"/>
-      <c r="B89" s="133" t="s">
+      <c r="B89" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C89" s="125">
@@ -12449,7 +12446,7 @@
 IF(R86 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S89" s="149"/>
+      <c r="S89" s="148"/>
       <c r="T89" s="125"/>
       <c r="U89" s="125"/>
       <c r="V89" s="125"/>
@@ -12458,170 +12455,170 @@
       <c r="Y89" s="125"/>
       <c r="Z89" s="125"/>
       <c r="AA89" s="125"/>
-      <c r="AB89" s="149"/>
+      <c r="AB89" s="148"/>
       <c r="AC89" s="125"/>
       <c r="AD89" s="125"/>
       <c r="AE89" s="125"/>
       <c r="AF89" s="125"/>
-      <c r="AG89" s="149"/>
+      <c r="AG89" s="148"/>
       <c r="AH89" s="125"/>
       <c r="AI89" s="125"/>
-      <c r="AJ89" s="149"/>
-      <c r="AK89" s="150">
+      <c r="AJ89" s="148"/>
+      <c r="AK89" s="149">
         <f>SUM(C89:AI89)</f>
         <v>0</v>
       </c>
       <c r="AL89" s="131"/>
     </row>
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="188">
+      <c r="A90" s="187">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>14</v>
-      </c>
-      <c r="B90" s="215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="200">
+      <c r="C90" s="199">
         <v>5</v>
       </c>
-      <c r="D90" s="201"/>
-      <c r="E90" s="202">
+      <c r="D90" s="200"/>
+      <c r="E90" s="201">
         <v>6</v>
       </c>
-      <c r="F90" s="201"/>
-      <c r="G90" s="203">
+      <c r="F90" s="200"/>
+      <c r="G90" s="202">
         <v>6</v>
       </c>
-      <c r="H90" s="204"/>
-      <c r="I90" s="202"/>
-      <c r="J90" s="204">
+      <c r="H90" s="203"/>
+      <c r="I90" s="201"/>
+      <c r="J90" s="203">
         <v>6</v>
       </c>
-      <c r="K90" s="205">
+      <c r="K90" s="204">
         <v>6</v>
       </c>
-      <c r="L90" s="204"/>
-      <c r="M90" s="202">
+      <c r="L90" s="203"/>
+      <c r="M90" s="201">
         <v>7</v>
       </c>
-      <c r="N90" s="201"/>
-      <c r="O90" s="202">
+      <c r="N90" s="200"/>
+      <c r="O90" s="201">
         <v>6</v>
       </c>
-      <c r="P90" s="201"/>
-      <c r="Q90" s="203"/>
-      <c r="R90" s="206">
+      <c r="P90" s="200"/>
+      <c r="Q90" s="202"/>
+      <c r="R90" s="205">
         <v>7</v>
       </c>
-      <c r="S90" s="208">
+      <c r="S90" s="207">
         <f>SUM(C91:R91)</f>
-        <v>0</v>
-      </c>
-      <c r="T90" s="200"/>
-      <c r="U90" s="204"/>
-      <c r="V90" s="202"/>
-      <c r="W90" s="204"/>
-      <c r="X90" s="205"/>
-      <c r="Y90" s="201"/>
-      <c r="Z90" s="212"/>
-      <c r="AA90" s="204"/>
-      <c r="AB90" s="208">
+        <v>2</v>
+      </c>
+      <c r="T90" s="199"/>
+      <c r="U90" s="203"/>
+      <c r="V90" s="201"/>
+      <c r="W90" s="203"/>
+      <c r="X90" s="204"/>
+      <c r="Y90" s="200"/>
+      <c r="Z90" s="210"/>
+      <c r="AA90" s="203"/>
+      <c r="AB90" s="207">
         <f>SUM(T91:AA91)</f>
         <v>0</v>
       </c>
-      <c r="AC90" s="203"/>
-      <c r="AD90" s="204"/>
-      <c r="AE90" s="205"/>
-      <c r="AF90" s="204"/>
-      <c r="AG90" s="208">
+      <c r="AC90" s="202"/>
+      <c r="AD90" s="203"/>
+      <c r="AE90" s="204"/>
+      <c r="AF90" s="203"/>
+      <c r="AG90" s="207">
         <f>SUM(AC91:AF91)</f>
         <v>0</v>
       </c>
-      <c r="AH90" s="214"/>
-      <c r="AI90" s="210"/>
-      <c r="AJ90" s="208">
+      <c r="AH90" s="212"/>
+      <c r="AI90" s="208"/>
+      <c r="AJ90" s="207">
         <f>AH91</f>
         <v>0</v>
       </c>
-      <c r="AK90" s="211">
+      <c r="AK90" s="209">
         <f>MAX($AL$10:$AL$97) - AL90</f>
         <v>3</v>
       </c>
-      <c r="AL90" s="130">
+      <c r="AL90" s="207">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="122">
+      <c r="A91" s="122" t="e">
         <f>RANK(AL91,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B91" s="102"/>
-      <c r="C91" s="135">
+      <c r="C91" s="134">
         <f>(IF($C90&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C90=$C$6+$D$6,$O$103,0),0),0)+IF($D90&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D90=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D91" s="136"/>
-      <c r="E91" s="134">
+      <c r="D91" s="135"/>
+      <c r="E91" s="133">
         <f>(IF($E90&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E90=$E$6+$F$6,$O$103,0),0),0)+IF($F90&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F90=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F91" s="136"/>
-      <c r="G91" s="134">
+      <c r="F91" s="135"/>
+      <c r="G91" s="133">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="136"/>
-      <c r="I91" s="137">
+        <v>1</v>
+      </c>
+      <c r="H91" s="135"/>
+      <c r="I91" s="136">
         <f>(IF($I90&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I90=$I$6+$J$6,$O$103,0),0),0)+IF($J90&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J90=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J91" s="138"/>
-      <c r="K91" s="139">
+      <c r="J91" s="137"/>
+      <c r="K91" s="138">
         <f>(IF($K90&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K90=$K$6+$L$6,$O$103,0),0),0)+IF($L90&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L90=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L91" s="136"/>
-      <c r="M91" s="134">
+        <v>1</v>
+      </c>
+      <c r="L91" s="135"/>
+      <c r="M91" s="133">
         <f>(IF($M90&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M90=$M$6+$N$6,$O$103,0),0),0)+IF($N90&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N90=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N91" s="136"/>
-      <c r="O91" s="137">
+      <c r="N91" s="135"/>
+      <c r="O91" s="136">
         <f>(IF($O90&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O90=$O$6+$P$6,$O$103,0),0),0)+IF($P90&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P90=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P91" s="136"/>
-      <c r="Q91" s="137">
+      <c r="P91" s="135"/>
+      <c r="Q91" s="136">
         <f>(IF($Q90&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q90=$Q$6+$R$6,$O$103,0),0),0)+IF($R90&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R90=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R91" s="140"/>
+      <c r="R91" s="139"/>
       <c r="S91" s="129"/>
-      <c r="T91" s="141"/>
-      <c r="U91" s="142"/>
-      <c r="V91" s="143"/>
-      <c r="W91" s="144"/>
-      <c r="X91" s="145"/>
-      <c r="Y91" s="142"/>
-      <c r="Z91" s="143"/>
-      <c r="AA91" s="146"/>
+      <c r="T91" s="140"/>
+      <c r="U91" s="141"/>
+      <c r="V91" s="142"/>
+      <c r="W91" s="143"/>
+      <c r="X91" s="144"/>
+      <c r="Y91" s="141"/>
+      <c r="Z91" s="142"/>
+      <c r="AA91" s="145"/>
       <c r="AB91" s="129"/>
-      <c r="AC91" s="147"/>
-      <c r="AD91" s="144"/>
-      <c r="AE91" s="145"/>
-      <c r="AF91" s="147"/>
+      <c r="AC91" s="146"/>
+      <c r="AD91" s="143"/>
+      <c r="AE91" s="144"/>
+      <c r="AF91" s="146"/>
       <c r="AG91" s="129"/>
-      <c r="AH91" s="141"/>
-      <c r="AI91" s="146"/>
+      <c r="AH91" s="140"/>
+      <c r="AI91" s="145"/>
       <c r="AJ91" s="129"/>
       <c r="AK91" s="115"/>
       <c r="AL91" s="129"/>
     </row>
     <row r="92" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="103"/>
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="125">
@@ -12720,7 +12717,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S92" s="149"/>
+      <c r="S92" s="148"/>
       <c r="T92" s="125"/>
       <c r="U92" s="125"/>
       <c r="V92" s="125"/>
@@ -12729,16 +12726,16 @@
       <c r="Y92" s="125"/>
       <c r="Z92" s="125"/>
       <c r="AA92" s="125"/>
-      <c r="AB92" s="149"/>
+      <c r="AB92" s="148"/>
       <c r="AC92" s="125"/>
       <c r="AD92" s="125"/>
       <c r="AE92" s="125"/>
       <c r="AF92" s="125"/>
-      <c r="AG92" s="149"/>
+      <c r="AG92" s="148"/>
       <c r="AH92" s="125"/>
       <c r="AI92" s="125"/>
-      <c r="AJ92" s="149"/>
-      <c r="AK92" s="150">
+      <c r="AJ92" s="148"/>
+      <c r="AK92" s="149">
         <f>SUM(C92:AI92)</f>
         <v>0</v>
       </c>
@@ -12746,7 +12743,7 @@
     </row>
     <row r="93" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="103"/>
-      <c r="B93" s="133" t="s">
+      <c r="B93" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C93" s="125">
@@ -12845,7 +12842,7 @@
 IF(R90 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S93" s="149"/>
+      <c r="S93" s="148"/>
       <c r="T93" s="125"/>
       <c r="U93" s="125"/>
       <c r="V93" s="125"/>
@@ -12854,16 +12851,16 @@
       <c r="Y93" s="125"/>
       <c r="Z93" s="125"/>
       <c r="AA93" s="125"/>
-      <c r="AB93" s="149"/>
+      <c r="AB93" s="148"/>
       <c r="AC93" s="125"/>
       <c r="AD93" s="125"/>
       <c r="AE93" s="125"/>
       <c r="AF93" s="125"/>
-      <c r="AG93" s="149"/>
+      <c r="AG93" s="148"/>
       <c r="AH93" s="125"/>
       <c r="AI93" s="125"/>
-      <c r="AJ93" s="149"/>
-      <c r="AK93" s="150">
+      <c r="AJ93" s="148"/>
+      <c r="AK93" s="149">
         <f>SUM(C93:AI93)</f>
         <v>0</v>
       </c>
@@ -12872,46 +12869,46 @@
     <row r="94" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <f>RANK(AL94,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B94" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="297">
+      <c r="C94" s="241">
         <v>6</v>
       </c>
-      <c r="D94" s="298"/>
-      <c r="E94" s="299">
+      <c r="D94" s="242"/>
+      <c r="E94" s="243">
         <v>7</v>
       </c>
-      <c r="F94" s="298"/>
-      <c r="G94" s="300">
+      <c r="F94" s="242"/>
+      <c r="G94" s="244">
         <v>6</v>
       </c>
-      <c r="H94" s="301"/>
-      <c r="I94" s="299"/>
-      <c r="J94" s="301">
+      <c r="H94" s="245"/>
+      <c r="I94" s="243"/>
+      <c r="J94" s="245">
         <v>7</v>
       </c>
-      <c r="K94" s="302">
+      <c r="K94" s="246">
         <v>7</v>
       </c>
-      <c r="L94" s="301"/>
-      <c r="M94" s="299">
+      <c r="L94" s="245"/>
+      <c r="M94" s="243">
         <v>6</v>
       </c>
-      <c r="N94" s="298"/>
-      <c r="O94" s="299">
+      <c r="N94" s="242"/>
+      <c r="O94" s="243">
         <v>6</v>
       </c>
-      <c r="P94" s="298"/>
-      <c r="Q94" s="300"/>
-      <c r="R94" s="303">
+      <c r="P94" s="242"/>
+      <c r="Q94" s="244"/>
+      <c r="R94" s="247">
         <v>7</v>
       </c>
       <c r="S94" s="130">
         <f>SUM(C95:R95)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
@@ -12921,7 +12918,7 @@
       <c r="Y94" s="45"/>
       <c r="Z94" s="48"/>
       <c r="AA94" s="47"/>
-      <c r="AB94" s="130">
+      <c r="AB94" s="221">
         <f>SUM(T95:AA95)</f>
         <v>0</v>
       </c>
@@ -12929,7 +12926,7 @@
       <c r="AD94" s="47"/>
       <c r="AE94" s="49"/>
       <c r="AF94" s="47"/>
-      <c r="AG94" s="130">
+      <c r="AG94" s="221">
         <f>SUM(AC95:AF95)</f>
         <v>0</v>
       </c>
@@ -12943,81 +12940,81 @@
         <f>MAX($AL$10:$AL$97) - AL94</f>
         <v>3</v>
       </c>
-      <c r="AL94" s="223">
+      <c r="AL94" s="221">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="122">
+      <c r="A95" s="122" t="e">
         <f>RANK(AL95,$AL$10:$AL$97,)</f>
-        <v>14</v>
+        <v>#N/A</v>
       </c>
       <c r="B95" s="102"/>
-      <c r="C95" s="135">
+      <c r="C95" s="134">
         <f>(IF($C94&lt;&gt;"",($C$6*$O$104)+IF($C$6=4,($O$102)+IF($C94=$C$6+$D$6,$O$103,0),0),0)+IF($D94&lt;&gt;"",($D$6*$O$104)+IF($D$6=4,($O$102)+IF($D94=$C$6+$D$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="D95" s="136"/>
-      <c r="E95" s="134">
+      <c r="D95" s="135"/>
+      <c r="E95" s="133">
         <f>(IF($E94&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E94=$E$6+$F$6,$O$103,0),0),0)+IF($F94&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F94=$E$6+$F$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="F95" s="136"/>
-      <c r="G95" s="134">
+      <c r="F95" s="135"/>
+      <c r="G95" s="133">
         <f>(IF($G94&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G94=$G$6+$H$6,$O$103,0),0),0)+IF($H94&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H94=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="136"/>
-      <c r="I95" s="137">
+        <v>1</v>
+      </c>
+      <c r="H95" s="135"/>
+      <c r="I95" s="136">
         <f>(IF($I94&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I94=$I$6+$J$6,$O$103,0),0),0)+IF($J94&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J94=$I$6+$J$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="J95" s="138"/>
-      <c r="K95" s="139">
+      <c r="J95" s="137"/>
+      <c r="K95" s="138">
         <f>(IF($K94&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K94=$K$6+$L$6,$O$103,0),0),0)+IF($L94&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L94=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="136"/>
-      <c r="M95" s="134">
+        <v>1</v>
+      </c>
+      <c r="L95" s="135"/>
+      <c r="M95" s="133">
         <f>(IF($M94&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M94=$M$6+$N$6,$O$103,0),0),0)+IF($N94&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N94=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="N95" s="136"/>
-      <c r="O95" s="137">
+      <c r="N95" s="135"/>
+      <c r="O95" s="136">
         <f>(IF($O94&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O94=$O$6+$P$6,$O$103,0),0),0)+IF($P94&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P94=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="P95" s="136"/>
-      <c r="Q95" s="137">
+      <c r="P95" s="135"/>
+      <c r="Q95" s="136">
         <f>(IF($Q94&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q94=$Q$6+$R$6,$O$103,0),0),0)+IF($R94&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R94=$Q$6+$R$6,$O$103,0),0),0))</f>
         <v>0</v>
       </c>
-      <c r="R95" s="140"/>
+      <c r="R95" s="139"/>
       <c r="S95" s="129"/>
-      <c r="T95" s="141"/>
-      <c r="U95" s="142"/>
-      <c r="V95" s="143"/>
-      <c r="W95" s="144"/>
-      <c r="X95" s="145"/>
-      <c r="Y95" s="142"/>
-      <c r="Z95" s="143"/>
-      <c r="AA95" s="146"/>
+      <c r="T95" s="140"/>
+      <c r="U95" s="141"/>
+      <c r="V95" s="142"/>
+      <c r="W95" s="143"/>
+      <c r="X95" s="144"/>
+      <c r="Y95" s="141"/>
+      <c r="Z95" s="142"/>
+      <c r="AA95" s="145"/>
       <c r="AB95" s="129"/>
-      <c r="AC95" s="147"/>
-      <c r="AD95" s="144"/>
-      <c r="AE95" s="145"/>
-      <c r="AF95" s="147"/>
+      <c r="AC95" s="146"/>
+      <c r="AD95" s="143"/>
+      <c r="AE95" s="144"/>
+      <c r="AF95" s="146"/>
       <c r="AG95" s="129"/>
-      <c r="AH95" s="141"/>
-      <c r="AI95" s="146"/>
+      <c r="AH95" s="140"/>
+      <c r="AI95" s="145"/>
       <c r="AJ95" s="129"/>
       <c r="AK95" s="115"/>
       <c r="AL95" s="129"/>
     </row>
     <row r="96" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="103"/>
-      <c r="B96" s="133" t="s">
+      <c r="B96" s="132" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="125">
@@ -13116,7 +13113,7 @@
 IF(R$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="S96" s="149"/>
+      <c r="S96" s="148"/>
       <c r="T96" s="125"/>
       <c r="U96" s="125"/>
       <c r="V96" s="125"/>
@@ -13125,16 +13122,16 @@
       <c r="Y96" s="125"/>
       <c r="Z96" s="125"/>
       <c r="AA96" s="125"/>
-      <c r="AB96" s="149"/>
+      <c r="AB96" s="148"/>
       <c r="AC96" s="125"/>
       <c r="AD96" s="125"/>
       <c r="AE96" s="125"/>
       <c r="AF96" s="125"/>
-      <c r="AG96" s="149"/>
+      <c r="AG96" s="148"/>
       <c r="AH96" s="125"/>
       <c r="AI96" s="125"/>
-      <c r="AJ96" s="149"/>
-      <c r="AK96" s="150">
+      <c r="AJ96" s="148"/>
+      <c r="AK96" s="149">
         <f>SUM(C96:AI96)</f>
         <v>0</v>
       </c>
@@ -13142,7 +13139,7 @@
     </row>
     <row r="97" spans="1:38" s="27" customFormat="1" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="103"/>
-      <c r="B97" s="133" t="s">
+      <c r="B97" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="125">
@@ -13241,7 +13238,7 @@
 IF(R94 = (Q$6+R$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="S97" s="149"/>
+      <c r="S97" s="148"/>
       <c r="T97" s="125"/>
       <c r="U97" s="125"/>
       <c r="V97" s="125"/>
@@ -13250,85 +13247,85 @@
       <c r="Y97" s="125"/>
       <c r="Z97" s="125"/>
       <c r="AA97" s="125"/>
-      <c r="AB97" s="149"/>
+      <c r="AB97" s="148"/>
       <c r="AC97" s="125"/>
       <c r="AD97" s="125"/>
       <c r="AE97" s="125"/>
       <c r="AF97" s="125"/>
-      <c r="AG97" s="149"/>
+      <c r="AG97" s="148"/>
       <c r="AH97" s="125"/>
       <c r="AI97" s="125"/>
-      <c r="AJ97" s="149"/>
-      <c r="AK97" s="150">
+      <c r="AJ97" s="148"/>
+      <c r="AK97" s="149">
         <f>SUM(C97:AI97)</f>
         <v>0</v>
       </c>
-      <c r="AL97" s="221"/>
+      <c r="AL97" s="219"/>
     </row>
     <row r="98" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="227">
+      <c r="C98" s="224">
         <f t="shared" ref="C98:R98" si="0">COUNT(C10,C14,C18,C22,C26,C30,C34, C38, C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C90,C94,C86)</f>
         <v>22</v>
       </c>
-      <c r="D98" s="225">
+      <c r="D98" s="222">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E98" s="226">
+      <c r="E98" s="223">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F98" s="225">
+      <c r="F98" s="222">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G98" s="226">
+      <c r="G98" s="223">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H98" s="225">
+      <c r="H98" s="222">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I98" s="226">
+      <c r="I98" s="223">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J98" s="225">
+      <c r="J98" s="222">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K98" s="226">
+      <c r="K98" s="223">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L98" s="225">
+      <c r="L98" s="222">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M98" s="226">
+      <c r="M98" s="223">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="N98" s="225">
+      <c r="N98" s="222">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O98" s="226">
+      <c r="O98" s="223">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P98" s="225">
+      <c r="P98" s="222">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q98" s="226">
+      <c r="Q98" s="223">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R98" s="228">
+      <c r="R98" s="225">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -13398,12 +13395,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="255" t="s">
+      <c r="O100" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="256"/>
-      <c r="Q100" s="256"/>
-      <c r="R100" s="257"/>
+      <c r="P100" s="269"/>
+      <c r="Q100" s="269"/>
+      <c r="R100" s="270"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13412,21 +13409,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="271" t="s">
+      <c r="B101" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="272"/>
-      <c r="D101" s="272"/>
-      <c r="E101" s="272"/>
-      <c r="F101" s="272"/>
-      <c r="G101" s="272"/>
-      <c r="H101" s="272"/>
-      <c r="I101" s="272"/>
-      <c r="J101" s="272"/>
-      <c r="K101" s="272"/>
-      <c r="L101" s="272"/>
-      <c r="M101" s="272"/>
-      <c r="N101" s="273"/>
+      <c r="C101" s="285"/>
+      <c r="D101" s="285"/>
+      <c r="E101" s="285"/>
+      <c r="F101" s="285"/>
+      <c r="G101" s="285"/>
+      <c r="H101" s="285"/>
+      <c r="I101" s="285"/>
+      <c r="J101" s="285"/>
+      <c r="K101" s="285"/>
+      <c r="L101" s="285"/>
+      <c r="M101" s="285"/>
+      <c r="N101" s="286"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13439,45 +13436,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="258" t="s">
+      <c r="U101" s="271" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="259"/>
-      <c r="W101" s="259"/>
-      <c r="X101" s="259"/>
-      <c r="Y101" s="259"/>
-      <c r="Z101" s="259"/>
-      <c r="AA101" s="259"/>
-      <c r="AB101" s="259"/>
-      <c r="AC101" s="259"/>
-      <c r="AD101" s="260"/>
+      <c r="V101" s="272"/>
+      <c r="W101" s="272"/>
+      <c r="X101" s="272"/>
+      <c r="Y101" s="272"/>
+      <c r="Z101" s="272"/>
+      <c r="AA101" s="272"/>
+      <c r="AB101" s="272"/>
+      <c r="AC101" s="272"/>
+      <c r="AD101" s="273"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="261" t="s">
+      <c r="AG101" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="262"/>
-      <c r="AI101" s="262"/>
-      <c r="AJ101" s="262"/>
-      <c r="AK101" s="263"/>
+      <c r="AH101" s="275"/>
+      <c r="AI101" s="275"/>
+      <c r="AJ101" s="275"/>
+      <c r="AK101" s="276"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="278" t="s">
+      <c r="B102" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="253"/>
-      <c r="D102" s="253"/>
-      <c r="E102" s="253"/>
-      <c r="F102" s="253"/>
-      <c r="G102" s="253"/>
-      <c r="H102" s="253"/>
-      <c r="I102" s="253"/>
-      <c r="J102" s="253"/>
-      <c r="K102" s="253"/>
-      <c r="L102" s="253"/>
-      <c r="M102" s="253"/>
-      <c r="N102" s="254"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="264"/>
+      <c r="E102" s="264"/>
+      <c r="F102" s="264"/>
+      <c r="G102" s="264"/>
+      <c r="H102" s="264"/>
+      <c r="I102" s="264"/>
+      <c r="J102" s="264"/>
+      <c r="K102" s="264"/>
+      <c r="L102" s="264"/>
+      <c r="M102" s="264"/>
+      <c r="N102" s="265"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13490,49 +13487,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="276" t="s">
+      <c r="U102" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="277"/>
-      <c r="W102" s="277"/>
-      <c r="X102" s="277"/>
-      <c r="Y102" s="277"/>
-      <c r="Z102" s="277"/>
-      <c r="AA102" s="277"/>
-      <c r="AB102" s="274">
+      <c r="V102" s="290"/>
+      <c r="W102" s="290"/>
+      <c r="X102" s="290"/>
+      <c r="Y102" s="290"/>
+      <c r="Z102" s="290"/>
+      <c r="AA102" s="290"/>
+      <c r="AB102" s="287">
         <v>22</v>
       </c>
-      <c r="AC102" s="274"/>
-      <c r="AD102" s="275"/>
+      <c r="AC102" s="287"/>
+      <c r="AD102" s="288"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="249" t="s">
+      <c r="AG102" s="296" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="250"/>
-      <c r="AI102" s="250"/>
-      <c r="AJ102" s="251"/>
-      <c r="AK102" s="242">
+      <c r="AH102" s="297"/>
+      <c r="AI102" s="297"/>
+      <c r="AJ102" s="298"/>
+      <c r="AK102" s="238">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="278" t="s">
+      <c r="B103" s="263" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="253"/>
-      <c r="D103" s="253"/>
-      <c r="E103" s="253"/>
-      <c r="F103" s="253"/>
-      <c r="G103" s="253"/>
-      <c r="H103" s="253"/>
-      <c r="I103" s="253"/>
-      <c r="J103" s="253"/>
-      <c r="K103" s="253"/>
-      <c r="L103" s="253"/>
-      <c r="M103" s="253"/>
-      <c r="N103" s="254"/>
+      <c r="C103" s="264"/>
+      <c r="D103" s="264"/>
+      <c r="E103" s="264"/>
+      <c r="F103" s="264"/>
+      <c r="G103" s="264"/>
+      <c r="H103" s="264"/>
+      <c r="I103" s="264"/>
+      <c r="J103" s="264"/>
+      <c r="K103" s="264"/>
+      <c r="L103" s="264"/>
+      <c r="M103" s="264"/>
+      <c r="N103" s="265"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13545,49 +13542,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="247" t="s">
+      <c r="U103" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="248"/>
-      <c r="W103" s="248"/>
-      <c r="X103" s="248"/>
-      <c r="Y103" s="248"/>
-      <c r="Z103" s="248"/>
-      <c r="AA103" s="248"/>
-      <c r="AB103" s="282">
+      <c r="V103" s="260"/>
+      <c r="W103" s="260"/>
+      <c r="X103" s="260"/>
+      <c r="Y103" s="260"/>
+      <c r="Z103" s="260"/>
+      <c r="AA103" s="260"/>
+      <c r="AB103" s="261">
         <v>20</v>
       </c>
-      <c r="AC103" s="282"/>
-      <c r="AD103" s="283"/>
+      <c r="AC103" s="261"/>
+      <c r="AD103" s="262"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="252" t="s">
+      <c r="AG103" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="253"/>
-      <c r="AI103" s="253"/>
-      <c r="AJ103" s="254"/>
+      <c r="AH103" s="264"/>
+      <c r="AI103" s="264"/>
+      <c r="AJ103" s="265"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="264" t="s">
+      <c r="B104" s="277" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="265"/>
-      <c r="D104" s="265"/>
-      <c r="E104" s="265"/>
-      <c r="F104" s="265"/>
-      <c r="G104" s="265"/>
-      <c r="H104" s="265"/>
-      <c r="I104" s="265"/>
-      <c r="J104" s="265"/>
-      <c r="K104" s="265"/>
-      <c r="L104" s="265"/>
-      <c r="M104" s="265"/>
-      <c r="N104" s="266"/>
+      <c r="C104" s="278"/>
+      <c r="D104" s="278"/>
+      <c r="E104" s="278"/>
+      <c r="F104" s="278"/>
+      <c r="G104" s="278"/>
+      <c r="H104" s="278"/>
+      <c r="I104" s="278"/>
+      <c r="J104" s="278"/>
+      <c r="K104" s="278"/>
+      <c r="L104" s="278"/>
+      <c r="M104" s="278"/>
+      <c r="N104" s="279"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13600,52 +13597,52 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="279" t="s">
+      <c r="U104" s="291" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="246"/>
-      <c r="W104" s="246"/>
-      <c r="X104" s="246"/>
-      <c r="Y104" s="246"/>
-      <c r="Z104" s="246"/>
-      <c r="AA104" s="246"/>
-      <c r="AB104" s="280">
+      <c r="V104" s="292"/>
+      <c r="W104" s="292"/>
+      <c r="X104" s="292"/>
+      <c r="Y104" s="292"/>
+      <c r="Z104" s="292"/>
+      <c r="AA104" s="292"/>
+      <c r="AB104" s="293">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="280"/>
-      <c r="AD104" s="281"/>
+      <c r="AC104" s="293"/>
+      <c r="AD104" s="294"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="252" t="s">
+      <c r="AG104" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="253"/>
-      <c r="AI104" s="253"/>
-      <c r="AJ104" s="254"/>
+      <c r="AH104" s="264"/>
+      <c r="AI104" s="264"/>
+      <c r="AJ104" s="265"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="247" t="s">
+      <c r="AG105" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="248"/>
-      <c r="AI105" s="248"/>
-      <c r="AJ105" s="248"/>
-      <c r="AK105" s="244">
+      <c r="AH105" s="260"/>
+      <c r="AI105" s="260"/>
+      <c r="AJ105" s="260"/>
+      <c r="AK105" s="240">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="245" t="s">
+      <c r="AG106" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="246"/>
-      <c r="AI106" s="246"/>
-      <c r="AJ106" s="246"/>
-      <c r="AK106" s="243">
+      <c r="AH106" s="292"/>
+      <c r="AI106" s="292"/>
+      <c r="AJ106" s="292"/>
+      <c r="AK106" s="239">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
       </c>
@@ -13656,13 +13653,24 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="B103:N103"/>
@@ -13676,24 +13684,13 @@
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14325,7 +14322,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14496,7 +14493,9 @@
       <c r="B6" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85">
+        <v>1</v>
+      </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
@@ -14544,7 +14543,9 @@
       <c r="B7" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="85">
+        <v>4</v>
+      </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
@@ -14553,7 +14554,7 @@
       <c r="I7" s="85"/>
       <c r="J7" s="77">
         <f>IF(C7&gt;C6,1,0)+IF(D7&gt;D6,1,0)+IF(E7&gt;E6,1,0)+IF(F7&gt;F6,1,0)+IF(G7&gt;G6,1,0)+IF(H7&gt;H6,1,0)+IF(I7&gt;I6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="4"/>
@@ -14681,7 +14682,9 @@
       <c r="B10" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="85">
+        <v>4</v>
+      </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
@@ -14690,7 +14693,7 @@
       <c r="I10" s="86"/>
       <c r="J10" s="77">
         <f>IF(C10&gt;C11,1,0)+IF(D10&gt;D11,1,0)+IF(E10&gt;E11,1,0)+IF(F10&gt;F11,1,0)+IF(G10&gt;G11,1,0)+IF(H10&gt;H11,1,0)+IF(I10&gt;I11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -14732,7 +14735,9 @@
       <c r="B11" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="85">
+        <v>2</v>
+      </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="85"/>
@@ -14981,7 +14986,9 @@
       <c r="B17" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="85">
+        <v>4</v>
+      </c>
       <c r="D17" s="86"/>
       <c r="E17" s="85"/>
       <c r="F17" s="86"/>
@@ -14990,7 +14997,7 @@
       <c r="I17" s="85"/>
       <c r="J17" s="77">
         <f>IF(C17&gt;C18,1,0)+IF(D17&gt;D18,1,0)+IF(E17&gt;E18,1,0)+IF(F17&gt;F18,1,0)+IF(G17&gt;G18,1,0)+IF(H17&gt;H18,1,0)+IF(I17&gt;I18,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="13"/>
       <c r="M17" s="90"/>
@@ -15023,7 +15030,9 @@
       <c r="B18" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="85">
+        <v>0</v>
+      </c>
       <c r="D18" s="86"/>
       <c r="E18" s="85"/>
       <c r="F18" s="86"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -241,16 +241,10 @@
     <t>Daniel Darveau</t>
   </si>
   <si>
-    <t>Denis Desjarding</t>
-  </si>
-  <si>
     <t>France Boileau</t>
   </si>
   <si>
     <t>Guylaine Fortin</t>
-  </si>
-  <si>
-    <t>Jean-Chrisophe Pichot</t>
   </si>
   <si>
     <t>Julien Belvisi</t>
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>Simon Corbeil</t>
+  </si>
+  <si>
+    <t>Denis Desjardins</t>
+  </si>
+  <si>
+    <t>Jean-Christophe Pichot</t>
   </si>
 </sst>
 </file>
@@ -2483,6 +2483,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2492,160 +2591,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3845,7 +3845,7 @@
   </sheetPr>
   <dimension ref="A1:AL106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3869,217 +3869,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="281"/>
-      <c r="Q1" s="281"/>
-      <c r="R1" s="281"/>
-      <c r="S1" s="281"/>
-      <c r="T1" s="281"/>
-      <c r="U1" s="281"/>
-      <c r="V1" s="281"/>
-      <c r="W1" s="281"/>
-      <c r="X1" s="281"/>
-      <c r="Y1" s="281"/>
-      <c r="Z1" s="281"/>
-      <c r="AA1" s="281"/>
-      <c r="AB1" s="281"/>
-      <c r="AC1" s="281"/>
-      <c r="AD1" s="281"/>
-      <c r="AE1" s="281"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="281"/>
-      <c r="AH1" s="281"/>
-      <c r="AI1" s="281"/>
-      <c r="AJ1" s="281"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="264"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="265"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
+      <c r="W1" s="265"/>
+      <c r="X1" s="265"/>
+      <c r="Y1" s="265"/>
+      <c r="Z1" s="265"/>
+      <c r="AA1" s="265"/>
+      <c r="AB1" s="265"/>
+      <c r="AC1" s="265"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="282" t="s">
+      <c r="C2" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="283" t="s">
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="281"/>
-      <c r="S2" s="281"/>
-      <c r="T2" s="281"/>
-      <c r="U2" s="281"/>
-      <c r="V2" s="281"/>
-      <c r="W2" s="281"/>
-      <c r="X2" s="281"/>
-      <c r="Y2" s="281"/>
-      <c r="Z2" s="281"/>
-      <c r="AA2" s="281"/>
-      <c r="AB2" s="281"/>
-      <c r="AC2" s="281"/>
-      <c r="AD2" s="281"/>
-      <c r="AE2" s="281"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="281"/>
-      <c r="AH2" s="281"/>
-      <c r="AI2" s="281"/>
-      <c r="AJ2" s="281"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="265"/>
+      <c r="AA2" s="265"/>
+      <c r="AB2" s="265"/>
+      <c r="AC2" s="265"/>
+      <c r="AD2" s="265"/>
+      <c r="AE2" s="265"/>
+      <c r="AF2" s="265"/>
+      <c r="AG2" s="265"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="265"/>
+      <c r="AJ2" s="265"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="281"/>
-      <c r="S3" s="281"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="281"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="281"/>
-      <c r="AC3" s="281"/>
-      <c r="AD3" s="281"/>
-      <c r="AE3" s="281"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="281"/>
-      <c r="AH3" s="281"/>
-      <c r="AI3" s="281"/>
-      <c r="AJ3" s="281"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="265"/>
+      <c r="S3" s="265"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="265"/>
+      <c r="AA3" s="265"/>
+      <c r="AB3" s="265"/>
+      <c r="AC3" s="265"/>
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="265"/>
+      <c r="AF3" s="265"/>
+      <c r="AG3" s="265"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="265"/>
+      <c r="AJ3" s="265"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="248" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="250"/>
-      <c r="T4" s="248" t="s">
+      <c r="C4" s="281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="283"/>
+      <c r="T4" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="249"/>
-      <c r="V4" s="249"/>
-      <c r="W4" s="249"/>
-      <c r="X4" s="249"/>
-      <c r="Y4" s="249"/>
-      <c r="Z4" s="249"/>
-      <c r="AA4" s="249"/>
-      <c r="AB4" s="250"/>
-      <c r="AC4" s="248" t="s">
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="283"/>
+      <c r="AC4" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="249"/>
-      <c r="AE4" s="249"/>
-      <c r="AF4" s="249"/>
-      <c r="AG4" s="266"/>
-      <c r="AH4" s="248" t="s">
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="282"/>
+      <c r="AG4" s="284"/>
+      <c r="AH4" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="249"/>
-      <c r="AJ4" s="250"/>
+      <c r="AI4" s="282"/>
+      <c r="AJ4" s="283"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="255" t="s">
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="287"/>
+      <c r="K5" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="256"/>
-      <c r="Q5" s="256"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="251" t="s">
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="286"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="286"/>
+      <c r="Q5" s="286"/>
+      <c r="R5" s="287"/>
+      <c r="S5" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="267" t="s">
+      <c r="T5" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="256"/>
-      <c r="V5" s="256"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="255" t="s">
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
+      <c r="W5" s="287"/>
+      <c r="X5" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="256"/>
-      <c r="Z5" s="256"/>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="251" t="s">
+      <c r="Y5" s="286"/>
+      <c r="Z5" s="286"/>
+      <c r="AA5" s="287"/>
+      <c r="AB5" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="258" t="s">
+      <c r="AC5" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="257"/>
-      <c r="AE5" s="255" t="s">
+      <c r="AD5" s="287"/>
+      <c r="AE5" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="257"/>
-      <c r="AG5" s="251" t="s">
+      <c r="AF5" s="287"/>
+      <c r="AG5" s="289" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="251" t="s">
+      <c r="AJ5" s="289" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4151,7 +4151,7 @@
         <f>Résultats!$J$28</f>
         <v>0</v>
       </c>
-      <c r="S6" s="252"/>
+      <c r="S6" s="290"/>
       <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="252"/>
+      <c r="AB6" s="290"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="252"/>
+      <c r="AG6" s="290"/>
       <c r="AH6" s="214">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="252"/>
+      <c r="AJ6" s="290"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="252"/>
+      <c r="S7" s="290"/>
       <c r="T7" s="171"/>
       <c r="U7" s="117"/>
       <c r="V7" s="174"/>
@@ -4245,15 +4245,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="252"/>
+      <c r="AB7" s="290"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="252"/>
+      <c r="AG7" s="290"/>
       <c r="AH7" s="214"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="252"/>
+      <c r="AJ7" s="290"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4323,7 +4323,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="252"/>
+      <c r="S8" s="290"/>
       <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4356,7 +4356,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="252"/>
+      <c r="AB8" s="290"/>
       <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4373,7 +4373,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="252"/>
+      <c r="AG8" s="290"/>
       <c r="AH8" s="215" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4382,7 +4382,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="252"/>
+      <c r="AJ8" s="290"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="254"/>
+      <c r="S9" s="291"/>
       <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4489,7 +4489,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="253"/>
+      <c r="AB9" s="301"/>
       <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4506,7 +4506,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="253"/>
+      <c r="AG9" s="301"/>
       <c r="AH9" s="217" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4515,7 +4515,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="254"/>
+      <c r="AJ9" s="291"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="213" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="188">
         <v>4</v>
@@ -4925,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="46">
         <v>5</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="213" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="199">
         <v>5</v>
@@ -5382,7 +5382,7 @@
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="302"/>
+      <c r="AH18" s="250"/>
       <c r="AI18" s="208"/>
       <c r="AJ18" s="207">
         <f>AH19</f>
@@ -5723,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
@@ -5774,14 +5774,14 @@
         <v>0</v>
       </c>
       <c r="AC22" s="48"/>
-      <c r="AD22" s="301"/>
+      <c r="AD22" s="249"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="47"/>
       <c r="AG22" s="130">
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="300"/>
+      <c r="AH22" s="248"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -6122,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="199">
         <v>6</v>
@@ -6920,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="213" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="199">
         <v>5</v>
@@ -7718,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="213" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C42" s="199">
         <v>6</v>
@@ -8117,7 +8117,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" s="46">
         <v>5</v>
@@ -8516,7 +8516,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="213" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C50" s="199">
         <v>5</v>
@@ -8912,7 +8912,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="46">
         <v>6</v>
@@ -9308,7 +9308,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="213" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="199">
         <v>5</v>
@@ -9704,7 +9704,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="46">
         <v>6</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="48"/>
-      <c r="AD70" s="301"/>
+      <c r="AD70" s="249"/>
       <c r="AE70" s="49"/>
       <c r="AF70" s="47"/>
       <c r="AG70" s="130">
@@ -10892,7 +10892,7 @@
         <v>15</v>
       </c>
       <c r="B74" s="213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="231">
         <v>5</v>
@@ -11288,7 +11288,7 @@
         <v>15</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C78" s="46">
         <v>6</v>
@@ -11684,7 +11684,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="213" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82" s="199">
         <v>5</v>
@@ -12080,7 +12080,7 @@
         <v>15</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C86" s="46">
         <v>5</v>
@@ -12476,7 +12476,7 @@
         <v>15</v>
       </c>
       <c r="B90" s="213" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="199">
         <v>5</v>
@@ -12872,7 +12872,7 @@
         <v>15</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" s="241">
         <v>6</v>
@@ -13395,12 +13395,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="268" t="s">
+      <c r="O100" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="269"/>
-      <c r="Q100" s="269"/>
-      <c r="R100" s="270"/>
+      <c r="P100" s="293"/>
+      <c r="Q100" s="293"/>
+      <c r="R100" s="294"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13409,21 +13409,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="284" t="s">
+      <c r="B101" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="285"/>
-      <c r="D101" s="285"/>
-      <c r="E101" s="285"/>
-      <c r="F101" s="285"/>
-      <c r="G101" s="285"/>
-      <c r="H101" s="285"/>
-      <c r="I101" s="285"/>
-      <c r="J101" s="285"/>
-      <c r="K101" s="285"/>
-      <c r="L101" s="285"/>
-      <c r="M101" s="285"/>
-      <c r="N101" s="286"/>
+      <c r="C101" s="269"/>
+      <c r="D101" s="269"/>
+      <c r="E101" s="269"/>
+      <c r="F101" s="269"/>
+      <c r="G101" s="269"/>
+      <c r="H101" s="269"/>
+      <c r="I101" s="269"/>
+      <c r="J101" s="269"/>
+      <c r="K101" s="269"/>
+      <c r="L101" s="269"/>
+      <c r="M101" s="269"/>
+      <c r="N101" s="270"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13436,45 +13436,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="271" t="s">
+      <c r="U101" s="295" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="272"/>
-      <c r="W101" s="272"/>
-      <c r="X101" s="272"/>
-      <c r="Y101" s="272"/>
-      <c r="Z101" s="272"/>
-      <c r="AA101" s="272"/>
-      <c r="AB101" s="272"/>
-      <c r="AC101" s="272"/>
-      <c r="AD101" s="273"/>
+      <c r="V101" s="296"/>
+      <c r="W101" s="296"/>
+      <c r="X101" s="296"/>
+      <c r="Y101" s="296"/>
+      <c r="Z101" s="296"/>
+      <c r="AA101" s="296"/>
+      <c r="AB101" s="296"/>
+      <c r="AC101" s="296"/>
+      <c r="AD101" s="297"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="274" t="s">
+      <c r="AG101" s="298" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="275"/>
-      <c r="AI101" s="275"/>
-      <c r="AJ101" s="275"/>
-      <c r="AK101" s="276"/>
+      <c r="AH101" s="299"/>
+      <c r="AI101" s="299"/>
+      <c r="AJ101" s="299"/>
+      <c r="AK101" s="300"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="263" t="s">
+      <c r="B102" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="264"/>
-      <c r="D102" s="264"/>
-      <c r="E102" s="264"/>
-      <c r="F102" s="264"/>
-      <c r="G102" s="264"/>
-      <c r="H102" s="264"/>
-      <c r="I102" s="264"/>
-      <c r="J102" s="264"/>
-      <c r="K102" s="264"/>
-      <c r="L102" s="264"/>
-      <c r="M102" s="264"/>
-      <c r="N102" s="265"/>
+      <c r="C102" s="259"/>
+      <c r="D102" s="259"/>
+      <c r="E102" s="259"/>
+      <c r="F102" s="259"/>
+      <c r="G102" s="259"/>
+      <c r="H102" s="259"/>
+      <c r="I102" s="259"/>
+      <c r="J102" s="259"/>
+      <c r="K102" s="259"/>
+      <c r="L102" s="259"/>
+      <c r="M102" s="259"/>
+      <c r="N102" s="260"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13487,49 +13487,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="289" t="s">
+      <c r="U102" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="290"/>
-      <c r="W102" s="290"/>
-      <c r="X102" s="290"/>
-      <c r="Y102" s="290"/>
-      <c r="Z102" s="290"/>
-      <c r="AA102" s="290"/>
-      <c r="AB102" s="287">
+      <c r="V102" s="274"/>
+      <c r="W102" s="274"/>
+      <c r="X102" s="274"/>
+      <c r="Y102" s="274"/>
+      <c r="Z102" s="274"/>
+      <c r="AA102" s="274"/>
+      <c r="AB102" s="271">
         <v>22</v>
       </c>
-      <c r="AC102" s="287"/>
-      <c r="AD102" s="288"/>
+      <c r="AC102" s="271"/>
+      <c r="AD102" s="272"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="296" t="s">
+      <c r="AG102" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="297"/>
-      <c r="AI102" s="297"/>
-      <c r="AJ102" s="298"/>
+      <c r="AH102" s="256"/>
+      <c r="AI102" s="256"/>
+      <c r="AJ102" s="257"/>
       <c r="AK102" s="238">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="263" t="s">
+      <c r="B103" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="264"/>
-      <c r="D103" s="264"/>
-      <c r="E103" s="264"/>
-      <c r="F103" s="264"/>
-      <c r="G103" s="264"/>
-      <c r="H103" s="264"/>
-      <c r="I103" s="264"/>
-      <c r="J103" s="264"/>
-      <c r="K103" s="264"/>
-      <c r="L103" s="264"/>
-      <c r="M103" s="264"/>
-      <c r="N103" s="265"/>
+      <c r="C103" s="259"/>
+      <c r="D103" s="259"/>
+      <c r="E103" s="259"/>
+      <c r="F103" s="259"/>
+      <c r="G103" s="259"/>
+      <c r="H103" s="259"/>
+      <c r="I103" s="259"/>
+      <c r="J103" s="259"/>
+      <c r="K103" s="259"/>
+      <c r="L103" s="259"/>
+      <c r="M103" s="259"/>
+      <c r="N103" s="260"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13542,49 +13542,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="259" t="s">
+      <c r="U103" s="253" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="260"/>
-      <c r="W103" s="260"/>
-      <c r="X103" s="260"/>
-      <c r="Y103" s="260"/>
-      <c r="Z103" s="260"/>
-      <c r="AA103" s="260"/>
-      <c r="AB103" s="261">
+      <c r="V103" s="254"/>
+      <c r="W103" s="254"/>
+      <c r="X103" s="254"/>
+      <c r="Y103" s="254"/>
+      <c r="Z103" s="254"/>
+      <c r="AA103" s="254"/>
+      <c r="AB103" s="279">
         <v>20</v>
       </c>
-      <c r="AC103" s="261"/>
-      <c r="AD103" s="262"/>
+      <c r="AC103" s="279"/>
+      <c r="AD103" s="280"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="299" t="s">
+      <c r="AG103" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="264"/>
-      <c r="AI103" s="264"/>
-      <c r="AJ103" s="265"/>
+      <c r="AH103" s="259"/>
+      <c r="AI103" s="259"/>
+      <c r="AJ103" s="260"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="277" t="s">
+      <c r="B104" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="278"/>
-      <c r="D104" s="278"/>
-      <c r="E104" s="278"/>
-      <c r="F104" s="278"/>
-      <c r="G104" s="278"/>
-      <c r="H104" s="278"/>
-      <c r="I104" s="278"/>
-      <c r="J104" s="278"/>
-      <c r="K104" s="278"/>
-      <c r="L104" s="278"/>
-      <c r="M104" s="278"/>
-      <c r="N104" s="279"/>
+      <c r="C104" s="262"/>
+      <c r="D104" s="262"/>
+      <c r="E104" s="262"/>
+      <c r="F104" s="262"/>
+      <c r="G104" s="262"/>
+      <c r="H104" s="262"/>
+      <c r="I104" s="262"/>
+      <c r="J104" s="262"/>
+      <c r="K104" s="262"/>
+      <c r="L104" s="262"/>
+      <c r="M104" s="262"/>
+      <c r="N104" s="263"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13597,51 +13597,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="291" t="s">
+      <c r="U104" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="292"/>
-      <c r="W104" s="292"/>
-      <c r="X104" s="292"/>
-      <c r="Y104" s="292"/>
-      <c r="Z104" s="292"/>
-      <c r="AA104" s="292"/>
-      <c r="AB104" s="293">
+      <c r="V104" s="252"/>
+      <c r="W104" s="252"/>
+      <c r="X104" s="252"/>
+      <c r="Y104" s="252"/>
+      <c r="Z104" s="252"/>
+      <c r="AA104" s="252"/>
+      <c r="AB104" s="277">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="293"/>
-      <c r="AD104" s="294"/>
+      <c r="AC104" s="277"/>
+      <c r="AD104" s="278"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="299" t="s">
+      <c r="AG104" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="264"/>
-      <c r="AI104" s="264"/>
-      <c r="AJ104" s="265"/>
+      <c r="AH104" s="259"/>
+      <c r="AI104" s="259"/>
+      <c r="AJ104" s="260"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="259" t="s">
+      <c r="AG105" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="260"/>
-      <c r="AI105" s="260"/>
-      <c r="AJ105" s="260"/>
+      <c r="AH105" s="254"/>
+      <c r="AI105" s="254"/>
+      <c r="AJ105" s="254"/>
       <c r="AK105" s="240">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="295" t="s">
+      <c r="AG106" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="292"/>
-      <c r="AI106" s="292"/>
-      <c r="AJ106" s="292"/>
+      <c r="AH106" s="252"/>
+      <c r="AI106" s="252"/>
+      <c r="AJ106" s="252"/>
       <c r="AK106" s="239">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13653,11 +13653,23 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AJ1"/>
@@ -13674,23 +13686,11 @@
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="B103:N103"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1954,7 +1954,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2423,42 +2423,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1"/>
@@ -2489,21 +2453,150 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2516,136 +2609,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3869,217 +3875,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="265"/>
-      <c r="AA1" s="265"/>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="264"/>
+      <c r="Y1" s="264"/>
+      <c r="Z1" s="264"/>
+      <c r="AA1" s="264"/>
+      <c r="AB1" s="264"/>
+      <c r="AC1" s="264"/>
+      <c r="AD1" s="264"/>
+      <c r="AE1" s="264"/>
+      <c r="AF1" s="264"/>
+      <c r="AG1" s="264"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="264"/>
+      <c r="AJ1" s="264"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="267" t="s">
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="266" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="265"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="265"/>
-      <c r="U2" s="265"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-      <c r="X2" s="265"/>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="265"/>
-      <c r="AA2" s="265"/>
-      <c r="AB2" s="265"/>
-      <c r="AC2" s="265"/>
-      <c r="AD2" s="265"/>
-      <c r="AE2" s="265"/>
-      <c r="AF2" s="265"/>
-      <c r="AG2" s="265"/>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="265"/>
-      <c r="AJ2" s="265"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="264"/>
+      <c r="W2" s="264"/>
+      <c r="X2" s="264"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="264"/>
+      <c r="AB2" s="264"/>
+      <c r="AC2" s="264"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="264"/>
+      <c r="AJ2" s="264"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="265"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="265"/>
-      <c r="AA3" s="265"/>
-      <c r="AB3" s="265"/>
-      <c r="AC3" s="265"/>
-      <c r="AD3" s="265"/>
-      <c r="AE3" s="265"/>
-      <c r="AF3" s="265"/>
-      <c r="AG3" s="265"/>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="265"/>
-      <c r="AJ3" s="265"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="264"/>
+      <c r="Q3" s="264"/>
+      <c r="R3" s="264"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="264"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="264"/>
+      <c r="AE3" s="264"/>
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="264"/>
+      <c r="AJ3" s="264"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="281" t="s">
+      <c r="C4" s="247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="282"/>
-      <c r="AA4" s="282"/>
-      <c r="AB4" s="283"/>
-      <c r="AC4" s="281" t="s">
+      <c r="U4" s="248"/>
+      <c r="V4" s="248"/>
+      <c r="W4" s="248"/>
+      <c r="X4" s="248"/>
+      <c r="Y4" s="248"/>
+      <c r="Z4" s="248"/>
+      <c r="AA4" s="248"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="282"/>
-      <c r="AE4" s="282"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="284"/>
-      <c r="AH4" s="281" t="s">
+      <c r="AD4" s="248"/>
+      <c r="AE4" s="248"/>
+      <c r="AF4" s="248"/>
+      <c r="AG4" s="258"/>
+      <c r="AH4" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="282"/>
-      <c r="AJ4" s="283"/>
+      <c r="AI4" s="248"/>
+      <c r="AJ4" s="249"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="287"/>
-      <c r="K5" s="288" t="s">
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="255"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="287"/>
-      <c r="S5" s="289" t="s">
+      <c r="L5" s="255"/>
+      <c r="M5" s="255"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="255"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="256"/>
+      <c r="S5" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="285" t="s">
+      <c r="T5" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
-      <c r="W5" s="287"/>
-      <c r="X5" s="288" t="s">
+      <c r="U5" s="255"/>
+      <c r="V5" s="255"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="286"/>
-      <c r="AA5" s="287"/>
-      <c r="AB5" s="289" t="s">
+      <c r="Y5" s="255"/>
+      <c r="Z5" s="255"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="302" t="s">
+      <c r="AC5" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="287"/>
-      <c r="AE5" s="288" t="s">
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="287"/>
-      <c r="AG5" s="289" t="s">
+      <c r="AF5" s="256"/>
+      <c r="AG5" s="250" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="289" t="s">
+      <c r="AJ5" s="250" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4093,7 +4099,7 @@
       </c>
       <c r="D6" s="108">
         <f>Résultats!$J$4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="173">
         <f>Résultats!$J$6</f>
@@ -4113,7 +4119,7 @@
       </c>
       <c r="I6" s="173">
         <f>Résultats!$J$13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="108">
         <f>Résultats!$J$14</f>
@@ -4133,7 +4139,7 @@
       </c>
       <c r="N6" s="109">
         <f>Résultats!$J$21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="173">
         <f>Résultats!$J$24</f>
@@ -4149,9 +4155,9 @@
       </c>
       <c r="R6" s="108">
         <f>Résultats!$J$28</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="290"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="251"/>
       <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4184,7 +4190,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="290"/>
+      <c r="AB6" s="251"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4201,7 +4207,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="290"/>
+      <c r="AG6" s="251"/>
       <c r="AH6" s="214">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4210,7 +4216,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="290"/>
+      <c r="AJ6" s="251"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4236,7 +4242,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="290"/>
+      <c r="S7" s="251"/>
       <c r="T7" s="171"/>
       <c r="U7" s="117"/>
       <c r="V7" s="174"/>
@@ -4245,15 +4251,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="290"/>
+      <c r="AB7" s="251"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="290"/>
+      <c r="AG7" s="251"/>
       <c r="AH7" s="214"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="290"/>
+      <c r="AJ7" s="251"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4323,7 +4329,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="290"/>
+      <c r="S8" s="251"/>
       <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4356,7 +4362,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="290"/>
+      <c r="AB8" s="251"/>
       <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4373,7 +4379,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="290"/>
+      <c r="AG8" s="251"/>
       <c r="AH8" s="215" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4382,7 +4388,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="290"/>
+      <c r="AJ8" s="251"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4456,7 +4462,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="291"/>
+      <c r="S9" s="253"/>
       <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4489,7 +4495,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="301"/>
+      <c r="AB9" s="252"/>
       <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4506,7 +4512,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="301"/>
+      <c r="AG9" s="252"/>
       <c r="AH9" s="217" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4515,7 +4521,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="291"/>
+      <c r="AJ9" s="253"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4565,7 +4571,7 @@
       <c r="R10" s="194"/>
       <c r="S10" s="198">
         <f>SUM(C11:R11)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T10" s="188"/>
       <c r="U10" s="190"/>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="AL10" s="195">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4625,7 +4631,7 @@
       <c r="H11" s="135"/>
       <c r="I11" s="136">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I10=$I$6+$J$6,$O$103,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J10=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="137"/>
       <c r="K11" s="138">
@@ -4635,7 +4641,7 @@
       <c r="L11" s="135"/>
       <c r="M11" s="133">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="135"/>
       <c r="O11" s="136">
@@ -4925,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="46">
         <v>5</v>
@@ -4936,7 +4942,7 @@
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44">
@@ -4944,39 +4950,39 @@
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="44">
-        <v>5</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="48">
+      <c r="O14" s="44"/>
+      <c r="P14" s="45">
         <v>7</v>
       </c>
-      <c r="R14" s="50"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="50">
+        <v>7</v>
+      </c>
       <c r="S14" s="130">
         <f>SUM(C15:R15)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="44"/>
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="48"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="130">
         <f>SUM(T15:AA15)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="47"/>
+      <c r="AD14" s="237"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="130">
@@ -4995,7 +5001,7 @@
       </c>
       <c r="AL14" s="130">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5021,7 +5027,7 @@
       <c r="H15" s="151"/>
       <c r="I15" s="127">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I14=$I$6+$J$6,$O$103,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J14=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="152"/>
       <c r="K15" s="153">
@@ -5036,7 +5042,7 @@
       <c r="N15" s="151"/>
       <c r="O15" s="127">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="151"/>
       <c r="Q15" s="127">
@@ -5064,7 +5070,7 @@
       <c r="AJ15" s="129"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="129"/>
     </row>
@@ -5321,53 +5327,53 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="187">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="213" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="200"/>
       <c r="E18" s="201">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" s="200"/>
       <c r="G18" s="202">
+        <v>6</v>
+      </c>
+      <c r="H18" s="203"/>
+      <c r="I18" s="201">
+        <v>6</v>
+      </c>
+      <c r="J18" s="203"/>
+      <c r="K18" s="204">
+        <v>7</v>
+      </c>
+      <c r="L18" s="203"/>
+      <c r="M18" s="201">
+        <v>5</v>
+      </c>
+      <c r="N18" s="200"/>
+      <c r="O18" s="201">
         <v>4</v>
       </c>
-      <c r="H18" s="203"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="203">
+      <c r="P18" s="200"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="205">
         <v>6</v>
       </c>
-      <c r="K18" s="204">
-        <v>5</v>
-      </c>
-      <c r="L18" s="203"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="200">
-        <v>6</v>
-      </c>
-      <c r="O18" s="201">
-        <v>7</v>
-      </c>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="202">
-        <v>6</v>
-      </c>
-      <c r="R18" s="205"/>
       <c r="S18" s="206">
         <f>SUM(C19:R19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="199"/>
       <c r="U18" s="203"/>
       <c r="V18" s="201"/>
       <c r="W18" s="203"/>
       <c r="X18" s="204"/>
-      <c r="Y18" s="200"/>
+      <c r="Y18" s="220"/>
       <c r="Z18" s="202"/>
       <c r="AA18" s="205"/>
       <c r="AB18" s="207">
@@ -5382,7 +5388,7 @@
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="250"/>
+      <c r="AH18" s="302"/>
       <c r="AI18" s="208"/>
       <c r="AJ18" s="207">
         <f>AH19</f>
@@ -5390,11 +5396,11 @@
       </c>
       <c r="AK18" s="209">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="207">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5420,7 +5426,7 @@
       <c r="H19" s="151"/>
       <c r="I19" s="127">
         <f>(IF($I18&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I18=$I$6+$J$6,$O$103,0),0),0)+IF($J18&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J18=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="152"/>
       <c r="K19" s="153">
@@ -5430,7 +5436,7 @@
       <c r="L19" s="151"/>
       <c r="M19" s="127">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="151"/>
       <c r="O19" s="127">
@@ -5463,7 +5469,7 @@
       <c r="AJ19" s="155"/>
       <c r="AK19" s="163">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL19" s="129"/>
     </row>
@@ -5720,10 +5726,10 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
@@ -5734,7 +5740,7 @@
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="44">
@@ -5742,46 +5748,46 @@
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="44">
+        <v>6</v>
+      </c>
+      <c r="N22" s="45"/>
+      <c r="O22" s="44">
         <v>5</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45">
+      <c r="P22" s="45"/>
+      <c r="Q22" s="48">
         <v>7</v>
       </c>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="50">
-        <v>7</v>
-      </c>
+      <c r="R22" s="50"/>
       <c r="S22" s="130">
         <f>SUM(C23:R23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
       <c r="V22" s="44"/>
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="48"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="123"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="130">
         <f>SUM(T23:AA23)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="48"/>
-      <c r="AD22" s="249"/>
+      <c r="AD22" s="47"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="47"/>
       <c r="AG22" s="130">
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="248"/>
+      <c r="AH22" s="236"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -5789,11 +5795,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="130">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5819,7 +5825,7 @@
       <c r="H23" s="164"/>
       <c r="I23" s="133">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="165"/>
       <c r="K23" s="166">
@@ -5834,12 +5840,12 @@
       <c r="N23" s="164"/>
       <c r="O23" s="133">
         <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="164"/>
       <c r="Q23" s="133">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="167"/>
       <c r="S23" s="155"/>
@@ -5862,7 +5868,7 @@
       <c r="AJ23" s="155"/>
       <c r="AK23" s="163">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL23" s="129"/>
     </row>
@@ -6119,13 +6125,13 @@
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="187">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C26" s="199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="200"/>
       <c r="E26" s="201">
@@ -6133,7 +6139,7 @@
       </c>
       <c r="F26" s="200"/>
       <c r="G26" s="202">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H26" s="203"/>
       <c r="I26" s="201"/>
@@ -6141,24 +6147,24 @@
         <v>6</v>
       </c>
       <c r="K26" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" s="203"/>
       <c r="M26" s="201"/>
       <c r="N26" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O26" s="201">
+        <v>5</v>
+      </c>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="202"/>
+      <c r="R26" s="205">
         <v>6</v>
       </c>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="202">
-        <v>7</v>
-      </c>
-      <c r="R26" s="205"/>
       <c r="S26" s="207">
         <f>SUM(C27:R27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" s="199"/>
       <c r="U26" s="203"/>
@@ -6166,7 +6172,7 @@
       <c r="W26" s="203"/>
       <c r="X26" s="204"/>
       <c r="Y26" s="200"/>
-      <c r="Z26" s="210"/>
+      <c r="Z26" s="202"/>
       <c r="AA26" s="205"/>
       <c r="AB26" s="207">
         <f>SUM(T27:AA27)</f>
@@ -6180,7 +6186,7 @@
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="196"/>
+      <c r="AH26" s="290"/>
       <c r="AI26" s="197"/>
       <c r="AJ26" s="207">
         <f>AH27</f>
@@ -6188,11 +6194,11 @@
       </c>
       <c r="AK26" s="209">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL26" s="207">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6228,7 +6234,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="127">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="151"/>
       <c r="O27" s="127">
@@ -6261,7 +6267,7 @@
       <c r="AJ27" s="155"/>
       <c r="AK27" s="163">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL27" s="129"/>
     </row>
@@ -6518,53 +6524,53 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C30" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="48">
+        <v>4</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="47">
         <v>6</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="44">
+      <c r="K30" s="49">
+        <v>5</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45">
         <v>6</v>
       </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="49">
+      <c r="O30" s="44">
         <v>7</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="44">
-        <v>5</v>
-      </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="44">
-        <v>4</v>
-      </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="50">
+      <c r="Q30" s="48">
         <v>6</v>
       </c>
+      <c r="R30" s="50"/>
       <c r="S30" s="130">
         <f>SUM(C31:R31)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="128"/>
+      <c r="Y30" s="45"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="130">
@@ -6579,7 +6585,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="107"/>
+      <c r="AH30" s="291"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="130">
         <f>AH31</f>
@@ -6591,7 +6597,7 @@
       </c>
       <c r="AL30" s="130">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6617,7 +6623,7 @@
       <c r="H31" s="80"/>
       <c r="I31" s="81">
         <f>(IF($I30&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I30=$I$6+$J$6,$O$103,0),0),0)+IF($J30&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J30=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="82"/>
       <c r="K31" s="83">
@@ -6627,7 +6633,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6637,7 +6643,7 @@
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
         <f>(IF($Q30&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q30=$Q$6+$R$6,$O$103,0),0),0)+IF($R30&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R30=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="84"/>
       <c r="S31" s="129"/>
@@ -6660,7 +6666,7 @@
       <c r="AJ31" s="129"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL31" s="129"/>
     </row>
@@ -6917,46 +6923,46 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="187">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
+        <v>3</v>
+      </c>
+      <c r="B34" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="199">
         <v>6</v>
       </c>
-      <c r="B34" s="213" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="199">
-        <v>5</v>
-      </c>
       <c r="D34" s="200"/>
-      <c r="E34" s="201">
+      <c r="E34" s="201"/>
+      <c r="F34" s="200">
+        <v>7</v>
+      </c>
+      <c r="G34" s="202">
         <v>6</v>
       </c>
-      <c r="F34" s="200"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="203">
-        <v>7</v>
-      </c>
+      <c r="H34" s="203"/>
       <c r="I34" s="201"/>
       <c r="J34" s="203">
         <v>6</v>
       </c>
-      <c r="K34" s="204">
-        <v>5</v>
-      </c>
-      <c r="L34" s="203"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="203">
+        <v>6</v>
+      </c>
       <c r="M34" s="201"/>
       <c r="N34" s="200">
         <v>6</v>
       </c>
       <c r="O34" s="201">
+        <v>5</v>
+      </c>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="202"/>
+      <c r="R34" s="205">
         <v>6</v>
       </c>
-      <c r="P34" s="200"/>
-      <c r="Q34" s="202">
-        <v>6</v>
-      </c>
-      <c r="R34" s="205"/>
       <c r="S34" s="207">
         <f>SUM(C35:R35)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" s="199"/>
       <c r="U34" s="203"/>
@@ -6964,7 +6970,7 @@
       <c r="W34" s="203"/>
       <c r="X34" s="204"/>
       <c r="Y34" s="200"/>
-      <c r="Z34" s="202"/>
+      <c r="Z34" s="210"/>
       <c r="AA34" s="203"/>
       <c r="AB34" s="207">
         <f>SUM(T35:AA35)</f>
@@ -6990,7 +6996,7 @@
       </c>
       <c r="AL34" s="207">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7006,12 +7012,12 @@
       <c r="D35" s="80"/>
       <c r="E35" s="81">
         <f>(IF($E34&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E34=$E$6+$F$6,$O$103,0),0),0)+IF($F34&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F34=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="81">
         <f>(IF($G34&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G34=$G$6+$H$6,$O$103,0),0),0)+IF($H34&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H34=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="81">
@@ -7021,12 +7027,12 @@
       <c r="J35" s="82"/>
       <c r="K35" s="83">
         <f>(IF($K34&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K34=$K$6+$L$6,$O$103,0),0),0)+IF($L34&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L34=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7059,7 +7065,7 @@
       <c r="AJ35" s="129"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL35" s="129"/>
     </row>
@@ -7316,54 +7322,54 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
+        <v>3</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="46">
         <v>6</v>
       </c>
-      <c r="B38" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="46">
+      <c r="D38" s="45"/>
+      <c r="E38" s="44">
         <v>5</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45">
+      <c r="F38" s="45"/>
+      <c r="G38" s="48">
         <v>7</v>
-      </c>
-      <c r="G38" s="48">
-        <v>4</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" s="49">
         <v>6</v>
       </c>
       <c r="L38" s="47"/>
-      <c r="M38" s="44">
+      <c r="M38" s="44"/>
+      <c r="N38" s="45">
+        <v>7</v>
+      </c>
+      <c r="O38" s="44">
         <v>6</v>
       </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="44">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="48">
         <v>7</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="50">
-        <v>6</v>
-      </c>
+      <c r="R38" s="50"/>
       <c r="S38" s="130">
         <f>SUM(C39:R39)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
       <c r="X38" s="49"/>
-      <c r="Y38" s="128"/>
-      <c r="Z38" s="48"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="123"/>
       <c r="AA38" s="47"/>
       <c r="AB38" s="130">
         <f>SUM(T39:AA39)</f>
@@ -7389,7 +7395,7 @@
       </c>
       <c r="AL38" s="130">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7405,7 +7411,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="126">
@@ -7425,7 +7431,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -7435,7 +7441,7 @@
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
         <f>(IF($Q38&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q38=$Q$6+$R$6,$O$103,0),0),0)+IF($R38&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R38=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="84"/>
       <c r="S39" s="129"/>
@@ -7458,7 +7464,7 @@
       <c r="AJ39" s="129"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL39" s="129"/>
     </row>
@@ -7715,37 +7721,37 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="187">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
+        <v>3</v>
+      </c>
+      <c r="B42" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="199">
+        <v>5</v>
+      </c>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201">
         <v>6</v>
       </c>
-      <c r="B42" s="213" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="199">
+      <c r="F42" s="200"/>
+      <c r="G42" s="202">
         <v>6</v>
-      </c>
-      <c r="D42" s="200"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="200">
-        <v>7</v>
-      </c>
-      <c r="G42" s="202">
-        <v>7</v>
       </c>
       <c r="H42" s="203"/>
       <c r="I42" s="201"/>
       <c r="J42" s="203">
+        <v>7</v>
+      </c>
+      <c r="K42" s="204">
+        <v>5</v>
+      </c>
+      <c r="L42" s="203"/>
+      <c r="M42" s="201"/>
+      <c r="N42" s="200">
         <v>6</v>
       </c>
-      <c r="K42" s="204">
-        <v>6</v>
-      </c>
-      <c r="L42" s="203"/>
-      <c r="M42" s="201">
+      <c r="O42" s="201">
         <v>7</v>
-      </c>
-      <c r="N42" s="200"/>
-      <c r="O42" s="201">
-        <v>5</v>
       </c>
       <c r="P42" s="200"/>
       <c r="Q42" s="202"/>
@@ -7754,7 +7760,7 @@
       </c>
       <c r="S42" s="207">
         <f>SUM(C43:R43)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T42" s="199"/>
       <c r="U42" s="203"/>
@@ -7788,7 +7794,7 @@
       </c>
       <c r="AL42" s="207">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7804,7 +7810,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
@@ -7824,7 +7830,7 @@
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
@@ -7834,7 +7840,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="129"/>
@@ -7857,7 +7863,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL43" s="129"/>
     </row>
@@ -8114,48 +8120,48 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="46">
         <v>5</v>
       </c>
       <c r="D46" s="45"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45">
+      <c r="E46" s="44">
+        <v>6</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="47">
         <v>7</v>
       </c>
-      <c r="G46" s="48">
-        <v>6</v>
-      </c>
-      <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K46" s="49">
         <v>5</v>
       </c>
       <c r="L46" s="47"/>
-      <c r="M46" s="44">
+      <c r="M46" s="44"/>
+      <c r="N46" s="45">
         <v>6</v>
       </c>
-      <c r="N46" s="45"/>
       <c r="O46" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P46" s="45"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="50">
-        <v>7</v>
-      </c>
+      <c r="Q46" s="48">
+        <v>6</v>
+      </c>
+      <c r="R46" s="50"/>
       <c r="S46" s="130">
         <f>SUM(C47:R47)</f>
-        <v>3</v>
-      </c>
-      <c r="T46" s="226"/>
+        <v>4</v>
+      </c>
+      <c r="T46" s="46"/>
       <c r="U46" s="47"/>
       <c r="V46" s="44"/>
       <c r="W46" s="47"/>
@@ -8183,11 +8189,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL46" s="130">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8203,12 +8209,12 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
         <f>(IF($G46&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G46=$G$6+$H$6,$O$103,0),0),0)+IF($H46&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H46=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="80"/>
       <c r="I47" s="81">
@@ -8223,7 +8229,7 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -8233,7 +8239,7 @@
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
         <f>(IF($Q46&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q46=$Q$6+$R$6,$O$103,0),0),0)+IF($R46&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R46=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="84"/>
       <c r="S47" s="129"/>
@@ -8256,7 +8262,7 @@
       <c r="AJ47" s="129"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL47" s="129"/>
     </row>
@@ -8513,37 +8519,37 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="187">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B50" s="213" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C50" s="199">
         <v>5</v>
       </c>
       <c r="D50" s="200"/>
-      <c r="E50" s="201">
-        <v>5</v>
-      </c>
-      <c r="F50" s="200"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="200">
+        <v>7</v>
+      </c>
       <c r="G50" s="202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" s="203"/>
       <c r="I50" s="201"/>
       <c r="J50" s="203">
+        <v>7</v>
+      </c>
+      <c r="K50" s="204">
         <v>6</v>
       </c>
-      <c r="K50" s="204">
-        <v>5</v>
-      </c>
       <c r="L50" s="203"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="200">
+      <c r="M50" s="201">
         <v>6</v>
       </c>
+      <c r="N50" s="200"/>
       <c r="O50" s="201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P50" s="200"/>
       <c r="Q50" s="202"/>
@@ -8552,14 +8558,14 @@
       </c>
       <c r="S50" s="207">
         <f>SUM(C51:R51)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" s="199"/>
       <c r="U50" s="203"/>
       <c r="V50" s="201"/>
       <c r="W50" s="203"/>
       <c r="X50" s="204"/>
-      <c r="Y50" s="200"/>
+      <c r="Y50" s="220"/>
       <c r="Z50" s="202"/>
       <c r="AA50" s="203"/>
       <c r="AB50" s="207">
@@ -8574,7 +8580,7 @@
         <f>SUM(AC51:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="230"/>
+      <c r="AH50" s="211"/>
       <c r="AI50" s="197"/>
       <c r="AJ50" s="207">
         <f>AH51</f>
@@ -8582,11 +8588,11 @@
       </c>
       <c r="AK50" s="209">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL50" s="207">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8602,7 +8608,7 @@
       <c r="D51" s="135"/>
       <c r="E51" s="133">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E50=$E$6+$F$6,$O$103,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F50=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="135"/>
       <c r="G51" s="133">
@@ -8622,7 +8628,7 @@
       <c r="L51" s="135"/>
       <c r="M51" s="133">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="135"/>
       <c r="O51" s="136">
@@ -8632,7 +8638,7 @@
       <c r="P51" s="135"/>
       <c r="Q51" s="136">
         <f>(IF($Q50&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q50=$Q$6+$R$6,$O$103,0),0),0)+IF($R50&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R50=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="139"/>
       <c r="S51" s="129"/>
@@ -8909,10 +8915,10 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C54" s="46">
         <v>6</v>
@@ -8923,21 +8929,21 @@
         <v>7</v>
       </c>
       <c r="G54" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
         <v>6</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="47">
+      <c r="K54" s="49">
         <v>6</v>
       </c>
-      <c r="M54" s="44"/>
-      <c r="N54" s="45">
-        <v>6</v>
-      </c>
+      <c r="L54" s="47"/>
+      <c r="M54" s="44">
+        <v>7</v>
+      </c>
+      <c r="N54" s="45"/>
       <c r="O54" s="44">
         <v>5</v>
       </c>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="S54" s="130">
         <f>SUM(C55:R55)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
@@ -8956,7 +8962,7 @@
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="45"/>
-      <c r="Z54" s="123"/>
+      <c r="Z54" s="48"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="130">
         <f>SUM(T55:AA55)</f>
@@ -8978,11 +8984,11 @@
       </c>
       <c r="AK54" s="116">
         <f>MAX($AL$10:$AL$97) - AL54</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL54" s="130">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9013,12 +9019,12 @@
       <c r="J55" s="137"/>
       <c r="K55" s="138">
         <f>(IF($K54&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K54=$K$6+$L$6,$O$103,0),0),0)+IF($L54&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L54=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="135"/>
       <c r="M55" s="133">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="135"/>
       <c r="O55" s="136">
@@ -9028,7 +9034,7 @@
       <c r="P55" s="135"/>
       <c r="Q55" s="136">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q54=$Q$6+$R$6,$O$103,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R54=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="139"/>
       <c r="S55" s="129"/>
@@ -9305,19 +9311,19 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="187">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B58" s="213" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C58" s="199">
         <v>5</v>
       </c>
       <c r="D58" s="200"/>
-      <c r="E58" s="201">
-        <v>6</v>
-      </c>
-      <c r="F58" s="200"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="200">
+        <v>7</v>
+      </c>
       <c r="G58" s="202">
         <v>6</v>
       </c>
@@ -9330,23 +9336,23 @@
         <v>5</v>
       </c>
       <c r="L58" s="203"/>
-      <c r="M58" s="201"/>
-      <c r="N58" s="200">
+      <c r="M58" s="201">
         <v>6</v>
       </c>
+      <c r="N58" s="200"/>
       <c r="O58" s="201">
         <v>7</v>
       </c>
       <c r="P58" s="200"/>
       <c r="Q58" s="202"/>
       <c r="R58" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S58" s="207">
         <f>SUM(C59:R59)</f>
-        <v>3</v>
-      </c>
-      <c r="T58" s="199"/>
+        <v>4</v>
+      </c>
+      <c r="T58" s="303"/>
       <c r="U58" s="203"/>
       <c r="V58" s="201"/>
       <c r="W58" s="203"/>
@@ -9374,11 +9380,11 @@
       </c>
       <c r="AK58" s="209">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL58" s="207">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9394,7 +9400,7 @@
       <c r="D59" s="135"/>
       <c r="E59" s="133">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E58=$E$6+$F$6,$O$103,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F58=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="135"/>
       <c r="G59" s="133">
@@ -9414,7 +9420,7 @@
       <c r="L59" s="135"/>
       <c r="M59" s="133">
         <f>(IF($M58&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M58=$M$6+$N$6,$O$103,0),0),0)+IF($N58&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N58=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="135"/>
       <c r="O59" s="136">
@@ -9424,7 +9430,7 @@
       <c r="P59" s="135"/>
       <c r="Q59" s="136">
         <f>(IF($Q58&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q58=$Q$6+$R$6,$O$103,0),0),0)+IF($R58&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R58=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="139"/>
       <c r="S59" s="129"/>
@@ -9701,46 +9707,46 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C62" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="44">
+        <v>6</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="47">
         <v>7</v>
       </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="48">
-        <v>5</v>
-      </c>
-      <c r="H62" s="47"/>
       <c r="I62" s="44"/>
       <c r="J62" s="47">
+        <v>6</v>
+      </c>
+      <c r="K62" s="49">
         <v>5</v>
       </c>
-      <c r="K62" s="49">
+      <c r="L62" s="47"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="45">
         <v>7</v>
       </c>
-      <c r="L62" s="47"/>
-      <c r="M62" s="44">
+      <c r="O62" s="44">
+        <v>5</v>
+      </c>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="50">
         <v>6</v>
       </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="44">
-        <v>7</v>
-      </c>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="48">
-        <v>5</v>
-      </c>
-      <c r="R62" s="50"/>
       <c r="S62" s="130">
         <f>SUM(C63:R63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9748,7 +9754,7 @@
       <c r="W62" s="47"/>
       <c r="X62" s="49"/>
       <c r="Y62" s="45"/>
-      <c r="Z62" s="48"/>
+      <c r="Z62" s="123"/>
       <c r="AA62" s="47"/>
       <c r="AB62" s="130">
         <f>SUM(T63:AA63)</f>
@@ -9770,11 +9776,11 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL62" s="130">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9795,7 +9801,7 @@
       <c r="F63" s="135"/>
       <c r="G63" s="133">
         <f>(IF($G62&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G62=$G$6+$H$6,$O$103,0),0),0)+IF($H62&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H62=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="135"/>
       <c r="I63" s="136">
@@ -9810,7 +9816,7 @@
       <c r="L63" s="135"/>
       <c r="M63" s="133">
         <f>(IF($M62&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M62=$M$6+$N$6,$O$103,0),0),0)+IF($N62&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N62=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" s="135"/>
       <c r="O63" s="136">
@@ -10100,58 +10106,58 @@
         <v>15</v>
       </c>
       <c r="B66" s="213" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C66" s="199">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D66" s="200"/>
-      <c r="E66" s="227">
+      <c r="E66" s="201">
+        <v>4</v>
+      </c>
+      <c r="F66" s="200"/>
+      <c r="G66" s="202">
         <v>6</v>
       </c>
-      <c r="F66" s="200"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="203">
+      <c r="H66" s="203"/>
+      <c r="I66" s="201"/>
+      <c r="J66" s="203">
         <v>6</v>
       </c>
-      <c r="I66" s="227"/>
-      <c r="J66" s="203">
-        <v>7</v>
-      </c>
       <c r="K66" s="204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L66" s="203"/>
       <c r="M66" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N66" s="200"/>
       <c r="O66" s="201">
         <v>6</v>
       </c>
       <c r="P66" s="200"/>
-      <c r="Q66" s="202">
+      <c r="Q66" s="202"/>
+      <c r="R66" s="205">
         <v>6</v>
       </c>
-      <c r="R66" s="205"/>
       <c r="S66" s="207">
         <f>SUM(C67:R67)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T66" s="199"/>
       <c r="U66" s="203"/>
-      <c r="V66" s="229"/>
+      <c r="V66" s="201"/>
       <c r="W66" s="203"/>
       <c r="X66" s="204"/>
-      <c r="Y66" s="220"/>
-      <c r="Z66" s="202"/>
+      <c r="Y66" s="200"/>
+      <c r="Z66" s="210"/>
       <c r="AA66" s="203"/>
       <c r="AB66" s="207">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
       <c r="AC66" s="202"/>
-      <c r="AD66" s="203"/>
+      <c r="AD66" s="304"/>
       <c r="AE66" s="204"/>
       <c r="AF66" s="203"/>
       <c r="AG66" s="207">
@@ -10166,11 +10172,11 @@
       </c>
       <c r="AK66" s="209">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL66" s="207">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10191,7 +10197,7 @@
       <c r="F67" s="135"/>
       <c r="G67" s="133">
         <f>(IF($G66&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G66=$G$6+$H$6,$O$103,0),0),0)+IF($H66&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H66=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="135"/>
       <c r="I67" s="136">
@@ -10496,43 +10502,43 @@
         <v>15</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="46">
-        <v>4</v>
-      </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44">
-        <v>4</v>
-      </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="48">
+        <v>68</v>
+      </c>
+      <c r="C70" s="292">
+        <v>5</v>
+      </c>
+      <c r="D70" s="293"/>
+      <c r="E70" s="294">
         <v>6</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="47">
+      <c r="F70" s="293"/>
+      <c r="G70" s="295">
+        <v>5</v>
+      </c>
+      <c r="H70" s="296"/>
+      <c r="I70" s="294"/>
+      <c r="J70" s="296">
         <v>6</v>
       </c>
-      <c r="K70" s="49">
+      <c r="K70" s="297">
         <v>6</v>
       </c>
-      <c r="L70" s="47"/>
-      <c r="M70" s="44">
-        <v>5</v>
-      </c>
-      <c r="N70" s="45"/>
-      <c r="O70" s="44">
+      <c r="L70" s="296"/>
+      <c r="M70" s="294">
+        <v>7</v>
+      </c>
+      <c r="N70" s="293"/>
+      <c r="O70" s="294">
         <v>6</v>
       </c>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="50">
+      <c r="P70" s="293"/>
+      <c r="Q70" s="295"/>
+      <c r="R70" s="298">
         <v>6</v>
       </c>
       <c r="S70" s="130">
         <f>SUM(C71:R71)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10540,14 +10546,14 @@
       <c r="W70" s="47"/>
       <c r="X70" s="49"/>
       <c r="Y70" s="45"/>
-      <c r="Z70" s="123"/>
+      <c r="Z70" s="48"/>
       <c r="AA70" s="47"/>
       <c r="AB70" s="130">
         <f>SUM(T71:AA71)</f>
         <v>0</v>
       </c>
       <c r="AC70" s="48"/>
-      <c r="AD70" s="249"/>
+      <c r="AD70" s="47"/>
       <c r="AE70" s="49"/>
       <c r="AF70" s="47"/>
       <c r="AG70" s="130">
@@ -10562,11 +10568,11 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL70" s="130">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10612,7 +10618,7 @@
       <c r="P71" s="135"/>
       <c r="Q71" s="136">
         <f>(IF($Q70&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q70=$Q$6+$R$6,$O$103,0),0),0)+IF($R70&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R70=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="139"/>
       <c r="S71" s="129"/>
@@ -10892,43 +10898,43 @@
         <v>15</v>
       </c>
       <c r="B74" s="213" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="231">
+        <v>82</v>
+      </c>
+      <c r="C74" s="199">
+        <v>6</v>
+      </c>
+      <c r="D74" s="200"/>
+      <c r="E74" s="201">
+        <v>6</v>
+      </c>
+      <c r="F74" s="200"/>
+      <c r="G74" s="202">
+        <v>6</v>
+      </c>
+      <c r="H74" s="203"/>
+      <c r="I74" s="201"/>
+      <c r="J74" s="203">
+        <v>7</v>
+      </c>
+      <c r="K74" s="204">
         <v>5</v>
       </c>
-      <c r="D74" s="232"/>
-      <c r="E74" s="233">
+      <c r="L74" s="203"/>
+      <c r="M74" s="201">
+        <v>7</v>
+      </c>
+      <c r="N74" s="200"/>
+      <c r="O74" s="201">
         <v>6</v>
       </c>
-      <c r="F74" s="232"/>
-      <c r="G74" s="234">
-        <v>5</v>
-      </c>
-      <c r="H74" s="235"/>
-      <c r="I74" s="233"/>
-      <c r="J74" s="235">
-        <v>6</v>
-      </c>
-      <c r="K74" s="236">
-        <v>6</v>
-      </c>
-      <c r="L74" s="235"/>
-      <c r="M74" s="233">
-        <v>7</v>
-      </c>
-      <c r="N74" s="232"/>
-      <c r="O74" s="233">
-        <v>6</v>
-      </c>
-      <c r="P74" s="232"/>
-      <c r="Q74" s="234"/>
-      <c r="R74" s="237">
+      <c r="P74" s="200"/>
+      <c r="Q74" s="202"/>
+      <c r="R74" s="205">
         <v>6</v>
       </c>
       <c r="S74" s="207">
         <f>SUM(C75:R75)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T74" s="199"/>
       <c r="U74" s="203"/>
@@ -10958,11 +10964,11 @@
       </c>
       <c r="AK74" s="209">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL74" s="207">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11008,7 +11014,7 @@
       <c r="P75" s="135"/>
       <c r="Q75" s="136">
         <f>(IF($Q74&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q74=$Q$6+$R$6,$O$103,0),0),0)+IF($R74&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R74=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="139"/>
       <c r="S75" s="129"/>
@@ -11288,10 +11294,10 @@
         <v>15</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
@@ -11304,18 +11310,18 @@
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
+        <v>6</v>
+      </c>
+      <c r="K78" s="49">
         <v>7</v>
-      </c>
-      <c r="K78" s="49">
-        <v>5</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N78" s="45"/>
       <c r="O78" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48"/>
@@ -11324,7 +11330,7 @@
       </c>
       <c r="S78" s="130">
         <f>SUM(C79:R79)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11354,11 +11360,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL78" s="130">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11404,7 +11410,7 @@
       <c r="P79" s="135"/>
       <c r="Q79" s="136">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q78=$Q$6+$R$6,$O$103,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R78=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="139"/>
       <c r="S79" s="129"/>
@@ -11684,7 +11690,7 @@
         <v>15</v>
       </c>
       <c r="B82" s="213" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C82" s="199">
         <v>5</v>
@@ -11703,24 +11709,24 @@
         <v>6</v>
       </c>
       <c r="K82" s="204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L82" s="203"/>
       <c r="M82" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N82" s="200"/>
       <c r="O82" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P82" s="200"/>
       <c r="Q82" s="202"/>
       <c r="R82" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S82" s="207">
         <f>SUM(C83:R83)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T82" s="199"/>
       <c r="U82" s="203"/>
@@ -11728,7 +11734,7 @@
       <c r="W82" s="203"/>
       <c r="X82" s="204"/>
       <c r="Y82" s="200"/>
-      <c r="Z82" s="202"/>
+      <c r="Z82" s="210"/>
       <c r="AA82" s="203"/>
       <c r="AB82" s="207">
         <f>SUM(T83:AA83)</f>
@@ -11750,11 +11756,11 @@
       </c>
       <c r="AK82" s="209">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL82" s="207">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11800,7 +11806,7 @@
       <c r="P83" s="135"/>
       <c r="Q83" s="136">
         <f>(IF($Q82&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q82=$Q$6+$R$6,$O$103,0),0),0)+IF($R82&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R82=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="139"/>
       <c r="S83" s="129"/>
@@ -12080,43 +12086,43 @@
         <v>15</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C86" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" s="45"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="47">
-        <v>7</v>
-      </c>
+      <c r="G86" s="48">
+        <v>5</v>
+      </c>
+      <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
+        <v>5</v>
+      </c>
+      <c r="K86" s="49">
+        <v>7</v>
+      </c>
+      <c r="L86" s="47"/>
+      <c r="M86" s="44">
         <v>6</v>
       </c>
-      <c r="K86" s="49">
+      <c r="N86" s="45"/>
+      <c r="O86" s="44">
+        <v>7</v>
+      </c>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="48">
         <v>5</v>
       </c>
-      <c r="L86" s="47"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="45">
-        <v>7</v>
-      </c>
-      <c r="O86" s="44">
-        <v>5</v>
-      </c>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="50">
-        <v>6</v>
-      </c>
+      <c r="R86" s="50"/>
       <c r="S86" s="130">
         <f>SUM(C87:R87)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12124,7 +12130,7 @@
       <c r="W86" s="47"/>
       <c r="X86" s="49"/>
       <c r="Y86" s="45"/>
-      <c r="Z86" s="123"/>
+      <c r="Z86" s="48"/>
       <c r="AA86" s="47"/>
       <c r="AB86" s="130">
         <f>SUM(T87:AA87)</f>
@@ -12146,11 +12152,11 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL86" s="130">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12171,7 +12177,7 @@
       <c r="F87" s="135"/>
       <c r="G87" s="133">
         <f>(IF($G86&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G86=$G$6+$H$6,$O$103,0),0),0)+IF($H86&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H86=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="135"/>
       <c r="I87" s="136">
@@ -12186,7 +12192,7 @@
       <c r="L87" s="135"/>
       <c r="M87" s="133">
         <f>(IF($M86&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M86=$M$6+$N$6,$O$103,0),0),0)+IF($N86&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N86=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" s="135"/>
       <c r="O87" s="136">
@@ -12196,7 +12202,7 @@
       <c r="P87" s="135"/>
       <c r="Q87" s="136">
         <f>(IF($Q86&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q86=$Q$6+$R$6,$O$103,0),0),0)+IF($R86&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R86=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="139"/>
       <c r="S87" s="129"/>
@@ -12476,14 +12482,14 @@
         <v>15</v>
       </c>
       <c r="B90" s="213" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C90" s="199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="200"/>
       <c r="E90" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" s="200"/>
       <c r="G90" s="202">
@@ -12492,14 +12498,14 @@
       <c r="H90" s="203"/>
       <c r="I90" s="201"/>
       <c r="J90" s="203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K90" s="204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L90" s="203"/>
       <c r="M90" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N90" s="200"/>
       <c r="O90" s="201">
@@ -12512,7 +12518,7 @@
       </c>
       <c r="S90" s="207">
         <f>SUM(C91:R91)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T90" s="199"/>
       <c r="U90" s="203"/>
@@ -12520,7 +12526,7 @@
       <c r="W90" s="203"/>
       <c r="X90" s="204"/>
       <c r="Y90" s="200"/>
-      <c r="Z90" s="210"/>
+      <c r="Z90" s="202"/>
       <c r="AA90" s="203"/>
       <c r="AB90" s="207">
         <f>SUM(T91:AA91)</f>
@@ -12542,11 +12548,11 @@
       </c>
       <c r="AK90" s="209">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL90" s="207">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12592,7 +12598,7 @@
       <c r="P91" s="135"/>
       <c r="Q91" s="136">
         <f>(IF($Q90&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q90=$Q$6+$R$6,$O$103,0),0),0)+IF($R90&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R90=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" s="139"/>
       <c r="S91" s="129"/>
@@ -12869,53 +12875,53 @@
     <row r="94" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <f>RANK(AL94,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="241">
+        <v>64</v>
+      </c>
+      <c r="C94" s="229">
+        <v>7</v>
+      </c>
+      <c r="D94" s="230"/>
+      <c r="E94" s="299">
         <v>6</v>
       </c>
-      <c r="D94" s="242"/>
-      <c r="E94" s="243">
+      <c r="F94" s="230"/>
+      <c r="G94" s="300"/>
+      <c r="H94" s="233">
+        <v>6</v>
+      </c>
+      <c r="I94" s="299"/>
+      <c r="J94" s="233">
         <v>7</v>
       </c>
-      <c r="F94" s="242"/>
-      <c r="G94" s="244">
+      <c r="K94" s="234">
+        <v>5</v>
+      </c>
+      <c r="L94" s="233"/>
+      <c r="M94" s="231">
+        <v>7</v>
+      </c>
+      <c r="N94" s="230"/>
+      <c r="O94" s="231">
         <v>6</v>
       </c>
-      <c r="H94" s="245"/>
-      <c r="I94" s="243"/>
-      <c r="J94" s="245">
-        <v>7</v>
-      </c>
-      <c r="K94" s="246">
-        <v>7</v>
-      </c>
-      <c r="L94" s="245"/>
-      <c r="M94" s="243">
+      <c r="P94" s="230"/>
+      <c r="Q94" s="232">
         <v>6</v>
       </c>
-      <c r="N94" s="242"/>
-      <c r="O94" s="243">
-        <v>6</v>
-      </c>
-      <c r="P94" s="242"/>
-      <c r="Q94" s="244"/>
-      <c r="R94" s="247">
-        <v>7</v>
-      </c>
+      <c r="R94" s="235"/>
       <c r="S94" s="130">
         <f>SUM(C95:R95)</f>
         <v>2</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="44"/>
+      <c r="V94" s="301"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
-      <c r="Y94" s="45"/>
+      <c r="Y94" s="128"/>
       <c r="Z94" s="48"/>
       <c r="AA94" s="47"/>
       <c r="AB94" s="221">
@@ -12938,7 +12944,7 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL94" s="221">
         <f>$S94+$AB94+$AG94+$AJ94</f>
@@ -12963,7 +12969,7 @@
       <c r="F95" s="135"/>
       <c r="G95" s="133">
         <f>(IF($G94&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G94=$G$6+$H$6,$O$103,0),0),0)+IF($H94&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H94=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="135"/>
       <c r="I95" s="136">
@@ -12988,7 +12994,7 @@
       <c r="P95" s="135"/>
       <c r="Q95" s="136">
         <f>(IF($Q94&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q94=$Q$6+$R$6,$O$103,0),0),0)+IF($R94&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R94=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="139"/>
       <c r="S95" s="129"/>
@@ -13395,12 +13401,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="292" t="s">
+      <c r="O100" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="293"/>
-      <c r="Q100" s="293"/>
-      <c r="R100" s="294"/>
+      <c r="P100" s="239"/>
+      <c r="Q100" s="239"/>
+      <c r="R100" s="240"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13409,21 +13415,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="268" t="s">
+      <c r="B101" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="269"/>
-      <c r="D101" s="269"/>
-      <c r="E101" s="269"/>
-      <c r="F101" s="269"/>
-      <c r="G101" s="269"/>
-      <c r="H101" s="269"/>
-      <c r="I101" s="269"/>
-      <c r="J101" s="269"/>
-      <c r="K101" s="269"/>
-      <c r="L101" s="269"/>
-      <c r="M101" s="269"/>
-      <c r="N101" s="270"/>
+      <c r="C101" s="268"/>
+      <c r="D101" s="268"/>
+      <c r="E101" s="268"/>
+      <c r="F101" s="268"/>
+      <c r="G101" s="268"/>
+      <c r="H101" s="268"/>
+      <c r="I101" s="268"/>
+      <c r="J101" s="268"/>
+      <c r="K101" s="268"/>
+      <c r="L101" s="268"/>
+      <c r="M101" s="268"/>
+      <c r="N101" s="269"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13436,45 +13442,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="295" t="s">
+      <c r="U101" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="296"/>
-      <c r="W101" s="296"/>
-      <c r="X101" s="296"/>
-      <c r="Y101" s="296"/>
-      <c r="Z101" s="296"/>
-      <c r="AA101" s="296"/>
-      <c r="AB101" s="296"/>
-      <c r="AC101" s="296"/>
-      <c r="AD101" s="297"/>
+      <c r="V101" s="242"/>
+      <c r="W101" s="242"/>
+      <c r="X101" s="242"/>
+      <c r="Y101" s="242"/>
+      <c r="Z101" s="242"/>
+      <c r="AA101" s="242"/>
+      <c r="AB101" s="242"/>
+      <c r="AC101" s="242"/>
+      <c r="AD101" s="243"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="298" t="s">
+      <c r="AG101" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="299"/>
-      <c r="AI101" s="299"/>
-      <c r="AJ101" s="299"/>
-      <c r="AK101" s="300"/>
+      <c r="AH101" s="245"/>
+      <c r="AI101" s="245"/>
+      <c r="AJ101" s="245"/>
+      <c r="AK101" s="246"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="275" t="s">
+      <c r="B102" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="259"/>
-      <c r="D102" s="259"/>
-      <c r="E102" s="259"/>
-      <c r="F102" s="259"/>
-      <c r="G102" s="259"/>
-      <c r="H102" s="259"/>
-      <c r="I102" s="259"/>
-      <c r="J102" s="259"/>
-      <c r="K102" s="259"/>
-      <c r="L102" s="259"/>
-      <c r="M102" s="259"/>
-      <c r="N102" s="260"/>
+      <c r="C102" s="275"/>
+      <c r="D102" s="275"/>
+      <c r="E102" s="275"/>
+      <c r="F102" s="275"/>
+      <c r="G102" s="275"/>
+      <c r="H102" s="275"/>
+      <c r="I102" s="275"/>
+      <c r="J102" s="275"/>
+      <c r="K102" s="275"/>
+      <c r="L102" s="275"/>
+      <c r="M102" s="275"/>
+      <c r="N102" s="276"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13487,49 +13493,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="273" t="s">
+      <c r="U102" s="272" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="274"/>
-      <c r="W102" s="274"/>
-      <c r="X102" s="274"/>
-      <c r="Y102" s="274"/>
-      <c r="Z102" s="274"/>
-      <c r="AA102" s="274"/>
-      <c r="AB102" s="271">
+      <c r="V102" s="273"/>
+      <c r="W102" s="273"/>
+      <c r="X102" s="273"/>
+      <c r="Y102" s="273"/>
+      <c r="Z102" s="273"/>
+      <c r="AA102" s="273"/>
+      <c r="AB102" s="270">
         <v>22</v>
       </c>
-      <c r="AC102" s="271"/>
-      <c r="AD102" s="272"/>
+      <c r="AC102" s="270"/>
+      <c r="AD102" s="271"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="255" t="s">
+      <c r="AG102" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="256"/>
-      <c r="AI102" s="256"/>
-      <c r="AJ102" s="257"/>
-      <c r="AK102" s="238">
+      <c r="AH102" s="287"/>
+      <c r="AI102" s="287"/>
+      <c r="AJ102" s="288"/>
+      <c r="AK102" s="226">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="275" t="s">
+      <c r="B103" s="274" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="259"/>
-      <c r="D103" s="259"/>
-      <c r="E103" s="259"/>
-      <c r="F103" s="259"/>
-      <c r="G103" s="259"/>
-      <c r="H103" s="259"/>
-      <c r="I103" s="259"/>
-      <c r="J103" s="259"/>
-      <c r="K103" s="259"/>
-      <c r="L103" s="259"/>
-      <c r="M103" s="259"/>
-      <c r="N103" s="260"/>
+      <c r="C103" s="275"/>
+      <c r="D103" s="275"/>
+      <c r="E103" s="275"/>
+      <c r="F103" s="275"/>
+      <c r="G103" s="275"/>
+      <c r="H103" s="275"/>
+      <c r="I103" s="275"/>
+      <c r="J103" s="275"/>
+      <c r="K103" s="275"/>
+      <c r="L103" s="275"/>
+      <c r="M103" s="275"/>
+      <c r="N103" s="276"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13542,49 +13548,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="253" t="s">
+      <c r="U103" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="254"/>
-      <c r="W103" s="254"/>
-      <c r="X103" s="254"/>
-      <c r="Y103" s="254"/>
-      <c r="Z103" s="254"/>
-      <c r="AA103" s="254"/>
-      <c r="AB103" s="279">
+      <c r="V103" s="282"/>
+      <c r="W103" s="282"/>
+      <c r="X103" s="282"/>
+      <c r="Y103" s="282"/>
+      <c r="Z103" s="282"/>
+      <c r="AA103" s="282"/>
+      <c r="AB103" s="283">
         <v>20</v>
       </c>
-      <c r="AC103" s="279"/>
-      <c r="AD103" s="280"/>
+      <c r="AC103" s="283"/>
+      <c r="AD103" s="284"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="258" t="s">
+      <c r="AG103" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="259"/>
-      <c r="AI103" s="259"/>
-      <c r="AJ103" s="260"/>
+      <c r="AH103" s="275"/>
+      <c r="AI103" s="275"/>
+      <c r="AJ103" s="276"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="261" t="s">
+      <c r="B104" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="262"/>
-      <c r="D104" s="262"/>
-      <c r="E104" s="262"/>
-      <c r="F104" s="262"/>
-      <c r="G104" s="262"/>
-      <c r="H104" s="262"/>
-      <c r="I104" s="262"/>
-      <c r="J104" s="262"/>
-      <c r="K104" s="262"/>
-      <c r="L104" s="262"/>
-      <c r="M104" s="262"/>
-      <c r="N104" s="263"/>
+      <c r="C104" s="261"/>
+      <c r="D104" s="261"/>
+      <c r="E104" s="261"/>
+      <c r="F104" s="261"/>
+      <c r="G104" s="261"/>
+      <c r="H104" s="261"/>
+      <c r="I104" s="261"/>
+      <c r="J104" s="261"/>
+      <c r="K104" s="261"/>
+      <c r="L104" s="261"/>
+      <c r="M104" s="261"/>
+      <c r="N104" s="262"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13597,52 +13603,52 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="276" t="s">
+      <c r="U104" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="252"/>
-      <c r="W104" s="252"/>
-      <c r="X104" s="252"/>
-      <c r="Y104" s="252"/>
-      <c r="Z104" s="252"/>
-      <c r="AA104" s="252"/>
-      <c r="AB104" s="277">
+      <c r="V104" s="278"/>
+      <c r="W104" s="278"/>
+      <c r="X104" s="278"/>
+      <c r="Y104" s="278"/>
+      <c r="Z104" s="278"/>
+      <c r="AA104" s="278"/>
+      <c r="AB104" s="279">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="277"/>
-      <c r="AD104" s="278"/>
+      <c r="AC104" s="279"/>
+      <c r="AD104" s="280"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="258" t="s">
+      <c r="AG104" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="259"/>
-      <c r="AI104" s="259"/>
-      <c r="AJ104" s="260"/>
+      <c r="AH104" s="275"/>
+      <c r="AI104" s="275"/>
+      <c r="AJ104" s="276"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="253" t="s">
+      <c r="AG105" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="254"/>
-      <c r="AI105" s="254"/>
-      <c r="AJ105" s="254"/>
-      <c r="AK105" s="240">
+      <c r="AH105" s="282"/>
+      <c r="AI105" s="282"/>
+      <c r="AJ105" s="282"/>
+      <c r="AK105" s="228">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="251" t="s">
+      <c r="AG106" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="252"/>
-      <c r="AI106" s="252"/>
-      <c r="AJ106" s="252"/>
-      <c r="AK106" s="239">
+      <c r="AH106" s="278"/>
+      <c r="AI106" s="278"/>
+      <c r="AJ106" s="278"/>
+      <c r="AK106" s="227">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
       </c>
@@ -13653,6 +13659,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -13669,28 +13697,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14322,7 +14328,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14384,7 +14390,9 @@
       <c r="C3" s="85">
         <v>3</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="85">
+        <v>1</v>
+      </c>
       <c r="E3" s="85"/>
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
@@ -14424,7 +14432,9 @@
       <c r="C4" s="85">
         <v>4</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="85">
+        <v>5</v>
+      </c>
       <c r="E4" s="85"/>
       <c r="F4" s="85"/>
       <c r="G4" s="85"/>
@@ -14432,7 +14442,7 @@
       <c r="I4" s="85"/>
       <c r="J4" s="77">
         <f>IF(C4&gt;C3,1,0)+IF(D4&gt;D3,1,0)+IF(E4&gt;E3,1,0)+IF(F4&gt;F3,1,0)+IF(G4&gt;G3,1,0)+IF(H4&gt;H3,1,0)+IF(I4&gt;I3,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="4"/>
@@ -14822,7 +14832,9 @@
       <c r="C13" s="85">
         <v>4</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="86">
+        <v>3</v>
+      </c>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
@@ -14830,7 +14842,7 @@
       <c r="I13" s="86"/>
       <c r="J13" s="77">
         <f>IF(C13&gt;C14,1,0)+IF(D13&gt;D14,1,0)+IF(E13&gt;E14,1,0)+IF(F13&gt;F14,1,0)+IF(G13&gt;G14,1,0)+IF(H13&gt;H14,1,0)+IF(I13&gt;I14,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="4"/>
@@ -14866,7 +14878,9 @@
       <c r="C14" s="85">
         <v>3</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="86">
+        <v>1</v>
+      </c>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
@@ -15109,7 +15123,9 @@
       <c r="C20" s="85">
         <v>1</v>
       </c>
-      <c r="D20" s="85"/>
+      <c r="D20" s="85">
+        <v>3</v>
+      </c>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
       <c r="G20" s="85"/>
@@ -15161,7 +15177,9 @@
       <c r="C21" s="85">
         <v>2</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="85">
+        <v>4</v>
+      </c>
       <c r="E21" s="85"/>
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
@@ -15169,7 +15187,7 @@
       <c r="I21" s="86"/>
       <c r="J21" s="77">
         <f>IF(C21&gt;C20,1,0)+IF(D21&gt;D20,1,0)+IF(E21&gt;E20,1,0)+IF(F21&gt;F20,1,0)+IF(G21&gt;G20,1,0)+IF(H21&gt;H20,1,0)+IF(I21&gt;I20,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="4"/>
@@ -15431,7 +15449,9 @@
       <c r="C27" s="85">
         <v>5</v>
       </c>
-      <c r="D27" s="85"/>
+      <c r="D27" s="85">
+        <v>3</v>
+      </c>
       <c r="E27" s="86"/>
       <c r="F27" s="86"/>
       <c r="G27" s="85"/>
@@ -15472,7 +15492,9 @@
       <c r="C28" s="85">
         <v>2</v>
       </c>
-      <c r="D28" s="85"/>
+      <c r="D28" s="85">
+        <v>5</v>
+      </c>
       <c r="E28" s="85"/>
       <c r="F28" s="86"/>
       <c r="G28" s="85"/>
@@ -15480,7 +15502,7 @@
       <c r="I28" s="85"/>
       <c r="J28" s="77">
         <f>IF(C28&gt;C27,1,0)+IF(D28&gt;D27,1,0)+IF(E28&gt;E27,1,0)+IF(F28&gt;F27,1,0)+IF(G28&gt;G27,1,0)+IF(H28&gt;H27,1,0)+IF(I28&gt;I27,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1"/>
       <c r="O28" s="52"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1954,7 +1954,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2447,12 +2447,150 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2504,154 +2642,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3875,217 +3872,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
-      <c r="S1" s="264"/>
-      <c r="T1" s="264"/>
-      <c r="U1" s="264"/>
-      <c r="V1" s="264"/>
-      <c r="W1" s="264"/>
-      <c r="X1" s="264"/>
-      <c r="Y1" s="264"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="264"/>
-      <c r="AB1" s="264"/>
-      <c r="AC1" s="264"/>
-      <c r="AD1" s="264"/>
-      <c r="AE1" s="264"/>
-      <c r="AF1" s="264"/>
-      <c r="AG1" s="264"/>
-      <c r="AH1" s="264"/>
-      <c r="AI1" s="264"/>
-      <c r="AJ1" s="264"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="270" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="266" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="264"/>
-      <c r="U2" s="264"/>
-      <c r="V2" s="264"/>
-      <c r="W2" s="264"/>
-      <c r="X2" s="264"/>
-      <c r="Y2" s="264"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="264"/>
-      <c r="AB2" s="264"/>
-      <c r="AC2" s="264"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
+      <c r="AG2" s="269"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
+      <c r="AJ2" s="269"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="264"/>
-      <c r="R3" s="264"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="264"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="269"/>
+      <c r="V3" s="269"/>
+      <c r="W3" s="269"/>
+      <c r="X3" s="269"/>
+      <c r="Y3" s="269"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="269"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="269"/>
+      <c r="AG3" s="269"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="269"/>
+      <c r="AJ3" s="269"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="248"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="247" t="s">
+      <c r="C4" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="294"/>
+      <c r="O4" s="294"/>
+      <c r="P4" s="294"/>
+      <c r="Q4" s="294"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="295"/>
+      <c r="T4" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="248"/>
-      <c r="V4" s="248"/>
-      <c r="W4" s="248"/>
-      <c r="X4" s="248"/>
-      <c r="Y4" s="248"/>
-      <c r="Z4" s="248"/>
-      <c r="AA4" s="248"/>
-      <c r="AB4" s="249"/>
-      <c r="AC4" s="247" t="s">
+      <c r="U4" s="294"/>
+      <c r="V4" s="294"/>
+      <c r="W4" s="294"/>
+      <c r="X4" s="294"/>
+      <c r="Y4" s="294"/>
+      <c r="Z4" s="294"/>
+      <c r="AA4" s="294"/>
+      <c r="AB4" s="295"/>
+      <c r="AC4" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="248"/>
-      <c r="AE4" s="248"/>
-      <c r="AF4" s="248"/>
-      <c r="AG4" s="258"/>
-      <c r="AH4" s="247" t="s">
+      <c r="AD4" s="294"/>
+      <c r="AE4" s="294"/>
+      <c r="AF4" s="294"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="248"/>
-      <c r="AJ4" s="249"/>
+      <c r="AI4" s="294"/>
+      <c r="AJ4" s="295"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="254" t="s">
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="256"/>
-      <c r="S5" s="250" t="s">
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="259" t="s">
+      <c r="T5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="255"/>
-      <c r="V5" s="255"/>
-      <c r="W5" s="256"/>
-      <c r="X5" s="254" t="s">
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="255"/>
-      <c r="Z5" s="255"/>
-      <c r="AA5" s="256"/>
-      <c r="AB5" s="250" t="s">
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="257" t="s">
+      <c r="AC5" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="256"/>
-      <c r="AE5" s="254" t="s">
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="256"/>
-      <c r="AG5" s="250" t="s">
+      <c r="AF5" s="264"/>
+      <c r="AG5" s="296" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="250" t="s">
+      <c r="AJ5" s="296" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4103,7 +4100,7 @@
       </c>
       <c r="E6" s="173">
         <f>Résultats!$J$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
@@ -4111,7 +4108,7 @@
       </c>
       <c r="G6" s="173">
         <f>Résultats!$J$10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="L6" s="108">
         <f>Résultats!$J$18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="173">
         <f>Résultats!$J$20</f>
@@ -4143,7 +4140,7 @@
       </c>
       <c r="O6" s="173">
         <f>Résultats!$J$24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="109">
         <f>Résultats!$J$25</f>
@@ -4157,7 +4154,7 @@
         <f>Résultats!$J$28</f>
         <v>1</v>
       </c>
-      <c r="S6" s="251"/>
+      <c r="S6" s="297"/>
       <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4190,7 +4187,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="251"/>
+      <c r="AB6" s="297"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4207,7 +4204,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="251"/>
+      <c r="AG6" s="297"/>
       <c r="AH6" s="214">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4216,7 +4213,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="251"/>
+      <c r="AJ6" s="297"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4242,7 +4239,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="251"/>
+      <c r="S7" s="297"/>
       <c r="T7" s="171"/>
       <c r="U7" s="117"/>
       <c r="V7" s="174"/>
@@ -4251,15 +4248,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="251"/>
+      <c r="AB7" s="297"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="251"/>
+      <c r="AG7" s="297"/>
       <c r="AH7" s="214"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="251"/>
+      <c r="AJ7" s="297"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4329,7 +4326,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="251"/>
+      <c r="S8" s="297"/>
       <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4362,7 +4359,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="251"/>
+      <c r="AB8" s="297"/>
       <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4379,7 +4376,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="251"/>
+      <c r="AG8" s="297"/>
       <c r="AH8" s="215" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4388,7 +4385,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="251"/>
+      <c r="AJ8" s="297"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4462,7 +4459,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="253"/>
+      <c r="S9" s="299"/>
       <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4495,7 +4492,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="252"/>
+      <c r="AB9" s="298"/>
       <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4512,7 +4509,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="252"/>
+      <c r="AG9" s="298"/>
       <c r="AH9" s="217" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4521,7 +4518,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="253"/>
+      <c r="AJ9" s="299"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4571,7 +4568,7 @@
       <c r="R10" s="194"/>
       <c r="S10" s="198">
         <f>SUM(C11:R11)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T10" s="188"/>
       <c r="U10" s="190"/>
@@ -4605,7 +4602,7 @@
       </c>
       <c r="AL10" s="195">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4621,12 +4618,12 @@
       <c r="D11" s="135"/>
       <c r="E11" s="133">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E10=$E$6+$F$6,$O$103,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F10=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="135"/>
       <c r="G11" s="133">
         <f>(IF($G10&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G10=$G$6+$H$6,$O$103,0),0),0)+IF($H10&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H10=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="135"/>
       <c r="I11" s="136">
@@ -4646,7 +4643,7 @@
       <c r="N11" s="135"/>
       <c r="O11" s="136">
         <f>(IF($O10&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O10=$O$6+$P$6,$O$103,0),0),0)+IF($P10&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P10=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="135"/>
       <c r="Q11" s="136">
@@ -4931,14 +4928,14 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
@@ -4950,24 +4947,24 @@
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="44">
         <v>5</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45">
-        <v>7</v>
-      </c>
+      <c r="O14" s="44">
+        <v>4</v>
+      </c>
+      <c r="P14" s="45"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14" s="130">
         <f>SUM(C15:R15)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -4982,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="237"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="130">
@@ -4997,11 +4994,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="130">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5017,12 +5014,12 @@
       <c r="D15" s="151"/>
       <c r="E15" s="133">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="151"/>
       <c r="G15" s="133">
         <f>(IF($G14&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G14=$G$6+$H$6,$O$103,0),0),0)+IF($H14&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H14=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="151"/>
       <c r="I15" s="127">
@@ -5070,7 +5067,7 @@
       <c r="AJ15" s="129"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL15" s="129"/>
     </row>
@@ -5327,21 +5324,21 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="187">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="213" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C18" s="199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="200"/>
       <c r="E18" s="201">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" s="200"/>
       <c r="G18" s="202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="203"/>
       <c r="I18" s="201">
@@ -5349,32 +5346,32 @@
       </c>
       <c r="J18" s="203"/>
       <c r="K18" s="204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18" s="203"/>
       <c r="M18" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="200"/>
       <c r="O18" s="201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18" s="200"/>
-      <c r="Q18" s="202"/>
-      <c r="R18" s="205">
-        <v>6</v>
-      </c>
+      <c r="Q18" s="202">
+        <v>7</v>
+      </c>
+      <c r="R18" s="205"/>
       <c r="S18" s="206">
         <f>SUM(C19:R19)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T18" s="199"/>
       <c r="U18" s="203"/>
       <c r="V18" s="201"/>
       <c r="W18" s="203"/>
       <c r="X18" s="204"/>
-      <c r="Y18" s="220"/>
-      <c r="Z18" s="202"/>
+      <c r="Y18" s="200"/>
+      <c r="Z18" s="210"/>
       <c r="AA18" s="205"/>
       <c r="AB18" s="207">
         <f>SUM(T19:AA19)</f>
@@ -5388,7 +5385,7 @@
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="302"/>
+      <c r="AH18" s="248"/>
       <c r="AI18" s="208"/>
       <c r="AJ18" s="207">
         <f>AH19</f>
@@ -5400,7 +5397,7 @@
       </c>
       <c r="AL18" s="207">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5416,12 +5413,12 @@
       <c r="D19" s="151"/>
       <c r="E19" s="127">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E18=$E$6+$F$6,$O$103,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F18=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="151"/>
       <c r="G19" s="127">
         <f>(IF($G18&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G18=$G$6+$H$6,$O$103,0),0),0)+IF($H18&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H18=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="151"/>
       <c r="I19" s="127">
@@ -5441,7 +5438,7 @@
       <c r="N19" s="151"/>
       <c r="O19" s="127">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="151"/>
       <c r="Q19" s="127">
@@ -5469,7 +5466,7 @@
       <c r="AJ19" s="155"/>
       <c r="AK19" s="163">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL19" s="129"/>
     </row>
@@ -5726,46 +5723,46 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
         <v>5</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="44">
+      <c r="I22" s="44"/>
+      <c r="J22" s="47">
         <v>6</v>
       </c>
-      <c r="J22" s="47"/>
       <c r="K22" s="49">
         <v>5</v>
       </c>
       <c r="L22" s="47"/>
-      <c r="M22" s="44">
+      <c r="M22" s="44"/>
+      <c r="N22" s="45">
         <v>6</v>
       </c>
-      <c r="N22" s="45"/>
       <c r="O22" s="44">
         <v>5</v>
       </c>
       <c r="P22" s="45"/>
-      <c r="Q22" s="48">
-        <v>7</v>
-      </c>
-      <c r="R22" s="50"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="50">
+        <v>6</v>
+      </c>
       <c r="S22" s="130">
         <f>SUM(C23:R23)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5773,7 +5770,7 @@
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="123"/>
+      <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="130">
         <f>SUM(T23:AA23)</f>
@@ -5787,7 +5784,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="236"/>
+      <c r="AH22" s="303"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -5799,7 +5796,7 @@
       </c>
       <c r="AL22" s="130">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5815,17 +5812,17 @@
       <c r="D23" s="164"/>
       <c r="E23" s="133">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E22=$E$6+$F$6,$O$103,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F22=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="164"/>
       <c r="G23" s="133">
         <f>(IF($G22&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G22=$G$6+$H$6,$O$103,0),0),0)+IF($H22&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H22=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="164"/>
       <c r="I23" s="133">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="165"/>
       <c r="K23" s="166">
@@ -5835,12 +5832,12 @@
       <c r="L23" s="164"/>
       <c r="M23" s="133">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="164"/>
       <c r="O23" s="133">
         <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="164"/>
       <c r="Q23" s="133">
@@ -5868,7 +5865,7 @@
       <c r="AJ23" s="155"/>
       <c r="AK23" s="163">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL23" s="129"/>
     </row>
@@ -6125,21 +6122,21 @@
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="187">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C26" s="199">
         <v>5</v>
       </c>
       <c r="D26" s="200"/>
       <c r="E26" s="201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" s="200"/>
       <c r="G26" s="202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="203"/>
       <c r="I26" s="201"/>
@@ -6155,16 +6152,16 @@
         <v>6</v>
       </c>
       <c r="O26" s="201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P26" s="200"/>
-      <c r="Q26" s="202"/>
-      <c r="R26" s="205">
+      <c r="Q26" s="202">
         <v>6</v>
       </c>
+      <c r="R26" s="205"/>
       <c r="S26" s="207">
         <f>SUM(C27:R27)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T26" s="199"/>
       <c r="U26" s="203"/>
@@ -6186,7 +6183,7 @@
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="290"/>
+      <c r="AH26" s="237"/>
       <c r="AI26" s="197"/>
       <c r="AJ26" s="207">
         <f>AH27</f>
@@ -6198,7 +6195,7 @@
       </c>
       <c r="AL26" s="207">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6214,12 +6211,12 @@
       <c r="D27" s="151"/>
       <c r="E27" s="127">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E26=$E$6+$F$6,$O$103,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F26=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="151"/>
       <c r="G27" s="127">
         <f>(IF($G26&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G26=$G$6+$H$6,$O$103,0),0),0)+IF($H26&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H26=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="151"/>
       <c r="I27" s="127">
@@ -6239,7 +6236,7 @@
       <c r="N27" s="151"/>
       <c r="O27" s="127">
         <f>(IF($O26&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O26=$O$6+$P$6,$O$103,0),0),0)+IF($P26&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P26=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="151"/>
       <c r="Q27" s="127">
@@ -6267,7 +6264,7 @@
       <c r="AJ27" s="155"/>
       <c r="AK27" s="163">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL27" s="129"/>
     </row>
@@ -6524,46 +6521,46 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C30" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="44">
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
         <v>7</v>
       </c>
-      <c r="F30" s="45"/>
       <c r="G30" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
       <c r="J30" s="47">
         <v>6</v>
       </c>
-      <c r="K30" s="49">
-        <v>5</v>
-      </c>
-      <c r="L30" s="47"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="47">
+        <v>6</v>
+      </c>
       <c r="M30" s="44"/>
       <c r="N30" s="45">
         <v>6</v>
       </c>
       <c r="O30" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="48">
+      <c r="Q30" s="48"/>
+      <c r="R30" s="50">
         <v>6</v>
       </c>
-      <c r="R30" s="50"/>
       <c r="S30" s="130">
         <f>SUM(C31:R31)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
@@ -6571,7 +6568,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
       <c r="Y30" s="45"/>
-      <c r="Z30" s="48"/>
+      <c r="Z30" s="123"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="130">
         <f>SUM(T31:AA31)</f>
@@ -6585,7 +6582,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="291"/>
+      <c r="AH30" s="107"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="130">
         <f>AH31</f>
@@ -6597,7 +6594,7 @@
       </c>
       <c r="AL30" s="130">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6613,12 +6610,12 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
         <f>(IF($G30&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G30=$G$6+$H$6,$O$103,0),0),0)+IF($H30&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H30=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="80"/>
       <c r="I31" s="81">
@@ -6638,7 +6635,7 @@
       <c r="N31" s="80"/>
       <c r="O31" s="81">
         <f>(IF($O30&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O30=$O$6+$P$6,$O$103,0),0),0)+IF($P30&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P30=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
@@ -6666,7 +6663,7 @@
       <c r="AJ31" s="129"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL31" s="129"/>
     </row>
@@ -6923,61 +6920,61 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="187">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="213" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C34" s="199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="200"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="200">
+      <c r="E34" s="201">
         <v>7</v>
       </c>
+      <c r="F34" s="200"/>
       <c r="G34" s="202">
         <v>6</v>
       </c>
       <c r="H34" s="203"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="203">
+      <c r="I34" s="201">
         <v>6</v>
       </c>
-      <c r="K34" s="204"/>
-      <c r="L34" s="203">
-        <v>6</v>
-      </c>
-      <c r="M34" s="201"/>
-      <c r="N34" s="200">
-        <v>6</v>
-      </c>
-      <c r="O34" s="201">
+      <c r="J34" s="203"/>
+      <c r="K34" s="204">
+        <v>4</v>
+      </c>
+      <c r="L34" s="203"/>
+      <c r="M34" s="201">
         <v>5</v>
       </c>
-      <c r="P34" s="200"/>
+      <c r="N34" s="200"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="200">
+        <v>7</v>
+      </c>
       <c r="Q34" s="202"/>
       <c r="R34" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S34" s="207">
         <f>SUM(C35:R35)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T34" s="199"/>
       <c r="U34" s="203"/>
       <c r="V34" s="201"/>
       <c r="W34" s="203"/>
       <c r="X34" s="204"/>
-      <c r="Y34" s="200"/>
-      <c r="Z34" s="210"/>
+      <c r="Y34" s="220"/>
+      <c r="Z34" s="202"/>
       <c r="AA34" s="203"/>
       <c r="AB34" s="207">
         <f>SUM(T35:AA35)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="202"/>
-      <c r="AD34" s="203"/>
+      <c r="AD34" s="250"/>
       <c r="AE34" s="204"/>
       <c r="AF34" s="203"/>
       <c r="AG34" s="207">
@@ -6996,7 +6993,7 @@
       </c>
       <c r="AL34" s="207">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7017,27 +7014,27 @@
       <c r="F35" s="80"/>
       <c r="G35" s="81">
         <f>(IF($G34&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G34=$G$6+$H$6,$O$103,0),0),0)+IF($H34&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H34=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="81">
         <f>(IF($I34&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I34=$I$6+$J$6,$O$103,0),0),0)+IF($J34&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J34=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="82"/>
       <c r="K35" s="83">
         <f>(IF($K34&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K34=$K$6+$L$6,$O$103,0),0),0)+IF($L34&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L34=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
         <f>(IF($O34&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O34=$O$6+$P$6,$O$103,0),0),0)+IF($P34&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P34=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="80"/>
       <c r="Q35" s="81">
@@ -7065,7 +7062,7 @@
       <c r="AJ35" s="129"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL35" s="129"/>
     </row>
@@ -7322,7 +7319,7 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="88" t="s">
         <v>81</v>
@@ -7361,7 +7358,7 @@
       <c r="R38" s="50"/>
       <c r="S38" s="130">
         <f>SUM(C39:R39)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
@@ -7395,7 +7392,7 @@
       </c>
       <c r="AL38" s="130">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7411,12 +7408,12 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="126">
         <f>(IF($G38&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G38=$G$6+$H$6,$O$103,0),0),0)+IF($H38&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H38=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="80"/>
       <c r="I39" s="121">
@@ -7436,7 +7433,7 @@
       <c r="N39" s="80"/>
       <c r="O39" s="81">
         <f>(IF($O38&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O38=$O$6+$P$6,$O$103,0),0),0)+IF($P38&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P38=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
@@ -7464,7 +7461,7 @@
       <c r="AJ39" s="129"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL39" s="129"/>
     </row>
@@ -7721,7 +7718,7 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="187">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="213" t="s">
         <v>74</v>
@@ -7760,7 +7757,7 @@
       </c>
       <c r="S42" s="207">
         <f>SUM(C43:R43)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T42" s="199"/>
       <c r="U42" s="203"/>
@@ -7794,7 +7791,7 @@
       </c>
       <c r="AL42" s="207">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7810,12 +7807,12 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
         <f>(IF($G42&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G42=$G$6+$H$6,$O$103,0),0),0)+IF($H42&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H42=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="80"/>
       <c r="I43" s="121">
@@ -7835,7 +7832,7 @@
       <c r="N43" s="80"/>
       <c r="O43" s="81">
         <f>(IF($O42&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O42=$O$6+$P$6,$O$103,0),0),0)+IF($P42&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P42=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
@@ -7863,7 +7860,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL43" s="129"/>
     </row>
@@ -8159,7 +8156,7 @@
       <c r="R46" s="50"/>
       <c r="S46" s="130">
         <f>SUM(C47:R47)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -8189,11 +8186,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL46" s="130">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8209,7 +8206,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
@@ -8234,7 +8231,7 @@
       <c r="N47" s="80"/>
       <c r="O47" s="81">
         <f>(IF($O46&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O46=$O$6+$P$6,$O$103,0),0),0)+IF($P46&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P46=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
@@ -8262,7 +8259,7 @@
       <c r="AJ47" s="129"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL47" s="129"/>
     </row>
@@ -8558,7 +8555,7 @@
       </c>
       <c r="S50" s="207">
         <f>SUM(C51:R51)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T50" s="199"/>
       <c r="U50" s="203"/>
@@ -8588,11 +8585,11 @@
       </c>
       <c r="AK50" s="209">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL50" s="207">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8613,7 +8610,7 @@
       <c r="F51" s="135"/>
       <c r="G51" s="133">
         <f>(IF($G50&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G50=$G$6+$H$6,$O$103,0),0),0)+IF($H50&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H50=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="135"/>
       <c r="I51" s="136">
@@ -8633,7 +8630,7 @@
       <c r="N51" s="135"/>
       <c r="O51" s="136">
         <f>(IF($O50&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O50=$O$6+$P$6,$O$103,0),0),0)+IF($P50&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P50=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="135"/>
       <c r="Q51" s="136">
@@ -8918,18 +8915,18 @@
         <v>10</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C54" s="46">
+        <v>4</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44">
+        <v>4</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="48">
         <v>6</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45">
-        <v>7</v>
-      </c>
-      <c r="G54" s="48">
-        <v>7</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="44"/>
@@ -8941,11 +8938,11 @@
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N54" s="45"/>
       <c r="O54" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54" s="45"/>
       <c r="Q54" s="48"/>
@@ -8954,7 +8951,7 @@
       </c>
       <c r="S54" s="130">
         <f>SUM(C55:R55)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
@@ -8962,14 +8959,14 @@
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="45"/>
-      <c r="Z54" s="48"/>
+      <c r="Z54" s="123"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="130">
         <f>SUM(T55:AA55)</f>
         <v>0</v>
       </c>
       <c r="AC54" s="48"/>
-      <c r="AD54" s="47"/>
+      <c r="AD54" s="236"/>
       <c r="AE54" s="49"/>
       <c r="AF54" s="47"/>
       <c r="AG54" s="130">
@@ -8984,11 +8981,11 @@
       </c>
       <c r="AK54" s="116">
         <f>MAX($AL$10:$AL$97) - AL54</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL54" s="130">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9009,7 +9006,7 @@
       <c r="F55" s="135"/>
       <c r="G55" s="133">
         <f>(IF($G54&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G54=$G$6+$H$6,$O$103,0),0),0)+IF($H54&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H54=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="135"/>
       <c r="I55" s="136">
@@ -9029,7 +9026,7 @@
       <c r="N55" s="135"/>
       <c r="O55" s="136">
         <f>(IF($O54&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O54=$O$6+$P$6,$O$103,0),0),0)+IF($P54&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P54=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="135"/>
       <c r="Q55" s="136">
@@ -9314,10 +9311,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="213" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C58" s="199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="200"/>
       <c r="E58" s="201"/>
@@ -9325,34 +9322,34 @@
         <v>7</v>
       </c>
       <c r="G58" s="202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" s="203"/>
       <c r="I58" s="201"/>
       <c r="J58" s="203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K58" s="204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L58" s="203"/>
       <c r="M58" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N58" s="200"/>
       <c r="O58" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P58" s="200"/>
       <c r="Q58" s="202"/>
       <c r="R58" s="205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S58" s="207">
         <f>SUM(C59:R59)</f>
-        <v>4</v>
-      </c>
-      <c r="T58" s="303"/>
+        <v>6</v>
+      </c>
+      <c r="T58" s="199"/>
       <c r="U58" s="203"/>
       <c r="V58" s="201"/>
       <c r="W58" s="203"/>
@@ -9380,11 +9377,11 @@
       </c>
       <c r="AK58" s="209">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL58" s="207">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9405,7 +9402,7 @@
       <c r="F59" s="135"/>
       <c r="G59" s="133">
         <f>(IF($G58&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G58=$G$6+$H$6,$O$103,0),0),0)+IF($H58&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H58=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="135"/>
       <c r="I59" s="136">
@@ -9425,7 +9422,7 @@
       <c r="N59" s="135"/>
       <c r="O59" s="136">
         <f>(IF($O58&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O58=$O$6+$P$6,$O$103,0),0),0)+IF($P58&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P58=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="135"/>
       <c r="Q59" s="136">
@@ -9710,43 +9707,43 @@
         <v>10</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="46">
+        <v>68</v>
+      </c>
+      <c r="C62" s="238">
         <v>5</v>
       </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44">
+      <c r="D62" s="239"/>
+      <c r="E62" s="240">
         <v>6</v>
       </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="47">
+      <c r="F62" s="239"/>
+      <c r="G62" s="241">
+        <v>5</v>
+      </c>
+      <c r="H62" s="242"/>
+      <c r="I62" s="240"/>
+      <c r="J62" s="242">
+        <v>6</v>
+      </c>
+      <c r="K62" s="243">
+        <v>6</v>
+      </c>
+      <c r="L62" s="242"/>
+      <c r="M62" s="240">
         <v>7</v>
       </c>
-      <c r="I62" s="44"/>
-      <c r="J62" s="47">
+      <c r="N62" s="239"/>
+      <c r="O62" s="240">
         <v>6</v>
       </c>
-      <c r="K62" s="49">
-        <v>5</v>
-      </c>
-      <c r="L62" s="47"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="45">
-        <v>7</v>
-      </c>
-      <c r="O62" s="44">
-        <v>5</v>
-      </c>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="50">
+      <c r="P62" s="239"/>
+      <c r="Q62" s="241"/>
+      <c r="R62" s="244">
         <v>6</v>
       </c>
       <c r="S62" s="130">
         <f>SUM(C63:R63)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9754,7 +9751,7 @@
       <c r="W62" s="47"/>
       <c r="X62" s="49"/>
       <c r="Y62" s="45"/>
-      <c r="Z62" s="123"/>
+      <c r="Z62" s="48"/>
       <c r="AA62" s="47"/>
       <c r="AB62" s="130">
         <f>SUM(T63:AA63)</f>
@@ -9776,11 +9773,11 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL62" s="130">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9796,12 +9793,12 @@
       <c r="D63" s="135"/>
       <c r="E63" s="133">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E62=$E$6+$F$6,$O$103,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F62=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="135"/>
       <c r="G63" s="133">
         <f>(IF($G62&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G62=$G$6+$H$6,$O$103,0),0),0)+IF($H62&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H62=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" s="135"/>
       <c r="I63" s="136">
@@ -9816,12 +9813,12 @@
       <c r="L63" s="135"/>
       <c r="M63" s="133">
         <f>(IF($M62&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M62=$M$6+$N$6,$O$103,0),0),0)+IF($N62&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N62=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63" s="135"/>
       <c r="O63" s="136">
         <f>(IF($O62&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O62=$O$6+$P$6,$O$103,0),0),0)+IF($P62&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P62=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="135"/>
       <c r="Q63" s="136">
@@ -10103,61 +10100,61 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="187">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B66" s="213" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C66" s="199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="200"/>
-      <c r="E66" s="201">
-        <v>4</v>
-      </c>
-      <c r="F66" s="200"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="200">
+        <v>7</v>
+      </c>
       <c r="G66" s="202">
         <v>6</v>
       </c>
       <c r="H66" s="203"/>
       <c r="I66" s="201"/>
       <c r="J66" s="203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K66" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L66" s="203"/>
       <c r="M66" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N66" s="200"/>
       <c r="O66" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P66" s="200"/>
       <c r="Q66" s="202"/>
       <c r="R66" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S66" s="207">
         <f>SUM(C67:R67)</f>
-        <v>3</v>
-      </c>
-      <c r="T66" s="199"/>
+        <v>6</v>
+      </c>
+      <c r="T66" s="249"/>
       <c r="U66" s="203"/>
       <c r="V66" s="201"/>
       <c r="W66" s="203"/>
       <c r="X66" s="204"/>
       <c r="Y66" s="200"/>
-      <c r="Z66" s="210"/>
+      <c r="Z66" s="202"/>
       <c r="AA66" s="203"/>
       <c r="AB66" s="207">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
       <c r="AC66" s="202"/>
-      <c r="AD66" s="304"/>
+      <c r="AD66" s="203"/>
       <c r="AE66" s="204"/>
       <c r="AF66" s="203"/>
       <c r="AG66" s="207">
@@ -10176,7 +10173,7 @@
       </c>
       <c r="AL66" s="207">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10192,12 +10189,12 @@
       <c r="D67" s="135"/>
       <c r="E67" s="133">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E66=$E$6+$F$6,$O$103,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F66=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="135"/>
       <c r="G67" s="133">
         <f>(IF($G66&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G66=$G$6+$H$6,$O$103,0),0),0)+IF($H66&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H66=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="135"/>
       <c r="I67" s="136">
@@ -10217,7 +10214,7 @@
       <c r="N67" s="135"/>
       <c r="O67" s="136">
         <f>(IF($O66&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O66=$O$6+$P$6,$O$103,0),0),0)+IF($P66&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P66=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" s="135"/>
       <c r="Q67" s="136">
@@ -10499,46 +10496,46 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="292">
+        <v>82</v>
+      </c>
+      <c r="C70" s="46">
+        <v>6</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="44">
+        <v>6</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="48">
+        <v>6</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="47">
+        <v>7</v>
+      </c>
+      <c r="K70" s="49">
         <v>5</v>
       </c>
-      <c r="D70" s="293"/>
-      <c r="E70" s="294">
+      <c r="L70" s="47"/>
+      <c r="M70" s="44">
+        <v>7</v>
+      </c>
+      <c r="N70" s="45"/>
+      <c r="O70" s="44">
         <v>6</v>
       </c>
-      <c r="F70" s="293"/>
-      <c r="G70" s="295">
-        <v>5</v>
-      </c>
-      <c r="H70" s="296"/>
-      <c r="I70" s="294"/>
-      <c r="J70" s="296">
-        <v>6</v>
-      </c>
-      <c r="K70" s="297">
-        <v>6</v>
-      </c>
-      <c r="L70" s="296"/>
-      <c r="M70" s="294">
-        <v>7</v>
-      </c>
-      <c r="N70" s="293"/>
-      <c r="O70" s="294">
-        <v>6</v>
-      </c>
-      <c r="P70" s="293"/>
-      <c r="Q70" s="295"/>
-      <c r="R70" s="298">
+      <c r="P70" s="45"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="50">
         <v>6</v>
       </c>
       <c r="S70" s="130">
         <f>SUM(C71:R71)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10572,7 +10569,7 @@
       </c>
       <c r="AL70" s="130">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10588,12 +10585,12 @@
       <c r="D71" s="135"/>
       <c r="E71" s="133">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E70=$E$6+$F$6,$O$103,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F70=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="135"/>
       <c r="G71" s="133">
         <f>(IF($G70&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G70=$G$6+$H$6,$O$103,0),0),0)+IF($H70&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H70=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="135"/>
       <c r="I71" s="136">
@@ -10613,7 +10610,7 @@
       <c r="N71" s="135"/>
       <c r="O71" s="136">
         <f>(IF($O70&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O70=$O$6+$P$6,$O$103,0),0),0)+IF($P70&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P70=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="135"/>
       <c r="Q71" s="136">
@@ -10895,13 +10892,13 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="187">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B74" s="213" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C74" s="199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="200"/>
       <c r="E74" s="201">
@@ -10914,18 +10911,18 @@
       <c r="H74" s="203"/>
       <c r="I74" s="201"/>
       <c r="J74" s="203">
+        <v>6</v>
+      </c>
+      <c r="K74" s="204">
         <v>7</v>
-      </c>
-      <c r="K74" s="204">
-        <v>5</v>
       </c>
       <c r="L74" s="203"/>
       <c r="M74" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N74" s="200"/>
       <c r="O74" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P74" s="200"/>
       <c r="Q74" s="202"/>
@@ -10934,7 +10931,7 @@
       </c>
       <c r="S74" s="207">
         <f>SUM(C75:R75)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T74" s="199"/>
       <c r="U74" s="203"/>
@@ -10968,7 +10965,7 @@
       </c>
       <c r="AL74" s="207">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10984,12 +10981,12 @@
       <c r="D75" s="135"/>
       <c r="E75" s="133">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E74=$E$6+$F$6,$O$103,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F74=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="135"/>
       <c r="G75" s="133">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G74=$G$6+$H$6,$O$103,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H74=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="135"/>
       <c r="I75" s="136">
@@ -11009,7 +11006,7 @@
       <c r="N75" s="135"/>
       <c r="O75" s="136">
         <f>(IF($O74&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O74=$O$6+$P$6,$O$103,0),0),0)+IF($P74&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P74=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="135"/>
       <c r="Q75" s="136">
@@ -11291,10 +11288,10 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C78" s="46">
         <v>5</v>
@@ -11304,22 +11301,22 @@
         <v>6</v>
       </c>
       <c r="F78" s="45"/>
-      <c r="G78" s="48">
-        <v>6</v>
-      </c>
-      <c r="H78" s="47"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="47">
+        <v>7</v>
+      </c>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
         <v>6</v>
       </c>
       <c r="K78" s="49">
+        <v>5</v>
+      </c>
+      <c r="L78" s="47"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="45">
         <v>7</v>
       </c>
-      <c r="L78" s="47"/>
-      <c r="M78" s="44">
-        <v>6</v>
-      </c>
-      <c r="N78" s="45"/>
       <c r="O78" s="44">
         <v>5</v>
       </c>
@@ -11330,7 +11327,7 @@
       </c>
       <c r="S78" s="130">
         <f>SUM(C79:R79)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11338,7 +11335,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="48"/>
+      <c r="Z78" s="123"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="130">
         <f>SUM(T79:AA79)</f>
@@ -11364,7 +11361,7 @@
       </c>
       <c r="AL78" s="130">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11380,12 +11377,12 @@
       <c r="D79" s="135"/>
       <c r="E79" s="133">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E78=$E$6+$F$6,$O$103,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F78=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="135"/>
       <c r="G79" s="133">
         <f>(IF($G78&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G78=$G$6+$H$6,$O$103,0),0),0)+IF($H78&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H78=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="135"/>
       <c r="I79" s="136">
@@ -11400,12 +11397,12 @@
       <c r="L79" s="135"/>
       <c r="M79" s="133">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M78=$M$6+$N$6,$O$103,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N78=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" s="135"/>
       <c r="O79" s="136">
         <f>(IF($O78&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O78=$O$6+$P$6,$O$103,0),0),0)+IF($P78&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P78=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="135"/>
       <c r="Q79" s="136">
@@ -11687,7 +11684,7 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="187">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B82" s="213" t="s">
         <v>75</v>
@@ -11726,7 +11723,7 @@
       </c>
       <c r="S82" s="207">
         <f>SUM(C83:R83)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T82" s="199"/>
       <c r="U82" s="203"/>
@@ -11760,7 +11757,7 @@
       </c>
       <c r="AL82" s="207">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11776,12 +11773,12 @@
       <c r="D83" s="135"/>
       <c r="E83" s="133">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E82=$E$6+$F$6,$O$103,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F82=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="135"/>
       <c r="G83" s="133">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G82=$G$6+$H$6,$O$103,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H82=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="135"/>
       <c r="I83" s="136">
@@ -11801,7 +11798,7 @@
       <c r="N83" s="135"/>
       <c r="O83" s="136">
         <f>(IF($O82&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O82=$O$6+$P$6,$O$103,0),0),0)+IF($P82&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P82=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" s="135"/>
       <c r="Q83" s="136">
@@ -12083,7 +12080,7 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B86" s="88" t="s">
         <v>83</v>
@@ -12122,7 +12119,7 @@
       <c r="R86" s="50"/>
       <c r="S86" s="130">
         <f>SUM(C87:R87)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12156,7 +12153,7 @@
       </c>
       <c r="AL86" s="130">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12172,12 +12169,12 @@
       <c r="D87" s="135"/>
       <c r="E87" s="133">
         <f>(IF($E86&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E86=$E$6+$F$6,$O$103,0),0),0)+IF($F86&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F86=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="135"/>
       <c r="G87" s="133">
         <f>(IF($G86&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G86=$G$6+$H$6,$O$103,0),0),0)+IF($H86&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H86=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="135"/>
       <c r="I87" s="136">
@@ -12197,7 +12194,7 @@
       <c r="N87" s="135"/>
       <c r="O87" s="136">
         <f>(IF($O86&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O86=$O$6+$P$6,$O$103,0),0),0)+IF($P86&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P86=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="135"/>
       <c r="Q87" s="136">
@@ -12479,7 +12476,7 @@
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="187">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B90" s="213" t="s">
         <v>76</v>
@@ -12518,7 +12515,7 @@
       </c>
       <c r="S90" s="207">
         <f>SUM(C91:R91)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T90" s="199"/>
       <c r="U90" s="203"/>
@@ -12552,7 +12549,7 @@
       </c>
       <c r="AL90" s="207">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12568,12 +12565,12 @@
       <c r="D91" s="135"/>
       <c r="E91" s="133">
         <f>(IF($E90&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E90=$E$6+$F$6,$O$103,0),0),0)+IF($F90&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F90=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="135"/>
       <c r="G91" s="133">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="135"/>
       <c r="I91" s="136">
@@ -12593,7 +12590,7 @@
       <c r="N91" s="135"/>
       <c r="O91" s="136">
         <f>(IF($O90&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O90=$O$6+$P$6,$O$103,0),0),0)+IF($P90&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P90=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="135"/>
       <c r="Q91" s="136">
@@ -12884,15 +12881,15 @@
         <v>7</v>
       </c>
       <c r="D94" s="230"/>
-      <c r="E94" s="299">
+      <c r="E94" s="245">
         <v>6</v>
       </c>
       <c r="F94" s="230"/>
-      <c r="G94" s="300"/>
+      <c r="G94" s="246"/>
       <c r="H94" s="233">
         <v>6</v>
       </c>
-      <c r="I94" s="299"/>
+      <c r="I94" s="245"/>
       <c r="J94" s="233">
         <v>7</v>
       </c>
@@ -12914,11 +12911,11 @@
       <c r="R94" s="235"/>
       <c r="S94" s="130">
         <f>SUM(C95:R95)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="301"/>
+      <c r="V94" s="247"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
       <c r="Y94" s="128"/>
@@ -12944,11 +12941,11 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL94" s="221">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12964,7 +12961,7 @@
       <c r="D95" s="135"/>
       <c r="E95" s="133">
         <f>(IF($E94&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E94=$E$6+$F$6,$O$103,0),0),0)+IF($F94&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F94=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="135"/>
       <c r="G95" s="133">
@@ -12989,7 +12986,7 @@
       <c r="N95" s="135"/>
       <c r="O95" s="136">
         <f>(IF($O94&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O94=$O$6+$P$6,$O$103,0),0),0)+IF($P94&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P94=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" s="135"/>
       <c r="Q95" s="136">
@@ -13401,12 +13398,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="238" t="s">
+      <c r="O100" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="239"/>
-      <c r="Q100" s="239"/>
-      <c r="R100" s="240"/>
+      <c r="P100" s="285"/>
+      <c r="Q100" s="285"/>
+      <c r="R100" s="286"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13415,21 +13412,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="267" t="s">
+      <c r="B101" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="268"/>
-      <c r="D101" s="268"/>
-      <c r="E101" s="268"/>
-      <c r="F101" s="268"/>
-      <c r="G101" s="268"/>
-      <c r="H101" s="268"/>
-      <c r="I101" s="268"/>
-      <c r="J101" s="268"/>
-      <c r="K101" s="268"/>
-      <c r="L101" s="268"/>
-      <c r="M101" s="268"/>
-      <c r="N101" s="269"/>
+      <c r="C101" s="273"/>
+      <c r="D101" s="273"/>
+      <c r="E101" s="273"/>
+      <c r="F101" s="273"/>
+      <c r="G101" s="273"/>
+      <c r="H101" s="273"/>
+      <c r="I101" s="273"/>
+      <c r="J101" s="273"/>
+      <c r="K101" s="273"/>
+      <c r="L101" s="273"/>
+      <c r="M101" s="273"/>
+      <c r="N101" s="274"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13442,45 +13439,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="241" t="s">
+      <c r="U101" s="287" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="242"/>
-      <c r="W101" s="242"/>
-      <c r="X101" s="242"/>
-      <c r="Y101" s="242"/>
-      <c r="Z101" s="242"/>
-      <c r="AA101" s="242"/>
-      <c r="AB101" s="242"/>
-      <c r="AC101" s="242"/>
-      <c r="AD101" s="243"/>
+      <c r="V101" s="288"/>
+      <c r="W101" s="288"/>
+      <c r="X101" s="288"/>
+      <c r="Y101" s="288"/>
+      <c r="Z101" s="288"/>
+      <c r="AA101" s="288"/>
+      <c r="AB101" s="288"/>
+      <c r="AC101" s="288"/>
+      <c r="AD101" s="289"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="244" t="s">
+      <c r="AG101" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="245"/>
-      <c r="AI101" s="245"/>
-      <c r="AJ101" s="245"/>
-      <c r="AK101" s="246"/>
+      <c r="AH101" s="291"/>
+      <c r="AI101" s="291"/>
+      <c r="AJ101" s="291"/>
+      <c r="AK101" s="292"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="274" t="s">
+      <c r="B102" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="275"/>
-      <c r="D102" s="275"/>
-      <c r="E102" s="275"/>
-      <c r="F102" s="275"/>
-      <c r="G102" s="275"/>
-      <c r="H102" s="275"/>
-      <c r="I102" s="275"/>
-      <c r="J102" s="275"/>
-      <c r="K102" s="275"/>
-      <c r="L102" s="275"/>
-      <c r="M102" s="275"/>
-      <c r="N102" s="276"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="252"/>
+      <c r="E102" s="252"/>
+      <c r="F102" s="252"/>
+      <c r="G102" s="252"/>
+      <c r="H102" s="252"/>
+      <c r="I102" s="252"/>
+      <c r="J102" s="252"/>
+      <c r="K102" s="252"/>
+      <c r="L102" s="252"/>
+      <c r="M102" s="252"/>
+      <c r="N102" s="253"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13493,49 +13490,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="272" t="s">
+      <c r="U102" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="273"/>
-      <c r="W102" s="273"/>
-      <c r="X102" s="273"/>
-      <c r="Y102" s="273"/>
-      <c r="Z102" s="273"/>
-      <c r="AA102" s="273"/>
-      <c r="AB102" s="270">
+      <c r="V102" s="278"/>
+      <c r="W102" s="278"/>
+      <c r="X102" s="278"/>
+      <c r="Y102" s="278"/>
+      <c r="Z102" s="278"/>
+      <c r="AA102" s="278"/>
+      <c r="AB102" s="275">
         <v>22</v>
       </c>
-      <c r="AC102" s="270"/>
-      <c r="AD102" s="271"/>
+      <c r="AC102" s="275"/>
+      <c r="AD102" s="276"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="286" t="s">
+      <c r="AG102" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="287"/>
-      <c r="AI102" s="287"/>
-      <c r="AJ102" s="288"/>
+      <c r="AH102" s="259"/>
+      <c r="AI102" s="259"/>
+      <c r="AJ102" s="260"/>
       <c r="AK102" s="226">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="274" t="s">
+      <c r="B103" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="275"/>
-      <c r="D103" s="275"/>
-      <c r="E103" s="275"/>
-      <c r="F103" s="275"/>
-      <c r="G103" s="275"/>
-      <c r="H103" s="275"/>
-      <c r="I103" s="275"/>
-      <c r="J103" s="275"/>
-      <c r="K103" s="275"/>
-      <c r="L103" s="275"/>
-      <c r="M103" s="275"/>
-      <c r="N103" s="276"/>
+      <c r="C103" s="252"/>
+      <c r="D103" s="252"/>
+      <c r="E103" s="252"/>
+      <c r="F103" s="252"/>
+      <c r="G103" s="252"/>
+      <c r="H103" s="252"/>
+      <c r="I103" s="252"/>
+      <c r="J103" s="252"/>
+      <c r="K103" s="252"/>
+      <c r="L103" s="252"/>
+      <c r="M103" s="252"/>
+      <c r="N103" s="253"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13548,49 +13545,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="281" t="s">
+      <c r="U103" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="282"/>
-      <c r="W103" s="282"/>
-      <c r="X103" s="282"/>
-      <c r="Y103" s="282"/>
-      <c r="Z103" s="282"/>
-      <c r="AA103" s="282"/>
-      <c r="AB103" s="283">
+      <c r="V103" s="257"/>
+      <c r="W103" s="257"/>
+      <c r="X103" s="257"/>
+      <c r="Y103" s="257"/>
+      <c r="Z103" s="257"/>
+      <c r="AA103" s="257"/>
+      <c r="AB103" s="282">
         <v>20</v>
       </c>
-      <c r="AC103" s="283"/>
-      <c r="AD103" s="284"/>
+      <c r="AC103" s="282"/>
+      <c r="AD103" s="283"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="289" t="s">
+      <c r="AG103" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="275"/>
-      <c r="AI103" s="275"/>
-      <c r="AJ103" s="276"/>
+      <c r="AH103" s="252"/>
+      <c r="AI103" s="252"/>
+      <c r="AJ103" s="253"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="260" t="s">
+      <c r="B104" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="261"/>
-      <c r="D104" s="261"/>
-      <c r="E104" s="261"/>
-      <c r="F104" s="261"/>
-      <c r="G104" s="261"/>
-      <c r="H104" s="261"/>
-      <c r="I104" s="261"/>
-      <c r="J104" s="261"/>
-      <c r="K104" s="261"/>
-      <c r="L104" s="261"/>
-      <c r="M104" s="261"/>
-      <c r="N104" s="262"/>
+      <c r="C104" s="266"/>
+      <c r="D104" s="266"/>
+      <c r="E104" s="266"/>
+      <c r="F104" s="266"/>
+      <c r="G104" s="266"/>
+      <c r="H104" s="266"/>
+      <c r="I104" s="266"/>
+      <c r="J104" s="266"/>
+      <c r="K104" s="266"/>
+      <c r="L104" s="266"/>
+      <c r="M104" s="266"/>
+      <c r="N104" s="267"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13603,51 +13600,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="277" t="s">
+      <c r="U104" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="278"/>
-      <c r="W104" s="278"/>
-      <c r="X104" s="278"/>
-      <c r="Y104" s="278"/>
-      <c r="Z104" s="278"/>
-      <c r="AA104" s="278"/>
-      <c r="AB104" s="279">
+      <c r="V104" s="255"/>
+      <c r="W104" s="255"/>
+      <c r="X104" s="255"/>
+      <c r="Y104" s="255"/>
+      <c r="Z104" s="255"/>
+      <c r="AA104" s="255"/>
+      <c r="AB104" s="280">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="279"/>
-      <c r="AD104" s="280"/>
+      <c r="AC104" s="280"/>
+      <c r="AD104" s="281"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="289" t="s">
+      <c r="AG104" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="275"/>
-      <c r="AI104" s="275"/>
-      <c r="AJ104" s="276"/>
+      <c r="AH104" s="252"/>
+      <c r="AI104" s="252"/>
+      <c r="AJ104" s="253"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="281" t="s">
+      <c r="AG105" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="282"/>
-      <c r="AI105" s="282"/>
-      <c r="AJ105" s="282"/>
+      <c r="AH105" s="257"/>
+      <c r="AI105" s="257"/>
+      <c r="AJ105" s="257"/>
       <c r="AK105" s="228">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="285" t="s">
+      <c r="AG106" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="278"/>
-      <c r="AI106" s="278"/>
-      <c r="AJ106" s="278"/>
+      <c r="AH106" s="255"/>
+      <c r="AI106" s="255"/>
+      <c r="AJ106" s="255"/>
       <c r="AK106" s="227">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13659,12 +13656,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13681,22 +13688,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14328,7 +14325,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14506,7 +14503,9 @@
       <c r="C6" s="85">
         <v>1</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="85">
+        <v>4</v>
+      </c>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
       <c r="G6" s="85"/>
@@ -14514,7 +14513,7 @@
       <c r="I6" s="85"/>
       <c r="J6" s="77">
         <f>IF(C6&gt;C7,1,0)+IF(D6&gt;D7,1,0)+IF(E6&gt;E7,1,0)+IF(F6&gt;F7,1,0)+IF(G6&gt;G7,1,0)+IF(H6&gt;H7,1,0)+IF(I6&gt;I7,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="13"/>
@@ -14556,7 +14555,9 @@
       <c r="C7" s="85">
         <v>4</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="85">
+        <v>1</v>
+      </c>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="85"/>
@@ -14695,7 +14696,9 @@
       <c r="C10" s="85">
         <v>4</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="85">
+        <v>4</v>
+      </c>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
@@ -14703,7 +14706,7 @@
       <c r="I10" s="86"/>
       <c r="J10" s="77">
         <f>IF(C10&gt;C11,1,0)+IF(D10&gt;D11,1,0)+IF(E10&gt;E11,1,0)+IF(F10&gt;F11,1,0)+IF(G10&gt;G11,1,0)+IF(H10&gt;H11,1,0)+IF(I10&gt;I11,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -14748,7 +14751,9 @@
       <c r="C11" s="85">
         <v>2</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="85">
+        <v>3</v>
+      </c>
       <c r="E11" s="85"/>
       <c r="F11" s="85"/>
       <c r="G11" s="86"/>
@@ -15003,7 +15008,9 @@
       <c r="C17" s="85">
         <v>4</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="86">
+        <v>2</v>
+      </c>
       <c r="E17" s="85"/>
       <c r="F17" s="86"/>
       <c r="G17" s="85"/>
@@ -15047,7 +15054,9 @@
       <c r="C18" s="85">
         <v>0</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="86">
+        <v>3</v>
+      </c>
       <c r="E18" s="85"/>
       <c r="F18" s="86"/>
       <c r="G18" s="85"/>
@@ -15055,7 +15064,7 @@
       <c r="I18" s="85"/>
       <c r="J18" s="77">
         <f>IF(C18&gt;C17,1,0)+IF(D18&gt;D17,1,0)+IF(E18&gt;E17,1,0)+IF(F18&gt;F17,1,0)+IF(G18&gt;G17,1,0)+IF(H18&gt;H17,1,0)+IF(I18&gt;I17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
@@ -15318,7 +15327,9 @@
       <c r="C24" s="85">
         <v>2</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="85">
+        <v>2</v>
+      </c>
       <c r="E24" s="85"/>
       <c r="F24" s="85"/>
       <c r="G24" s="85"/>
@@ -15326,7 +15337,7 @@
       <c r="I24" s="86"/>
       <c r="J24" s="77">
         <f>IF(C24&gt;C25,1,0)+IF(D24&gt;D25,1,0)+IF(E24&gt;E25,1,0)+IF(F24&gt;F25,1,0)+IF(G24&gt;G25,1,0)+IF(H24&gt;H25,1,0)+IF(I24&gt;I25,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -15369,7 +15380,9 @@
       <c r="C25" s="85">
         <v>3</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="85">
+        <v>1</v>
+      </c>
       <c r="E25" s="85"/>
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1954,7 +1954,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2363,9 +2363,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2404,9 +2401,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2453,27 +2447,6 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2486,12 +2459,117 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2501,18 +2579,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2525,130 +2618,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3872,161 +3875,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="269"/>
-      <c r="T1" s="269"/>
-      <c r="U1" s="269"/>
-      <c r="V1" s="269"/>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="269"/>
-      <c r="AG1" s="269"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="269"/>
-      <c r="AJ1" s="269"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="266"/>
+      <c r="N1" s="266"/>
+      <c r="O1" s="266"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="267"/>
+      <c r="U1" s="267"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
+      <c r="X1" s="267"/>
+      <c r="Y1" s="267"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="267"/>
+      <c r="AB1" s="267"/>
+      <c r="AC1" s="267"/>
+      <c r="AD1" s="267"/>
+      <c r="AE1" s="267"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="267"/>
+      <c r="AH1" s="267"/>
+      <c r="AI1" s="267"/>
+      <c r="AJ1" s="267"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="268" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="271" t="s">
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="269"/>
-      <c r="AA2" s="269"/>
-      <c r="AB2" s="269"/>
-      <c r="AC2" s="269"/>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="269"/>
-      <c r="AG2" s="269"/>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
-      <c r="AJ2" s="269"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="267"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="267"/>
+      <c r="W2" s="267"/>
+      <c r="X2" s="267"/>
+      <c r="Y2" s="267"/>
+      <c r="Z2" s="267"/>
+      <c r="AA2" s="267"/>
+      <c r="AB2" s="267"/>
+      <c r="AC2" s="267"/>
+      <c r="AD2" s="267"/>
+      <c r="AE2" s="267"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="267"/>
+      <c r="AH2" s="267"/>
+      <c r="AI2" s="267"/>
+      <c r="AJ2" s="267"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="268"/>
-      <c r="O3" s="268"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="269"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
-      <c r="V3" s="269"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="269"/>
-      <c r="AA3" s="269"/>
-      <c r="AB3" s="269"/>
-      <c r="AC3" s="269"/>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="269"/>
-      <c r="AF3" s="269"/>
-      <c r="AG3" s="269"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="269"/>
-      <c r="AJ3" s="269"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="266"/>
+      <c r="P3" s="267"/>
+      <c r="Q3" s="267"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="267"/>
+      <c r="W3" s="267"/>
+      <c r="X3" s="267"/>
+      <c r="Y3" s="267"/>
+      <c r="Z3" s="267"/>
+      <c r="AA3" s="267"/>
+      <c r="AB3" s="267"/>
+      <c r="AC3" s="267"/>
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="267"/>
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="267"/>
+      <c r="AH3" s="267"/>
+      <c r="AI3" s="267"/>
+      <c r="AJ3" s="267"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="295"/>
-      <c r="T4" s="293" t="s">
+      <c r="C4" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="251"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="252"/>
+      <c r="T4" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="294"/>
-      <c r="AB4" s="295"/>
-      <c r="AC4" s="293" t="s">
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="251"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="252"/>
+      <c r="AC4" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="294"/>
-      <c r="AE4" s="294"/>
-      <c r="AF4" s="294"/>
-      <c r="AG4" s="302"/>
-      <c r="AH4" s="293" t="s">
+      <c r="AD4" s="251"/>
+      <c r="AE4" s="251"/>
+      <c r="AF4" s="251"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="294"/>
-      <c r="AJ4" s="295"/>
+      <c r="AI4" s="251"/>
+      <c r="AJ4" s="252"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
@@ -4034,55 +4037,55 @@
       <c r="C5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="300" t="s">
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="264"/>
-      <c r="S5" s="296" t="s">
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="259"/>
+      <c r="S5" s="253" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="264"/>
-      <c r="X5" s="300" t="s">
+      <c r="U5" s="258"/>
+      <c r="V5" s="258"/>
+      <c r="W5" s="259"/>
+      <c r="X5" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="264"/>
-      <c r="AB5" s="296" t="s">
+      <c r="Y5" s="258"/>
+      <c r="Z5" s="258"/>
+      <c r="AA5" s="259"/>
+      <c r="AB5" s="253" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="301" t="s">
+      <c r="AC5" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="264"/>
-      <c r="AE5" s="300" t="s">
+      <c r="AD5" s="259"/>
+      <c r="AE5" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="264"/>
-      <c r="AG5" s="296" t="s">
+      <c r="AF5" s="259"/>
+      <c r="AG5" s="253" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="296" t="s">
+      <c r="AJ5" s="253" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4096,7 +4099,7 @@
       </c>
       <c r="D6" s="108">
         <f>Résultats!$J$4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="173">
         <f>Résultats!$J$6</f>
@@ -4116,7 +4119,7 @@
       </c>
       <c r="I6" s="173">
         <f>Résultats!$J$13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="108">
         <f>Résultats!$J$14</f>
@@ -4132,7 +4135,7 @@
       </c>
       <c r="M6" s="173">
         <f>Résultats!$J$20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="109">
         <f>Résultats!$J$21</f>
@@ -4152,9 +4155,9 @@
       </c>
       <c r="R6" s="108">
         <f>Résultats!$J$28</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="297"/>
+        <v>2</v>
+      </c>
+      <c r="S6" s="254"/>
       <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4187,7 +4190,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="297"/>
+      <c r="AB6" s="254"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4204,8 +4207,8 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="297"/>
-      <c r="AH6" s="214">
+      <c r="AG6" s="254"/>
+      <c r="AH6" s="213">
         <f>Résultats!$AH$15</f>
         <v>0</v>
       </c>
@@ -4213,7 +4216,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="297"/>
+      <c r="AJ6" s="254"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,7 +4242,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="297"/>
+      <c r="S7" s="254"/>
       <c r="T7" s="171"/>
       <c r="U7" s="117"/>
       <c r="V7" s="174"/>
@@ -4248,15 +4251,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="297"/>
+      <c r="AB7" s="254"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="297"/>
-      <c r="AH7" s="214"/>
+      <c r="AG7" s="254"/>
+      <c r="AH7" s="213"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="297"/>
+      <c r="AJ7" s="254"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4326,7 +4329,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="297"/>
+      <c r="S8" s="254"/>
       <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4359,7 +4362,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="297"/>
+      <c r="AB8" s="254"/>
       <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4376,16 +4379,16 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="297"/>
-      <c r="AH8" s="215" t="str">
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="214" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI8" s="216" t="str">
+      <c r="AI8" s="215" t="str">
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="297"/>
+      <c r="AJ8" s="254"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4459,7 +4462,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="299"/>
+      <c r="S9" s="256"/>
       <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4492,7 +4495,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="298"/>
+      <c r="AB9" s="255"/>
       <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4509,16 +4512,16 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="298"/>
-      <c r="AH9" s="217" t="str">
+      <c r="AG9" s="255"/>
+      <c r="AH9" s="216" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI9" s="218" t="str">
+      <c r="AI9" s="217" t="str">
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="299"/>
+      <c r="AJ9" s="256"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4531,15 +4534,15 @@
         <f>RANK(AL10,$AL$10:$AL$97,)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="213" t="s">
-        <v>72</v>
+      <c r="B10" s="212" t="s">
+        <v>65</v>
       </c>
       <c r="C10" s="188">
         <v>4</v>
       </c>
       <c r="D10" s="189"/>
       <c r="E10" s="192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="189"/>
       <c r="G10" s="193">
@@ -4547,35 +4550,35 @@
       </c>
       <c r="H10" s="190"/>
       <c r="I10" s="192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="190"/>
       <c r="K10" s="191">
+        <v>7</v>
+      </c>
+      <c r="L10" s="190"/>
+      <c r="M10" s="192">
         <v>5</v>
       </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="189">
-        <v>7</v>
-      </c>
+      <c r="N10" s="189"/>
       <c r="O10" s="192">
+        <v>4</v>
+      </c>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194">
         <v>6</v>
       </c>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="193">
-        <v>7</v>
-      </c>
-      <c r="R10" s="194"/>
-      <c r="S10" s="198">
+      <c r="S10" s="195">
         <f>SUM(C11:R11)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T10" s="188"/>
       <c r="U10" s="190"/>
       <c r="V10" s="192"/>
       <c r="W10" s="190"/>
       <c r="X10" s="191"/>
-      <c r="Y10" s="189"/>
+      <c r="Y10" s="297"/>
       <c r="Z10" s="193"/>
       <c r="AA10" s="194"/>
       <c r="AB10" s="195">
@@ -4602,7 +4605,7 @@
       </c>
       <c r="AL10" s="195">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4628,7 +4631,7 @@
       <c r="H11" s="135"/>
       <c r="I11" s="136">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I10=$I$6+$J$6,$O$103,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J10=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="137"/>
       <c r="K11" s="138">
@@ -4638,7 +4641,7 @@
       <c r="L11" s="135"/>
       <c r="M11" s="133">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="135"/>
       <c r="O11" s="136">
@@ -4648,7 +4651,7 @@
       <c r="P11" s="135"/>
       <c r="Q11" s="136">
         <f>(IF($Q10&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q10=$Q$6+$R$6,$O$103,0),0),0)+IF($R10&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R10=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" s="139"/>
       <c r="S11" s="129"/>
@@ -4925,17 +4928,17 @@
     <row r="14" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122">
         <f>RANK(AL14,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
@@ -4947,24 +4950,24 @@
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="44">
         <v>5</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="44">
-        <v>4</v>
-      </c>
-      <c r="P14" s="45"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45">
+        <v>7</v>
+      </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S14" s="130">
         <f>SUM(C15:R15)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -4979,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="47"/>
+      <c r="AD14" s="234"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="130">
@@ -4994,11 +4997,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="130">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5024,7 +5027,7 @@
       <c r="H15" s="151"/>
       <c r="I15" s="127">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I14=$I$6+$J$6,$O$103,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J14=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="152"/>
       <c r="K15" s="153">
@@ -5034,7 +5037,7 @@
       <c r="L15" s="151"/>
       <c r="M15" s="133">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="151"/>
       <c r="O15" s="127">
@@ -5044,7 +5047,7 @@
       <c r="P15" s="151"/>
       <c r="Q15" s="127">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" s="154"/>
       <c r="S15" s="155"/>
@@ -5067,7 +5070,7 @@
       <c r="AJ15" s="129"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" s="129"/>
     </row>
@@ -5324,46 +5327,46 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="187">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="213" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="B18" s="212" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="200"/>
       <c r="E18" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="200"/>
       <c r="G18" s="202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="203"/>
       <c r="I18" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="203"/>
       <c r="K18" s="204">
         <v>5</v>
       </c>
       <c r="L18" s="203"/>
-      <c r="M18" s="201">
+      <c r="M18" s="201"/>
+      <c r="N18" s="200">
+        <v>7</v>
+      </c>
+      <c r="O18" s="201">
         <v>6</v>
-      </c>
-      <c r="N18" s="200"/>
-      <c r="O18" s="201">
-        <v>5</v>
       </c>
       <c r="P18" s="200"/>
       <c r="Q18" s="202">
         <v>7</v>
       </c>
       <c r="R18" s="205"/>
-      <c r="S18" s="206">
+      <c r="S18" s="293">
         <f>SUM(C19:R19)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T18" s="199"/>
       <c r="U18" s="203"/>
@@ -5371,9 +5374,9 @@
       <c r="W18" s="203"/>
       <c r="X18" s="204"/>
       <c r="Y18" s="200"/>
-      <c r="Z18" s="210"/>
+      <c r="Z18" s="202"/>
       <c r="AA18" s="205"/>
-      <c r="AB18" s="207">
+      <c r="AB18" s="206">
         <f>SUM(T19:AA19)</f>
         <v>0</v>
       </c>
@@ -5381,23 +5384,23 @@
       <c r="AD18" s="203"/>
       <c r="AE18" s="204"/>
       <c r="AF18" s="203"/>
-      <c r="AG18" s="207">
+      <c r="AG18" s="206">
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="248"/>
-      <c r="AI18" s="208"/>
-      <c r="AJ18" s="207">
+      <c r="AH18" s="239"/>
+      <c r="AI18" s="207"/>
+      <c r="AJ18" s="206">
         <f>AH19</f>
         <v>0</v>
       </c>
-      <c r="AK18" s="209">
+      <c r="AK18" s="208">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>2</v>
-      </c>
-      <c r="AL18" s="207">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="206">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5423,7 +5426,7 @@
       <c r="H19" s="151"/>
       <c r="I19" s="127">
         <f>(IF($I18&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I18=$I$6+$J$6,$O$103,0),0),0)+IF($J18&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J18=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="152"/>
       <c r="K19" s="153">
@@ -5433,7 +5436,7 @@
       <c r="L19" s="151"/>
       <c r="M19" s="127">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="151"/>
       <c r="O19" s="127">
@@ -5466,7 +5469,7 @@
       <c r="AJ19" s="155"/>
       <c r="AK19" s="163">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL19" s="129"/>
     </row>
@@ -5723,46 +5726,46 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
         <v>5</v>
       </c>
       <c r="H22" s="47"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47">
+      <c r="I22" s="44">
         <v>6</v>
       </c>
+      <c r="J22" s="47"/>
       <c r="K22" s="49">
         <v>5</v>
       </c>
       <c r="L22" s="47"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45">
+      <c r="M22" s="44">
         <v>6</v>
       </c>
+      <c r="N22" s="45"/>
       <c r="O22" s="44">
         <v>5</v>
       </c>
       <c r="P22" s="45"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q22" s="48">
+        <v>7</v>
+      </c>
+      <c r="R22" s="50"/>
       <c r="S22" s="130">
         <f>SUM(C23:R23)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5770,7 +5773,7 @@
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="48"/>
+      <c r="Z22" s="123"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="130">
         <f>SUM(T23:AA23)</f>
@@ -5784,7 +5787,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="303"/>
+      <c r="AH22" s="294"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -5792,11 +5795,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="130">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5822,7 +5825,7 @@
       <c r="H23" s="164"/>
       <c r="I23" s="133">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="165"/>
       <c r="K23" s="166">
@@ -5832,7 +5835,7 @@
       <c r="L23" s="164"/>
       <c r="M23" s="133">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="164"/>
       <c r="O23" s="133">
@@ -5865,7 +5868,7 @@
       <c r="AJ23" s="155"/>
       <c r="AK23" s="163">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" s="129"/>
     </row>
@@ -6122,21 +6125,21 @@
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="187">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>2</v>
-      </c>
-      <c r="B26" s="213" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="212" t="s">
+        <v>85</v>
       </c>
       <c r="C26" s="199">
         <v>5</v>
       </c>
       <c r="D26" s="200"/>
       <c r="E26" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" s="200"/>
       <c r="G26" s="202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="203"/>
       <c r="I26" s="201"/>
@@ -6152,16 +6155,16 @@
         <v>6</v>
       </c>
       <c r="O26" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P26" s="200"/>
-      <c r="Q26" s="202">
+      <c r="Q26" s="202"/>
+      <c r="R26" s="205">
         <v>6</v>
       </c>
-      <c r="R26" s="205"/>
-      <c r="S26" s="207">
+      <c r="S26" s="206">
         <f>SUM(C27:R27)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T26" s="199"/>
       <c r="U26" s="203"/>
@@ -6171,7 +6174,7 @@
       <c r="Y26" s="200"/>
       <c r="Z26" s="202"/>
       <c r="AA26" s="205"/>
-      <c r="AB26" s="207">
+      <c r="AB26" s="206">
         <f>SUM(T27:AA27)</f>
         <v>0</v>
       </c>
@@ -6179,23 +6182,23 @@
       <c r="AD26" s="203"/>
       <c r="AE26" s="204"/>
       <c r="AF26" s="203"/>
-      <c r="AG26" s="207">
+      <c r="AG26" s="206">
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="237"/>
+      <c r="AH26" s="235"/>
       <c r="AI26" s="197"/>
-      <c r="AJ26" s="207">
+      <c r="AJ26" s="206">
         <f>AH27</f>
         <v>0</v>
       </c>
-      <c r="AK26" s="209">
+      <c r="AK26" s="208">
         <f>MAX($AL$10:$AL$97) - AL26</f>
         <v>2</v>
       </c>
-      <c r="AL26" s="207">
+      <c r="AL26" s="206">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6241,7 +6244,7 @@
       <c r="P27" s="151"/>
       <c r="Q27" s="127">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q26=$Q$6+$R$6,$O$103,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R26=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" s="154"/>
       <c r="S27" s="155"/>
@@ -6264,7 +6267,7 @@
       <c r="AJ27" s="155"/>
       <c r="AK27" s="163">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL27" s="129"/>
     </row>
@@ -6521,7 +6524,7 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" s="88" t="s">
         <v>79</v>
@@ -6560,7 +6563,7 @@
       </c>
       <c r="S30" s="130">
         <f>SUM(C31:R31)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
@@ -6594,7 +6597,7 @@
       </c>
       <c r="AL30" s="130">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6640,7 +6643,7 @@
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
         <f>(IF($Q30&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q30=$Q$6+$R$6,$O$103,0),0),0)+IF($R30&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R30=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" s="84"/>
       <c r="S31" s="129"/>
@@ -6663,7 +6666,7 @@
       <c r="AJ31" s="129"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL31" s="129"/>
     </row>
@@ -6920,80 +6923,80 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="187">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
-        <v>2</v>
-      </c>
-      <c r="B34" s="213" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="212" t="s">
+        <v>74</v>
       </c>
       <c r="C34" s="199">
         <v>5</v>
       </c>
       <c r="D34" s="200"/>
       <c r="E34" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="200"/>
       <c r="G34" s="202">
         <v>6</v>
       </c>
       <c r="H34" s="203"/>
-      <c r="I34" s="201">
+      <c r="I34" s="201"/>
+      <c r="J34" s="203">
+        <v>7</v>
+      </c>
+      <c r="K34" s="204">
+        <v>5</v>
+      </c>
+      <c r="L34" s="203"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="200">
         <v>6</v>
       </c>
-      <c r="J34" s="203"/>
-      <c r="K34" s="204">
-        <v>4</v>
-      </c>
-      <c r="L34" s="203"/>
-      <c r="M34" s="201">
-        <v>5</v>
-      </c>
-      <c r="N34" s="200"/>
-      <c r="O34" s="201"/>
-      <c r="P34" s="200">
+      <c r="O34" s="201">
         <v>7</v>
       </c>
+      <c r="P34" s="200"/>
       <c r="Q34" s="202"/>
       <c r="R34" s="205">
-        <v>7</v>
-      </c>
-      <c r="S34" s="207">
+        <v>6</v>
+      </c>
+      <c r="S34" s="206">
         <f>SUM(C35:R35)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T34" s="199"/>
       <c r="U34" s="203"/>
       <c r="V34" s="201"/>
       <c r="W34" s="203"/>
       <c r="X34" s="204"/>
-      <c r="Y34" s="220"/>
+      <c r="Y34" s="200"/>
       <c r="Z34" s="202"/>
       <c r="AA34" s="203"/>
-      <c r="AB34" s="207">
+      <c r="AB34" s="206">
         <f>SUM(T35:AA35)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="202"/>
-      <c r="AD34" s="250"/>
+      <c r="AD34" s="203"/>
       <c r="AE34" s="204"/>
       <c r="AF34" s="203"/>
-      <c r="AG34" s="207">
+      <c r="AG34" s="206">
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="211"/>
+      <c r="AH34" s="210"/>
       <c r="AI34" s="197"/>
-      <c r="AJ34" s="207">
+      <c r="AJ34" s="206">
         <f>AH35</f>
         <v>0</v>
       </c>
-      <c r="AK34" s="209">
+      <c r="AK34" s="208">
         <f>MAX($AL$10:$AL$97) - AL34</f>
         <v>2</v>
       </c>
-      <c r="AL34" s="207">
+      <c r="AL34" s="206">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7019,7 +7022,7 @@
       <c r="H35" s="80"/>
       <c r="I35" s="81">
         <f>(IF($I34&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I34=$I$6+$J$6,$O$103,0),0),0)+IF($J34&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J34=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="82"/>
       <c r="K35" s="83">
@@ -7029,7 +7032,7 @@
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7039,7 +7042,7 @@
       <c r="P35" s="80"/>
       <c r="Q35" s="81">
         <f>(IF($Q34&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q34=$Q$6+$R$6,$O$103,0),0),0)+IF($R34&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R34=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" s="84"/>
       <c r="S35" s="129"/>
@@ -7062,7 +7065,7 @@
       <c r="AJ35" s="129"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL35" s="129"/>
     </row>
@@ -7319,43 +7322,43 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C38" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="44">
-        <v>5</v>
-      </c>
-      <c r="F38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45">
+        <v>7</v>
+      </c>
       <c r="G38" s="48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="49">
         <v>6</v>
       </c>
       <c r="L38" s="47"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45">
+      <c r="M38" s="44">
+        <v>6</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="44">
         <v>7</v>
       </c>
-      <c r="O38" s="44">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="50">
         <v>6</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="48">
-        <v>7</v>
-      </c>
-      <c r="R38" s="50"/>
       <c r="S38" s="130">
         <f>SUM(C39:R39)</f>
         <v>8</v>
@@ -7365,8 +7368,8 @@
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
       <c r="X38" s="49"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="123"/>
+      <c r="Y38" s="128"/>
+      <c r="Z38" s="48"/>
       <c r="AA38" s="47"/>
       <c r="AB38" s="130">
         <f>SUM(T39:AA39)</f>
@@ -7388,7 +7391,7 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL38" s="130">
         <f>$S38+$AB38+$AG38+$AJ38</f>
@@ -7428,7 +7431,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -7438,7 +7441,7 @@
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
         <f>(IF($Q38&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q38=$Q$6+$R$6,$O$103,0),0),0)+IF($R38&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R38=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" s="84"/>
       <c r="S39" s="129"/>
@@ -7461,7 +7464,7 @@
       <c r="AJ39" s="129"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL39" s="129"/>
     </row>
@@ -7718,17 +7721,17 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="187">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>2</v>
-      </c>
-      <c r="B42" s="213" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="B42" s="212" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="200"/>
       <c r="E42" s="201">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="200"/>
       <c r="G42" s="202">
@@ -7737,25 +7740,25 @@
       <c r="H42" s="203"/>
       <c r="I42" s="201"/>
       <c r="J42" s="203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" s="204">
+        <v>6</v>
+      </c>
+      <c r="L42" s="203"/>
+      <c r="M42" s="201">
         <v>5</v>
       </c>
-      <c r="L42" s="203"/>
-      <c r="M42" s="201"/>
-      <c r="N42" s="200">
+      <c r="N42" s="200"/>
+      <c r="O42" s="201">
         <v>6</v>
-      </c>
-      <c r="O42" s="201">
-        <v>7</v>
       </c>
       <c r="P42" s="200"/>
       <c r="Q42" s="202"/>
       <c r="R42" s="205">
         <v>6</v>
       </c>
-      <c r="S42" s="207">
+      <c r="S42" s="206">
         <f>SUM(C43:R43)</f>
         <v>8</v>
       </c>
@@ -7765,31 +7768,31 @@
       <c r="W42" s="203"/>
       <c r="X42" s="204"/>
       <c r="Y42" s="200"/>
-      <c r="Z42" s="202"/>
+      <c r="Z42" s="209"/>
       <c r="AA42" s="203"/>
-      <c r="AB42" s="207">
+      <c r="AB42" s="206">
         <f>SUM(T43:AA43)</f>
         <v>0</v>
       </c>
       <c r="AC42" s="202"/>
-      <c r="AD42" s="203"/>
+      <c r="AD42" s="240"/>
       <c r="AE42" s="204"/>
       <c r="AF42" s="203"/>
-      <c r="AG42" s="207">
+      <c r="AG42" s="206">
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="211"/>
+      <c r="AH42" s="210"/>
       <c r="AI42" s="197"/>
-      <c r="AJ42" s="207">
+      <c r="AJ42" s="206">
         <f>AH43</f>
         <v>0</v>
       </c>
-      <c r="AK42" s="209">
+      <c r="AK42" s="208">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>2</v>
-      </c>
-      <c r="AL42" s="207">
+        <v>3</v>
+      </c>
+      <c r="AL42" s="206">
         <f>$S42+$AB42+$AG42+$AJ42</f>
         <v>8</v>
       </c>
@@ -7827,7 +7830,7 @@
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
@@ -7837,7 +7840,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="129"/>
@@ -7860,7 +7863,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL43" s="129"/>
     </row>
@@ -8117,46 +8120,46 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="45"/>
-      <c r="E46" s="44">
-        <v>6</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="47">
+      <c r="E46" s="44"/>
+      <c r="F46" s="45">
         <v>7</v>
       </c>
+      <c r="G46" s="48">
+        <v>7</v>
+      </c>
+      <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
         <v>6</v>
       </c>
       <c r="K46" s="49">
+        <v>6</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="44">
+        <v>7</v>
+      </c>
+      <c r="N46" s="45"/>
+      <c r="O46" s="44">
         <v>5</v>
       </c>
-      <c r="L46" s="47"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45">
+      <c r="P46" s="45"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="50">
         <v>6</v>
       </c>
-      <c r="O46" s="44">
-        <v>6</v>
-      </c>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="48">
-        <v>6</v>
-      </c>
-      <c r="R46" s="50"/>
       <c r="S46" s="130">
         <f>SUM(C47:R47)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -8186,11 +8189,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL46" s="130">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8211,7 +8214,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="81">
         <f>(IF($G46&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G46=$G$6+$H$6,$O$103,0),0),0)+IF($H46&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H46=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="80"/>
       <c r="I47" s="81">
@@ -8226,7 +8229,7 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -8236,7 +8239,7 @@
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
         <f>(IF($Q46&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q46=$Q$6+$R$6,$O$103,0),0),0)+IF($R46&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R46=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="84"/>
       <c r="S47" s="129"/>
@@ -8259,7 +8262,7 @@
       <c r="AJ47" s="129"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL47" s="129"/>
     </row>
@@ -8516,56 +8519,56 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="187">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B50" s="213" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="199">
+        <v>8</v>
+      </c>
+      <c r="B50" s="212" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="298">
         <v>5</v>
       </c>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="200">
+      <c r="D50" s="299"/>
+      <c r="E50" s="300">
+        <v>6</v>
+      </c>
+      <c r="F50" s="299"/>
+      <c r="G50" s="301">
+        <v>5</v>
+      </c>
+      <c r="H50" s="302"/>
+      <c r="I50" s="300"/>
+      <c r="J50" s="302">
+        <v>6</v>
+      </c>
+      <c r="K50" s="303">
+        <v>6</v>
+      </c>
+      <c r="L50" s="302"/>
+      <c r="M50" s="300">
         <v>7</v>
       </c>
-      <c r="G50" s="202">
-        <v>4</v>
-      </c>
-      <c r="H50" s="203"/>
-      <c r="I50" s="201"/>
-      <c r="J50" s="203">
-        <v>7</v>
-      </c>
-      <c r="K50" s="204">
+      <c r="N50" s="299"/>
+      <c r="O50" s="300">
         <v>6</v>
       </c>
-      <c r="L50" s="203"/>
-      <c r="M50" s="201">
+      <c r="P50" s="299"/>
+      <c r="Q50" s="301"/>
+      <c r="R50" s="304">
         <v>6</v>
       </c>
-      <c r="N50" s="200"/>
-      <c r="O50" s="201">
-        <v>7</v>
-      </c>
-      <c r="P50" s="200"/>
-      <c r="Q50" s="202"/>
-      <c r="R50" s="205">
-        <v>6</v>
-      </c>
-      <c r="S50" s="207">
+      <c r="S50" s="206">
         <f>SUM(C51:R51)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T50" s="199"/>
       <c r="U50" s="203"/>
       <c r="V50" s="201"/>
       <c r="W50" s="203"/>
       <c r="X50" s="204"/>
-      <c r="Y50" s="220"/>
+      <c r="Y50" s="200"/>
       <c r="Z50" s="202"/>
       <c r="AA50" s="203"/>
-      <c r="AB50" s="207">
+      <c r="AB50" s="206">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
@@ -8573,23 +8576,23 @@
       <c r="AD50" s="203"/>
       <c r="AE50" s="204"/>
       <c r="AF50" s="203"/>
-      <c r="AG50" s="207">
+      <c r="AG50" s="206">
         <f>SUM(AC51:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="211"/>
+      <c r="AH50" s="210"/>
       <c r="AI50" s="197"/>
-      <c r="AJ50" s="207">
+      <c r="AJ50" s="206">
         <f>AH51</f>
         <v>0</v>
       </c>
-      <c r="AK50" s="209">
+      <c r="AK50" s="208">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>4</v>
-      </c>
-      <c r="AL50" s="207">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="206">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8625,7 +8628,7 @@
       <c r="L51" s="135"/>
       <c r="M51" s="133">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="135"/>
       <c r="O51" s="136">
@@ -8635,7 +8638,7 @@
       <c r="P51" s="135"/>
       <c r="Q51" s="136">
         <f>(IF($Q50&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q50=$Q$6+$R$6,$O$103,0),0),0)+IF($R50&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R50=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" s="139"/>
       <c r="S51" s="129"/>
@@ -8912,61 +8915,61 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C54" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="44">
-        <v>4</v>
-      </c>
-      <c r="F54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45">
+        <v>7</v>
+      </c>
       <c r="G54" s="48">
         <v>6</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K54" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N54" s="45"/>
       <c r="O54" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P54" s="45"/>
       <c r="Q54" s="48"/>
       <c r="R54" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S54" s="130">
         <f>SUM(C55:R55)</f>
-        <v>6</v>
-      </c>
-      <c r="T54" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="T54" s="296"/>
       <c r="U54" s="47"/>
       <c r="V54" s="44"/>
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="45"/>
-      <c r="Z54" s="123"/>
+      <c r="Z54" s="48"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="130">
         <f>SUM(T55:AA55)</f>
         <v>0</v>
       </c>
       <c r="AC54" s="48"/>
-      <c r="AD54" s="236"/>
+      <c r="AD54" s="47"/>
       <c r="AE54" s="49"/>
       <c r="AF54" s="47"/>
       <c r="AG54" s="130">
@@ -8981,11 +8984,11 @@
       </c>
       <c r="AK54" s="116">
         <f>MAX($AL$10:$AL$97) - AL54</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL54" s="130">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9021,7 +9024,7 @@
       <c r="L55" s="135"/>
       <c r="M55" s="133">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="135"/>
       <c r="O55" s="136">
@@ -9031,7 +9034,7 @@
       <c r="P55" s="135"/>
       <c r="Q55" s="136">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q54=$Q$6+$R$6,$O$103,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R54=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" s="139"/>
       <c r="S55" s="129"/>
@@ -9308,21 +9311,21 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="187">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B58" s="213" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="B58" s="212" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" s="200"/>
-      <c r="E58" s="201"/>
-      <c r="F58" s="200">
+      <c r="E58" s="201">
         <v>7</v>
       </c>
+      <c r="F58" s="200"/>
       <c r="G58" s="202">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H58" s="203"/>
       <c r="I58" s="201"/>
@@ -9330,24 +9333,24 @@
         <v>6</v>
       </c>
       <c r="K58" s="204">
+        <v>5</v>
+      </c>
+      <c r="L58" s="203"/>
+      <c r="M58" s="201"/>
+      <c r="N58" s="200">
         <v>6</v>
       </c>
-      <c r="L58" s="203"/>
-      <c r="M58" s="201">
+      <c r="O58" s="201">
         <v>7</v>
       </c>
-      <c r="N58" s="200"/>
-      <c r="O58" s="201">
-        <v>5</v>
-      </c>
       <c r="P58" s="200"/>
-      <c r="Q58" s="202"/>
-      <c r="R58" s="205">
+      <c r="Q58" s="202">
         <v>6</v>
       </c>
-      <c r="S58" s="207">
+      <c r="R58" s="205"/>
+      <c r="S58" s="206">
         <f>SUM(C59:R59)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T58" s="199"/>
       <c r="U58" s="203"/>
@@ -9357,7 +9360,7 @@
       <c r="Y58" s="200"/>
       <c r="Z58" s="202"/>
       <c r="AA58" s="203"/>
-      <c r="AB58" s="207">
+      <c r="AB58" s="206">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
@@ -9365,23 +9368,23 @@
       <c r="AD58" s="203"/>
       <c r="AE58" s="204"/>
       <c r="AF58" s="203"/>
-      <c r="AG58" s="207">
+      <c r="AG58" s="206">
         <f>SUM(AC59:AF59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="211"/>
+      <c r="AH58" s="295"/>
       <c r="AI58" s="197"/>
-      <c r="AJ58" s="207">
+      <c r="AJ58" s="206">
         <f>AH59</f>
         <v>0</v>
       </c>
-      <c r="AK58" s="209">
+      <c r="AK58" s="208">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>4</v>
-      </c>
-      <c r="AL58" s="207">
+        <v>3</v>
+      </c>
+      <c r="AL58" s="206">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9417,7 +9420,7 @@
       <c r="L59" s="135"/>
       <c r="M59" s="133">
         <f>(IF($M58&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M58=$M$6+$N$6,$O$103,0),0),0)+IF($N58&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N58=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" s="135"/>
       <c r="O59" s="136">
@@ -9704,46 +9707,46 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="238">
+        <v>82</v>
+      </c>
+      <c r="C62" s="46">
+        <v>6</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="44">
+        <v>6</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="48">
+        <v>6</v>
+      </c>
+      <c r="H62" s="47"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="47">
+        <v>7</v>
+      </c>
+      <c r="K62" s="49">
         <v>5</v>
       </c>
-      <c r="D62" s="239"/>
-      <c r="E62" s="240">
+      <c r="L62" s="47"/>
+      <c r="M62" s="44">
+        <v>7</v>
+      </c>
+      <c r="N62" s="45"/>
+      <c r="O62" s="44">
         <v>6</v>
       </c>
-      <c r="F62" s="239"/>
-      <c r="G62" s="241">
-        <v>5</v>
-      </c>
-      <c r="H62" s="242"/>
-      <c r="I62" s="240"/>
-      <c r="J62" s="242">
-        <v>6</v>
-      </c>
-      <c r="K62" s="243">
-        <v>6</v>
-      </c>
-      <c r="L62" s="242"/>
-      <c r="M62" s="240">
-        <v>7</v>
-      </c>
-      <c r="N62" s="239"/>
-      <c r="O62" s="240">
-        <v>6</v>
-      </c>
-      <c r="P62" s="239"/>
-      <c r="Q62" s="241"/>
-      <c r="R62" s="244">
+      <c r="P62" s="45"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="50">
         <v>6</v>
       </c>
       <c r="S62" s="130">
         <f>SUM(C63:R63)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9773,11 +9776,11 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL62" s="130">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9813,7 +9816,7 @@
       <c r="L63" s="135"/>
       <c r="M63" s="133">
         <f>(IF($M62&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M62=$M$6+$N$6,$O$103,0),0),0)+IF($N62&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N62=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="135"/>
       <c r="O63" s="136">
@@ -9823,7 +9826,7 @@
       <c r="P63" s="135"/>
       <c r="Q63" s="136">
         <f>(IF($Q62&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q62=$Q$6+$R$6,$O$103,0),0),0)+IF($R62&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R62=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" s="139"/>
       <c r="S63" s="129"/>
@@ -10100,29 +10103,29 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="187">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B66" s="213" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="B66" s="212" t="s">
+        <v>80</v>
       </c>
       <c r="C66" s="199">
         <v>5</v>
       </c>
       <c r="D66" s="200"/>
-      <c r="E66" s="201"/>
-      <c r="F66" s="200">
-        <v>7</v>
-      </c>
+      <c r="E66" s="201">
+        <v>6</v>
+      </c>
+      <c r="F66" s="200"/>
       <c r="G66" s="202">
         <v>6</v>
       </c>
       <c r="H66" s="203"/>
       <c r="I66" s="201"/>
       <c r="J66" s="203">
+        <v>6</v>
+      </c>
+      <c r="K66" s="204">
         <v>7</v>
-      </c>
-      <c r="K66" s="204">
-        <v>5</v>
       </c>
       <c r="L66" s="203"/>
       <c r="M66" s="201">
@@ -10130,18 +10133,18 @@
       </c>
       <c r="N66" s="200"/>
       <c r="O66" s="201">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P66" s="200"/>
       <c r="Q66" s="202"/>
       <c r="R66" s="205">
-        <v>7</v>
-      </c>
-      <c r="S66" s="207">
+        <v>6</v>
+      </c>
+      <c r="S66" s="206">
         <f>SUM(C67:R67)</f>
-        <v>6</v>
-      </c>
-      <c r="T66" s="249"/>
+        <v>8</v>
+      </c>
+      <c r="T66" s="199"/>
       <c r="U66" s="203"/>
       <c r="V66" s="201"/>
       <c r="W66" s="203"/>
@@ -10149,7 +10152,7 @@
       <c r="Y66" s="200"/>
       <c r="Z66" s="202"/>
       <c r="AA66" s="203"/>
-      <c r="AB66" s="207">
+      <c r="AB66" s="206">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
@@ -10157,23 +10160,23 @@
       <c r="AD66" s="203"/>
       <c r="AE66" s="204"/>
       <c r="AF66" s="203"/>
-      <c r="AG66" s="207">
+      <c r="AG66" s="206">
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="212"/>
-      <c r="AI66" s="208"/>
-      <c r="AJ66" s="207">
+      <c r="AH66" s="211"/>
+      <c r="AI66" s="207"/>
+      <c r="AJ66" s="206">
         <f>AH67</f>
         <v>0</v>
       </c>
-      <c r="AK66" s="209">
+      <c r="AK66" s="208">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>4</v>
-      </c>
-      <c r="AL66" s="207">
+        <v>3</v>
+      </c>
+      <c r="AL66" s="206">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10209,7 +10212,7 @@
       <c r="L67" s="135"/>
       <c r="M67" s="133">
         <f>(IF($M66&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M66=$M$6+$N$6,$O$103,0),0),0)+IF($N66&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N66=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="135"/>
       <c r="O67" s="136">
@@ -10219,7 +10222,7 @@
       <c r="P67" s="135"/>
       <c r="Q67" s="136">
         <f>(IF($Q66&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q66=$Q$6+$R$6,$O$103,0),0),0)+IF($R66&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R66=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67" s="139"/>
       <c r="S67" s="129"/>
@@ -10496,46 +10499,46 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="46">
         <v>6</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" s="45"/>
       <c r="G70" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H70" s="47"/>
       <c r="I70" s="44"/>
       <c r="J70" s="47">
+        <v>6</v>
+      </c>
+      <c r="K70" s="49">
+        <v>6</v>
+      </c>
+      <c r="L70" s="47"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="45">
         <v>7</v>
       </c>
-      <c r="K70" s="49">
-        <v>5</v>
-      </c>
-      <c r="L70" s="47"/>
-      <c r="M70" s="44">
-        <v>7</v>
-      </c>
-      <c r="N70" s="45"/>
       <c r="O70" s="44">
         <v>6</v>
       </c>
       <c r="P70" s="45"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q70" s="48">
+        <v>7</v>
+      </c>
+      <c r="R70" s="50"/>
       <c r="S70" s="130">
         <f>SUM(C71:R71)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10543,7 +10546,7 @@
       <c r="W70" s="47"/>
       <c r="X70" s="49"/>
       <c r="Y70" s="45"/>
-      <c r="Z70" s="48"/>
+      <c r="Z70" s="123"/>
       <c r="AA70" s="47"/>
       <c r="AB70" s="130">
         <f>SUM(T71:AA71)</f>
@@ -10565,11 +10568,11 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL70" s="130">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10605,7 +10608,7 @@
       <c r="L71" s="135"/>
       <c r="M71" s="133">
         <f>(IF($M70&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M70=$M$6+$N$6,$O$103,0),0),0)+IF($N70&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N70=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" s="135"/>
       <c r="O71" s="136">
@@ -10892,10 +10895,10 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="187">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B74" s="213" t="s">
-        <v>80</v>
+        <v>8</v>
+      </c>
+      <c r="B74" s="212" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="199">
         <v>5</v>
@@ -10914,24 +10917,24 @@
         <v>6</v>
       </c>
       <c r="K74" s="204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L74" s="203"/>
       <c r="M74" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N74" s="200"/>
       <c r="O74" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P74" s="200"/>
       <c r="Q74" s="202"/>
       <c r="R74" s="205">
-        <v>6</v>
-      </c>
-      <c r="S74" s="207">
+        <v>7</v>
+      </c>
+      <c r="S74" s="206">
         <f>SUM(C75:R75)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T74" s="199"/>
       <c r="U74" s="203"/>
@@ -10939,9 +10942,9 @@
       <c r="W74" s="203"/>
       <c r="X74" s="204"/>
       <c r="Y74" s="200"/>
-      <c r="Z74" s="202"/>
+      <c r="Z74" s="209"/>
       <c r="AA74" s="203"/>
-      <c r="AB74" s="207">
+      <c r="AB74" s="206">
         <f>SUM(T75:AA75)</f>
         <v>0</v>
       </c>
@@ -10949,23 +10952,23 @@
       <c r="AD74" s="203"/>
       <c r="AE74" s="204"/>
       <c r="AF74" s="203"/>
-      <c r="AG74" s="207">
+      <c r="AG74" s="206">
         <f>SUM(AC75:AF75)</f>
         <v>0</v>
       </c>
-      <c r="AH74" s="212"/>
-      <c r="AI74" s="208"/>
-      <c r="AJ74" s="207">
+      <c r="AH74" s="211"/>
+      <c r="AI74" s="207"/>
+      <c r="AJ74" s="206">
         <f>AH75</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="209">
+      <c r="AK74" s="208">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>4</v>
-      </c>
-      <c r="AL74" s="207">
+        <v>3</v>
+      </c>
+      <c r="AL74" s="206">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11001,7 +11004,7 @@
       <c r="L75" s="135"/>
       <c r="M75" s="133">
         <f>(IF($M74&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M74=$M$6+$N$6,$O$103,0),0),0)+IF($N74&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N74=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="135"/>
       <c r="O75" s="136">
@@ -11011,7 +11014,7 @@
       <c r="P75" s="135"/>
       <c r="Q75" s="136">
         <f>(IF($Q74&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q74=$Q$6+$R$6,$O$103,0),0),0)+IF($R74&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R74=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R75" s="139"/>
       <c r="S75" s="129"/>
@@ -11288,46 +11291,46 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C78" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
+        <v>7</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="48">
         <v>6</v>
       </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="47">
-        <v>7</v>
-      </c>
+      <c r="H78" s="47"/>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
+        <v>7</v>
+      </c>
+      <c r="K78" s="49">
+        <v>7</v>
+      </c>
+      <c r="L78" s="47"/>
+      <c r="M78" s="44">
         <v>6</v>
       </c>
-      <c r="K78" s="49">
-        <v>5</v>
-      </c>
-      <c r="L78" s="47"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="45">
-        <v>7</v>
-      </c>
+      <c r="N78" s="45"/>
       <c r="O78" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48"/>
       <c r="R78" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S78" s="130">
         <f>SUM(C79:R79)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11335,7 +11338,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="123"/>
+      <c r="Z78" s="48"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="130">
         <f>SUM(T79:AA79)</f>
@@ -11357,11 +11360,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL78" s="130">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11382,7 +11385,7 @@
       <c r="F79" s="135"/>
       <c r="G79" s="133">
         <f>(IF($G78&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G78=$G$6+$H$6,$O$103,0),0),0)+IF($H78&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H78=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" s="135"/>
       <c r="I79" s="136">
@@ -11397,7 +11400,7 @@
       <c r="L79" s="135"/>
       <c r="M79" s="133">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M78=$M$6+$N$6,$O$103,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N78=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" s="135"/>
       <c r="O79" s="136">
@@ -11407,7 +11410,7 @@
       <c r="P79" s="135"/>
       <c r="Q79" s="136">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q78=$Q$6+$R$6,$O$103,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R78=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" s="139"/>
       <c r="S79" s="129"/>
@@ -11684,10 +11687,10 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="187">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B82" s="213" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="B82" s="212" t="s">
+        <v>73</v>
       </c>
       <c r="C82" s="199">
         <v>5</v>
@@ -11697,33 +11700,33 @@
         <v>6</v>
       </c>
       <c r="F82" s="200"/>
-      <c r="G82" s="202">
-        <v>6</v>
-      </c>
-      <c r="H82" s="203"/>
+      <c r="G82" s="202"/>
+      <c r="H82" s="203">
+        <v>7</v>
+      </c>
       <c r="I82" s="201"/>
       <c r="J82" s="203">
         <v>6</v>
       </c>
       <c r="K82" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L82" s="203"/>
-      <c r="M82" s="201">
+      <c r="M82" s="201"/>
+      <c r="N82" s="200">
         <v>7</v>
       </c>
-      <c r="N82" s="200"/>
       <c r="O82" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P82" s="200"/>
       <c r="Q82" s="202"/>
       <c r="R82" s="205">
+        <v>6</v>
+      </c>
+      <c r="S82" s="206">
+        <f>SUM(C83:R83)</f>
         <v>7</v>
-      </c>
-      <c r="S82" s="207">
-        <f>SUM(C83:R83)</f>
-        <v>6</v>
       </c>
       <c r="T82" s="199"/>
       <c r="U82" s="203"/>
@@ -11731,9 +11734,9 @@
       <c r="W82" s="203"/>
       <c r="X82" s="204"/>
       <c r="Y82" s="200"/>
-      <c r="Z82" s="210"/>
+      <c r="Z82" s="209"/>
       <c r="AA82" s="203"/>
-      <c r="AB82" s="207">
+      <c r="AB82" s="206">
         <f>SUM(T83:AA83)</f>
         <v>0</v>
       </c>
@@ -11741,23 +11744,23 @@
       <c r="AD82" s="203"/>
       <c r="AE82" s="204"/>
       <c r="AF82" s="203"/>
-      <c r="AG82" s="207">
+      <c r="AG82" s="206">
         <f>SUM(AC83:AF83)</f>
         <v>0</v>
       </c>
-      <c r="AH82" s="212"/>
-      <c r="AI82" s="208"/>
-      <c r="AJ82" s="207">
+      <c r="AH82" s="211"/>
+      <c r="AI82" s="207"/>
+      <c r="AJ82" s="206">
         <f>AH83</f>
         <v>0</v>
       </c>
-      <c r="AK82" s="209">
+      <c r="AK82" s="208">
         <f>MAX($AL$10:$AL$97) - AL82</f>
         <v>4</v>
       </c>
-      <c r="AL82" s="207">
+      <c r="AL82" s="206">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11778,7 +11781,7 @@
       <c r="F83" s="135"/>
       <c r="G83" s="133">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G82=$G$6+$H$6,$O$103,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H82=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" s="135"/>
       <c r="I83" s="136">
@@ -11793,7 +11796,7 @@
       <c r="L83" s="135"/>
       <c r="M83" s="133">
         <f>(IF($M82&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M82=$M$6+$N$6,$O$103,0),0),0)+IF($N82&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N82=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N83" s="135"/>
       <c r="O83" s="136">
@@ -11803,7 +11806,7 @@
       <c r="P83" s="135"/>
       <c r="Q83" s="136">
         <f>(IF($Q82&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q82=$Q$6+$R$6,$O$103,0),0),0)+IF($R82&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R82=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R83" s="139"/>
       <c r="S83" s="129"/>
@@ -12080,7 +12083,7 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B86" s="88" t="s">
         <v>83</v>
@@ -12119,7 +12122,7 @@
       <c r="R86" s="50"/>
       <c r="S86" s="130">
         <f>SUM(C87:R87)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12153,7 +12156,7 @@
       </c>
       <c r="AL86" s="130">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12189,7 +12192,7 @@
       <c r="L87" s="135"/>
       <c r="M87" s="133">
         <f>(IF($M86&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M86=$M$6+$N$6,$O$103,0),0),0)+IF($N86&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N86=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="135"/>
       <c r="O87" s="136">
@@ -12476,44 +12479,44 @@
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="187">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>10</v>
-      </c>
-      <c r="B90" s="213" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="B90" s="212" t="s">
+        <v>77</v>
       </c>
       <c r="C90" s="199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" s="200"/>
       <c r="E90" s="201">
+        <v>6</v>
+      </c>
+      <c r="F90" s="200"/>
+      <c r="G90" s="202"/>
+      <c r="H90" s="203">
         <v>7</v>
       </c>
-      <c r="F90" s="200"/>
-      <c r="G90" s="202">
-        <v>6</v>
-      </c>
-      <c r="H90" s="203"/>
       <c r="I90" s="201"/>
       <c r="J90" s="203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K90" s="204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L90" s="203"/>
-      <c r="M90" s="201">
+      <c r="M90" s="201"/>
+      <c r="N90" s="200">
         <v>6</v>
       </c>
-      <c r="N90" s="200"/>
       <c r="O90" s="201">
         <v>6</v>
       </c>
       <c r="P90" s="200"/>
-      <c r="Q90" s="202"/>
-      <c r="R90" s="205">
-        <v>7</v>
-      </c>
-      <c r="S90" s="207">
+      <c r="Q90" s="202">
+        <v>6</v>
+      </c>
+      <c r="R90" s="205"/>
+      <c r="S90" s="206">
         <f>SUM(C91:R91)</f>
         <v>6</v>
       </c>
@@ -12525,7 +12528,7 @@
       <c r="Y90" s="200"/>
       <c r="Z90" s="202"/>
       <c r="AA90" s="203"/>
-      <c r="AB90" s="207">
+      <c r="AB90" s="206">
         <f>SUM(T91:AA91)</f>
         <v>0</v>
       </c>
@@ -12533,21 +12536,21 @@
       <c r="AD90" s="203"/>
       <c r="AE90" s="204"/>
       <c r="AF90" s="203"/>
-      <c r="AG90" s="207">
+      <c r="AG90" s="206">
         <f>SUM(AC91:AF91)</f>
         <v>0</v>
       </c>
-      <c r="AH90" s="212"/>
-      <c r="AI90" s="208"/>
-      <c r="AJ90" s="207">
+      <c r="AH90" s="211"/>
+      <c r="AI90" s="207"/>
+      <c r="AJ90" s="206">
         <f>AH91</f>
         <v>0</v>
       </c>
-      <c r="AK90" s="209">
+      <c r="AK90" s="208">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>4</v>
-      </c>
-      <c r="AL90" s="207">
+        <v>5</v>
+      </c>
+      <c r="AL90" s="206">
         <f>$S90+$AB90+$AG90+$AJ90</f>
         <v>6</v>
       </c>
@@ -12570,7 +12573,7 @@
       <c r="F91" s="135"/>
       <c r="G91" s="133">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" s="135"/>
       <c r="I91" s="136">
@@ -12585,7 +12588,7 @@
       <c r="L91" s="135"/>
       <c r="M91" s="133">
         <f>(IF($M90&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M90=$M$6+$N$6,$O$103,0),0),0)+IF($N90&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N90=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N91" s="135"/>
       <c r="O91" s="136">
@@ -12877,51 +12880,51 @@
       <c r="B94" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="229">
+      <c r="C94" s="227">
         <v>7</v>
       </c>
-      <c r="D94" s="230"/>
-      <c r="E94" s="245">
+      <c r="D94" s="228"/>
+      <c r="E94" s="236">
         <v>6</v>
       </c>
-      <c r="F94" s="230"/>
-      <c r="G94" s="246"/>
-      <c r="H94" s="233">
+      <c r="F94" s="228"/>
+      <c r="G94" s="237"/>
+      <c r="H94" s="231">
         <v>6</v>
       </c>
-      <c r="I94" s="245"/>
-      <c r="J94" s="233">
+      <c r="I94" s="236"/>
+      <c r="J94" s="231">
         <v>7</v>
       </c>
-      <c r="K94" s="234">
+      <c r="K94" s="232">
         <v>5</v>
       </c>
-      <c r="L94" s="233"/>
-      <c r="M94" s="231">
+      <c r="L94" s="231"/>
+      <c r="M94" s="229">
         <v>7</v>
       </c>
-      <c r="N94" s="230"/>
-      <c r="O94" s="231">
+      <c r="N94" s="228"/>
+      <c r="O94" s="229">
         <v>6</v>
       </c>
-      <c r="P94" s="230"/>
-      <c r="Q94" s="232">
+      <c r="P94" s="228"/>
+      <c r="Q94" s="230">
         <v>6</v>
       </c>
-      <c r="R94" s="235"/>
+      <c r="R94" s="233"/>
       <c r="S94" s="130">
         <f>SUM(C95:R95)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="247"/>
+      <c r="V94" s="238"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
       <c r="Y94" s="128"/>
       <c r="Z94" s="48"/>
       <c r="AA94" s="47"/>
-      <c r="AB94" s="221">
+      <c r="AB94" s="219">
         <f>SUM(T95:AA95)</f>
         <v>0</v>
       </c>
@@ -12929,7 +12932,7 @@
       <c r="AD94" s="47"/>
       <c r="AE94" s="49"/>
       <c r="AF94" s="47"/>
-      <c r="AG94" s="221">
+      <c r="AG94" s="219">
         <f>SUM(AC95:AF95)</f>
         <v>0</v>
       </c>
@@ -12943,9 +12946,9 @@
         <f>MAX($AL$10:$AL$97) - AL94</f>
         <v>6</v>
       </c>
-      <c r="AL94" s="221">
+      <c r="AL94" s="219">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12981,7 +12984,7 @@
       <c r="L95" s="135"/>
       <c r="M95" s="133">
         <f>(IF($M94&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M94=$M$6+$N$6,$O$103,0),0),0)+IF($N94&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N94=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="135"/>
       <c r="O95" s="136">
@@ -13263,72 +13266,72 @@
         <f>SUM(C97:AI97)</f>
         <v>0</v>
       </c>
-      <c r="AL97" s="219"/>
+      <c r="AL97" s="218"/>
     </row>
     <row r="98" spans="1:38" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="65"/>
       <c r="B98" s="55"/>
-      <c r="C98" s="224">
+      <c r="C98" s="222">
         <f t="shared" ref="C98:R98" si="0">COUNT(C10,C14,C18,C22,C26,C30,C34, C38, C42,C46,C50,C54,C58,C62,C66,C70,C74,C78,C82,C90,C94,C86)</f>
         <v>22</v>
       </c>
-      <c r="D98" s="222">
+      <c r="D98" s="220">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E98" s="223">
+      <c r="E98" s="221">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F98" s="222">
+      <c r="F98" s="220">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G98" s="223">
+      <c r="G98" s="221">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H98" s="222">
+      <c r="H98" s="220">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I98" s="223">
+      <c r="I98" s="221">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J98" s="222">
+      <c r="J98" s="220">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K98" s="223">
+      <c r="K98" s="221">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L98" s="222">
+      <c r="L98" s="220">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M98" s="223">
+      <c r="M98" s="221">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="N98" s="222">
+      <c r="N98" s="220">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="O98" s="223">
+      <c r="O98" s="221">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="P98" s="222">
+      <c r="P98" s="220">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q98" s="223">
+      <c r="Q98" s="221">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R98" s="225">
+      <c r="R98" s="223">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -13398,12 +13401,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="284" t="s">
+      <c r="O100" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="285"/>
-      <c r="Q100" s="285"/>
-      <c r="R100" s="286"/>
+      <c r="P100" s="242"/>
+      <c r="Q100" s="242"/>
+      <c r="R100" s="243"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13412,21 +13415,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="272" t="s">
+      <c r="B101" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="273"/>
-      <c r="D101" s="273"/>
-      <c r="E101" s="273"/>
-      <c r="F101" s="273"/>
-      <c r="G101" s="273"/>
-      <c r="H101" s="273"/>
-      <c r="I101" s="273"/>
-      <c r="J101" s="273"/>
-      <c r="K101" s="273"/>
-      <c r="L101" s="273"/>
-      <c r="M101" s="273"/>
-      <c r="N101" s="274"/>
+      <c r="C101" s="271"/>
+      <c r="D101" s="271"/>
+      <c r="E101" s="271"/>
+      <c r="F101" s="271"/>
+      <c r="G101" s="271"/>
+      <c r="H101" s="271"/>
+      <c r="I101" s="271"/>
+      <c r="J101" s="271"/>
+      <c r="K101" s="271"/>
+      <c r="L101" s="271"/>
+      <c r="M101" s="271"/>
+      <c r="N101" s="272"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13439,45 +13442,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="287" t="s">
+      <c r="U101" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="288"/>
-      <c r="W101" s="288"/>
-      <c r="X101" s="288"/>
-      <c r="Y101" s="288"/>
-      <c r="Z101" s="288"/>
-      <c r="AA101" s="288"/>
-      <c r="AB101" s="288"/>
-      <c r="AC101" s="288"/>
-      <c r="AD101" s="289"/>
+      <c r="V101" s="245"/>
+      <c r="W101" s="245"/>
+      <c r="X101" s="245"/>
+      <c r="Y101" s="245"/>
+      <c r="Z101" s="245"/>
+      <c r="AA101" s="245"/>
+      <c r="AB101" s="245"/>
+      <c r="AC101" s="245"/>
+      <c r="AD101" s="246"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="290" t="s">
+      <c r="AG101" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="291"/>
-      <c r="AI101" s="291"/>
-      <c r="AJ101" s="291"/>
-      <c r="AK101" s="292"/>
+      <c r="AH101" s="248"/>
+      <c r="AI101" s="248"/>
+      <c r="AJ101" s="248"/>
+      <c r="AK101" s="249"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="251" t="s">
+      <c r="B102" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="252"/>
-      <c r="D102" s="252"/>
-      <c r="E102" s="252"/>
-      <c r="F102" s="252"/>
-      <c r="G102" s="252"/>
-      <c r="H102" s="252"/>
-      <c r="I102" s="252"/>
-      <c r="J102" s="252"/>
-      <c r="K102" s="252"/>
-      <c r="L102" s="252"/>
-      <c r="M102" s="252"/>
-      <c r="N102" s="253"/>
+      <c r="C102" s="278"/>
+      <c r="D102" s="278"/>
+      <c r="E102" s="278"/>
+      <c r="F102" s="278"/>
+      <c r="G102" s="278"/>
+      <c r="H102" s="278"/>
+      <c r="I102" s="278"/>
+      <c r="J102" s="278"/>
+      <c r="K102" s="278"/>
+      <c r="L102" s="278"/>
+      <c r="M102" s="278"/>
+      <c r="N102" s="279"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13490,49 +13493,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="277" t="s">
+      <c r="U102" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="278"/>
-      <c r="W102" s="278"/>
-      <c r="X102" s="278"/>
-      <c r="Y102" s="278"/>
-      <c r="Z102" s="278"/>
-      <c r="AA102" s="278"/>
-      <c r="AB102" s="275">
+      <c r="V102" s="276"/>
+      <c r="W102" s="276"/>
+      <c r="X102" s="276"/>
+      <c r="Y102" s="276"/>
+      <c r="Z102" s="276"/>
+      <c r="AA102" s="276"/>
+      <c r="AB102" s="273">
         <v>22</v>
       </c>
-      <c r="AC102" s="275"/>
-      <c r="AD102" s="276"/>
+      <c r="AC102" s="273"/>
+      <c r="AD102" s="274"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="258" t="s">
+      <c r="AG102" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="259"/>
-      <c r="AI102" s="259"/>
-      <c r="AJ102" s="260"/>
-      <c r="AK102" s="226">
+      <c r="AH102" s="290"/>
+      <c r="AI102" s="290"/>
+      <c r="AJ102" s="291"/>
+      <c r="AK102" s="224">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="251" t="s">
+      <c r="B103" s="277" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="252"/>
-      <c r="D103" s="252"/>
-      <c r="E103" s="252"/>
-      <c r="F103" s="252"/>
-      <c r="G103" s="252"/>
-      <c r="H103" s="252"/>
-      <c r="I103" s="252"/>
-      <c r="J103" s="252"/>
-      <c r="K103" s="252"/>
-      <c r="L103" s="252"/>
-      <c r="M103" s="252"/>
-      <c r="N103" s="253"/>
+      <c r="C103" s="278"/>
+      <c r="D103" s="278"/>
+      <c r="E103" s="278"/>
+      <c r="F103" s="278"/>
+      <c r="G103" s="278"/>
+      <c r="H103" s="278"/>
+      <c r="I103" s="278"/>
+      <c r="J103" s="278"/>
+      <c r="K103" s="278"/>
+      <c r="L103" s="278"/>
+      <c r="M103" s="278"/>
+      <c r="N103" s="279"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13545,49 +13548,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="256" t="s">
+      <c r="U103" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="257"/>
-      <c r="W103" s="257"/>
-      <c r="X103" s="257"/>
-      <c r="Y103" s="257"/>
-      <c r="Z103" s="257"/>
-      <c r="AA103" s="257"/>
-      <c r="AB103" s="282">
+      <c r="V103" s="285"/>
+      <c r="W103" s="285"/>
+      <c r="X103" s="285"/>
+      <c r="Y103" s="285"/>
+      <c r="Z103" s="285"/>
+      <c r="AA103" s="285"/>
+      <c r="AB103" s="286">
         <v>20</v>
       </c>
-      <c r="AC103" s="282"/>
-      <c r="AD103" s="283"/>
+      <c r="AC103" s="286"/>
+      <c r="AD103" s="287"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="261" t="s">
+      <c r="AG103" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="252"/>
-      <c r="AI103" s="252"/>
-      <c r="AJ103" s="253"/>
+      <c r="AH103" s="278"/>
+      <c r="AI103" s="278"/>
+      <c r="AJ103" s="279"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="265" t="s">
+      <c r="B104" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="266"/>
-      <c r="D104" s="266"/>
-      <c r="E104" s="266"/>
-      <c r="F104" s="266"/>
-      <c r="G104" s="266"/>
-      <c r="H104" s="266"/>
-      <c r="I104" s="266"/>
-      <c r="J104" s="266"/>
-      <c r="K104" s="266"/>
-      <c r="L104" s="266"/>
-      <c r="M104" s="266"/>
-      <c r="N104" s="267"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="264"/>
+      <c r="E104" s="264"/>
+      <c r="F104" s="264"/>
+      <c r="G104" s="264"/>
+      <c r="H104" s="264"/>
+      <c r="I104" s="264"/>
+      <c r="J104" s="264"/>
+      <c r="K104" s="264"/>
+      <c r="L104" s="264"/>
+      <c r="M104" s="264"/>
+      <c r="N104" s="265"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13600,52 +13603,52 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="279" t="s">
+      <c r="U104" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="255"/>
-      <c r="W104" s="255"/>
-      <c r="X104" s="255"/>
-      <c r="Y104" s="255"/>
-      <c r="Z104" s="255"/>
-      <c r="AA104" s="255"/>
-      <c r="AB104" s="280">
+      <c r="V104" s="281"/>
+      <c r="W104" s="281"/>
+      <c r="X104" s="281"/>
+      <c r="Y104" s="281"/>
+      <c r="Z104" s="281"/>
+      <c r="AA104" s="281"/>
+      <c r="AB104" s="282">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="280"/>
-      <c r="AD104" s="281"/>
+      <c r="AC104" s="282"/>
+      <c r="AD104" s="283"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="261" t="s">
+      <c r="AG104" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="252"/>
-      <c r="AI104" s="252"/>
-      <c r="AJ104" s="253"/>
+      <c r="AH104" s="278"/>
+      <c r="AI104" s="278"/>
+      <c r="AJ104" s="279"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="256" t="s">
+      <c r="AG105" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="257"/>
-      <c r="AI105" s="257"/>
-      <c r="AJ105" s="257"/>
-      <c r="AK105" s="228">
+      <c r="AH105" s="285"/>
+      <c r="AI105" s="285"/>
+      <c r="AJ105" s="285"/>
+      <c r="AK105" s="226">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="254" t="s">
+      <c r="AG106" s="288" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="255"/>
-      <c r="AI106" s="255"/>
-      <c r="AJ106" s="255"/>
-      <c r="AK106" s="227">
+      <c r="AH106" s="281"/>
+      <c r="AI106" s="281"/>
+      <c r="AJ106" s="281"/>
+      <c r="AK106" s="225">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
       </c>
@@ -13656,6 +13659,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -13672,28 +13697,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14325,7 +14328,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14390,7 +14393,9 @@
       <c r="D3" s="85">
         <v>1</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="85">
+        <v>1</v>
+      </c>
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
       <c r="H3" s="85"/>
@@ -14432,14 +14437,16 @@
       <c r="D4" s="85">
         <v>5</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="85">
+        <v>3</v>
+      </c>
       <c r="F4" s="85"/>
       <c r="G4" s="85"/>
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="77">
         <f>IF(C4&gt;C3,1,0)+IF(D4&gt;D3,1,0)+IF(E4&gt;E3,1,0)+IF(F4&gt;F3,1,0)+IF(G4&gt;G3,1,0)+IF(H4&gt;H3,1,0)+IF(I4&gt;I3,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="4"/>
@@ -14840,14 +14847,16 @@
       <c r="D13" s="86">
         <v>3</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="85">
+        <v>4</v>
+      </c>
       <c r="F13" s="85"/>
       <c r="G13" s="86"/>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
       <c r="J13" s="77">
         <f>IF(C13&gt;C14,1,0)+IF(D13&gt;D14,1,0)+IF(E13&gt;E14,1,0)+IF(F13&gt;F14,1,0)+IF(G13&gt;G14,1,0)+IF(H13&gt;H14,1,0)+IF(I13&gt;I14,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="4"/>
@@ -14886,7 +14895,9 @@
       <c r="D14" s="86">
         <v>1</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="85">
+        <v>1</v>
+      </c>
       <c r="F14" s="85"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -15135,14 +15146,16 @@
       <c r="D20" s="85">
         <v>3</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="85">
+        <v>6</v>
+      </c>
       <c r="F20" s="85"/>
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
       <c r="I20" s="86"/>
       <c r="J20" s="77">
         <f>IF(C20&gt;C21,1,0)+IF(D20&gt;D21,1,0)+IF(E20&gt;E21,1,0)+IF(F20&gt;F21,1,0)+IF(G20&gt;G21,1,0)+IF(H20&gt;H21,1,0)+IF(I20&gt;I21,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="13"/>
@@ -15189,7 +15202,9 @@
       <c r="D21" s="85">
         <v>4</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="85">
+        <v>3</v>
+      </c>
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
       <c r="H21" s="85"/>
@@ -15465,7 +15480,9 @@
       <c r="D27" s="85">
         <v>3</v>
       </c>
-      <c r="E27" s="86"/>
+      <c r="E27" s="86">
+        <v>3</v>
+      </c>
       <c r="F27" s="86"/>
       <c r="G27" s="85"/>
       <c r="H27" s="86"/>
@@ -15508,14 +15525,16 @@
       <c r="D28" s="85">
         <v>5</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="85">
+        <v>6</v>
+      </c>
       <c r="F28" s="86"/>
       <c r="G28" s="85"/>
       <c r="H28" s="86"/>
       <c r="I28" s="85"/>
       <c r="J28" s="77">
         <f>IF(C28&gt;C27,1,0)+IF(D28&gt;D27,1,0)+IF(E28&gt;E27,1,0)+IF(F28&gt;F27,1,0)+IF(G28&gt;G27,1,0)+IF(H28&gt;H27,1,0)+IF(I28&gt;I27,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1"/>
       <c r="O28" s="52"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pool" sheetId="16" r:id="rId1"/>
     <sheet name="Résultats" sheetId="7" r:id="rId2"/>
+    <sheet name="Matches" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pool!$B$10:$AL$66</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>RONDE 1</t>
   </si>
@@ -294,6 +295,21 @@
   <si>
     <t>Jean-Christophe Pichot</t>
   </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
 </sst>
 </file>
 
@@ -2441,12 +2457,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2462,6 +2472,120 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2513,147 +2637,37 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Euro" xfId="1"/>
@@ -3851,7 +3865,7 @@
   </sheetPr>
   <dimension ref="A1:AL106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3875,217 +3889,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="267"/>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="267"/>
-      <c r="V1" s="267"/>
-      <c r="W1" s="267"/>
-      <c r="X1" s="267"/>
-      <c r="Y1" s="267"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="267"/>
-      <c r="AB1" s="267"/>
-      <c r="AC1" s="267"/>
-      <c r="AD1" s="267"/>
-      <c r="AE1" s="267"/>
-      <c r="AF1" s="267"/>
-      <c r="AG1" s="267"/>
-      <c r="AH1" s="267"/>
-      <c r="AI1" s="267"/>
-      <c r="AJ1" s="267"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="261"/>
+      <c r="M1" s="261"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="262"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
+      <c r="AC1" s="262"/>
+      <c r="AD1" s="262"/>
+      <c r="AE1" s="262"/>
+      <c r="AF1" s="262"/>
+      <c r="AG1" s="262"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="262"/>
+      <c r="AJ1" s="262"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="268" t="s">
+      <c r="C2" s="263" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="269" t="s">
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="264" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="267"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="267"/>
-      <c r="W2" s="267"/>
-      <c r="X2" s="267"/>
-      <c r="Y2" s="267"/>
-      <c r="Z2" s="267"/>
-      <c r="AA2" s="267"/>
-      <c r="AB2" s="267"/>
-      <c r="AC2" s="267"/>
-      <c r="AD2" s="267"/>
-      <c r="AE2" s="267"/>
-      <c r="AF2" s="267"/>
-      <c r="AG2" s="267"/>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="267"/>
-      <c r="AJ2" s="267"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="262"/>
+      <c r="AA2" s="262"/>
+      <c r="AB2" s="262"/>
+      <c r="AC2" s="262"/>
+      <c r="AD2" s="262"/>
+      <c r="AE2" s="262"/>
+      <c r="AF2" s="262"/>
+      <c r="AG2" s="262"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="262"/>
+      <c r="AJ2" s="262"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="266"/>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="267"/>
-      <c r="Q3" s="267"/>
-      <c r="R3" s="267"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="267"/>
-      <c r="U3" s="267"/>
-      <c r="V3" s="267"/>
-      <c r="W3" s="267"/>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="267"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="267"/>
-      <c r="AB3" s="267"/>
-      <c r="AC3" s="267"/>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="267"/>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="267"/>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="267"/>
-      <c r="AJ3" s="267"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="262"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="262"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="262"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="262"/>
+      <c r="AC3" s="262"/>
+      <c r="AD3" s="262"/>
+      <c r="AE3" s="262"/>
+      <c r="AF3" s="262"/>
+      <c r="AG3" s="262"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="262"/>
+      <c r="AJ3" s="262"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="251"/>
-      <c r="O4" s="251"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="252"/>
-      <c r="T4" s="250" t="s">
+      <c r="C4" s="286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="287"/>
+      <c r="O4" s="287"/>
+      <c r="P4" s="287"/>
+      <c r="Q4" s="287"/>
+      <c r="R4" s="287"/>
+      <c r="S4" s="288"/>
+      <c r="T4" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
-      <c r="X4" s="251"/>
-      <c r="Y4" s="251"/>
-      <c r="Z4" s="251"/>
-      <c r="AA4" s="251"/>
-      <c r="AB4" s="252"/>
-      <c r="AC4" s="250" t="s">
+      <c r="U4" s="287"/>
+      <c r="V4" s="287"/>
+      <c r="W4" s="287"/>
+      <c r="X4" s="287"/>
+      <c r="Y4" s="287"/>
+      <c r="Z4" s="287"/>
+      <c r="AA4" s="287"/>
+      <c r="AB4" s="288"/>
+      <c r="AC4" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="251"/>
-      <c r="AE4" s="251"/>
-      <c r="AF4" s="251"/>
-      <c r="AG4" s="261"/>
-      <c r="AH4" s="250" t="s">
+      <c r="AD4" s="287"/>
+      <c r="AE4" s="287"/>
+      <c r="AF4" s="287"/>
+      <c r="AG4" s="295"/>
+      <c r="AH4" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="251"/>
-      <c r="AJ4" s="252"/>
+      <c r="AI4" s="287"/>
+      <c r="AJ4" s="288"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="255" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="257" t="s">
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="293" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="259"/>
-      <c r="S5" s="253" t="s">
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="256"/>
+      <c r="R5" s="257"/>
+      <c r="S5" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="262" t="s">
+      <c r="T5" s="255" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="259"/>
-      <c r="X5" s="257" t="s">
+      <c r="U5" s="256"/>
+      <c r="V5" s="256"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="293" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="259"/>
-      <c r="AB5" s="253" t="s">
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="257"/>
+      <c r="AB5" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="260" t="s">
+      <c r="AC5" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="259"/>
-      <c r="AE5" s="257" t="s">
+      <c r="AD5" s="257"/>
+      <c r="AE5" s="293" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="259"/>
-      <c r="AG5" s="253" t="s">
+      <c r="AF5" s="257"/>
+      <c r="AG5" s="289" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="253" t="s">
+      <c r="AJ5" s="289" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4107,7 +4121,7 @@
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="173">
         <f>Résultats!$J$10</f>
@@ -4115,7 +4129,7 @@
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="173">
         <f>Résultats!$J$13</f>
@@ -4131,7 +4145,7 @@
       </c>
       <c r="L6" s="108">
         <f>Résultats!$J$18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="173">
         <f>Résultats!$J$20</f>
@@ -4143,7 +4157,7 @@
       </c>
       <c r="O6" s="173">
         <f>Résultats!$J$24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="109">
         <f>Résultats!$J$25</f>
@@ -4157,7 +4171,7 @@
         <f>Résultats!$J$28</f>
         <v>2</v>
       </c>
-      <c r="S6" s="254"/>
+      <c r="S6" s="290"/>
       <c r="T6" s="170">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4190,7 +4204,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="254"/>
+      <c r="AB6" s="290"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4207,7 +4221,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="254"/>
+      <c r="AG6" s="290"/>
       <c r="AH6" s="213">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4216,7 +4230,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="254"/>
+      <c r="AJ6" s="290"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4242,7 +4256,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="254"/>
+      <c r="S7" s="290"/>
       <c r="T7" s="171"/>
       <c r="U7" s="117"/>
       <c r="V7" s="174"/>
@@ -4251,15 +4265,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="254"/>
+      <c r="AB7" s="290"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="254"/>
+      <c r="AG7" s="290"/>
       <c r="AH7" s="213"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="254"/>
+      <c r="AJ7" s="290"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4329,7 +4343,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="254"/>
+      <c r="S8" s="290"/>
       <c r="T8" s="172" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4362,7 +4376,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="254"/>
+      <c r="AB8" s="290"/>
       <c r="AC8" s="178" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4379,7 +4393,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="254"/>
+      <c r="AG8" s="290"/>
       <c r="AH8" s="214" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4388,7 +4402,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="254"/>
+      <c r="AJ8" s="290"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4462,7 +4476,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="256"/>
+      <c r="S9" s="292"/>
       <c r="T9" s="180" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4495,7 +4509,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="255"/>
+      <c r="AB9" s="291"/>
       <c r="AC9" s="184" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4512,7 +4526,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="255"/>
+      <c r="AG9" s="291"/>
       <c r="AH9" s="216" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4521,7 +4535,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="256"/>
+      <c r="AJ9" s="292"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4571,14 +4585,14 @@
       </c>
       <c r="S10" s="195">
         <f>SUM(C11:R11)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T10" s="188"/>
       <c r="U10" s="190"/>
       <c r="V10" s="192"/>
       <c r="W10" s="190"/>
       <c r="X10" s="191"/>
-      <c r="Y10" s="297"/>
+      <c r="Y10" s="243"/>
       <c r="Z10" s="193"/>
       <c r="AA10" s="194"/>
       <c r="AB10" s="195">
@@ -4605,7 +4619,7 @@
       </c>
       <c r="AL10" s="195">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4646,7 +4660,7 @@
       <c r="N11" s="135"/>
       <c r="O11" s="136">
         <f>(IF($O10&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O10=$O$6+$P$6,$O$103,0),0),0)+IF($P10&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P10=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="135"/>
       <c r="Q11" s="136">
@@ -4931,58 +4945,58 @@
         <v>1</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C14" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="44">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45">
         <v>7</v>
       </c>
-      <c r="F14" s="45"/>
       <c r="G14" s="48">
         <v>6</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="44">
+      <c r="I14" s="44"/>
+      <c r="J14" s="47">
         <v>6</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="49">
-        <v>4</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="44">
+      <c r="K14" s="49"/>
+      <c r="L14" s="47">
+        <v>6</v>
+      </c>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45">
+        <v>6</v>
+      </c>
+      <c r="O14" s="44">
         <v>5</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45">
-        <v>7</v>
-      </c>
+      <c r="P14" s="45"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14" s="130">
         <f>SUM(C15:R15)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="44"/>
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="48"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="123"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="130">
         <f>SUM(T15:AA15)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="234"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="130">
@@ -5001,7 +5015,7 @@
       </c>
       <c r="AL14" s="130">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5017,7 +5031,7 @@
       <c r="D15" s="151"/>
       <c r="E15" s="133">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="151"/>
       <c r="G15" s="133">
@@ -5027,22 +5041,22 @@
       <c r="H15" s="151"/>
       <c r="I15" s="127">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I14=$I$6+$J$6,$O$103,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J14=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="152"/>
       <c r="K15" s="153">
         <f>(IF($K14&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K14=$K$6+$L$6,$O$103,0),0),0)+IF($L14&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L14=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="151"/>
       <c r="M15" s="133">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="151"/>
       <c r="O15" s="127">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="151"/>
       <c r="Q15" s="127">
@@ -5070,7 +5084,7 @@
       <c r="AJ15" s="129"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL15" s="129"/>
     </row>
@@ -5364,9 +5378,9 @@
         <v>7</v>
       </c>
       <c r="R18" s="205"/>
-      <c r="S18" s="293">
+      <c r="S18" s="239">
         <f>SUM(C19:R19)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T18" s="199"/>
       <c r="U18" s="203"/>
@@ -5388,7 +5402,7 @@
         <f>SUM(AC19:AF19)</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="239"/>
+      <c r="AH18" s="237"/>
       <c r="AI18" s="207"/>
       <c r="AJ18" s="206">
         <f>AH19</f>
@@ -5400,7 +5414,7 @@
       </c>
       <c r="AL18" s="206">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5441,7 +5455,7 @@
       <c r="N19" s="151"/>
       <c r="O19" s="127">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="151"/>
       <c r="Q19" s="127">
@@ -5469,7 +5483,7 @@
       <c r="AJ19" s="155"/>
       <c r="AK19" s="163">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL19" s="129"/>
     </row>
@@ -5765,7 +5779,7 @@
       <c r="R22" s="50"/>
       <c r="S22" s="130">
         <f>SUM(C23:R23)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5787,7 +5801,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="294"/>
+      <c r="AH22" s="240"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="130">
         <f>AH23</f>
@@ -5799,7 +5813,7 @@
       </c>
       <c r="AL22" s="130">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5840,7 +5854,7 @@
       <c r="N23" s="164"/>
       <c r="O23" s="133">
         <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="164"/>
       <c r="Q23" s="133">
@@ -5868,7 +5882,7 @@
       <c r="AJ23" s="155"/>
       <c r="AK23" s="163">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" s="129"/>
     </row>
@@ -6125,53 +6139,53 @@
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="187">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="212" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C26" s="199">
         <v>5</v>
       </c>
       <c r="D26" s="200"/>
       <c r="E26" s="201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" s="200"/>
       <c r="G26" s="202">
+        <v>6</v>
+      </c>
+      <c r="H26" s="203"/>
+      <c r="I26" s="201">
+        <v>6</v>
+      </c>
+      <c r="J26" s="203"/>
+      <c r="K26" s="204">
+        <v>4</v>
+      </c>
+      <c r="L26" s="203"/>
+      <c r="M26" s="201">
         <v>5</v>
       </c>
-      <c r="H26" s="203"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="203">
-        <v>6</v>
-      </c>
-      <c r="K26" s="204">
-        <v>5</v>
-      </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="200">
-        <v>6</v>
-      </c>
-      <c r="O26" s="201">
-        <v>5</v>
-      </c>
-      <c r="P26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="200">
+        <v>7</v>
+      </c>
       <c r="Q26" s="202"/>
       <c r="R26" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S26" s="206">
         <f>SUM(C27:R27)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T26" s="199"/>
       <c r="U26" s="203"/>
       <c r="V26" s="201"/>
       <c r="W26" s="203"/>
       <c r="X26" s="204"/>
-      <c r="Y26" s="200"/>
+      <c r="Y26" s="303"/>
       <c r="Z26" s="202"/>
       <c r="AA26" s="205"/>
       <c r="AB26" s="206">
@@ -6179,14 +6193,14 @@
         <v>0</v>
       </c>
       <c r="AC26" s="202"/>
-      <c r="AD26" s="203"/>
+      <c r="AD26" s="238"/>
       <c r="AE26" s="204"/>
       <c r="AF26" s="203"/>
       <c r="AG26" s="206">
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="235"/>
+      <c r="AH26" s="196"/>
       <c r="AI26" s="197"/>
       <c r="AJ26" s="206">
         <f>AH27</f>
@@ -6194,11 +6208,11 @@
       </c>
       <c r="AK26" s="208">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="206">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6224,7 +6238,7 @@
       <c r="H27" s="151"/>
       <c r="I27" s="127">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="152"/>
       <c r="K27" s="153">
@@ -6234,7 +6248,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="127">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="151"/>
       <c r="O27" s="127">
@@ -6267,7 +6281,7 @@
       <c r="AJ27" s="155"/>
       <c r="AK27" s="163">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL27" s="129"/>
     </row>
@@ -6524,13 +6538,13 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="46">
         <v>5</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="46">
-        <v>6</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44"/>
@@ -6538,23 +6552,23 @@
         <v>7</v>
       </c>
       <c r="G30" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
       <c r="J30" s="47">
+        <v>7</v>
+      </c>
+      <c r="K30" s="49">
         <v>6</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="47">
+      <c r="L30" s="47"/>
+      <c r="M30" s="44">
         <v>6</v>
       </c>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45">
-        <v>6</v>
-      </c>
+      <c r="N30" s="45"/>
       <c r="O30" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="48"/>
@@ -6563,15 +6577,15 @@
       </c>
       <c r="S30" s="130">
         <f>SUM(C31:R31)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="123"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="130">
         <f>SUM(T31:AA31)</f>
@@ -6597,7 +6611,7 @@
       </c>
       <c r="AL30" s="130">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6613,7 +6627,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
@@ -6633,12 +6647,12 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
         <f>(IF($O30&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O30=$O$6+$P$6,$O$103,0),0),0)+IF($P30&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P30=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
@@ -6666,7 +6680,7 @@
       <c r="AJ31" s="129"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL31" s="129"/>
     </row>
@@ -6923,37 +6937,37 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="187">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="212" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C34" s="199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="200"/>
-      <c r="E34" s="201">
-        <v>6</v>
-      </c>
-      <c r="F34" s="200"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="200">
+        <v>7</v>
+      </c>
       <c r="G34" s="202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34" s="203"/>
       <c r="I34" s="201"/>
       <c r="J34" s="203">
+        <v>6</v>
+      </c>
+      <c r="K34" s="204">
+        <v>6</v>
+      </c>
+      <c r="L34" s="203"/>
+      <c r="M34" s="201">
         <v>7</v>
       </c>
-      <c r="K34" s="204">
+      <c r="N34" s="200"/>
+      <c r="O34" s="201">
         <v>5</v>
-      </c>
-      <c r="L34" s="203"/>
-      <c r="M34" s="201"/>
-      <c r="N34" s="200">
-        <v>6</v>
-      </c>
-      <c r="O34" s="201">
-        <v>7</v>
       </c>
       <c r="P34" s="200"/>
       <c r="Q34" s="202"/>
@@ -6962,7 +6976,7 @@
       </c>
       <c r="S34" s="206">
         <f>SUM(C35:R35)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T34" s="199"/>
       <c r="U34" s="203"/>
@@ -6996,7 +7010,7 @@
       </c>
       <c r="AL34" s="206">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7012,7 +7026,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="81">
         <f>(IF($E34&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E34=$E$6+$F$6,$O$103,0),0),0)+IF($F34&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F34=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="81">
@@ -7032,12 +7046,12 @@
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
         <f>(IF($O34&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O34=$O$6+$P$6,$O$103,0),0),0)+IF($P34&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P34=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="80"/>
       <c r="Q35" s="81">
@@ -7065,7 +7079,7 @@
       <c r="AJ35" s="129"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL35" s="129"/>
     </row>
@@ -7322,10 +7336,10 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C38" s="46">
         <v>5</v>
@@ -7336,7 +7350,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
@@ -7344,7 +7358,7 @@
         <v>7</v>
       </c>
       <c r="K38" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="44">
@@ -7357,18 +7371,18 @@
       <c r="P38" s="45"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" s="130">
         <f>SUM(C39:R39)</f>
-        <v>8</v>
-      </c>
-      <c r="T38" s="46"/>
+        <v>10</v>
+      </c>
+      <c r="T38" s="242"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
       <c r="X38" s="49"/>
-      <c r="Y38" s="128"/>
+      <c r="Y38" s="45"/>
       <c r="Z38" s="48"/>
       <c r="AA38" s="47"/>
       <c r="AB38" s="130">
@@ -7391,11 +7405,11 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="130">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7411,7 +7425,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="126">
@@ -7436,7 +7450,7 @@
       <c r="N39" s="80"/>
       <c r="O39" s="81">
         <f>(IF($O38&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O38=$O$6+$P$6,$O$103,0),0),0)+IF($P38&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P38=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
@@ -7464,7 +7478,7 @@
       <c r="AJ39" s="129"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL39" s="129"/>
     </row>
@@ -7721,21 +7735,21 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="187">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" s="212" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C42" s="199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="200"/>
       <c r="E42" s="201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="200"/>
       <c r="G42" s="202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="203"/>
       <c r="I42" s="201"/>
@@ -7743,15 +7757,15 @@
         <v>6</v>
       </c>
       <c r="K42" s="204">
+        <v>5</v>
+      </c>
+      <c r="L42" s="203"/>
+      <c r="M42" s="201"/>
+      <c r="N42" s="200">
         <v>6</v>
       </c>
-      <c r="L42" s="203"/>
-      <c r="M42" s="201">
+      <c r="O42" s="201">
         <v>5</v>
-      </c>
-      <c r="N42" s="200"/>
-      <c r="O42" s="201">
-        <v>6</v>
       </c>
       <c r="P42" s="200"/>
       <c r="Q42" s="202"/>
@@ -7760,7 +7774,7 @@
       </c>
       <c r="S42" s="206">
         <f>SUM(C43:R43)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T42" s="199"/>
       <c r="U42" s="203"/>
@@ -7768,21 +7782,21 @@
       <c r="W42" s="203"/>
       <c r="X42" s="204"/>
       <c r="Y42" s="200"/>
-      <c r="Z42" s="209"/>
+      <c r="Z42" s="202"/>
       <c r="AA42" s="203"/>
       <c r="AB42" s="206">
         <f>SUM(T43:AA43)</f>
         <v>0</v>
       </c>
       <c r="AC42" s="202"/>
-      <c r="AD42" s="240"/>
+      <c r="AD42" s="203"/>
       <c r="AE42" s="204"/>
       <c r="AF42" s="203"/>
       <c r="AG42" s="206">
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="210"/>
+      <c r="AH42" s="241"/>
       <c r="AI42" s="197"/>
       <c r="AJ42" s="206">
         <f>AH43</f>
@@ -7790,11 +7804,11 @@
       </c>
       <c r="AK42" s="208">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="206">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7830,12 +7844,12 @@
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
         <f>(IF($O42&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O42=$O$6+$P$6,$O$103,0),0),0)+IF($P42&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P42=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
@@ -7863,7 +7877,7 @@
       <c r="AJ43" s="129"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL43" s="129"/>
     </row>
@@ -8120,37 +8134,37 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C46" s="46">
+        <v>5</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="44">
         <v>6</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45">
-        <v>7</v>
-      </c>
+      <c r="F46" s="45"/>
       <c r="G46" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
+        <v>7</v>
+      </c>
+      <c r="K46" s="49">
+        <v>5</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45">
         <v>6</v>
       </c>
-      <c r="K46" s="49">
-        <v>6</v>
-      </c>
-      <c r="L46" s="47"/>
-      <c r="M46" s="44">
+      <c r="O46" s="44">
         <v>7</v>
-      </c>
-      <c r="N46" s="45"/>
-      <c r="O46" s="44">
-        <v>5</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="48"/>
@@ -8159,7 +8173,7 @@
       </c>
       <c r="S46" s="130">
         <f>SUM(C47:R47)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -8189,11 +8203,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL46" s="130">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8229,12 +8243,12 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
         <f>(IF($O46&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O46=$O$6+$P$6,$O$103,0),0),0)+IF($P46&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P46=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
@@ -8262,7 +8276,7 @@
       <c r="AJ47" s="129"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL47" s="129"/>
     </row>
@@ -8519,46 +8533,46 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="187">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B50" s="212" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="298">
+        <v>67</v>
+      </c>
+      <c r="C50" s="199">
+        <v>4</v>
+      </c>
+      <c r="D50" s="200"/>
+      <c r="E50" s="201">
+        <v>4</v>
+      </c>
+      <c r="F50" s="200"/>
+      <c r="G50" s="202">
+        <v>6</v>
+      </c>
+      <c r="H50" s="203"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="203">
+        <v>6</v>
+      </c>
+      <c r="K50" s="204">
+        <v>6</v>
+      </c>
+      <c r="L50" s="203"/>
+      <c r="M50" s="201">
         <v>5</v>
       </c>
-      <c r="D50" s="299"/>
-      <c r="E50" s="300">
+      <c r="N50" s="200"/>
+      <c r="O50" s="201">
         <v>6</v>
       </c>
-      <c r="F50" s="299"/>
-      <c r="G50" s="301">
-        <v>5</v>
-      </c>
-      <c r="H50" s="302"/>
-      <c r="I50" s="300"/>
-      <c r="J50" s="302">
-        <v>6</v>
-      </c>
-      <c r="K50" s="303">
-        <v>6</v>
-      </c>
-      <c r="L50" s="302"/>
-      <c r="M50" s="300">
-        <v>7</v>
-      </c>
-      <c r="N50" s="299"/>
-      <c r="O50" s="300">
-        <v>6</v>
-      </c>
-      <c r="P50" s="299"/>
-      <c r="Q50" s="301"/>
-      <c r="R50" s="304">
+      <c r="P50" s="200"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="205">
         <v>6</v>
       </c>
       <c r="S50" s="206">
         <f>SUM(C51:R51)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T50" s="199"/>
       <c r="U50" s="203"/>
@@ -8566,14 +8580,14 @@
       <c r="W50" s="203"/>
       <c r="X50" s="204"/>
       <c r="Y50" s="200"/>
-      <c r="Z50" s="202"/>
+      <c r="Z50" s="209"/>
       <c r="AA50" s="203"/>
       <c r="AB50" s="206">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="202"/>
-      <c r="AD50" s="203"/>
+      <c r="AD50" s="238"/>
       <c r="AE50" s="204"/>
       <c r="AF50" s="203"/>
       <c r="AG50" s="206">
@@ -8592,7 +8606,7 @@
       </c>
       <c r="AL50" s="206">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8633,7 +8647,7 @@
       <c r="N51" s="135"/>
       <c r="O51" s="136">
         <f>(IF($O50&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O50=$O$6+$P$6,$O$103,0),0),0)+IF($P50&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P50=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" s="135"/>
       <c r="Q51" s="136">
@@ -8915,48 +8929,48 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="46">
+        <v>68</v>
+      </c>
+      <c r="C54" s="296">
         <v>5</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45">
+      <c r="D54" s="297"/>
+      <c r="E54" s="298">
+        <v>6</v>
+      </c>
+      <c r="F54" s="297"/>
+      <c r="G54" s="299">
+        <v>5</v>
+      </c>
+      <c r="H54" s="300"/>
+      <c r="I54" s="298"/>
+      <c r="J54" s="300">
+        <v>6</v>
+      </c>
+      <c r="K54" s="301">
+        <v>6</v>
+      </c>
+      <c r="L54" s="300"/>
+      <c r="M54" s="298">
         <v>7</v>
       </c>
-      <c r="G54" s="48">
+      <c r="N54" s="297"/>
+      <c r="O54" s="298">
         <v>6</v>
       </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="47">
-        <v>7</v>
-      </c>
-      <c r="K54" s="49">
-        <v>5</v>
-      </c>
-      <c r="L54" s="47"/>
-      <c r="M54" s="44">
+      <c r="P54" s="297"/>
+      <c r="Q54" s="299"/>
+      <c r="R54" s="302">
         <v>6</v>
-      </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="44">
-        <v>7</v>
-      </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="50">
-        <v>7</v>
       </c>
       <c r="S54" s="130">
         <f>SUM(C55:R55)</f>
-        <v>8</v>
-      </c>
-      <c r="T54" s="296"/>
+        <v>9</v>
+      </c>
+      <c r="T54" s="46"/>
       <c r="U54" s="47"/>
       <c r="V54" s="44"/>
       <c r="W54" s="47"/>
@@ -8988,7 +9002,7 @@
       </c>
       <c r="AL54" s="130">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9029,7 +9043,7 @@
       <c r="N55" s="135"/>
       <c r="O55" s="136">
         <f>(IF($O54&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O54=$O$6+$P$6,$O$103,0),0),0)+IF($P54&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P54=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="135"/>
       <c r="Q55" s="136">
@@ -9311,7 +9325,7 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="187">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B58" s="212" t="s">
         <v>70</v>
@@ -9350,7 +9364,7 @@
       <c r="R58" s="205"/>
       <c r="S58" s="206">
         <f>SUM(C59:R59)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T58" s="199"/>
       <c r="U58" s="203"/>
@@ -9372,7 +9386,7 @@
         <f>SUM(AC59:AF59)</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="295"/>
+      <c r="AH58" s="241"/>
       <c r="AI58" s="197"/>
       <c r="AJ58" s="206">
         <f>AH59</f>
@@ -9384,7 +9398,7 @@
       </c>
       <c r="AL58" s="206">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9425,7 +9439,7 @@
       <c r="N59" s="135"/>
       <c r="O59" s="136">
         <f>(IF($O58&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O58=$O$6+$P$6,$O$103,0),0),0)+IF($P58&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P58=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="135"/>
       <c r="Q59" s="136">
@@ -9707,7 +9721,7 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B62" s="88" t="s">
         <v>82</v>
@@ -9746,7 +9760,7 @@
       </c>
       <c r="S62" s="130">
         <f>SUM(C63:R63)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9780,7 +9794,7 @@
       </c>
       <c r="AL62" s="130">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9821,7 +9835,7 @@
       <c r="N63" s="135"/>
       <c r="O63" s="136">
         <f>(IF($O62&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O62=$O$6+$P$6,$O$103,0),0),0)+IF($P62&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P62=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="135"/>
       <c r="Q63" s="136">
@@ -10103,7 +10117,7 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="187">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B66" s="212" t="s">
         <v>80</v>
@@ -10142,7 +10156,7 @@
       </c>
       <c r="S66" s="206">
         <f>SUM(C67:R67)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T66" s="199"/>
       <c r="U66" s="203"/>
@@ -10176,7 +10190,7 @@
       </c>
       <c r="AL66" s="206">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10217,7 +10231,7 @@
       <c r="N67" s="135"/>
       <c r="O67" s="136">
         <f>(IF($O66&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O66=$O$6+$P$6,$O$103,0),0),0)+IF($P66&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P66=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" s="135"/>
       <c r="Q67" s="136">
@@ -10499,7 +10513,7 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B70" s="88" t="s">
         <v>81</v>
@@ -10538,7 +10552,7 @@
       <c r="R70" s="50"/>
       <c r="S70" s="130">
         <f>SUM(C71:R71)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10572,7 +10586,7 @@
       </c>
       <c r="AL70" s="130">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10613,7 +10627,7 @@
       <c r="N71" s="135"/>
       <c r="O71" s="136">
         <f>(IF($O70&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O70=$O$6+$P$6,$O$103,0),0),0)+IF($P70&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P70=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="135"/>
       <c r="Q71" s="136">
@@ -10895,10 +10909,10 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="187">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B74" s="212" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="199">
         <v>5</v>
@@ -10908,33 +10922,33 @@
         <v>6</v>
       </c>
       <c r="F74" s="200"/>
-      <c r="G74" s="202">
-        <v>6</v>
-      </c>
-      <c r="H74" s="203"/>
+      <c r="G74" s="202"/>
+      <c r="H74" s="203">
+        <v>7</v>
+      </c>
       <c r="I74" s="201"/>
       <c r="J74" s="203">
         <v>6</v>
       </c>
       <c r="K74" s="204">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L74" s="203"/>
-      <c r="M74" s="201">
+      <c r="M74" s="201"/>
+      <c r="N74" s="200">
         <v>7</v>
       </c>
-      <c r="N74" s="200"/>
       <c r="O74" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P74" s="200"/>
       <c r="Q74" s="202"/>
       <c r="R74" s="205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S74" s="206">
         <f>SUM(C75:R75)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T74" s="199"/>
       <c r="U74" s="203"/>
@@ -10968,7 +10982,7 @@
       </c>
       <c r="AL74" s="206">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10989,7 +11003,7 @@
       <c r="F75" s="135"/>
       <c r="G75" s="133">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G74=$G$6+$H$6,$O$103,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H74=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="135"/>
       <c r="I75" s="136">
@@ -11004,12 +11018,12 @@
       <c r="L75" s="135"/>
       <c r="M75" s="133">
         <f>(IF($M74&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M74=$M$6+$N$6,$O$103,0),0),0)+IF($N74&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N74=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="135"/>
       <c r="O75" s="136">
         <f>(IF($O74&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O74=$O$6+$P$6,$O$103,0),0),0)+IF($P74&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P74=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" s="135"/>
       <c r="Q75" s="136">
@@ -11291,17 +11305,17 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="48">
@@ -11310,14 +11324,14 @@
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K78" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="45"/>
       <c r="O78" s="44">
@@ -11330,7 +11344,7 @@
       </c>
       <c r="S78" s="130">
         <f>SUM(C79:R79)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11338,7 +11352,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="48"/>
+      <c r="Z78" s="123"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="130">
         <f>SUM(T79:AA79)</f>
@@ -11364,7 +11378,7 @@
       </c>
       <c r="AL78" s="130">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11405,7 +11419,7 @@
       <c r="N79" s="135"/>
       <c r="O79" s="136">
         <f>(IF($O78&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O78=$O$6+$P$6,$O$103,0),0),0)+IF($P78&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P78=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" s="135"/>
       <c r="Q79" s="136">
@@ -11687,46 +11701,46 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="187">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B82" s="212" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C82" s="199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="200"/>
       <c r="E82" s="201">
+        <v>7</v>
+      </c>
+      <c r="F82" s="200"/>
+      <c r="G82" s="202">
         <v>6</v>
       </c>
-      <c r="F82" s="200"/>
-      <c r="G82" s="202"/>
-      <c r="H82" s="203">
-        <v>7</v>
-      </c>
+      <c r="H82" s="203"/>
       <c r="I82" s="201"/>
       <c r="J82" s="203">
+        <v>7</v>
+      </c>
+      <c r="K82" s="204">
+        <v>7</v>
+      </c>
+      <c r="L82" s="203"/>
+      <c r="M82" s="201">
         <v>6</v>
       </c>
-      <c r="K82" s="204">
-        <v>5</v>
-      </c>
-      <c r="L82" s="203"/>
-      <c r="M82" s="201"/>
-      <c r="N82" s="200">
-        <v>7</v>
-      </c>
+      <c r="N82" s="200"/>
       <c r="O82" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P82" s="200"/>
       <c r="Q82" s="202"/>
       <c r="R82" s="205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S82" s="206">
         <f>SUM(C83:R83)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T82" s="199"/>
       <c r="U82" s="203"/>
@@ -11734,7 +11748,7 @@
       <c r="W82" s="203"/>
       <c r="X82" s="204"/>
       <c r="Y82" s="200"/>
-      <c r="Z82" s="209"/>
+      <c r="Z82" s="202"/>
       <c r="AA82" s="203"/>
       <c r="AB82" s="206">
         <f>SUM(T83:AA83)</f>
@@ -11756,11 +11770,11 @@
       </c>
       <c r="AK82" s="208">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL82" s="206">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11781,7 +11795,7 @@
       <c r="F83" s="135"/>
       <c r="G83" s="133">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G82=$G$6+$H$6,$O$103,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H82=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" s="135"/>
       <c r="I83" s="136">
@@ -11796,12 +11810,12 @@
       <c r="L83" s="135"/>
       <c r="M83" s="133">
         <f>(IF($M82&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M82=$M$6+$N$6,$O$103,0),0),0)+IF($N82&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N82=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N83" s="135"/>
       <c r="O83" s="136">
         <f>(IF($O82&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O82=$O$6+$P$6,$O$103,0),0),0)+IF($P82&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P82=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" s="135"/>
       <c r="Q83" s="136">
@@ -12083,46 +12097,46 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C86" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="44">
+        <v>6</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="47">
         <v>7</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="48">
-        <v>5</v>
-      </c>
-      <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
+        <v>6</v>
+      </c>
+      <c r="K86" s="49">
         <v>5</v>
       </c>
-      <c r="K86" s="49">
-        <v>7</v>
-      </c>
       <c r="L86" s="47"/>
-      <c r="M86" s="44">
+      <c r="M86" s="44"/>
+      <c r="N86" s="45">
         <v>6</v>
       </c>
-      <c r="N86" s="45"/>
       <c r="O86" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P86" s="45"/>
       <c r="Q86" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R86" s="50"/>
       <c r="S86" s="130">
         <f>SUM(C87:R87)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12156,7 +12170,7 @@
       </c>
       <c r="AL86" s="130">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12177,7 +12191,7 @@
       <c r="F87" s="135"/>
       <c r="G87" s="133">
         <f>(IF($G86&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G86=$G$6+$H$6,$O$103,0),0),0)+IF($H86&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H86=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="135"/>
       <c r="I87" s="136">
@@ -12192,12 +12206,12 @@
       <c r="L87" s="135"/>
       <c r="M87" s="133">
         <f>(IF($M86&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M86=$M$6+$N$6,$O$103,0),0),0)+IF($N86&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N86=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N87" s="135"/>
       <c r="O87" s="136">
         <f>(IF($O86&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O86=$O$6+$P$6,$O$103,0),0),0)+IF($P86&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P86=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" s="135"/>
       <c r="Q87" s="136">
@@ -12479,46 +12493,46 @@
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="187">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="212" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C90" s="199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="200"/>
       <c r="E90" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" s="200"/>
-      <c r="G90" s="202"/>
-      <c r="H90" s="203">
-        <v>7</v>
-      </c>
+      <c r="G90" s="202">
+        <v>5</v>
+      </c>
+      <c r="H90" s="203"/>
       <c r="I90" s="201"/>
       <c r="J90" s="203">
+        <v>5</v>
+      </c>
+      <c r="K90" s="204">
+        <v>7</v>
+      </c>
+      <c r="L90" s="203"/>
+      <c r="M90" s="201">
         <v>6</v>
       </c>
-      <c r="K90" s="204">
-        <v>5</v>
-      </c>
-      <c r="L90" s="203"/>
-      <c r="M90" s="201"/>
-      <c r="N90" s="200">
-        <v>6</v>
-      </c>
+      <c r="N90" s="200"/>
       <c r="O90" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P90" s="200"/>
       <c r="Q90" s="202">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R90" s="205"/>
       <c r="S90" s="206">
         <f>SUM(C91:R91)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T90" s="199"/>
       <c r="U90" s="203"/>
@@ -12548,11 +12562,11 @@
       </c>
       <c r="AK90" s="208">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL90" s="206">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12573,7 +12587,7 @@
       <c r="F91" s="135"/>
       <c r="G91" s="133">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="135"/>
       <c r="I91" s="136">
@@ -12588,12 +12602,12 @@
       <c r="L91" s="135"/>
       <c r="M91" s="133">
         <f>(IF($M90&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M90=$M$6+$N$6,$O$103,0),0),0)+IF($N90&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N90=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91" s="135"/>
       <c r="O91" s="136">
         <f>(IF($O90&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O90=$O$6+$P$6,$O$103,0),0),0)+IF($P90&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P90=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" s="135"/>
       <c r="Q91" s="136">
@@ -12884,15 +12898,15 @@
         <v>7</v>
       </c>
       <c r="D94" s="228"/>
-      <c r="E94" s="236">
+      <c r="E94" s="234">
         <v>6</v>
       </c>
       <c r="F94" s="228"/>
-      <c r="G94" s="237"/>
+      <c r="G94" s="235"/>
       <c r="H94" s="231">
         <v>6</v>
       </c>
-      <c r="I94" s="236"/>
+      <c r="I94" s="234"/>
       <c r="J94" s="231">
         <v>7</v>
       </c>
@@ -12914,11 +12928,11 @@
       <c r="R94" s="233"/>
       <c r="S94" s="130">
         <f>SUM(C95:R95)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="238"/>
+      <c r="V94" s="236"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
       <c r="Y94" s="128"/>
@@ -12944,11 +12958,11 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL94" s="219">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12969,7 +12983,7 @@
       <c r="F95" s="135"/>
       <c r="G95" s="133">
         <f>(IF($G94&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G94=$G$6+$H$6,$O$103,0),0),0)+IF($H94&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H94=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="135"/>
       <c r="I95" s="136">
@@ -12989,7 +13003,7 @@
       <c r="N95" s="135"/>
       <c r="O95" s="136">
         <f>(IF($O94&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O94=$O$6+$P$6,$O$103,0),0),0)+IF($P94&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P94=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="135"/>
       <c r="Q95" s="136">
@@ -13401,12 +13415,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="241" t="s">
+      <c r="O100" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="242"/>
-      <c r="Q100" s="242"/>
-      <c r="R100" s="243"/>
+      <c r="P100" s="278"/>
+      <c r="Q100" s="278"/>
+      <c r="R100" s="279"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13415,21 +13429,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="270" t="s">
+      <c r="B101" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="271"/>
-      <c r="D101" s="271"/>
-      <c r="E101" s="271"/>
-      <c r="F101" s="271"/>
-      <c r="G101" s="271"/>
-      <c r="H101" s="271"/>
-      <c r="I101" s="271"/>
-      <c r="J101" s="271"/>
-      <c r="K101" s="271"/>
-      <c r="L101" s="271"/>
-      <c r="M101" s="271"/>
-      <c r="N101" s="272"/>
+      <c r="C101" s="266"/>
+      <c r="D101" s="266"/>
+      <c r="E101" s="266"/>
+      <c r="F101" s="266"/>
+      <c r="G101" s="266"/>
+      <c r="H101" s="266"/>
+      <c r="I101" s="266"/>
+      <c r="J101" s="266"/>
+      <c r="K101" s="266"/>
+      <c r="L101" s="266"/>
+      <c r="M101" s="266"/>
+      <c r="N101" s="267"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13442,45 +13456,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="244" t="s">
+      <c r="U101" s="280" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="245"/>
-      <c r="W101" s="245"/>
-      <c r="X101" s="245"/>
-      <c r="Y101" s="245"/>
-      <c r="Z101" s="245"/>
-      <c r="AA101" s="245"/>
-      <c r="AB101" s="245"/>
-      <c r="AC101" s="245"/>
-      <c r="AD101" s="246"/>
+      <c r="V101" s="281"/>
+      <c r="W101" s="281"/>
+      <c r="X101" s="281"/>
+      <c r="Y101" s="281"/>
+      <c r="Z101" s="281"/>
+      <c r="AA101" s="281"/>
+      <c r="AB101" s="281"/>
+      <c r="AC101" s="281"/>
+      <c r="AD101" s="282"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="247" t="s">
+      <c r="AG101" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="248"/>
-      <c r="AI101" s="248"/>
-      <c r="AJ101" s="248"/>
-      <c r="AK101" s="249"/>
+      <c r="AH101" s="284"/>
+      <c r="AI101" s="284"/>
+      <c r="AJ101" s="284"/>
+      <c r="AK101" s="285"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="277" t="s">
+      <c r="B102" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="278"/>
-      <c r="D102" s="278"/>
-      <c r="E102" s="278"/>
-      <c r="F102" s="278"/>
-      <c r="G102" s="278"/>
-      <c r="H102" s="278"/>
-      <c r="I102" s="278"/>
-      <c r="J102" s="278"/>
-      <c r="K102" s="278"/>
-      <c r="L102" s="278"/>
-      <c r="M102" s="278"/>
-      <c r="N102" s="279"/>
+      <c r="C102" s="245"/>
+      <c r="D102" s="245"/>
+      <c r="E102" s="245"/>
+      <c r="F102" s="245"/>
+      <c r="G102" s="245"/>
+      <c r="H102" s="245"/>
+      <c r="I102" s="245"/>
+      <c r="J102" s="245"/>
+      <c r="K102" s="245"/>
+      <c r="L102" s="245"/>
+      <c r="M102" s="245"/>
+      <c r="N102" s="246"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13493,49 +13507,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="275" t="s">
+      <c r="U102" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="276"/>
-      <c r="W102" s="276"/>
-      <c r="X102" s="276"/>
-      <c r="Y102" s="276"/>
-      <c r="Z102" s="276"/>
-      <c r="AA102" s="276"/>
-      <c r="AB102" s="273">
+      <c r="V102" s="271"/>
+      <c r="W102" s="271"/>
+      <c r="X102" s="271"/>
+      <c r="Y102" s="271"/>
+      <c r="Z102" s="271"/>
+      <c r="AA102" s="271"/>
+      <c r="AB102" s="268">
         <v>22</v>
       </c>
-      <c r="AC102" s="273"/>
-      <c r="AD102" s="274"/>
+      <c r="AC102" s="268"/>
+      <c r="AD102" s="269"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="289" t="s">
+      <c r="AG102" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="290"/>
-      <c r="AI102" s="290"/>
-      <c r="AJ102" s="291"/>
+      <c r="AH102" s="252"/>
+      <c r="AI102" s="252"/>
+      <c r="AJ102" s="253"/>
       <c r="AK102" s="224">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="277" t="s">
+      <c r="B103" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="278"/>
-      <c r="D103" s="278"/>
-      <c r="E103" s="278"/>
-      <c r="F103" s="278"/>
-      <c r="G103" s="278"/>
-      <c r="H103" s="278"/>
-      <c r="I103" s="278"/>
-      <c r="J103" s="278"/>
-      <c r="K103" s="278"/>
-      <c r="L103" s="278"/>
-      <c r="M103" s="278"/>
-      <c r="N103" s="279"/>
+      <c r="C103" s="245"/>
+      <c r="D103" s="245"/>
+      <c r="E103" s="245"/>
+      <c r="F103" s="245"/>
+      <c r="G103" s="245"/>
+      <c r="H103" s="245"/>
+      <c r="I103" s="245"/>
+      <c r="J103" s="245"/>
+      <c r="K103" s="245"/>
+      <c r="L103" s="245"/>
+      <c r="M103" s="245"/>
+      <c r="N103" s="246"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13548,49 +13562,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="284" t="s">
+      <c r="U103" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="285"/>
-      <c r="W103" s="285"/>
-      <c r="X103" s="285"/>
-      <c r="Y103" s="285"/>
-      <c r="Z103" s="285"/>
-      <c r="AA103" s="285"/>
-      <c r="AB103" s="286">
+      <c r="V103" s="250"/>
+      <c r="W103" s="250"/>
+      <c r="X103" s="250"/>
+      <c r="Y103" s="250"/>
+      <c r="Z103" s="250"/>
+      <c r="AA103" s="250"/>
+      <c r="AB103" s="275">
         <v>20</v>
       </c>
-      <c r="AC103" s="286"/>
-      <c r="AD103" s="287"/>
+      <c r="AC103" s="275"/>
+      <c r="AD103" s="276"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="292" t="s">
+      <c r="AG103" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="278"/>
-      <c r="AI103" s="278"/>
-      <c r="AJ103" s="279"/>
+      <c r="AH103" s="245"/>
+      <c r="AI103" s="245"/>
+      <c r="AJ103" s="246"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="263" t="s">
+      <c r="B104" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="264"/>
-      <c r="D104" s="264"/>
-      <c r="E104" s="264"/>
-      <c r="F104" s="264"/>
-      <c r="G104" s="264"/>
-      <c r="H104" s="264"/>
-      <c r="I104" s="264"/>
-      <c r="J104" s="264"/>
-      <c r="K104" s="264"/>
-      <c r="L104" s="264"/>
-      <c r="M104" s="264"/>
-      <c r="N104" s="265"/>
+      <c r="C104" s="259"/>
+      <c r="D104" s="259"/>
+      <c r="E104" s="259"/>
+      <c r="F104" s="259"/>
+      <c r="G104" s="259"/>
+      <c r="H104" s="259"/>
+      <c r="I104" s="259"/>
+      <c r="J104" s="259"/>
+      <c r="K104" s="259"/>
+      <c r="L104" s="259"/>
+      <c r="M104" s="259"/>
+      <c r="N104" s="260"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13603,51 +13617,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="280" t="s">
+      <c r="U104" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="281"/>
-      <c r="W104" s="281"/>
-      <c r="X104" s="281"/>
-      <c r="Y104" s="281"/>
-      <c r="Z104" s="281"/>
-      <c r="AA104" s="281"/>
-      <c r="AB104" s="282">
+      <c r="V104" s="248"/>
+      <c r="W104" s="248"/>
+      <c r="X104" s="248"/>
+      <c r="Y104" s="248"/>
+      <c r="Z104" s="248"/>
+      <c r="AA104" s="248"/>
+      <c r="AB104" s="273">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="282"/>
-      <c r="AD104" s="283"/>
+      <c r="AC104" s="273"/>
+      <c r="AD104" s="274"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="292" t="s">
+      <c r="AG104" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="278"/>
-      <c r="AI104" s="278"/>
-      <c r="AJ104" s="279"/>
+      <c r="AH104" s="245"/>
+      <c r="AI104" s="245"/>
+      <c r="AJ104" s="246"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="284" t="s">
+      <c r="AG105" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="285"/>
-      <c r="AI105" s="285"/>
-      <c r="AJ105" s="285"/>
+      <c r="AH105" s="250"/>
+      <c r="AI105" s="250"/>
+      <c r="AJ105" s="250"/>
       <c r="AK105" s="226">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="288" t="s">
+      <c r="AG106" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="281"/>
-      <c r="AI106" s="281"/>
-      <c r="AJ106" s="281"/>
+      <c r="AH106" s="248"/>
+      <c r="AI106" s="248"/>
+      <c r="AJ106" s="248"/>
       <c r="AK106" s="225">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13659,12 +13673,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13681,22 +13705,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14220,7 +14234,7 @@
     <hyperlink ref="Q2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="5" scale="95" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="5" scale="91" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Arial,Gras"&amp;20Pool des séries - Ville de Laval&amp;R
 &amp;"Arial,Italique"Dernière mise à jour: &amp;"Arial,Gras italique"&amp;D - &amp;T</oddHeader>
@@ -14328,7 +14342,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14513,7 +14527,9 @@
       <c r="D6" s="85">
         <v>4</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="85">
+        <v>2</v>
+      </c>
       <c r="F6" s="85"/>
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
@@ -14565,14 +14581,16 @@
       <c r="D7" s="85">
         <v>1</v>
       </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="85">
+        <v>3</v>
+      </c>
       <c r="F7" s="85"/>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
       <c r="J7" s="77">
         <f>IF(C7&gt;C6,1,0)+IF(D7&gt;D6,1,0)+IF(E7&gt;E6,1,0)+IF(F7&gt;F6,1,0)+IF(G7&gt;G6,1,0)+IF(H7&gt;H6,1,0)+IF(I7&gt;I6,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="4"/>
@@ -14761,14 +14779,16 @@
       <c r="D11" s="85">
         <v>3</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="85">
+        <v>5</v>
+      </c>
       <c r="F11" s="85"/>
       <c r="G11" s="86"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
       <c r="J11" s="77">
         <f>IF(C11&gt;C10,1,0)+IF(D11&gt;D10,1,0)+IF(E11&gt;E10,1,0)+IF(F11&gt;F10,1,0)+IF(G11&gt;G10,1,0)+IF(H11&gt;H10,1,0)+IF(I11&gt;I10,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
@@ -14806,7 +14826,9 @@
       <c r="B12" s="90"/>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
       <c r="F12" s="91"/>
       <c r="G12" s="91"/>
       <c r="H12" s="91"/>
@@ -15022,7 +15044,9 @@
       <c r="D17" s="86">
         <v>2</v>
       </c>
-      <c r="E17" s="85"/>
+      <c r="E17" s="85">
+        <v>2</v>
+      </c>
       <c r="F17" s="86"/>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
@@ -15068,14 +15092,16 @@
       <c r="D18" s="86">
         <v>3</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="85">
+        <v>6</v>
+      </c>
       <c r="F18" s="86"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="77">
         <f>IF(C18&gt;C17,1,0)+IF(D18&gt;D17,1,0)+IF(E18&gt;E17,1,0)+IF(F18&gt;F17,1,0)+IF(G18&gt;G17,1,0)+IF(H18&gt;H17,1,0)+IF(I18&gt;I17,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
@@ -15345,14 +15371,16 @@
       <c r="D24" s="85">
         <v>2</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="85">
+        <v>3</v>
+      </c>
       <c r="F24" s="85"/>
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
       <c r="J24" s="77">
         <f>IF(C24&gt;C25,1,0)+IF(D24&gt;D25,1,0)+IF(E24&gt;E25,1,0)+IF(F24&gt;F25,1,0)+IF(G24&gt;G25,1,0)+IF(H24&gt;H25,1,0)+IF(I24&gt;I25,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -15398,7 +15426,9 @@
       <c r="D25" s="85">
         <v>1</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="85">
+        <v>2</v>
+      </c>
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
@@ -15726,4 +15756,126 @@
 Dernière mise à jour: &amp;"Arial,Gras italique"&amp;D - &amp;T</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="304">
+        <v>43565</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="304">
+        <v>43565</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="304">
+        <v>43565</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="304">
+        <v>43565</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="304">
+        <v>43565</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/laval.xlsx
+++ b/laval.xlsx
@@ -2462,30 +2462,150 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2537,151 +2657,31 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3905,217 +3905,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="273"/>
-      <c r="U1" s="273"/>
-      <c r="V1" s="273"/>
-      <c r="W1" s="273"/>
-      <c r="X1" s="273"/>
-      <c r="Y1" s="273"/>
-      <c r="Z1" s="273"/>
-      <c r="AA1" s="273"/>
-      <c r="AB1" s="273"/>
-      <c r="AC1" s="273"/>
-      <c r="AD1" s="273"/>
-      <c r="AE1" s="273"/>
-      <c r="AF1" s="273"/>
-      <c r="AG1" s="273"/>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="273"/>
-      <c r="AJ1" s="273"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="272"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="272"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="272"/>
+      <c r="AJ1" s="272"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="275" t="s">
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="272"/>
+      <c r="U2" s="272"/>
+      <c r="V2" s="272"/>
+      <c r="W2" s="272"/>
+      <c r="X2" s="272"/>
+      <c r="Y2" s="272"/>
+      <c r="Z2" s="272"/>
+      <c r="AA2" s="272"/>
+      <c r="AB2" s="272"/>
+      <c r="AC2" s="272"/>
+      <c r="AD2" s="272"/>
+      <c r="AE2" s="272"/>
+      <c r="AF2" s="272"/>
+      <c r="AG2" s="272"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="272"/>
+      <c r="AJ2" s="272"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="273"/>
-      <c r="AB3" s="273"/>
-      <c r="AC3" s="273"/>
-      <c r="AD3" s="273"/>
-      <c r="AE3" s="273"/>
-      <c r="AF3" s="273"/>
-      <c r="AG3" s="273"/>
-      <c r="AH3" s="273"/>
-      <c r="AI3" s="273"/>
-      <c r="AJ3" s="273"/>
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="271"/>
+      <c r="K3" s="271"/>
+      <c r="L3" s="271"/>
+      <c r="M3" s="271"/>
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="272"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="272"/>
+      <c r="AC3" s="272"/>
+      <c r="AD3" s="272"/>
+      <c r="AE3" s="272"/>
+      <c r="AF3" s="272"/>
+      <c r="AG3" s="272"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="272"/>
+      <c r="AJ3" s="272"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="257"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="257"/>
-      <c r="O4" s="257"/>
-      <c r="P4" s="257"/>
-      <c r="Q4" s="257"/>
-      <c r="R4" s="257"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="256" t="s">
+      <c r="C4" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="257"/>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
-      <c r="X4" s="257"/>
-      <c r="Y4" s="257"/>
-      <c r="Z4" s="257"/>
-      <c r="AA4" s="257"/>
-      <c r="AB4" s="258"/>
-      <c r="AC4" s="256" t="s">
+      <c r="U4" s="297"/>
+      <c r="V4" s="297"/>
+      <c r="W4" s="297"/>
+      <c r="X4" s="297"/>
+      <c r="Y4" s="297"/>
+      <c r="Z4" s="297"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="296" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="257"/>
-      <c r="AE4" s="257"/>
-      <c r="AF4" s="257"/>
-      <c r="AG4" s="267"/>
-      <c r="AH4" s="256" t="s">
+      <c r="AD4" s="297"/>
+      <c r="AE4" s="297"/>
+      <c r="AF4" s="297"/>
+      <c r="AG4" s="305"/>
+      <c r="AH4" s="296" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="257"/>
-      <c r="AJ4" s="258"/>
+      <c r="AI4" s="297"/>
+      <c r="AJ4" s="298"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="263" t="s">
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="264"/>
-      <c r="Q5" s="264"/>
-      <c r="R5" s="265"/>
-      <c r="S5" s="259" t="s">
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="268" t="s">
+      <c r="T5" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="264"/>
-      <c r="V5" s="264"/>
-      <c r="W5" s="265"/>
-      <c r="X5" s="263" t="s">
+      <c r="U5" s="266"/>
+      <c r="V5" s="266"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="264"/>
-      <c r="Z5" s="264"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="259" t="s">
+      <c r="Y5" s="266"/>
+      <c r="Z5" s="266"/>
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="266" t="s">
+      <c r="AC5" s="304" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="265"/>
-      <c r="AE5" s="263" t="s">
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="303" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="265"/>
-      <c r="AG5" s="259" t="s">
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="299" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="259" t="s">
+      <c r="AJ5" s="299" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4127,13 +4127,13 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="303">
+      <c r="D6" s="244">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
       <c r="E6" s="172">
         <f>Résultats!$J$6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
@@ -4147,7 +4147,7 @@
         <f>Résultats!$J$11</f>
         <v>1</v>
       </c>
-      <c r="I6" s="299">
+      <c r="I6" s="240">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="L6" s="108">
         <f>Résultats!$J$18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="172">
         <f>Résultats!$J$20</f>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="P6" s="109">
         <f>Résultats!$J$25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="111">
         <f>Résultats!$J$27</f>
@@ -4187,7 +4187,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="260"/>
+      <c r="S6" s="300"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="260"/>
+      <c r="AB6" s="300"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="260"/>
+      <c r="AG6" s="300"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4246,7 +4246,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="260"/>
+      <c r="AJ6" s="300"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,12 +4257,12 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="304"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="173"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="300"/>
+      <c r="I7" s="241"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
       <c r="L7" s="117"/>
@@ -4272,7 +4272,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="260"/>
+      <c r="S7" s="300"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4281,15 +4281,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="260"/>
+      <c r="AB7" s="300"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="260"/>
+      <c r="AG7" s="300"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="260"/>
+      <c r="AJ7" s="300"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="305" t="str">
+      <c r="D8" s="246" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
@@ -4319,7 +4319,7 @@
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="301" t="str">
+      <c r="I8" s="242" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4359,7 +4359,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="260"/>
+      <c r="S8" s="300"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4392,7 +4392,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="260"/>
+      <c r="AB8" s="300"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4409,7 +4409,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="260"/>
+      <c r="AG8" s="300"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4418,7 +4418,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="260"/>
+      <c r="AJ8" s="300"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="306" t="str">
+      <c r="D9" s="247" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
@@ -4452,7 +4452,7 @@
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="302" t="str">
+      <c r="I9" s="243" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4492,7 +4492,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="262"/>
+      <c r="S9" s="302"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4525,7 +4525,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="261"/>
+      <c r="AB9" s="301"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4542,7 +4542,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="261"/>
+      <c r="AG9" s="301"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4551,7 +4551,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="262"/>
+      <c r="AJ9" s="302"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="S10" s="194">
         <f>SUM(C11:R11)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T10" s="187"/>
       <c r="U10" s="189"/>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="AL10" s="194">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4651,7 +4651,7 @@
       <c r="D11" s="134"/>
       <c r="E11" s="132">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E10=$E$6+$F$6,$O$103,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F10=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="134"/>
       <c r="G11" s="132">
@@ -4958,7 +4958,7 @@
     <row r="14" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122">
         <f>RANK(AL14,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="88" t="s">
         <v>71</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="307"/>
+      <c r="AD14" s="248"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="129">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
       <c r="D15" s="150"/>
       <c r="E15" s="132">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="150"/>
       <c r="G15" s="132">
@@ -5072,7 +5072,7 @@
       <c r="N15" s="150"/>
       <c r="O15" s="126">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
@@ -5100,7 +5100,7 @@
       <c r="AJ15" s="128"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL15" s="128"/>
     </row>
@@ -5394,9 +5394,9 @@
         <v>7</v>
       </c>
       <c r="R18" s="204"/>
-      <c r="S18" s="309">
+      <c r="S18" s="250">
         <f>SUM(C19:R19)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5446,7 +5446,7 @@
       <c r="D19" s="150"/>
       <c r="E19" s="126">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E18=$E$6+$F$6,$O$103,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F18=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="150"/>
       <c r="G19" s="126">
@@ -5499,7 +5499,7 @@
       <c r="AJ19" s="154"/>
       <c r="AK19" s="162">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" s="128"/>
     </row>
@@ -5795,7 +5795,7 @@
       <c r="R22" s="50"/>
       <c r="S22" s="116">
         <f>SUM(C23:R23)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5845,7 +5845,7 @@
       <c r="D23" s="163"/>
       <c r="E23" s="132">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E22=$E$6+$F$6,$O$103,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F22=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="163"/>
       <c r="G23" s="132">
@@ -5898,7 +5898,7 @@
       <c r="AJ23" s="154"/>
       <c r="AK23" s="162">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL23" s="128"/>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
       <c r="J27" s="151"/>
       <c r="K27" s="152">
         <f>(IF($K26&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K26=$K$6+$L$6,$O$103,0),0),0)+IF($L26&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L26=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="150"/>
       <c r="M27" s="126">
@@ -6297,7 +6297,7 @@
       <c r="AJ27" s="154"/>
       <c r="AK27" s="162">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL27" s="128"/>
     </row>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
@@ -6696,7 +6696,7 @@
       <c r="AJ31" s="128"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL31" s="128"/>
     </row>
@@ -6956,18 +6956,18 @@
         <v>6</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C34" s="198">
+        <v>4</v>
+      </c>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200">
+        <v>4</v>
+      </c>
+      <c r="F34" s="199"/>
+      <c r="G34" s="201">
         <v>6</v>
-      </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="199">
-        <v>7</v>
-      </c>
-      <c r="G34" s="201">
-        <v>7</v>
       </c>
       <c r="H34" s="202"/>
       <c r="I34" s="200"/>
@@ -6979,11 +6979,11 @@
       </c>
       <c r="L34" s="202"/>
       <c r="M34" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N34" s="199"/>
       <c r="O34" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34" s="199"/>
       <c r="Q34" s="201"/>
@@ -7000,14 +7000,14 @@
       <c r="W34" s="202"/>
       <c r="X34" s="203"/>
       <c r="Y34" s="199"/>
-      <c r="Z34" s="201"/>
+      <c r="Z34" s="208"/>
       <c r="AA34" s="202"/>
       <c r="AB34" s="205">
         <f>SUM(T35:AA35)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="201"/>
-      <c r="AD34" s="202"/>
+      <c r="AD34" s="234"/>
       <c r="AE34" s="203"/>
       <c r="AF34" s="202"/>
       <c r="AG34" s="205">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
@@ -7095,7 +7095,7 @@
       <c r="AJ35" s="128"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL35" s="128"/>
     </row>
@@ -7355,10 +7355,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C38" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="44"/>
@@ -7366,34 +7366,34 @@
         <v>7</v>
       </c>
       <c r="G38" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L38" s="47"/>
       <c r="M38" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P38" s="45"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
         <v>12</v>
       </c>
-      <c r="T38" s="237"/>
+      <c r="T38" s="46"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
@@ -7494,7 +7494,7 @@
       <c r="AJ39" s="128"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL39" s="128"/>
     </row>
@@ -7751,46 +7751,46 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="198">
-        <v>4</v>
-      </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200">
-        <v>4</v>
-      </c>
-      <c r="F42" s="199"/>
-      <c r="G42" s="201">
+        <v>68</v>
+      </c>
+      <c r="C42" s="306">
+        <v>5</v>
+      </c>
+      <c r="D42" s="307"/>
+      <c r="E42" s="308">
         <v>6</v>
       </c>
-      <c r="H42" s="202"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="202">
+      <c r="F42" s="307"/>
+      <c r="G42" s="309">
+        <v>5</v>
+      </c>
+      <c r="H42" s="310"/>
+      <c r="I42" s="308"/>
+      <c r="J42" s="310">
         <v>6</v>
       </c>
-      <c r="K42" s="203">
+      <c r="K42" s="311">
         <v>6</v>
       </c>
-      <c r="L42" s="202"/>
-      <c r="M42" s="200">
-        <v>5</v>
-      </c>
-      <c r="N42" s="199"/>
-      <c r="O42" s="200">
+      <c r="L42" s="310"/>
+      <c r="M42" s="308">
+        <v>7</v>
+      </c>
+      <c r="N42" s="307"/>
+      <c r="O42" s="308">
         <v>6</v>
       </c>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="204">
+      <c r="P42" s="307"/>
+      <c r="Q42" s="309"/>
+      <c r="R42" s="312">
         <v>6</v>
       </c>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -7798,14 +7798,14 @@
       <c r="W42" s="202"/>
       <c r="X42" s="203"/>
       <c r="Y42" s="199"/>
-      <c r="Z42" s="208"/>
+      <c r="Z42" s="201"/>
       <c r="AA42" s="202"/>
       <c r="AB42" s="205">
         <f>SUM(T43:AA43)</f>
         <v>0</v>
       </c>
       <c r="AC42" s="201"/>
-      <c r="AD42" s="234"/>
+      <c r="AD42" s="202"/>
       <c r="AE42" s="203"/>
       <c r="AF42" s="202"/>
       <c r="AG42" s="205">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7840,7 +7840,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
@@ -7893,7 +7893,7 @@
       <c r="AJ43" s="128"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL43" s="128"/>
     </row>
@@ -8150,48 +8150,48 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="239">
+        <v>78</v>
+      </c>
+      <c r="C46" s="46">
         <v>5</v>
       </c>
-      <c r="D46" s="240"/>
-      <c r="E46" s="241">
+      <c r="D46" s="45"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45">
+        <v>7</v>
+      </c>
+      <c r="G46" s="48">
         <v>6</v>
       </c>
-      <c r="F46" s="240"/>
-      <c r="G46" s="242">
+      <c r="H46" s="47"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="47">
+        <v>7</v>
+      </c>
+      <c r="K46" s="49">
         <v>5</v>
       </c>
-      <c r="H46" s="243"/>
-      <c r="I46" s="241"/>
-      <c r="J46" s="243">
+      <c r="L46" s="47"/>
+      <c r="M46" s="44">
         <v>6</v>
       </c>
-      <c r="K46" s="244">
-        <v>6</v>
-      </c>
-      <c r="L46" s="243"/>
-      <c r="M46" s="241">
+      <c r="N46" s="45"/>
+      <c r="O46" s="44">
         <v>7</v>
       </c>
-      <c r="N46" s="240"/>
-      <c r="O46" s="241">
-        <v>6</v>
-      </c>
-      <c r="P46" s="240"/>
-      <c r="Q46" s="242"/>
-      <c r="R46" s="245">
-        <v>6</v>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="50">
+        <v>7</v>
       </c>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
-        <v>11</v>
-      </c>
-      <c r="T46" s="46"/>
+        <v>12</v>
+      </c>
+      <c r="T46" s="237"/>
       <c r="U46" s="47"/>
       <c r="V46" s="44"/>
       <c r="W46" s="47"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="AL46" s="129">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
@@ -8292,7 +8292,7 @@
       <c r="AJ47" s="128"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL47" s="128"/>
     </row>
@@ -8549,7 +8549,7 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50" s="211" t="s">
         <v>85</v>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
       <c r="D51" s="134"/>
       <c r="E51" s="132">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E50=$E$6+$F$6,$O$103,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F50=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="134"/>
       <c r="G51" s="132">
@@ -8945,7 +8945,7 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" s="88" t="s">
         <v>82</v>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="S54" s="129">
         <f>SUM(C55:R55)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="AL54" s="129">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9034,7 +9034,7 @@
       <c r="D55" s="134"/>
       <c r="E55" s="132">
         <f>(IF($E54&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E54=$E$6+$F$6,$O$103,0),0),0)+IF($F54&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F54=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="134"/>
       <c r="G55" s="132">
@@ -9341,7 +9341,7 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="186">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" s="211" t="s">
         <v>80</v>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="S58" s="205">
         <f>SUM(C59:R59)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T58" s="198"/>
       <c r="U58" s="202"/>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="AL58" s="205">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9430,7 +9430,7 @@
       <c r="D59" s="134"/>
       <c r="E59" s="132">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E58=$E$6+$F$6,$O$103,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F58=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="134"/>
       <c r="G59" s="132">
@@ -9737,7 +9737,7 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B62" s="88" t="s">
         <v>74</v>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AL62" s="129">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9826,7 +9826,7 @@
       <c r="D63" s="134"/>
       <c r="E63" s="132">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E62=$E$6+$F$6,$O$103,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F62=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="134"/>
       <c r="G63" s="132">
@@ -10133,7 +10133,7 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B66" s="211" t="s">
         <v>75</v>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="S66" s="205">
         <f>SUM(C67:R67)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T66" s="198"/>
       <c r="U66" s="202"/>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="AL66" s="205">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10222,7 +10222,7 @@
       <c r="D67" s="134"/>
       <c r="E67" s="132">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E66=$E$6+$F$6,$O$103,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F66=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="134"/>
       <c r="G67" s="132">
@@ -10529,7 +10529,7 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B70" s="88" t="s">
         <v>76</v>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="AL70" s="129">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10618,7 +10618,7 @@
       <c r="D71" s="134"/>
       <c r="E71" s="132">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E70=$E$6+$F$6,$O$103,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F70=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="134"/>
       <c r="G71" s="132">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T74" s="198"/>
       <c r="U74" s="202"/>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11014,7 +11014,7 @@
       <c r="D75" s="134"/>
       <c r="E75" s="132">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E74=$E$6+$F$6,$O$103,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F74=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="134"/>
       <c r="G75" s="132">
@@ -11360,7 +11360,7 @@
       <c r="R78" s="50"/>
       <c r="S78" s="129">
         <f>SUM(C79:R79)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11382,7 +11382,7 @@
         <f>SUM(AC79:AF79)</f>
         <v>0</v>
       </c>
-      <c r="AH78" s="308"/>
+      <c r="AH78" s="249"/>
       <c r="AI78" s="58"/>
       <c r="AJ78" s="129">
         <f>AH79</f>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11410,7 +11410,7 @@
       <c r="D79" s="134"/>
       <c r="E79" s="132">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E78=$E$6+$F$6,$O$103,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F78=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="134"/>
       <c r="G79" s="132">
@@ -11756,7 +11756,7 @@
       <c r="R82" s="204"/>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T82" s="198"/>
       <c r="U82" s="202"/>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11806,7 +11806,7 @@
       <c r="D83" s="134"/>
       <c r="E83" s="132">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E82=$E$6+$F$6,$O$103,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F82=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="134"/>
       <c r="G83" s="132">
@@ -12152,7 +12152,7 @@
       <c r="R86" s="50"/>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12202,7 +12202,7 @@
       <c r="D87" s="134"/>
       <c r="E87" s="132">
         <f>(IF($E86&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E86=$E$6+$F$6,$O$103,0),0),0)+IF($F86&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F86=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" s="134"/>
       <c r="G87" s="132">
@@ -12518,15 +12518,15 @@
         <v>7</v>
       </c>
       <c r="D90" s="199"/>
-      <c r="E90" s="310">
+      <c r="E90" s="251">
         <v>6</v>
       </c>
       <c r="F90" s="199"/>
-      <c r="G90" s="311"/>
+      <c r="G90" s="252"/>
       <c r="H90" s="202">
         <v>6</v>
       </c>
-      <c r="I90" s="310"/>
+      <c r="I90" s="251"/>
       <c r="J90" s="202">
         <v>7</v>
       </c>
@@ -12548,14 +12548,14 @@
       <c r="R90" s="204"/>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T90" s="198"/>
       <c r="U90" s="202"/>
-      <c r="V90" s="312"/>
+      <c r="V90" s="253"/>
       <c r="W90" s="202"/>
       <c r="X90" s="203"/>
-      <c r="Y90" s="246"/>
+      <c r="Y90" s="239"/>
       <c r="Z90" s="201"/>
       <c r="AA90" s="202"/>
       <c r="AB90" s="205">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12598,7 +12598,7 @@
       <c r="D91" s="134"/>
       <c r="E91" s="132">
         <f>(IF($E90&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E90=$E$6+$F$6,$O$103,0),0),0)+IF($F90&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F90=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" s="134"/>
       <c r="G91" s="132">
@@ -12944,7 +12944,7 @@
       <c r="R94" s="232"/>
       <c r="S94" s="129">
         <f>SUM(C95:R95)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12994,7 +12994,7 @@
       <c r="D95" s="134"/>
       <c r="E95" s="132">
         <f>(IF($E94&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E94=$E$6+$F$6,$O$103,0),0),0)+IF($F94&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F94=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="134"/>
       <c r="G95" s="132">
@@ -13431,12 +13431,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="247" t="s">
+      <c r="O100" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="248"/>
-      <c r="Q100" s="248"/>
-      <c r="R100" s="249"/>
+      <c r="P100" s="288"/>
+      <c r="Q100" s="288"/>
+      <c r="R100" s="289"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13445,21 +13445,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="276" t="s">
+      <c r="B101" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="277"/>
-      <c r="D101" s="277"/>
-      <c r="E101" s="277"/>
-      <c r="F101" s="277"/>
-      <c r="G101" s="277"/>
-      <c r="H101" s="277"/>
-      <c r="I101" s="277"/>
-      <c r="J101" s="277"/>
-      <c r="K101" s="277"/>
-      <c r="L101" s="277"/>
-      <c r="M101" s="277"/>
-      <c r="N101" s="278"/>
+      <c r="C101" s="276"/>
+      <c r="D101" s="276"/>
+      <c r="E101" s="276"/>
+      <c r="F101" s="276"/>
+      <c r="G101" s="276"/>
+      <c r="H101" s="276"/>
+      <c r="I101" s="276"/>
+      <c r="J101" s="276"/>
+      <c r="K101" s="276"/>
+      <c r="L101" s="276"/>
+      <c r="M101" s="276"/>
+      <c r="N101" s="277"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13472,45 +13472,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="250" t="s">
+      <c r="U101" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="251"/>
-      <c r="W101" s="251"/>
-      <c r="X101" s="251"/>
-      <c r="Y101" s="251"/>
-      <c r="Z101" s="251"/>
-      <c r="AA101" s="251"/>
-      <c r="AB101" s="251"/>
-      <c r="AC101" s="251"/>
-      <c r="AD101" s="252"/>
+      <c r="V101" s="291"/>
+      <c r="W101" s="291"/>
+      <c r="X101" s="291"/>
+      <c r="Y101" s="291"/>
+      <c r="Z101" s="291"/>
+      <c r="AA101" s="291"/>
+      <c r="AB101" s="291"/>
+      <c r="AC101" s="291"/>
+      <c r="AD101" s="292"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="253" t="s">
+      <c r="AG101" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="254"/>
-      <c r="AI101" s="254"/>
-      <c r="AJ101" s="254"/>
-      <c r="AK101" s="255"/>
+      <c r="AH101" s="294"/>
+      <c r="AI101" s="294"/>
+      <c r="AJ101" s="294"/>
+      <c r="AK101" s="295"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="283" t="s">
+      <c r="B102" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="284"/>
-      <c r="D102" s="284"/>
-      <c r="E102" s="284"/>
-      <c r="F102" s="284"/>
-      <c r="G102" s="284"/>
-      <c r="H102" s="284"/>
-      <c r="I102" s="284"/>
-      <c r="J102" s="284"/>
-      <c r="K102" s="284"/>
-      <c r="L102" s="284"/>
-      <c r="M102" s="284"/>
-      <c r="N102" s="285"/>
+      <c r="C102" s="255"/>
+      <c r="D102" s="255"/>
+      <c r="E102" s="255"/>
+      <c r="F102" s="255"/>
+      <c r="G102" s="255"/>
+      <c r="H102" s="255"/>
+      <c r="I102" s="255"/>
+      <c r="J102" s="255"/>
+      <c r="K102" s="255"/>
+      <c r="L102" s="255"/>
+      <c r="M102" s="255"/>
+      <c r="N102" s="256"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13523,49 +13523,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="281" t="s">
+      <c r="U102" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="282"/>
-      <c r="W102" s="282"/>
-      <c r="X102" s="282"/>
-      <c r="Y102" s="282"/>
-      <c r="Z102" s="282"/>
-      <c r="AA102" s="282"/>
-      <c r="AB102" s="279">
+      <c r="V102" s="281"/>
+      <c r="W102" s="281"/>
+      <c r="X102" s="281"/>
+      <c r="Y102" s="281"/>
+      <c r="Z102" s="281"/>
+      <c r="AA102" s="281"/>
+      <c r="AB102" s="278">
         <v>22</v>
       </c>
-      <c r="AC102" s="279"/>
-      <c r="AD102" s="280"/>
+      <c r="AC102" s="278"/>
+      <c r="AD102" s="279"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="295" t="s">
+      <c r="AG102" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="296"/>
-      <c r="AI102" s="296"/>
-      <c r="AJ102" s="297"/>
+      <c r="AH102" s="262"/>
+      <c r="AI102" s="262"/>
+      <c r="AJ102" s="263"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="283" t="s">
+      <c r="B103" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="284"/>
-      <c r="D103" s="284"/>
-      <c r="E103" s="284"/>
-      <c r="F103" s="284"/>
-      <c r="G103" s="284"/>
-      <c r="H103" s="284"/>
-      <c r="I103" s="284"/>
-      <c r="J103" s="284"/>
-      <c r="K103" s="284"/>
-      <c r="L103" s="284"/>
-      <c r="M103" s="284"/>
-      <c r="N103" s="285"/>
+      <c r="C103" s="255"/>
+      <c r="D103" s="255"/>
+      <c r="E103" s="255"/>
+      <c r="F103" s="255"/>
+      <c r="G103" s="255"/>
+      <c r="H103" s="255"/>
+      <c r="I103" s="255"/>
+      <c r="J103" s="255"/>
+      <c r="K103" s="255"/>
+      <c r="L103" s="255"/>
+      <c r="M103" s="255"/>
+      <c r="N103" s="256"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13578,49 +13578,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="290" t="s">
+      <c r="U103" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="291"/>
-      <c r="W103" s="291"/>
-      <c r="X103" s="291"/>
-      <c r="Y103" s="291"/>
-      <c r="Z103" s="291"/>
-      <c r="AA103" s="291"/>
-      <c r="AB103" s="292">
+      <c r="V103" s="260"/>
+      <c r="W103" s="260"/>
+      <c r="X103" s="260"/>
+      <c r="Y103" s="260"/>
+      <c r="Z103" s="260"/>
+      <c r="AA103" s="260"/>
+      <c r="AB103" s="285">
         <v>20</v>
       </c>
-      <c r="AC103" s="292"/>
-      <c r="AD103" s="293"/>
+      <c r="AC103" s="285"/>
+      <c r="AD103" s="286"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="298" t="s">
+      <c r="AG103" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="284"/>
-      <c r="AI103" s="284"/>
-      <c r="AJ103" s="285"/>
+      <c r="AH103" s="255"/>
+      <c r="AI103" s="255"/>
+      <c r="AJ103" s="256"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="269" t="s">
+      <c r="B104" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="270"/>
-      <c r="D104" s="270"/>
-      <c r="E104" s="270"/>
-      <c r="F104" s="270"/>
-      <c r="G104" s="270"/>
-      <c r="H104" s="270"/>
-      <c r="I104" s="270"/>
-      <c r="J104" s="270"/>
-      <c r="K104" s="270"/>
-      <c r="L104" s="270"/>
-      <c r="M104" s="270"/>
-      <c r="N104" s="271"/>
+      <c r="C104" s="269"/>
+      <c r="D104" s="269"/>
+      <c r="E104" s="269"/>
+      <c r="F104" s="269"/>
+      <c r="G104" s="269"/>
+      <c r="H104" s="269"/>
+      <c r="I104" s="269"/>
+      <c r="J104" s="269"/>
+      <c r="K104" s="269"/>
+      <c r="L104" s="269"/>
+      <c r="M104" s="269"/>
+      <c r="N104" s="270"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13633,51 +13633,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="286" t="s">
+      <c r="U104" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="287"/>
-      <c r="W104" s="287"/>
-      <c r="X104" s="287"/>
-      <c r="Y104" s="287"/>
-      <c r="Z104" s="287"/>
-      <c r="AA104" s="287"/>
-      <c r="AB104" s="288">
+      <c r="V104" s="258"/>
+      <c r="W104" s="258"/>
+      <c r="X104" s="258"/>
+      <c r="Y104" s="258"/>
+      <c r="Z104" s="258"/>
+      <c r="AA104" s="258"/>
+      <c r="AB104" s="283">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="288"/>
-      <c r="AD104" s="289"/>
+      <c r="AC104" s="283"/>
+      <c r="AD104" s="284"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="298" t="s">
+      <c r="AG104" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="284"/>
-      <c r="AI104" s="284"/>
-      <c r="AJ104" s="285"/>
+      <c r="AH104" s="255"/>
+      <c r="AI104" s="255"/>
+      <c r="AJ104" s="256"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="290" t="s">
+      <c r="AG105" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="291"/>
-      <c r="AI105" s="291"/>
-      <c r="AJ105" s="291"/>
+      <c r="AH105" s="260"/>
+      <c r="AI105" s="260"/>
+      <c r="AJ105" s="260"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="294" t="s">
+      <c r="AG106" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="287"/>
-      <c r="AI106" s="287"/>
-      <c r="AJ106" s="287"/>
+      <c r="AH106" s="258"/>
+      <c r="AI106" s="258"/>
+      <c r="AJ106" s="258"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13689,12 +13689,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13711,22 +13721,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14383,7 +14383,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14575,13 +14575,15 @@
       <c r="E6" s="85">
         <v>2</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="85">
+        <v>6</v>
+      </c>
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
       <c r="J6" s="77">
         <f>IF(C6&gt;C7,1,0)+IF(D6&gt;D7,1,0)+IF(E6&gt;E7,1,0)+IF(F6&gt;F7,1,0)+IF(G6&gt;G7,1,0)+IF(H6&gt;H7,1,0)+IF(I6&gt;I7,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="13"/>
@@ -14629,7 +14631,9 @@
       <c r="E7" s="85">
         <v>3</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="85">
+        <v>4</v>
+      </c>
       <c r="G7" s="85"/>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
@@ -15096,7 +15100,9 @@
       <c r="E17" s="85">
         <v>2</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="86">
+        <v>2</v>
+      </c>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
@@ -15144,13 +15150,15 @@
       <c r="E18" s="85">
         <v>6</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="86">
+        <v>3</v>
+      </c>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="77">
         <f>IF(C18&gt;C17,1,0)+IF(D18&gt;D17,1,0)+IF(E18&gt;E17,1,0)+IF(F18&gt;F17,1,0)+IF(G18&gt;G17,1,0)+IF(H18&gt;H17,1,0)+IF(I18&gt;I17,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
@@ -15427,7 +15435,9 @@
       <c r="E24" s="85">
         <v>3</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="85">
+        <v>1</v>
+      </c>
       <c r="G24" s="85"/>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
@@ -15482,13 +15492,15 @@
       <c r="E25" s="85">
         <v>2</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="85">
+        <v>5</v>
+      </c>
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
       <c r="J25" s="77">
         <f>IF(C25&gt;C24,1,0)+IF(D25&gt;D24,1,0)+IF(E25&gt;E24,1,0)+IF(F25&gt;F24,1,0)+IF(G25&gt;G24,1,0)+IF(H25&gt;H24,1,0)+IF(I25&gt;I24,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="4"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1960,7 +1960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2453,9 +2453,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2492,12 +2489,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2507,6 +2498,135 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2516,18 +2636,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2540,148 +2675,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2693,6 +2696,146 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="101">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3431,146 +3574,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3882,7 +3885,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="AM99" sqref="AM99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3905,217 +3908,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="272"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="272"/>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="272"/>
-      <c r="AJ1" s="272"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
+      <c r="L1" s="283"/>
+      <c r="M1" s="283"/>
+      <c r="N1" s="283"/>
+      <c r="O1" s="283"/>
+      <c r="P1" s="284"/>
+      <c r="Q1" s="284"/>
+      <c r="R1" s="284"/>
+      <c r="S1" s="284"/>
+      <c r="T1" s="284"/>
+      <c r="U1" s="284"/>
+      <c r="V1" s="284"/>
+      <c r="W1" s="284"/>
+      <c r="X1" s="284"/>
+      <c r="Y1" s="284"/>
+      <c r="Z1" s="284"/>
+      <c r="AA1" s="284"/>
+      <c r="AB1" s="284"/>
+      <c r="AC1" s="284"/>
+      <c r="AD1" s="284"/>
+      <c r="AE1" s="284"/>
+      <c r="AF1" s="284"/>
+      <c r="AG1" s="284"/>
+      <c r="AH1" s="284"/>
+      <c r="AI1" s="284"/>
+      <c r="AJ1" s="284"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="273" t="s">
+      <c r="C2" s="285" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="274" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
-      <c r="AA2" s="272"/>
-      <c r="AB2" s="272"/>
-      <c r="AC2" s="272"/>
-      <c r="AD2" s="272"/>
-      <c r="AE2" s="272"/>
-      <c r="AF2" s="272"/>
-      <c r="AG2" s="272"/>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="272"/>
-      <c r="AJ2" s="272"/>
+      <c r="R2" s="284"/>
+      <c r="S2" s="284"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
+      <c r="X2" s="284"/>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="284"/>
+      <c r="AA2" s="284"/>
+      <c r="AB2" s="284"/>
+      <c r="AC2" s="284"/>
+      <c r="AD2" s="284"/>
+      <c r="AE2" s="284"/>
+      <c r="AF2" s="284"/>
+      <c r="AG2" s="284"/>
+      <c r="AH2" s="284"/>
+      <c r="AI2" s="284"/>
+      <c r="AJ2" s="284"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="272"/>
-      <c r="AE3" s="272"/>
-      <c r="AF3" s="272"/>
-      <c r="AG3" s="272"/>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="272"/>
-      <c r="AJ3" s="272"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="284"/>
+      <c r="Q3" s="284"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="284"/>
+      <c r="T3" s="284"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
+      <c r="Y3" s="284"/>
+      <c r="Z3" s="284"/>
+      <c r="AA3" s="284"/>
+      <c r="AB3" s="284"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="284"/>
+      <c r="AE3" s="284"/>
+      <c r="AF3" s="284"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="284"/>
+      <c r="AI3" s="284"/>
+      <c r="AJ3" s="284"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="296" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="296" t="s">
+      <c r="C4" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="268"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
+      <c r="K4" s="268"/>
+      <c r="L4" s="268"/>
+      <c r="M4" s="268"/>
+      <c r="N4" s="268"/>
+      <c r="O4" s="268"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="269"/>
+      <c r="T4" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="297"/>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="296" t="s">
+      <c r="U4" s="268"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="268"/>
+      <c r="Y4" s="268"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="269"/>
+      <c r="AC4" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="305"/>
-      <c r="AH4" s="296" t="s">
+      <c r="AD4" s="268"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="278"/>
+      <c r="AH4" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="297"/>
-      <c r="AJ4" s="298"/>
+      <c r="AI4" s="268"/>
+      <c r="AJ4" s="269"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="265" t="s">
+      <c r="C5" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="266"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="303" t="s">
+      <c r="D5" s="275"/>
+      <c r="E5" s="275"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="275"/>
+      <c r="H5" s="275"/>
+      <c r="I5" s="275"/>
+      <c r="J5" s="276"/>
+      <c r="K5" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="266"/>
-      <c r="M5" s="266"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="266"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="267"/>
-      <c r="S5" s="299" t="s">
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="275"/>
+      <c r="Q5" s="275"/>
+      <c r="R5" s="276"/>
+      <c r="S5" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="265" t="s">
+      <c r="T5" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="266"/>
-      <c r="V5" s="266"/>
-      <c r="W5" s="267"/>
-      <c r="X5" s="303" t="s">
+      <c r="U5" s="275"/>
+      <c r="V5" s="275"/>
+      <c r="W5" s="276"/>
+      <c r="X5" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="266"/>
-      <c r="Z5" s="266"/>
-      <c r="AA5" s="267"/>
-      <c r="AB5" s="299" t="s">
+      <c r="Y5" s="275"/>
+      <c r="Z5" s="275"/>
+      <c r="AA5" s="276"/>
+      <c r="AB5" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="304" t="s">
+      <c r="AC5" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="267"/>
-      <c r="AE5" s="303" t="s">
+      <c r="AD5" s="276"/>
+      <c r="AE5" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="267"/>
-      <c r="AG5" s="299" t="s">
+      <c r="AF5" s="276"/>
+      <c r="AG5" s="270" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="299" t="s">
+      <c r="AJ5" s="270" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4127,7 +4130,7 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244">
+      <c r="D6" s="243">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
@@ -4145,9 +4148,9 @@
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="240">
+        <v>2</v>
+      </c>
+      <c r="I6" s="239">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4169,7 +4172,7 @@
       </c>
       <c r="N6" s="109">
         <f>Résultats!$J$21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="172">
         <f>Résultats!$J$24</f>
@@ -4181,13 +4184,13 @@
       </c>
       <c r="Q6" s="111">
         <f>Résultats!$J$27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" s="108">
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="300"/>
+      <c r="S6" s="271"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4220,7 +4223,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="300"/>
+      <c r="AB6" s="271"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4237,7 +4240,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="300"/>
+      <c r="AG6" s="271"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4246,7 +4249,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="300"/>
+      <c r="AJ6" s="271"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4257,12 +4260,12 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="245"/>
+      <c r="D7" s="244"/>
       <c r="E7" s="173"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="241"/>
+      <c r="I7" s="240"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
       <c r="L7" s="117"/>
@@ -4272,7 +4275,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="300"/>
+      <c r="S7" s="271"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4281,15 +4284,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="300"/>
+      <c r="AB7" s="271"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="300"/>
+      <c r="AG7" s="271"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="300"/>
+      <c r="AJ7" s="271"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4299,7 +4302,7 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="246" t="str">
+      <c r="D8" s="245" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
@@ -4319,7 +4322,7 @@
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="242" t="str">
+      <c r="I8" s="241" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4359,7 +4362,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="300"/>
+      <c r="S8" s="271"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4392,7 +4395,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="300"/>
+      <c r="AB8" s="271"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4409,7 +4412,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="300"/>
+      <c r="AG8" s="271"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4418,7 +4421,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="300"/>
+      <c r="AJ8" s="271"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4435,7 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="247" t="str">
+      <c r="D9" s="246" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
@@ -4452,7 +4455,7 @@
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="243" t="str">
+      <c r="I9" s="242" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4492,7 +4495,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="302"/>
+      <c r="S9" s="273"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4525,7 +4528,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="301"/>
+      <c r="AB9" s="272"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4542,7 +4545,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="301"/>
+      <c r="AG9" s="272"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4551,7 +4554,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="302"/>
+      <c r="AJ9" s="273"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="V10" s="191"/>
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
-      <c r="Y10" s="238"/>
+      <c r="Y10" s="237"/>
       <c r="Z10" s="192"/>
       <c r="AA10" s="193"/>
       <c r="AB10" s="194">
@@ -5012,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="248"/>
+      <c r="AD14" s="247"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="129">
@@ -5357,46 +5360,46 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="211" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" s="198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="199"/>
       <c r="E18" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="199"/>
       <c r="G18" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="202"/>
       <c r="I18" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="202"/>
       <c r="K18" s="203">
         <v>5</v>
       </c>
       <c r="L18" s="202"/>
-      <c r="M18" s="200">
+      <c r="M18" s="200"/>
+      <c r="N18" s="199">
+        <v>7</v>
+      </c>
+      <c r="O18" s="200">
         <v>6</v>
-      </c>
-      <c r="N18" s="199"/>
-      <c r="O18" s="200">
-        <v>5</v>
       </c>
       <c r="P18" s="199"/>
       <c r="Q18" s="201">
         <v>7</v>
       </c>
       <c r="R18" s="204"/>
-      <c r="S18" s="250">
+      <c r="S18" s="312">
         <f>SUM(C19:R19)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
@@ -5404,7 +5407,7 @@
       <c r="W18" s="202"/>
       <c r="X18" s="203"/>
       <c r="Y18" s="199"/>
-      <c r="Z18" s="208"/>
+      <c r="Z18" s="201"/>
       <c r="AA18" s="204"/>
       <c r="AB18" s="205">
         <f>SUM(T19:AA19)</f>
@@ -5426,11 +5429,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5466,7 +5469,7 @@
       <c r="L19" s="150"/>
       <c r="M19" s="126">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="150"/>
       <c r="O19" s="126">
@@ -5476,7 +5479,7 @@
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
         <f>(IF($Q18&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q18=$Q$6+$R$6,$O$103,0),0),0)+IF($R18&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R18=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="153"/>
       <c r="S19" s="154"/>
@@ -5756,46 +5759,46 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="49">
         <v>5</v>
       </c>
       <c r="L22" s="47"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45">
-        <v>7</v>
-      </c>
+      <c r="M22" s="44">
+        <v>6</v>
+      </c>
+      <c r="N22" s="45"/>
       <c r="O22" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="48">
         <v>7</v>
       </c>
       <c r="R22" s="50"/>
-      <c r="S22" s="116">
+      <c r="S22" s="129">
         <f>SUM(C23:R23)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5803,7 +5806,7 @@
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="48"/>
+      <c r="Z22" s="310"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="129">
         <f>SUM(T23:AA23)</f>
@@ -5825,11 +5828,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5875,7 +5878,7 @@
       <c r="P23" s="163"/>
       <c r="Q23" s="132">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="166"/>
       <c r="S23" s="154"/>
@@ -6194,7 +6197,7 @@
       </c>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6224,11 +6227,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6264,7 +6267,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="126">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="126">
@@ -6557,34 +6560,34 @@
         <v>6</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C30" s="46">
         <v>5</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45">
-        <v>7</v>
-      </c>
+      <c r="E30" s="44">
+        <v>5</v>
+      </c>
+      <c r="F30" s="45"/>
       <c r="G30" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
       <c r="J30" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="49">
+        <v>5</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45">
         <v>6</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="44">
-        <v>6</v>
-      </c>
-      <c r="N30" s="45"/>
       <c r="O30" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="48"/>
@@ -6593,14 +6596,14 @@
       </c>
       <c r="S30" s="129">
         <f>SUM(C31:R31)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="127"/>
+      <c r="Y30" s="45"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
@@ -6615,7 +6618,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="107"/>
+      <c r="AH30" s="311"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="129">
         <f>AH31</f>
@@ -6623,11 +6626,11 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,7 +6666,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6956,34 +6959,34 @@
         <v>6</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C34" s="198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="199"/>
       <c r="E34" s="200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" s="199"/>
-      <c r="G34" s="201">
-        <v>6</v>
-      </c>
-      <c r="H34" s="202"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="202">
+        <v>7</v>
+      </c>
       <c r="I34" s="200"/>
       <c r="J34" s="202">
         <v>6</v>
       </c>
       <c r="K34" s="203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L34" s="202"/>
-      <c r="M34" s="200">
+      <c r="M34" s="200"/>
+      <c r="N34" s="199">
+        <v>7</v>
+      </c>
+      <c r="O34" s="200">
         <v>5</v>
-      </c>
-      <c r="N34" s="199"/>
-      <c r="O34" s="200">
-        <v>6</v>
       </c>
       <c r="P34" s="199"/>
       <c r="Q34" s="201"/>
@@ -6992,7 +6995,7 @@
       </c>
       <c r="S34" s="205">
         <f>SUM(C35:R35)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T34" s="198"/>
       <c r="U34" s="202"/>
@@ -7007,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="201"/>
-      <c r="AD34" s="234"/>
+      <c r="AD34" s="202"/>
       <c r="AE34" s="203"/>
       <c r="AF34" s="202"/>
       <c r="AG34" s="205">
@@ -7022,11 +7025,11 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7062,7 +7065,7 @@
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7355,34 +7358,34 @@
         <v>6</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C38" s="46">
+        <v>5</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="44">
         <v>6</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45">
-        <v>7</v>
-      </c>
+      <c r="F38" s="45"/>
       <c r="G38" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
+        <v>7</v>
+      </c>
+      <c r="K38" s="49">
+        <v>5</v>
+      </c>
+      <c r="L38" s="47"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="45">
         <v>6</v>
       </c>
-      <c r="K38" s="49">
-        <v>6</v>
-      </c>
-      <c r="L38" s="47"/>
-      <c r="M38" s="44">
+      <c r="O38" s="44">
         <v>7</v>
-      </c>
-      <c r="N38" s="45"/>
-      <c r="O38" s="44">
-        <v>5</v>
       </c>
       <c r="P38" s="45"/>
       <c r="Q38" s="48"/>
@@ -7391,7 +7394,7 @@
       </c>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
@@ -7421,11 +7424,11 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7461,7 +7464,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -7751,43 +7754,43 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
+        <v>9</v>
+      </c>
+      <c r="B42" s="211" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="198">
+        <v>5</v>
+      </c>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200">
         <v>6</v>
       </c>
-      <c r="B42" s="211" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="306">
+      <c r="F42" s="199"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="202">
+        <v>7</v>
+      </c>
+      <c r="I42" s="200"/>
+      <c r="J42" s="202">
+        <v>6</v>
+      </c>
+      <c r="K42" s="203">
         <v>5</v>
       </c>
-      <c r="D42" s="307"/>
-      <c r="E42" s="308">
+      <c r="L42" s="202"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="199">
         <v>6</v>
       </c>
-      <c r="F42" s="307"/>
-      <c r="G42" s="309">
-        <v>5</v>
-      </c>
-      <c r="H42" s="310"/>
-      <c r="I42" s="308"/>
-      <c r="J42" s="310">
+      <c r="O42" s="200">
         <v>6</v>
       </c>
-      <c r="K42" s="311">
+      <c r="P42" s="199"/>
+      <c r="Q42" s="201">
         <v>6</v>
       </c>
-      <c r="L42" s="310"/>
-      <c r="M42" s="308">
-        <v>7</v>
-      </c>
-      <c r="N42" s="307"/>
-      <c r="O42" s="308">
-        <v>6</v>
-      </c>
-      <c r="P42" s="307"/>
-      <c r="Q42" s="309"/>
-      <c r="R42" s="312">
-        <v>6</v>
-      </c>
+      <c r="R42" s="204"/>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
         <v>12</v>
@@ -7860,7 +7863,7 @@
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
@@ -7870,7 +7873,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="128"/>
@@ -8150,10 +8153,10 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C46" s="46">
         <v>5</v>
@@ -8164,7 +8167,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H46" s="47"/>
       <c r="I46" s="44"/>
@@ -8172,7 +8175,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" s="47"/>
       <c r="M46" s="44">
@@ -8185,18 +8188,18 @@
       <c r="P46" s="45"/>
       <c r="Q46" s="48"/>
       <c r="R46" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
         <v>12</v>
       </c>
-      <c r="T46" s="237"/>
+      <c r="T46" s="46"/>
       <c r="U46" s="47"/>
       <c r="V46" s="44"/>
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
-      <c r="Y46" s="45"/>
+      <c r="Y46" s="127"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="129">
@@ -8549,21 +8552,21 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B50" s="211" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C50" s="198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="199"/>
       <c r="E50" s="200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="199"/>
       <c r="G50" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" s="202"/>
       <c r="I50" s="200"/>
@@ -8571,15 +8574,15 @@
         <v>6</v>
       </c>
       <c r="K50" s="203">
+        <v>6</v>
+      </c>
+      <c r="L50" s="202"/>
+      <c r="M50" s="200">
         <v>5</v>
       </c>
-      <c r="L50" s="202"/>
-      <c r="M50" s="200"/>
-      <c r="N50" s="199">
+      <c r="N50" s="199"/>
+      <c r="O50" s="200">
         <v>6</v>
-      </c>
-      <c r="O50" s="200">
-        <v>5</v>
       </c>
       <c r="P50" s="199"/>
       <c r="Q50" s="201"/>
@@ -8596,21 +8599,21 @@
       <c r="W50" s="202"/>
       <c r="X50" s="203"/>
       <c r="Y50" s="199"/>
-      <c r="Z50" s="201"/>
+      <c r="Z50" s="208"/>
       <c r="AA50" s="202"/>
       <c r="AB50" s="205">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="201"/>
-      <c r="AD50" s="202"/>
+      <c r="AD50" s="234"/>
       <c r="AE50" s="203"/>
       <c r="AF50" s="202"/>
       <c r="AG50" s="205">
         <f>SUM(AC51:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="236"/>
+      <c r="AH50" s="209"/>
       <c r="AI50" s="196"/>
       <c r="AJ50" s="205">
         <f>AH51</f>
@@ -8945,29 +8948,29 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" s="46">
         <v>6</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="44">
-        <v>6</v>
-      </c>
-      <c r="F54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45">
+        <v>7</v>
+      </c>
       <c r="G54" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="44">
@@ -8975,7 +8978,7 @@
       </c>
       <c r="N54" s="45"/>
       <c r="O54" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P54" s="45"/>
       <c r="Q54" s="48"/>
@@ -9341,41 +9344,41 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="186">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
+        <v>9</v>
+      </c>
+      <c r="B58" s="211" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="251">
+        <v>5</v>
+      </c>
+      <c r="D58" s="252"/>
+      <c r="E58" s="253">
         <v>6</v>
       </c>
-      <c r="B58" s="211" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="198">
+      <c r="F58" s="252"/>
+      <c r="G58" s="254">
         <v>5</v>
       </c>
-      <c r="D58" s="199"/>
-      <c r="E58" s="200">
+      <c r="H58" s="255"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="255">
         <v>6</v>
       </c>
-      <c r="F58" s="199"/>
-      <c r="G58" s="201">
+      <c r="K58" s="256">
         <v>6</v>
       </c>
-      <c r="H58" s="202"/>
-      <c r="I58" s="200"/>
-      <c r="J58" s="202">
+      <c r="L58" s="255"/>
+      <c r="M58" s="253">
+        <v>7</v>
+      </c>
+      <c r="N58" s="252"/>
+      <c r="O58" s="253">
         <v>6</v>
       </c>
-      <c r="K58" s="203">
-        <v>7</v>
-      </c>
-      <c r="L58" s="202"/>
-      <c r="M58" s="200">
-        <v>6</v>
-      </c>
-      <c r="N58" s="199"/>
-      <c r="O58" s="200">
-        <v>5</v>
-      </c>
-      <c r="P58" s="199"/>
-      <c r="Q58" s="201"/>
-      <c r="R58" s="204">
+      <c r="P58" s="252"/>
+      <c r="Q58" s="254"/>
+      <c r="R58" s="257">
         <v>6</v>
       </c>
       <c r="S58" s="205">
@@ -9737,19 +9740,19 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C62" s="46">
         <v>5</v>
       </c>
       <c r="D62" s="45"/>
-      <c r="E62" s="44">
-        <v>6</v>
-      </c>
-      <c r="F62" s="45"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45">
+        <v>7</v>
+      </c>
       <c r="G62" s="48">
         <v>6</v>
       </c>
@@ -9762,23 +9765,23 @@
         <v>5</v>
       </c>
       <c r="L62" s="47"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="45">
+      <c r="M62" s="44">
         <v>6</v>
       </c>
+      <c r="N62" s="45"/>
       <c r="O62" s="44">
         <v>7</v>
       </c>
       <c r="P62" s="45"/>
       <c r="Q62" s="48"/>
       <c r="R62" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
         <v>12</v>
       </c>
-      <c r="T62" s="46"/>
+      <c r="T62" s="236"/>
       <c r="U62" s="47"/>
       <c r="V62" s="44"/>
       <c r="W62" s="47"/>
@@ -10133,21 +10136,21 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B66" s="211" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C66" s="198">
         <v>5</v>
       </c>
       <c r="D66" s="199"/>
       <c r="E66" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" s="199"/>
       <c r="G66" s="201">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H66" s="202"/>
       <c r="I66" s="200"/>
@@ -10155,21 +10158,21 @@
         <v>6</v>
       </c>
       <c r="K66" s="203">
+        <v>5</v>
+      </c>
+      <c r="L66" s="202"/>
+      <c r="M66" s="200"/>
+      <c r="N66" s="199">
         <v>6</v>
       </c>
-      <c r="L66" s="202"/>
-      <c r="M66" s="200">
+      <c r="O66" s="200">
         <v>7</v>
       </c>
-      <c r="N66" s="199"/>
-      <c r="O66" s="200">
+      <c r="P66" s="199"/>
+      <c r="Q66" s="201">
         <v>6</v>
       </c>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="201"/>
-      <c r="R66" s="204">
-        <v>7</v>
-      </c>
+      <c r="R66" s="204"/>
       <c r="S66" s="205">
         <f>SUM(C67:R67)</f>
         <v>12</v>
@@ -10180,7 +10183,7 @@
       <c r="W66" s="202"/>
       <c r="X66" s="203"/>
       <c r="Y66" s="199"/>
-      <c r="Z66" s="208"/>
+      <c r="Z66" s="201"/>
       <c r="AA66" s="202"/>
       <c r="AB66" s="205">
         <f>SUM(T67:AA67)</f>
@@ -10194,7 +10197,7 @@
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="210"/>
+      <c r="AH66" s="313"/>
       <c r="AI66" s="206"/>
       <c r="AJ66" s="205">
         <f>AH67</f>
@@ -10242,7 +10245,7 @@
       <c r="L67" s="134"/>
       <c r="M67" s="132">
         <f>(IF($M66&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M66=$M$6+$N$6,$O$103,0),0),0)+IF($N66&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N66=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N67" s="134"/>
       <c r="O67" s="135">
@@ -10252,7 +10255,7 @@
       <c r="P67" s="134"/>
       <c r="Q67" s="135">
         <f>(IF($Q66&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q66=$Q$6+$R$6,$O$103,0),0),0)+IF($R66&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R66=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R67" s="138"/>
       <c r="S67" s="128"/>
@@ -10529,17 +10532,17 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C70" s="46">
         <v>6</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="45"/>
       <c r="G70" s="48">
@@ -10551,11 +10554,11 @@
         <v>7</v>
       </c>
       <c r="K70" s="49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L70" s="47"/>
       <c r="M70" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N70" s="45"/>
       <c r="O70" s="44">
@@ -10564,7 +10567,7 @@
       <c r="P70" s="45"/>
       <c r="Q70" s="48"/>
       <c r="R70" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
@@ -10925,10 +10928,10 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="186">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B74" s="211" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C74" s="198">
         <v>5</v>
@@ -10938,22 +10941,22 @@
         <v>6</v>
       </c>
       <c r="F74" s="199"/>
-      <c r="G74" s="201"/>
-      <c r="H74" s="202">
-        <v>7</v>
-      </c>
+      <c r="G74" s="201">
+        <v>6</v>
+      </c>
+      <c r="H74" s="202"/>
       <c r="I74" s="200"/>
       <c r="J74" s="202">
         <v>6</v>
       </c>
       <c r="K74" s="203">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L74" s="202"/>
-      <c r="M74" s="200"/>
-      <c r="N74" s="199">
-        <v>7</v>
-      </c>
+      <c r="M74" s="200">
+        <v>6</v>
+      </c>
+      <c r="N74" s="199"/>
       <c r="O74" s="200">
         <v>5</v>
       </c>
@@ -10964,7 +10967,7 @@
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T74" s="198"/>
       <c r="U74" s="202"/>
@@ -10972,7 +10975,7 @@
       <c r="W74" s="202"/>
       <c r="X74" s="203"/>
       <c r="Y74" s="199"/>
-      <c r="Z74" s="208"/>
+      <c r="Z74" s="201"/>
       <c r="AA74" s="202"/>
       <c r="AB74" s="205">
         <f>SUM(T75:AA75)</f>
@@ -10994,11 +10997,11 @@
       </c>
       <c r="AK74" s="207">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11019,7 +11022,7 @@
       <c r="F75" s="134"/>
       <c r="G75" s="132">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G74=$G$6+$H$6,$O$103,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H74=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="134"/>
       <c r="I75" s="135">
@@ -11321,21 +11324,21 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C78" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
@@ -11343,24 +11346,24 @@
         <v>6</v>
       </c>
       <c r="K78" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44"/>
       <c r="N78" s="45">
+        <v>7</v>
+      </c>
+      <c r="O78" s="44">
         <v>6</v>
-      </c>
-      <c r="O78" s="44">
-        <v>7</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R78" s="50"/>
       <c r="S78" s="129">
         <f>SUM(C79:R79)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11368,7 +11371,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="48"/>
+      <c r="Z78" s="310"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="129">
         <f>SUM(T79:AA79)</f>
@@ -11382,7 +11385,7 @@
         <f>SUM(AC79:AF79)</f>
         <v>0</v>
       </c>
-      <c r="AH78" s="249"/>
+      <c r="AH78" s="105"/>
       <c r="AI78" s="58"/>
       <c r="AJ78" s="129">
         <f>AH79</f>
@@ -11390,11 +11393,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11430,7 +11433,7 @@
       <c r="L79" s="134"/>
       <c r="M79" s="132">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M78=$M$6+$N$6,$O$103,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N78=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N79" s="134"/>
       <c r="O79" s="135">
@@ -11440,7 +11443,7 @@
       <c r="P79" s="134"/>
       <c r="Q79" s="135">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q78=$Q$6+$R$6,$O$103,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R78=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" s="138"/>
       <c r="S79" s="128"/>
@@ -11717,21 +11720,21 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="186">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B82" s="211" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C82" s="198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="199"/>
       <c r="E82" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82" s="199"/>
       <c r="G82" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82" s="202"/>
       <c r="I82" s="200"/>
@@ -11742,21 +11745,21 @@
         <v>6</v>
       </c>
       <c r="L82" s="202"/>
-      <c r="M82" s="200"/>
-      <c r="N82" s="199">
+      <c r="M82" s="200">
         <v>7</v>
       </c>
+      <c r="N82" s="199"/>
       <c r="O82" s="200">
         <v>6</v>
       </c>
       <c r="P82" s="199"/>
-      <c r="Q82" s="201">
+      <c r="Q82" s="201"/>
+      <c r="R82" s="204">
         <v>7</v>
       </c>
-      <c r="R82" s="204"/>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T82" s="198"/>
       <c r="U82" s="202"/>
@@ -11786,11 +11789,11 @@
       </c>
       <c r="AK82" s="207">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11836,7 +11839,7 @@
       <c r="P83" s="134"/>
       <c r="Q83" s="135">
         <f>(IF($Q82&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q82=$Q$6+$R$6,$O$103,0),0),0)+IF($R82&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R82=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83" s="138"/>
       <c r="S83" s="128"/>
@@ -12113,10 +12116,10 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C86" s="46">
         <v>6</v>
@@ -12127,12 +12130,12 @@
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K86" s="49">
         <v>7</v>
@@ -12143,16 +12146,16 @@
       </c>
       <c r="N86" s="45"/>
       <c r="O86" s="44">
+        <v>6</v>
+      </c>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="50">
         <v>7</v>
       </c>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="48">
-        <v>5</v>
-      </c>
-      <c r="R86" s="50"/>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12182,11 +12185,11 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12232,7 +12235,7 @@
       <c r="P87" s="134"/>
       <c r="Q87" s="135">
         <f>(IF($Q86&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q86=$Q$6+$R$6,$O$103,0),0),0)+IF($R86&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R86=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R87" s="138"/>
       <c r="S87" s="128"/>
@@ -12518,15 +12521,15 @@
         <v>7</v>
       </c>
       <c r="D90" s="199"/>
-      <c r="E90" s="251">
+      <c r="E90" s="248">
         <v>6</v>
       </c>
       <c r="F90" s="199"/>
-      <c r="G90" s="252"/>
+      <c r="G90" s="249"/>
       <c r="H90" s="202">
         <v>6</v>
       </c>
-      <c r="I90" s="251"/>
+      <c r="I90" s="248"/>
       <c r="J90" s="202">
         <v>7</v>
       </c>
@@ -12548,14 +12551,14 @@
       <c r="R90" s="204"/>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T90" s="198"/>
       <c r="U90" s="202"/>
-      <c r="V90" s="253"/>
+      <c r="V90" s="250"/>
       <c r="W90" s="202"/>
       <c r="X90" s="203"/>
-      <c r="Y90" s="239"/>
+      <c r="Y90" s="238"/>
       <c r="Z90" s="201"/>
       <c r="AA90" s="202"/>
       <c r="AB90" s="205">
@@ -12578,11 +12581,11 @@
       </c>
       <c r="AK90" s="207">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12603,7 +12606,7 @@
       <c r="F91" s="134"/>
       <c r="G91" s="132">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="134"/>
       <c r="I91" s="135">
@@ -12628,7 +12631,7 @@
       <c r="P91" s="134"/>
       <c r="Q91" s="135">
         <f>(IF($Q90&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q90=$Q$6+$R$6,$O$103,0),0),0)+IF($R90&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R90=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R91" s="138"/>
       <c r="S91" s="128"/>
@@ -12908,43 +12911,43 @@
         <v>21</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C94" s="226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" s="227"/>
       <c r="E94" s="228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" s="227"/>
-      <c r="G94" s="229"/>
-      <c r="H94" s="230">
-        <v>7</v>
-      </c>
+      <c r="G94" s="229">
+        <v>5</v>
+      </c>
+      <c r="H94" s="230"/>
       <c r="I94" s="228"/>
       <c r="J94" s="230">
+        <v>5</v>
+      </c>
+      <c r="K94" s="231">
+        <v>7</v>
+      </c>
+      <c r="L94" s="230"/>
+      <c r="M94" s="228">
         <v>6</v>
       </c>
-      <c r="K94" s="231">
-        <v>5</v>
-      </c>
-      <c r="L94" s="230"/>
-      <c r="M94" s="228"/>
-      <c r="N94" s="227">
-        <v>6</v>
-      </c>
+      <c r="N94" s="227"/>
       <c r="O94" s="228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P94" s="227"/>
       <c r="Q94" s="229">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R94" s="232"/>
       <c r="S94" s="129">
         <f>SUM(C95:R95)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
@@ -12974,11 +12977,11 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12999,7 +13002,7 @@
       <c r="F95" s="134"/>
       <c r="G95" s="132">
         <f>(IF($G94&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G94=$G$6+$H$6,$O$103,0),0),0)+IF($H94&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H94=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="134"/>
       <c r="I95" s="135">
@@ -13024,7 +13027,7 @@
       <c r="P95" s="134"/>
       <c r="Q95" s="135">
         <f>(IF($Q94&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q94=$Q$6+$R$6,$O$103,0),0),0)+IF($R94&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R94=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R95" s="138"/>
       <c r="S95" s="128"/>
@@ -13431,12 +13434,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="287" t="s">
+      <c r="O100" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="288"/>
-      <c r="Q100" s="288"/>
-      <c r="R100" s="289"/>
+      <c r="P100" s="259"/>
+      <c r="Q100" s="259"/>
+      <c r="R100" s="260"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13445,21 +13448,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="275" t="s">
+      <c r="B101" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="276"/>
-      <c r="D101" s="276"/>
-      <c r="E101" s="276"/>
-      <c r="F101" s="276"/>
-      <c r="G101" s="276"/>
-      <c r="H101" s="276"/>
-      <c r="I101" s="276"/>
-      <c r="J101" s="276"/>
-      <c r="K101" s="276"/>
-      <c r="L101" s="276"/>
-      <c r="M101" s="276"/>
-      <c r="N101" s="277"/>
+      <c r="C101" s="288"/>
+      <c r="D101" s="288"/>
+      <c r="E101" s="288"/>
+      <c r="F101" s="288"/>
+      <c r="G101" s="288"/>
+      <c r="H101" s="288"/>
+      <c r="I101" s="288"/>
+      <c r="J101" s="288"/>
+      <c r="K101" s="288"/>
+      <c r="L101" s="288"/>
+      <c r="M101" s="288"/>
+      <c r="N101" s="289"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13472,45 +13475,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="290" t="s">
+      <c r="U101" s="261" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="291"/>
-      <c r="W101" s="291"/>
-      <c r="X101" s="291"/>
-      <c r="Y101" s="291"/>
-      <c r="Z101" s="291"/>
-      <c r="AA101" s="291"/>
-      <c r="AB101" s="291"/>
-      <c r="AC101" s="291"/>
-      <c r="AD101" s="292"/>
+      <c r="V101" s="262"/>
+      <c r="W101" s="262"/>
+      <c r="X101" s="262"/>
+      <c r="Y101" s="262"/>
+      <c r="Z101" s="262"/>
+      <c r="AA101" s="262"/>
+      <c r="AB101" s="262"/>
+      <c r="AC101" s="262"/>
+      <c r="AD101" s="263"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="293" t="s">
+      <c r="AG101" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="294"/>
-      <c r="AI101" s="294"/>
-      <c r="AJ101" s="294"/>
-      <c r="AK101" s="295"/>
+      <c r="AH101" s="265"/>
+      <c r="AI101" s="265"/>
+      <c r="AJ101" s="265"/>
+      <c r="AK101" s="266"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="254" t="s">
+      <c r="B102" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="255"/>
-      <c r="D102" s="255"/>
-      <c r="E102" s="255"/>
-      <c r="F102" s="255"/>
-      <c r="G102" s="255"/>
-      <c r="H102" s="255"/>
-      <c r="I102" s="255"/>
-      <c r="J102" s="255"/>
-      <c r="K102" s="255"/>
-      <c r="L102" s="255"/>
-      <c r="M102" s="255"/>
-      <c r="N102" s="256"/>
+      <c r="C102" s="295"/>
+      <c r="D102" s="295"/>
+      <c r="E102" s="295"/>
+      <c r="F102" s="295"/>
+      <c r="G102" s="295"/>
+      <c r="H102" s="295"/>
+      <c r="I102" s="295"/>
+      <c r="J102" s="295"/>
+      <c r="K102" s="295"/>
+      <c r="L102" s="295"/>
+      <c r="M102" s="295"/>
+      <c r="N102" s="296"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13523,49 +13526,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="280" t="s">
+      <c r="U102" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="281"/>
-      <c r="W102" s="281"/>
-      <c r="X102" s="281"/>
-      <c r="Y102" s="281"/>
-      <c r="Z102" s="281"/>
-      <c r="AA102" s="281"/>
-      <c r="AB102" s="278">
+      <c r="V102" s="293"/>
+      <c r="W102" s="293"/>
+      <c r="X102" s="293"/>
+      <c r="Y102" s="293"/>
+      <c r="Z102" s="293"/>
+      <c r="AA102" s="293"/>
+      <c r="AB102" s="290">
         <v>22</v>
       </c>
-      <c r="AC102" s="278"/>
-      <c r="AD102" s="279"/>
+      <c r="AC102" s="290"/>
+      <c r="AD102" s="291"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="261" t="s">
+      <c r="AG102" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="262"/>
-      <c r="AI102" s="262"/>
-      <c r="AJ102" s="263"/>
+      <c r="AH102" s="307"/>
+      <c r="AI102" s="307"/>
+      <c r="AJ102" s="308"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="254" t="s">
+      <c r="B103" s="294" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="255"/>
-      <c r="D103" s="255"/>
-      <c r="E103" s="255"/>
-      <c r="F103" s="255"/>
-      <c r="G103" s="255"/>
-      <c r="H103" s="255"/>
-      <c r="I103" s="255"/>
-      <c r="J103" s="255"/>
-      <c r="K103" s="255"/>
-      <c r="L103" s="255"/>
-      <c r="M103" s="255"/>
-      <c r="N103" s="256"/>
+      <c r="C103" s="295"/>
+      <c r="D103" s="295"/>
+      <c r="E103" s="295"/>
+      <c r="F103" s="295"/>
+      <c r="G103" s="295"/>
+      <c r="H103" s="295"/>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+      <c r="K103" s="295"/>
+      <c r="L103" s="295"/>
+      <c r="M103" s="295"/>
+      <c r="N103" s="296"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13578,49 +13581,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="259" t="s">
+      <c r="U103" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="260"/>
-      <c r="W103" s="260"/>
-      <c r="X103" s="260"/>
-      <c r="Y103" s="260"/>
-      <c r="Z103" s="260"/>
-      <c r="AA103" s="260"/>
-      <c r="AB103" s="285">
+      <c r="V103" s="302"/>
+      <c r="W103" s="302"/>
+      <c r="X103" s="302"/>
+      <c r="Y103" s="302"/>
+      <c r="Z103" s="302"/>
+      <c r="AA103" s="302"/>
+      <c r="AB103" s="303">
         <v>20</v>
       </c>
-      <c r="AC103" s="285"/>
-      <c r="AD103" s="286"/>
+      <c r="AC103" s="303"/>
+      <c r="AD103" s="304"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="264" t="s">
+      <c r="AG103" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="255"/>
-      <c r="AI103" s="255"/>
-      <c r="AJ103" s="256"/>
+      <c r="AH103" s="295"/>
+      <c r="AI103" s="295"/>
+      <c r="AJ103" s="296"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="268" t="s">
+      <c r="B104" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="269"/>
-      <c r="D104" s="269"/>
-      <c r="E104" s="269"/>
-      <c r="F104" s="269"/>
-      <c r="G104" s="269"/>
-      <c r="H104" s="269"/>
-      <c r="I104" s="269"/>
-      <c r="J104" s="269"/>
-      <c r="K104" s="269"/>
-      <c r="L104" s="269"/>
-      <c r="M104" s="269"/>
-      <c r="N104" s="270"/>
+      <c r="C104" s="281"/>
+      <c r="D104" s="281"/>
+      <c r="E104" s="281"/>
+      <c r="F104" s="281"/>
+      <c r="G104" s="281"/>
+      <c r="H104" s="281"/>
+      <c r="I104" s="281"/>
+      <c r="J104" s="281"/>
+      <c r="K104" s="281"/>
+      <c r="L104" s="281"/>
+      <c r="M104" s="281"/>
+      <c r="N104" s="282"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13633,51 +13636,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="282" t="s">
+      <c r="U104" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="258"/>
-      <c r="W104" s="258"/>
-      <c r="X104" s="258"/>
-      <c r="Y104" s="258"/>
-      <c r="Z104" s="258"/>
-      <c r="AA104" s="258"/>
-      <c r="AB104" s="283">
+      <c r="V104" s="298"/>
+      <c r="W104" s="298"/>
+      <c r="X104" s="298"/>
+      <c r="Y104" s="298"/>
+      <c r="Z104" s="298"/>
+      <c r="AA104" s="298"/>
+      <c r="AB104" s="299">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="283"/>
-      <c r="AD104" s="284"/>
+      <c r="AC104" s="299"/>
+      <c r="AD104" s="300"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="264" t="s">
+      <c r="AG104" s="309" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="255"/>
-      <c r="AI104" s="255"/>
-      <c r="AJ104" s="256"/>
+      <c r="AH104" s="295"/>
+      <c r="AI104" s="295"/>
+      <c r="AJ104" s="296"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="259" t="s">
+      <c r="AG105" s="301" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="260"/>
-      <c r="AI105" s="260"/>
-      <c r="AJ105" s="260"/>
+      <c r="AH105" s="302"/>
+      <c r="AI105" s="302"/>
+      <c r="AJ105" s="302"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="257" t="s">
+      <c r="AG106" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="258"/>
-      <c r="AI106" s="258"/>
-      <c r="AJ106" s="258"/>
+      <c r="AH106" s="298"/>
+      <c r="AI106" s="298"/>
+      <c r="AJ106" s="298"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13689,6 +13692,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -13705,342 +13730,320 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
-    <cfRule type="cellIs" dxfId="80" priority="183" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="100" priority="183" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:R10">
-    <cfRule type="cellIs" dxfId="79" priority="179" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="179" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:R14">
-    <cfRule type="cellIs" dxfId="78" priority="178" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="178" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:R18">
-    <cfRule type="cellIs" dxfId="77" priority="177" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="97" priority="177" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:R22">
-    <cfRule type="cellIs" dxfId="76" priority="176" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="96" priority="176" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:R26">
-    <cfRule type="cellIs" dxfId="75" priority="175" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="175" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:R30">
-    <cfRule type="cellIs" dxfId="74" priority="174" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="94" priority="174" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:R34">
-    <cfRule type="cellIs" dxfId="73" priority="173" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="93" priority="173" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:R38">
-    <cfRule type="cellIs" dxfId="72" priority="172" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="172" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:R42">
-    <cfRule type="cellIs" dxfId="71" priority="171" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="91" priority="171" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AI54 C54:R54 T54:AA54 AC54:AF54">
-    <cfRule type="cellIs" dxfId="70" priority="170" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="170" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AI46 C46:R46 T46:AA46 AC46:AF46">
-    <cfRule type="cellIs" dxfId="69" priority="169" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="169" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:R46">
-    <cfRule type="cellIs" dxfId="68" priority="168" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="88" priority="168" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH50:AI50 C50:R50 T50:AA50 AC50:AF50">
-    <cfRule type="cellIs" dxfId="67" priority="167" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="87" priority="167" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:R50">
-    <cfRule type="cellIs" dxfId="66" priority="166" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="166" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH58:AI58 C58:R58 T58:AA58 AC58:AF58">
-    <cfRule type="cellIs" dxfId="65" priority="165" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="165" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="64" priority="164" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="164" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH70:AI70 C70:R70 T70:AA70 AC70:AF70">
-    <cfRule type="cellIs" dxfId="63" priority="163" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="163" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH74:AI74 C74:R74 T74:AA74 AC74:AF74">
-    <cfRule type="cellIs" dxfId="62" priority="162" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="82" priority="162" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH78:AI78 C78:R78 T78:AA78 AC78:AF78">
-    <cfRule type="cellIs" dxfId="61" priority="161" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="81" priority="161" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S15 AB10:AB15 AG10:AG15 AJ10:AJ15 AJ26:AJ27 AG26:AG27 AB26:AB27 S26:S27 AJ22:AJ23 AG22:AG23 AB22:AB23 S22:S23 AJ18:AJ19 AG18:AG19 AB18:AB19 S18:S19 S38:S39 AB38:AB39 AG38:AG39 AJ38:AJ39 S30:S31 AB30:AB31 AG30:AG31 AJ30:AJ31 AJ42:AJ43 AG42:AG43 AB42:AB43 S42:S43 S46:S47 AB46:AB47 AG46:AG47 AJ46:AJ47 AJ50 AG50 AB50 S50 S58 AB58 AG58 AJ58 S54 AB54 AG54 AJ54 AJ62 AG62 AB62 S62 S66 AB66 AG66 AJ66 AJ70 AG70 AB70 S70 S74 AB74 AG74 AJ74 AJ78 AG78 AB78 S78 AJ34:AJ35 AG34:AG35 AB34:AB35 S34:S35">
-    <cfRule type="cellIs" dxfId="60" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="156" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL23 AL26:AL27 AL38:AL39 AL30:AL31 AL42:AL43 AL46:AL47 AL50 AL58 AL54 AL62 AL66 AL70 AL74 AL78 AL34:AL35">
-    <cfRule type="cellIs" dxfId="59" priority="155" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="155" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ24:AJ25">
-    <cfRule type="cellIs" dxfId="58" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="152" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AL25">
-    <cfRule type="cellIs" dxfId="57" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="153" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20:AJ21">
-    <cfRule type="cellIs" dxfId="56" priority="151" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="151" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AJ17">
-    <cfRule type="cellIs" dxfId="55" priority="150" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="150" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ28:AJ29">
-    <cfRule type="cellIs" dxfId="54" priority="146" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="146" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28:AL29">
-    <cfRule type="cellIs" dxfId="53" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="147" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36:AL37">
-    <cfRule type="cellIs" dxfId="52" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="145" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40:AL41">
-    <cfRule type="cellIs" dxfId="51" priority="143" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="143" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL44:AL45">
-    <cfRule type="cellIs" dxfId="50" priority="141" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="141" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL48:AL49">
-    <cfRule type="cellIs" dxfId="49" priority="139" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="139" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S21 AB20:AB21 AG20:AG21">
-    <cfRule type="cellIs" dxfId="48" priority="116" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="116" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S25 AB24:AB25 AG24:AG25">
-    <cfRule type="cellIs" dxfId="47" priority="115" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="115" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17 AB16:AB17 AG16:AG17">
-    <cfRule type="cellIs" dxfId="46" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="117" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:S29 AB28:AB29 AG28:AG29">
-    <cfRule type="cellIs" dxfId="45" priority="114" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="114" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ32:AJ33">
-    <cfRule type="cellIs" dxfId="44" priority="112" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="112" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32:AL33">
-    <cfRule type="cellIs" dxfId="43" priority="113" operator="notEqual">
+    <cfRule type="cellIs" dxfId="63" priority="113" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S33 AB32:AB33 AG32:AG33">
-    <cfRule type="cellIs" dxfId="42" priority="111" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="111" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ37">
-    <cfRule type="cellIs" dxfId="41" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="110" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:S37 AB36:AB37 AG36:AG37">
-    <cfRule type="cellIs" dxfId="40" priority="109" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="109" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40:AJ41">
-    <cfRule type="cellIs" dxfId="39" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="108" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:S41 AB40:AB41 AG40:AG41">
-    <cfRule type="cellIs" dxfId="38" priority="107" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="107" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ45">
-    <cfRule type="cellIs" dxfId="37" priority="106" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="106" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:S45 AB44:AB45 AG44:AG45">
-    <cfRule type="cellIs" dxfId="36" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="105" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ48:AJ49">
-    <cfRule type="cellIs" dxfId="35" priority="104" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="104" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:S49 AB48:AB49 AG48:AG49">
-    <cfRule type="cellIs" dxfId="34" priority="103" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="103" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:S53 AB51:AB53 AG51:AG53 AJ51:AJ53">
-    <cfRule type="cellIs" dxfId="33" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="84" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51:AL53">
-    <cfRule type="cellIs" dxfId="32" priority="83" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="83" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:S57 AB55:AB57 AG55:AG57 AJ55:AJ57">
-    <cfRule type="cellIs" dxfId="31" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="82" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL55:AL57">
-    <cfRule type="cellIs" dxfId="30" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="81" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59:S61 AB59:AB61 AG59:AG61 AJ59:AJ61">
-    <cfRule type="cellIs" dxfId="29" priority="80" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="80" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL59:AL61">
-    <cfRule type="cellIs" dxfId="28" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="79" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:S65 AB63:AB65 AG63:AG65 AJ63:AJ65">
-    <cfRule type="cellIs" dxfId="27" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63:AL65">
-    <cfRule type="cellIs" dxfId="26" priority="77" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="77" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:S69 AB67:AB69 AG67:AG69 AJ67:AJ69">
-    <cfRule type="cellIs" dxfId="25" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="76" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL67:AL69">
-    <cfRule type="cellIs" dxfId="24" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S71:S73 AB71:AB73 AG71:AG73 AJ71:AJ73">
-    <cfRule type="cellIs" dxfId="23" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL71:AL73">
-    <cfRule type="cellIs" dxfId="22" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="73" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75:S77 AB75:AB77 AG75:AG77 AJ75:AJ77">
-    <cfRule type="cellIs" dxfId="21" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="72" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL75:AL77">
-    <cfRule type="cellIs" dxfId="20" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="71" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S79:S81 AB79:AB81 AG79:AG81 AJ79:AJ81">
-    <cfRule type="cellIs" dxfId="19" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="70" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79:AL81">
-    <cfRule type="cellIs" dxfId="18" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="69" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14059,92 +14062,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH82:AI82 C82:R82 T82:AA82 AC82:AF82">
-    <cfRule type="cellIs" dxfId="17" priority="58" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="58" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH90:AI90 C90:R90 T90:AA90 AC90:AF90">
-    <cfRule type="cellIs" dxfId="16" priority="57" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="57" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S82 AB82 AG82 AJ82 AJ90 AG90 AB90 S90">
-    <cfRule type="cellIs" dxfId="15" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="56" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL82 AL90">
-    <cfRule type="cellIs" dxfId="14" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83:S85 AB83:AB85 AG83:AG85 AJ83:AJ85">
-    <cfRule type="cellIs" dxfId="13" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="54" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL83:AL85">
-    <cfRule type="cellIs" dxfId="12" priority="53" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="53" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S91:S93 AB91:AB93 AG91:AG93 AJ91:AJ93">
-    <cfRule type="cellIs" dxfId="11" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="52" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL91:AL93">
-    <cfRule type="cellIs" dxfId="10" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH94:AI94 C94:R94 T94:AA94 AC94:AF94">
-    <cfRule type="cellIs" dxfId="9" priority="50" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="50" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S94 AB94 AG94 AJ94">
-    <cfRule type="cellIs" dxfId="8" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94">
-    <cfRule type="cellIs" dxfId="7" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S95:S97 AB95:AB97 AG95:AG97 AJ95:AJ97">
-    <cfRule type="cellIs" dxfId="6" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="46" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL95:AL97">
-    <cfRule type="cellIs" dxfId="5" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH86:AI86 C86:R86 T86:AA86 AC86:AF86">
-    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S86 AB86 AG86 AJ86">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL86">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87:S89 AB87:AB89 AG87:AG89 AJ87:AJ89">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL87:AL89">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14383,7 +14386,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14774,7 +14777,9 @@
         <v>4</v>
       </c>
       <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
+      <c r="F10" s="85">
+        <v>1</v>
+      </c>
       <c r="G10" s="86"/>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
@@ -14831,13 +14836,15 @@
       <c r="E11" s="85">
         <v>5</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="85">
+        <v>2</v>
+      </c>
       <c r="G11" s="86"/>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
       <c r="J11" s="77">
         <f>IF(C11&gt;C10,1,0)+IF(D11&gt;D10,1,0)+IF(E11&gt;E10,1,0)+IF(F11&gt;F10,1,0)+IF(G11&gt;G10,1,0)+IF(H11&gt;H10,1,0)+IF(I11&gt;I10,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
@@ -15235,7 +15242,9 @@
       <c r="F20" s="85">
         <v>2</v>
       </c>
-      <c r="G20" s="85"/>
+      <c r="G20" s="85">
+        <v>2</v>
+      </c>
       <c r="H20" s="85"/>
       <c r="I20" s="86"/>
       <c r="J20" s="77">
@@ -15293,12 +15302,14 @@
       <c r="F21" s="85">
         <v>1</v>
       </c>
-      <c r="G21" s="85"/>
+      <c r="G21" s="85">
+        <v>3</v>
+      </c>
       <c r="H21" s="85"/>
       <c r="I21" s="86"/>
       <c r="J21" s="77">
         <f>IF(C21&gt;C20,1,0)+IF(D21&gt;D20,1,0)+IF(E21&gt;E20,1,0)+IF(F21&gt;F20,1,0)+IF(G21&gt;G20,1,0)+IF(H21&gt;H20,1,0)+IF(I21&gt;I20,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="4"/>
@@ -15581,12 +15592,14 @@
       <c r="F27" s="86">
         <v>0</v>
       </c>
-      <c r="G27" s="85"/>
+      <c r="G27" s="85">
+        <v>5</v>
+      </c>
       <c r="H27" s="86"/>
       <c r="I27" s="85"/>
       <c r="J27" s="77">
         <f>IF(C27&gt;C28,1,0)+IF(D27&gt;D28,1,0)+IF(E27&gt;E28,1,0)+IF(F27&gt;F28,1,0)+IF(G27&gt;G28,1,0)+IF(H27&gt;H28,1,0)+IF(I27&gt;I28,1,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="4"/>
@@ -15628,7 +15641,9 @@
       <c r="F28" s="86">
         <v>5</v>
       </c>
-      <c r="G28" s="85"/>
+      <c r="G28" s="85">
+        <v>2</v>
+      </c>
       <c r="H28" s="86"/>
       <c r="I28" s="85"/>
       <c r="J28" s="77">
@@ -15719,102 +15734,102 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="100" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="99" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="98" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="97" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="96" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="95" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="94" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="93" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="92" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="91" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="89" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="88" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="87" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="86" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="85" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="84" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="83" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="82" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="81" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1960,7 +1960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2456,9 +2456,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2486,9 +2483,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2498,25 +2492,109 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2570,121 +2648,40 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2695,7 +2692,47 @@
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="425">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2704,6 +2741,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="13"/>
@@ -2711,6 +2788,66 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="13"/>
@@ -2725,6 +2862,436 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="13"/>
@@ -2837,6 +3404,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -3431,6 +4026,2360 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3885,7 +6834,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AM99" sqref="AM99"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3908,217 +6857,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="283"/>
-      <c r="K1" s="283"/>
-      <c r="L1" s="283"/>
-      <c r="M1" s="283"/>
-      <c r="N1" s="283"/>
-      <c r="O1" s="283"/>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="284"/>
-      <c r="S1" s="284"/>
-      <c r="T1" s="284"/>
-      <c r="U1" s="284"/>
-      <c r="V1" s="284"/>
-      <c r="W1" s="284"/>
-      <c r="X1" s="284"/>
-      <c r="Y1" s="284"/>
-      <c r="Z1" s="284"/>
-      <c r="AA1" s="284"/>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="284"/>
-      <c r="AD1" s="284"/>
-      <c r="AE1" s="284"/>
-      <c r="AF1" s="284"/>
-      <c r="AG1" s="284"/>
-      <c r="AH1" s="284"/>
-      <c r="AI1" s="284"/>
-      <c r="AJ1" s="284"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="270" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="285"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="286" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="284"/>
-      <c r="S2" s="284"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="284"/>
-      <c r="AA2" s="284"/>
-      <c r="AB2" s="284"/>
-      <c r="AC2" s="284"/>
-      <c r="AD2" s="284"/>
-      <c r="AE2" s="284"/>
-      <c r="AF2" s="284"/>
-      <c r="AG2" s="284"/>
-      <c r="AH2" s="284"/>
-      <c r="AI2" s="284"/>
-      <c r="AJ2" s="284"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
+      <c r="AE2" s="269"/>
+      <c r="AF2" s="269"/>
+      <c r="AG2" s="269"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="269"/>
+      <c r="AJ2" s="269"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="284"/>
-      <c r="Q3" s="284"/>
-      <c r="R3" s="284"/>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="284"/>
-      <c r="V3" s="284"/>
-      <c r="W3" s="284"/>
-      <c r="X3" s="284"/>
-      <c r="Y3" s="284"/>
-      <c r="Z3" s="284"/>
-      <c r="AA3" s="284"/>
-      <c r="AB3" s="284"/>
-      <c r="AC3" s="284"/>
-      <c r="AD3" s="284"/>
-      <c r="AE3" s="284"/>
-      <c r="AF3" s="284"/>
-      <c r="AG3" s="284"/>
-      <c r="AH3" s="284"/>
-      <c r="AI3" s="284"/>
-      <c r="AJ3" s="284"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="269"/>
+      <c r="S3" s="269"/>
+      <c r="T3" s="269"/>
+      <c r="U3" s="269"/>
+      <c r="V3" s="269"/>
+      <c r="W3" s="269"/>
+      <c r="X3" s="269"/>
+      <c r="Y3" s="269"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="269"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="269"/>
+      <c r="AG3" s="269"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="269"/>
+      <c r="AJ3" s="269"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="268"/>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="268"/>
-      <c r="S4" s="269"/>
-      <c r="T4" s="267" t="s">
+      <c r="C4" s="293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="294"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="294"/>
+      <c r="O4" s="294"/>
+      <c r="P4" s="294"/>
+      <c r="Q4" s="294"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="295"/>
+      <c r="T4" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="268"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="268"/>
-      <c r="X4" s="268"/>
-      <c r="Y4" s="268"/>
-      <c r="Z4" s="268"/>
-      <c r="AA4" s="268"/>
-      <c r="AB4" s="269"/>
-      <c r="AC4" s="267" t="s">
+      <c r="U4" s="294"/>
+      <c r="V4" s="294"/>
+      <c r="W4" s="294"/>
+      <c r="X4" s="294"/>
+      <c r="Y4" s="294"/>
+      <c r="Z4" s="294"/>
+      <c r="AA4" s="294"/>
+      <c r="AB4" s="295"/>
+      <c r="AC4" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="268"/>
-      <c r="AE4" s="268"/>
-      <c r="AF4" s="268"/>
-      <c r="AG4" s="278"/>
-      <c r="AH4" s="267" t="s">
+      <c r="AD4" s="294"/>
+      <c r="AE4" s="294"/>
+      <c r="AF4" s="294"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="293" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="268"/>
-      <c r="AJ4" s="269"/>
+      <c r="AI4" s="294"/>
+      <c r="AJ4" s="295"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="275"/>
-      <c r="E5" s="275"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="276"/>
-      <c r="K5" s="274" t="s">
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
-      <c r="N5" s="275"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="275"/>
-      <c r="Q5" s="275"/>
-      <c r="R5" s="276"/>
-      <c r="S5" s="270" t="s">
+      <c r="L5" s="263"/>
+      <c r="M5" s="263"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="263"/>
+      <c r="P5" s="263"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="264"/>
+      <c r="S5" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="279" t="s">
+      <c r="T5" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="275"/>
-      <c r="V5" s="275"/>
-      <c r="W5" s="276"/>
-      <c r="X5" s="274" t="s">
+      <c r="U5" s="263"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="264"/>
+      <c r="X5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="275"/>
-      <c r="Z5" s="275"/>
-      <c r="AA5" s="276"/>
-      <c r="AB5" s="270" t="s">
+      <c r="Y5" s="263"/>
+      <c r="Z5" s="263"/>
+      <c r="AA5" s="264"/>
+      <c r="AB5" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="277" t="s">
+      <c r="AC5" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="276"/>
-      <c r="AE5" s="274" t="s">
+      <c r="AD5" s="264"/>
+      <c r="AE5" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="276"/>
-      <c r="AG5" s="270" t="s">
+      <c r="AF5" s="264"/>
+      <c r="AG5" s="296" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="270" t="s">
+      <c r="AJ5" s="296" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4130,7 +7079,7 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="243">
+      <c r="D6" s="242">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
@@ -4140,7 +7089,7 @@
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="172">
         <f>Résultats!$J$10</f>
@@ -4150,7 +7099,7 @@
         <f>Résultats!$J$11</f>
         <v>2</v>
       </c>
-      <c r="I6" s="239">
+      <c r="I6" s="238">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4164,7 +7113,7 @@
       </c>
       <c r="L6" s="108">
         <f>Résultats!$J$18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="172">
         <f>Résultats!$J$20</f>
@@ -4190,7 +7139,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="271"/>
+      <c r="S6" s="297"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4223,7 +7172,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="271"/>
+      <c r="AB6" s="297"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4240,7 +7189,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="271"/>
+      <c r="AG6" s="297"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4249,7 +7198,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="271"/>
+      <c r="AJ6" s="297"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4260,12 +7209,12 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="244"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="173"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="240"/>
+      <c r="I7" s="239"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
       <c r="L7" s="117"/>
@@ -4275,7 +7224,7 @@
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="271"/>
+      <c r="S7" s="297"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4284,15 +7233,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="271"/>
+      <c r="AB7" s="297"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="271"/>
+      <c r="AG7" s="297"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="271"/>
+      <c r="AJ7" s="297"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4302,7 +7251,7 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="245" t="str">
+      <c r="D8" s="244" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
@@ -4322,7 +7271,7 @@
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="241" t="str">
+      <c r="I8" s="240" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4362,7 +7311,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="271"/>
+      <c r="S8" s="297"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4395,7 +7344,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="271"/>
+      <c r="AB8" s="297"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4412,7 +7361,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="271"/>
+      <c r="AG8" s="297"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4421,7 +7370,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="271"/>
+      <c r="AJ8" s="297"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4435,7 +7384,7 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="246" t="str">
+      <c r="D9" s="245" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
@@ -4455,7 +7404,7 @@
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="242" t="str">
+      <c r="I9" s="241" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4495,7 +7444,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="273"/>
+      <c r="S9" s="299"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4528,7 +7477,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="272"/>
+      <c r="AB9" s="298"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4545,7 +7494,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="272"/>
+      <c r="AG9" s="298"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4554,7 +7503,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="273"/>
+      <c r="AJ9" s="299"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4568,34 +7517,34 @@
         <v>1</v>
       </c>
       <c r="B10" s="211" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C10" s="187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="191">
-        <v>4</v>
-      </c>
-      <c r="F10" s="188"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="188">
+        <v>7</v>
+      </c>
       <c r="G10" s="192">
         <v>6</v>
       </c>
       <c r="H10" s="189"/>
-      <c r="I10" s="191">
+      <c r="I10" s="191"/>
+      <c r="J10" s="189">
         <v>6</v>
       </c>
-      <c r="J10" s="189"/>
-      <c r="K10" s="190">
-        <v>7</v>
-      </c>
-      <c r="L10" s="189"/>
-      <c r="M10" s="191">
+      <c r="K10" s="190"/>
+      <c r="L10" s="189">
+        <v>6</v>
+      </c>
+      <c r="M10" s="191"/>
+      <c r="N10" s="188">
+        <v>6</v>
+      </c>
+      <c r="O10" s="191">
         <v>5</v>
-      </c>
-      <c r="N10" s="188"/>
-      <c r="O10" s="191">
-        <v>4</v>
       </c>
       <c r="P10" s="188"/>
       <c r="Q10" s="192"/>
@@ -4604,15 +7553,15 @@
       </c>
       <c r="S10" s="194">
         <f>SUM(C11:R11)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="187"/>
       <c r="U10" s="189"/>
       <c r="V10" s="191"/>
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="192"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="303"/>
       <c r="AA10" s="193"/>
       <c r="AB10" s="194">
         <f>SUM(T11:AA11)</f>
@@ -4638,7 +7587,7 @@
       </c>
       <c r="AL10" s="194">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4654,7 +7603,7 @@
       <c r="D11" s="134"/>
       <c r="E11" s="132">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E10=$E$6+$F$6,$O$103,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F10=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="134"/>
       <c r="G11" s="132">
@@ -4664,17 +7613,17 @@
       <c r="H11" s="134"/>
       <c r="I11" s="135">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I10=$I$6+$J$6,$O$103,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J10=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11" s="136"/>
       <c r="K11" s="137">
         <f>(IF($K10&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K10=$K$6+$L$6,$O$103,0),0),0)+IF($L10&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L10=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L11" s="134"/>
       <c r="M11" s="132">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="134"/>
       <c r="O11" s="135">
@@ -4753,7 +7702,7 @@
         <f>IF(ISBLANK(I10),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="124">
         <f>IF(ISBLANK(J10),
@@ -4771,7 +7720,7 @@
         <f>IF(ISBLANK(L10),
 0,
 IF(L$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="124">
         <f>IF(ISBLANK(M10),
@@ -4961,17 +7910,17 @@
     <row r="14" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122">
         <f>RANK(AL14,$AL$10:$AL$97,)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
@@ -4983,20 +7932,20 @@
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="44">
         <v>5</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45">
-        <v>7</v>
-      </c>
+      <c r="O14" s="44">
+        <v>4</v>
+      </c>
+      <c r="P14" s="45"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
@@ -5015,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="247"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="129">
@@ -5030,7 +7979,7 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
@@ -5103,7 +8052,7 @@
       <c r="AJ15" s="128"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" s="128"/>
     </row>
@@ -5360,17 +8309,17 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="211" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="199"/>
       <c r="E18" s="200">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" s="199"/>
       <c r="G18" s="201">
@@ -5378,26 +8327,26 @@
       </c>
       <c r="H18" s="202"/>
       <c r="I18" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="202"/>
       <c r="K18" s="203">
+        <v>4</v>
+      </c>
+      <c r="L18" s="202"/>
+      <c r="M18" s="200">
         <v>5</v>
       </c>
-      <c r="L18" s="202"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="199">
+      <c r="N18" s="199"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="199">
         <v>7</v>
       </c>
-      <c r="O18" s="200">
-        <v>6</v>
-      </c>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="201">
+      <c r="Q18" s="201"/>
+      <c r="R18" s="204">
         <v>7</v>
       </c>
-      <c r="R18" s="204"/>
-      <c r="S18" s="312">
+      <c r="S18" s="311">
         <f>SUM(C19:R19)</f>
         <v>21</v>
       </c>
@@ -5406,7 +8355,7 @@
       <c r="V18" s="200"/>
       <c r="W18" s="202"/>
       <c r="X18" s="203"/>
-      <c r="Y18" s="199"/>
+      <c r="Y18" s="237"/>
       <c r="Z18" s="201"/>
       <c r="AA18" s="204"/>
       <c r="AB18" s="205">
@@ -5414,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="201"/>
-      <c r="AD18" s="202"/>
+      <c r="AD18" s="234"/>
       <c r="AE18" s="203"/>
       <c r="AF18" s="202"/>
       <c r="AG18" s="205">
@@ -5429,7 +8378,7 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
@@ -5469,7 +8418,7 @@
       <c r="L19" s="150"/>
       <c r="M19" s="126">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="150"/>
       <c r="O19" s="126">
@@ -5479,7 +8428,7 @@
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
         <f>(IF($Q18&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q18=$Q$6+$R$6,$O$103,0),0),0)+IF($R18&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R18=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="153"/>
       <c r="S19" s="154"/>
@@ -5502,7 +8451,7 @@
       <c r="AJ19" s="154"/>
       <c r="AK19" s="162">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19" s="128"/>
     </row>
@@ -5759,46 +8708,46 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
+        <v>2</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="46">
         <v>4</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="46">
-        <v>5</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="49">
         <v>5</v>
       </c>
       <c r="L22" s="47"/>
-      <c r="M22" s="44">
+      <c r="M22" s="44"/>
+      <c r="N22" s="45">
+        <v>7</v>
+      </c>
+      <c r="O22" s="44">
         <v>6</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44">
-        <v>5</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="48">
         <v>7</v>
       </c>
       <c r="R22" s="50"/>
-      <c r="S22" s="129">
+      <c r="S22" s="116">
         <f>SUM(C23:R23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5806,7 +8755,7 @@
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
       <c r="Y22" s="45"/>
-      <c r="Z22" s="310"/>
+      <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="129">
         <f>SUM(T23:AA23)</f>
@@ -5832,7 +8781,7 @@
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5868,7 +8817,7 @@
       <c r="L23" s="163"/>
       <c r="M23" s="132">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="132">
@@ -5901,7 +8850,7 @@
       <c r="AJ23" s="154"/>
       <c r="AK23" s="162">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL23" s="128"/>
     </row>
@@ -6161,43 +9110,43 @@
         <v>5</v>
       </c>
       <c r="B26" s="211" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C26" s="198">
+        <v>5</v>
+      </c>
+      <c r="D26" s="199"/>
+      <c r="E26" s="200">
+        <v>7</v>
+      </c>
+      <c r="F26" s="199"/>
+      <c r="G26" s="201">
+        <v>5</v>
+      </c>
+      <c r="H26" s="202"/>
+      <c r="I26" s="200">
         <v>6</v>
       </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="199">
-        <v>7</v>
-      </c>
-      <c r="G26" s="201">
+      <c r="J26" s="202"/>
+      <c r="K26" s="203">
+        <v>5</v>
+      </c>
+      <c r="L26" s="202"/>
+      <c r="M26" s="200">
         <v>6</v>
       </c>
-      <c r="H26" s="202"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="202">
-        <v>6</v>
-      </c>
-      <c r="K26" s="203"/>
-      <c r="L26" s="202">
-        <v>6</v>
-      </c>
-      <c r="M26" s="200"/>
-      <c r="N26" s="199">
-        <v>6</v>
-      </c>
+      <c r="N26" s="199"/>
       <c r="O26" s="200">
         <v>5</v>
       </c>
       <c r="P26" s="199"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="204">
-        <v>6</v>
-      </c>
+      <c r="Q26" s="201">
+        <v>7</v>
+      </c>
+      <c r="R26" s="204"/>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6227,11 +9176,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6257,17 +9206,17 @@
       <c r="H27" s="150"/>
       <c r="I27" s="126">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J27" s="151"/>
       <c r="K27" s="152">
         <f>(IF($K26&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K26=$K$6+$L$6,$O$103,0),0),0)+IF($L26&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L26=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="150"/>
       <c r="M27" s="126">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="126">
@@ -6277,7 +9226,7 @@
       <c r="P27" s="150"/>
       <c r="Q27" s="126">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q26=$Q$6+$R$6,$O$103,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R26=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R27" s="153"/>
       <c r="S27" s="154"/>
@@ -6300,7 +9249,7 @@
       <c r="AJ27" s="154"/>
       <c r="AK27" s="162">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL27" s="128"/>
     </row>
@@ -6349,7 +9298,7 @@
         <f>IF(ISBLANK(I26),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="124">
         <f>IF(ISBLANK(J26),
@@ -6425,7 +9374,7 @@
       <c r="AJ28" s="147"/>
       <c r="AK28" s="148">
         <f>SUM(C28:AI28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="130"/>
     </row>
@@ -6560,34 +9509,34 @@
         <v>6</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C30" s="46">
         <v>5</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="44">
-        <v>5</v>
-      </c>
-      <c r="F30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
+        <v>7</v>
+      </c>
       <c r="G30" s="48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
       <c r="J30" s="47">
+        <v>7</v>
+      </c>
+      <c r="K30" s="49">
         <v>6</v>
       </c>
-      <c r="K30" s="49">
-        <v>5</v>
-      </c>
       <c r="L30" s="47"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45">
+      <c r="M30" s="44">
         <v>6</v>
       </c>
+      <c r="N30" s="45"/>
       <c r="O30" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="48"/>
@@ -6603,7 +9552,7 @@
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="45"/>
+      <c r="Y30" s="127"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
@@ -6618,7 +9567,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="311"/>
+      <c r="AH30" s="107"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="129">
         <f>AH31</f>
@@ -6626,7 +9575,7 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
@@ -6646,7 +9595,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
@@ -6666,7 +9615,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6699,7 +9648,7 @@
       <c r="AJ31" s="128"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL31" s="128"/>
     </row>
@@ -6959,32 +9908,32 @@
         <v>6</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C34" s="198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="199"/>
-      <c r="E34" s="200">
-        <v>6</v>
-      </c>
-      <c r="F34" s="199"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="202">
+      <c r="E34" s="200"/>
+      <c r="F34" s="199">
         <v>7</v>
       </c>
+      <c r="G34" s="201">
+        <v>7</v>
+      </c>
+      <c r="H34" s="202"/>
       <c r="I34" s="200"/>
       <c r="J34" s="202">
         <v>6</v>
       </c>
       <c r="K34" s="203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L34" s="202"/>
-      <c r="M34" s="200"/>
-      <c r="N34" s="199">
+      <c r="M34" s="200">
         <v>7</v>
       </c>
+      <c r="N34" s="199"/>
       <c r="O34" s="200">
         <v>5</v>
       </c>
@@ -7003,7 +9952,7 @@
       <c r="W34" s="202"/>
       <c r="X34" s="203"/>
       <c r="Y34" s="199"/>
-      <c r="Z34" s="208"/>
+      <c r="Z34" s="201"/>
       <c r="AA34" s="202"/>
       <c r="AB34" s="205">
         <f>SUM(T35:AA35)</f>
@@ -7025,7 +9974,7 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
@@ -7045,7 +9994,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="81">
         <f>(IF($E34&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E34=$E$6+$F$6,$O$103,0),0),0)+IF($F34&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F34=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="81">
@@ -7065,7 +10014,7 @@
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7098,7 +10047,7 @@
       <c r="AJ35" s="128"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL35" s="128"/>
     </row>
@@ -7358,16 +10307,16 @@
         <v>6</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C38" s="46">
         <v>5</v>
       </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="44">
-        <v>6</v>
-      </c>
-      <c r="F38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45">
+        <v>7</v>
+      </c>
       <c r="G38" s="48">
         <v>6</v>
       </c>
@@ -7380,23 +10329,23 @@
         <v>5</v>
       </c>
       <c r="L38" s="47"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45">
+      <c r="M38" s="44">
         <v>6</v>
       </c>
+      <c r="N38" s="45"/>
       <c r="O38" s="44">
         <v>7</v>
       </c>
       <c r="P38" s="45"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
         <v>13</v>
       </c>
-      <c r="T38" s="46"/>
+      <c r="T38" s="236"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
@@ -7424,7 +10373,7 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
@@ -7444,7 +10393,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="125">
@@ -7464,7 +10413,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -7497,7 +10446,7 @@
       <c r="AJ39" s="128"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL39" s="128"/>
     </row>
@@ -7754,23 +10703,23 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C42" s="198">
         <v>5</v>
       </c>
       <c r="D42" s="199"/>
       <c r="E42" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="202">
-        <v>7</v>
-      </c>
+      <c r="G42" s="201">
+        <v>5</v>
+      </c>
+      <c r="H42" s="202"/>
       <c r="I42" s="200"/>
       <c r="J42" s="202">
         <v>6</v>
@@ -7784,16 +10733,16 @@
         <v>6</v>
       </c>
       <c r="O42" s="200">
+        <v>5</v>
+      </c>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="201"/>
+      <c r="R42" s="204">
         <v>6</v>
       </c>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="201">
-        <v>6</v>
-      </c>
-      <c r="R42" s="204"/>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -7815,7 +10764,7 @@
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="209"/>
+      <c r="AH42" s="312"/>
       <c r="AI42" s="196"/>
       <c r="AJ42" s="205">
         <f>AH43</f>
@@ -7827,7 +10776,7 @@
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7873,7 +10822,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="128"/>
@@ -7896,7 +10845,7 @@
       <c r="AJ43" s="128"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL43" s="128"/>
     </row>
@@ -8153,37 +11102,37 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C46" s="46">
         <v>5</v>
       </c>
       <c r="D46" s="45"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45">
+      <c r="E46" s="44">
+        <v>6</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="47">
         <v>7</v>
       </c>
-      <c r="G46" s="48">
-        <v>4</v>
-      </c>
-      <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
+        <v>6</v>
+      </c>
+      <c r="K46" s="49">
+        <v>5</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45">
         <v>7</v>
       </c>
-      <c r="K46" s="49">
-        <v>6</v>
-      </c>
-      <c r="L46" s="47"/>
-      <c r="M46" s="44">
-        <v>6</v>
-      </c>
-      <c r="N46" s="45"/>
       <c r="O46" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P46" s="45"/>
       <c r="Q46" s="48"/>
@@ -8192,15 +11141,15 @@
       </c>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
       <c r="V46" s="44"/>
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
-      <c r="Y46" s="127"/>
-      <c r="Z46" s="48"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="249"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="129">
         <f>SUM(T47:AA47)</f>
@@ -8226,7 +11175,7 @@
       </c>
       <c r="AL46" s="129">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8262,7 +11211,7 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -8295,7 +11244,7 @@
       <c r="AJ47" s="128"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL47" s="128"/>
     </row>
@@ -8552,17 +11501,17 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50" s="211" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C50" s="198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="199"/>
       <c r="E50" s="200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F50" s="199"/>
       <c r="G50" s="201">
@@ -8571,18 +11520,18 @@
       <c r="H50" s="202"/>
       <c r="I50" s="200"/>
       <c r="J50" s="202">
+        <v>7</v>
+      </c>
+      <c r="K50" s="203">
+        <v>5</v>
+      </c>
+      <c r="L50" s="202"/>
+      <c r="M50" s="200"/>
+      <c r="N50" s="199">
         <v>6</v>
       </c>
-      <c r="K50" s="203">
-        <v>6</v>
-      </c>
-      <c r="L50" s="202"/>
-      <c r="M50" s="200">
-        <v>5</v>
-      </c>
-      <c r="N50" s="199"/>
       <c r="O50" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P50" s="199"/>
       <c r="Q50" s="201"/>
@@ -8591,7 +11540,7 @@
       </c>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -8599,14 +11548,14 @@
       <c r="W50" s="202"/>
       <c r="X50" s="203"/>
       <c r="Y50" s="199"/>
-      <c r="Z50" s="208"/>
+      <c r="Z50" s="201"/>
       <c r="AA50" s="202"/>
       <c r="AB50" s="205">
         <f>SUM(T51:AA51)</f>
         <v>0</v>
       </c>
       <c r="AC50" s="201"/>
-      <c r="AD50" s="234"/>
+      <c r="AD50" s="202"/>
       <c r="AE50" s="203"/>
       <c r="AF50" s="202"/>
       <c r="AG50" s="205">
@@ -8625,7 +11574,7 @@
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8661,7 +11610,7 @@
       <c r="L51" s="134"/>
       <c r="M51" s="132">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" s="134"/>
       <c r="O51" s="135">
@@ -8948,43 +11897,43 @@
     <row r="54" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="122">
         <f>RANK(AL54,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C54" s="46">
+        <v>5</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44">
         <v>6</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45">
+      <c r="F54" s="45"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="47">
         <v>7</v>
       </c>
-      <c r="G54" s="48">
-        <v>7</v>
-      </c>
-      <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
         <v>6</v>
       </c>
       <c r="K54" s="49">
+        <v>5</v>
+      </c>
+      <c r="L54" s="47"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="45">
         <v>6</v>
       </c>
-      <c r="L54" s="47"/>
-      <c r="M54" s="44">
-        <v>7</v>
-      </c>
-      <c r="N54" s="45"/>
       <c r="O54" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54" s="45"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="50">
+      <c r="Q54" s="48">
         <v>6</v>
       </c>
+      <c r="R54" s="50"/>
       <c r="S54" s="129">
         <f>SUM(C55:R55)</f>
         <v>12</v>
@@ -9017,7 +11966,7 @@
       </c>
       <c r="AK54" s="116">
         <f>MAX($AL$10:$AL$97) - AL54</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL54" s="129">
         <f>$S54+$AB54+$AG54+$AJ54</f>
@@ -9057,7 +12006,7 @@
       <c r="L55" s="134"/>
       <c r="M55" s="132">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55" s="134"/>
       <c r="O55" s="135">
@@ -9067,7 +12016,7 @@
       <c r="P55" s="134"/>
       <c r="Q55" s="135">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q54=$Q$6+$R$6,$O$103,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R54=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R55" s="138"/>
       <c r="S55" s="128"/>
@@ -9344,41 +12293,41 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="186">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58" s="211" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="251">
+        <v>67</v>
+      </c>
+      <c r="C58" s="198">
+        <v>4</v>
+      </c>
+      <c r="D58" s="199"/>
+      <c r="E58" s="200">
+        <v>4</v>
+      </c>
+      <c r="F58" s="199"/>
+      <c r="G58" s="201">
+        <v>6</v>
+      </c>
+      <c r="H58" s="202"/>
+      <c r="I58" s="200"/>
+      <c r="J58" s="202">
+        <v>6</v>
+      </c>
+      <c r="K58" s="203">
+        <v>6</v>
+      </c>
+      <c r="L58" s="202"/>
+      <c r="M58" s="200">
         <v>5</v>
       </c>
-      <c r="D58" s="252"/>
-      <c r="E58" s="253">
+      <c r="N58" s="199"/>
+      <c r="O58" s="200">
         <v>6</v>
       </c>
-      <c r="F58" s="252"/>
-      <c r="G58" s="254">
-        <v>5</v>
-      </c>
-      <c r="H58" s="255"/>
-      <c r="I58" s="253"/>
-      <c r="J58" s="255">
-        <v>6</v>
-      </c>
-      <c r="K58" s="256">
-        <v>6</v>
-      </c>
-      <c r="L58" s="255"/>
-      <c r="M58" s="253">
-        <v>7</v>
-      </c>
-      <c r="N58" s="252"/>
-      <c r="O58" s="253">
-        <v>6</v>
-      </c>
-      <c r="P58" s="252"/>
-      <c r="Q58" s="254"/>
-      <c r="R58" s="257">
+      <c r="P58" s="199"/>
+      <c r="Q58" s="201"/>
+      <c r="R58" s="204">
         <v>6</v>
       </c>
       <c r="S58" s="205">
@@ -9391,14 +12340,14 @@
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
       <c r="Y58" s="199"/>
-      <c r="Z58" s="201"/>
+      <c r="Z58" s="208"/>
       <c r="AA58" s="202"/>
       <c r="AB58" s="205">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
       <c r="AC58" s="201"/>
-      <c r="AD58" s="202"/>
+      <c r="AD58" s="234"/>
       <c r="AE58" s="203"/>
       <c r="AF58" s="202"/>
       <c r="AG58" s="205">
@@ -9413,7 +12362,7 @@
       </c>
       <c r="AK58" s="207">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL58" s="205">
         <f>$S58+$AB58+$AG58+$AJ58</f>
@@ -9740,48 +12689,48 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="46">
+        <v>68</v>
+      </c>
+      <c r="C62" s="304">
         <v>5</v>
       </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45">
+      <c r="D62" s="305"/>
+      <c r="E62" s="306">
+        <v>6</v>
+      </c>
+      <c r="F62" s="305"/>
+      <c r="G62" s="307">
+        <v>5</v>
+      </c>
+      <c r="H62" s="308"/>
+      <c r="I62" s="306"/>
+      <c r="J62" s="308">
+        <v>6</v>
+      </c>
+      <c r="K62" s="309">
+        <v>6</v>
+      </c>
+      <c r="L62" s="308"/>
+      <c r="M62" s="306">
         <v>7</v>
       </c>
-      <c r="G62" s="48">
+      <c r="N62" s="305"/>
+      <c r="O62" s="306">
         <v>6</v>
       </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="47">
-        <v>7</v>
-      </c>
-      <c r="K62" s="49">
-        <v>5</v>
-      </c>
-      <c r="L62" s="47"/>
-      <c r="M62" s="44">
+      <c r="P62" s="305"/>
+      <c r="Q62" s="307"/>
+      <c r="R62" s="310">
         <v>6</v>
-      </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="44">
-        <v>7</v>
-      </c>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="50">
-        <v>7</v>
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
         <v>12</v>
       </c>
-      <c r="T62" s="236"/>
+      <c r="T62" s="46"/>
       <c r="U62" s="47"/>
       <c r="V62" s="44"/>
       <c r="W62" s="47"/>
@@ -9809,7 +12758,7 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL62" s="129">
         <f>$S62+$AB62+$AG62+$AJ62</f>
@@ -10136,7 +13085,7 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B66" s="211" t="s">
         <v>70</v>
@@ -10197,7 +13146,7 @@
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="313"/>
+      <c r="AH66" s="250"/>
       <c r="AI66" s="206"/>
       <c r="AJ66" s="205">
         <f>AH67</f>
@@ -10205,7 +13154,7 @@
       </c>
       <c r="AK66" s="207">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL66" s="205">
         <f>$S66+$AB66+$AG66+$AJ66</f>
@@ -10532,7 +13481,7 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B70" s="88" t="s">
         <v>82</v>
@@ -10601,7 +13550,7 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL70" s="129">
         <f>$S70+$AB70+$AG70+$AJ70</f>
@@ -10928,7 +13877,7 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="186">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" s="211" t="s">
         <v>80</v>
@@ -10997,7 +13946,7 @@
       </c>
       <c r="AK74" s="207">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
@@ -11324,7 +14273,7 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B78" s="88" t="s">
         <v>81</v>
@@ -11371,7 +14320,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="310"/>
+      <c r="Z78" s="249"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="129">
         <f>SUM(T79:AA79)</f>
@@ -11393,7 +14342,7 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
@@ -11720,7 +14669,7 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="186">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B82" s="211" t="s">
         <v>75</v>
@@ -11789,7 +14738,7 @@
       </c>
       <c r="AK82" s="207">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
@@ -12116,7 +15065,7 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" s="88" t="s">
         <v>76</v>
@@ -12185,7 +15134,7 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
@@ -12521,15 +15470,15 @@
         <v>7</v>
       </c>
       <c r="D90" s="199"/>
-      <c r="E90" s="248">
+      <c r="E90" s="246">
         <v>6</v>
       </c>
       <c r="F90" s="199"/>
-      <c r="G90" s="249"/>
+      <c r="G90" s="247"/>
       <c r="H90" s="202">
         <v>6</v>
       </c>
-      <c r="I90" s="248"/>
+      <c r="I90" s="246"/>
       <c r="J90" s="202">
         <v>7</v>
       </c>
@@ -12555,10 +15504,10 @@
       </c>
       <c r="T90" s="198"/>
       <c r="U90" s="202"/>
-      <c r="V90" s="250"/>
+      <c r="V90" s="248"/>
       <c r="W90" s="202"/>
       <c r="X90" s="203"/>
-      <c r="Y90" s="238"/>
+      <c r="Y90" s="237"/>
       <c r="Z90" s="201"/>
       <c r="AA90" s="202"/>
       <c r="AB90" s="205">
@@ -12581,7 +15530,7 @@
       </c>
       <c r="AK90" s="207">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
@@ -12977,7 +15926,7 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
@@ -13434,12 +16383,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="258" t="s">
+      <c r="O100" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="259"/>
-      <c r="Q100" s="259"/>
-      <c r="R100" s="260"/>
+      <c r="P100" s="285"/>
+      <c r="Q100" s="285"/>
+      <c r="R100" s="286"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13448,21 +16397,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="287" t="s">
+      <c r="B101" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="288"/>
-      <c r="D101" s="288"/>
-      <c r="E101" s="288"/>
-      <c r="F101" s="288"/>
-      <c r="G101" s="288"/>
-      <c r="H101" s="288"/>
-      <c r="I101" s="288"/>
-      <c r="J101" s="288"/>
-      <c r="K101" s="288"/>
-      <c r="L101" s="288"/>
-      <c r="M101" s="288"/>
-      <c r="N101" s="289"/>
+      <c r="C101" s="273"/>
+      <c r="D101" s="273"/>
+      <c r="E101" s="273"/>
+      <c r="F101" s="273"/>
+      <c r="G101" s="273"/>
+      <c r="H101" s="273"/>
+      <c r="I101" s="273"/>
+      <c r="J101" s="273"/>
+      <c r="K101" s="273"/>
+      <c r="L101" s="273"/>
+      <c r="M101" s="273"/>
+      <c r="N101" s="274"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13475,45 +16424,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="261" t="s">
+      <c r="U101" s="287" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="262"/>
-      <c r="W101" s="262"/>
-      <c r="X101" s="262"/>
-      <c r="Y101" s="262"/>
-      <c r="Z101" s="262"/>
-      <c r="AA101" s="262"/>
-      <c r="AB101" s="262"/>
-      <c r="AC101" s="262"/>
-      <c r="AD101" s="263"/>
+      <c r="V101" s="288"/>
+      <c r="W101" s="288"/>
+      <c r="X101" s="288"/>
+      <c r="Y101" s="288"/>
+      <c r="Z101" s="288"/>
+      <c r="AA101" s="288"/>
+      <c r="AB101" s="288"/>
+      <c r="AC101" s="288"/>
+      <c r="AD101" s="289"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="264" t="s">
+      <c r="AG101" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="265"/>
-      <c r="AI101" s="265"/>
-      <c r="AJ101" s="265"/>
-      <c r="AK101" s="266"/>
+      <c r="AH101" s="291"/>
+      <c r="AI101" s="291"/>
+      <c r="AJ101" s="291"/>
+      <c r="AK101" s="292"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="294" t="s">
+      <c r="B102" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="295"/>
-      <c r="D102" s="295"/>
-      <c r="E102" s="295"/>
-      <c r="F102" s="295"/>
-      <c r="G102" s="295"/>
-      <c r="H102" s="295"/>
-      <c r="I102" s="295"/>
-      <c r="J102" s="295"/>
-      <c r="K102" s="295"/>
-      <c r="L102" s="295"/>
-      <c r="M102" s="295"/>
-      <c r="N102" s="296"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="252"/>
+      <c r="E102" s="252"/>
+      <c r="F102" s="252"/>
+      <c r="G102" s="252"/>
+      <c r="H102" s="252"/>
+      <c r="I102" s="252"/>
+      <c r="J102" s="252"/>
+      <c r="K102" s="252"/>
+      <c r="L102" s="252"/>
+      <c r="M102" s="252"/>
+      <c r="N102" s="253"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13526,49 +16475,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="292" t="s">
+      <c r="U102" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="293"/>
-      <c r="W102" s="293"/>
-      <c r="X102" s="293"/>
-      <c r="Y102" s="293"/>
-      <c r="Z102" s="293"/>
-      <c r="AA102" s="293"/>
-      <c r="AB102" s="290">
+      <c r="V102" s="278"/>
+      <c r="W102" s="278"/>
+      <c r="X102" s="278"/>
+      <c r="Y102" s="278"/>
+      <c r="Z102" s="278"/>
+      <c r="AA102" s="278"/>
+      <c r="AB102" s="275">
         <v>22</v>
       </c>
-      <c r="AC102" s="290"/>
-      <c r="AD102" s="291"/>
+      <c r="AC102" s="275"/>
+      <c r="AD102" s="276"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="306" t="s">
+      <c r="AG102" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="307"/>
-      <c r="AI102" s="307"/>
-      <c r="AJ102" s="308"/>
+      <c r="AH102" s="259"/>
+      <c r="AI102" s="259"/>
+      <c r="AJ102" s="260"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="294" t="s">
+      <c r="B103" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="295"/>
-      <c r="D103" s="295"/>
-      <c r="E103" s="295"/>
-      <c r="F103" s="295"/>
-      <c r="G103" s="295"/>
-      <c r="H103" s="295"/>
-      <c r="I103" s="295"/>
-      <c r="J103" s="295"/>
-      <c r="K103" s="295"/>
-      <c r="L103" s="295"/>
-      <c r="M103" s="295"/>
-      <c r="N103" s="296"/>
+      <c r="C103" s="252"/>
+      <c r="D103" s="252"/>
+      <c r="E103" s="252"/>
+      <c r="F103" s="252"/>
+      <c r="G103" s="252"/>
+      <c r="H103" s="252"/>
+      <c r="I103" s="252"/>
+      <c r="J103" s="252"/>
+      <c r="K103" s="252"/>
+      <c r="L103" s="252"/>
+      <c r="M103" s="252"/>
+      <c r="N103" s="253"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13581,49 +16530,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="301" t="s">
+      <c r="U103" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="302"/>
-      <c r="W103" s="302"/>
-      <c r="X103" s="302"/>
-      <c r="Y103" s="302"/>
-      <c r="Z103" s="302"/>
-      <c r="AA103" s="302"/>
-      <c r="AB103" s="303">
+      <c r="V103" s="257"/>
+      <c r="W103" s="257"/>
+      <c r="X103" s="257"/>
+      <c r="Y103" s="257"/>
+      <c r="Z103" s="257"/>
+      <c r="AA103" s="257"/>
+      <c r="AB103" s="282">
         <v>20</v>
       </c>
-      <c r="AC103" s="303"/>
-      <c r="AD103" s="304"/>
+      <c r="AC103" s="282"/>
+      <c r="AD103" s="283"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="309" t="s">
+      <c r="AG103" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="295"/>
-      <c r="AI103" s="295"/>
-      <c r="AJ103" s="296"/>
+      <c r="AH103" s="252"/>
+      <c r="AI103" s="252"/>
+      <c r="AJ103" s="253"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="280" t="s">
+      <c r="B104" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="281"/>
-      <c r="D104" s="281"/>
-      <c r="E104" s="281"/>
-      <c r="F104" s="281"/>
-      <c r="G104" s="281"/>
-      <c r="H104" s="281"/>
-      <c r="I104" s="281"/>
-      <c r="J104" s="281"/>
-      <c r="K104" s="281"/>
-      <c r="L104" s="281"/>
-      <c r="M104" s="281"/>
-      <c r="N104" s="282"/>
+      <c r="C104" s="266"/>
+      <c r="D104" s="266"/>
+      <c r="E104" s="266"/>
+      <c r="F104" s="266"/>
+      <c r="G104" s="266"/>
+      <c r="H104" s="266"/>
+      <c r="I104" s="266"/>
+      <c r="J104" s="266"/>
+      <c r="K104" s="266"/>
+      <c r="L104" s="266"/>
+      <c r="M104" s="266"/>
+      <c r="N104" s="267"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13636,51 +16585,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="297" t="s">
+      <c r="U104" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="298"/>
-      <c r="W104" s="298"/>
-      <c r="X104" s="298"/>
-      <c r="Y104" s="298"/>
-      <c r="Z104" s="298"/>
-      <c r="AA104" s="298"/>
-      <c r="AB104" s="299">
+      <c r="V104" s="255"/>
+      <c r="W104" s="255"/>
+      <c r="X104" s="255"/>
+      <c r="Y104" s="255"/>
+      <c r="Z104" s="255"/>
+      <c r="AA104" s="255"/>
+      <c r="AB104" s="280">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="299"/>
-      <c r="AD104" s="300"/>
+      <c r="AC104" s="280"/>
+      <c r="AD104" s="281"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="309" t="s">
+      <c r="AG104" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="295"/>
-      <c r="AI104" s="295"/>
-      <c r="AJ104" s="296"/>
+      <c r="AH104" s="252"/>
+      <c r="AI104" s="252"/>
+      <c r="AJ104" s="253"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="301" t="s">
+      <c r="AG105" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="302"/>
-      <c r="AI105" s="302"/>
-      <c r="AJ105" s="302"/>
+      <c r="AH105" s="257"/>
+      <c r="AI105" s="257"/>
+      <c r="AJ105" s="257"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="305" t="s">
+      <c r="AG106" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="298"/>
-      <c r="AI106" s="298"/>
-      <c r="AJ106" s="298"/>
+      <c r="AH106" s="255"/>
+      <c r="AI106" s="255"/>
+      <c r="AJ106" s="255"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13692,12 +16641,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13714,341 +16673,331 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
-    <cfRule type="cellIs" dxfId="100" priority="183" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="184" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:R10">
-    <cfRule type="cellIs" dxfId="99" priority="179" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="180" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:R14">
-    <cfRule type="cellIs" dxfId="98" priority="178" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="179" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:R18">
-    <cfRule type="cellIs" dxfId="97" priority="177" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="178" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:R22">
-    <cfRule type="cellIs" dxfId="96" priority="176" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="177" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:R26">
-    <cfRule type="cellIs" dxfId="95" priority="175" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="176" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:R30">
-    <cfRule type="cellIs" dxfId="94" priority="174" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="175" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:R34">
-    <cfRule type="cellIs" dxfId="93" priority="173" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="174" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:R38">
-    <cfRule type="cellIs" dxfId="92" priority="172" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="173" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:R42">
-    <cfRule type="cellIs" dxfId="91" priority="171" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="172" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AI54 C54:R54 T54:AA54 AC54:AF54">
-    <cfRule type="cellIs" dxfId="90" priority="170" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="171" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AI46 C46:R46 T46:AA46 AC46:AF46">
-    <cfRule type="cellIs" dxfId="89" priority="169" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="170" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:R46">
-    <cfRule type="cellIs" dxfId="88" priority="168" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="169" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH50:AI50 C50:R50 T50:AA50 AC50:AF50">
-    <cfRule type="cellIs" dxfId="87" priority="167" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="168" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:R50">
-    <cfRule type="cellIs" dxfId="86" priority="166" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="167" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH58:AI58 C58:R58 T58:AA58 AC58:AF58">
-    <cfRule type="cellIs" dxfId="85" priority="165" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="166" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="84" priority="164" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="165" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH70:AI70 C70:R70 T70:AA70 AC70:AF70">
-    <cfRule type="cellIs" dxfId="83" priority="163" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="63" priority="164" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH74:AI74 C74:R74 T74:AA74 AC74:AF74">
-    <cfRule type="cellIs" dxfId="82" priority="162" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="163" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH78:AI78 C78:R78 T78:AA78 AC78:AF78">
-    <cfRule type="cellIs" dxfId="81" priority="161" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="162" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S15 AB10:AB15 AG10:AG15 AJ10:AJ15 AJ26:AJ27 AG26:AG27 AB26:AB27 S26:S27 AJ22:AJ23 AG22:AG23 AB22:AB23 S22:S23 AJ18:AJ19 AG18:AG19 AB18:AB19 S18:S19 S38:S39 AB38:AB39 AG38:AG39 AJ38:AJ39 S30:S31 AB30:AB31 AG30:AG31 AJ30:AJ31 AJ42:AJ43 AG42:AG43 AB42:AB43 S42:S43 S46:S47 AB46:AB47 AG46:AG47 AJ46:AJ47 AJ50 AG50 AB50 S50 S58 AB58 AG58 AJ58 S54 AB54 AG54 AJ54 AJ62 AG62 AB62 S62 S66 AB66 AG66 AJ66 AJ70 AG70 AB70 S70 S74 AB74 AG74 AJ74 AJ78 AG78 AB78 S78 AJ34:AJ35 AG34:AG35 AB34:AB35 S34:S35">
-    <cfRule type="cellIs" dxfId="80" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="157" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL23 AL26:AL27 AL38:AL39 AL30:AL31 AL42:AL43 AL46:AL47 AL50 AL58 AL54 AL62 AL66 AL70 AL74 AL78 AL34:AL35">
-    <cfRule type="cellIs" dxfId="79" priority="155" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="156" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ24:AJ25">
-    <cfRule type="cellIs" dxfId="78" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="153" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AL25">
-    <cfRule type="cellIs" dxfId="77" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="154" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20:AJ21">
-    <cfRule type="cellIs" dxfId="76" priority="151" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="152" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AJ17">
-    <cfRule type="cellIs" dxfId="75" priority="150" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="151" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ28:AJ29">
-    <cfRule type="cellIs" dxfId="74" priority="146" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="147" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28:AL29">
-    <cfRule type="cellIs" dxfId="73" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="148" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36:AL37">
-    <cfRule type="cellIs" dxfId="72" priority="145" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="146" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40:AL41">
-    <cfRule type="cellIs" dxfId="71" priority="143" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="144" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL44:AL45">
-    <cfRule type="cellIs" dxfId="70" priority="141" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="142" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL48:AL49">
-    <cfRule type="cellIs" dxfId="69" priority="139" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="140" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S21 AB20:AB21 AG20:AG21">
-    <cfRule type="cellIs" dxfId="68" priority="116" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="117" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S25 AB24:AB25 AG24:AG25">
-    <cfRule type="cellIs" dxfId="67" priority="115" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="116" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17 AB16:AB17 AG16:AG17">
-    <cfRule type="cellIs" dxfId="66" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="118" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:S29 AB28:AB29 AG28:AG29">
-    <cfRule type="cellIs" dxfId="65" priority="114" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="115" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ32:AJ33">
-    <cfRule type="cellIs" dxfId="64" priority="112" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="113" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32:AL33">
-    <cfRule type="cellIs" dxfId="63" priority="113" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="114" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S33 AB32:AB33 AG32:AG33">
-    <cfRule type="cellIs" dxfId="62" priority="111" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="112" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ37">
-    <cfRule type="cellIs" dxfId="61" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="111" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:S37 AB36:AB37 AG36:AG37">
-    <cfRule type="cellIs" dxfId="60" priority="109" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="110" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40:AJ41">
-    <cfRule type="cellIs" dxfId="59" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="109" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:S41 AB40:AB41 AG40:AG41">
-    <cfRule type="cellIs" dxfId="58" priority="107" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="108" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ45">
-    <cfRule type="cellIs" dxfId="57" priority="106" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="107" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:S45 AB44:AB45 AG44:AG45">
-    <cfRule type="cellIs" dxfId="56" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="106" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ48:AJ49">
-    <cfRule type="cellIs" dxfId="55" priority="104" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="105" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:S49 AB48:AB49 AG48:AG49">
-    <cfRule type="cellIs" dxfId="54" priority="103" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="104" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:S53 AB51:AB53 AG51:AG53 AJ51:AJ53">
-    <cfRule type="cellIs" dxfId="53" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="85" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51:AL53">
-    <cfRule type="cellIs" dxfId="52" priority="83" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="84" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:S57 AB55:AB57 AG55:AG57 AJ55:AJ57">
-    <cfRule type="cellIs" dxfId="51" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="83" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL55:AL57">
-    <cfRule type="cellIs" dxfId="50" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="82" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59:S61 AB59:AB61 AG59:AG61 AJ59:AJ61">
-    <cfRule type="cellIs" dxfId="49" priority="80" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="81" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL59:AL61">
-    <cfRule type="cellIs" dxfId="48" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="80" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:S65 AB63:AB65 AG63:AG65 AJ63:AJ65">
-    <cfRule type="cellIs" dxfId="47" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="79" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63:AL65">
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="78" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:S69 AB67:AB69 AG67:AG69 AJ67:AJ69">
-    <cfRule type="cellIs" dxfId="45" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="77" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL67:AL69">
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="76" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S71:S73 AB71:AB73 AG71:AG73 AJ71:AJ73">
-    <cfRule type="cellIs" dxfId="43" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="75" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL71:AL73">
-    <cfRule type="cellIs" dxfId="42" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="74" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75:S77 AB75:AB77 AG75:AG77 AJ75:AJ77">
-    <cfRule type="cellIs" dxfId="41" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="73" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL75:AL77">
-    <cfRule type="cellIs" dxfId="40" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="72" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S79:S81 AB79:AB81 AG79:AG81 AJ79:AJ81">
-    <cfRule type="cellIs" dxfId="39" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="71" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79:AL81">
-    <cfRule type="cellIs" dxfId="38" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="70" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14062,97 +17011,97 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH82:AI82 C82:R82 T82:AA82 AC82:AF82">
-    <cfRule type="cellIs" dxfId="37" priority="58" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH90:AI90 C90:R90 T90:AA90 AC90:AF90">
-    <cfRule type="cellIs" dxfId="36" priority="57" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="58" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S82 AB82 AG82 AJ82 AJ90 AG90 AB90 S90">
-    <cfRule type="cellIs" dxfId="35" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="57" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL82 AL90">
-    <cfRule type="cellIs" dxfId="34" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="56" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83:S85 AB83:AB85 AG83:AG85 AJ83:AJ85">
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="55" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL83:AL85">
-    <cfRule type="cellIs" dxfId="32" priority="53" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="54" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S91:S93 AB91:AB93 AG91:AG93 AJ91:AJ93">
-    <cfRule type="cellIs" dxfId="31" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="53" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL91:AL93">
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH94:AI94 C94:R94 T94:AA94 AC94:AF94">
-    <cfRule type="cellIs" dxfId="29" priority="50" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="51" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S94 AB94 AG94 AJ94">
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="49" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94">
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="48" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S95:S97 AB95:AB97 AG95:AG97 AJ95:AJ97">
-    <cfRule type="cellIs" dxfId="26" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="47" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL95:AL97">
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="46" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH86:AI86 C86:R86 T86:AA86 AC86:AF86">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S86 AB86 AG86 AJ86">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL86">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87:S89 AB87:AB89 AG87:AG89 AJ87:AJ89">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL87:AL89">
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:F98">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14166,7 +17115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98:H98">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14180,7 +17129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:J98">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14194,7 +17143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K98:L98">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14208,7 +17157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98:N98">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14222,7 +17171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O98:P98">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14236,7 +17185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q98:R98">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14250,7 +17199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AK94">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14386,7 +17335,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14581,7 +17530,9 @@
       <c r="F6" s="85">
         <v>6</v>
       </c>
-      <c r="G6" s="85"/>
+      <c r="G6" s="85">
+        <v>1</v>
+      </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85"/>
       <c r="J6" s="77">
@@ -14637,12 +17588,14 @@
       <c r="F7" s="85">
         <v>4</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="85">
+        <v>2</v>
+      </c>
       <c r="H7" s="85"/>
       <c r="I7" s="85"/>
       <c r="J7" s="77">
         <f>IF(C7&gt;C6,1,0)+IF(D7&gt;D6,1,0)+IF(E7&gt;E6,1,0)+IF(F7&gt;F6,1,0)+IF(G7&gt;G6,1,0)+IF(H7&gt;H6,1,0)+IF(I7&gt;I6,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="4"/>
@@ -15110,7 +18063,9 @@
       <c r="F17" s="86">
         <v>2</v>
       </c>
-      <c r="G17" s="85"/>
+      <c r="G17" s="85">
+        <v>1</v>
+      </c>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="77">
@@ -15160,12 +18115,14 @@
       <c r="F18" s="86">
         <v>3</v>
       </c>
-      <c r="G18" s="85"/>
+      <c r="G18" s="85">
+        <v>5</v>
+      </c>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="77">
         <f>IF(C18&gt;C17,1,0)+IF(D18&gt;D17,1,0)+IF(E18&gt;E17,1,0)+IF(F18&gt;F17,1,0)+IF(G18&gt;G17,1,0)+IF(H18&gt;H17,1,0)+IF(I18&gt;I17,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="4"/>
@@ -15734,102 +18691,102 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="19" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="424" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="18" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="423" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="421" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="419" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="415" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="413" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="412" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="409" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="408" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="407" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="406" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="405" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1960,7 +1960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2483,20 +2483,143 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2507,18 +2630,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2531,158 +2669,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2692,605 +2704,7 @@
     <cellStyle name="Monétaire" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="425">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <fill>
         <patternFill>
@@ -4169,2360 +3583,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6834,7 +3894,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6857,217 +3917,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="269"/>
-      <c r="T1" s="269"/>
-      <c r="U1" s="269"/>
-      <c r="V1" s="269"/>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="269"/>
-      <c r="AG1" s="269"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="269"/>
-      <c r="AJ1" s="269"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
+      <c r="K1" s="281"/>
+      <c r="L1" s="281"/>
+      <c r="M1" s="281"/>
+      <c r="N1" s="281"/>
+      <c r="O1" s="281"/>
+      <c r="P1" s="282"/>
+      <c r="Q1" s="282"/>
+      <c r="R1" s="282"/>
+      <c r="S1" s="282"/>
+      <c r="T1" s="282"/>
+      <c r="U1" s="282"/>
+      <c r="V1" s="282"/>
+      <c r="W1" s="282"/>
+      <c r="X1" s="282"/>
+      <c r="Y1" s="282"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="282"/>
+      <c r="AB1" s="282"/>
+      <c r="AC1" s="282"/>
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="282"/>
+      <c r="AG1" s="282"/>
+      <c r="AH1" s="282"/>
+      <c r="AI1" s="282"/>
+      <c r="AJ1" s="282"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="283" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="271" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="269"/>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="269"/>
-      <c r="AA2" s="269"/>
-      <c r="AB2" s="269"/>
-      <c r="AC2" s="269"/>
-      <c r="AD2" s="269"/>
-      <c r="AE2" s="269"/>
-      <c r="AF2" s="269"/>
-      <c r="AG2" s="269"/>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="269"/>
-      <c r="AJ2" s="269"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="282"/>
+      <c r="U2" s="282"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="282"/>
+      <c r="X2" s="282"/>
+      <c r="Y2" s="282"/>
+      <c r="Z2" s="282"/>
+      <c r="AA2" s="282"/>
+      <c r="AB2" s="282"/>
+      <c r="AC2" s="282"/>
+      <c r="AD2" s="282"/>
+      <c r="AE2" s="282"/>
+      <c r="AF2" s="282"/>
+      <c r="AG2" s="282"/>
+      <c r="AH2" s="282"/>
+      <c r="AI2" s="282"/>
+      <c r="AJ2" s="282"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="268"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="268"/>
-      <c r="O3" s="268"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="269"/>
-      <c r="S3" s="269"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
-      <c r="V3" s="269"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="269"/>
-      <c r="AA3" s="269"/>
-      <c r="AB3" s="269"/>
-      <c r="AC3" s="269"/>
-      <c r="AD3" s="269"/>
-      <c r="AE3" s="269"/>
-      <c r="AF3" s="269"/>
-      <c r="AG3" s="269"/>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="269"/>
-      <c r="AJ3" s="269"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="282"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="282"/>
+      <c r="AC3" s="282"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="282"/>
+      <c r="AG3" s="282"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="282"/>
+      <c r="AJ3" s="282"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
-      <c r="K4" s="294"/>
-      <c r="L4" s="294"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
-      <c r="O4" s="294"/>
-      <c r="P4" s="294"/>
-      <c r="Q4" s="294"/>
-      <c r="R4" s="294"/>
-      <c r="S4" s="295"/>
-      <c r="T4" s="293" t="s">
+      <c r="C4" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
+      <c r="P4" s="266"/>
+      <c r="Q4" s="266"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="294"/>
-      <c r="V4" s="294"/>
-      <c r="W4" s="294"/>
-      <c r="X4" s="294"/>
-      <c r="Y4" s="294"/>
-      <c r="Z4" s="294"/>
-      <c r="AA4" s="294"/>
-      <c r="AB4" s="295"/>
-      <c r="AC4" s="293" t="s">
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="267"/>
+      <c r="AC4" s="265" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="294"/>
-      <c r="AE4" s="294"/>
-      <c r="AF4" s="294"/>
-      <c r="AG4" s="302"/>
-      <c r="AH4" s="293" t="s">
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="266"/>
+      <c r="AG4" s="276"/>
+      <c r="AH4" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="294"/>
-      <c r="AJ4" s="295"/>
+      <c r="AI4" s="266"/>
+      <c r="AJ4" s="267"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="300" t="s">
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="263"/>
-      <c r="M5" s="263"/>
-      <c r="N5" s="263"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="263"/>
-      <c r="R5" s="264"/>
-      <c r="S5" s="296" t="s">
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="262" t="s">
+      <c r="T5" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="263"/>
-      <c r="V5" s="263"/>
-      <c r="W5" s="264"/>
-      <c r="X5" s="300" t="s">
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="263"/>
-      <c r="Z5" s="263"/>
-      <c r="AA5" s="264"/>
-      <c r="AB5" s="296" t="s">
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="301" t="s">
+      <c r="AC5" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="264"/>
-      <c r="AE5" s="300" t="s">
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="264"/>
-      <c r="AG5" s="296" t="s">
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="268" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="296" t="s">
+      <c r="AJ5" s="268" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -7093,7 +4153,7 @@
       </c>
       <c r="G6" s="172">
         <f>Résultats!$J$10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
@@ -7111,7 +4171,7 @@
         <f>Résultats!$J$17</f>
         <v>1</v>
       </c>
-      <c r="L6" s="108">
+      <c r="L6" s="242">
         <f>Résultats!$J$18</f>
         <v>4</v>
       </c>
@@ -7119,9 +4179,9 @@
         <f>Résultats!$J$20</f>
         <v>2</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="313">
         <f>Résultats!$J$21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="172">
         <f>Résultats!$J$24</f>
@@ -7129,7 +4189,7 @@
       </c>
       <c r="P6" s="109">
         <f>Résultats!$J$25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="111">
         <f>Résultats!$J$27</f>
@@ -7139,7 +4199,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="297"/>
+      <c r="S6" s="269"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -7172,7 +4232,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="297"/>
+      <c r="AB6" s="269"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -7189,7 +4249,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="297"/>
+      <c r="AG6" s="269"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -7198,7 +4258,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="297"/>
+      <c r="AJ6" s="269"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7217,14 +4277,14 @@
       <c r="I7" s="239"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
-      <c r="L7" s="117"/>
+      <c r="L7" s="243"/>
       <c r="M7" s="173"/>
-      <c r="N7" s="118"/>
+      <c r="N7" s="314"/>
       <c r="O7" s="173"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="297"/>
+      <c r="S7" s="269"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -7233,15 +4293,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="297"/>
+      <c r="AB7" s="269"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="297"/>
+      <c r="AG7" s="269"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="297"/>
+      <c r="AJ7" s="269"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7283,7 +4343,7 @@
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="174" t="str">
+      <c r="L8" s="244" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
@@ -7291,7 +4351,7 @@
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="176" t="str">
+      <c r="N8" s="315" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
@@ -7311,7 +4371,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="297"/>
+      <c r="S8" s="269"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -7344,7 +4404,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="297"/>
+      <c r="AB8" s="269"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -7361,7 +4421,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="297"/>
+      <c r="AG8" s="269"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -7370,7 +4430,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="297"/>
+      <c r="AJ8" s="269"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7416,7 +4476,7 @@
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="180" t="str">
+      <c r="L9" s="245" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
@@ -7424,7 +4484,7 @@
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="182" t="str">
+      <c r="N9" s="316" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
@@ -7444,7 +4504,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="299"/>
+      <c r="S9" s="271"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -7477,7 +4537,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="298"/>
+      <c r="AB9" s="270"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -7494,7 +4554,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="298"/>
+      <c r="AG9" s="270"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -7503,7 +4563,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="299"/>
+      <c r="AJ9" s="271"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -7553,7 +4613,7 @@
       </c>
       <c r="S10" s="194">
         <f>SUM(C11:R11)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T10" s="187"/>
       <c r="U10" s="189"/>
@@ -7561,7 +4621,7 @@
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
       <c r="Y10" s="188"/>
-      <c r="Z10" s="303"/>
+      <c r="Z10" s="247"/>
       <c r="AA10" s="193"/>
       <c r="AB10" s="194">
         <f>SUM(T11:AA11)</f>
@@ -7587,7 +4647,7 @@
       </c>
       <c r="AL10" s="194">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -7608,7 +4668,7 @@
       <c r="F11" s="134"/>
       <c r="G11" s="132">
         <f>(IF($G10&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G10=$G$6+$H$6,$O$103,0),0),0)+IF($H10&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H10=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="134"/>
       <c r="I11" s="135">
@@ -7623,7 +4683,7 @@
       <c r="L11" s="134"/>
       <c r="M11" s="132">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N11" s="134"/>
       <c r="O11" s="135">
@@ -7732,7 +4792,7 @@
         <f>IF(ISBLANK(N10),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="124">
         <f>IF(ISBLANK(O10),
@@ -7778,7 +4838,7 @@
       <c r="AJ12" s="147"/>
       <c r="AK12" s="148">
         <f>SUM(C12:AI12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="130"/>
     </row>
@@ -7857,7 +4917,7 @@
         <f>IF(N12 = 0,
 0,
 IF(N10 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="124">
         <f>IF(O12 = 0,
@@ -7903,7 +4963,7 @@
       <c r="AJ13" s="147"/>
       <c r="AK13" s="148">
         <f>SUM(C13:AI13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="130"/>
     </row>
@@ -7913,14 +4973,14 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C14" s="46">
         <v>4</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
@@ -7928,35 +4988,35 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
+        <v>5</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45">
         <v>7</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="44">
-        <v>5</v>
-      </c>
-      <c r="N14" s="45"/>
       <c r="O14" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" s="45"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q14" s="48">
+        <v>7</v>
+      </c>
+      <c r="R14" s="50"/>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="44"/>
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="127"/>
+      <c r="Y14" s="45"/>
       <c r="Z14" s="48"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="129">
@@ -7979,11 +5039,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8004,7 +5064,7 @@
       <c r="F15" s="150"/>
       <c r="G15" s="132">
         <f>(IF($G14&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G14=$G$6+$H$6,$O$103,0),0),0)+IF($H14&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H14=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="150"/>
       <c r="I15" s="126">
@@ -8019,7 +5079,7 @@
       <c r="L15" s="150"/>
       <c r="M15" s="132">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N15" s="150"/>
       <c r="O15" s="126">
@@ -8029,7 +5089,7 @@
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
@@ -8052,7 +5112,7 @@
       <c r="AJ15" s="128"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL15" s="128"/>
     </row>
@@ -8131,7 +5191,7 @@
         <f>IF(ISBLANK(N14),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="124">
         <f>IF(ISBLANK(O14),
@@ -8177,7 +5237,7 @@
       <c r="AJ16" s="147"/>
       <c r="AK16" s="148">
         <f>SUM(C16:AI16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="130"/>
     </row>
@@ -8309,7 +5369,7 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="211" t="s">
         <v>71</v>
@@ -8346,9 +5406,9 @@
       <c r="R18" s="204">
         <v>7</v>
       </c>
-      <c r="S18" s="311">
+      <c r="S18" s="255">
         <f>SUM(C19:R19)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
@@ -8378,11 +5438,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8403,7 +5463,7 @@
       <c r="F19" s="150"/>
       <c r="G19" s="126">
         <f>(IF($G18&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G18=$G$6+$H$6,$O$103,0),0),0)+IF($H18&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H18=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="150"/>
       <c r="I19" s="126">
@@ -8423,7 +5483,7 @@
       <c r="N19" s="150"/>
       <c r="O19" s="126">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
@@ -8451,7 +5511,7 @@
       <c r="AJ19" s="154"/>
       <c r="AK19" s="162">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL19" s="128"/>
     </row>
@@ -8708,17 +5768,17 @@
     <row r="22" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="122">
         <f>RANK(AL22,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" s="46">
         <v>4</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
@@ -8726,35 +5786,35 @@
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="49">
+        <v>7</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="44">
         <v>5</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="45">
-        <v>7</v>
-      </c>
+      <c r="N22" s="45"/>
       <c r="O22" s="44">
+        <v>4</v>
+      </c>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="50">
         <v>6</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="48">
-        <v>7</v>
-      </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="116">
+      <c r="S22" s="129">
         <f>SUM(C23:R23)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
       <c r="V22" s="44"/>
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
-      <c r="Y22" s="45"/>
+      <c r="Y22" s="127"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="129">
@@ -8777,11 +5837,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8802,7 +5862,7 @@
       <c r="F23" s="163"/>
       <c r="G23" s="132">
         <f>(IF($G22&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G22=$G$6+$H$6,$O$103,0),0),0)+IF($H22&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H22=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="163"/>
       <c r="I23" s="132">
@@ -8817,7 +5877,7 @@
       <c r="L23" s="163"/>
       <c r="M23" s="132">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="132">
@@ -8827,7 +5887,7 @@
       <c r="P23" s="163"/>
       <c r="Q23" s="132">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" s="166"/>
       <c r="S23" s="154"/>
@@ -8850,7 +5910,7 @@
       <c r="AJ23" s="154"/>
       <c r="AK23" s="162">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL23" s="128"/>
     </row>
@@ -9107,46 +6167,46 @@
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="186">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="211" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C26" s="198">
         <v>5</v>
       </c>
       <c r="D26" s="199"/>
       <c r="E26" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" s="199"/>
       <c r="G26" s="201">
         <v>5</v>
       </c>
       <c r="H26" s="202"/>
-      <c r="I26" s="200">
+      <c r="I26" s="200"/>
+      <c r="J26" s="202">
         <v>6</v>
       </c>
-      <c r="J26" s="202"/>
       <c r="K26" s="203">
         <v>5</v>
       </c>
       <c r="L26" s="202"/>
-      <c r="M26" s="200">
+      <c r="M26" s="200"/>
+      <c r="N26" s="199">
         <v>6</v>
       </c>
-      <c r="N26" s="199"/>
       <c r="O26" s="200">
         <v>5</v>
       </c>
       <c r="P26" s="199"/>
-      <c r="Q26" s="201">
-        <v>7</v>
-      </c>
-      <c r="R26" s="204"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="204">
+        <v>6</v>
+      </c>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -9154,7 +6214,7 @@
       <c r="W26" s="202"/>
       <c r="X26" s="203"/>
       <c r="Y26" s="199"/>
-      <c r="Z26" s="208"/>
+      <c r="Z26" s="201"/>
       <c r="AA26" s="204"/>
       <c r="AB26" s="205">
         <f>SUM(T27:AA27)</f>
@@ -9168,7 +6228,7 @@
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="195"/>
+      <c r="AH26" s="308"/>
       <c r="AI26" s="196"/>
       <c r="AJ26" s="205">
         <f>AH27</f>
@@ -9176,11 +6236,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9201,12 +6261,12 @@
       <c r="F27" s="150"/>
       <c r="G27" s="126">
         <f>(IF($G26&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G26=$G$6+$H$6,$O$103,0),0),0)+IF($H26&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H26=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="150"/>
       <c r="I27" s="126">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J27" s="151"/>
       <c r="K27" s="152">
@@ -9216,7 +6276,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="126">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="126">
@@ -9226,7 +6286,7 @@
       <c r="P27" s="150"/>
       <c r="Q27" s="126">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q26=$Q$6+$R$6,$O$103,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R26=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R27" s="153"/>
       <c r="S27" s="154"/>
@@ -9249,7 +6309,7 @@
       <c r="AJ27" s="154"/>
       <c r="AK27" s="162">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL27" s="128"/>
     </row>
@@ -9298,7 +6358,7 @@
         <f>IF(ISBLANK(I26),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="124">
         <f>IF(ISBLANK(J26),
@@ -9328,7 +6388,7 @@
         <f>IF(ISBLANK(N26),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="124">
         <f>IF(ISBLANK(O26),
@@ -9453,7 +6513,7 @@
         <f>IF(N28 = 0,
 0,
 IF(N26 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="124">
         <f>IF(O28 = 0,
@@ -9499,28 +6559,28 @@
       <c r="AJ29" s="147"/>
       <c r="AK29" s="148">
         <f>SUM(C29:AI29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="130"/>
     </row>
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C30" s="46">
         <v>5</v>
       </c>
       <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45">
-        <v>7</v>
-      </c>
+      <c r="E30" s="44">
+        <v>6</v>
+      </c>
+      <c r="F30" s="45"/>
       <c r="G30" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
@@ -9528,13 +6588,13 @@
         <v>7</v>
       </c>
       <c r="K30" s="49">
+        <v>5</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="45">
         <v>6</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="44">
-        <v>6</v>
-      </c>
-      <c r="N30" s="45"/>
       <c r="O30" s="44">
         <v>7</v>
       </c>
@@ -9545,14 +6605,14 @@
       </c>
       <c r="S30" s="129">
         <f>SUM(C31:R31)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
       <c r="V30" s="44"/>
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="127"/>
+      <c r="Y30" s="45"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
@@ -9579,7 +6639,7 @@
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9595,12 +6655,12 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
         <f>(IF($G30&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G30=$G$6+$H$6,$O$103,0),0),0)+IF($H30&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H30=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="80"/>
       <c r="I31" s="81">
@@ -9615,7 +6675,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -9648,7 +6708,7 @@
       <c r="AJ31" s="128"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL31" s="128"/>
     </row>
@@ -9727,7 +6787,7 @@
         <f>IF(ISBLANK(N30),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="124">
         <f>IF(ISBLANK(O30),
@@ -9773,7 +6833,7 @@
       <c r="AJ32" s="147"/>
       <c r="AK32" s="148">
         <f>SUM(C32:AI32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="130"/>
     </row>
@@ -9852,7 +6912,7 @@
         <f>IF(N32 = 0,
 0,
 IF(N30 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="124">
         <f>IF(O32 = 0,
@@ -9898,53 +6958,53 @@
       <c r="AJ33" s="147"/>
       <c r="AK33" s="148">
         <f>SUM(C33:AI33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="130"/>
     </row>
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
+        <v>7</v>
+      </c>
+      <c r="B34" s="211" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="198">
+        <v>5</v>
+      </c>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200">
+        <v>7</v>
+      </c>
+      <c r="F34" s="199"/>
+      <c r="G34" s="201">
+        <v>5</v>
+      </c>
+      <c r="H34" s="202"/>
+      <c r="I34" s="200">
         <v>6</v>
       </c>
-      <c r="B34" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="198">
-        <v>6</v>
-      </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="199">
-        <v>7</v>
-      </c>
-      <c r="G34" s="201">
-        <v>7</v>
-      </c>
-      <c r="H34" s="202"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="202">
-        <v>6</v>
-      </c>
+      <c r="J34" s="202"/>
       <c r="K34" s="203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L34" s="202"/>
       <c r="M34" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N34" s="199"/>
       <c r="O34" s="200">
         <v>5</v>
       </c>
       <c r="P34" s="199"/>
-      <c r="Q34" s="201"/>
-      <c r="R34" s="204">
-        <v>6</v>
-      </c>
+      <c r="Q34" s="201">
+        <v>7</v>
+      </c>
+      <c r="R34" s="204"/>
       <c r="S34" s="205">
         <f>SUM(C35:R35)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T34" s="198"/>
       <c r="U34" s="202"/>
@@ -9952,7 +7012,7 @@
       <c r="W34" s="202"/>
       <c r="X34" s="203"/>
       <c r="Y34" s="199"/>
-      <c r="Z34" s="201"/>
+      <c r="Z34" s="208"/>
       <c r="AA34" s="202"/>
       <c r="AB34" s="205">
         <f>SUM(T35:AA35)</f>
@@ -9974,11 +7034,11 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9994,17 +7054,17 @@
       <c r="D35" s="80"/>
       <c r="E35" s="81">
         <f>(IF($E34&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E34=$E$6+$F$6,$O$103,0),0),0)+IF($F34&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F34=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="81">
         <f>(IF($G34&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G34=$G$6+$H$6,$O$103,0),0),0)+IF($H34&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H34=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="81">
         <f>(IF($I34&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I34=$I$6+$J$6,$O$103,0),0),0)+IF($J34&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J34=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J35" s="82"/>
       <c r="K35" s="83">
@@ -10024,7 +7084,7 @@
       <c r="P35" s="80"/>
       <c r="Q35" s="81">
         <f>(IF($Q34&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q34=$Q$6+$R$6,$O$103,0),0),0)+IF($R34&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R34=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35" s="84"/>
       <c r="S35" s="128"/>
@@ -10047,7 +7107,7 @@
       <c r="AJ35" s="128"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL35" s="128"/>
     </row>
@@ -10096,7 +7156,7 @@
         <f>IF(ISBLANK(I34),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="124">
         <f>IF(ISBLANK(J34),
@@ -10172,7 +7232,7 @@
       <c r="AJ36" s="147"/>
       <c r="AK36" s="148">
         <f>SUM(C36:AI36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="130"/>
     </row>
@@ -10304,48 +7364,48 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C38" s="46">
         <v>5</v>
       </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45">
+      <c r="E38" s="44">
         <v>7</v>
       </c>
+      <c r="F38" s="45"/>
       <c r="G38" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" s="49">
         <v>5</v>
       </c>
       <c r="L38" s="47"/>
-      <c r="M38" s="44">
+      <c r="M38" s="44"/>
+      <c r="N38" s="45">
         <v>6</v>
       </c>
-      <c r="N38" s="45"/>
       <c r="O38" s="44">
         <v>7</v>
       </c>
       <c r="P38" s="45"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="50">
-        <v>7</v>
-      </c>
+      <c r="Q38" s="48">
+        <v>6</v>
+      </c>
+      <c r="R38" s="50"/>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
-        <v>13</v>
-      </c>
-      <c r="T38" s="236"/>
+        <v>21</v>
+      </c>
+      <c r="T38" s="46"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
@@ -10365,7 +7425,7 @@
         <f>SUM(AC39:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="107"/>
+      <c r="AH38" s="309"/>
       <c r="AI38" s="57"/>
       <c r="AJ38" s="129">
         <f>AH39</f>
@@ -10373,11 +7433,11 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10393,12 +7453,12 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="125">
         <f>(IF($G38&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G38=$G$6+$H$6,$O$103,0),0),0)+IF($H38&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H38=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="80"/>
       <c r="I39" s="121">
@@ -10413,7 +7473,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -10423,7 +7483,7 @@
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
         <f>(IF($Q38&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q38=$Q$6+$R$6,$O$103,0),0),0)+IF($R38&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R38=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R39" s="84"/>
       <c r="S39" s="128"/>
@@ -10446,7 +7506,7 @@
       <c r="AJ39" s="128"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL39" s="128"/>
     </row>
@@ -10525,7 +7585,7 @@
         <f>IF(ISBLANK(N38),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="124">
         <f>IF(ISBLANK(O38),
@@ -10571,7 +7631,7 @@
       <c r="AJ40" s="147"/>
       <c r="AK40" s="148">
         <f>SUM(C40:AI40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="130"/>
     </row>
@@ -10650,7 +7710,7 @@
         <f>IF(N40 = 0,
 0,
 IF(N38 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="124">
         <f>IF(O40 = 0,
@@ -10696,30 +7756,30 @@
       <c r="AJ41" s="147"/>
       <c r="AK41" s="148">
         <f>SUM(C41:AI41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="130"/>
     </row>
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C42" s="198">
         <v>5</v>
       </c>
       <c r="D42" s="199"/>
       <c r="E42" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="199"/>
-      <c r="G42" s="201">
-        <v>5</v>
-      </c>
-      <c r="H42" s="202"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="202">
+        <v>7</v>
+      </c>
       <c r="I42" s="200"/>
       <c r="J42" s="202">
         <v>6</v>
@@ -10733,16 +7793,16 @@
         <v>6</v>
       </c>
       <c r="O42" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42" s="199"/>
-      <c r="Q42" s="201"/>
-      <c r="R42" s="204">
+      <c r="Q42" s="201">
         <v>6</v>
       </c>
+      <c r="R42" s="204"/>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -10764,7 +7824,7 @@
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="312"/>
+      <c r="AH42" s="209"/>
       <c r="AI42" s="196"/>
       <c r="AJ42" s="205">
         <f>AH43</f>
@@ -10772,11 +7832,11 @@
       </c>
       <c r="AK42" s="207">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10812,7 +7872,7 @@
       <c r="L43" s="80"/>
       <c r="M43" s="81">
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N43" s="80"/>
       <c r="O43" s="81">
@@ -10822,7 +7882,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="128"/>
@@ -10845,7 +7905,7 @@
       <c r="AJ43" s="128"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL43" s="128"/>
     </row>
@@ -10924,7 +7984,7 @@
         <f>IF(ISBLANK(N42),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="124">
         <f>IF(ISBLANK(O42),
@@ -10970,7 +8030,7 @@
       <c r="AJ44" s="147"/>
       <c r="AK44" s="148">
         <f>SUM(C44:AI44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="130"/>
     </row>
@@ -11049,7 +8109,7 @@
         <f>IF(N44 = 0,
 0,
 IF(N42 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="124">
         <f>IF(O44 = 0,
@@ -11095,36 +8155,36 @@
       <c r="AJ45" s="147"/>
       <c r="AK45" s="148">
         <f>SUM(C45:AI45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="130"/>
     </row>
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
+        <v>10</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="46">
         <v>6</v>
-      </c>
-      <c r="B46" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="46">
-        <v>5</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="45"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="47">
+      <c r="G46" s="48">
         <v>7</v>
       </c>
+      <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
         <v>6</v>
       </c>
       <c r="K46" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" s="47"/>
       <c r="M46" s="44"/>
@@ -11132,16 +8192,16 @@
         <v>7</v>
       </c>
       <c r="O46" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P46" s="45"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q46" s="48">
+        <v>7</v>
+      </c>
+      <c r="R46" s="50"/>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -11149,7 +8209,7 @@
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
       <c r="Y46" s="45"/>
-      <c r="Z46" s="249"/>
+      <c r="Z46" s="246"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="129">
         <f>SUM(T47:AA47)</f>
@@ -11171,11 +8231,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL46" s="129">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -11196,7 +8256,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="81">
         <f>(IF($G46&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G46=$G$6+$H$6,$O$103,0),0),0)+IF($H46&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H46=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="80"/>
       <c r="I47" s="81">
@@ -11211,7 +8271,7 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -11221,7 +8281,7 @@
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
         <f>(IF($Q46&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q46=$Q$6+$R$6,$O$103,0),0),0)+IF($R46&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R46=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" s="84"/>
       <c r="S47" s="128"/>
@@ -11244,7 +8304,7 @@
       <c r="AJ47" s="128"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL47" s="128"/>
     </row>
@@ -11323,7 +8383,7 @@
         <f>IF(ISBLANK(N46),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="124">
         <f>IF(ISBLANK(O46),
@@ -11369,7 +8429,7 @@
       <c r="AJ48" s="147"/>
       <c r="AK48" s="148">
         <f>SUM(C48:AI48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="130"/>
     </row>
@@ -11501,10 +8561,10 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B50" s="211" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="198">
         <v>5</v>
@@ -11514,13 +8574,13 @@
         <v>6</v>
       </c>
       <c r="F50" s="199"/>
-      <c r="G50" s="201">
-        <v>6</v>
-      </c>
-      <c r="H50" s="202"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="202">
+        <v>7</v>
+      </c>
       <c r="I50" s="200"/>
       <c r="J50" s="202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K50" s="203">
         <v>5</v>
@@ -11528,10 +8588,10 @@
       <c r="L50" s="202"/>
       <c r="M50" s="200"/>
       <c r="N50" s="199">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O50" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P50" s="199"/>
       <c r="Q50" s="201"/>
@@ -11540,7 +8600,7 @@
       </c>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -11548,7 +8608,7 @@
       <c r="W50" s="202"/>
       <c r="X50" s="203"/>
       <c r="Y50" s="199"/>
-      <c r="Z50" s="201"/>
+      <c r="Z50" s="208"/>
       <c r="AA50" s="202"/>
       <c r="AB50" s="205">
         <f>SUM(T51:AA51)</f>
@@ -11570,11 +8630,11 @@
       </c>
       <c r="AK50" s="207">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11610,7 +8670,7 @@
       <c r="L51" s="134"/>
       <c r="M51" s="132">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N51" s="134"/>
       <c r="O51" s="135">
@@ -11719,7 +8779,7 @@
         <f>IF(ISBLANK(N50),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="124">
         <f>IF(ISBLANK(O50),
@@ -11765,7 +8825,7 @@
       <c r="AJ52" s="147"/>
       <c r="AK52" s="148">
         <f>SUM(C52:AI52)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="130"/>
     </row>
@@ -11900,50 +8960,50 @@
         <v>12</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C54" s="46">
         <v>5</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="44">
-        <v>6</v>
-      </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="47">
+      <c r="E54" s="44"/>
+      <c r="F54" s="45">
         <v>7</v>
       </c>
+      <c r="G54" s="48">
+        <v>4</v>
+      </c>
+      <c r="H54" s="47"/>
       <c r="I54" s="44"/>
       <c r="J54" s="47">
+        <v>7</v>
+      </c>
+      <c r="K54" s="49">
         <v>6</v>
       </c>
-      <c r="K54" s="49">
-        <v>5</v>
-      </c>
       <c r="L54" s="47"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="45">
+      <c r="M54" s="44">
         <v>6</v>
       </c>
+      <c r="N54" s="45"/>
       <c r="O54" s="44">
+        <v>7</v>
+      </c>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="50">
         <v>6</v>
       </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="48">
-        <v>6</v>
-      </c>
-      <c r="R54" s="50"/>
       <c r="S54" s="129">
         <f>SUM(C55:R55)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
       <c r="V54" s="44"/>
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
-      <c r="Y54" s="45"/>
+      <c r="Y54" s="127"/>
       <c r="Z54" s="48"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="129">
@@ -11966,11 +9026,11 @@
       </c>
       <c r="AK54" s="116">
         <f>MAX($AL$10:$AL$97) - AL54</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AL54" s="129">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11986,12 +9046,12 @@
       <c r="D55" s="134"/>
       <c r="E55" s="132">
         <f>(IF($E54&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E54=$E$6+$F$6,$O$103,0),0),0)+IF($F54&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F54=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="134"/>
       <c r="G55" s="132">
         <f>(IF($G54&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G54=$G$6+$H$6,$O$103,0),0),0)+IF($H54&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H54=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" s="134"/>
       <c r="I55" s="135">
@@ -12006,7 +9066,7 @@
       <c r="L55" s="134"/>
       <c r="M55" s="132">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55" s="134"/>
       <c r="O55" s="135">
@@ -12016,7 +9076,7 @@
       <c r="P55" s="134"/>
       <c r="Q55" s="135">
         <f>(IF($Q54&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q54=$Q$6+$R$6,$O$103,0),0),0)+IF($R54&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R54=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R55" s="138"/>
       <c r="S55" s="128"/>
@@ -12296,18 +9356,18 @@
         <v>12</v>
       </c>
       <c r="B58" s="211" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C58" s="198">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58" s="199"/>
-      <c r="E58" s="200">
-        <v>4</v>
-      </c>
-      <c r="F58" s="199"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="199">
+        <v>7</v>
+      </c>
       <c r="G58" s="201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" s="202"/>
       <c r="I58" s="200"/>
@@ -12319,11 +9379,11 @@
       </c>
       <c r="L58" s="202"/>
       <c r="M58" s="200">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N58" s="199"/>
       <c r="O58" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P58" s="199"/>
       <c r="Q58" s="201"/>
@@ -12332,7 +9392,7 @@
       </c>
       <c r="S58" s="205">
         <f>SUM(C59:R59)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T58" s="198"/>
       <c r="U58" s="202"/>
@@ -12340,14 +9400,14 @@
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
       <c r="Y58" s="199"/>
-      <c r="Z58" s="208"/>
+      <c r="Z58" s="201"/>
       <c r="AA58" s="202"/>
       <c r="AB58" s="205">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
       <c r="AC58" s="201"/>
-      <c r="AD58" s="234"/>
+      <c r="AD58" s="202"/>
       <c r="AE58" s="203"/>
       <c r="AF58" s="202"/>
       <c r="AG58" s="205">
@@ -12362,11 +9422,11 @@
       </c>
       <c r="AK58" s="207">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AL58" s="205">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12382,12 +9442,12 @@
       <c r="D59" s="134"/>
       <c r="E59" s="132">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E58=$E$6+$F$6,$O$103,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F58=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="134"/>
       <c r="G59" s="132">
         <f>(IF($G58&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G58=$G$6+$H$6,$O$103,0),0),0)+IF($H58&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H58=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="134"/>
       <c r="I59" s="135">
@@ -12692,45 +9752,45 @@
         <v>12</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="304">
+        <v>78</v>
+      </c>
+      <c r="C62" s="46">
         <v>5</v>
       </c>
-      <c r="D62" s="305"/>
-      <c r="E62" s="306">
+      <c r="D62" s="45"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45">
+        <v>7</v>
+      </c>
+      <c r="G62" s="48">
         <v>6</v>
       </c>
-      <c r="F62" s="305"/>
-      <c r="G62" s="307">
+      <c r="H62" s="47"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="47">
+        <v>7</v>
+      </c>
+      <c r="K62" s="49">
         <v>5</v>
       </c>
-      <c r="H62" s="308"/>
-      <c r="I62" s="306"/>
-      <c r="J62" s="308">
+      <c r="L62" s="47"/>
+      <c r="M62" s="44">
         <v>6</v>
       </c>
-      <c r="K62" s="309">
-        <v>6</v>
-      </c>
-      <c r="L62" s="308"/>
-      <c r="M62" s="306">
+      <c r="N62" s="45"/>
+      <c r="O62" s="44">
         <v>7</v>
       </c>
-      <c r="N62" s="305"/>
-      <c r="O62" s="306">
-        <v>6</v>
-      </c>
-      <c r="P62" s="305"/>
-      <c r="Q62" s="307"/>
-      <c r="R62" s="310">
-        <v>6</v>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="50">
+        <v>7</v>
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
-        <v>12</v>
-      </c>
-      <c r="T62" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="T62" s="236"/>
       <c r="U62" s="47"/>
       <c r="V62" s="44"/>
       <c r="W62" s="47"/>
@@ -12758,11 +9818,11 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AL62" s="129">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12778,12 +9838,12 @@
       <c r="D63" s="134"/>
       <c r="E63" s="132">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E62=$E$6+$F$6,$O$103,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F62=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="134"/>
       <c r="G63" s="132">
         <f>(IF($G62&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G62=$G$6+$H$6,$O$103,0),0),0)+IF($H62&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H62=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="134"/>
       <c r="I63" s="135">
@@ -13085,21 +10145,21 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B66" s="211" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C66" s="198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="199"/>
       <c r="E66" s="200">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F66" s="199"/>
       <c r="G66" s="201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66" s="202"/>
       <c r="I66" s="200"/>
@@ -13107,24 +10167,24 @@
         <v>6</v>
       </c>
       <c r="K66" s="203">
+        <v>6</v>
+      </c>
+      <c r="L66" s="202"/>
+      <c r="M66" s="200">
         <v>5</v>
       </c>
-      <c r="L66" s="202"/>
-      <c r="M66" s="200"/>
-      <c r="N66" s="199">
+      <c r="N66" s="199"/>
+      <c r="O66" s="200">
         <v>6</v>
       </c>
-      <c r="O66" s="200">
-        <v>7</v>
-      </c>
       <c r="P66" s="199"/>
-      <c r="Q66" s="201">
+      <c r="Q66" s="201"/>
+      <c r="R66" s="204">
         <v>6</v>
       </c>
-      <c r="R66" s="204"/>
       <c r="S66" s="205">
         <f>SUM(C67:R67)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T66" s="198"/>
       <c r="U66" s="202"/>
@@ -13132,21 +10192,21 @@
       <c r="W66" s="202"/>
       <c r="X66" s="203"/>
       <c r="Y66" s="199"/>
-      <c r="Z66" s="201"/>
+      <c r="Z66" s="208"/>
       <c r="AA66" s="202"/>
       <c r="AB66" s="205">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
       <c r="AC66" s="201"/>
-      <c r="AD66" s="202"/>
+      <c r="AD66" s="234"/>
       <c r="AE66" s="203"/>
       <c r="AF66" s="202"/>
       <c r="AG66" s="205">
         <f>SUM(AC67:AF67)</f>
         <v>0</v>
       </c>
-      <c r="AH66" s="250"/>
+      <c r="AH66" s="210"/>
       <c r="AI66" s="206"/>
       <c r="AJ66" s="205">
         <f>AH67</f>
@@ -13154,11 +10214,11 @@
       </c>
       <c r="AK66" s="207">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL66" s="205">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13179,7 +10239,7 @@
       <c r="F67" s="134"/>
       <c r="G67" s="132">
         <f>(IF($G66&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G66=$G$6+$H$6,$O$103,0),0),0)+IF($H66&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H66=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" s="134"/>
       <c r="I67" s="135">
@@ -13194,7 +10254,7 @@
       <c r="L67" s="134"/>
       <c r="M67" s="132">
         <f>(IF($M66&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M66=$M$6+$N$6,$O$103,0),0),0)+IF($N66&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N66=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67" s="134"/>
       <c r="O67" s="135">
@@ -13204,7 +10264,7 @@
       <c r="P67" s="134"/>
       <c r="Q67" s="135">
         <f>(IF($Q66&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q66=$Q$6+$R$6,$O$103,0),0),0)+IF($R66&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R66=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R67" s="138"/>
       <c r="S67" s="128"/>
@@ -13481,46 +10541,46 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="46">
+        <v>68</v>
+      </c>
+      <c r="C70" s="248">
+        <v>5</v>
+      </c>
+      <c r="D70" s="249"/>
+      <c r="E70" s="250">
         <v>6</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44">
+      <c r="F70" s="249"/>
+      <c r="G70" s="251">
+        <v>5</v>
+      </c>
+      <c r="H70" s="252"/>
+      <c r="I70" s="250"/>
+      <c r="J70" s="252">
         <v>6</v>
       </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="48">
+      <c r="K70" s="253">
         <v>6</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="47">
+      <c r="L70" s="252"/>
+      <c r="M70" s="250">
         <v>7</v>
       </c>
-      <c r="K70" s="49">
-        <v>5</v>
-      </c>
-      <c r="L70" s="47"/>
-      <c r="M70" s="44">
-        <v>7</v>
-      </c>
-      <c r="N70" s="45"/>
-      <c r="O70" s="44">
+      <c r="N70" s="249"/>
+      <c r="O70" s="250">
         <v>6</v>
       </c>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="50">
+      <c r="P70" s="249"/>
+      <c r="Q70" s="251"/>
+      <c r="R70" s="254">
         <v>6</v>
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -13550,11 +10610,11 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL70" s="129">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13575,7 +10635,7 @@
       <c r="F71" s="134"/>
       <c r="G71" s="132">
         <f>(IF($G70&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G70=$G$6+$H$6,$O$103,0),0),0)+IF($H70&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H70=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="134"/>
       <c r="I71" s="135">
@@ -13877,13 +10937,13 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="186">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B74" s="211" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" s="198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="199"/>
       <c r="E74" s="200">
@@ -13896,18 +10956,18 @@
       <c r="H74" s="202"/>
       <c r="I74" s="200"/>
       <c r="J74" s="202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K74" s="203">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L74" s="202"/>
       <c r="M74" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N74" s="199"/>
       <c r="O74" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P74" s="199"/>
       <c r="Q74" s="201"/>
@@ -13916,7 +10976,7 @@
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T74" s="198"/>
       <c r="U74" s="202"/>
@@ -13946,11 +11006,11 @@
       </c>
       <c r="AK74" s="207">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13971,7 +11031,7 @@
       <c r="F75" s="134"/>
       <c r="G75" s="132">
         <f>(IF($G74&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G74=$G$6+$H$6,$O$103,0),0),0)+IF($H74&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H74=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H75" s="134"/>
       <c r="I75" s="135">
@@ -14273,21 +11333,21 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
@@ -14295,24 +11355,24 @@
         <v>6</v>
       </c>
       <c r="K78" s="49">
+        <v>7</v>
+      </c>
+      <c r="L78" s="47"/>
+      <c r="M78" s="44">
         <v>6</v>
       </c>
-      <c r="L78" s="47"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="45">
-        <v>7</v>
-      </c>
+      <c r="N78" s="45"/>
       <c r="O78" s="44">
+        <v>5</v>
+      </c>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="48"/>
+      <c r="R78" s="50">
         <v>6</v>
       </c>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="48">
-        <v>7</v>
-      </c>
-      <c r="R78" s="50"/>
       <c r="S78" s="129">
         <f>SUM(C79:R79)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -14320,7 +11380,7 @@
       <c r="W78" s="47"/>
       <c r="X78" s="49"/>
       <c r="Y78" s="45"/>
-      <c r="Z78" s="249"/>
+      <c r="Z78" s="48"/>
       <c r="AA78" s="47"/>
       <c r="AB78" s="129">
         <f>SUM(T79:AA79)</f>
@@ -14342,11 +11402,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -14367,7 +11427,7 @@
       <c r="F79" s="134"/>
       <c r="G79" s="132">
         <f>(IF($G78&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G78=$G$6+$H$6,$O$103,0),0),0)+IF($H78&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H78=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H79" s="134"/>
       <c r="I79" s="135">
@@ -14382,7 +11442,7 @@
       <c r="L79" s="134"/>
       <c r="M79" s="132">
         <f>(IF($M78&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M78=$M$6+$N$6,$O$103,0),0),0)+IF($N78&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N78=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N79" s="134"/>
       <c r="O79" s="135">
@@ -14392,7 +11452,7 @@
       <c r="P79" s="134"/>
       <c r="Q79" s="135">
         <f>(IF($Q78&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q78=$Q$6+$R$6,$O$103,0),0),0)+IF($R78&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R78=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R79" s="138"/>
       <c r="S79" s="128"/>
@@ -14669,7 +11729,7 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="186">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B82" s="211" t="s">
         <v>75</v>
@@ -14708,7 +11768,7 @@
       </c>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T82" s="198"/>
       <c r="U82" s="202"/>
@@ -14738,11 +11798,11 @@
       </c>
       <c r="AK82" s="207">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -14763,7 +11823,7 @@
       <c r="F83" s="134"/>
       <c r="G83" s="132">
         <f>(IF($G82&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G82=$G$6+$H$6,$O$103,0),0),0)+IF($H82&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H82=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" s="134"/>
       <c r="I83" s="135">
@@ -15065,7 +12125,7 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B86" s="88" t="s">
         <v>76</v>
@@ -15104,7 +12164,7 @@
       </c>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -15134,11 +12194,11 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -15159,7 +12219,7 @@
       <c r="F87" s="134"/>
       <c r="G87" s="132">
         <f>(IF($G86&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G86=$G$6+$H$6,$O$103,0),0),0)+IF($H86&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H86=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" s="134"/>
       <c r="I87" s="135">
@@ -15464,50 +12524,50 @@
         <v>21</v>
       </c>
       <c r="B90" s="211" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C90" s="198">
+        <v>6</v>
+      </c>
+      <c r="D90" s="199"/>
+      <c r="E90" s="200">
         <v>7</v>
       </c>
-      <c r="D90" s="199"/>
-      <c r="E90" s="246">
-        <v>6</v>
-      </c>
       <c r="F90" s="199"/>
-      <c r="G90" s="247"/>
-      <c r="H90" s="202">
-        <v>6</v>
-      </c>
-      <c r="I90" s="246"/>
+      <c r="G90" s="201">
+        <v>5</v>
+      </c>
+      <c r="H90" s="202"/>
+      <c r="I90" s="200"/>
       <c r="J90" s="202">
+        <v>5</v>
+      </c>
+      <c r="K90" s="203">
         <v>7</v>
-      </c>
-      <c r="K90" s="203">
-        <v>5</v>
       </c>
       <c r="L90" s="202"/>
       <c r="M90" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N90" s="199"/>
       <c r="O90" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P90" s="199"/>
       <c r="Q90" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R90" s="204"/>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T90" s="198"/>
       <c r="U90" s="202"/>
-      <c r="V90" s="248"/>
+      <c r="V90" s="200"/>
       <c r="W90" s="202"/>
       <c r="X90" s="203"/>
-      <c r="Y90" s="237"/>
+      <c r="Y90" s="199"/>
       <c r="Z90" s="201"/>
       <c r="AA90" s="202"/>
       <c r="AB90" s="205">
@@ -15530,11 +12590,11 @@
       </c>
       <c r="AK90" s="207">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -15555,7 +12615,7 @@
       <c r="F91" s="134"/>
       <c r="G91" s="132">
         <f>(IF($G90&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G90=$G$6+$H$6,$O$103,0),0),0)+IF($H90&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H90=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" s="134"/>
       <c r="I91" s="135">
@@ -15857,41 +12917,41 @@
     <row r="94" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <f>RANK(AL94,$AL$10:$AL$97,)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C94" s="226">
+        <v>7</v>
+      </c>
+      <c r="D94" s="227"/>
+      <c r="E94" s="310">
         <v>6</v>
       </c>
-      <c r="D94" s="227"/>
-      <c r="E94" s="228">
+      <c r="F94" s="227"/>
+      <c r="G94" s="311"/>
+      <c r="H94" s="230">
+        <v>6</v>
+      </c>
+      <c r="I94" s="310"/>
+      <c r="J94" s="230">
         <v>7</v>
       </c>
-      <c r="F94" s="227"/>
-      <c r="G94" s="229">
+      <c r="K94" s="231">
         <v>5</v>
-      </c>
-      <c r="H94" s="230"/>
-      <c r="I94" s="228"/>
-      <c r="J94" s="230">
-        <v>5</v>
-      </c>
-      <c r="K94" s="231">
-        <v>7</v>
       </c>
       <c r="L94" s="230"/>
       <c r="M94" s="228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N94" s="227"/>
       <c r="O94" s="228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P94" s="227"/>
       <c r="Q94" s="229">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R94" s="232"/>
       <c r="S94" s="129">
@@ -15900,10 +12960,10 @@
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="44"/>
+      <c r="V94" s="312"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
-      <c r="Y94" s="45"/>
+      <c r="Y94" s="127"/>
       <c r="Z94" s="48"/>
       <c r="AA94" s="47"/>
       <c r="AB94" s="218">
@@ -15926,7 +12986,7 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
@@ -16383,12 +13443,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="284" t="s">
+      <c r="O100" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="285"/>
-      <c r="Q100" s="285"/>
-      <c r="R100" s="286"/>
+      <c r="P100" s="257"/>
+      <c r="Q100" s="257"/>
+      <c r="R100" s="258"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -16397,21 +13457,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="272" t="s">
+      <c r="B101" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="273"/>
-      <c r="D101" s="273"/>
-      <c r="E101" s="273"/>
-      <c r="F101" s="273"/>
-      <c r="G101" s="273"/>
-      <c r="H101" s="273"/>
-      <c r="I101" s="273"/>
-      <c r="J101" s="273"/>
-      <c r="K101" s="273"/>
-      <c r="L101" s="273"/>
-      <c r="M101" s="273"/>
-      <c r="N101" s="274"/>
+      <c r="C101" s="286"/>
+      <c r="D101" s="286"/>
+      <c r="E101" s="286"/>
+      <c r="F101" s="286"/>
+      <c r="G101" s="286"/>
+      <c r="H101" s="286"/>
+      <c r="I101" s="286"/>
+      <c r="J101" s="286"/>
+      <c r="K101" s="286"/>
+      <c r="L101" s="286"/>
+      <c r="M101" s="286"/>
+      <c r="N101" s="287"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -16424,45 +13484,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="287" t="s">
+      <c r="U101" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="288"/>
-      <c r="W101" s="288"/>
-      <c r="X101" s="288"/>
-      <c r="Y101" s="288"/>
-      <c r="Z101" s="288"/>
-      <c r="AA101" s="288"/>
-      <c r="AB101" s="288"/>
-      <c r="AC101" s="288"/>
-      <c r="AD101" s="289"/>
+      <c r="V101" s="260"/>
+      <c r="W101" s="260"/>
+      <c r="X101" s="260"/>
+      <c r="Y101" s="260"/>
+      <c r="Z101" s="260"/>
+      <c r="AA101" s="260"/>
+      <c r="AB101" s="260"/>
+      <c r="AC101" s="260"/>
+      <c r="AD101" s="261"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="290" t="s">
+      <c r="AG101" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="291"/>
-      <c r="AI101" s="291"/>
-      <c r="AJ101" s="291"/>
-      <c r="AK101" s="292"/>
+      <c r="AH101" s="263"/>
+      <c r="AI101" s="263"/>
+      <c r="AJ101" s="263"/>
+      <c r="AK101" s="264"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="251" t="s">
+      <c r="B102" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="252"/>
-      <c r="D102" s="252"/>
-      <c r="E102" s="252"/>
-      <c r="F102" s="252"/>
-      <c r="G102" s="252"/>
-      <c r="H102" s="252"/>
-      <c r="I102" s="252"/>
-      <c r="J102" s="252"/>
-      <c r="K102" s="252"/>
-      <c r="L102" s="252"/>
-      <c r="M102" s="252"/>
-      <c r="N102" s="253"/>
+      <c r="C102" s="293"/>
+      <c r="D102" s="293"/>
+      <c r="E102" s="293"/>
+      <c r="F102" s="293"/>
+      <c r="G102" s="293"/>
+      <c r="H102" s="293"/>
+      <c r="I102" s="293"/>
+      <c r="J102" s="293"/>
+      <c r="K102" s="293"/>
+      <c r="L102" s="293"/>
+      <c r="M102" s="293"/>
+      <c r="N102" s="294"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -16475,49 +13535,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="277" t="s">
+      <c r="U102" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="278"/>
-      <c r="W102" s="278"/>
-      <c r="X102" s="278"/>
-      <c r="Y102" s="278"/>
-      <c r="Z102" s="278"/>
-      <c r="AA102" s="278"/>
-      <c r="AB102" s="275">
+      <c r="V102" s="291"/>
+      <c r="W102" s="291"/>
+      <c r="X102" s="291"/>
+      <c r="Y102" s="291"/>
+      <c r="Z102" s="291"/>
+      <c r="AA102" s="291"/>
+      <c r="AB102" s="288">
         <v>22</v>
       </c>
-      <c r="AC102" s="275"/>
-      <c r="AD102" s="276"/>
+      <c r="AC102" s="288"/>
+      <c r="AD102" s="289"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="258" t="s">
+      <c r="AG102" s="304" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="259"/>
-      <c r="AI102" s="259"/>
-      <c r="AJ102" s="260"/>
+      <c r="AH102" s="305"/>
+      <c r="AI102" s="305"/>
+      <c r="AJ102" s="306"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="251" t="s">
+      <c r="B103" s="292" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="252"/>
-      <c r="D103" s="252"/>
-      <c r="E103" s="252"/>
-      <c r="F103" s="252"/>
-      <c r="G103" s="252"/>
-      <c r="H103" s="252"/>
-      <c r="I103" s="252"/>
-      <c r="J103" s="252"/>
-      <c r="K103" s="252"/>
-      <c r="L103" s="252"/>
-      <c r="M103" s="252"/>
-      <c r="N103" s="253"/>
+      <c r="C103" s="293"/>
+      <c r="D103" s="293"/>
+      <c r="E103" s="293"/>
+      <c r="F103" s="293"/>
+      <c r="G103" s="293"/>
+      <c r="H103" s="293"/>
+      <c r="I103" s="293"/>
+      <c r="J103" s="293"/>
+      <c r="K103" s="293"/>
+      <c r="L103" s="293"/>
+      <c r="M103" s="293"/>
+      <c r="N103" s="294"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -16530,49 +13590,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="256" t="s">
+      <c r="U103" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="257"/>
-      <c r="W103" s="257"/>
-      <c r="X103" s="257"/>
-      <c r="Y103" s="257"/>
-      <c r="Z103" s="257"/>
-      <c r="AA103" s="257"/>
-      <c r="AB103" s="282">
+      <c r="V103" s="300"/>
+      <c r="W103" s="300"/>
+      <c r="X103" s="300"/>
+      <c r="Y103" s="300"/>
+      <c r="Z103" s="300"/>
+      <c r="AA103" s="300"/>
+      <c r="AB103" s="301">
         <v>20</v>
       </c>
-      <c r="AC103" s="282"/>
-      <c r="AD103" s="283"/>
+      <c r="AC103" s="301"/>
+      <c r="AD103" s="302"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="261" t="s">
+      <c r="AG103" s="307" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="252"/>
-      <c r="AI103" s="252"/>
-      <c r="AJ103" s="253"/>
+      <c r="AH103" s="293"/>
+      <c r="AI103" s="293"/>
+      <c r="AJ103" s="294"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="265" t="s">
+      <c r="B104" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="266"/>
-      <c r="D104" s="266"/>
-      <c r="E104" s="266"/>
-      <c r="F104" s="266"/>
-      <c r="G104" s="266"/>
-      <c r="H104" s="266"/>
-      <c r="I104" s="266"/>
-      <c r="J104" s="266"/>
-      <c r="K104" s="266"/>
-      <c r="L104" s="266"/>
-      <c r="M104" s="266"/>
-      <c r="N104" s="267"/>
+      <c r="C104" s="279"/>
+      <c r="D104" s="279"/>
+      <c r="E104" s="279"/>
+      <c r="F104" s="279"/>
+      <c r="G104" s="279"/>
+      <c r="H104" s="279"/>
+      <c r="I104" s="279"/>
+      <c r="J104" s="279"/>
+      <c r="K104" s="279"/>
+      <c r="L104" s="279"/>
+      <c r="M104" s="279"/>
+      <c r="N104" s="280"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -16585,51 +13645,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="279" t="s">
+      <c r="U104" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="255"/>
-      <c r="W104" s="255"/>
-      <c r="X104" s="255"/>
-      <c r="Y104" s="255"/>
-      <c r="Z104" s="255"/>
-      <c r="AA104" s="255"/>
-      <c r="AB104" s="280">
+      <c r="V104" s="296"/>
+      <c r="W104" s="296"/>
+      <c r="X104" s="296"/>
+      <c r="Y104" s="296"/>
+      <c r="Z104" s="296"/>
+      <c r="AA104" s="296"/>
+      <c r="AB104" s="297">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="280"/>
-      <c r="AD104" s="281"/>
+      <c r="AC104" s="297"/>
+      <c r="AD104" s="298"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="261" t="s">
+      <c r="AG104" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="252"/>
-      <c r="AI104" s="252"/>
-      <c r="AJ104" s="253"/>
+      <c r="AH104" s="293"/>
+      <c r="AI104" s="293"/>
+      <c r="AJ104" s="294"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="256" t="s">
+      <c r="AG105" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="257"/>
-      <c r="AI105" s="257"/>
-      <c r="AJ105" s="257"/>
+      <c r="AH105" s="300"/>
+      <c r="AI105" s="300"/>
+      <c r="AJ105" s="300"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="254" t="s">
+      <c r="AG106" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="255"/>
-      <c r="AI106" s="255"/>
-      <c r="AJ106" s="255"/>
+      <c r="AH106" s="296"/>
+      <c r="AI106" s="296"/>
+      <c r="AJ106" s="296"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -16641,6 +13701,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -16657,342 +13739,320 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
-    <cfRule type="cellIs" dxfId="80" priority="184" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="100" priority="184" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:R10">
-    <cfRule type="cellIs" dxfId="79" priority="180" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="99" priority="180" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:R14">
-    <cfRule type="cellIs" dxfId="78" priority="179" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="179" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:R18">
-    <cfRule type="cellIs" dxfId="77" priority="178" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="97" priority="178" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:R22">
-    <cfRule type="cellIs" dxfId="76" priority="177" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="96" priority="177" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:R26">
-    <cfRule type="cellIs" dxfId="75" priority="176" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="176" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:R30">
-    <cfRule type="cellIs" dxfId="74" priority="175" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="94" priority="175" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:R34">
-    <cfRule type="cellIs" dxfId="73" priority="174" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="93" priority="174" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:R38">
-    <cfRule type="cellIs" dxfId="72" priority="173" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="173" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:R42">
-    <cfRule type="cellIs" dxfId="71" priority="172" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="91" priority="172" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH54:AI54 C54:R54 T54:AA54 AC54:AF54">
-    <cfRule type="cellIs" dxfId="70" priority="171" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="171" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH46:AI46 C46:R46 T46:AA46 AC46:AF46">
-    <cfRule type="cellIs" dxfId="69" priority="170" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="170" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:R46">
-    <cfRule type="cellIs" dxfId="68" priority="169" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="88" priority="169" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH50:AI50 C50:R50 T50:AA50 AC50:AF50">
-    <cfRule type="cellIs" dxfId="67" priority="168" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="87" priority="168" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:R50">
-    <cfRule type="cellIs" dxfId="66" priority="167" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="167" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH58:AI58 C58:R58 T58:AA58 AC58:AF58">
-    <cfRule type="cellIs" dxfId="65" priority="166" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="166" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="cellIs" dxfId="64" priority="165" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="84" priority="165" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH70:AI70 C70:R70 T70:AA70 AC70:AF70">
-    <cfRule type="cellIs" dxfId="63" priority="164" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="164" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH74:AI74 C74:R74 T74:AA74 AC74:AF74">
-    <cfRule type="cellIs" dxfId="62" priority="163" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="82" priority="163" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH78:AI78 C78:R78 T78:AA78 AC78:AF78">
-    <cfRule type="cellIs" dxfId="61" priority="162" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="81" priority="162" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S15 AB10:AB15 AG10:AG15 AJ10:AJ15 AJ26:AJ27 AG26:AG27 AB26:AB27 S26:S27 AJ22:AJ23 AG22:AG23 AB22:AB23 S22:S23 AJ18:AJ19 AG18:AG19 AB18:AB19 S18:S19 S38:S39 AB38:AB39 AG38:AG39 AJ38:AJ39 S30:S31 AB30:AB31 AG30:AG31 AJ30:AJ31 AJ42:AJ43 AG42:AG43 AB42:AB43 S42:S43 S46:S47 AB46:AB47 AG46:AG47 AJ46:AJ47 AJ50 AG50 AB50 S50 S58 AB58 AG58 AJ58 S54 AB54 AG54 AJ54 AJ62 AG62 AB62 S62 S66 AB66 AG66 AJ66 AJ70 AG70 AB70 S70 S74 AB74 AG74 AJ74 AJ78 AG78 AB78 S78 AJ34:AJ35 AG34:AG35 AB34:AB35 S34:S35">
-    <cfRule type="cellIs" dxfId="60" priority="157" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="157" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL23 AL26:AL27 AL38:AL39 AL30:AL31 AL42:AL43 AL46:AL47 AL50 AL58 AL54 AL62 AL66 AL70 AL74 AL78 AL34:AL35">
-    <cfRule type="cellIs" dxfId="59" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="156" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ24:AJ25">
-    <cfRule type="cellIs" dxfId="58" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="153" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24:AL25">
-    <cfRule type="cellIs" dxfId="57" priority="154" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="154" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20:AJ21">
-    <cfRule type="cellIs" dxfId="56" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="152" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AJ17">
-    <cfRule type="cellIs" dxfId="55" priority="151" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="151" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ28:AJ29">
-    <cfRule type="cellIs" dxfId="54" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="147" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28:AL29">
-    <cfRule type="cellIs" dxfId="53" priority="148" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="148" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36:AL37">
-    <cfRule type="cellIs" dxfId="52" priority="146" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="146" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40:AL41">
-    <cfRule type="cellIs" dxfId="51" priority="144" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="144" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL44:AL45">
-    <cfRule type="cellIs" dxfId="50" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="142" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL48:AL49">
-    <cfRule type="cellIs" dxfId="49" priority="140" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="140" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S21 AB20:AB21 AG20:AG21">
-    <cfRule type="cellIs" dxfId="48" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="117" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24:S25 AB24:AB25 AG24:AG25">
-    <cfRule type="cellIs" dxfId="47" priority="116" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="116" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17 AB16:AB17 AG16:AG17">
-    <cfRule type="cellIs" dxfId="46" priority="118" operator="notEqual">
+    <cfRule type="cellIs" dxfId="66" priority="118" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:S29 AB28:AB29 AG28:AG29">
-    <cfRule type="cellIs" dxfId="45" priority="115" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="115" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ32:AJ33">
-    <cfRule type="cellIs" dxfId="44" priority="113" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="113" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32:AL33">
-    <cfRule type="cellIs" dxfId="43" priority="114" operator="notEqual">
+    <cfRule type="cellIs" dxfId="63" priority="114" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:S33 AB32:AB33 AG32:AG33">
-    <cfRule type="cellIs" dxfId="42" priority="112" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="112" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ37">
-    <cfRule type="cellIs" dxfId="41" priority="111" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="111" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:S37 AB36:AB37 AG36:AG37">
-    <cfRule type="cellIs" dxfId="40" priority="110" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="110" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40:AJ41">
-    <cfRule type="cellIs" dxfId="39" priority="109" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="109" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:S41 AB40:AB41 AG40:AG41">
-    <cfRule type="cellIs" dxfId="38" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="108" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ44:AJ45">
-    <cfRule type="cellIs" dxfId="37" priority="107" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="107" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:S45 AB44:AB45 AG44:AG45">
-    <cfRule type="cellIs" dxfId="36" priority="106" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="106" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ48:AJ49">
-    <cfRule type="cellIs" dxfId="35" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="105" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:S49 AB48:AB49 AG48:AG49">
-    <cfRule type="cellIs" dxfId="34" priority="104" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="104" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:S53 AB51:AB53 AG51:AG53 AJ51:AJ53">
-    <cfRule type="cellIs" dxfId="33" priority="85" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="85" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51:AL53">
-    <cfRule type="cellIs" dxfId="32" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:S57 AB55:AB57 AG55:AG57 AJ55:AJ57">
-    <cfRule type="cellIs" dxfId="31" priority="83" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="83" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL55:AL57">
-    <cfRule type="cellIs" dxfId="30" priority="82" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="82" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59:S61 AB59:AB61 AG59:AG61 AJ59:AJ61">
-    <cfRule type="cellIs" dxfId="29" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="81" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL59:AL61">
-    <cfRule type="cellIs" dxfId="28" priority="80" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="80" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S63:S65 AB63:AB65 AG63:AG65 AJ63:AJ65">
-    <cfRule type="cellIs" dxfId="27" priority="79" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="79" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63:AL65">
-    <cfRule type="cellIs" dxfId="26" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="78" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:S69 AB67:AB69 AG67:AG69 AJ67:AJ69">
-    <cfRule type="cellIs" dxfId="25" priority="77" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="77" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL67:AL69">
-    <cfRule type="cellIs" dxfId="24" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="76" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S71:S73 AB71:AB73 AG71:AG73 AJ71:AJ73">
-    <cfRule type="cellIs" dxfId="23" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="75" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL71:AL73">
-    <cfRule type="cellIs" dxfId="22" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="74" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S75:S77 AB75:AB77 AG75:AG77 AJ75:AJ77">
-    <cfRule type="cellIs" dxfId="21" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="73" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL75:AL77">
-    <cfRule type="cellIs" dxfId="20" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="72" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S79:S81 AB79:AB81 AG79:AG81 AJ79:AJ81">
-    <cfRule type="cellIs" dxfId="19" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="71" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79:AL81">
-    <cfRule type="cellIs" dxfId="18" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17011,92 +14071,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH82:AI82 C82:R82 T82:AA82 AC82:AF82">
-    <cfRule type="cellIs" dxfId="17" priority="59" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="59" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH90:AI90 C90:R90 T90:AA90 AC90:AF90">
-    <cfRule type="cellIs" dxfId="16" priority="58" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="58" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S82 AB82 AG82 AJ82 AJ90 AG90 AB90 S90">
-    <cfRule type="cellIs" dxfId="15" priority="57" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL82 AL90">
-    <cfRule type="cellIs" dxfId="14" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="56" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S83:S85 AB83:AB85 AG83:AG85 AJ83:AJ85">
-    <cfRule type="cellIs" dxfId="13" priority="55" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL83:AL85">
-    <cfRule type="cellIs" dxfId="12" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S91:S93 AB91:AB93 AG91:AG93 AJ91:AJ93">
-    <cfRule type="cellIs" dxfId="11" priority="53" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="53" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL91:AL93">
-    <cfRule type="cellIs" dxfId="10" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="52" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH94:AI94 C94:R94 T94:AA94 AC94:AF94">
-    <cfRule type="cellIs" dxfId="9" priority="51" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="51" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S94 AB94 AG94 AJ94">
-    <cfRule type="cellIs" dxfId="8" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="49" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94">
-    <cfRule type="cellIs" dxfId="7" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="48" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S95:S97 AB95:AB97 AG95:AG97 AJ95:AJ97">
-    <cfRule type="cellIs" dxfId="6" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="47" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL95:AL97">
-    <cfRule type="cellIs" dxfId="5" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="46" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH86:AI86 C86:R86 T86:AA86 AC86:AF86">
-    <cfRule type="cellIs" dxfId="4" priority="15" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S86 AB86 AG86 AJ86">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL86">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S87:S89 AB87:AB89 AG87:AG89 AJ87:AJ89">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL87:AL89">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="notEqual">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17335,7 +14395,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17733,12 +14793,14 @@
       <c r="F10" s="85">
         <v>1</v>
       </c>
-      <c r="G10" s="86"/>
+      <c r="G10" s="86">
+        <v>6</v>
+      </c>
       <c r="H10" s="85"/>
       <c r="I10" s="86"/>
       <c r="J10" s="77">
         <f>IF(C10&gt;C11,1,0)+IF(D10&gt;D11,1,0)+IF(E10&gt;E11,1,0)+IF(F10&gt;F11,1,0)+IF(G10&gt;G11,1,0)+IF(H10&gt;H11,1,0)+IF(I10&gt;I11,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -17792,7 +14854,9 @@
       <c r="F11" s="85">
         <v>2</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="86">
+        <v>0</v>
+      </c>
       <c r="H11" s="85"/>
       <c r="I11" s="86"/>
       <c r="J11" s="77">
@@ -18202,7 +15266,9 @@
       <c r="G20" s="85">
         <v>2</v>
       </c>
-      <c r="H20" s="85"/>
+      <c r="H20" s="85">
+        <v>2</v>
+      </c>
       <c r="I20" s="86"/>
       <c r="J20" s="77">
         <f>IF(C20&gt;C21,1,0)+IF(D20&gt;D21,1,0)+IF(E20&gt;E21,1,0)+IF(F20&gt;F21,1,0)+IF(G20&gt;G21,1,0)+IF(H20&gt;H21,1,0)+IF(I20&gt;I21,1,0)</f>
@@ -18262,11 +15328,13 @@
       <c r="G21" s="85">
         <v>3</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="85">
+        <v>3</v>
+      </c>
       <c r="I21" s="86"/>
       <c r="J21" s="77">
         <f>IF(C21&gt;C20,1,0)+IF(D21&gt;D20,1,0)+IF(E21&gt;E20,1,0)+IF(F21&gt;F20,1,0)+IF(G21&gt;G20,1,0)+IF(H21&gt;H20,1,0)+IF(I21&gt;I20,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="4"/>
@@ -18406,7 +15474,9 @@
       <c r="F24" s="85">
         <v>1</v>
       </c>
-      <c r="G24" s="85"/>
+      <c r="G24" s="85">
+        <v>3</v>
+      </c>
       <c r="H24" s="85"/>
       <c r="I24" s="86"/>
       <c r="J24" s="77">
@@ -18463,12 +15533,14 @@
       <c r="F25" s="85">
         <v>5</v>
       </c>
-      <c r="G25" s="85"/>
+      <c r="G25" s="85">
+        <v>5</v>
+      </c>
       <c r="H25" s="85"/>
       <c r="I25" s="86"/>
       <c r="J25" s="77">
         <f>IF(C25&gt;C24,1,0)+IF(D25&gt;D24,1,0)+IF(E25&gt;E24,1,0)+IF(F25&gt;F24,1,0)+IF(G25&gt;G24,1,0)+IF(H25&gt;H24,1,0)+IF(I25&gt;I24,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="4"/>
@@ -18691,102 +15763,102 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="424" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="423" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 C6:I6 O20:U20 C13:I13 AA8:AG8 AA15:AG15 O10:U10 O6:Q6 C10:I10 C24 C20:E20 C17:I17 O24:U24 AA22:AG22 F24:I24 G20:I20 C27:I27 S6:U6">
-    <cfRule type="cellIs" dxfId="422" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4 C7:I7 O21:U21 C14:I14 AA9:AG9 AA16:AG16 O11:U11 O7:Q7 C11:I11 C25 C21:E21 C18:I18 O25:U25 AA23:AG23 F25:I25 G21:I21 C28:I28 S7:U7">
-    <cfRule type="cellIs" dxfId="421" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="420" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="419" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="418" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="417" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="416" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="415" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="414" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="413" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="412" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="411" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="410" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>F21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="409" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="408" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="407" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="406" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>R7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="405" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>R6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -2489,30 +2489,132 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2564,137 +2666,35 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3894,7 +3894,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3917,217 +3917,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
-      <c r="O1" s="281"/>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282"/>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
-      <c r="Z1" s="282"/>
-      <c r="AA1" s="282"/>
-      <c r="AB1" s="282"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
-      <c r="AG1" s="282"/>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="282"/>
-      <c r="AJ1" s="282"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="275"/>
+      <c r="AJ1" s="275"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="283" t="s">
+      <c r="C2" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="284" t="s">
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282"/>
-      <c r="W2" s="282"/>
-      <c r="X2" s="282"/>
-      <c r="Y2" s="282"/>
-      <c r="Z2" s="282"/>
-      <c r="AA2" s="282"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="282"/>
-      <c r="AG2" s="282"/>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="282"/>
-      <c r="Q3" s="282"/>
-      <c r="R3" s="282"/>
-      <c r="S3" s="282"/>
-      <c r="T3" s="282"/>
-      <c r="U3" s="282"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="282"/>
-      <c r="Y3" s="282"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="282"/>
-      <c r="AE3" s="282"/>
-      <c r="AF3" s="282"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="282"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="275"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="275"/>
+      <c r="U3" s="275"/>
+      <c r="V3" s="275"/>
+      <c r="W3" s="275"/>
+      <c r="X3" s="275"/>
+      <c r="Y3" s="275"/>
+      <c r="Z3" s="275"/>
+      <c r="AA3" s="275"/>
+      <c r="AB3" s="275"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="275"/>
+      <c r="AE3" s="275"/>
+      <c r="AF3" s="275"/>
+      <c r="AG3" s="275"/>
+      <c r="AH3" s="275"/>
+      <c r="AI3" s="275"/>
+      <c r="AJ3" s="275"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="265" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="266"/>
-      <c r="Q4" s="266"/>
-      <c r="R4" s="266"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="265" t="s">
+      <c r="C4" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="300"/>
+      <c r="O4" s="300"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="301"/>
+      <c r="T4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="266"/>
-      <c r="Z4" s="266"/>
-      <c r="AA4" s="266"/>
-      <c r="AB4" s="267"/>
-      <c r="AC4" s="265" t="s">
+      <c r="U4" s="300"/>
+      <c r="V4" s="300"/>
+      <c r="W4" s="300"/>
+      <c r="X4" s="300"/>
+      <c r="Y4" s="300"/>
+      <c r="Z4" s="300"/>
+      <c r="AA4" s="300"/>
+      <c r="AB4" s="301"/>
+      <c r="AC4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="266"/>
-      <c r="AE4" s="266"/>
-      <c r="AF4" s="266"/>
-      <c r="AG4" s="276"/>
-      <c r="AH4" s="265" t="s">
+      <c r="AD4" s="300"/>
+      <c r="AE4" s="300"/>
+      <c r="AF4" s="300"/>
+      <c r="AG4" s="308"/>
+      <c r="AH4" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="266"/>
-      <c r="AJ4" s="267"/>
+      <c r="AI4" s="300"/>
+      <c r="AJ4" s="301"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="272" t="s">
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="270"/>
+      <c r="K5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="268" t="s">
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="269"/>
+      <c r="P5" s="269"/>
+      <c r="Q5" s="269"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="277" t="s">
+      <c r="T5" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="272" t="s">
+      <c r="U5" s="269"/>
+      <c r="V5" s="269"/>
+      <c r="W5" s="270"/>
+      <c r="X5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="268" t="s">
+      <c r="Y5" s="269"/>
+      <c r="Z5" s="269"/>
+      <c r="AA5" s="270"/>
+      <c r="AB5" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="275" t="s">
+      <c r="AC5" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="272" t="s">
+      <c r="AD5" s="270"/>
+      <c r="AE5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="268" t="s">
+      <c r="AF5" s="270"/>
+      <c r="AG5" s="302" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="268" t="s">
+      <c r="AJ5" s="302" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="E6" s="172">
         <f>Résultats!$J$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
@@ -4179,7 +4179,7 @@
         <f>Résultats!$J$20</f>
         <v>2</v>
       </c>
-      <c r="N6" s="313">
+      <c r="N6" s="253">
         <f>Résultats!$J$21</f>
         <v>4</v>
       </c>
@@ -4193,13 +4193,13 @@
       </c>
       <c r="Q6" s="111">
         <f>Résultats!$J$27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" s="108">
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="269"/>
+      <c r="S6" s="303"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="269"/>
+      <c r="AB6" s="303"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="269"/>
+      <c r="AG6" s="303"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="269"/>
+      <c r="AJ6" s="303"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,12 +4279,12 @@
       <c r="K7" s="120"/>
       <c r="L7" s="243"/>
       <c r="M7" s="173"/>
-      <c r="N7" s="314"/>
+      <c r="N7" s="254"/>
       <c r="O7" s="173"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="269"/>
+      <c r="S7" s="303"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4293,15 +4293,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="269"/>
+      <c r="AB7" s="303"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="269"/>
+      <c r="AG7" s="303"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="269"/>
+      <c r="AJ7" s="303"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="315" t="str">
+      <c r="N8" s="255" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
@@ -4371,7 +4371,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="269"/>
+      <c r="S8" s="303"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4404,7 +4404,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="269"/>
+      <c r="AB8" s="303"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4421,7 +4421,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="269"/>
+      <c r="AG8" s="303"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4430,7 +4430,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="269"/>
+      <c r="AJ8" s="303"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="316" t="str">
+      <c r="N9" s="256" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
@@ -4504,7 +4504,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="271"/>
+      <c r="S9" s="305"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4537,7 +4537,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="270"/>
+      <c r="AB9" s="304"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4554,7 +4554,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="270"/>
+      <c r="AG9" s="304"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4563,7 +4563,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="271"/>
+      <c r="AJ9" s="305"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="R14" s="50"/>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -5039,11 +5039,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5059,7 +5059,7 @@
       <c r="D15" s="150"/>
       <c r="E15" s="132">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="150"/>
       <c r="G15" s="132">
@@ -5089,7 +5089,7 @@
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
@@ -5406,9 +5406,9 @@
       <c r="R18" s="204">
         <v>7</v>
       </c>
-      <c r="S18" s="255">
+      <c r="S18" s="248">
         <f>SUM(C19:R19)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
@@ -5438,11 +5438,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5458,7 +5458,7 @@
       <c r="D19" s="150"/>
       <c r="E19" s="126">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E18=$E$6+$F$6,$O$103,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F18=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="150"/>
       <c r="G19" s="126">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="S22" s="129">
         <f>SUM(C23:R23)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
@@ -5837,11 +5837,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
       <c r="D23" s="163"/>
       <c r="E23" s="132">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E22=$E$6+$F$6,$O$103,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F22=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="163"/>
       <c r="G23" s="132">
@@ -6170,43 +6170,43 @@
         <v>4</v>
       </c>
       <c r="B26" s="211" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C26" s="198">
         <v>5</v>
       </c>
       <c r="D26" s="199"/>
       <c r="E26" s="200">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" s="199"/>
       <c r="G26" s="201">
         <v>5</v>
       </c>
       <c r="H26" s="202"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="202">
+      <c r="I26" s="200">
         <v>6</v>
       </c>
+      <c r="J26" s="202"/>
       <c r="K26" s="203">
         <v>5</v>
       </c>
       <c r="L26" s="202"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="199">
+      <c r="M26" s="200">
         <v>6</v>
       </c>
+      <c r="N26" s="199"/>
       <c r="O26" s="200">
         <v>5</v>
       </c>
       <c r="P26" s="199"/>
-      <c r="Q26" s="201"/>
-      <c r="R26" s="204">
-        <v>6</v>
-      </c>
+      <c r="Q26" s="201">
+        <v>7</v>
+      </c>
+      <c r="R26" s="204"/>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6214,7 +6214,7 @@
       <c r="W26" s="202"/>
       <c r="X26" s="203"/>
       <c r="Y26" s="199"/>
-      <c r="Z26" s="201"/>
+      <c r="Z26" s="208"/>
       <c r="AA26" s="204"/>
       <c r="AB26" s="205">
         <f>SUM(T27:AA27)</f>
@@ -6228,7 +6228,7 @@
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="308"/>
+      <c r="AH26" s="195"/>
       <c r="AI26" s="196"/>
       <c r="AJ26" s="205">
         <f>AH27</f>
@@ -6236,11 +6236,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
       <c r="D27" s="150"/>
       <c r="E27" s="126">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E26=$E$6+$F$6,$O$103,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F26=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="150"/>
       <c r="G27" s="126">
@@ -6266,7 +6266,7 @@
       <c r="H27" s="150"/>
       <c r="I27" s="126">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J27" s="151"/>
       <c r="K27" s="152">
@@ -6276,7 +6276,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="126">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="126">
@@ -6358,7 +6358,7 @@
         <f>IF(ISBLANK(I26),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="124">
         <f>IF(ISBLANK(J26),
@@ -6388,7 +6388,7 @@
         <f>IF(ISBLANK(N26),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="124">
         <f>IF(ISBLANK(O26),
@@ -6513,7 +6513,7 @@
         <f>IF(N28 = 0,
 0,
 IF(N26 = (M$6+N$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="124">
         <f>IF(O28 = 0,
@@ -6559,7 +6559,7 @@
       <c r="AJ29" s="147"/>
       <c r="AK29" s="148">
         <f>SUM(C29:AI29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="130"/>
     </row>
@@ -6569,23 +6569,23 @@
         <v>4</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C30" s="46">
         <v>5</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="44"/>
       <c r="J30" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="49">
         <v>5</v>
@@ -6596,7 +6596,7 @@
         <v>6</v>
       </c>
       <c r="O30" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P30" s="45"/>
       <c r="Q30" s="48"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="S30" s="129">
         <f>SUM(C31:R31)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
@@ -6627,7 +6627,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="107"/>
+      <c r="AH30" s="249"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="129">
         <f>AH31</f>
@@ -6635,11 +6635,11 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
@@ -6965,10 +6965,10 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="198">
         <v>5</v>
@@ -6979,32 +6979,32 @@
       </c>
       <c r="F34" s="199"/>
       <c r="G34" s="201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="202"/>
-      <c r="I34" s="200">
+      <c r="I34" s="200"/>
+      <c r="J34" s="202">
         <v>6</v>
       </c>
-      <c r="J34" s="202"/>
       <c r="K34" s="203">
         <v>5</v>
       </c>
       <c r="L34" s="202"/>
-      <c r="M34" s="200">
+      <c r="M34" s="200"/>
+      <c r="N34" s="199">
         <v>6</v>
       </c>
-      <c r="N34" s="199"/>
       <c r="O34" s="200">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P34" s="199"/>
       <c r="Q34" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R34" s="204"/>
       <c r="S34" s="205">
         <f>SUM(C35:R35)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T34" s="198"/>
       <c r="U34" s="202"/>
@@ -7012,7 +7012,7 @@
       <c r="W34" s="202"/>
       <c r="X34" s="203"/>
       <c r="Y34" s="199"/>
-      <c r="Z34" s="208"/>
+      <c r="Z34" s="201"/>
       <c r="AA34" s="202"/>
       <c r="AB34" s="205">
         <f>SUM(T35:AA35)</f>
@@ -7026,7 +7026,7 @@
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="209"/>
+      <c r="AH34" s="309"/>
       <c r="AI34" s="196"/>
       <c r="AJ34" s="205">
         <f>AH35</f>
@@ -7034,11 +7034,11 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
       <c r="D35" s="80"/>
       <c r="E35" s="81">
         <f>(IF($E34&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E34=$E$6+$F$6,$O$103,0),0),0)+IF($F34&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F34=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="80"/>
       <c r="G35" s="81">
@@ -7064,7 +7064,7 @@
       <c r="H35" s="80"/>
       <c r="I35" s="81">
         <f>(IF($I34&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I34=$I$6+$J$6,$O$103,0),0),0)+IF($J34&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J34=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J35" s="82"/>
       <c r="K35" s="83">
@@ -7074,7 +7074,7 @@
       <c r="L35" s="80"/>
       <c r="M35" s="81">
         <f>(IF($M34&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M34=$M$6+$N$6,$O$103,0),0),0)+IF($N34&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N34=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N35" s="80"/>
       <c r="O35" s="81">
@@ -7084,7 +7084,7 @@
       <c r="P35" s="80"/>
       <c r="Q35" s="81">
         <f>(IF($Q34&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q34=$Q$6+$R$6,$O$103,0),0),0)+IF($R34&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R34=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" s="84"/>
       <c r="S35" s="128"/>
@@ -7156,7 +7156,7 @@
         <f>IF(ISBLANK(I34),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="124">
         <f>IF(ISBLANK(J34),
@@ -7186,7 +7186,7 @@
         <f>IF(ISBLANK(N34),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="124">
         <f>IF(ISBLANK(O34),
@@ -7311,7 +7311,7 @@
         <f>IF(N36 = 0,
 0,
 IF(N34 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="124">
         <f>IF(O36 = 0,
@@ -7357,33 +7357,33 @@
       <c r="AJ37" s="147"/>
       <c r="AK37" s="148">
         <f>SUM(C37:AI37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="130"/>
     </row>
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" s="46">
         <v>5</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="49">
         <v>5</v>
@@ -7397,13 +7397,13 @@
         <v>7</v>
       </c>
       <c r="P38" s="45"/>
-      <c r="Q38" s="48">
+      <c r="Q38" s="48"/>
+      <c r="R38" s="50">
         <v>6</v>
       </c>
-      <c r="R38" s="50"/>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
@@ -7425,7 +7425,7 @@
         <f>SUM(AC39:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="309"/>
+      <c r="AH38" s="107"/>
       <c r="AI38" s="57"/>
       <c r="AJ38" s="129">
         <f>AH39</f>
@@ -7433,11 +7433,11 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7453,7 +7453,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="125">
@@ -7483,7 +7483,7 @@
       <c r="P39" s="80"/>
       <c r="Q39" s="81">
         <f>(IF($Q38&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q38=$Q$6+$R$6,$O$103,0),0),0)+IF($R38&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R38=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R39" s="84"/>
       <c r="S39" s="128"/>
@@ -7802,7 +7802,7 @@
       <c r="R42" s="204"/>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -7832,11 +7832,11 @@
       </c>
       <c r="AK42" s="207">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
@@ -7882,7 +7882,7 @@
       <c r="P43" s="80"/>
       <c r="Q43" s="81">
         <f>(IF($Q42&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q42=$Q$6+$R$6,$O$103,0),0),0)+IF($R42&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R42=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43" s="84"/>
       <c r="S43" s="128"/>
@@ -8201,7 +8201,7 @@
       <c r="R46" s="50"/>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -8231,11 +8231,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL46" s="129">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8251,7 +8251,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
@@ -8281,7 +8281,7 @@
       <c r="P47" s="80"/>
       <c r="Q47" s="81">
         <f>(IF($Q46&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q46=$Q$6+$R$6,$O$103,0),0),0)+IF($R46&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R46=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R47" s="84"/>
       <c r="S47" s="128"/>
@@ -8561,7 +8561,7 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="211" t="s">
         <v>73</v>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -8630,11 +8630,11 @@
       </c>
       <c r="AK50" s="207">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8650,7 +8650,7 @@
       <c r="D51" s="134"/>
       <c r="E51" s="132">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E50=$E$6+$F$6,$O$103,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F50=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="134"/>
       <c r="G51" s="132">
@@ -9356,18 +9356,18 @@
         <v>12</v>
       </c>
       <c r="B58" s="211" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C58" s="198">
+        <v>4</v>
+      </c>
+      <c r="D58" s="199"/>
+      <c r="E58" s="200">
+        <v>4</v>
+      </c>
+      <c r="F58" s="199"/>
+      <c r="G58" s="201">
         <v>6</v>
-      </c>
-      <c r="D58" s="199"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="199">
-        <v>7</v>
-      </c>
-      <c r="G58" s="201">
-        <v>7</v>
       </c>
       <c r="H58" s="202"/>
       <c r="I58" s="200"/>
@@ -9379,11 +9379,11 @@
       </c>
       <c r="L58" s="202"/>
       <c r="M58" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N58" s="199"/>
       <c r="O58" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P58" s="199"/>
       <c r="Q58" s="201"/>
@@ -9400,14 +9400,14 @@
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
       <c r="Y58" s="199"/>
-      <c r="Z58" s="201"/>
+      <c r="Z58" s="208"/>
       <c r="AA58" s="202"/>
       <c r="AB58" s="205">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
       <c r="AC58" s="201"/>
-      <c r="AD58" s="202"/>
+      <c r="AD58" s="234"/>
       <c r="AE58" s="203"/>
       <c r="AF58" s="202"/>
       <c r="AG58" s="205">
@@ -9752,10 +9752,10 @@
         <v>12</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C62" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="44"/>
@@ -9763,34 +9763,34 @@
         <v>7</v>
       </c>
       <c r="G62" s="48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H62" s="47"/>
       <c r="I62" s="44"/>
       <c r="J62" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K62" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N62" s="45"/>
       <c r="O62" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P62" s="45"/>
       <c r="Q62" s="48"/>
       <c r="R62" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
         <v>14</v>
       </c>
-      <c r="T62" s="236"/>
+      <c r="T62" s="46"/>
       <c r="U62" s="47"/>
       <c r="V62" s="44"/>
       <c r="W62" s="47"/>
@@ -10145,46 +10145,46 @@
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B66" s="211" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="198">
-        <v>4</v>
-      </c>
-      <c r="D66" s="199"/>
-      <c r="E66" s="200">
-        <v>4</v>
-      </c>
-      <c r="F66" s="199"/>
-      <c r="G66" s="201">
+        <v>68</v>
+      </c>
+      <c r="C66" s="310">
+        <v>5</v>
+      </c>
+      <c r="D66" s="311"/>
+      <c r="E66" s="312">
         <v>6</v>
       </c>
-      <c r="H66" s="202"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="202">
+      <c r="F66" s="311"/>
+      <c r="G66" s="313">
+        <v>5</v>
+      </c>
+      <c r="H66" s="314"/>
+      <c r="I66" s="312"/>
+      <c r="J66" s="314">
         <v>6</v>
       </c>
-      <c r="K66" s="203">
+      <c r="K66" s="315">
         <v>6</v>
       </c>
-      <c r="L66" s="202"/>
-      <c r="M66" s="200">
-        <v>5</v>
-      </c>
-      <c r="N66" s="199"/>
-      <c r="O66" s="200">
+      <c r="L66" s="314"/>
+      <c r="M66" s="312">
+        <v>7</v>
+      </c>
+      <c r="N66" s="311"/>
+      <c r="O66" s="312">
         <v>6</v>
       </c>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="201"/>
-      <c r="R66" s="204">
+      <c r="P66" s="311"/>
+      <c r="Q66" s="313"/>
+      <c r="R66" s="316">
         <v>6</v>
       </c>
       <c r="S66" s="205">
         <f>SUM(C67:R67)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T66" s="198"/>
       <c r="U66" s="202"/>
@@ -10192,14 +10192,14 @@
       <c r="W66" s="202"/>
       <c r="X66" s="203"/>
       <c r="Y66" s="199"/>
-      <c r="Z66" s="208"/>
+      <c r="Z66" s="201"/>
       <c r="AA66" s="202"/>
       <c r="AB66" s="205">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
       <c r="AC66" s="201"/>
-      <c r="AD66" s="234"/>
+      <c r="AD66" s="202"/>
       <c r="AE66" s="203"/>
       <c r="AF66" s="202"/>
       <c r="AG66" s="205">
@@ -10214,11 +10214,11 @@
       </c>
       <c r="AK66" s="207">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL66" s="205">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10234,7 +10234,7 @@
       <c r="D67" s="134"/>
       <c r="E67" s="132">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E66=$E$6+$F$6,$O$103,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F66=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="134"/>
       <c r="G67" s="132">
@@ -10541,48 +10541,48 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="248">
+        <v>78</v>
+      </c>
+      <c r="C70" s="46">
         <v>5</v>
       </c>
-      <c r="D70" s="249"/>
-      <c r="E70" s="250">
+      <c r="D70" s="45"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45">
+        <v>7</v>
+      </c>
+      <c r="G70" s="48">
         <v>6</v>
       </c>
-      <c r="F70" s="249"/>
-      <c r="G70" s="251">
+      <c r="H70" s="47"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="47">
+        <v>7</v>
+      </c>
+      <c r="K70" s="49">
         <v>5</v>
       </c>
-      <c r="H70" s="252"/>
-      <c r="I70" s="250"/>
-      <c r="J70" s="252">
+      <c r="L70" s="47"/>
+      <c r="M70" s="44">
         <v>6</v>
       </c>
-      <c r="K70" s="253">
-        <v>6</v>
-      </c>
-      <c r="L70" s="252"/>
-      <c r="M70" s="250">
+      <c r="N70" s="45"/>
+      <c r="O70" s="44">
         <v>7</v>
       </c>
-      <c r="N70" s="249"/>
-      <c r="O70" s="250">
-        <v>6</v>
-      </c>
-      <c r="P70" s="249"/>
-      <c r="Q70" s="251"/>
-      <c r="R70" s="254">
-        <v>6</v>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="50">
+        <v>7</v>
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
-        <v>13</v>
-      </c>
-      <c r="T70" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="T70" s="236"/>
       <c r="U70" s="47"/>
       <c r="V70" s="44"/>
       <c r="W70" s="47"/>
@@ -10610,11 +10610,11 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL70" s="129">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10630,7 +10630,7 @@
       <c r="D71" s="134"/>
       <c r="E71" s="132">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E70=$E$6+$F$6,$O$103,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F70=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="134"/>
       <c r="G71" s="132">
@@ -10937,7 +10937,7 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="186">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B74" s="211" t="s">
         <v>82</v>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T74" s="198"/>
       <c r="U74" s="202"/>
@@ -11006,11 +11006,11 @@
       </c>
       <c r="AK74" s="207">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11026,7 +11026,7 @@
       <c r="D75" s="134"/>
       <c r="E75" s="132">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E74=$E$6+$F$6,$O$103,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F74=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="134"/>
       <c r="G75" s="132">
@@ -11333,7 +11333,7 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B78" s="88" t="s">
         <v>80</v>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="S78" s="129">
         <f>SUM(C79:R79)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11402,11 +11402,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11422,7 +11422,7 @@
       <c r="D79" s="134"/>
       <c r="E79" s="132">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E78=$E$6+$F$6,$O$103,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F78=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="134"/>
       <c r="G79" s="132">
@@ -11729,7 +11729,7 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="186">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B82" s="211" t="s">
         <v>75</v>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T82" s="198"/>
       <c r="U82" s="202"/>
@@ -11798,11 +11798,11 @@
       </c>
       <c r="AK82" s="207">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11818,7 +11818,7 @@
       <c r="D83" s="134"/>
       <c r="E83" s="132">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E82=$E$6+$F$6,$O$103,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F82=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="134"/>
       <c r="G83" s="132">
@@ -12125,10 +12125,10 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C86" s="46">
         <v>6</v>
@@ -12139,12 +12139,12 @@
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K86" s="49">
         <v>7</v>
@@ -12155,16 +12155,16 @@
       </c>
       <c r="N86" s="45"/>
       <c r="O86" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P86" s="45"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="50">
-        <v>7</v>
-      </c>
+      <c r="Q86" s="48">
+        <v>5</v>
+      </c>
+      <c r="R86" s="50"/>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T86" s="46"/>
       <c r="U86" s="47"/>
@@ -12194,11 +12194,11 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12214,7 +12214,7 @@
       <c r="D87" s="134"/>
       <c r="E87" s="132">
         <f>(IF($E86&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E86=$E$6+$F$6,$O$103,0),0),0)+IF($F86&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F86=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" s="134"/>
       <c r="G87" s="132">
@@ -12521,10 +12521,10 @@
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="186">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B90" s="211" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C90" s="198">
         <v>6</v>
@@ -12535,12 +12535,12 @@
       </c>
       <c r="F90" s="199"/>
       <c r="G90" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H90" s="202"/>
       <c r="I90" s="200"/>
       <c r="J90" s="202">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K90" s="203">
         <v>7</v>
@@ -12551,16 +12551,16 @@
       </c>
       <c r="N90" s="199"/>
       <c r="O90" s="200">
+        <v>6</v>
+      </c>
+      <c r="P90" s="199"/>
+      <c r="Q90" s="201"/>
+      <c r="R90" s="204">
         <v>7</v>
       </c>
-      <c r="P90" s="199"/>
-      <c r="Q90" s="201">
-        <v>5</v>
-      </c>
-      <c r="R90" s="204"/>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T90" s="198"/>
       <c r="U90" s="202"/>
@@ -12590,11 +12590,11 @@
       </c>
       <c r="AK90" s="207">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12610,7 +12610,7 @@
       <c r="D91" s="134"/>
       <c r="E91" s="132">
         <f>(IF($E90&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E90=$E$6+$F$6,$O$103,0),0),0)+IF($F90&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F90=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="134"/>
       <c r="G91" s="132">
@@ -12640,7 +12640,7 @@
       <c r="P91" s="134"/>
       <c r="Q91" s="135">
         <f>(IF($Q90&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q90=$Q$6+$R$6,$O$103,0),0),0)+IF($R90&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R90=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R91" s="138"/>
       <c r="S91" s="128"/>
@@ -12926,15 +12926,15 @@
         <v>7</v>
       </c>
       <c r="D94" s="227"/>
-      <c r="E94" s="310">
+      <c r="E94" s="250">
         <v>6</v>
       </c>
       <c r="F94" s="227"/>
-      <c r="G94" s="311"/>
+      <c r="G94" s="251"/>
       <c r="H94" s="230">
         <v>6</v>
       </c>
-      <c r="I94" s="310"/>
+      <c r="I94" s="250"/>
       <c r="J94" s="230">
         <v>7</v>
       </c>
@@ -12956,11 +12956,11 @@
       <c r="R94" s="232"/>
       <c r="S94" s="129">
         <f>SUM(C95:R95)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="312"/>
+      <c r="V94" s="252"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
       <c r="Y94" s="127"/>
@@ -12986,11 +12986,11 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13006,7 +13006,7 @@
       <c r="D95" s="134"/>
       <c r="E95" s="132">
         <f>(IF($E94&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E94=$E$6+$F$6,$O$103,0),0),0)+IF($F94&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F94=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" s="134"/>
       <c r="G95" s="132">
@@ -13036,7 +13036,7 @@
       <c r="P95" s="134"/>
       <c r="Q95" s="135">
         <f>(IF($Q94&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q94=$Q$6+$R$6,$O$103,0),0),0)+IF($R94&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R94=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R95" s="138"/>
       <c r="S95" s="128"/>
@@ -13443,12 +13443,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="256" t="s">
+      <c r="O100" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="257"/>
-      <c r="Q100" s="257"/>
-      <c r="R100" s="258"/>
+      <c r="P100" s="291"/>
+      <c r="Q100" s="291"/>
+      <c r="R100" s="292"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13457,21 +13457,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="285" t="s">
+      <c r="B101" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="286"/>
-      <c r="D101" s="286"/>
-      <c r="E101" s="286"/>
-      <c r="F101" s="286"/>
-      <c r="G101" s="286"/>
-      <c r="H101" s="286"/>
-      <c r="I101" s="286"/>
-      <c r="J101" s="286"/>
-      <c r="K101" s="286"/>
-      <c r="L101" s="286"/>
-      <c r="M101" s="286"/>
-      <c r="N101" s="287"/>
+      <c r="C101" s="279"/>
+      <c r="D101" s="279"/>
+      <c r="E101" s="279"/>
+      <c r="F101" s="279"/>
+      <c r="G101" s="279"/>
+      <c r="H101" s="279"/>
+      <c r="I101" s="279"/>
+      <c r="J101" s="279"/>
+      <c r="K101" s="279"/>
+      <c r="L101" s="279"/>
+      <c r="M101" s="279"/>
+      <c r="N101" s="280"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13484,45 +13484,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="259" t="s">
+      <c r="U101" s="293" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="260"/>
-      <c r="W101" s="260"/>
-      <c r="X101" s="260"/>
-      <c r="Y101" s="260"/>
-      <c r="Z101" s="260"/>
-      <c r="AA101" s="260"/>
-      <c r="AB101" s="260"/>
-      <c r="AC101" s="260"/>
-      <c r="AD101" s="261"/>
+      <c r="V101" s="294"/>
+      <c r="W101" s="294"/>
+      <c r="X101" s="294"/>
+      <c r="Y101" s="294"/>
+      <c r="Z101" s="294"/>
+      <c r="AA101" s="294"/>
+      <c r="AB101" s="294"/>
+      <c r="AC101" s="294"/>
+      <c r="AD101" s="295"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="262" t="s">
+      <c r="AG101" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="263"/>
-      <c r="AI101" s="263"/>
-      <c r="AJ101" s="263"/>
-      <c r="AK101" s="264"/>
+      <c r="AH101" s="297"/>
+      <c r="AI101" s="297"/>
+      <c r="AJ101" s="297"/>
+      <c r="AK101" s="298"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="292" t="s">
+      <c r="B102" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="293"/>
-      <c r="D102" s="293"/>
-      <c r="E102" s="293"/>
-      <c r="F102" s="293"/>
-      <c r="G102" s="293"/>
-      <c r="H102" s="293"/>
-      <c r="I102" s="293"/>
-      <c r="J102" s="293"/>
-      <c r="K102" s="293"/>
-      <c r="L102" s="293"/>
-      <c r="M102" s="293"/>
-      <c r="N102" s="294"/>
+      <c r="C102" s="258"/>
+      <c r="D102" s="258"/>
+      <c r="E102" s="258"/>
+      <c r="F102" s="258"/>
+      <c r="G102" s="258"/>
+      <c r="H102" s="258"/>
+      <c r="I102" s="258"/>
+      <c r="J102" s="258"/>
+      <c r="K102" s="258"/>
+      <c r="L102" s="258"/>
+      <c r="M102" s="258"/>
+      <c r="N102" s="259"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13535,49 +13535,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="290" t="s">
+      <c r="U102" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="291"/>
-      <c r="W102" s="291"/>
-      <c r="X102" s="291"/>
-      <c r="Y102" s="291"/>
-      <c r="Z102" s="291"/>
-      <c r="AA102" s="291"/>
-      <c r="AB102" s="288">
+      <c r="V102" s="284"/>
+      <c r="W102" s="284"/>
+      <c r="X102" s="284"/>
+      <c r="Y102" s="284"/>
+      <c r="Z102" s="284"/>
+      <c r="AA102" s="284"/>
+      <c r="AB102" s="281">
         <v>22</v>
       </c>
-      <c r="AC102" s="288"/>
-      <c r="AD102" s="289"/>
+      <c r="AC102" s="281"/>
+      <c r="AD102" s="282"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="304" t="s">
+      <c r="AG102" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="305"/>
-      <c r="AI102" s="305"/>
-      <c r="AJ102" s="306"/>
+      <c r="AH102" s="265"/>
+      <c r="AI102" s="265"/>
+      <c r="AJ102" s="266"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="292" t="s">
+      <c r="B103" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="293"/>
-      <c r="D103" s="293"/>
-      <c r="E103" s="293"/>
-      <c r="F103" s="293"/>
-      <c r="G103" s="293"/>
-      <c r="H103" s="293"/>
-      <c r="I103" s="293"/>
-      <c r="J103" s="293"/>
-      <c r="K103" s="293"/>
-      <c r="L103" s="293"/>
-      <c r="M103" s="293"/>
-      <c r="N103" s="294"/>
+      <c r="C103" s="258"/>
+      <c r="D103" s="258"/>
+      <c r="E103" s="258"/>
+      <c r="F103" s="258"/>
+      <c r="G103" s="258"/>
+      <c r="H103" s="258"/>
+      <c r="I103" s="258"/>
+      <c r="J103" s="258"/>
+      <c r="K103" s="258"/>
+      <c r="L103" s="258"/>
+      <c r="M103" s="258"/>
+      <c r="N103" s="259"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13590,49 +13590,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="299" t="s">
+      <c r="U103" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="300"/>
-      <c r="W103" s="300"/>
-      <c r="X103" s="300"/>
-      <c r="Y103" s="300"/>
-      <c r="Z103" s="300"/>
-      <c r="AA103" s="300"/>
-      <c r="AB103" s="301">
+      <c r="V103" s="263"/>
+      <c r="W103" s="263"/>
+      <c r="X103" s="263"/>
+      <c r="Y103" s="263"/>
+      <c r="Z103" s="263"/>
+      <c r="AA103" s="263"/>
+      <c r="AB103" s="288">
         <v>20</v>
       </c>
-      <c r="AC103" s="301"/>
-      <c r="AD103" s="302"/>
+      <c r="AC103" s="288"/>
+      <c r="AD103" s="289"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="307" t="s">
+      <c r="AG103" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="293"/>
-      <c r="AI103" s="293"/>
-      <c r="AJ103" s="294"/>
+      <c r="AH103" s="258"/>
+      <c r="AI103" s="258"/>
+      <c r="AJ103" s="259"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="278" t="s">
+      <c r="B104" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="279"/>
-      <c r="D104" s="279"/>
-      <c r="E104" s="279"/>
-      <c r="F104" s="279"/>
-      <c r="G104" s="279"/>
-      <c r="H104" s="279"/>
-      <c r="I104" s="279"/>
-      <c r="J104" s="279"/>
-      <c r="K104" s="279"/>
-      <c r="L104" s="279"/>
-      <c r="M104" s="279"/>
-      <c r="N104" s="280"/>
+      <c r="C104" s="272"/>
+      <c r="D104" s="272"/>
+      <c r="E104" s="272"/>
+      <c r="F104" s="272"/>
+      <c r="G104" s="272"/>
+      <c r="H104" s="272"/>
+      <c r="I104" s="272"/>
+      <c r="J104" s="272"/>
+      <c r="K104" s="272"/>
+      <c r="L104" s="272"/>
+      <c r="M104" s="272"/>
+      <c r="N104" s="273"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13645,51 +13645,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="295" t="s">
+      <c r="U104" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="296"/>
-      <c r="W104" s="296"/>
-      <c r="X104" s="296"/>
-      <c r="Y104" s="296"/>
-      <c r="Z104" s="296"/>
-      <c r="AA104" s="296"/>
-      <c r="AB104" s="297">
+      <c r="V104" s="261"/>
+      <c r="W104" s="261"/>
+      <c r="X104" s="261"/>
+      <c r="Y104" s="261"/>
+      <c r="Z104" s="261"/>
+      <c r="AA104" s="261"/>
+      <c r="AB104" s="286">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="297"/>
-      <c r="AD104" s="298"/>
+      <c r="AC104" s="286"/>
+      <c r="AD104" s="287"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="307" t="s">
+      <c r="AG104" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="293"/>
-      <c r="AI104" s="293"/>
-      <c r="AJ104" s="294"/>
+      <c r="AH104" s="258"/>
+      <c r="AI104" s="258"/>
+      <c r="AJ104" s="259"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="299" t="s">
+      <c r="AG105" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="300"/>
-      <c r="AI105" s="300"/>
-      <c r="AJ105" s="300"/>
+      <c r="AH105" s="263"/>
+      <c r="AI105" s="263"/>
+      <c r="AJ105" s="263"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="303" t="s">
+      <c r="AG106" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="296"/>
-      <c r="AI106" s="296"/>
-      <c r="AJ106" s="296"/>
+      <c r="AH106" s="261"/>
+      <c r="AI106" s="261"/>
+      <c r="AJ106" s="261"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13701,12 +13701,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13723,22 +13733,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14395,7 +14395,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14593,11 +14593,13 @@
       <c r="G6" s="85">
         <v>1</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="85">
+        <v>4</v>
+      </c>
       <c r="I6" s="85"/>
       <c r="J6" s="77">
         <f>IF(C6&gt;C7,1,0)+IF(D6&gt;D7,1,0)+IF(E6&gt;E7,1,0)+IF(F6&gt;F7,1,0)+IF(G6&gt;G7,1,0)+IF(H6&gt;H7,1,0)+IF(I6&gt;I7,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="13"/>
@@ -14651,7 +14653,9 @@
       <c r="G7" s="85">
         <v>2</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="85">
+        <v>2</v>
+      </c>
       <c r="I7" s="85"/>
       <c r="J7" s="77">
         <f>IF(C7&gt;C6,1,0)+IF(D7&gt;D6,1,0)+IF(E7&gt;E6,1,0)+IF(F7&gt;F6,1,0)+IF(G7&gt;G6,1,0)+IF(H7&gt;H6,1,0)+IF(I7&gt;I6,1,0)</f>
@@ -15624,11 +15628,13 @@
       <c r="G27" s="85">
         <v>5</v>
       </c>
-      <c r="H27" s="86"/>
+      <c r="H27" s="86">
+        <v>2</v>
+      </c>
       <c r="I27" s="85"/>
       <c r="J27" s="77">
         <f>IF(C27&gt;C28,1,0)+IF(D27&gt;D28,1,0)+IF(E27&gt;E28,1,0)+IF(F27&gt;F28,1,0)+IF(G27&gt;G28,1,0)+IF(H27&gt;H28,1,0)+IF(I27&gt;I28,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="4"/>
@@ -15673,7 +15679,9 @@
       <c r="G28" s="85">
         <v>2</v>
       </c>
-      <c r="H28" s="86"/>
+      <c r="H28" s="86">
+        <v>1</v>
+      </c>
       <c r="I28" s="85"/>
       <c r="J28" s="77">
         <f>IF(C28&gt;C27,1,0)+IF(D28&gt;D27,1,0)+IF(E28&gt;E27,1,0)+IF(F28&gt;F27,1,0)+IF(G28&gt;G27,1,0)+IF(H28&gt;H27,1,0)+IF(I28&gt;I27,1,0)</f>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -2447,15 +2447,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2495,12 +2489,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2516,6 +2504,117 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2525,18 +2624,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2549,151 +2663,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3917,217 +3917,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="275"/>
-      <c r="AF1" s="275"/>
-      <c r="AG1" s="275"/>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="275"/>
-      <c r="AJ1" s="275"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
+      <c r="O1" s="279"/>
+      <c r="P1" s="280"/>
+      <c r="Q1" s="280"/>
+      <c r="R1" s="280"/>
+      <c r="S1" s="280"/>
+      <c r="T1" s="280"/>
+      <c r="U1" s="280"/>
+      <c r="V1" s="280"/>
+      <c r="W1" s="280"/>
+      <c r="X1" s="280"/>
+      <c r="Y1" s="280"/>
+      <c r="Z1" s="280"/>
+      <c r="AA1" s="280"/>
+      <c r="AB1" s="280"/>
+      <c r="AC1" s="280"/>
+      <c r="AD1" s="280"/>
+      <c r="AE1" s="280"/>
+      <c r="AF1" s="280"/>
+      <c r="AG1" s="280"/>
+      <c r="AH1" s="280"/>
+      <c r="AI1" s="280"/>
+      <c r="AJ1" s="280"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="276" t="s">
+      <c r="C2" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="277" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="275"/>
-      <c r="U2" s="275"/>
-      <c r="V2" s="275"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="275"/>
-      <c r="Y2" s="275"/>
-      <c r="Z2" s="275"/>
-      <c r="AA2" s="275"/>
-      <c r="AB2" s="275"/>
-      <c r="AC2" s="275"/>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="275"/>
-      <c r="AG2" s="275"/>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="275"/>
-      <c r="AJ2" s="275"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="280"/>
+      <c r="T2" s="280"/>
+      <c r="U2" s="280"/>
+      <c r="V2" s="280"/>
+      <c r="W2" s="280"/>
+      <c r="X2" s="280"/>
+      <c r="Y2" s="280"/>
+      <c r="Z2" s="280"/>
+      <c r="AA2" s="280"/>
+      <c r="AB2" s="280"/>
+      <c r="AC2" s="280"/>
+      <c r="AD2" s="280"/>
+      <c r="AE2" s="280"/>
+      <c r="AF2" s="280"/>
+      <c r="AG2" s="280"/>
+      <c r="AH2" s="280"/>
+      <c r="AI2" s="280"/>
+      <c r="AJ2" s="280"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="275"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="275"/>
-      <c r="U3" s="275"/>
-      <c r="V3" s="275"/>
-      <c r="W3" s="275"/>
-      <c r="X3" s="275"/>
-      <c r="Y3" s="275"/>
-      <c r="Z3" s="275"/>
-      <c r="AA3" s="275"/>
-      <c r="AB3" s="275"/>
-      <c r="AC3" s="275"/>
-      <c r="AD3" s="275"/>
-      <c r="AE3" s="275"/>
-      <c r="AF3" s="275"/>
-      <c r="AG3" s="275"/>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="275"/>
-      <c r="AJ3" s="275"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="280"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="280"/>
+      <c r="W3" s="280"/>
+      <c r="X3" s="280"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="280"/>
+      <c r="AA3" s="280"/>
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="280"/>
+      <c r="AD3" s="280"/>
+      <c r="AE3" s="280"/>
+      <c r="AF3" s="280"/>
+      <c r="AG3" s="280"/>
+      <c r="AH3" s="280"/>
+      <c r="AI3" s="280"/>
+      <c r="AJ3" s="280"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
-      <c r="J4" s="300"/>
-      <c r="K4" s="300"/>
-      <c r="L4" s="300"/>
-      <c r="M4" s="300"/>
-      <c r="N4" s="300"/>
-      <c r="O4" s="300"/>
-      <c r="P4" s="300"/>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="299" t="s">
+      <c r="C4" s="263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
+      <c r="P4" s="264"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="264"/>
+      <c r="S4" s="265"/>
+      <c r="T4" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="300"/>
-      <c r="V4" s="300"/>
-      <c r="W4" s="300"/>
-      <c r="X4" s="300"/>
-      <c r="Y4" s="300"/>
-      <c r="Z4" s="300"/>
-      <c r="AA4" s="300"/>
-      <c r="AB4" s="301"/>
-      <c r="AC4" s="299" t="s">
+      <c r="U4" s="264"/>
+      <c r="V4" s="264"/>
+      <c r="W4" s="264"/>
+      <c r="X4" s="264"/>
+      <c r="Y4" s="264"/>
+      <c r="Z4" s="264"/>
+      <c r="AA4" s="264"/>
+      <c r="AB4" s="265"/>
+      <c r="AC4" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="300"/>
-      <c r="AE4" s="300"/>
-      <c r="AF4" s="300"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="299" t="s">
+      <c r="AD4" s="264"/>
+      <c r="AE4" s="264"/>
+      <c r="AF4" s="264"/>
+      <c r="AG4" s="274"/>
+      <c r="AH4" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="300"/>
-      <c r="AJ4" s="301"/>
+      <c r="AI4" s="264"/>
+      <c r="AJ4" s="265"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="306" t="s">
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="302" t="s">
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="271"/>
+      <c r="Q5" s="271"/>
+      <c r="R5" s="272"/>
+      <c r="S5" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="268" t="s">
+      <c r="T5" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="270"/>
-      <c r="X5" s="306" t="s">
+      <c r="U5" s="271"/>
+      <c r="V5" s="271"/>
+      <c r="W5" s="272"/>
+      <c r="X5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="270"/>
-      <c r="AB5" s="302" t="s">
+      <c r="Y5" s="271"/>
+      <c r="Z5" s="271"/>
+      <c r="AA5" s="272"/>
+      <c r="AB5" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="307" t="s">
+      <c r="AC5" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="270"/>
-      <c r="AE5" s="306" t="s">
+      <c r="AD5" s="272"/>
+      <c r="AE5" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="302" t="s">
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="266" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="302" t="s">
+      <c r="AJ5" s="266" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4139,7 +4139,7 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242">
+      <c r="D6" s="240">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
@@ -4157,9 +4157,9 @@
       </c>
       <c r="H6" s="109">
         <f>Résultats!$J$11</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="238">
+        <v>3</v>
+      </c>
+      <c r="I6" s="236">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4171,7 +4171,7 @@
         <f>Résultats!$J$17</f>
         <v>1</v>
       </c>
-      <c r="L6" s="242">
+      <c r="L6" s="240">
         <f>Résultats!$J$18</f>
         <v>4</v>
       </c>
@@ -4179,7 +4179,7 @@
         <f>Résultats!$J$20</f>
         <v>2</v>
       </c>
-      <c r="N6" s="253">
+      <c r="N6" s="249">
         <f>Résultats!$J$21</f>
         <v>4</v>
       </c>
@@ -4187,9 +4187,9 @@
         <f>Résultats!$J$24</f>
         <v>2</v>
       </c>
-      <c r="P6" s="109">
+      <c r="P6" s="249">
         <f>Résultats!$J$25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="111">
         <f>Résultats!$J$27</f>
@@ -4199,7 +4199,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="303"/>
+      <c r="S6" s="267"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="303"/>
+      <c r="AB6" s="267"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="303"/>
+      <c r="AG6" s="267"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="303"/>
+      <c r="AJ6" s="267"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4269,22 +4269,22 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="243"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="173"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="239"/>
+      <c r="I7" s="237"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
-      <c r="L7" s="243"/>
+      <c r="L7" s="241"/>
       <c r="M7" s="173"/>
-      <c r="N7" s="254"/>
+      <c r="N7" s="250"/>
       <c r="O7" s="173"/>
-      <c r="P7" s="118"/>
+      <c r="P7" s="250"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="303"/>
+      <c r="S7" s="267"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4293,15 +4293,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="303"/>
+      <c r="AB7" s="267"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="303"/>
+      <c r="AG7" s="267"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="303"/>
+      <c r="AJ7" s="267"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="244" t="str">
+      <c r="D8" s="242" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
@@ -4331,7 +4331,7 @@
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="240" t="str">
+      <c r="I8" s="238" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4343,7 +4343,7 @@
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="244" t="str">
+      <c r="L8" s="242" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
@@ -4351,7 +4351,7 @@
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="255" t="str">
+      <c r="N8" s="251" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
@@ -4359,7 +4359,7 @@
         <f>Résultats!$B$24</f>
         <v>NASHVILLE</v>
       </c>
-      <c r="P8" s="176" t="str">
+      <c r="P8" s="251" t="str">
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
@@ -4371,7 +4371,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="303"/>
+      <c r="S8" s="267"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v xml:space="preserve"> </v>
@@ -4404,7 +4404,7 @@
         <f>Résultats!$N$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB8" s="303"/>
+      <c r="AB8" s="267"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4421,7 +4421,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="303"/>
+      <c r="AG8" s="267"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4430,7 +4430,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="303"/>
+      <c r="AJ8" s="267"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="245" t="str">
+      <c r="D9" s="243" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
@@ -4464,7 +4464,7 @@
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="241" t="str">
+      <c r="I9" s="239" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4476,7 +4476,7 @@
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="245" t="str">
+      <c r="L9" s="243" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
@@ -4484,7 +4484,7 @@
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="256" t="str">
+      <c r="N9" s="252" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
@@ -4492,7 +4492,7 @@
         <f>Résultats!$A$24</f>
         <v>P1</v>
       </c>
-      <c r="P9" s="182" t="str">
+      <c r="P9" s="252" t="str">
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
@@ -4504,7 +4504,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="305"/>
+      <c r="S9" s="269"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v xml:space="preserve"> </v>
@@ -4537,7 +4537,7 @@
         <f>Résultats!$M$25</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB9" s="304"/>
+      <c r="AB9" s="268"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4554,7 +4554,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="304"/>
+      <c r="AG9" s="268"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4563,7 +4563,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="305"/>
+      <c r="AJ9" s="269"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
       <c r="Y10" s="188"/>
-      <c r="Z10" s="247"/>
+      <c r="Z10" s="245"/>
       <c r="AA10" s="193"/>
       <c r="AB10" s="194">
         <f>SUM(T11:AA11)</f>
@@ -4973,14 +4973,14 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
@@ -4988,25 +4988,25 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
+        <v>4</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="44">
         <v>5</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45">
+      <c r="N14" s="45"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45">
         <v>7</v>
       </c>
-      <c r="O14" s="44">
-        <v>6</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="48">
+      <c r="Q14" s="48"/>
+      <c r="R14" s="50">
         <v>7</v>
       </c>
-      <c r="R14" s="50"/>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
         <v>30</v>
@@ -5016,7 +5016,7 @@
       <c r="V14" s="44"/>
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="45"/>
+      <c r="Y14" s="127"/>
       <c r="Z14" s="48"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="129">
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="47"/>
+      <c r="AD14" s="308"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="129">
@@ -5079,12 +5079,12 @@
       <c r="L15" s="150"/>
       <c r="M15" s="132">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N15" s="150"/>
       <c r="O15" s="126">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
@@ -5191,7 +5191,7 @@
         <f>IF(ISBLANK(N14),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="124">
         <f>IF(ISBLANK(O14),
@@ -5203,7 +5203,7 @@
         <f>IF(ISBLANK(P14),
 0,
 IF(P$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="124">
         <f>IF(ISBLANK(Q14),
@@ -5369,17 +5369,17 @@
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="211" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="199"/>
       <c r="E18" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="199"/>
       <c r="G18" s="201">
@@ -5387,35 +5387,35 @@
       </c>
       <c r="H18" s="202"/>
       <c r="I18" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="202"/>
       <c r="K18" s="203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="202"/>
-      <c r="M18" s="200">
-        <v>5</v>
-      </c>
-      <c r="N18" s="199"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="199">
+      <c r="M18" s="200"/>
+      <c r="N18" s="199">
         <v>7</v>
       </c>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="204">
+      <c r="O18" s="200">
+        <v>6</v>
+      </c>
+      <c r="P18" s="199"/>
+      <c r="Q18" s="201">
         <v>7</v>
       </c>
-      <c r="S18" s="248">
+      <c r="R18" s="204"/>
+      <c r="S18" s="246">
         <f>SUM(C19:R19)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
       <c r="V18" s="200"/>
       <c r="W18" s="202"/>
       <c r="X18" s="203"/>
-      <c r="Y18" s="237"/>
+      <c r="Y18" s="199"/>
       <c r="Z18" s="201"/>
       <c r="AA18" s="204"/>
       <c r="AB18" s="205">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="201"/>
-      <c r="AD18" s="234"/>
+      <c r="AD18" s="202"/>
       <c r="AE18" s="203"/>
       <c r="AF18" s="202"/>
       <c r="AG18" s="205">
@@ -5438,11 +5438,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5478,12 +5478,12 @@
       <c r="L19" s="150"/>
       <c r="M19" s="126">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N19" s="150"/>
       <c r="O19" s="126">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
@@ -5590,7 +5590,7 @@
         <f>IF(ISBLANK(N18),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="124">
         <f>IF(ISBLANK(O18),
@@ -5636,7 +5636,7 @@
       <c r="AJ20" s="147"/>
       <c r="AK20" s="148">
         <f>SUM(C20:AI20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="130"/>
     </row>
@@ -5829,7 +5829,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="235"/>
+      <c r="AH22" s="234"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="129">
         <f>AH23</f>
@@ -6170,38 +6170,38 @@
         <v>4</v>
       </c>
       <c r="B26" s="211" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C26" s="198">
         <v>5</v>
       </c>
       <c r="D26" s="199"/>
       <c r="E26" s="200">
+        <v>6</v>
+      </c>
+      <c r="F26" s="199"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="202">
         <v>7</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="201">
-        <v>5</v>
-      </c>
-      <c r="H26" s="202"/>
-      <c r="I26" s="200">
+      <c r="I26" s="200"/>
+      <c r="J26" s="202">
         <v>6</v>
       </c>
-      <c r="J26" s="202"/>
       <c r="K26" s="203">
         <v>5</v>
       </c>
       <c r="L26" s="202"/>
-      <c r="M26" s="200">
+      <c r="M26" s="200"/>
+      <c r="N26" s="199">
         <v>6</v>
       </c>
-      <c r="N26" s="199"/>
       <c r="O26" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" s="199"/>
       <c r="Q26" s="201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" s="204"/>
       <c r="S26" s="205">
@@ -6214,7 +6214,7 @@
       <c r="W26" s="202"/>
       <c r="X26" s="203"/>
       <c r="Y26" s="199"/>
-      <c r="Z26" s="208"/>
+      <c r="Z26" s="201"/>
       <c r="AA26" s="204"/>
       <c r="AB26" s="205">
         <f>SUM(T27:AA27)</f>
@@ -6266,7 +6266,7 @@
       <c r="H27" s="150"/>
       <c r="I27" s="126">
         <f>(IF($I26&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I26=$I$6+$J$6,$O$103,0),0),0)+IF($J26&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J26=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J27" s="151"/>
       <c r="K27" s="152">
@@ -6276,7 +6276,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="126">
         <f>(IF($M26&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M26=$M$6+$N$6,$O$103,0),0),0)+IF($N26&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N26=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N27" s="150"/>
       <c r="O27" s="126">
@@ -6358,7 +6358,7 @@
         <f>IF(ISBLANK(I26),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="124">
         <f>IF(ISBLANK(J26),
@@ -6388,7 +6388,7 @@
         <f>IF(ISBLANK(N26),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="124">
         <f>IF(ISBLANK(O26),
@@ -6513,7 +6513,7 @@
         <f>IF(N28 = 0,
 0,
 IF(N26 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="124">
         <f>IF(O28 = 0,
@@ -6559,7 +6559,7 @@
       <c r="AJ29" s="147"/>
       <c r="AK29" s="148">
         <f>SUM(C29:AI29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="130"/>
     </row>
@@ -6569,40 +6569,40 @@
         <v>4</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C30" s="46">
         <v>5</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="48">
         <v>5</v>
       </c>
       <c r="H30" s="47"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="47">
+      <c r="I30" s="44">
         <v>6</v>
       </c>
+      <c r="J30" s="47"/>
       <c r="K30" s="49">
         <v>5</v>
       </c>
       <c r="L30" s="47"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="45">
+      <c r="M30" s="44">
         <v>6</v>
       </c>
+      <c r="N30" s="45"/>
       <c r="O30" s="44">
         <v>5</v>
       </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="50">
-        <v>6</v>
-      </c>
+      <c r="Q30" s="48">
+        <v>7</v>
+      </c>
+      <c r="R30" s="50"/>
       <c r="S30" s="129">
         <f>SUM(C31:R31)</f>
         <v>23</v>
@@ -6613,7 +6613,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
       <c r="Y30" s="45"/>
-      <c r="Z30" s="48"/>
+      <c r="Z30" s="244"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
         <f>SUM(T31:AA31)</f>
@@ -6627,7 +6627,7 @@
         <f>SUM(AC31:AF31)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="249"/>
+      <c r="AH30" s="107"/>
       <c r="AI30" s="57"/>
       <c r="AJ30" s="129">
         <f>AH31</f>
@@ -6665,7 +6665,7 @@
       <c r="H31" s="80"/>
       <c r="I31" s="81">
         <f>(IF($I30&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I30=$I$6+$J$6,$O$103,0),0),0)+IF($J30&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J30=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J31" s="82"/>
       <c r="K31" s="83">
@@ -6675,7 +6675,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6757,7 +6757,7 @@
         <f>IF(ISBLANK(I30),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="124">
         <f>IF(ISBLANK(J30),
@@ -6787,7 +6787,7 @@
         <f>IF(ISBLANK(N30),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="124">
         <f>IF(ISBLANK(O30),
@@ -6912,7 +6912,7 @@
         <f>IF(N32 = 0,
 0,
 IF(N30 = (M$6+N$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="124">
         <f>IF(O32 = 0,
@@ -6958,7 +6958,7 @@
       <c r="AJ33" s="147"/>
       <c r="AK33" s="148">
         <f>SUM(C33:AI33)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="130"/>
     </row>
@@ -6968,18 +6968,18 @@
         <v>4</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C34" s="198">
         <v>5</v>
       </c>
       <c r="D34" s="199"/>
       <c r="E34" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="199"/>
       <c r="G34" s="201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="202"/>
       <c r="I34" s="200"/>
@@ -6995,13 +6995,13 @@
         <v>6</v>
       </c>
       <c r="O34" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P34" s="199"/>
-      <c r="Q34" s="201">
+      <c r="Q34" s="201"/>
+      <c r="R34" s="204">
         <v>6</v>
       </c>
-      <c r="R34" s="204"/>
       <c r="S34" s="205">
         <f>SUM(C35:R35)</f>
         <v>23</v>
@@ -7026,7 +7026,7 @@
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="309"/>
+      <c r="AH34" s="253"/>
       <c r="AI34" s="196"/>
       <c r="AJ34" s="205">
         <f>AH35</f>
@@ -7367,23 +7367,23 @@
         <v>4</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="46">
         <v>5</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38" s="47"/>
       <c r="I38" s="44"/>
       <c r="J38" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" s="49">
         <v>5</v>
@@ -7397,10 +7397,10 @@
         <v>7</v>
       </c>
       <c r="P38" s="45"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="50">
+      <c r="Q38" s="48">
         <v>6</v>
       </c>
+      <c r="R38" s="50"/>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
         <v>23</v>
@@ -7425,7 +7425,7 @@
         <f>SUM(AC39:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="107"/>
+      <c r="AH38" s="247"/>
       <c r="AI38" s="57"/>
       <c r="AJ38" s="129">
         <f>AH39</f>
@@ -7763,10 +7763,10 @@
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" s="198">
         <v>5</v>
@@ -7776,13 +7776,13 @@
         <v>6</v>
       </c>
       <c r="F42" s="199"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="202">
-        <v>7</v>
-      </c>
+      <c r="G42" s="201">
+        <v>6</v>
+      </c>
+      <c r="H42" s="202"/>
       <c r="I42" s="200"/>
       <c r="J42" s="202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" s="203">
         <v>5</v>
@@ -7793,16 +7793,16 @@
         <v>6</v>
       </c>
       <c r="O42" s="200">
+        <v>7</v>
+      </c>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="201"/>
+      <c r="R42" s="204">
         <v>6</v>
       </c>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="201">
-        <v>6</v>
-      </c>
-      <c r="R42" s="204"/>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -7832,11 +7832,11 @@
       </c>
       <c r="AK42" s="207">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
       <c r="F43" s="80"/>
       <c r="G43" s="81">
         <f>(IF($G42&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G42=$G$6+$H$6,$O$103,0),0),0)+IF($H42&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H42=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="80"/>
       <c r="I43" s="121">
@@ -8209,7 +8209,7 @@
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
       <c r="Y46" s="45"/>
-      <c r="Z46" s="246"/>
+      <c r="Z46" s="244"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="129">
         <f>SUM(T47:AA47)</f>
@@ -8561,7 +8561,7 @@
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="211" t="s">
         <v>73</v>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -8630,11 +8630,11 @@
       </c>
       <c r="AK50" s="207">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8655,7 +8655,7 @@
       <c r="F51" s="134"/>
       <c r="G51" s="132">
         <f>(IF($G50&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G50=$G$6+$H$6,$O$103,0),0),0)+IF($H50&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H50=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="134"/>
       <c r="I51" s="135">
@@ -8960,47 +8960,47 @@
         <v>12</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45">
-        <v>7</v>
-      </c>
-      <c r="G54" s="48">
-        <v>4</v>
-      </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="44"/>
+      <c r="E54" s="306">
+        <v>6</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="307"/>
+      <c r="H54" s="47">
+        <v>6</v>
+      </c>
+      <c r="I54" s="306"/>
       <c r="J54" s="47">
         <v>7</v>
       </c>
       <c r="K54" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N54" s="45"/>
       <c r="O54" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P54" s="45"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="50">
+      <c r="Q54" s="48">
         <v>6</v>
       </c>
+      <c r="R54" s="50"/>
       <c r="S54" s="129">
         <f>SUM(C55:R55)</f>
         <v>14</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
-      <c r="V54" s="44"/>
+      <c r="V54" s="248"/>
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
       <c r="Y54" s="127"/>
@@ -9356,34 +9356,34 @@
         <v>12</v>
       </c>
       <c r="B58" s="211" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="198">
+        <v>5</v>
+      </c>
+      <c r="D58" s="199"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="199">
+        <v>7</v>
+      </c>
+      <c r="G58" s="201">
         <v>4</v>
-      </c>
-      <c r="D58" s="199"/>
-      <c r="E58" s="200">
-        <v>4</v>
-      </c>
-      <c r="F58" s="199"/>
-      <c r="G58" s="201">
-        <v>6</v>
       </c>
       <c r="H58" s="202"/>
       <c r="I58" s="200"/>
       <c r="J58" s="202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K58" s="203">
         <v>6</v>
       </c>
       <c r="L58" s="202"/>
       <c r="M58" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N58" s="199"/>
       <c r="O58" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P58" s="199"/>
       <c r="Q58" s="201"/>
@@ -9399,15 +9399,15 @@
       <c r="V58" s="200"/>
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
-      <c r="Y58" s="199"/>
-      <c r="Z58" s="208"/>
+      <c r="Y58" s="235"/>
+      <c r="Z58" s="201"/>
       <c r="AA58" s="202"/>
       <c r="AB58" s="205">
         <f>SUM(T59:AA59)</f>
         <v>0</v>
       </c>
       <c r="AC58" s="201"/>
-      <c r="AD58" s="234"/>
+      <c r="AD58" s="202"/>
       <c r="AE58" s="203"/>
       <c r="AF58" s="202"/>
       <c r="AG58" s="205">
@@ -9752,18 +9752,18 @@
         <v>12</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C62" s="46">
+        <v>4</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="44">
+        <v>4</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="48">
         <v>6</v>
-      </c>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45">
-        <v>7</v>
-      </c>
-      <c r="G62" s="48">
-        <v>7</v>
       </c>
       <c r="H62" s="47"/>
       <c r="I62" s="44"/>
@@ -9775,11 +9775,11 @@
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N62" s="45"/>
       <c r="O62" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P62" s="45"/>
       <c r="Q62" s="48"/>
@@ -9796,14 +9796,14 @@
       <c r="W62" s="47"/>
       <c r="X62" s="49"/>
       <c r="Y62" s="45"/>
-      <c r="Z62" s="48"/>
+      <c r="Z62" s="244"/>
       <c r="AA62" s="47"/>
       <c r="AB62" s="129">
         <f>SUM(T63:AA63)</f>
         <v>0</v>
       </c>
       <c r="AC62" s="48"/>
-      <c r="AD62" s="47"/>
+      <c r="AD62" s="308"/>
       <c r="AE62" s="49"/>
       <c r="AF62" s="47"/>
       <c r="AG62" s="129">
@@ -10148,38 +10148,38 @@
         <v>12</v>
       </c>
       <c r="B66" s="211" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="310">
+        <v>84</v>
+      </c>
+      <c r="C66" s="198">
+        <v>6</v>
+      </c>
+      <c r="D66" s="199"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="199">
+        <v>7</v>
+      </c>
+      <c r="G66" s="201">
+        <v>7</v>
+      </c>
+      <c r="H66" s="202"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="202">
+        <v>6</v>
+      </c>
+      <c r="K66" s="203">
+        <v>6</v>
+      </c>
+      <c r="L66" s="202"/>
+      <c r="M66" s="200">
+        <v>7</v>
+      </c>
+      <c r="N66" s="199"/>
+      <c r="O66" s="200">
         <v>5</v>
       </c>
-      <c r="D66" s="311"/>
-      <c r="E66" s="312">
-        <v>6</v>
-      </c>
-      <c r="F66" s="311"/>
-      <c r="G66" s="313">
-        <v>5</v>
-      </c>
-      <c r="H66" s="314"/>
-      <c r="I66" s="312"/>
-      <c r="J66" s="314">
-        <v>6</v>
-      </c>
-      <c r="K66" s="315">
-        <v>6</v>
-      </c>
-      <c r="L66" s="314"/>
-      <c r="M66" s="312">
-        <v>7</v>
-      </c>
-      <c r="N66" s="311"/>
-      <c r="O66" s="312">
-        <v>6</v>
-      </c>
-      <c r="P66" s="311"/>
-      <c r="Q66" s="313"/>
-      <c r="R66" s="316">
+      <c r="P66" s="199"/>
+      <c r="Q66" s="201"/>
+      <c r="R66" s="204">
         <v>6</v>
       </c>
       <c r="S66" s="205">
@@ -10544,45 +10544,45 @@
         <v>12</v>
       </c>
       <c r="B70" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="46">
+        <v>68</v>
+      </c>
+      <c r="C70" s="309">
         <v>5</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="45">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311">
+        <v>6</v>
+      </c>
+      <c r="F70" s="310"/>
+      <c r="G70" s="312">
+        <v>5</v>
+      </c>
+      <c r="H70" s="313"/>
+      <c r="I70" s="311"/>
+      <c r="J70" s="313">
+        <v>6</v>
+      </c>
+      <c r="K70" s="314">
+        <v>6</v>
+      </c>
+      <c r="L70" s="313"/>
+      <c r="M70" s="311">
         <v>7</v>
       </c>
-      <c r="G70" s="48">
+      <c r="N70" s="310"/>
+      <c r="O70" s="311">
         <v>6</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="47">
-        <v>7</v>
-      </c>
-      <c r="K70" s="49">
-        <v>5</v>
-      </c>
-      <c r="L70" s="47"/>
-      <c r="M70" s="44">
+      <c r="P70" s="310"/>
+      <c r="Q70" s="312"/>
+      <c r="R70" s="315">
         <v>6</v>
-      </c>
-      <c r="N70" s="45"/>
-      <c r="O70" s="44">
-        <v>7</v>
-      </c>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="50">
-        <v>7</v>
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
         <v>14</v>
       </c>
-      <c r="T70" s="236"/>
+      <c r="T70" s="46"/>
       <c r="U70" s="47"/>
       <c r="V70" s="44"/>
       <c r="W70" s="47"/>
@@ -10940,16 +10940,16 @@
         <v>12</v>
       </c>
       <c r="B74" s="211" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" s="198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="199"/>
-      <c r="E74" s="200">
-        <v>6</v>
-      </c>
-      <c r="F74" s="199"/>
+      <c r="E74" s="200"/>
+      <c r="F74" s="199">
+        <v>7</v>
+      </c>
       <c r="G74" s="201">
         <v>6</v>
       </c>
@@ -10963,22 +10963,22 @@
       </c>
       <c r="L74" s="202"/>
       <c r="M74" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N74" s="199"/>
       <c r="O74" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P74" s="199"/>
       <c r="Q74" s="201"/>
       <c r="R74" s="204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
         <v>14</v>
       </c>
-      <c r="T74" s="198"/>
+      <c r="T74" s="316"/>
       <c r="U74" s="202"/>
       <c r="V74" s="200"/>
       <c r="W74" s="202"/>
@@ -11336,10 +11336,10 @@
         <v>12</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
@@ -11352,18 +11352,18 @@
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K78" s="49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="45"/>
       <c r="O78" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48"/>
@@ -11732,7 +11732,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="211" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C82" s="198">
         <v>5</v>
@@ -11751,20 +11751,20 @@
         <v>6</v>
       </c>
       <c r="K82" s="203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L82" s="202"/>
       <c r="M82" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N82" s="199"/>
       <c r="O82" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P82" s="199"/>
       <c r="Q82" s="201"/>
       <c r="R82" s="204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
@@ -11776,7 +11776,7 @@
       <c r="W82" s="202"/>
       <c r="X82" s="203"/>
       <c r="Y82" s="199"/>
-      <c r="Z82" s="208"/>
+      <c r="Z82" s="201"/>
       <c r="AA82" s="202"/>
       <c r="AB82" s="205">
         <f>SUM(T83:AA83)</f>
@@ -12128,40 +12128,40 @@
         <v>12</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C86" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K86" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L86" s="47"/>
       <c r="M86" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N86" s="45"/>
       <c r="O86" s="44">
+        <v>6</v>
+      </c>
+      <c r="P86" s="45"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="50">
         <v>7</v>
       </c>
-      <c r="P86" s="45"/>
-      <c r="Q86" s="48">
-        <v>5</v>
-      </c>
-      <c r="R86" s="50"/>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
         <v>14</v>
@@ -12172,7 +12172,7 @@
       <c r="W86" s="47"/>
       <c r="X86" s="49"/>
       <c r="Y86" s="45"/>
-      <c r="Z86" s="48"/>
+      <c r="Z86" s="244"/>
       <c r="AA86" s="47"/>
       <c r="AB86" s="129">
         <f>SUM(T87:AA87)</f>
@@ -12524,7 +12524,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="211" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C90" s="198">
         <v>6</v>
@@ -12535,12 +12535,12 @@
       </c>
       <c r="F90" s="199"/>
       <c r="G90" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H90" s="202"/>
       <c r="I90" s="200"/>
       <c r="J90" s="202">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K90" s="203">
         <v>7</v>
@@ -12551,13 +12551,13 @@
       </c>
       <c r="N90" s="199"/>
       <c r="O90" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P90" s="199"/>
-      <c r="Q90" s="201"/>
-      <c r="R90" s="204">
-        <v>7</v>
-      </c>
+      <c r="Q90" s="201">
+        <v>5</v>
+      </c>
+      <c r="R90" s="204"/>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
         <v>14</v>
@@ -12917,53 +12917,53 @@
     <row r="94" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <f>RANK(AL94,$AL$10:$AL$97,)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C94" s="226">
+        <v>6</v>
+      </c>
+      <c r="D94" s="227"/>
+      <c r="E94" s="228">
         <v>7</v>
       </c>
-      <c r="D94" s="227"/>
-      <c r="E94" s="250">
+      <c r="F94" s="227"/>
+      <c r="G94" s="229">
         <v>6</v>
       </c>
-      <c r="F94" s="227"/>
-      <c r="G94" s="251"/>
-      <c r="H94" s="230">
-        <v>6</v>
-      </c>
-      <c r="I94" s="250"/>
+      <c r="H94" s="230"/>
+      <c r="I94" s="228"/>
       <c r="J94" s="230">
         <v>7</v>
       </c>
       <c r="K94" s="231">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L94" s="230"/>
       <c r="M94" s="228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N94" s="227"/>
       <c r="O94" s="228">
         <v>6</v>
       </c>
       <c r="P94" s="227"/>
-      <c r="Q94" s="229">
-        <v>6</v>
-      </c>
-      <c r="R94" s="232"/>
+      <c r="Q94" s="229"/>
+      <c r="R94" s="232">
+        <v>7</v>
+      </c>
       <c r="S94" s="129">
         <f>SUM(C95:R95)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T94" s="46"/>
       <c r="U94" s="47"/>
-      <c r="V94" s="252"/>
+      <c r="V94" s="44"/>
       <c r="W94" s="47"/>
       <c r="X94" s="49"/>
-      <c r="Y94" s="127"/>
+      <c r="Y94" s="45"/>
       <c r="Z94" s="48"/>
       <c r="AA94" s="47"/>
       <c r="AB94" s="218">
@@ -12986,11 +12986,11 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -13011,7 +13011,7 @@
       <c r="F95" s="134"/>
       <c r="G95" s="132">
         <f>(IF($G94&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G94=$G$6+$H$6,$O$103,0),0),0)+IF($H94&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H94=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" s="134"/>
       <c r="I95" s="135">
@@ -13443,12 +13443,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="290" t="s">
+      <c r="O100" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="291"/>
-      <c r="Q100" s="291"/>
-      <c r="R100" s="292"/>
+      <c r="P100" s="255"/>
+      <c r="Q100" s="255"/>
+      <c r="R100" s="256"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13457,21 +13457,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="278" t="s">
+      <c r="B101" s="283" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="279"/>
-      <c r="D101" s="279"/>
-      <c r="E101" s="279"/>
-      <c r="F101" s="279"/>
-      <c r="G101" s="279"/>
-      <c r="H101" s="279"/>
-      <c r="I101" s="279"/>
-      <c r="J101" s="279"/>
-      <c r="K101" s="279"/>
-      <c r="L101" s="279"/>
-      <c r="M101" s="279"/>
-      <c r="N101" s="280"/>
+      <c r="C101" s="284"/>
+      <c r="D101" s="284"/>
+      <c r="E101" s="284"/>
+      <c r="F101" s="284"/>
+      <c r="G101" s="284"/>
+      <c r="H101" s="284"/>
+      <c r="I101" s="284"/>
+      <c r="J101" s="284"/>
+      <c r="K101" s="284"/>
+      <c r="L101" s="284"/>
+      <c r="M101" s="284"/>
+      <c r="N101" s="285"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13484,45 +13484,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="293" t="s">
+      <c r="U101" s="257" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="294"/>
-      <c r="W101" s="294"/>
-      <c r="X101" s="294"/>
-      <c r="Y101" s="294"/>
-      <c r="Z101" s="294"/>
-      <c r="AA101" s="294"/>
-      <c r="AB101" s="294"/>
-      <c r="AC101" s="294"/>
-      <c r="AD101" s="295"/>
+      <c r="V101" s="258"/>
+      <c r="W101" s="258"/>
+      <c r="X101" s="258"/>
+      <c r="Y101" s="258"/>
+      <c r="Z101" s="258"/>
+      <c r="AA101" s="258"/>
+      <c r="AB101" s="258"/>
+      <c r="AC101" s="258"/>
+      <c r="AD101" s="259"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="296" t="s">
+      <c r="AG101" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="297"/>
-      <c r="AI101" s="297"/>
-      <c r="AJ101" s="297"/>
-      <c r="AK101" s="298"/>
+      <c r="AH101" s="261"/>
+      <c r="AI101" s="261"/>
+      <c r="AJ101" s="261"/>
+      <c r="AK101" s="262"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="257" t="s">
+      <c r="B102" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="258"/>
-      <c r="D102" s="258"/>
-      <c r="E102" s="258"/>
-      <c r="F102" s="258"/>
-      <c r="G102" s="258"/>
-      <c r="H102" s="258"/>
-      <c r="I102" s="258"/>
-      <c r="J102" s="258"/>
-      <c r="K102" s="258"/>
-      <c r="L102" s="258"/>
-      <c r="M102" s="258"/>
-      <c r="N102" s="259"/>
+      <c r="C102" s="291"/>
+      <c r="D102" s="291"/>
+      <c r="E102" s="291"/>
+      <c r="F102" s="291"/>
+      <c r="G102" s="291"/>
+      <c r="H102" s="291"/>
+      <c r="I102" s="291"/>
+      <c r="J102" s="291"/>
+      <c r="K102" s="291"/>
+      <c r="L102" s="291"/>
+      <c r="M102" s="291"/>
+      <c r="N102" s="292"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13535,49 +13535,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="283" t="s">
+      <c r="U102" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="284"/>
-      <c r="W102" s="284"/>
-      <c r="X102" s="284"/>
-      <c r="Y102" s="284"/>
-      <c r="Z102" s="284"/>
-      <c r="AA102" s="284"/>
-      <c r="AB102" s="281">
+      <c r="V102" s="289"/>
+      <c r="W102" s="289"/>
+      <c r="X102" s="289"/>
+      <c r="Y102" s="289"/>
+      <c r="Z102" s="289"/>
+      <c r="AA102" s="289"/>
+      <c r="AB102" s="286">
         <v>22</v>
       </c>
-      <c r="AC102" s="281"/>
-      <c r="AD102" s="282"/>
+      <c r="AC102" s="286"/>
+      <c r="AD102" s="287"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="264" t="s">
+      <c r="AG102" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="265"/>
-      <c r="AI102" s="265"/>
-      <c r="AJ102" s="266"/>
+      <c r="AH102" s="303"/>
+      <c r="AI102" s="303"/>
+      <c r="AJ102" s="304"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="257" t="s">
+      <c r="B103" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="258"/>
-      <c r="D103" s="258"/>
-      <c r="E103" s="258"/>
-      <c r="F103" s="258"/>
-      <c r="G103" s="258"/>
-      <c r="H103" s="258"/>
-      <c r="I103" s="258"/>
-      <c r="J103" s="258"/>
-      <c r="K103" s="258"/>
-      <c r="L103" s="258"/>
-      <c r="M103" s="258"/>
-      <c r="N103" s="259"/>
+      <c r="C103" s="291"/>
+      <c r="D103" s="291"/>
+      <c r="E103" s="291"/>
+      <c r="F103" s="291"/>
+      <c r="G103" s="291"/>
+      <c r="H103" s="291"/>
+      <c r="I103" s="291"/>
+      <c r="J103" s="291"/>
+      <c r="K103" s="291"/>
+      <c r="L103" s="291"/>
+      <c r="M103" s="291"/>
+      <c r="N103" s="292"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13590,49 +13590,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="262" t="s">
+      <c r="U103" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="263"/>
-      <c r="W103" s="263"/>
-      <c r="X103" s="263"/>
-      <c r="Y103" s="263"/>
-      <c r="Z103" s="263"/>
-      <c r="AA103" s="263"/>
-      <c r="AB103" s="288">
+      <c r="V103" s="298"/>
+      <c r="W103" s="298"/>
+      <c r="X103" s="298"/>
+      <c r="Y103" s="298"/>
+      <c r="Z103" s="298"/>
+      <c r="AA103" s="298"/>
+      <c r="AB103" s="299">
         <v>20</v>
       </c>
-      <c r="AC103" s="288"/>
-      <c r="AD103" s="289"/>
+      <c r="AC103" s="299"/>
+      <c r="AD103" s="300"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="267" t="s">
+      <c r="AG103" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="258"/>
-      <c r="AI103" s="258"/>
-      <c r="AJ103" s="259"/>
+      <c r="AH103" s="291"/>
+      <c r="AI103" s="291"/>
+      <c r="AJ103" s="292"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="271" t="s">
+      <c r="B104" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="272"/>
-      <c r="D104" s="272"/>
-      <c r="E104" s="272"/>
-      <c r="F104" s="272"/>
-      <c r="G104" s="272"/>
-      <c r="H104" s="272"/>
-      <c r="I104" s="272"/>
-      <c r="J104" s="272"/>
-      <c r="K104" s="272"/>
-      <c r="L104" s="272"/>
-      <c r="M104" s="272"/>
-      <c r="N104" s="273"/>
+      <c r="C104" s="277"/>
+      <c r="D104" s="277"/>
+      <c r="E104" s="277"/>
+      <c r="F104" s="277"/>
+      <c r="G104" s="277"/>
+      <c r="H104" s="277"/>
+      <c r="I104" s="277"/>
+      <c r="J104" s="277"/>
+      <c r="K104" s="277"/>
+      <c r="L104" s="277"/>
+      <c r="M104" s="277"/>
+      <c r="N104" s="278"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13645,51 +13645,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="285" t="s">
+      <c r="U104" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="261"/>
-      <c r="W104" s="261"/>
-      <c r="X104" s="261"/>
-      <c r="Y104" s="261"/>
-      <c r="Z104" s="261"/>
-      <c r="AA104" s="261"/>
-      <c r="AB104" s="286">
+      <c r="V104" s="294"/>
+      <c r="W104" s="294"/>
+      <c r="X104" s="294"/>
+      <c r="Y104" s="294"/>
+      <c r="Z104" s="294"/>
+      <c r="AA104" s="294"/>
+      <c r="AB104" s="295">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="286"/>
-      <c r="AD104" s="287"/>
+      <c r="AC104" s="295"/>
+      <c r="AD104" s="296"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="267" t="s">
+      <c r="AG104" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="258"/>
-      <c r="AI104" s="258"/>
-      <c r="AJ104" s="259"/>
+      <c r="AH104" s="291"/>
+      <c r="AI104" s="291"/>
+      <c r="AJ104" s="292"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="262" t="s">
+      <c r="AG105" s="297" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="263"/>
-      <c r="AI105" s="263"/>
-      <c r="AJ105" s="263"/>
+      <c r="AH105" s="298"/>
+      <c r="AI105" s="298"/>
+      <c r="AJ105" s="298"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="260" t="s">
+      <c r="AG106" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="261"/>
-      <c r="AI106" s="261"/>
-      <c r="AJ106" s="261"/>
+      <c r="AH106" s="294"/>
+      <c r="AI106" s="294"/>
+      <c r="AJ106" s="294"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13701,6 +13701,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -13717,28 +13739,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14395,7 +14395,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14800,7 +14800,9 @@
       <c r="G10" s="86">
         <v>6</v>
       </c>
-      <c r="H10" s="85"/>
+      <c r="H10" s="85">
+        <v>2</v>
+      </c>
       <c r="I10" s="86"/>
       <c r="J10" s="77">
         <f>IF(C10&gt;C11,1,0)+IF(D10&gt;D11,1,0)+IF(E10&gt;E11,1,0)+IF(F10&gt;F11,1,0)+IF(G10&gt;G11,1,0)+IF(H10&gt;H11,1,0)+IF(I10&gt;I11,1,0)</f>
@@ -14861,11 +14863,13 @@
       <c r="G11" s="86">
         <v>0</v>
       </c>
-      <c r="H11" s="85"/>
+      <c r="H11" s="85">
+        <v>5</v>
+      </c>
       <c r="I11" s="86"/>
       <c r="J11" s="77">
         <f>IF(C11&gt;C10,1,0)+IF(D11&gt;D10,1,0)+IF(E11&gt;E10,1,0)+IF(F11&gt;F10,1,0)+IF(G11&gt;G10,1,0)+IF(H11&gt;H10,1,0)+IF(I11&gt;I10,1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="4"/>
@@ -15481,7 +15485,9 @@
       <c r="G24" s="85">
         <v>3</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="85">
+        <v>2</v>
+      </c>
       <c r="I24" s="86"/>
       <c r="J24" s="77">
         <f>IF(C24&gt;C25,1,0)+IF(D24&gt;D25,1,0)+IF(E24&gt;E25,1,0)+IF(F24&gt;F25,1,0)+IF(G24&gt;G25,1,0)+IF(H24&gt;H25,1,0)+IF(I24&gt;I25,1,0)</f>
@@ -15540,11 +15546,13 @@
       <c r="G25" s="85">
         <v>5</v>
       </c>
-      <c r="H25" s="85"/>
+      <c r="H25" s="85">
+        <v>4</v>
+      </c>
       <c r="I25" s="86"/>
       <c r="J25" s="77">
         <f>IF(C25&gt;C24,1,0)+IF(D25&gt;D24,1,0)+IF(E25&gt;E24,1,0)+IF(F25&gt;F24,1,0)+IF(G25&gt;G24,1,0)+IF(H25&gt;H24,1,0)+IF(I25&gt;I24,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="4"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1960,7 +1960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2447,9 +2447,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2480,18 +2477,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2507,6 +2495,126 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2558,142 +2666,58 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3917,217 +3941,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
-      <c r="R1" s="280"/>
-      <c r="S1" s="280"/>
-      <c r="T1" s="280"/>
-      <c r="U1" s="280"/>
-      <c r="V1" s="280"/>
-      <c r="W1" s="280"/>
-      <c r="X1" s="280"/>
-      <c r="Y1" s="280"/>
-      <c r="Z1" s="280"/>
-      <c r="AA1" s="280"/>
-      <c r="AB1" s="280"/>
-      <c r="AC1" s="280"/>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="280"/>
-      <c r="AG1" s="280"/>
-      <c r="AH1" s="280"/>
-      <c r="AI1" s="280"/>
-      <c r="AJ1" s="280"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="275"/>
+      <c r="AJ1" s="275"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
-      <c r="O2" s="281"/>
-      <c r="P2" s="281"/>
-      <c r="Q2" s="282" t="s">
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="277" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="280"/>
-      <c r="S2" s="280"/>
-      <c r="T2" s="280"/>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-      <c r="X2" s="280"/>
-      <c r="Y2" s="280"/>
-      <c r="Z2" s="280"/>
-      <c r="AA2" s="280"/>
-      <c r="AB2" s="280"/>
-      <c r="AC2" s="280"/>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="280"/>
-      <c r="AG2" s="280"/>
-      <c r="AH2" s="280"/>
-      <c r="AI2" s="280"/>
-      <c r="AJ2" s="280"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="275"/>
+      <c r="U2" s="275"/>
+      <c r="V2" s="275"/>
+      <c r="W2" s="275"/>
+      <c r="X2" s="275"/>
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="275"/>
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="275"/>
+      <c r="AC2" s="275"/>
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="275"/>
+      <c r="AF2" s="275"/>
+      <c r="AG2" s="275"/>
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="275"/>
+      <c r="AJ2" s="275"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="280"/>
-      <c r="U3" s="280"/>
-      <c r="V3" s="280"/>
-      <c r="W3" s="280"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="280"/>
-      <c r="AA3" s="280"/>
-      <c r="AB3" s="280"/>
-      <c r="AC3" s="280"/>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="280"/>
-      <c r="AG3" s="280"/>
-      <c r="AH3" s="280"/>
-      <c r="AI3" s="280"/>
-      <c r="AJ3" s="280"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="274"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="275"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="275"/>
+      <c r="U3" s="275"/>
+      <c r="V3" s="275"/>
+      <c r="W3" s="275"/>
+      <c r="X3" s="275"/>
+      <c r="Y3" s="275"/>
+      <c r="Z3" s="275"/>
+      <c r="AA3" s="275"/>
+      <c r="AB3" s="275"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="275"/>
+      <c r="AE3" s="275"/>
+      <c r="AF3" s="275"/>
+      <c r="AG3" s="275"/>
+      <c r="AH3" s="275"/>
+      <c r="AI3" s="275"/>
+      <c r="AJ3" s="275"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="263" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="264"/>
-      <c r="P4" s="264"/>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="264"/>
-      <c r="S4" s="265"/>
-      <c r="T4" s="263" t="s">
+      <c r="C4" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="300"/>
+      <c r="O4" s="300"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="301"/>
+      <c r="T4" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="264"/>
-      <c r="V4" s="264"/>
-      <c r="W4" s="264"/>
-      <c r="X4" s="264"/>
-      <c r="Y4" s="264"/>
-      <c r="Z4" s="264"/>
-      <c r="AA4" s="264"/>
-      <c r="AB4" s="265"/>
-      <c r="AC4" s="263" t="s">
+      <c r="U4" s="300"/>
+      <c r="V4" s="300"/>
+      <c r="W4" s="300"/>
+      <c r="X4" s="300"/>
+      <c r="Y4" s="300"/>
+      <c r="Z4" s="300"/>
+      <c r="AA4" s="300"/>
+      <c r="AB4" s="301"/>
+      <c r="AC4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="264"/>
-      <c r="AE4" s="264"/>
-      <c r="AF4" s="264"/>
-      <c r="AG4" s="274"/>
-      <c r="AH4" s="263" t="s">
+      <c r="AD4" s="300"/>
+      <c r="AE4" s="300"/>
+      <c r="AF4" s="300"/>
+      <c r="AG4" s="308"/>
+      <c r="AH4" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="264"/>
-      <c r="AJ4" s="265"/>
+      <c r="AI4" s="300"/>
+      <c r="AJ4" s="301"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="275" t="s">
+      <c r="C5" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="272"/>
-      <c r="K5" s="270" t="s">
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="270"/>
+      <c r="K5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="271"/>
-      <c r="P5" s="271"/>
-      <c r="Q5" s="271"/>
-      <c r="R5" s="272"/>
-      <c r="S5" s="266" t="s">
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="269"/>
+      <c r="P5" s="269"/>
+      <c r="Q5" s="269"/>
+      <c r="R5" s="270"/>
+      <c r="S5" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="275" t="s">
+      <c r="T5" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="271"/>
-      <c r="V5" s="271"/>
-      <c r="W5" s="272"/>
-      <c r="X5" s="270" t="s">
+      <c r="U5" s="269"/>
+      <c r="V5" s="269"/>
+      <c r="W5" s="270"/>
+      <c r="X5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="271"/>
-      <c r="AA5" s="272"/>
-      <c r="AB5" s="266" t="s">
+      <c r="Y5" s="269"/>
+      <c r="Z5" s="269"/>
+      <c r="AA5" s="270"/>
+      <c r="AB5" s="302" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="273" t="s">
+      <c r="AC5" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="272"/>
-      <c r="AE5" s="270" t="s">
+      <c r="AD5" s="270"/>
+      <c r="AE5" s="306" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="266" t="s">
+      <c r="AF5" s="270"/>
+      <c r="AG5" s="302" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="266" t="s">
+      <c r="AJ5" s="302" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4139,13 +4163,13 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="240">
+      <c r="D6" s="239">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="235">
         <f>Résultats!$J$6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="109">
         <f>Résultats!$J$7</f>
@@ -4159,7 +4183,7 @@
         <f>Résultats!$J$11</f>
         <v>3</v>
       </c>
-      <c r="I6" s="236">
+      <c r="I6" s="235">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4171,7 +4195,7 @@
         <f>Résultats!$J$17</f>
         <v>1</v>
       </c>
-      <c r="L6" s="240">
+      <c r="L6" s="239">
         <f>Résultats!$J$18</f>
         <v>4</v>
       </c>
@@ -4179,7 +4203,7 @@
         <f>Résultats!$J$20</f>
         <v>2</v>
       </c>
-      <c r="N6" s="249">
+      <c r="N6" s="245">
         <f>Résultats!$J$21</f>
         <v>4</v>
       </c>
@@ -4187,19 +4211,19 @@
         <f>Résultats!$J$24</f>
         <v>2</v>
       </c>
-      <c r="P6" s="249">
+      <c r="P6" s="245">
         <f>Résultats!$J$25</f>
         <v>4</v>
       </c>
-      <c r="Q6" s="111">
+      <c r="Q6" s="315">
         <f>Résultats!$J$27</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="108">
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="267"/>
+      <c r="S6" s="303"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4232,7 +4256,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="267"/>
+      <c r="AB6" s="303"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4249,7 +4273,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="267"/>
+      <c r="AG6" s="303"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4258,7 +4282,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="267"/>
+      <c r="AJ6" s="303"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4269,22 +4293,22 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="173"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="236"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
       <c r="H7" s="117"/>
-      <c r="I7" s="237"/>
+      <c r="I7" s="236"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
-      <c r="L7" s="241"/>
+      <c r="L7" s="240"/>
       <c r="M7" s="173"/>
-      <c r="N7" s="250"/>
+      <c r="N7" s="246"/>
       <c r="O7" s="173"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="119"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="316"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="267"/>
+      <c r="S7" s="303"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4293,15 +4317,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="267"/>
+      <c r="AB7" s="303"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="267"/>
+      <c r="AG7" s="303"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="267"/>
+      <c r="AJ7" s="303"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4311,11 +4335,11 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="242" t="str">
+      <c r="D8" s="241" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
-      <c r="E8" s="175" t="str">
+      <c r="E8" s="237" t="str">
         <f>Résultats!$B$6</f>
         <v>BOSTON</v>
       </c>
@@ -4331,7 +4355,7 @@
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="238" t="str">
+      <c r="I8" s="237" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4343,7 +4367,7 @@
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="242" t="str">
+      <c r="L8" s="241" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
@@ -4351,7 +4375,7 @@
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="251" t="str">
+      <c r="N8" s="247" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
@@ -4359,11 +4383,11 @@
         <f>Résultats!$B$24</f>
         <v>NASHVILLE</v>
       </c>
-      <c r="P8" s="251" t="str">
+      <c r="P8" s="247" t="str">
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="Q8" s="177" t="str">
+      <c r="Q8" s="317" t="str">
         <f>Résultats!$B$27</f>
         <v>SAN JOSE</v>
       </c>
@@ -4371,14 +4395,14 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="267"/>
+      <c r="S8" s="303"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
-        <v xml:space="preserve"> </v>
+        <v>BOSTON</v>
       </c>
       <c r="U8" s="174" t="str">
         <f>Résultats!$N$7</f>
-        <v xml:space="preserve"> </v>
+        <v>COLUMBUS</v>
       </c>
       <c r="V8" s="175" t="str">
         <f>Résultats!$N$10</f>
@@ -4390,21 +4414,21 @@
       </c>
       <c r="X8" s="178" t="str">
         <f>Résultats!$N$20</f>
-        <v xml:space="preserve"> </v>
+        <v>ST-LOUIS</v>
       </c>
       <c r="Y8" s="176" t="str">
         <f>Résultats!$N$21</f>
-        <v xml:space="preserve"> </v>
+        <v>COLORADO</v>
       </c>
       <c r="Z8" s="177" t="str">
         <f>Résultats!$N$24</f>
-        <v xml:space="preserve"> </v>
+        <v>VEGAS</v>
       </c>
       <c r="AA8" s="174" t="str">
         <f>Résultats!$N$25</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB8" s="267"/>
+        <v>DALLAS</v>
+      </c>
+      <c r="AB8" s="303"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4421,7 +4445,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="267"/>
+      <c r="AG8" s="303"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4430,7 +4454,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="267"/>
+      <c r="AJ8" s="303"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4444,11 +4468,11 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="243" t="str">
+      <c r="D9" s="242" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
-      <c r="E9" s="181" t="str">
+      <c r="E9" s="238" t="str">
         <f>Résultats!$A$6</f>
         <v>A2</v>
       </c>
@@ -4464,7 +4488,7 @@
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="239" t="str">
+      <c r="I9" s="238" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4476,7 +4500,7 @@
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="243" t="str">
+      <c r="L9" s="242" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
@@ -4484,7 +4508,7 @@
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="252" t="str">
+      <c r="N9" s="248" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
@@ -4492,11 +4516,11 @@
         <f>Résultats!$A$24</f>
         <v>P1</v>
       </c>
-      <c r="P9" s="252" t="str">
+      <c r="P9" s="248" t="str">
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
-      <c r="Q9" s="183" t="str">
+      <c r="Q9" s="318" t="str">
         <f>Résultats!$A$27</f>
         <v>P2</v>
       </c>
@@ -4504,14 +4528,14 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="269"/>
+      <c r="S9" s="305"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
-        <v xml:space="preserve"> </v>
+        <v>A2</v>
       </c>
       <c r="U9" s="180" t="str">
         <f>Résultats!$M$7</f>
-        <v xml:space="preserve"> </v>
+        <v>WC2</v>
       </c>
       <c r="V9" s="181" t="str">
         <f>Résultats!$M$10</f>
@@ -4523,21 +4547,21 @@
       </c>
       <c r="X9" s="184" t="str">
         <f>Résultats!$M$20</f>
-        <v xml:space="preserve"> </v>
+        <v>C3</v>
       </c>
       <c r="Y9" s="182" t="str">
         <f>Résultats!$M$21</f>
-        <v xml:space="preserve"> </v>
+        <v>WC2</v>
       </c>
       <c r="Z9" s="183" t="str">
         <f>Résultats!$M$24</f>
-        <v xml:space="preserve"> </v>
+        <v>P3</v>
       </c>
       <c r="AA9" s="185" t="str">
         <f>Résultats!$M$25</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB9" s="268"/>
+        <v>WC1</v>
+      </c>
+      <c r="AB9" s="304"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4554,7 +4578,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="268"/>
+      <c r="AG9" s="304"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4563,7 +4587,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="269"/>
+      <c r="AJ9" s="305"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4577,43 +4601,43 @@
         <v>1</v>
       </c>
       <c r="B10" s="211" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C10" s="187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="188"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="188">
-        <v>7</v>
-      </c>
+      <c r="E10" s="191">
+        <v>5</v>
+      </c>
+      <c r="F10" s="188"/>
       <c r="G10" s="192">
         <v>6</v>
       </c>
       <c r="H10" s="189"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="189">
-        <v>6</v>
-      </c>
-      <c r="K10" s="190"/>
-      <c r="L10" s="189">
-        <v>6</v>
-      </c>
+      <c r="I10" s="191">
+        <v>7</v>
+      </c>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190">
+        <v>5</v>
+      </c>
+      <c r="L10" s="189"/>
       <c r="M10" s="191"/>
       <c r="N10" s="188">
+        <v>7</v>
+      </c>
+      <c r="O10" s="191">
         <v>6</v>
       </c>
-      <c r="O10" s="191">
-        <v>5</v>
-      </c>
       <c r="P10" s="188"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="193">
-        <v>6</v>
-      </c>
+      <c r="Q10" s="323">
+        <v>7</v>
+      </c>
+      <c r="R10" s="193"/>
       <c r="S10" s="194">
         <f>SUM(C11:R11)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="T10" s="187"/>
       <c r="U10" s="189"/>
@@ -4621,7 +4645,7 @@
       <c r="W10" s="189"/>
       <c r="X10" s="190"/>
       <c r="Y10" s="188"/>
-      <c r="Z10" s="245"/>
+      <c r="Z10" s="192"/>
       <c r="AA10" s="193"/>
       <c r="AB10" s="194">
         <f>SUM(T11:AA11)</f>
@@ -4647,7 +4671,7 @@
       </c>
       <c r="AL10" s="194">
         <f>$S10+$AB10+$AG10+$AJ10</f>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4663,7 +4687,7 @@
       <c r="D11" s="134"/>
       <c r="E11" s="132">
         <f>(IF($E10&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E10=$E$6+$F$6,$O$103,0),0),0)+IF($F10&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F10=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F11" s="134"/>
       <c r="G11" s="132">
@@ -4673,17 +4697,17 @@
       <c r="H11" s="134"/>
       <c r="I11" s="135">
         <f>(IF($I10&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I10=$I$6+$J$6,$O$103,0),0),0)+IF($J10&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J10=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11" s="136"/>
       <c r="K11" s="137">
         <f>(IF($K10&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K10=$K$6+$L$6,$O$103,0),0),0)+IF($L10&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L10=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L11" s="134"/>
       <c r="M11" s="132">
         <f>(IF($M10&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M10=$M$6+$N$6,$O$103,0),0),0)+IF($N10&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N10=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N11" s="134"/>
       <c r="O11" s="135">
@@ -4691,9 +4715,9 @@
         <v>2</v>
       </c>
       <c r="P11" s="134"/>
-      <c r="Q11" s="135">
+      <c r="Q11" s="132">
         <f>(IF($Q10&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q10=$Q$6+$R$6,$O$103,0),0),0)+IF($R10&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R10=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R11" s="138"/>
       <c r="S11" s="128"/>
@@ -4738,7 +4762,7 @@
         <f>IF(ISBLANK(E10),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="124">
         <f>IF(ISBLANK(F10),
@@ -4762,7 +4786,7 @@
         <f>IF(ISBLANK(I10),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="124">
         <f>IF(ISBLANK(J10),
@@ -4780,7 +4804,7 @@
         <f>IF(ISBLANK(L10),
 0,
 IF(L$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="124">
         <f>IF(ISBLANK(M10),
@@ -4806,11 +4830,11 @@
 IF(P$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="124">
+      <c r="Q12" s="146">
         <f>IF(ISBLANK(Q10),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="124">
         <f>IF(ISBLANK(R10),
@@ -4838,7 +4862,7 @@
       <c r="AJ12" s="147"/>
       <c r="AK12" s="148">
         <f>SUM(C12:AI12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL12" s="130"/>
     </row>
@@ -4917,7 +4941,7 @@
         <f>IF(N12 = 0,
 0,
 IF(N10 = (M$6+N$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="124">
         <f>IF(O12 = 0,
@@ -4931,11 +4955,11 @@
 IF(P10 = (O$6+P$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="124">
+      <c r="Q13" s="146">
         <f>IF(Q12 = 0,
 0,
 IF(Q10 = (Q$6+R$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="124">
         <f>IF(R12 = 0,
@@ -4973,18 +4997,18 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="46">
         <v>5</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="44">
+      <c r="E14" s="319">
         <v>7</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44">
@@ -4992,39 +5016,39 @@
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="44">
+        <v>6</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="44">
         <v>5</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="324">
         <v>7</v>
       </c>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="50">
-        <v>7</v>
-      </c>
+      <c r="R14" s="50"/>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
       <c r="V14" s="44"/>
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="48"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="243"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="129">
         <f>SUM(T15:AA15)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="48"/>
-      <c r="AD14" s="308"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="49"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="129">
@@ -5039,11 +5063,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5059,7 +5083,7 @@
       <c r="D15" s="150"/>
       <c r="E15" s="132">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F15" s="150"/>
       <c r="G15" s="132">
@@ -5084,12 +5108,12 @@
       <c r="N15" s="150"/>
       <c r="O15" s="126">
         <f>(IF($O14&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O14=$O$6+$P$6,$O$103,0),0),0)+IF($P14&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P14=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
@@ -5112,7 +5136,7 @@
       <c r="AJ15" s="128"/>
       <c r="AK15" s="96">
         <f>MAX($AL$10:$AL$97) - AL15</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL15" s="128"/>
     </row>
@@ -5133,11 +5157,11 @@
 IF(D$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="124">
+      <c r="E16" s="146">
         <f>IF(ISBLANK(E14),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="124">
         <f>IF(ISBLANK(F14),
@@ -5203,13 +5227,13 @@
         <f>IF(ISBLANK(P14),
 0,
 IF(P$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="124">
         <f>IF(ISBLANK(Q14),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="124">
         <f>IF(ISBLANK(R14),
@@ -5237,7 +5261,7 @@
       <c r="AJ16" s="147"/>
       <c r="AK16" s="148">
         <f>SUM(C16:AI16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL16" s="130"/>
     </row>
@@ -5258,11 +5282,11 @@
 IF(D14 = (C$6+D$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="146">
         <f>IF(E16 = 0,
 0,
 IF(E14 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="124">
         <f>IF(F16 = 0,
@@ -5334,7 +5358,7 @@
         <f>IF(Q16 = 0,
 0,
 IF(Q14 = (Q$6+R$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="124">
         <f>IF(R16 = 0,
@@ -5362,24 +5386,24 @@
       <c r="AJ17" s="147"/>
       <c r="AK17" s="148">
         <f>SUM(C17:AI17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="130"/>
     </row>
     <row r="18" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="186">
         <f>RANK(AL18,$AL$10:$AL$97,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="211" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="199"/>
-      <c r="E18" s="200">
-        <v>5</v>
+      <c r="E18" s="320">
+        <v>7</v>
       </c>
       <c r="F18" s="199"/>
       <c r="G18" s="201">
@@ -5387,35 +5411,35 @@
       </c>
       <c r="H18" s="202"/>
       <c r="I18" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="202"/>
       <c r="K18" s="203">
+        <v>4</v>
+      </c>
+      <c r="L18" s="202"/>
+      <c r="M18" s="200">
         <v>5</v>
       </c>
-      <c r="L18" s="202"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="199">
+      <c r="N18" s="199"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="199">
         <v>7</v>
       </c>
-      <c r="O18" s="200">
-        <v>6</v>
-      </c>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="201">
+      <c r="Q18" s="201"/>
+      <c r="R18" s="204">
         <v>7</v>
       </c>
-      <c r="R18" s="204"/>
-      <c r="S18" s="246">
+      <c r="S18" s="244">
         <f>SUM(C19:R19)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
       <c r="V18" s="200"/>
       <c r="W18" s="202"/>
       <c r="X18" s="203"/>
-      <c r="Y18" s="199"/>
+      <c r="Y18" s="234"/>
       <c r="Z18" s="201"/>
       <c r="AA18" s="204"/>
       <c r="AB18" s="205">
@@ -5423,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="201"/>
-      <c r="AD18" s="202"/>
+      <c r="AD18" s="311"/>
       <c r="AE18" s="203"/>
       <c r="AF18" s="202"/>
       <c r="AG18" s="205">
@@ -5438,11 +5462,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5456,9 +5480,9 @@
         <v>0</v>
       </c>
       <c r="D19" s="150"/>
-      <c r="E19" s="126">
+      <c r="E19" s="132">
         <f>(IF($E18&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E18=$E$6+$F$6,$O$103,0),0),0)+IF($F18&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F18=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F19" s="150"/>
       <c r="G19" s="126">
@@ -5478,12 +5502,12 @@
       <c r="L19" s="150"/>
       <c r="M19" s="126">
         <f>(IF($M18&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M18=$M$6+$N$6,$O$103,0),0),0)+IF($N18&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N18=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N19" s="150"/>
       <c r="O19" s="126">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
@@ -5511,7 +5535,7 @@
       <c r="AJ19" s="154"/>
       <c r="AK19" s="162">
         <f>MAX($AL$10:$AL$97) - AL19</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL19" s="128"/>
     </row>
@@ -5532,11 +5556,11 @@
 IF(D$6 = 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="146">
         <f>IF(ISBLANK(E18),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="124">
         <f>IF(ISBLANK(F18),
@@ -5590,7 +5614,7 @@
         <f>IF(ISBLANK(N18),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="124">
         <f>IF(ISBLANK(O18),
@@ -5602,7 +5626,7 @@
         <f>IF(ISBLANK(P18),
 0,
 IF(P$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="124">
         <f>IF(ISBLANK(Q18),
@@ -5636,7 +5660,7 @@
       <c r="AJ20" s="147"/>
       <c r="AK20" s="148">
         <f>SUM(C20:AI20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="130"/>
     </row>
@@ -5657,11 +5681,11 @@
 IF(D18 = (C$6+D$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="146">
         <f>IF(E20 = 0,
 0,
 IF(E18 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="124">
         <f>IF(F20 = 0,
@@ -5761,7 +5785,7 @@
       <c r="AJ21" s="147"/>
       <c r="AK21" s="148">
         <f>SUM(C21:AI21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="130"/>
     </row>
@@ -5771,50 +5795,50 @@
         <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="44">
-        <v>4</v>
+      <c r="E22" s="319">
+        <v>7</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
+        <v>4</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="47">
         <v>6</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="44">
+      <c r="K22" s="49">
+        <v>5</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="321">
         <v>6</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="49">
+      <c r="O22" s="44">
         <v>7</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="44">
-        <v>5</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="44">
-        <v>4</v>
-      </c>
       <c r="P22" s="45"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="50">
+      <c r="Q22" s="48">
         <v>6</v>
       </c>
+      <c r="R22" s="50"/>
       <c r="S22" s="129">
         <f>SUM(C23:R23)</f>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
       <c r="V22" s="44"/>
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
-      <c r="Y22" s="127"/>
+      <c r="Y22" s="45"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="129">
@@ -5829,7 +5853,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="234"/>
+      <c r="AH22" s="309"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="129">
         <f>AH23</f>
@@ -5837,11 +5861,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5857,7 +5881,7 @@
       <c r="D23" s="163"/>
       <c r="E23" s="132">
         <f>(IF($E22&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E22=$E$6+$F$6,$O$103,0),0),0)+IF($F22&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F22=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F23" s="163"/>
       <c r="G23" s="132">
@@ -5867,7 +5891,7 @@
       <c r="H23" s="163"/>
       <c r="I23" s="132">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J23" s="164"/>
       <c r="K23" s="165">
@@ -5877,7 +5901,7 @@
       <c r="L23" s="163"/>
       <c r="M23" s="132">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="132">
@@ -5887,7 +5911,7 @@
       <c r="P23" s="163"/>
       <c r="Q23" s="132">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R23" s="166"/>
       <c r="S23" s="154"/>
@@ -5910,7 +5934,7 @@
       <c r="AJ23" s="154"/>
       <c r="AK23" s="162">
         <f>MAX($AL$10:$AL$97) - AL23</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL23" s="128"/>
     </row>
@@ -5935,7 +5959,7 @@
         <f>IF(ISBLANK(E22),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="124">
         <f>IF(ISBLANK(F22),
@@ -5959,7 +5983,7 @@
         <f>IF(ISBLANK(I22),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="124">
         <f>IF(ISBLANK(J22),
@@ -5985,11 +6009,11 @@
 IF(M$6= 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="N24" s="124">
+      <c r="N24" s="146">
         <f>IF(ISBLANK(N22),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="124">
         <f>IF(ISBLANK(O22),
@@ -6007,7 +6031,7 @@
         <f>IF(ISBLANK(Q22),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="124">
         <f>IF(ISBLANK(R22),
@@ -6035,7 +6059,7 @@
       <c r="AJ24" s="147"/>
       <c r="AK24" s="148">
         <f>SUM(C24:AI24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL24" s="130"/>
     </row>
@@ -6060,7 +6084,7 @@
         <f>IF(E24 = 0,
 0,
 IF(E22 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="124">
         <f>IF(F24 = 0,
@@ -6110,11 +6134,11 @@
 IF(M22 = (M$6+N$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="N25" s="124">
+      <c r="N25" s="146">
         <f>IF(N24 = 0,
 0,
 IF(N22 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="124">
         <f>IF(O24 = 0,
@@ -6160,14 +6184,14 @@
       <c r="AJ25" s="147"/>
       <c r="AK25" s="148">
         <f>SUM(C25:AI25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL25" s="130"/>
     </row>
     <row r="26" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="186">
         <f>RANK(AL26,$AL$10:$AL$97,)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="211" t="s">
         <v>77</v>
@@ -6193,7 +6217,7 @@
       </c>
       <c r="L26" s="202"/>
       <c r="M26" s="200"/>
-      <c r="N26" s="199">
+      <c r="N26" s="322">
         <v>6</v>
       </c>
       <c r="O26" s="200">
@@ -6206,7 +6230,7 @@
       <c r="R26" s="204"/>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6236,11 +6260,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6256,7 +6280,7 @@
       <c r="D27" s="150"/>
       <c r="E27" s="126">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E26=$E$6+$F$6,$O$103,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F26=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F27" s="150"/>
       <c r="G27" s="126">
@@ -6286,7 +6310,7 @@
       <c r="P27" s="150"/>
       <c r="Q27" s="126">
         <f>(IF($Q26&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q26=$Q$6+$R$6,$O$103,0),0),0)+IF($R26&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R26=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R27" s="153"/>
       <c r="S27" s="154"/>
@@ -6309,7 +6333,7 @@
       <c r="AJ27" s="154"/>
       <c r="AK27" s="162">
         <f>MAX($AL$10:$AL$97) - AL27</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL27" s="128"/>
     </row>
@@ -6334,7 +6358,7 @@
         <f>IF(ISBLANK(E26),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="124">
         <f>IF(ISBLANK(F26),
@@ -6406,7 +6430,7 @@
         <f>IF(ISBLANK(Q26),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="124">
         <f>IF(ISBLANK(R26),
@@ -6434,7 +6458,7 @@
       <c r="AJ28" s="147"/>
       <c r="AK28" s="148">
         <f>SUM(C28:AI28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="130"/>
     </row>
@@ -6566,46 +6590,46 @@
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C30" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" s="47"/>
-      <c r="I30" s="44">
+      <c r="I30" s="44"/>
+      <c r="J30" s="47">
         <v>6</v>
       </c>
-      <c r="J30" s="47"/>
       <c r="K30" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" s="47"/>
-      <c r="M30" s="44">
+      <c r="M30" s="44"/>
+      <c r="N30" s="45">
+        <v>7</v>
+      </c>
+      <c r="O30" s="44">
         <v>6</v>
       </c>
-      <c r="N30" s="45"/>
-      <c r="O30" s="44">
-        <v>5</v>
-      </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="48">
+      <c r="Q30" s="324">
         <v>7</v>
       </c>
       <c r="R30" s="50"/>
       <c r="S30" s="129">
         <f>SUM(C31:R31)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T30" s="46"/>
       <c r="U30" s="47"/>
@@ -6613,7 +6637,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
       <c r="Y30" s="45"/>
-      <c r="Z30" s="244"/>
+      <c r="Z30" s="243"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
         <f>SUM(T31:AA31)</f>
@@ -6635,11 +6659,11 @@
       </c>
       <c r="AK30" s="116">
         <f>MAX($AL$10:$AL$97) - AL30</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL30" s="129">
         <f>$S30+$AB30+$AG30+$AJ30</f>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6655,7 +6679,7 @@
       <c r="D31" s="80"/>
       <c r="E31" s="81">
         <f>(IF($E30&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E30=$E$6+$F$6,$O$103,0),0),0)+IF($F30&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F30=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F31" s="80"/>
       <c r="G31" s="81">
@@ -6665,7 +6689,7 @@
       <c r="H31" s="80"/>
       <c r="I31" s="81">
         <f>(IF($I30&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I30=$I$6+$J$6,$O$103,0),0),0)+IF($J30&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J30=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J31" s="82"/>
       <c r="K31" s="83">
@@ -6675,7 +6699,7 @@
       <c r="L31" s="80"/>
       <c r="M31" s="81">
         <f>(IF($M30&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M30=$M$6+$N$6,$O$103,0),0),0)+IF($N30&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N30=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N31" s="80"/>
       <c r="O31" s="81">
@@ -6685,7 +6709,7 @@
       <c r="P31" s="80"/>
       <c r="Q31" s="81">
         <f>(IF($Q30&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q30=$Q$6+$R$6,$O$103,0),0),0)+IF($R30&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R30=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R31" s="84"/>
       <c r="S31" s="128"/>
@@ -6708,7 +6732,7 @@
       <c r="AJ31" s="128"/>
       <c r="AK31" s="96">
         <f>MAX($AL$10:$AL$97) - AL31</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL31" s="128"/>
     </row>
@@ -6733,7 +6757,7 @@
         <f>IF(ISBLANK(E30),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="124">
         <f>IF(ISBLANK(F30),
@@ -6757,7 +6781,7 @@
         <f>IF(ISBLANK(I30),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="124">
         <f>IF(ISBLANK(J30),
@@ -6787,7 +6811,7 @@
         <f>IF(ISBLANK(N30),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="124">
         <f>IF(ISBLANK(O30),
@@ -6805,7 +6829,7 @@
         <f>IF(ISBLANK(Q30),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="124">
         <f>IF(ISBLANK(R30),
@@ -6833,7 +6857,7 @@
       <c r="AJ32" s="147"/>
       <c r="AK32" s="148">
         <f>SUM(C32:AI32)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL32" s="130"/>
     </row>
@@ -6930,7 +6954,7 @@
         <f>IF(Q32 = 0,
 0,
 IF(Q30 = (Q$6+R$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="124">
         <f>IF(R32 = 0,
@@ -6958,40 +6982,40 @@
       <c r="AJ33" s="147"/>
       <c r="AK33" s="148">
         <f>SUM(C33:AI33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="130"/>
     </row>
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B34" s="211" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C34" s="198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="199"/>
-      <c r="E34" s="200">
-        <v>5</v>
-      </c>
-      <c r="F34" s="199"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="199">
+        <v>7</v>
+      </c>
       <c r="G34" s="201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34" s="202"/>
       <c r="I34" s="200"/>
       <c r="J34" s="202">
         <v>6</v>
       </c>
-      <c r="K34" s="203">
-        <v>5</v>
-      </c>
-      <c r="L34" s="202"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="202">
+        <v>6</v>
+      </c>
       <c r="M34" s="200"/>
-      <c r="N34" s="199">
+      <c r="N34" s="322">
         <v>6</v>
       </c>
       <c r="O34" s="200">
@@ -7004,7 +7028,7 @@
       </c>
       <c r="S34" s="205">
         <f>SUM(C35:R35)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T34" s="198"/>
       <c r="U34" s="202"/>
@@ -7012,7 +7036,7 @@
       <c r="W34" s="202"/>
       <c r="X34" s="203"/>
       <c r="Y34" s="199"/>
-      <c r="Z34" s="201"/>
+      <c r="Z34" s="208"/>
       <c r="AA34" s="202"/>
       <c r="AB34" s="205">
         <f>SUM(T35:AA35)</f>
@@ -7026,7 +7050,7 @@
         <f>SUM(AC35:AF35)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="253"/>
+      <c r="AH34" s="209"/>
       <c r="AI34" s="196"/>
       <c r="AJ34" s="205">
         <f>AH35</f>
@@ -7034,11 +7058,11 @@
       </c>
       <c r="AK34" s="207">
         <f>MAX($AL$10:$AL$97) - AL34</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL34" s="205">
         <f>$S34+$AB34+$AG34+$AJ34</f>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7069,7 +7093,7 @@
       <c r="J35" s="82"/>
       <c r="K35" s="83">
         <f>(IF($K34&lt;&gt;"",($K$6*$O$104)+IF($K$6=4,($O$102)+IF($K34=$K$6+$L$6,$O$103,0),0),0)+IF($L34&lt;&gt;"",($L$6*$O$104)+IF($L$6=4,($O$102)+IF($L34=$K$6+$L$6,$O$103,0),0),0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L35" s="80"/>
       <c r="M35" s="81">
@@ -7107,7 +7131,7 @@
       <c r="AJ35" s="128"/>
       <c r="AK35" s="96">
         <f>MAX($AL$10:$AL$97) - AL35</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL35" s="128"/>
     </row>
@@ -7174,7 +7198,7 @@
         <f>IF(ISBLANK(L34),
 0,
 IF(L$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="124">
         <f>IF(ISBLANK(M34),
@@ -7232,7 +7256,7 @@
       <c r="AJ36" s="147"/>
       <c r="AK36" s="148">
         <f>SUM(C36:AI36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="130"/>
     </row>
@@ -7364,53 +7388,53 @@
     <row r="38" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="122">
         <f>RANK(AL38,$AL$10:$AL$97,)</f>
+        <v>8</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="46">
         <v>4</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="46">
-        <v>5</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="48">
+        <v>6</v>
+      </c>
+      <c r="H38" s="47"/>
+      <c r="I38" s="44">
+        <v>6</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="49">
+        <v>7</v>
+      </c>
+      <c r="L38" s="47"/>
+      <c r="M38" s="44">
+        <v>5</v>
+      </c>
+      <c r="N38" s="45"/>
+      <c r="O38" s="44">
         <v>4</v>
       </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="47">
+      <c r="P38" s="45"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="50">
         <v>6</v>
       </c>
-      <c r="K38" s="49">
-        <v>5</v>
-      </c>
-      <c r="L38" s="47"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45">
-        <v>6</v>
-      </c>
-      <c r="O38" s="44">
-        <v>7</v>
-      </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="48">
-        <v>6</v>
-      </c>
-      <c r="R38" s="50"/>
       <c r="S38" s="129">
         <f>SUM(C39:R39)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T38" s="46"/>
       <c r="U38" s="47"/>
       <c r="V38" s="44"/>
       <c r="W38" s="47"/>
       <c r="X38" s="49"/>
-      <c r="Y38" s="45"/>
+      <c r="Y38" s="127"/>
       <c r="Z38" s="48"/>
       <c r="AA38" s="47"/>
       <c r="AB38" s="129">
@@ -7425,7 +7449,7 @@
         <f>SUM(AC39:AF39)</f>
         <v>0</v>
       </c>
-      <c r="AH38" s="247"/>
+      <c r="AH38" s="107"/>
       <c r="AI38" s="57"/>
       <c r="AJ38" s="129">
         <f>AH39</f>
@@ -7433,11 +7457,11 @@
       </c>
       <c r="AK38" s="116">
         <f>MAX($AL$10:$AL$97) - AL38</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AL38" s="129">
         <f>$S38+$AB38+$AG38+$AJ38</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7453,7 +7477,7 @@
       <c r="D39" s="80"/>
       <c r="E39" s="121">
         <f>(IF($E38&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E38=$E$6+$F$6,$O$103,0),0),0)+IF($F38&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F38=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F39" s="80"/>
       <c r="G39" s="125">
@@ -7463,7 +7487,7 @@
       <c r="H39" s="80"/>
       <c r="I39" s="121">
         <f>(IF($I38&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I38=$I$6+$J$6,$O$103,0),0),0)+IF($J38&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J38=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J39" s="82"/>
       <c r="K39" s="83">
@@ -7473,7 +7497,7 @@
       <c r="L39" s="80"/>
       <c r="M39" s="81">
         <f>(IF($M38&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M38=$M$6+$N$6,$O$103,0),0),0)+IF($N38&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N38=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N39" s="80"/>
       <c r="O39" s="81">
@@ -7506,7 +7530,7 @@
       <c r="AJ39" s="128"/>
       <c r="AK39" s="96">
         <f>MAX($AL$10:$AL$97) - AL39</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL39" s="128"/>
     </row>
@@ -7531,7 +7555,7 @@
         <f>IF(ISBLANK(E38),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="124">
         <f>IF(ISBLANK(F38),
@@ -7555,7 +7579,7 @@
         <f>IF(ISBLANK(I38),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="124">
         <f>IF(ISBLANK(J38),
@@ -7585,7 +7609,7 @@
         <f>IF(ISBLANK(N38),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="124">
         <f>IF(ISBLANK(O38),
@@ -7631,7 +7655,7 @@
       <c r="AJ40" s="147"/>
       <c r="AK40" s="148">
         <f>SUM(C40:AI40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL40" s="130"/>
     </row>
@@ -7710,7 +7734,7 @@
         <f>IF(N40 = 0,
 0,
 IF(N38 = (M$6+N$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="124">
         <f>IF(O40 = 0,
@@ -7756,44 +7780,44 @@
       <c r="AJ41" s="147"/>
       <c r="AK41" s="148">
         <f>SUM(C41:AI41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="130"/>
     </row>
     <row r="42" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="186">
         <f>RANK(AL42,$AL$10:$AL$97,)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B42" s="211" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C42" s="198">
         <v>5</v>
       </c>
       <c r="D42" s="199"/>
       <c r="E42" s="200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" s="199"/>
       <c r="G42" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42" s="202"/>
       <c r="I42" s="200"/>
       <c r="J42" s="202">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" s="203">
         <v>5</v>
       </c>
       <c r="L42" s="202"/>
       <c r="M42" s="200"/>
-      <c r="N42" s="199">
+      <c r="N42" s="322">
         <v>6</v>
       </c>
       <c r="O42" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P42" s="199"/>
       <c r="Q42" s="201"/>
@@ -7802,7 +7826,7 @@
       </c>
       <c r="S42" s="205">
         <f>SUM(C43:R43)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T42" s="198"/>
       <c r="U42" s="202"/>
@@ -7824,7 +7848,7 @@
         <f>SUM(AC43:AF43)</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="209"/>
+      <c r="AH42" s="249"/>
       <c r="AI42" s="196"/>
       <c r="AJ42" s="205">
         <f>AH43</f>
@@ -7832,11 +7856,11 @@
       </c>
       <c r="AK42" s="207">
         <f>MAX($AL$10:$AL$97) - AL42</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AL42" s="205">
         <f>$S42+$AB42+$AG42+$AJ42</f>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7852,7 +7876,7 @@
       <c r="D43" s="80"/>
       <c r="E43" s="121">
         <f>(IF($E42&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E42=$E$6+$F$6,$O$103,0),0),0)+IF($F42&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F42=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="81">
@@ -7874,7 +7898,7 @@
         <f>(IF($M42&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M42=$M$6+$N$6,$O$103,0),0),0)+IF($N42&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N42=$M$6+$N$6,$O$103,0),0),0))</f>
         <v>11</v>
       </c>
-      <c r="N43" s="80"/>
+      <c r="N43" s="163"/>
       <c r="O43" s="81">
         <f>(IF($O42&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O42=$O$6+$P$6,$O$103,0),0),0)+IF($P42&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P42=$O$6+$P$6,$O$103,0),0),0))</f>
         <v>2</v>
@@ -7905,7 +7929,7 @@
       <c r="AJ43" s="128"/>
       <c r="AK43" s="116">
         <f>MAX($AL$10:$AL$97) - AL43</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL43" s="128"/>
     </row>
@@ -7930,7 +7954,7 @@
         <f>IF(ISBLANK(E42),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="124">
         <f>IF(ISBLANK(F42),
@@ -7980,7 +8004,7 @@
 IF(M$6= 4, 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="N44" s="124">
+      <c r="N44" s="146">
         <f>IF(ISBLANK(N42),
 0,
 IF(N$6 = 4, 1, 0))</f>
@@ -8030,7 +8054,7 @@
       <c r="AJ44" s="147"/>
       <c r="AK44" s="148">
         <f>SUM(C44:AI44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL44" s="130"/>
     </row>
@@ -8105,7 +8129,7 @@
 IF(M42 = (M$6+N$6),1,0))</f>
         <v>0</v>
       </c>
-      <c r="N45" s="124">
+      <c r="N45" s="146">
         <f>IF(N44 = 0,
 0,
 IF(N42 = (M$6+N$6),1,0))</f>
@@ -8162,46 +8186,46 @@
     <row r="46" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="122">
         <f>RANK(AL46,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C46" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="45"/>
       <c r="G46" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H46" s="47"/>
       <c r="I46" s="44"/>
       <c r="J46" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K46" s="49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" s="47"/>
       <c r="M46" s="44"/>
-      <c r="N46" s="45">
+      <c r="N46" s="321">
+        <v>6</v>
+      </c>
+      <c r="O46" s="44">
         <v>7</v>
       </c>
-      <c r="O46" s="44">
+      <c r="P46" s="45"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="50">
         <v>6</v>
       </c>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="48">
-        <v>7</v>
-      </c>
-      <c r="R46" s="50"/>
       <c r="S46" s="129">
         <f>SUM(C47:R47)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="T46" s="46"/>
       <c r="U46" s="47"/>
@@ -8209,7 +8233,7 @@
       <c r="W46" s="47"/>
       <c r="X46" s="49"/>
       <c r="Y46" s="45"/>
-      <c r="Z46" s="244"/>
+      <c r="Z46" s="48"/>
       <c r="AA46" s="47"/>
       <c r="AB46" s="129">
         <f>SUM(T47:AA47)</f>
@@ -8231,11 +8255,11 @@
       </c>
       <c r="AK46" s="116">
         <f>MAX($AL$10:$AL$97) - AL46</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL46" s="129">
         <f>$S46+$AB46+$AG46+$AJ46</f>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8251,7 +8275,7 @@
       <c r="D47" s="80"/>
       <c r="E47" s="81">
         <f>(IF($E46&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E46=$E$6+$F$6,$O$103,0),0),0)+IF($F46&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F46=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F47" s="80"/>
       <c r="G47" s="81">
@@ -8271,7 +8295,7 @@
       <c r="L47" s="80"/>
       <c r="M47" s="81">
         <f>(IF($M46&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M46=$M$6+$N$6,$O$103,0),0),0)+IF($N46&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N46=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="81">
@@ -8304,7 +8328,7 @@
       <c r="AJ47" s="128"/>
       <c r="AK47" s="116">
         <f>MAX($AL$10:$AL$97) - AL47</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AL47" s="128"/>
     </row>
@@ -8329,7 +8353,7 @@
         <f>IF(ISBLANK(E46),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="124">
         <f>IF(ISBLANK(F46),
@@ -8429,7 +8453,7 @@
       <c r="AJ48" s="147"/>
       <c r="AK48" s="148">
         <f>SUM(C48:AI48)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL48" s="130"/>
     </row>
@@ -8508,7 +8532,7 @@
         <f>IF(N48 = 0,
 0,
 IF(N46 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="124">
         <f>IF(O48 = 0,
@@ -8554,53 +8578,53 @@
       <c r="AJ49" s="147"/>
       <c r="AK49" s="148">
         <f>SUM(C49:AI49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="130"/>
     </row>
     <row r="50" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="186">
         <f>RANK(AL50,$AL$10:$AL$97,)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" s="211" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C50" s="198">
+        <v>6</v>
+      </c>
+      <c r="D50" s="199"/>
+      <c r="E50" s="320">
+        <v>7</v>
+      </c>
+      <c r="F50" s="199"/>
+      <c r="G50" s="201">
         <v>5</v>
       </c>
-      <c r="D50" s="199"/>
-      <c r="E50" s="200">
-        <v>6</v>
-      </c>
-      <c r="F50" s="199"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="202">
-        <v>7</v>
-      </c>
+      <c r="H50" s="202"/>
       <c r="I50" s="200"/>
       <c r="J50" s="202">
+        <v>5</v>
+      </c>
+      <c r="K50" s="203">
+        <v>7</v>
+      </c>
+      <c r="L50" s="202"/>
+      <c r="M50" s="200">
         <v>6</v>
       </c>
-      <c r="K50" s="203">
+      <c r="N50" s="199"/>
+      <c r="O50" s="200">
+        <v>7</v>
+      </c>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="201">
         <v>5</v>
       </c>
-      <c r="L50" s="202"/>
-      <c r="M50" s="200"/>
-      <c r="N50" s="199">
-        <v>7</v>
-      </c>
-      <c r="O50" s="200">
-        <v>5</v>
-      </c>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="201"/>
-      <c r="R50" s="204">
-        <v>6</v>
-      </c>
+      <c r="R50" s="204"/>
       <c r="S50" s="205">
         <f>SUM(C51:R51)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="T50" s="198"/>
       <c r="U50" s="202"/>
@@ -8608,7 +8632,7 @@
       <c r="W50" s="202"/>
       <c r="X50" s="203"/>
       <c r="Y50" s="199"/>
-      <c r="Z50" s="208"/>
+      <c r="Z50" s="201"/>
       <c r="AA50" s="202"/>
       <c r="AB50" s="205">
         <f>SUM(T51:AA51)</f>
@@ -8630,11 +8654,11 @@
       </c>
       <c r="AK50" s="207">
         <f>MAX($AL$10:$AL$97) - AL50</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AL50" s="205">
         <f>$S50+$AB50+$AG50+$AJ50</f>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8650,7 +8674,7 @@
       <c r="D51" s="134"/>
       <c r="E51" s="132">
         <f>(IF($E50&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E50=$E$6+$F$6,$O$103,0),0),0)+IF($F50&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F50=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F51" s="134"/>
       <c r="G51" s="132">
@@ -8670,7 +8694,7 @@
       <c r="L51" s="134"/>
       <c r="M51" s="132">
         <f>(IF($M50&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M50=$M$6+$N$6,$O$103,0),0),0)+IF($N50&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N50=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N51" s="134"/>
       <c r="O51" s="135">
@@ -8680,7 +8704,7 @@
       <c r="P51" s="134"/>
       <c r="Q51" s="135">
         <f>(IF($Q50&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q50=$Q$6+$R$6,$O$103,0),0),0)+IF($R50&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R50=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R51" s="138"/>
       <c r="S51" s="128"/>
@@ -8725,7 +8749,7 @@
         <f>IF(ISBLANK(E50),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="124">
         <f>IF(ISBLANK(F50),
@@ -8779,7 +8803,7 @@
         <f>IF(ISBLANK(N50),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="124">
         <f>IF(ISBLANK(O50),
@@ -8797,7 +8821,7 @@
         <f>IF(ISBLANK(Q50),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="124">
         <f>IF(ISBLANK(R50),
@@ -8825,7 +8849,7 @@
       <c r="AJ52" s="147"/>
       <c r="AK52" s="148">
         <f>SUM(C52:AI52)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL52" s="130"/>
     </row>
@@ -8850,7 +8874,7 @@
         <f>IF(E52 = 0,
 0,
 IF(E50 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="124">
         <f>IF(F52 = 0,
@@ -8950,7 +8974,7 @@
       <c r="AJ53" s="147"/>
       <c r="AK53" s="148">
         <f>SUM(C53:AI53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="130"/>
     </row>
@@ -8960,51 +8984,51 @@
         <v>12</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C54" s="46">
+        <v>5</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44">
+        <v>6</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="47">
         <v>7</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="306">
+      <c r="I54" s="44"/>
+      <c r="J54" s="47">
         <v>6</v>
-      </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="307"/>
-      <c r="H54" s="47">
-        <v>6</v>
-      </c>
-      <c r="I54" s="306"/>
-      <c r="J54" s="47">
-        <v>7</v>
       </c>
       <c r="K54" s="49">
         <v>5</v>
       </c>
       <c r="L54" s="47"/>
-      <c r="M54" s="44">
+      <c r="M54" s="44"/>
+      <c r="N54" s="45">
         <v>7</v>
       </c>
-      <c r="N54" s="45"/>
       <c r="O54" s="44">
+        <v>5</v>
+      </c>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="50">
         <v>6</v>
       </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="48">
-        <v>6</v>
-      </c>
-      <c r="R54" s="50"/>
       <c r="S54" s="129">
         <f>SUM(C55:R55)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="T54" s="46"/>
       <c r="U54" s="47"/>
-      <c r="V54" s="248"/>
+      <c r="V54" s="44"/>
       <c r="W54" s="47"/>
       <c r="X54" s="49"/>
-      <c r="Y54" s="127"/>
-      <c r="Z54" s="48"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="243"/>
       <c r="AA54" s="47"/>
       <c r="AB54" s="129">
         <f>SUM(T55:AA55)</f>
@@ -9030,7 +9054,7 @@
       </c>
       <c r="AL54" s="129">
         <f>$S54+$AB54+$AG54+$AJ54</f>
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9046,7 +9070,7 @@
       <c r="D55" s="134"/>
       <c r="E55" s="132">
         <f>(IF($E54&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E54=$E$6+$F$6,$O$103,0),0),0)+IF($F54&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F54=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F55" s="134"/>
       <c r="G55" s="132">
@@ -9066,7 +9090,7 @@
       <c r="L55" s="134"/>
       <c r="M55" s="132">
         <f>(IF($M54&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M54=$M$6+$N$6,$O$103,0),0),0)+IF($N54&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N54=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N55" s="134"/>
       <c r="O55" s="135">
@@ -9121,7 +9145,7 @@
         <f>IF(ISBLANK(E54),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="124">
         <f>IF(ISBLANK(F54),
@@ -9175,7 +9199,7 @@
         <f>IF(ISBLANK(N54),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="124">
         <f>IF(ISBLANK(O54),
@@ -9221,7 +9245,7 @@
       <c r="AJ56" s="147"/>
       <c r="AK56" s="148">
         <f>SUM(C56:AI56)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL56" s="130"/>
     </row>
@@ -9353,53 +9377,53 @@
     <row r="58" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="186">
         <f>RANK(AL58,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" s="211" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="198">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58" s="199"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="199">
-        <v>7</v>
-      </c>
-      <c r="G58" s="201">
-        <v>4</v>
-      </c>
-      <c r="H58" s="202"/>
-      <c r="I58" s="200"/>
+      <c r="E58" s="312">
+        <v>6</v>
+      </c>
+      <c r="F58" s="199"/>
+      <c r="G58" s="313"/>
+      <c r="H58" s="202">
+        <v>6</v>
+      </c>
+      <c r="I58" s="312"/>
       <c r="J58" s="202">
         <v>7</v>
       </c>
       <c r="K58" s="203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L58" s="202"/>
       <c r="M58" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N58" s="199"/>
       <c r="O58" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P58" s="199"/>
-      <c r="Q58" s="201"/>
-      <c r="R58" s="204">
+      <c r="Q58" s="201">
         <v>6</v>
       </c>
+      <c r="R58" s="204"/>
       <c r="S58" s="205">
         <f>SUM(C59:R59)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="T58" s="198"/>
       <c r="U58" s="202"/>
-      <c r="V58" s="200"/>
+      <c r="V58" s="314"/>
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
-      <c r="Y58" s="235"/>
+      <c r="Y58" s="234"/>
       <c r="Z58" s="201"/>
       <c r="AA58" s="202"/>
       <c r="AB58" s="205">
@@ -9422,11 +9446,11 @@
       </c>
       <c r="AK58" s="207">
         <f>MAX($AL$10:$AL$97) - AL58</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL58" s="205">
         <f>$S58+$AB58+$AG58+$AJ58</f>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9442,7 +9466,7 @@
       <c r="D59" s="134"/>
       <c r="E59" s="132">
         <f>(IF($E58&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E58=$E$6+$F$6,$O$103,0),0),0)+IF($F58&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F58=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F59" s="134"/>
       <c r="G59" s="132">
@@ -9472,7 +9496,7 @@
       <c r="P59" s="134"/>
       <c r="Q59" s="135">
         <f>(IF($Q58&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q58=$Q$6+$R$6,$O$103,0),0),0)+IF($R58&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R58=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R59" s="138"/>
       <c r="S59" s="128"/>
@@ -9517,7 +9541,7 @@
         <f>IF(ISBLANK(E58),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="124">
         <f>IF(ISBLANK(F58),
@@ -9589,7 +9613,7 @@
         <f>IF(ISBLANK(Q58),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="124">
         <f>IF(ISBLANK(R58),
@@ -9617,7 +9641,7 @@
       <c r="AJ60" s="147"/>
       <c r="AK60" s="148">
         <f>SUM(C60:AI60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL60" s="130"/>
     </row>
@@ -9749,17 +9773,17 @@
     <row r="62" spans="1:38" s="27" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="122">
         <f>RANK(AL62,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C62" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62" s="45"/>
-      <c r="E62" s="44">
-        <v>4</v>
+      <c r="E62" s="319">
+        <v>7</v>
       </c>
       <c r="F62" s="45"/>
       <c r="G62" s="48">
@@ -9768,14 +9792,14 @@
       <c r="H62" s="47"/>
       <c r="I62" s="44"/>
       <c r="J62" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K62" s="49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L62" s="47"/>
       <c r="M62" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N62" s="45"/>
       <c r="O62" s="44">
@@ -9784,11 +9808,11 @@
       <c r="P62" s="45"/>
       <c r="Q62" s="48"/>
       <c r="R62" s="50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S62" s="129">
         <f>SUM(C63:R63)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="T62" s="46"/>
       <c r="U62" s="47"/>
@@ -9796,14 +9820,14 @@
       <c r="W62" s="47"/>
       <c r="X62" s="49"/>
       <c r="Y62" s="45"/>
-      <c r="Z62" s="244"/>
+      <c r="Z62" s="48"/>
       <c r="AA62" s="47"/>
       <c r="AB62" s="129">
         <f>SUM(T63:AA63)</f>
         <v>0</v>
       </c>
       <c r="AC62" s="48"/>
-      <c r="AD62" s="308"/>
+      <c r="AD62" s="47"/>
       <c r="AE62" s="49"/>
       <c r="AF62" s="47"/>
       <c r="AG62" s="129">
@@ -9818,11 +9842,11 @@
       </c>
       <c r="AK62" s="116">
         <f>MAX($AL$10:$AL$97) - AL62</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL62" s="129">
         <f>$S62+$AB62+$AG62+$AJ62</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -9838,7 +9862,7 @@
       <c r="D63" s="134"/>
       <c r="E63" s="132">
         <f>(IF($E62&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E62=$E$6+$F$6,$O$103,0),0),0)+IF($F62&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F62=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F63" s="134"/>
       <c r="G63" s="132">
@@ -9913,7 +9937,7 @@
         <f>IF(ISBLANK(E62),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="124">
         <f>IF(ISBLANK(F62),
@@ -10013,7 +10037,7 @@
       <c r="AJ64" s="147"/>
       <c r="AK64" s="148">
         <f>SUM(C64:AI64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="130"/>
     </row>
@@ -10038,7 +10062,7 @@
         <f>IF(E64 = 0,
 0,
 IF(E62 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="124">
         <f>IF(F64 = 0,
@@ -10138,28 +10162,28 @@
       <c r="AJ65" s="147"/>
       <c r="AK65" s="148">
         <f>SUM(C65:AI65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL65" s="130"/>
     </row>
     <row r="66" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186">
         <f>RANK(AL66,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B66" s="211" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C66" s="198">
+        <v>4</v>
+      </c>
+      <c r="D66" s="199"/>
+      <c r="E66" s="200">
+        <v>4</v>
+      </c>
+      <c r="F66" s="199"/>
+      <c r="G66" s="201">
         <v>6</v>
-      </c>
-      <c r="D66" s="199"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="199">
-        <v>7</v>
-      </c>
-      <c r="G66" s="201">
-        <v>7</v>
       </c>
       <c r="H66" s="202"/>
       <c r="I66" s="200"/>
@@ -10171,11 +10195,11 @@
       </c>
       <c r="L66" s="202"/>
       <c r="M66" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N66" s="199"/>
       <c r="O66" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P66" s="199"/>
       <c r="Q66" s="201"/>
@@ -10184,7 +10208,7 @@
       </c>
       <c r="S66" s="205">
         <f>SUM(C67:R67)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T66" s="198"/>
       <c r="U66" s="202"/>
@@ -10192,14 +10216,14 @@
       <c r="W66" s="202"/>
       <c r="X66" s="203"/>
       <c r="Y66" s="199"/>
-      <c r="Z66" s="201"/>
+      <c r="Z66" s="208"/>
       <c r="AA66" s="202"/>
       <c r="AB66" s="205">
         <f>SUM(T67:AA67)</f>
         <v>0</v>
       </c>
       <c r="AC66" s="201"/>
-      <c r="AD66" s="202"/>
+      <c r="AD66" s="311"/>
       <c r="AE66" s="203"/>
       <c r="AF66" s="202"/>
       <c r="AG66" s="205">
@@ -10214,11 +10238,11 @@
       </c>
       <c r="AK66" s="207">
         <f>MAX($AL$10:$AL$97) - AL66</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL66" s="205">
         <f>$S66+$AB66+$AG66+$AJ66</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10234,7 +10258,7 @@
       <c r="D67" s="134"/>
       <c r="E67" s="132">
         <f>(IF($E66&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E66=$E$6+$F$6,$O$103,0),0),0)+IF($F66&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F66=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F67" s="134"/>
       <c r="G67" s="132">
@@ -10309,7 +10333,7 @@
         <f>IF(ISBLANK(E66),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="124">
         <f>IF(ISBLANK(F66),
@@ -10409,7 +10433,7 @@
       <c r="AJ68" s="147"/>
       <c r="AK68" s="148">
         <f>SUM(C68:AI68)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="130"/>
     </row>
@@ -10541,46 +10565,46 @@
     <row r="70" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="122">
         <f>RANK(AL70,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B70" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="309">
+      <c r="C70" s="250">
         <v>5</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311">
+      <c r="D70" s="251"/>
+      <c r="E70" s="252">
         <v>6</v>
       </c>
-      <c r="F70" s="310"/>
-      <c r="G70" s="312">
+      <c r="F70" s="251"/>
+      <c r="G70" s="253">
         <v>5</v>
       </c>
-      <c r="H70" s="313"/>
-      <c r="I70" s="311"/>
-      <c r="J70" s="313">
+      <c r="H70" s="254"/>
+      <c r="I70" s="252"/>
+      <c r="J70" s="254">
         <v>6</v>
       </c>
-      <c r="K70" s="314">
+      <c r="K70" s="255">
         <v>6</v>
       </c>
-      <c r="L70" s="313"/>
-      <c r="M70" s="311">
+      <c r="L70" s="254"/>
+      <c r="M70" s="252">
         <v>7</v>
       </c>
-      <c r="N70" s="310"/>
-      <c r="O70" s="311">
+      <c r="N70" s="251"/>
+      <c r="O70" s="252">
         <v>6</v>
       </c>
-      <c r="P70" s="310"/>
-      <c r="Q70" s="312"/>
-      <c r="R70" s="315">
+      <c r="P70" s="251"/>
+      <c r="Q70" s="253"/>
+      <c r="R70" s="256">
         <v>6</v>
       </c>
       <c r="S70" s="129">
         <f>SUM(C71:R71)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T70" s="46"/>
       <c r="U70" s="47"/>
@@ -10610,11 +10634,11 @@
       </c>
       <c r="AK70" s="116">
         <f>MAX($AL$10:$AL$97) - AL70</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL70" s="129">
         <f>$S70+$AB70+$AG70+$AJ70</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10630,7 +10654,7 @@
       <c r="D71" s="134"/>
       <c r="E71" s="132">
         <f>(IF($E70&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E70=$E$6+$F$6,$O$103,0),0),0)+IF($F70&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F70=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F71" s="134"/>
       <c r="G71" s="132">
@@ -10705,7 +10729,7 @@
         <f>IF(ISBLANK(E70),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="124">
         <f>IF(ISBLANK(F70),
@@ -10805,7 +10829,7 @@
       <c r="AJ72" s="147"/>
       <c r="AK72" s="148">
         <f>SUM(C72:AI72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="130"/>
     </row>
@@ -10937,19 +10961,19 @@
     <row r="74" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="186">
         <f>RANK(AL74,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B74" s="211" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C74" s="198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="199"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="199">
-        <v>7</v>
-      </c>
+      <c r="E74" s="200">
+        <v>6</v>
+      </c>
+      <c r="F74" s="199"/>
       <c r="G74" s="201">
         <v>6</v>
       </c>
@@ -10963,22 +10987,22 @@
       </c>
       <c r="L74" s="202"/>
       <c r="M74" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N74" s="199"/>
       <c r="O74" s="200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P74" s="199"/>
       <c r="Q74" s="201"/>
       <c r="R74" s="204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S74" s="205">
         <f>SUM(C75:R75)</f>
-        <v>14</v>
-      </c>
-      <c r="T74" s="316"/>
+        <v>20</v>
+      </c>
+      <c r="T74" s="198"/>
       <c r="U74" s="202"/>
       <c r="V74" s="200"/>
       <c r="W74" s="202"/>
@@ -11006,11 +11030,11 @@
       </c>
       <c r="AK74" s="207">
         <f>MAX($AL$10:$AL$97) - AL74</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL74" s="205">
         <f>$S74+$AB74+$AG74+$AJ74</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11026,7 +11050,7 @@
       <c r="D75" s="134"/>
       <c r="E75" s="132">
         <f>(IF($E74&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E74=$E$6+$F$6,$O$103,0),0),0)+IF($F74&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F74=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F75" s="134"/>
       <c r="G75" s="132">
@@ -11101,7 +11125,7 @@
         <f>IF(ISBLANK(E74),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="124">
         <f>IF(ISBLANK(F74),
@@ -11201,7 +11225,7 @@
       <c r="AJ76" s="147"/>
       <c r="AK76" s="148">
         <f>SUM(C76:AI76)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL76" s="130"/>
     </row>
@@ -11333,13 +11357,13 @@
     <row r="78" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="122">
         <f>RANK(AL78,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B78" s="88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" s="46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="44">
@@ -11352,18 +11376,18 @@
       <c r="H78" s="47"/>
       <c r="I78" s="44"/>
       <c r="J78" s="47">
+        <v>6</v>
+      </c>
+      <c r="K78" s="49">
         <v>7</v>
-      </c>
-      <c r="K78" s="49">
-        <v>5</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N78" s="45"/>
       <c r="O78" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P78" s="45"/>
       <c r="Q78" s="48"/>
@@ -11372,7 +11396,7 @@
       </c>
       <c r="S78" s="129">
         <f>SUM(C79:R79)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T78" s="46"/>
       <c r="U78" s="47"/>
@@ -11402,11 +11426,11 @@
       </c>
       <c r="AK78" s="116">
         <f>MAX($AL$10:$AL$97) - AL78</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL78" s="129">
         <f>$S78+$AB78+$AG78+$AJ78</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11422,7 +11446,7 @@
       <c r="D79" s="134"/>
       <c r="E79" s="132">
         <f>(IF($E78&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E78=$E$6+$F$6,$O$103,0),0),0)+IF($F78&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F78=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F79" s="134"/>
       <c r="G79" s="132">
@@ -11497,7 +11521,7 @@
         <f>IF(ISBLANK(E78),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="124">
         <f>IF(ISBLANK(F78),
@@ -11597,7 +11621,7 @@
       <c r="AJ80" s="147"/>
       <c r="AK80" s="148">
         <f>SUM(C80:AI80)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL80" s="130"/>
     </row>
@@ -11729,10 +11753,10 @@
     <row r="82" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="186">
         <f>RANK(AL82,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B82" s="211" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C82" s="198">
         <v>5</v>
@@ -11751,24 +11775,24 @@
         <v>6</v>
       </c>
       <c r="K82" s="203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L82" s="202"/>
       <c r="M82" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N82" s="199"/>
       <c r="O82" s="200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P82" s="199"/>
       <c r="Q82" s="201"/>
       <c r="R82" s="204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S82" s="205">
         <f>SUM(C83:R83)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T82" s="198"/>
       <c r="U82" s="202"/>
@@ -11776,7 +11800,7 @@
       <c r="W82" s="202"/>
       <c r="X82" s="203"/>
       <c r="Y82" s="199"/>
-      <c r="Z82" s="201"/>
+      <c r="Z82" s="208"/>
       <c r="AA82" s="202"/>
       <c r="AB82" s="205">
         <f>SUM(T83:AA83)</f>
@@ -11798,11 +11822,11 @@
       </c>
       <c r="AK82" s="207">
         <f>MAX($AL$10:$AL$97) - AL82</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL82" s="205">
         <f>$S82+$AB82+$AG82+$AJ82</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11818,7 +11842,7 @@
       <c r="D83" s="134"/>
       <c r="E83" s="132">
         <f>(IF($E82&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E82=$E$6+$F$6,$O$103,0),0),0)+IF($F82&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F82=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F83" s="134"/>
       <c r="G83" s="132">
@@ -11893,7 +11917,7 @@
         <f>IF(ISBLANK(E82),
 0,
 IF(E$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="124">
         <f>IF(ISBLANK(F82),
@@ -11993,7 +12017,7 @@
       <c r="AJ84" s="147"/>
       <c r="AK84" s="148">
         <f>SUM(C84:AI84)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84" s="130"/>
     </row>
@@ -12125,42 +12149,42 @@
     <row r="86" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="122">
         <f>RANK(AL86,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B86" s="88" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C86" s="46">
         <v>5</v>
       </c>
       <c r="D86" s="45"/>
-      <c r="E86" s="44">
-        <v>6</v>
-      </c>
-      <c r="F86" s="45"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="45">
+        <v>7</v>
+      </c>
       <c r="G86" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H86" s="47"/>
       <c r="I86" s="44"/>
       <c r="J86" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K86" s="49">
         <v>6</v>
       </c>
       <c r="L86" s="47"/>
       <c r="M86" s="44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86" s="45"/>
       <c r="O86" s="44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P86" s="45"/>
       <c r="Q86" s="48"/>
       <c r="R86" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S86" s="129">
         <f>SUM(C87:R87)</f>
@@ -12171,8 +12195,8 @@
       <c r="V86" s="44"/>
       <c r="W86" s="47"/>
       <c r="X86" s="49"/>
-      <c r="Y86" s="45"/>
-      <c r="Z86" s="244"/>
+      <c r="Y86" s="127"/>
+      <c r="Z86" s="48"/>
       <c r="AA86" s="47"/>
       <c r="AB86" s="129">
         <f>SUM(T87:AA87)</f>
@@ -12194,7 +12218,7 @@
       </c>
       <c r="AK86" s="116">
         <f>MAX($AL$10:$AL$97) - AL86</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AL86" s="129">
         <f>$S86+$AB86+$AG86+$AJ86</f>
@@ -12521,43 +12545,43 @@
     <row r="90" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="186">
         <f>RANK(AL90,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B90" s="211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C90" s="198">
         <v>6</v>
       </c>
       <c r="D90" s="199"/>
-      <c r="E90" s="200">
+      <c r="E90" s="200"/>
+      <c r="F90" s="199">
         <v>7</v>
       </c>
-      <c r="F90" s="199"/>
       <c r="G90" s="201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H90" s="202"/>
       <c r="I90" s="200"/>
       <c r="J90" s="202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K90" s="203">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L90" s="202"/>
       <c r="M90" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N90" s="199"/>
       <c r="O90" s="200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P90" s="199"/>
-      <c r="Q90" s="201">
-        <v>5</v>
-      </c>
-      <c r="R90" s="204"/>
+      <c r="Q90" s="201"/>
+      <c r="R90" s="204">
+        <v>6</v>
+      </c>
       <c r="S90" s="205">
         <f>SUM(C91:R91)</f>
         <v>14</v>
@@ -12590,7 +12614,7 @@
       </c>
       <c r="AK90" s="207">
         <f>MAX($AL$10:$AL$97) - AL90</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AL90" s="205">
         <f>$S90+$AB90+$AG90+$AJ90</f>
@@ -12917,19 +12941,19 @@
     <row r="94" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <f>RANK(AL94,$AL$10:$AL$97,)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B94" s="88" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C94" s="226">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" s="227"/>
-      <c r="E94" s="228">
+      <c r="E94" s="228"/>
+      <c r="F94" s="227">
         <v>7</v>
       </c>
-      <c r="F94" s="227"/>
       <c r="G94" s="229">
         <v>6</v>
       </c>
@@ -12939,7 +12963,7 @@
         <v>7</v>
       </c>
       <c r="K94" s="231">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L94" s="230"/>
       <c r="M94" s="228">
@@ -12947,7 +12971,7 @@
       </c>
       <c r="N94" s="227"/>
       <c r="O94" s="228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P94" s="227"/>
       <c r="Q94" s="229"/>
@@ -12958,7 +12982,7 @@
         <f>SUM(C95:R95)</f>
         <v>14</v>
       </c>
-      <c r="T94" s="46"/>
+      <c r="T94" s="310"/>
       <c r="U94" s="47"/>
       <c r="V94" s="44"/>
       <c r="W94" s="47"/>
@@ -12986,7 +13010,7 @@
       </c>
       <c r="AK94" s="116">
         <f>MAX($AL$10:$AL$97) - AL94</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AL94" s="218">
         <f>$S94+$AB94+$AG94+$AJ94</f>
@@ -13443,12 +13467,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="254" t="s">
+      <c r="O100" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="255"/>
-      <c r="Q100" s="255"/>
-      <c r="R100" s="256"/>
+      <c r="P100" s="291"/>
+      <c r="Q100" s="291"/>
+      <c r="R100" s="292"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13457,21 +13481,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="283" t="s">
+      <c r="B101" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="284"/>
-      <c r="D101" s="284"/>
-      <c r="E101" s="284"/>
-      <c r="F101" s="284"/>
-      <c r="G101" s="284"/>
-      <c r="H101" s="284"/>
-      <c r="I101" s="284"/>
-      <c r="J101" s="284"/>
-      <c r="K101" s="284"/>
-      <c r="L101" s="284"/>
-      <c r="M101" s="284"/>
-      <c r="N101" s="285"/>
+      <c r="C101" s="279"/>
+      <c r="D101" s="279"/>
+      <c r="E101" s="279"/>
+      <c r="F101" s="279"/>
+      <c r="G101" s="279"/>
+      <c r="H101" s="279"/>
+      <c r="I101" s="279"/>
+      <c r="J101" s="279"/>
+      <c r="K101" s="279"/>
+      <c r="L101" s="279"/>
+      <c r="M101" s="279"/>
+      <c r="N101" s="280"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13484,45 +13508,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="257" t="s">
+      <c r="U101" s="293" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="258"/>
-      <c r="W101" s="258"/>
-      <c r="X101" s="258"/>
-      <c r="Y101" s="258"/>
-      <c r="Z101" s="258"/>
-      <c r="AA101" s="258"/>
-      <c r="AB101" s="258"/>
-      <c r="AC101" s="258"/>
-      <c r="AD101" s="259"/>
+      <c r="V101" s="294"/>
+      <c r="W101" s="294"/>
+      <c r="X101" s="294"/>
+      <c r="Y101" s="294"/>
+      <c r="Z101" s="294"/>
+      <c r="AA101" s="294"/>
+      <c r="AB101" s="294"/>
+      <c r="AC101" s="294"/>
+      <c r="AD101" s="295"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="260" t="s">
+      <c r="AG101" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="261"/>
-      <c r="AI101" s="261"/>
-      <c r="AJ101" s="261"/>
-      <c r="AK101" s="262"/>
+      <c r="AH101" s="297"/>
+      <c r="AI101" s="297"/>
+      <c r="AJ101" s="297"/>
+      <c r="AK101" s="298"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="290" t="s">
+      <c r="B102" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="291"/>
-      <c r="D102" s="291"/>
-      <c r="E102" s="291"/>
-      <c r="F102" s="291"/>
-      <c r="G102" s="291"/>
-      <c r="H102" s="291"/>
-      <c r="I102" s="291"/>
-      <c r="J102" s="291"/>
-      <c r="K102" s="291"/>
-      <c r="L102" s="291"/>
-      <c r="M102" s="291"/>
-      <c r="N102" s="292"/>
+      <c r="C102" s="258"/>
+      <c r="D102" s="258"/>
+      <c r="E102" s="258"/>
+      <c r="F102" s="258"/>
+      <c r="G102" s="258"/>
+      <c r="H102" s="258"/>
+      <c r="I102" s="258"/>
+      <c r="J102" s="258"/>
+      <c r="K102" s="258"/>
+      <c r="L102" s="258"/>
+      <c r="M102" s="258"/>
+      <c r="N102" s="259"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13535,49 +13559,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="288" t="s">
+      <c r="U102" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="289"/>
-      <c r="W102" s="289"/>
-      <c r="X102" s="289"/>
-      <c r="Y102" s="289"/>
-      <c r="Z102" s="289"/>
-      <c r="AA102" s="289"/>
-      <c r="AB102" s="286">
+      <c r="V102" s="284"/>
+      <c r="W102" s="284"/>
+      <c r="X102" s="284"/>
+      <c r="Y102" s="284"/>
+      <c r="Z102" s="284"/>
+      <c r="AA102" s="284"/>
+      <c r="AB102" s="281">
         <v>22</v>
       </c>
-      <c r="AC102" s="286"/>
-      <c r="AD102" s="287"/>
+      <c r="AC102" s="281"/>
+      <c r="AD102" s="282"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="302" t="s">
+      <c r="AG102" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="303"/>
-      <c r="AI102" s="303"/>
-      <c r="AJ102" s="304"/>
+      <c r="AH102" s="265"/>
+      <c r="AI102" s="265"/>
+      <c r="AJ102" s="266"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="290" t="s">
+      <c r="B103" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="291"/>
-      <c r="D103" s="291"/>
-      <c r="E103" s="291"/>
-      <c r="F103" s="291"/>
-      <c r="G103" s="291"/>
-      <c r="H103" s="291"/>
-      <c r="I103" s="291"/>
-      <c r="J103" s="291"/>
-      <c r="K103" s="291"/>
-      <c r="L103" s="291"/>
-      <c r="M103" s="291"/>
-      <c r="N103" s="292"/>
+      <c r="C103" s="258"/>
+      <c r="D103" s="258"/>
+      <c r="E103" s="258"/>
+      <c r="F103" s="258"/>
+      <c r="G103" s="258"/>
+      <c r="H103" s="258"/>
+      <c r="I103" s="258"/>
+      <c r="J103" s="258"/>
+      <c r="K103" s="258"/>
+      <c r="L103" s="258"/>
+      <c r="M103" s="258"/>
+      <c r="N103" s="259"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13590,49 +13614,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="297" t="s">
+      <c r="U103" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="298"/>
-      <c r="W103" s="298"/>
-      <c r="X103" s="298"/>
-      <c r="Y103" s="298"/>
-      <c r="Z103" s="298"/>
-      <c r="AA103" s="298"/>
-      <c r="AB103" s="299">
+      <c r="V103" s="263"/>
+      <c r="W103" s="263"/>
+      <c r="X103" s="263"/>
+      <c r="Y103" s="263"/>
+      <c r="Z103" s="263"/>
+      <c r="AA103" s="263"/>
+      <c r="AB103" s="288">
         <v>20</v>
       </c>
-      <c r="AC103" s="299"/>
-      <c r="AD103" s="300"/>
+      <c r="AC103" s="288"/>
+      <c r="AD103" s="289"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="305" t="s">
+      <c r="AG103" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="291"/>
-      <c r="AI103" s="291"/>
-      <c r="AJ103" s="292"/>
+      <c r="AH103" s="258"/>
+      <c r="AI103" s="258"/>
+      <c r="AJ103" s="259"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="276" t="s">
+      <c r="B104" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="277"/>
-      <c r="D104" s="277"/>
-      <c r="E104" s="277"/>
-      <c r="F104" s="277"/>
-      <c r="G104" s="277"/>
-      <c r="H104" s="277"/>
-      <c r="I104" s="277"/>
-      <c r="J104" s="277"/>
-      <c r="K104" s="277"/>
-      <c r="L104" s="277"/>
-      <c r="M104" s="277"/>
-      <c r="N104" s="278"/>
+      <c r="C104" s="272"/>
+      <c r="D104" s="272"/>
+      <c r="E104" s="272"/>
+      <c r="F104" s="272"/>
+      <c r="G104" s="272"/>
+      <c r="H104" s="272"/>
+      <c r="I104" s="272"/>
+      <c r="J104" s="272"/>
+      <c r="K104" s="272"/>
+      <c r="L104" s="272"/>
+      <c r="M104" s="272"/>
+      <c r="N104" s="273"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13645,51 +13669,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="293" t="s">
+      <c r="U104" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="294"/>
-      <c r="W104" s="294"/>
-      <c r="X104" s="294"/>
-      <c r="Y104" s="294"/>
-      <c r="Z104" s="294"/>
-      <c r="AA104" s="294"/>
-      <c r="AB104" s="295">
+      <c r="V104" s="261"/>
+      <c r="W104" s="261"/>
+      <c r="X104" s="261"/>
+      <c r="Y104" s="261"/>
+      <c r="Z104" s="261"/>
+      <c r="AA104" s="261"/>
+      <c r="AB104" s="286">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="295"/>
-      <c r="AD104" s="296"/>
+      <c r="AC104" s="286"/>
+      <c r="AD104" s="287"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="305" t="s">
+      <c r="AG104" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="291"/>
-      <c r="AI104" s="291"/>
-      <c r="AJ104" s="292"/>
+      <c r="AH104" s="258"/>
+      <c r="AI104" s="258"/>
+      <c r="AJ104" s="259"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="297" t="s">
+      <c r="AG105" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="298"/>
-      <c r="AI105" s="298"/>
-      <c r="AJ105" s="298"/>
+      <c r="AH105" s="263"/>
+      <c r="AI105" s="263"/>
+      <c r="AJ105" s="263"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="301" t="s">
+      <c r="AG106" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="294"/>
-      <c r="AI106" s="294"/>
-      <c r="AJ106" s="294"/>
+      <c r="AH106" s="261"/>
+      <c r="AI106" s="261"/>
+      <c r="AJ106" s="261"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13701,12 +13725,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13723,22 +13757,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14394,20 +14418,20 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="2.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="3" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="2.7109375" style="19" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
     <col min="11" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="2.7109375" style="18" customWidth="1"/>
     <col min="22" max="24" width="2.7109375" customWidth="1"/>
@@ -14596,18 +14620,20 @@
       <c r="H6" s="85">
         <v>4</v>
       </c>
-      <c r="I6" s="85"/>
+      <c r="I6" s="85">
+        <v>5</v>
+      </c>
       <c r="J6" s="77">
         <f>IF(C6&gt;C7,1,0)+IF(D6&gt;D7,1,0)+IF(E6&gt;E7,1,0)+IF(F6&gt;F7,1,0)+IF(G6&gt;G7,1,0)+IF(H6&gt;H7,1,0)+IF(I6&gt;I7,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="13"/>
       <c r="M6" s="76" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N6" s="87" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
@@ -14656,7 +14682,9 @@
       <c r="H7" s="85">
         <v>2</v>
       </c>
-      <c r="I7" s="85"/>
+      <c r="I7" s="85">
+        <v>1</v>
+      </c>
       <c r="J7" s="77">
         <f>IF(C7&gt;C6,1,0)+IF(D7&gt;D6,1,0)+IF(E7&gt;E6,1,0)+IF(F7&gt;F6,1,0)+IF(G7&gt;G6,1,0)+IF(H7&gt;H6,1,0)+IF(I7&gt;I6,1,0)</f>
         <v>3</v>
@@ -14664,10 +14692,10 @@
       <c r="K7" s="55"/>
       <c r="L7" s="4"/>
       <c r="M7" s="76" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N7" s="87" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
@@ -15285,10 +15313,10 @@
       <c r="K20" s="16"/>
       <c r="L20" s="13"/>
       <c r="M20" s="76" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="N20" s="87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
@@ -15347,10 +15375,10 @@
       <c r="K21" s="55"/>
       <c r="L21" s="4"/>
       <c r="M21" s="76" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N21" s="87" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O21" s="85"/>
       <c r="P21" s="85"/>
@@ -15496,10 +15524,10 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="76" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N24" s="87" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="O24" s="85"/>
       <c r="P24" s="86"/>
@@ -15557,10 +15585,10 @@
       <c r="K25" s="14"/>
       <c r="L25" s="4"/>
       <c r="M25" s="76" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N25" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="85"/>
       <c r="P25" s="86"/>
@@ -15639,10 +15667,12 @@
       <c r="H27" s="86">
         <v>2</v>
       </c>
-      <c r="I27" s="85"/>
+      <c r="I27" s="85">
+        <v>5</v>
+      </c>
       <c r="J27" s="77">
         <f>IF(C27&gt;C28,1,0)+IF(D27&gt;D28,1,0)+IF(E27&gt;E28,1,0)+IF(F27&gt;F28,1,0)+IF(G27&gt;G28,1,0)+IF(H27&gt;H28,1,0)+IF(I27&gt;I28,1,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="4"/>
@@ -15690,7 +15720,9 @@
       <c r="H28" s="86">
         <v>1</v>
       </c>
-      <c r="I28" s="85"/>
+      <c r="I28" s="85">
+        <v>4</v>
+      </c>
       <c r="J28" s="77">
         <f>IF(C28&gt;C27,1,0)+IF(D28&gt;D27,1,0)+IF(E28&gt;E27,1,0)+IF(F28&gt;F27,1,0)+IF(G28&gt;G27,1,0)+IF(H28&gt;H27,1,0)+IF(I28&gt;I27,1,0)</f>
         <v>3</v>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -2516,6 +2516,162 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2525,18 +2681,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2548,177 +2719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3941,217 +3941,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="275"/>
-      <c r="AF1" s="275"/>
-      <c r="AG1" s="275"/>
-      <c r="AH1" s="275"/>
-      <c r="AI1" s="275"/>
-      <c r="AJ1" s="275"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="299"/>
+      <c r="T1" s="299"/>
+      <c r="U1" s="299"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="299"/>
+      <c r="Y1" s="299"/>
+      <c r="Z1" s="299"/>
+      <c r="AA1" s="299"/>
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="299"/>
+      <c r="AD1" s="299"/>
+      <c r="AE1" s="299"/>
+      <c r="AF1" s="299"/>
+      <c r="AG1" s="299"/>
+      <c r="AH1" s="299"/>
+      <c r="AI1" s="299"/>
+      <c r="AJ1" s="299"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="276" t="s">
+      <c r="C2" s="300" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="277" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="275"/>
-      <c r="U2" s="275"/>
-      <c r="V2" s="275"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="275"/>
-      <c r="Y2" s="275"/>
-      <c r="Z2" s="275"/>
-      <c r="AA2" s="275"/>
-      <c r="AB2" s="275"/>
-      <c r="AC2" s="275"/>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="275"/>
-      <c r="AF2" s="275"/>
-      <c r="AG2" s="275"/>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="275"/>
-      <c r="AJ2" s="275"/>
+      <c r="R2" s="299"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="299"/>
+      <c r="U2" s="299"/>
+      <c r="V2" s="299"/>
+      <c r="W2" s="299"/>
+      <c r="X2" s="299"/>
+      <c r="Y2" s="299"/>
+      <c r="Z2" s="299"/>
+      <c r="AA2" s="299"/>
+      <c r="AB2" s="299"/>
+      <c r="AC2" s="299"/>
+      <c r="AD2" s="299"/>
+      <c r="AE2" s="299"/>
+      <c r="AF2" s="299"/>
+      <c r="AG2" s="299"/>
+      <c r="AH2" s="299"/>
+      <c r="AI2" s="299"/>
+      <c r="AJ2" s="299"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="274"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="275"/>
-      <c r="S3" s="275"/>
-      <c r="T3" s="275"/>
-      <c r="U3" s="275"/>
-      <c r="V3" s="275"/>
-      <c r="W3" s="275"/>
-      <c r="X3" s="275"/>
-      <c r="Y3" s="275"/>
-      <c r="Z3" s="275"/>
-      <c r="AA3" s="275"/>
-      <c r="AB3" s="275"/>
-      <c r="AC3" s="275"/>
-      <c r="AD3" s="275"/>
-      <c r="AE3" s="275"/>
-      <c r="AF3" s="275"/>
-      <c r="AG3" s="275"/>
-      <c r="AH3" s="275"/>
-      <c r="AI3" s="275"/>
-      <c r="AJ3" s="275"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="299"/>
+      <c r="V3" s="299"/>
+      <c r="W3" s="299"/>
+      <c r="X3" s="299"/>
+      <c r="Y3" s="299"/>
+      <c r="Z3" s="299"/>
+      <c r="AA3" s="299"/>
+      <c r="AB3" s="299"/>
+      <c r="AC3" s="299"/>
+      <c r="AD3" s="299"/>
+      <c r="AE3" s="299"/>
+      <c r="AF3" s="299"/>
+      <c r="AG3" s="299"/>
+      <c r="AH3" s="299"/>
+      <c r="AI3" s="299"/>
+      <c r="AJ3" s="299"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-      <c r="I4" s="300"/>
-      <c r="J4" s="300"/>
-      <c r="K4" s="300"/>
-      <c r="L4" s="300"/>
-      <c r="M4" s="300"/>
-      <c r="N4" s="300"/>
-      <c r="O4" s="300"/>
-      <c r="P4" s="300"/>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="299" t="s">
+      <c r="C4" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="283"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
+      <c r="N4" s="283"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="283"/>
+      <c r="Q4" s="283"/>
+      <c r="R4" s="283"/>
+      <c r="S4" s="284"/>
+      <c r="T4" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="300"/>
-      <c r="V4" s="300"/>
-      <c r="W4" s="300"/>
-      <c r="X4" s="300"/>
-      <c r="Y4" s="300"/>
-      <c r="Z4" s="300"/>
-      <c r="AA4" s="300"/>
-      <c r="AB4" s="301"/>
-      <c r="AC4" s="299" t="s">
+      <c r="U4" s="283"/>
+      <c r="V4" s="283"/>
+      <c r="W4" s="283"/>
+      <c r="X4" s="283"/>
+      <c r="Y4" s="283"/>
+      <c r="Z4" s="283"/>
+      <c r="AA4" s="283"/>
+      <c r="AB4" s="284"/>
+      <c r="AC4" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="300"/>
-      <c r="AE4" s="300"/>
-      <c r="AF4" s="300"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="299" t="s">
+      <c r="AD4" s="283"/>
+      <c r="AE4" s="283"/>
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="293"/>
+      <c r="AH4" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="300"/>
-      <c r="AJ4" s="301"/>
+      <c r="AI4" s="283"/>
+      <c r="AJ4" s="284"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="269"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="306" t="s">
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="291"/>
+      <c r="K5" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="302" t="s">
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="290"/>
+      <c r="R5" s="291"/>
+      <c r="S5" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="268" t="s">
+      <c r="T5" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="270"/>
-      <c r="X5" s="306" t="s">
+      <c r="U5" s="290"/>
+      <c r="V5" s="290"/>
+      <c r="W5" s="291"/>
+      <c r="X5" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="270"/>
-      <c r="AB5" s="302" t="s">
+      <c r="Y5" s="290"/>
+      <c r="Z5" s="290"/>
+      <c r="AA5" s="291"/>
+      <c r="AB5" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="307" t="s">
+      <c r="AC5" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="270"/>
-      <c r="AE5" s="306" t="s">
+      <c r="AD5" s="291"/>
+      <c r="AE5" s="289" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="302" t="s">
+      <c r="AF5" s="291"/>
+      <c r="AG5" s="285" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="302" t="s">
+      <c r="AJ5" s="285" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4215,7 +4215,7 @@
         <f>Résultats!$J$25</f>
         <v>4</v>
       </c>
-      <c r="Q6" s="315">
+      <c r="Q6" s="263">
         <f>Résultats!$J$27</f>
         <v>4</v>
       </c>
@@ -4223,7 +4223,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="303"/>
+      <c r="S6" s="286"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="303"/>
+      <c r="AB6" s="286"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="303"/>
+      <c r="AG6" s="286"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="303"/>
+      <c r="AJ6" s="286"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4306,9 +4306,9 @@
       <c r="N7" s="246"/>
       <c r="O7" s="173"/>
       <c r="P7" s="246"/>
-      <c r="Q7" s="316"/>
+      <c r="Q7" s="264"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="303"/>
+      <c r="S7" s="286"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4317,15 +4317,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="303"/>
+      <c r="AB7" s="286"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="303"/>
+      <c r="AG7" s="286"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="303"/>
+      <c r="AJ7" s="286"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="Q8" s="317" t="str">
+      <c r="Q8" s="265" t="str">
         <f>Résultats!$B$27</f>
         <v>SAN JOSE</v>
       </c>
@@ -4395,7 +4395,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="303"/>
+      <c r="S8" s="286"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v>BOSTON</v>
@@ -4422,13 +4422,13 @@
       </c>
       <c r="Z8" s="177" t="str">
         <f>Résultats!$N$24</f>
-        <v>VEGAS</v>
+        <v>SAN JOSE</v>
       </c>
       <c r="AA8" s="174" t="str">
         <f>Résultats!$N$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="AB8" s="303"/>
+      <c r="AB8" s="286"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4445,7 +4445,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="303"/>
+      <c r="AG8" s="286"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4454,7 +4454,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="303"/>
+      <c r="AJ8" s="286"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
-      <c r="Q9" s="318" t="str">
+      <c r="Q9" s="266" t="str">
         <f>Résultats!$A$27</f>
         <v>P2</v>
       </c>
@@ -4528,7 +4528,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="305"/>
+      <c r="S9" s="288"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v>A2</v>
@@ -4555,13 +4555,13 @@
       </c>
       <c r="Z9" s="183" t="str">
         <f>Résultats!$M$24</f>
-        <v>P3</v>
+        <v>P2</v>
       </c>
       <c r="AA9" s="185" t="str">
         <f>Résultats!$M$25</f>
         <v>WC1</v>
       </c>
-      <c r="AB9" s="304"/>
+      <c r="AB9" s="287"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4578,7 +4578,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="304"/>
+      <c r="AG9" s="287"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4587,7 +4587,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="305"/>
+      <c r="AJ9" s="288"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="188"/>
-      <c r="Q10" s="323">
+      <c r="Q10" s="271">
         <v>7</v>
       </c>
       <c r="R10" s="193"/>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="319">
+      <c r="E14" s="267">
         <v>7</v>
       </c>
       <c r="F14" s="45"/>
@@ -5027,7 +5027,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="45"/>
-      <c r="Q14" s="324">
+      <c r="Q14" s="272">
         <v>7</v>
       </c>
       <c r="R14" s="50"/>
@@ -5402,7 +5402,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="199"/>
-      <c r="E18" s="320">
+      <c r="E18" s="268">
         <v>7</v>
       </c>
       <c r="F18" s="199"/>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="201"/>
-      <c r="AD18" s="311"/>
+      <c r="AD18" s="259"/>
       <c r="AE18" s="203"/>
       <c r="AF18" s="202"/>
       <c r="AG18" s="205">
@@ -5801,7 +5801,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="319">
+      <c r="E22" s="267">
         <v>7</v>
       </c>
       <c r="F22" s="45"/>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="44"/>
-      <c r="N22" s="321">
+      <c r="N22" s="269">
         <v>6</v>
       </c>
       <c r="O22" s="44">
@@ -5853,7 +5853,7 @@
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="309"/>
+      <c r="AH22" s="257"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="129">
         <f>AH23</f>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="L26" s="202"/>
       <c r="M26" s="200"/>
-      <c r="N26" s="322">
+      <c r="N26" s="270">
         <v>6</v>
       </c>
       <c r="O26" s="200">
@@ -6623,7 +6623,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="324">
+      <c r="Q30" s="272">
         <v>7</v>
       </c>
       <c r="R30" s="50"/>
@@ -7015,7 +7015,7 @@
         <v>6</v>
       </c>
       <c r="M34" s="200"/>
-      <c r="N34" s="322">
+      <c r="N34" s="270">
         <v>6</v>
       </c>
       <c r="O34" s="200">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="L42" s="202"/>
       <c r="M42" s="200"/>
-      <c r="N42" s="322">
+      <c r="N42" s="270">
         <v>6</v>
       </c>
       <c r="O42" s="200">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="L46" s="47"/>
       <c r="M46" s="44"/>
-      <c r="N46" s="321">
+      <c r="N46" s="269">
         <v>6</v>
       </c>
       <c r="O46" s="44">
@@ -8594,7 +8594,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="199"/>
-      <c r="E50" s="320">
+      <c r="E50" s="268">
         <v>7</v>
       </c>
       <c r="F50" s="199"/>
@@ -9386,15 +9386,15 @@
         <v>7</v>
       </c>
       <c r="D58" s="199"/>
-      <c r="E58" s="312">
+      <c r="E58" s="260">
         <v>6</v>
       </c>
       <c r="F58" s="199"/>
-      <c r="G58" s="313"/>
+      <c r="G58" s="261"/>
       <c r="H58" s="202">
         <v>6</v>
       </c>
-      <c r="I58" s="312"/>
+      <c r="I58" s="260"/>
       <c r="J58" s="202">
         <v>7</v>
       </c>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="T58" s="198"/>
       <c r="U58" s="202"/>
-      <c r="V58" s="314"/>
+      <c r="V58" s="262"/>
       <c r="W58" s="202"/>
       <c r="X58" s="203"/>
       <c r="Y58" s="234"/>
@@ -9782,7 +9782,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="45"/>
-      <c r="E62" s="319">
+      <c r="E62" s="267">
         <v>7</v>
       </c>
       <c r="F62" s="45"/>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="201"/>
-      <c r="AD66" s="311"/>
+      <c r="AD66" s="259"/>
       <c r="AE66" s="203"/>
       <c r="AF66" s="202"/>
       <c r="AG66" s="205">
@@ -12982,7 +12982,7 @@
         <f>SUM(C95:R95)</f>
         <v>14</v>
       </c>
-      <c r="T94" s="310"/>
+      <c r="T94" s="258"/>
       <c r="U94" s="47"/>
       <c r="V94" s="44"/>
       <c r="W94" s="47"/>
@@ -13467,12 +13467,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="290" t="s">
+      <c r="O100" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="291"/>
-      <c r="Q100" s="291"/>
-      <c r="R100" s="292"/>
+      <c r="P100" s="274"/>
+      <c r="Q100" s="274"/>
+      <c r="R100" s="275"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13481,21 +13481,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="278" t="s">
+      <c r="B101" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="279"/>
-      <c r="D101" s="279"/>
-      <c r="E101" s="279"/>
-      <c r="F101" s="279"/>
-      <c r="G101" s="279"/>
-      <c r="H101" s="279"/>
-      <c r="I101" s="279"/>
-      <c r="J101" s="279"/>
-      <c r="K101" s="279"/>
-      <c r="L101" s="279"/>
-      <c r="M101" s="279"/>
-      <c r="N101" s="280"/>
+      <c r="C101" s="303"/>
+      <c r="D101" s="303"/>
+      <c r="E101" s="303"/>
+      <c r="F101" s="303"/>
+      <c r="G101" s="303"/>
+      <c r="H101" s="303"/>
+      <c r="I101" s="303"/>
+      <c r="J101" s="303"/>
+      <c r="K101" s="303"/>
+      <c r="L101" s="303"/>
+      <c r="M101" s="303"/>
+      <c r="N101" s="304"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13508,45 +13508,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="293" t="s">
+      <c r="U101" s="276" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="294"/>
-      <c r="W101" s="294"/>
-      <c r="X101" s="294"/>
-      <c r="Y101" s="294"/>
-      <c r="Z101" s="294"/>
-      <c r="AA101" s="294"/>
-      <c r="AB101" s="294"/>
-      <c r="AC101" s="294"/>
-      <c r="AD101" s="295"/>
+      <c r="V101" s="277"/>
+      <c r="W101" s="277"/>
+      <c r="X101" s="277"/>
+      <c r="Y101" s="277"/>
+      <c r="Z101" s="277"/>
+      <c r="AA101" s="277"/>
+      <c r="AB101" s="277"/>
+      <c r="AC101" s="277"/>
+      <c r="AD101" s="278"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="296" t="s">
+      <c r="AG101" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="297"/>
-      <c r="AI101" s="297"/>
-      <c r="AJ101" s="297"/>
-      <c r="AK101" s="298"/>
+      <c r="AH101" s="280"/>
+      <c r="AI101" s="280"/>
+      <c r="AJ101" s="280"/>
+      <c r="AK101" s="281"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="257" t="s">
+      <c r="B102" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="258"/>
-      <c r="D102" s="258"/>
-      <c r="E102" s="258"/>
-      <c r="F102" s="258"/>
-      <c r="G102" s="258"/>
-      <c r="H102" s="258"/>
-      <c r="I102" s="258"/>
-      <c r="J102" s="258"/>
-      <c r="K102" s="258"/>
-      <c r="L102" s="258"/>
-      <c r="M102" s="258"/>
-      <c r="N102" s="259"/>
+      <c r="C102" s="310"/>
+      <c r="D102" s="310"/>
+      <c r="E102" s="310"/>
+      <c r="F102" s="310"/>
+      <c r="G102" s="310"/>
+      <c r="H102" s="310"/>
+      <c r="I102" s="310"/>
+      <c r="J102" s="310"/>
+      <c r="K102" s="310"/>
+      <c r="L102" s="310"/>
+      <c r="M102" s="310"/>
+      <c r="N102" s="311"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13559,49 +13559,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="283" t="s">
+      <c r="U102" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="284"/>
-      <c r="W102" s="284"/>
-      <c r="X102" s="284"/>
-      <c r="Y102" s="284"/>
-      <c r="Z102" s="284"/>
-      <c r="AA102" s="284"/>
-      <c r="AB102" s="281">
+      <c r="V102" s="308"/>
+      <c r="W102" s="308"/>
+      <c r="X102" s="308"/>
+      <c r="Y102" s="308"/>
+      <c r="Z102" s="308"/>
+      <c r="AA102" s="308"/>
+      <c r="AB102" s="305">
         <v>22</v>
       </c>
-      <c r="AC102" s="281"/>
-      <c r="AD102" s="282"/>
+      <c r="AC102" s="305"/>
+      <c r="AD102" s="306"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="264" t="s">
+      <c r="AG102" s="321" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="265"/>
-      <c r="AI102" s="265"/>
-      <c r="AJ102" s="266"/>
+      <c r="AH102" s="322"/>
+      <c r="AI102" s="322"/>
+      <c r="AJ102" s="323"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="257" t="s">
+      <c r="B103" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="258"/>
-      <c r="D103" s="258"/>
-      <c r="E103" s="258"/>
-      <c r="F103" s="258"/>
-      <c r="G103" s="258"/>
-      <c r="H103" s="258"/>
-      <c r="I103" s="258"/>
-      <c r="J103" s="258"/>
-      <c r="K103" s="258"/>
-      <c r="L103" s="258"/>
-      <c r="M103" s="258"/>
-      <c r="N103" s="259"/>
+      <c r="C103" s="310"/>
+      <c r="D103" s="310"/>
+      <c r="E103" s="310"/>
+      <c r="F103" s="310"/>
+      <c r="G103" s="310"/>
+      <c r="H103" s="310"/>
+      <c r="I103" s="310"/>
+      <c r="J103" s="310"/>
+      <c r="K103" s="310"/>
+      <c r="L103" s="310"/>
+      <c r="M103" s="310"/>
+      <c r="N103" s="311"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13614,49 +13614,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="262" t="s">
+      <c r="U103" s="316" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="263"/>
-      <c r="W103" s="263"/>
-      <c r="X103" s="263"/>
-      <c r="Y103" s="263"/>
-      <c r="Z103" s="263"/>
-      <c r="AA103" s="263"/>
-      <c r="AB103" s="288">
+      <c r="V103" s="317"/>
+      <c r="W103" s="317"/>
+      <c r="X103" s="317"/>
+      <c r="Y103" s="317"/>
+      <c r="Z103" s="317"/>
+      <c r="AA103" s="317"/>
+      <c r="AB103" s="318">
         <v>20</v>
       </c>
-      <c r="AC103" s="288"/>
-      <c r="AD103" s="289"/>
+      <c r="AC103" s="318"/>
+      <c r="AD103" s="319"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="267" t="s">
+      <c r="AG103" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="258"/>
-      <c r="AI103" s="258"/>
-      <c r="AJ103" s="259"/>
+      <c r="AH103" s="310"/>
+      <c r="AI103" s="310"/>
+      <c r="AJ103" s="311"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="271" t="s">
+      <c r="B104" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="272"/>
-      <c r="D104" s="272"/>
-      <c r="E104" s="272"/>
-      <c r="F104" s="272"/>
-      <c r="G104" s="272"/>
-      <c r="H104" s="272"/>
-      <c r="I104" s="272"/>
-      <c r="J104" s="272"/>
-      <c r="K104" s="272"/>
-      <c r="L104" s="272"/>
-      <c r="M104" s="272"/>
-      <c r="N104" s="273"/>
+      <c r="C104" s="296"/>
+      <c r="D104" s="296"/>
+      <c r="E104" s="296"/>
+      <c r="F104" s="296"/>
+      <c r="G104" s="296"/>
+      <c r="H104" s="296"/>
+      <c r="I104" s="296"/>
+      <c r="J104" s="296"/>
+      <c r="K104" s="296"/>
+      <c r="L104" s="296"/>
+      <c r="M104" s="296"/>
+      <c r="N104" s="297"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13669,51 +13669,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="285" t="s">
+      <c r="U104" s="312" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="261"/>
-      <c r="W104" s="261"/>
-      <c r="X104" s="261"/>
-      <c r="Y104" s="261"/>
-      <c r="Z104" s="261"/>
-      <c r="AA104" s="261"/>
-      <c r="AB104" s="286">
+      <c r="V104" s="313"/>
+      <c r="W104" s="313"/>
+      <c r="X104" s="313"/>
+      <c r="Y104" s="313"/>
+      <c r="Z104" s="313"/>
+      <c r="AA104" s="313"/>
+      <c r="AB104" s="314">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="286"/>
-      <c r="AD104" s="287"/>
+      <c r="AC104" s="314"/>
+      <c r="AD104" s="315"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="267" t="s">
+      <c r="AG104" s="324" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="258"/>
-      <c r="AI104" s="258"/>
-      <c r="AJ104" s="259"/>
+      <c r="AH104" s="310"/>
+      <c r="AI104" s="310"/>
+      <c r="AJ104" s="311"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="262" t="s">
+      <c r="AG105" s="316" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="263"/>
-      <c r="AI105" s="263"/>
-      <c r="AJ105" s="263"/>
+      <c r="AH105" s="317"/>
+      <c r="AI105" s="317"/>
+      <c r="AJ105" s="317"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="260" t="s">
+      <c r="AG106" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="261"/>
-      <c r="AI106" s="261"/>
-      <c r="AJ106" s="261"/>
+      <c r="AH106" s="313"/>
+      <c r="AI106" s="313"/>
+      <c r="AJ106" s="313"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13725,6 +13725,28 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B104:N104"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AJ1"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="P3:AJ3"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:AJ2"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="AB102:AD102"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="B102:N102"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="AB104:AD104"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="AB103:AD103"/>
     <mergeCell ref="O100:R100"/>
     <mergeCell ref="U101:AD101"/>
     <mergeCell ref="AG101:AK101"/>
@@ -13741,28 +13763,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B104:N104"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="P1:AJ1"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="P3:AJ3"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="Q2:AJ2"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="AB102:AD102"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="B102:N102"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="AB104:AD104"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14419,7 +14419,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15524,10 +15524,10 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N24" s="87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O24" s="85"/>
       <c r="P24" s="86"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -2564,6 +2564,105 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2615,110 +2714,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3941,217 +3941,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="299"/>
-      <c r="T1" s="299"/>
-      <c r="U1" s="299"/>
-      <c r="V1" s="299"/>
-      <c r="W1" s="299"/>
-      <c r="X1" s="299"/>
-      <c r="Y1" s="299"/>
-      <c r="Z1" s="299"/>
-      <c r="AA1" s="299"/>
-      <c r="AB1" s="299"/>
-      <c r="AC1" s="299"/>
-      <c r="AD1" s="299"/>
-      <c r="AE1" s="299"/>
-      <c r="AF1" s="299"/>
-      <c r="AG1" s="299"/>
-      <c r="AH1" s="299"/>
-      <c r="AI1" s="299"/>
-      <c r="AJ1" s="299"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="291"/>
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="291"/>
+      <c r="AA1" s="291"/>
+      <c r="AB1" s="291"/>
+      <c r="AC1" s="291"/>
+      <c r="AD1" s="291"/>
+      <c r="AE1" s="291"/>
+      <c r="AF1" s="291"/>
+      <c r="AG1" s="291"/>
+      <c r="AH1" s="291"/>
+      <c r="AI1" s="291"/>
+      <c r="AJ1" s="291"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="300"/>
-      <c r="Q2" s="301" t="s">
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="293" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="299"/>
-      <c r="Y2" s="299"/>
-      <c r="Z2" s="299"/>
-      <c r="AA2" s="299"/>
-      <c r="AB2" s="299"/>
-      <c r="AC2" s="299"/>
-      <c r="AD2" s="299"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="299"/>
-      <c r="AH2" s="299"/>
-      <c r="AI2" s="299"/>
-      <c r="AJ2" s="299"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
+      <c r="T2" s="291"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="291"/>
+      <c r="W2" s="291"/>
+      <c r="X2" s="291"/>
+      <c r="Y2" s="291"/>
+      <c r="Z2" s="291"/>
+      <c r="AA2" s="291"/>
+      <c r="AB2" s="291"/>
+      <c r="AC2" s="291"/>
+      <c r="AD2" s="291"/>
+      <c r="AE2" s="291"/>
+      <c r="AF2" s="291"/>
+      <c r="AG2" s="291"/>
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="291"/>
+      <c r="AJ2" s="291"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="299"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-      <c r="X3" s="299"/>
-      <c r="Y3" s="299"/>
-      <c r="Z3" s="299"/>
-      <c r="AA3" s="299"/>
-      <c r="AB3" s="299"/>
-      <c r="AC3" s="299"/>
-      <c r="AD3" s="299"/>
-      <c r="AE3" s="299"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="299"/>
-      <c r="AH3" s="299"/>
-      <c r="AI3" s="299"/>
-      <c r="AJ3" s="299"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="290"/>
+      <c r="P3" s="291"/>
+      <c r="Q3" s="291"/>
+      <c r="R3" s="291"/>
+      <c r="S3" s="291"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="291"/>
+      <c r="W3" s="291"/>
+      <c r="X3" s="291"/>
+      <c r="Y3" s="291"/>
+      <c r="Z3" s="291"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="291"/>
+      <c r="AC3" s="291"/>
+      <c r="AD3" s="291"/>
+      <c r="AE3" s="291"/>
+      <c r="AF3" s="291"/>
+      <c r="AG3" s="291"/>
+      <c r="AH3" s="291"/>
+      <c r="AI3" s="291"/>
+      <c r="AJ3" s="291"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="283"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="283"/>
-      <c r="S4" s="284"/>
-      <c r="T4" s="282" t="s">
+      <c r="C4" s="315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="316"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="316"/>
+      <c r="P4" s="316"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="316"/>
+      <c r="S4" s="317"/>
+      <c r="T4" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="283"/>
-      <c r="AA4" s="283"/>
-      <c r="AB4" s="284"/>
-      <c r="AC4" s="282" t="s">
+      <c r="U4" s="316"/>
+      <c r="V4" s="316"/>
+      <c r="W4" s="316"/>
+      <c r="X4" s="316"/>
+      <c r="Y4" s="316"/>
+      <c r="Z4" s="316"/>
+      <c r="AA4" s="316"/>
+      <c r="AB4" s="317"/>
+      <c r="AC4" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="283"/>
-      <c r="AE4" s="283"/>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="293"/>
-      <c r="AH4" s="282" t="s">
+      <c r="AD4" s="316"/>
+      <c r="AE4" s="316"/>
+      <c r="AF4" s="316"/>
+      <c r="AG4" s="324"/>
+      <c r="AH4" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="284"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="317"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="294" t="s">
+      <c r="C5" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="289" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="322" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="291"/>
-      <c r="S5" s="285" t="s">
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="286"/>
+      <c r="S5" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="294" t="s">
+      <c r="T5" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="290"/>
-      <c r="V5" s="290"/>
-      <c r="W5" s="291"/>
-      <c r="X5" s="289" t="s">
+      <c r="U5" s="285"/>
+      <c r="V5" s="285"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="322" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="290"/>
-      <c r="Z5" s="290"/>
-      <c r="AA5" s="291"/>
-      <c r="AB5" s="285" t="s">
+      <c r="Y5" s="285"/>
+      <c r="Z5" s="285"/>
+      <c r="AA5" s="286"/>
+      <c r="AB5" s="318" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="292" t="s">
+      <c r="AC5" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="AD5" s="291"/>
-      <c r="AE5" s="289" t="s">
+      <c r="AD5" s="286"/>
+      <c r="AE5" s="322" t="s">
         <v>8</v>
       </c>
-      <c r="AF5" s="291"/>
-      <c r="AG5" s="285" t="s">
+      <c r="AF5" s="286"/>
+      <c r="AG5" s="318" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="285" t="s">
+      <c r="AJ5" s="318" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4223,7 +4223,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="286"/>
+      <c r="S6" s="319"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="286"/>
+      <c r="AB6" s="319"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="286"/>
+      <c r="AG6" s="319"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4282,7 +4282,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="286"/>
+      <c r="AJ6" s="319"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
       <c r="P7" s="246"/>
       <c r="Q7" s="264"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="286"/>
+      <c r="S7" s="319"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4317,15 +4317,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="286"/>
+      <c r="AB7" s="319"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="286"/>
+      <c r="AG7" s="319"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="286"/>
+      <c r="AJ7" s="319"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4395,7 +4395,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="286"/>
+      <c r="S8" s="319"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v>BOSTON</v>
@@ -4428,7 +4428,7 @@
         <f>Résultats!$N$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="AB8" s="286"/>
+      <c r="AB8" s="319"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4445,7 +4445,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="286"/>
+      <c r="AG8" s="319"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4454,7 +4454,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="286"/>
+      <c r="AJ8" s="319"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="288"/>
+      <c r="S9" s="321"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v>A2</v>
@@ -4561,7 +4561,7 @@
         <f>Résultats!$M$25</f>
         <v>WC1</v>
       </c>
-      <c r="AB9" s="287"/>
+      <c r="AB9" s="320"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4578,7 +4578,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="287"/>
+      <c r="AG9" s="320"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4587,7 +4587,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="288"/>
+      <c r="AJ9" s="321"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -13467,12 +13467,12 @@
     <row r="100" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="273" t="s">
+      <c r="O100" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="274"/>
-      <c r="Q100" s="274"/>
-      <c r="R100" s="275"/>
+      <c r="P100" s="307"/>
+      <c r="Q100" s="307"/>
+      <c r="R100" s="308"/>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
@@ -13481,21 +13481,21 @@
     </row>
     <row r="101" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33"/>
-      <c r="B101" s="302" t="s">
+      <c r="B101" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="303"/>
-      <c r="D101" s="303"/>
-      <c r="E101" s="303"/>
-      <c r="F101" s="303"/>
-      <c r="G101" s="303"/>
-      <c r="H101" s="303"/>
-      <c r="I101" s="303"/>
-      <c r="J101" s="303"/>
-      <c r="K101" s="303"/>
-      <c r="L101" s="303"/>
-      <c r="M101" s="303"/>
-      <c r="N101" s="304"/>
+      <c r="C101" s="295"/>
+      <c r="D101" s="295"/>
+      <c r="E101" s="295"/>
+      <c r="F101" s="295"/>
+      <c r="G101" s="295"/>
+      <c r="H101" s="295"/>
+      <c r="I101" s="295"/>
+      <c r="J101" s="295"/>
+      <c r="K101" s="295"/>
+      <c r="L101" s="295"/>
+      <c r="M101" s="295"/>
+      <c r="N101" s="296"/>
       <c r="O101" s="21">
         <v>1</v>
       </c>
@@ -13508,45 +13508,45 @@
       <c r="R101" s="22">
         <v>4</v>
       </c>
-      <c r="U101" s="276" t="s">
+      <c r="U101" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="V101" s="277"/>
-      <c r="W101" s="277"/>
-      <c r="X101" s="277"/>
-      <c r="Y101" s="277"/>
-      <c r="Z101" s="277"/>
-      <c r="AA101" s="277"/>
-      <c r="AB101" s="277"/>
-      <c r="AC101" s="277"/>
-      <c r="AD101" s="278"/>
+      <c r="V101" s="310"/>
+      <c r="W101" s="310"/>
+      <c r="X101" s="310"/>
+      <c r="Y101" s="310"/>
+      <c r="Z101" s="310"/>
+      <c r="AA101" s="310"/>
+      <c r="AB101" s="310"/>
+      <c r="AC101" s="310"/>
+      <c r="AD101" s="311"/>
       <c r="AE101" s="28"/>
       <c r="AF101" s="28"/>
-      <c r="AG101" s="279" t="s">
+      <c r="AG101" s="312" t="s">
         <v>24</v>
       </c>
-      <c r="AH101" s="280"/>
-      <c r="AI101" s="280"/>
-      <c r="AJ101" s="280"/>
-      <c r="AK101" s="281"/>
+      <c r="AH101" s="313"/>
+      <c r="AI101" s="313"/>
+      <c r="AJ101" s="313"/>
+      <c r="AK101" s="314"/>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="34"/>
-      <c r="B102" s="309" t="s">
+      <c r="B102" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="310"/>
-      <c r="D102" s="310"/>
-      <c r="E102" s="310"/>
-      <c r="F102" s="310"/>
-      <c r="G102" s="310"/>
-      <c r="H102" s="310"/>
-      <c r="I102" s="310"/>
-      <c r="J102" s="310"/>
-      <c r="K102" s="310"/>
-      <c r="L102" s="310"/>
-      <c r="M102" s="310"/>
-      <c r="N102" s="311"/>
+      <c r="C102" s="274"/>
+      <c r="D102" s="274"/>
+      <c r="E102" s="274"/>
+      <c r="F102" s="274"/>
+      <c r="G102" s="274"/>
+      <c r="H102" s="274"/>
+      <c r="I102" s="274"/>
+      <c r="J102" s="274"/>
+      <c r="K102" s="274"/>
+      <c r="L102" s="274"/>
+      <c r="M102" s="274"/>
+      <c r="N102" s="275"/>
       <c r="O102" s="20">
         <v>5</v>
       </c>
@@ -13559,49 +13559,49 @@
       <c r="R102" s="23">
         <v>20</v>
       </c>
-      <c r="U102" s="307" t="s">
+      <c r="U102" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="V102" s="308"/>
-      <c r="W102" s="308"/>
-      <c r="X102" s="308"/>
-      <c r="Y102" s="308"/>
-      <c r="Z102" s="308"/>
-      <c r="AA102" s="308"/>
-      <c r="AB102" s="305">
+      <c r="V102" s="300"/>
+      <c r="W102" s="300"/>
+      <c r="X102" s="300"/>
+      <c r="Y102" s="300"/>
+      <c r="Z102" s="300"/>
+      <c r="AA102" s="300"/>
+      <c r="AB102" s="297">
         <v>22</v>
       </c>
-      <c r="AC102" s="305"/>
-      <c r="AD102" s="306"/>
+      <c r="AC102" s="297"/>
+      <c r="AD102" s="298"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29"/>
-      <c r="AG102" s="321" t="s">
+      <c r="AG102" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="AH102" s="322"/>
-      <c r="AI102" s="322"/>
-      <c r="AJ102" s="323"/>
+      <c r="AH102" s="281"/>
+      <c r="AI102" s="281"/>
+      <c r="AJ102" s="282"/>
       <c r="AK102" s="223">
         <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
-      <c r="B103" s="309" t="s">
+      <c r="B103" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="310"/>
-      <c r="D103" s="310"/>
-      <c r="E103" s="310"/>
-      <c r="F103" s="310"/>
-      <c r="G103" s="310"/>
-      <c r="H103" s="310"/>
-      <c r="I103" s="310"/>
-      <c r="J103" s="310"/>
-      <c r="K103" s="310"/>
-      <c r="L103" s="310"/>
-      <c r="M103" s="310"/>
-      <c r="N103" s="311"/>
+      <c r="C103" s="274"/>
+      <c r="D103" s="274"/>
+      <c r="E103" s="274"/>
+      <c r="F103" s="274"/>
+      <c r="G103" s="274"/>
+      <c r="H103" s="274"/>
+      <c r="I103" s="274"/>
+      <c r="J103" s="274"/>
+      <c r="K103" s="274"/>
+      <c r="L103" s="274"/>
+      <c r="M103" s="274"/>
+      <c r="N103" s="275"/>
       <c r="O103" s="20">
         <v>2</v>
       </c>
@@ -13614,49 +13614,49 @@
       <c r="R103" s="23">
         <v>8</v>
       </c>
-      <c r="U103" s="316" t="s">
+      <c r="U103" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="V103" s="317"/>
-      <c r="W103" s="317"/>
-      <c r="X103" s="317"/>
-      <c r="Y103" s="317"/>
-      <c r="Z103" s="317"/>
-      <c r="AA103" s="317"/>
-      <c r="AB103" s="318">
+      <c r="V103" s="279"/>
+      <c r="W103" s="279"/>
+      <c r="X103" s="279"/>
+      <c r="Y103" s="279"/>
+      <c r="Z103" s="279"/>
+      <c r="AA103" s="279"/>
+      <c r="AB103" s="304">
         <v>20</v>
       </c>
-      <c r="AC103" s="318"/>
-      <c r="AD103" s="319"/>
+      <c r="AC103" s="304"/>
+      <c r="AD103" s="305"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29"/>
-      <c r="AG103" s="324" t="s">
+      <c r="AG103" s="283" t="s">
         <v>22</v>
       </c>
-      <c r="AH103" s="310"/>
-      <c r="AI103" s="310"/>
-      <c r="AJ103" s="311"/>
+      <c r="AH103" s="274"/>
+      <c r="AI103" s="274"/>
+      <c r="AJ103" s="275"/>
       <c r="AK103" s="36">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
-      <c r="B104" s="295" t="s">
+      <c r="B104" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="296"/>
-      <c r="D104" s="296"/>
-      <c r="E104" s="296"/>
-      <c r="F104" s="296"/>
-      <c r="G104" s="296"/>
-      <c r="H104" s="296"/>
-      <c r="I104" s="296"/>
-      <c r="J104" s="296"/>
-      <c r="K104" s="296"/>
-      <c r="L104" s="296"/>
-      <c r="M104" s="296"/>
-      <c r="N104" s="297"/>
+      <c r="C104" s="288"/>
+      <c r="D104" s="288"/>
+      <c r="E104" s="288"/>
+      <c r="F104" s="288"/>
+      <c r="G104" s="288"/>
+      <c r="H104" s="288"/>
+      <c r="I104" s="288"/>
+      <c r="J104" s="288"/>
+      <c r="K104" s="288"/>
+      <c r="L104" s="288"/>
+      <c r="M104" s="288"/>
+      <c r="N104" s="289"/>
       <c r="O104" s="3">
         <v>1</v>
       </c>
@@ -13669,51 +13669,51 @@
       <c r="R104" s="24">
         <v>1</v>
       </c>
-      <c r="U104" s="312" t="s">
+      <c r="U104" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="V104" s="313"/>
-      <c r="W104" s="313"/>
-      <c r="X104" s="313"/>
-      <c r="Y104" s="313"/>
-      <c r="Z104" s="313"/>
-      <c r="AA104" s="313"/>
-      <c r="AB104" s="314">
+      <c r="V104" s="277"/>
+      <c r="W104" s="277"/>
+      <c r="X104" s="277"/>
+      <c r="Y104" s="277"/>
+      <c r="Z104" s="277"/>
+      <c r="AA104" s="277"/>
+      <c r="AB104" s="302">
         <f>AB102*AB103</f>
         <v>440</v>
       </c>
-      <c r="AC104" s="314"/>
-      <c r="AD104" s="315"/>
+      <c r="AC104" s="302"/>
+      <c r="AD104" s="303"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29"/>
-      <c r="AG104" s="324" t="s">
+      <c r="AG104" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="AH104" s="310"/>
-      <c r="AI104" s="310"/>
-      <c r="AJ104" s="311"/>
+      <c r="AH104" s="274"/>
+      <c r="AI104" s="274"/>
+      <c r="AJ104" s="275"/>
       <c r="AK104" s="36">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG105" s="316" t="s">
+      <c r="AG105" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="AH105" s="317"/>
-      <c r="AI105" s="317"/>
-      <c r="AJ105" s="317"/>
+      <c r="AH105" s="279"/>
+      <c r="AI105" s="279"/>
+      <c r="AJ105" s="279"/>
       <c r="AK105" s="225">
         <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG106" s="320" t="s">
+      <c r="AG106" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="AH106" s="313"/>
-      <c r="AI106" s="313"/>
-      <c r="AJ106" s="313"/>
+      <c r="AH106" s="277"/>
+      <c r="AI106" s="277"/>
+      <c r="AJ106" s="277"/>
       <c r="AK106" s="224">
         <f>SUM(AK102:AK105)</f>
         <v>440</v>
@@ -13725,12 +13725,22 @@
     <sortCondition ref="B10:B94"/>
   </sortState>
   <mergeCells count="38">
-    <mergeCell ref="B103:N103"/>
-    <mergeCell ref="AG106:AJ106"/>
-    <mergeCell ref="AG105:AJ105"/>
-    <mergeCell ref="AG102:AJ102"/>
-    <mergeCell ref="AG104:AJ104"/>
-    <mergeCell ref="AG103:AJ103"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="U101:AD101"/>
+    <mergeCell ref="AG101:AK101"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AJ5:AJ9"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AB9"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="T4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:S9"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="B104:N104"/>
     <mergeCell ref="C1:O1"/>
@@ -13747,22 +13757,12 @@
     <mergeCell ref="AB104:AD104"/>
     <mergeCell ref="U103:AA103"/>
     <mergeCell ref="AB103:AD103"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="U101:AD101"/>
-    <mergeCell ref="AG101:AK101"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AJ5:AJ9"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AB9"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="T4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="B103:N103"/>
+    <mergeCell ref="AG106:AJ106"/>
+    <mergeCell ref="AG105:AJ105"/>
+    <mergeCell ref="AG102:AJ102"/>
+    <mergeCell ref="AG104:AJ104"/>
+    <mergeCell ref="AG103:AJ103"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AH18:AI18 AH10:AI10 AH14:AI14 T10:AA10 AC10:AF10 C10:R10 C14:R14 T14:AA14 AC14:AF14 T18:AA18 AC18:AF18 AH30:AI30 C30:R30 T30:AA30 AC30:AF30 AH26:AI26 C26:R26 T26:AA26 AC26:AF26 AH62:AI62 C62:R62 T62:AA62 AC62:AF62 AH42:AI42 C42:R42 T42:AA42 AC42:AF42 AH22:AI22 C22:R22 T22:AA22 AC22:AF22 AH38:AI38 C38:R38 T38:AA38 AC38:AF38 AH34:AI34 C34:R34 T34:AA34 AC34:AF34 AH66:AI66 C66:R66 T66:AA66 AC66:AF66 C18:R18">
@@ -14419,20 +14419,20 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="N1" activeCellId="1" sqref="B1:B1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="5" width="2.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="3" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="2.7109375" style="19" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
     <col min="11" max="12" width="2.7109375" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="1" customWidth="1"/>
     <col min="15" max="21" width="2.7109375" style="18" customWidth="1"/>
     <col min="22" max="24" width="2.7109375" customWidth="1"/>
     <col min="25" max="25" width="3.85546875" bestFit="1" customWidth="1"/>

--- a/laval.xlsx
+++ b/laval.xlsx
@@ -1960,7 +1960,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2447,9 +2447,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2516,24 +2513,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2564,6 +2549,114 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2573,18 +2666,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2597,127 +2705,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="86" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="88" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3918,7 +3930,7 @@
   <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3941,166 +3953,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="291"/>
-      <c r="Q1" s="291"/>
-      <c r="R1" s="291"/>
-      <c r="S1" s="291"/>
-      <c r="T1" s="291"/>
-      <c r="U1" s="291"/>
-      <c r="V1" s="291"/>
-      <c r="W1" s="291"/>
-      <c r="X1" s="291"/>
-      <c r="Y1" s="291"/>
-      <c r="Z1" s="291"/>
-      <c r="AA1" s="291"/>
-      <c r="AB1" s="291"/>
-      <c r="AC1" s="291"/>
-      <c r="AD1" s="291"/>
-      <c r="AE1" s="291"/>
-      <c r="AF1" s="291"/>
-      <c r="AG1" s="291"/>
-      <c r="AH1" s="291"/>
-      <c r="AI1" s="291"/>
-      <c r="AJ1" s="291"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="293"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
+      <c r="T1" s="294"/>
+      <c r="U1" s="294"/>
+      <c r="V1" s="294"/>
+      <c r="W1" s="294"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
+      <c r="AC1" s="294"/>
+      <c r="AD1" s="294"/>
+      <c r="AE1" s="294"/>
+      <c r="AF1" s="294"/>
+      <c r="AG1" s="294"/>
+      <c r="AH1" s="294"/>
+      <c r="AI1" s="294"/>
+      <c r="AJ1" s="294"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="C2" s="292" t="s">
+      <c r="C2" s="295" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="293" t="s">
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="291"/>
-      <c r="X2" s="291"/>
-      <c r="Y2" s="291"/>
-      <c r="Z2" s="291"/>
-      <c r="AA2" s="291"/>
-      <c r="AB2" s="291"/>
-      <c r="AC2" s="291"/>
-      <c r="AD2" s="291"/>
-      <c r="AE2" s="291"/>
-      <c r="AF2" s="291"/>
-      <c r="AG2" s="291"/>
-      <c r="AH2" s="291"/>
-      <c r="AI2" s="291"/>
-      <c r="AJ2" s="291"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="294"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="294"/>
+      <c r="AA2" s="294"/>
+      <c r="AB2" s="294"/>
+      <c r="AC2" s="294"/>
+      <c r="AD2" s="294"/>
+      <c r="AE2" s="294"/>
+      <c r="AF2" s="294"/>
+      <c r="AG2" s="294"/>
+      <c r="AH2" s="294"/>
+      <c r="AI2" s="294"/>
+      <c r="AJ2" s="294"/>
     </row>
     <row r="3" spans="1:38" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="290"/>
-      <c r="O3" s="290"/>
-      <c r="P3" s="291"/>
-      <c r="Q3" s="291"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="291"/>
-      <c r="T3" s="291"/>
-      <c r="U3" s="291"/>
-      <c r="V3" s="291"/>
-      <c r="W3" s="291"/>
-      <c r="X3" s="291"/>
-      <c r="Y3" s="291"/>
-      <c r="Z3" s="291"/>
-      <c r="AA3" s="291"/>
-      <c r="AB3" s="291"/>
-      <c r="AC3" s="291"/>
-      <c r="AD3" s="291"/>
-      <c r="AE3" s="291"/>
-      <c r="AF3" s="291"/>
-      <c r="AG3" s="291"/>
-      <c r="AH3" s="291"/>
-      <c r="AI3" s="291"/>
-      <c r="AJ3" s="291"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
+      <c r="M3" s="293"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="293"/>
+      <c r="P3" s="294"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="294"/>
+      <c r="X3" s="294"/>
+      <c r="Y3" s="294"/>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="294"/>
+      <c r="AB3" s="294"/>
+      <c r="AC3" s="294"/>
+      <c r="AD3" s="294"/>
+      <c r="AE3" s="294"/>
+      <c r="AF3" s="294"/>
+      <c r="AG3" s="294"/>
+      <c r="AH3" s="294"/>
+      <c r="AI3" s="294"/>
+      <c r="AJ3" s="294"/>
     </row>
     <row r="4" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="315" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="316"/>
-      <c r="H4" s="316"/>
-      <c r="I4" s="316"/>
-      <c r="J4" s="316"/>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="316"/>
-      <c r="N4" s="316"/>
-      <c r="O4" s="316"/>
-      <c r="P4" s="316"/>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="316"/>
-      <c r="S4" s="317"/>
-      <c r="T4" s="315" t="s">
+      <c r="C4" s="277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="278"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="278"/>
+      <c r="P4" s="278"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="278"/>
+      <c r="S4" s="279"/>
+      <c r="T4" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="316"/>
-      <c r="V4" s="316"/>
-      <c r="W4" s="316"/>
-      <c r="X4" s="316"/>
-      <c r="Y4" s="316"/>
-      <c r="Z4" s="316"/>
-      <c r="AA4" s="316"/>
-      <c r="AB4" s="317"/>
-      <c r="AC4" s="315" t="s">
+      <c r="U4" s="278"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="278"/>
+      <c r="Y4" s="278"/>
+      <c r="Z4" s="278"/>
+      <c r="AA4" s="278"/>
+      <c r="AB4" s="279"/>
+      <c r="AC4" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="316"/>
-      <c r="AE4" s="316"/>
-      <c r="AF4" s="316"/>
-      <c r="AG4" s="324"/>
-      <c r="AH4" s="315" t="s">
+      <c r="AD4" s="278"/>
+      <c r="AE4" s="278"/>
+      <c r="AF4" s="278"/>
+      <c r="AG4" s="288"/>
+      <c r="AH4" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="316"/>
-      <c r="AJ4" s="317"/>
+      <c r="AI4" s="278"/>
+      <c r="AJ4" s="279"/>
     </row>
     <row r="5" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="284" t="s">
+      <c r="C5" s="289" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="285"/>
@@ -4110,7 +4122,7 @@
       <c r="H5" s="285"/>
       <c r="I5" s="285"/>
       <c r="J5" s="286"/>
-      <c r="K5" s="322" t="s">
+      <c r="K5" s="284" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="285"/>
@@ -4120,38 +4132,38 @@
       <c r="P5" s="285"/>
       <c r="Q5" s="285"/>
       <c r="R5" s="286"/>
-      <c r="S5" s="318" t="s">
+      <c r="S5" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="284" t="s">
+      <c r="T5" s="289" t="s">
         <v>9</v>
       </c>
       <c r="U5" s="285"/>
       <c r="V5" s="285"/>
       <c r="W5" s="286"/>
-      <c r="X5" s="322" t="s">
+      <c r="X5" s="284" t="s">
         <v>8</v>
       </c>
       <c r="Y5" s="285"/>
       <c r="Z5" s="285"/>
       <c r="AA5" s="286"/>
-      <c r="AB5" s="318" t="s">
+      <c r="AB5" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="323" t="s">
+      <c r="AC5" s="287" t="s">
         <v>9</v>
       </c>
       <c r="AD5" s="286"/>
-      <c r="AE5" s="322" t="s">
+      <c r="AE5" s="284" t="s">
         <v>8</v>
       </c>
       <c r="AF5" s="286"/>
-      <c r="AG5" s="318" t="s">
+      <c r="AG5" s="280" t="s">
         <v>14</v>
       </c>
       <c r="AH5" s="56"/>
       <c r="AI5" s="25"/>
-      <c r="AJ5" s="318" t="s">
+      <c r="AJ5" s="280" t="s">
         <v>15</v>
       </c>
       <c r="AK5" s="4"/>
@@ -4163,11 +4175,11 @@
         <f>Résultats!$J$3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="239">
+      <c r="D6" s="238">
         <f>Résultats!$J$4</f>
         <v>4</v>
       </c>
-      <c r="E6" s="235">
+      <c r="E6" s="234">
         <f>Résultats!$J$6</f>
         <v>4</v>
       </c>
@@ -4179,11 +4191,11 @@
         <f>Résultats!$J$10</f>
         <v>3</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="244">
         <f>Résultats!$J$11</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="235">
+        <v>4</v>
+      </c>
+      <c r="I6" s="234">
         <f>Résultats!$J$13</f>
         <v>4</v>
       </c>
@@ -4195,7 +4207,7 @@
         <f>Résultats!$J$17</f>
         <v>1</v>
       </c>
-      <c r="L6" s="239">
+      <c r="L6" s="238">
         <f>Résultats!$J$18</f>
         <v>4</v>
       </c>
@@ -4203,7 +4215,7 @@
         <f>Résultats!$J$20</f>
         <v>2</v>
       </c>
-      <c r="N6" s="245">
+      <c r="N6" s="244">
         <f>Résultats!$J$21</f>
         <v>4</v>
       </c>
@@ -4211,11 +4223,11 @@
         <f>Résultats!$J$24</f>
         <v>2</v>
       </c>
-      <c r="P6" s="245">
+      <c r="P6" s="244">
         <f>Résultats!$J$25</f>
         <v>4</v>
       </c>
-      <c r="Q6" s="263">
+      <c r="Q6" s="258">
         <f>Résultats!$J$27</f>
         <v>4</v>
       </c>
@@ -4223,7 +4235,7 @@
         <f>Résultats!$J$28</f>
         <v>3</v>
       </c>
-      <c r="S6" s="319"/>
+      <c r="S6" s="281"/>
       <c r="T6" s="169">
         <f>Résultats!$V$6</f>
         <v>0</v>
@@ -4256,7 +4268,7 @@
         <f>Résultats!$V$25</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="319"/>
+      <c r="AB6" s="281"/>
       <c r="AC6" s="111">
         <f>Résultats!$AH$8</f>
         <v>0</v>
@@ -4273,7 +4285,7 @@
         <f>Résultats!$AH$23</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="319"/>
+      <c r="AG6" s="281"/>
       <c r="AH6" s="212">
         <f>Résultats!$AH$15</f>
         <v>0</v>
@@ -4282,7 +4294,7 @@
         <f>Résultats!$AH$16</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="319"/>
+      <c r="AJ6" s="281"/>
       <c r="AK6" s="37"/>
     </row>
     <row r="7" spans="1:38" s="39" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4293,22 +4305,22 @@
 +IF(ISBLANK($D10),0,($D$6*PT_VICTOIRE_R1)+IF($D$6=4,PT_PREDICTION_EQUIPE_R1+IF($D10=$C$6+$D$6,PT_PREDICTION_NB_PARTIES_R1,0),0))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="240"/>
-      <c r="E7" s="236"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="118"/>
       <c r="G7" s="119"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="236"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="235"/>
       <c r="J7" s="117"/>
       <c r="K7" s="120"/>
-      <c r="L7" s="240"/>
+      <c r="L7" s="239"/>
       <c r="M7" s="173"/>
-      <c r="N7" s="246"/>
+      <c r="N7" s="245"/>
       <c r="O7" s="173"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="264"/>
+      <c r="P7" s="245"/>
+      <c r="Q7" s="259"/>
       <c r="R7" s="117"/>
-      <c r="S7" s="319"/>
+      <c r="S7" s="281"/>
       <c r="T7" s="170"/>
       <c r="U7" s="117"/>
       <c r="V7" s="173"/>
@@ -4317,15 +4329,15 @@
       <c r="Y7" s="118"/>
       <c r="Z7" s="119"/>
       <c r="AA7" s="117"/>
-      <c r="AB7" s="319"/>
+      <c r="AB7" s="281"/>
       <c r="AC7" s="119"/>
       <c r="AD7" s="117"/>
       <c r="AE7" s="120"/>
       <c r="AF7" s="117"/>
-      <c r="AG7" s="319"/>
+      <c r="AG7" s="281"/>
       <c r="AH7" s="212"/>
       <c r="AI7" s="112"/>
-      <c r="AJ7" s="319"/>
+      <c r="AJ7" s="281"/>
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:38" s="39" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4335,11 +4347,11 @@
         <f>Résultats!$B$3</f>
         <v>TAMPA BAY</v>
       </c>
-      <c r="D8" s="241" t="str">
+      <c r="D8" s="240" t="str">
         <f>Résultats!$B$4</f>
         <v>COLUMBUS</v>
       </c>
-      <c r="E8" s="237" t="str">
+      <c r="E8" s="236" t="str">
         <f>Résultats!$B$6</f>
         <v>BOSTON</v>
       </c>
@@ -4351,11 +4363,11 @@
         <f>Résultats!$B$10</f>
         <v>WASHINGTON</v>
       </c>
-      <c r="H8" s="174" t="str">
+      <c r="H8" s="240" t="str">
         <f>Résultats!$B$11</f>
         <v>CAROLINE</v>
       </c>
-      <c r="I8" s="237" t="str">
+      <c r="I8" s="236" t="str">
         <f>Résultats!$B$13</f>
         <v>NEW YORK I.</v>
       </c>
@@ -4367,7 +4379,7 @@
         <f>Résultats!$B$17</f>
         <v>CALGARY</v>
       </c>
-      <c r="L8" s="241" t="str">
+      <c r="L8" s="240" t="str">
         <f>Résultats!$B$18</f>
         <v>COLORADO</v>
       </c>
@@ -4375,7 +4387,7 @@
         <f>Résultats!$B$20</f>
         <v>WINNIPEG</v>
       </c>
-      <c r="N8" s="247" t="str">
+      <c r="N8" s="246" t="str">
         <f>Résultats!$B$21</f>
         <v>ST-LOUIS</v>
       </c>
@@ -4383,11 +4395,11 @@
         <f>Résultats!$B$24</f>
         <v>NASHVILLE</v>
       </c>
-      <c r="P8" s="247" t="str">
+      <c r="P8" s="246" t="str">
         <f>Résultats!$B$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="Q8" s="265" t="str">
+      <c r="Q8" s="260" t="str">
         <f>Résultats!$B$27</f>
         <v>SAN JOSE</v>
       </c>
@@ -4395,7 +4407,7 @@
         <f>Résultats!$B$28</f>
         <v>VEGAS</v>
       </c>
-      <c r="S8" s="319"/>
+      <c r="S8" s="281"/>
       <c r="T8" s="171" t="str">
         <f>Résultats!$N$6</f>
         <v>BOSTON</v>
@@ -4406,11 +4418,11 @@
       </c>
       <c r="V8" s="175" t="str">
         <f>Résultats!$N$10</f>
-        <v xml:space="preserve"> </v>
+        <v>NEW YORK I.</v>
       </c>
       <c r="W8" s="174" t="str">
         <f>Résultats!$N$11</f>
-        <v xml:space="preserve"> </v>
+        <v>CAROLINE</v>
       </c>
       <c r="X8" s="178" t="str">
         <f>Résultats!$N$20</f>
@@ -4428,7 +4440,7 @@
         <f>Résultats!$N$25</f>
         <v>DALLAS</v>
       </c>
-      <c r="AB8" s="319"/>
+      <c r="AB8" s="281"/>
       <c r="AC8" s="177" t="str">
         <f>Résultats!$Z$8</f>
         <v xml:space="preserve"> </v>
@@ -4445,7 +4457,7 @@
         <f>Résultats!$Z$23</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG8" s="319"/>
+      <c r="AG8" s="281"/>
       <c r="AH8" s="213" t="str">
         <f>Résultats!$Z$15</f>
         <v xml:space="preserve"> </v>
@@ -4454,7 +4466,7 @@
         <f>Résultats!$Z$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ8" s="319"/>
+      <c r="AJ8" s="281"/>
       <c r="AK8" s="37"/>
     </row>
     <row r="9" spans="1:38" s="39" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4468,11 +4480,11 @@
         <f>Résultats!$A$3</f>
         <v>A1</v>
       </c>
-      <c r="D9" s="242" t="str">
+      <c r="D9" s="241" t="str">
         <f>Résultats!$A$4</f>
         <v>WC2</v>
       </c>
-      <c r="E9" s="238" t="str">
+      <c r="E9" s="237" t="str">
         <f>Résultats!$A$6</f>
         <v>A2</v>
       </c>
@@ -4484,11 +4496,11 @@
         <f>Résultats!$A$10</f>
         <v>M1</v>
       </c>
-      <c r="H9" s="180" t="str">
+      <c r="H9" s="241" t="str">
         <f>Résultats!$A$11</f>
         <v>WC1</v>
       </c>
-      <c r="I9" s="238" t="str">
+      <c r="I9" s="237" t="str">
         <f>Résultats!$A$13</f>
         <v>M2</v>
       </c>
@@ -4500,7 +4512,7 @@
         <f>Résultats!$A$17</f>
         <v>C1</v>
       </c>
-      <c r="L9" s="242" t="str">
+      <c r="L9" s="241" t="str">
         <f>Résultats!$A$18</f>
         <v>WC2</v>
       </c>
@@ -4508,7 +4520,7 @@
         <f>Résultats!$A$20</f>
         <v>C2</v>
       </c>
-      <c r="N9" s="248" t="str">
+      <c r="N9" s="247" t="str">
         <f>Résultats!$A$21</f>
         <v>C3</v>
       </c>
@@ -4516,11 +4528,11 @@
         <f>Résultats!$A$24</f>
         <v>P1</v>
       </c>
-      <c r="P9" s="248" t="str">
+      <c r="P9" s="247" t="str">
         <f>Résultats!$A$25</f>
         <v>WC1</v>
       </c>
-      <c r="Q9" s="266" t="str">
+      <c r="Q9" s="261" t="str">
         <f>Résultats!$A$27</f>
         <v>P2</v>
       </c>
@@ -4528,7 +4540,7 @@
         <f>Résultats!$A$28</f>
         <v>P3</v>
       </c>
-      <c r="S9" s="321"/>
+      <c r="S9" s="283"/>
       <c r="T9" s="179" t="str">
         <f>Résultats!$M$6</f>
         <v>A2</v>
@@ -4539,11 +4551,11 @@
       </c>
       <c r="V9" s="181" t="str">
         <f>Résultats!$M$10</f>
-        <v xml:space="preserve"> </v>
+        <v>M2</v>
       </c>
       <c r="W9" s="180" t="str">
         <f>Résultats!$M$11</f>
-        <v xml:space="preserve"> </v>
+        <v>WC1</v>
       </c>
       <c r="X9" s="184" t="str">
         <f>Résultats!$M$20</f>
@@ -4561,7 +4573,7 @@
         <f>Résultats!$M$25</f>
         <v>WC1</v>
       </c>
-      <c r="AB9" s="320"/>
+      <c r="AB9" s="282"/>
       <c r="AC9" s="183" t="str">
         <f>Résultats!$Y$8</f>
         <v xml:space="preserve"> </v>
@@ -4578,7 +4590,7 @@
         <f>Résultats!$Y$23</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="AG9" s="320"/>
+      <c r="AG9" s="282"/>
       <c r="AH9" s="215" t="str">
         <f>Résultats!$Y$15</f>
         <v xml:space="preserve"> </v>
@@ -4587,7 +4599,7 @@
         <f>Résultats!$Y$16</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ9" s="321"/>
+      <c r="AJ9" s="283"/>
       <c r="AK9" s="114" t="s">
         <v>51</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="188"/>
-      <c r="Q10" s="271">
+      <c r="Q10" s="266">
         <v>7</v>
       </c>
       <c r="R10" s="193"/>
@@ -4997,43 +5009,43 @@
         <v>2</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C14" s="46">
         <v>5</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="267">
+      <c r="E14" s="44">
+        <v>6</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="327">
         <v>7</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="48">
-        <v>5</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="44">
+      <c r="I14" s="44"/>
+      <c r="J14" s="47">
         <v>6</v>
       </c>
-      <c r="J14" s="47"/>
       <c r="K14" s="49">
         <v>5</v>
       </c>
       <c r="L14" s="47"/>
-      <c r="M14" s="44">
+      <c r="M14" s="44"/>
+      <c r="N14" s="264">
         <v>6</v>
       </c>
-      <c r="N14" s="45"/>
       <c r="O14" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="45"/>
-      <c r="Q14" s="272">
-        <v>7</v>
+      <c r="Q14" s="48">
+        <v>6</v>
       </c>
       <c r="R14" s="50"/>
       <c r="S14" s="129">
         <f>SUM(C15:R15)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T14" s="46"/>
       <c r="U14" s="47"/>
@@ -5041,7 +5053,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="49"/>
       <c r="Y14" s="45"/>
-      <c r="Z14" s="243"/>
+      <c r="Z14" s="48"/>
       <c r="AA14" s="50"/>
       <c r="AB14" s="129">
         <f>SUM(T15:AA15)</f>
@@ -5063,11 +5075,11 @@
       </c>
       <c r="AK14" s="116">
         <f>MAX($AL$10:$AL$97) - AL14</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="129">
         <f>$S14+$AB14+$AG14+$AJ14</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,17 +5095,17 @@
       <c r="D15" s="150"/>
       <c r="E15" s="132">
         <f>(IF($E14&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E14=$E$6+$F$6,$O$103,0),0),0)+IF($F14&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F14=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="150"/>
       <c r="G15" s="132">
         <f>(IF($G14&lt;&gt;"",($G$6*$O$104)+IF($G$6=4,($O$102)+IF($G14=$G$6+$H$6,$O$103,0),0),0)+IF($H14&lt;&gt;"",($H$6*$O$104)+IF($H$6=4,($O$102)+IF($H14=$G$6+$H$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H15" s="150"/>
       <c r="I15" s="126">
         <f>(IF($I14&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I14=$I$6+$J$6,$O$103,0),0),0)+IF($J14&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J14=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J15" s="151"/>
       <c r="K15" s="152">
@@ -5103,7 +5115,7 @@
       <c r="L15" s="150"/>
       <c r="M15" s="132">
         <f>(IF($M14&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M14=$M$6+$N$6,$O$103,0),0),0)+IF($N14&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N14=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N15" s="150"/>
       <c r="O15" s="126">
@@ -5113,7 +5125,7 @@
       <c r="P15" s="150"/>
       <c r="Q15" s="126">
         <f>(IF($Q14&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q14=$Q$6+$R$6,$O$103,0),0),0)+IF($R14&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R14=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
@@ -5179,13 +5191,13 @@
         <f>IF(ISBLANK(H14),
 0,
 IF(H$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="124">
         <f>IF(ISBLANK(I14),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="124">
         <f>IF(ISBLANK(J14),
@@ -5215,7 +5227,7 @@
         <f>IF(ISBLANK(N14),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="124">
         <f>IF(ISBLANK(O14),
@@ -5261,7 +5273,7 @@
       <c r="AJ16" s="147"/>
       <c r="AK16" s="148">
         <f>SUM(C16:AI16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="130"/>
     </row>
@@ -5286,7 +5298,7 @@
         <f>IF(E16 = 0,
 0,
 IF(E14 = (E$6+F$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="124">
         <f>IF(F16 = 0,
@@ -5304,7 +5316,7 @@
         <f>IF(H16 = 0,
 0,
 IF(H14 = (G$6+H$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="124">
         <f>IF(I16 = 0,
@@ -5340,7 +5352,7 @@
         <f>IF(N16 = 0,
 0,
 IF(N14 = (M$6+N$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="124">
         <f>IF(O16 = 0,
@@ -5358,7 +5370,7 @@
         <f>IF(Q16 = 0,
 0,
 IF(Q14 = (Q$6+R$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="124">
         <f>IF(R16 = 0,
@@ -5396,18 +5408,18 @@
         <v>3</v>
       </c>
       <c r="B18" s="211" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="198">
         <v>5</v>
       </c>
       <c r="D18" s="199"/>
-      <c r="E18" s="268">
+      <c r="E18" s="263">
         <v>7</v>
       </c>
       <c r="F18" s="199"/>
       <c r="G18" s="201">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="202"/>
       <c r="I18" s="200">
@@ -5415,39 +5427,39 @@
       </c>
       <c r="J18" s="202"/>
       <c r="K18" s="203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" s="202"/>
       <c r="M18" s="200">
+        <v>6</v>
+      </c>
+      <c r="N18" s="199"/>
+      <c r="O18" s="200">
         <v>5</v>
       </c>
-      <c r="N18" s="199"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="199">
+      <c r="P18" s="199"/>
+      <c r="Q18" s="325">
         <v>7</v>
       </c>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="204">
-        <v>7</v>
-      </c>
-      <c r="S18" s="244">
+      <c r="R18" s="204"/>
+      <c r="S18" s="243">
         <f>SUM(C19:R19)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T18" s="198"/>
       <c r="U18" s="202"/>
       <c r="V18" s="200"/>
       <c r="W18" s="202"/>
       <c r="X18" s="203"/>
-      <c r="Y18" s="234"/>
-      <c r="Z18" s="201"/>
+      <c r="Y18" s="199"/>
+      <c r="Z18" s="208"/>
       <c r="AA18" s="204"/>
       <c r="AB18" s="205">
         <f>SUM(T19:AA19)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="201"/>
-      <c r="AD18" s="259"/>
+      <c r="AD18" s="202"/>
       <c r="AE18" s="203"/>
       <c r="AF18" s="202"/>
       <c r="AG18" s="205">
@@ -5462,11 +5474,11 @@
       </c>
       <c r="AK18" s="207">
         <f>MAX($AL$10:$AL$97) - AL18</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="205">
         <f>$S18+$AB18+$AG18+$AJ18</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5507,12 +5519,12 @@
       <c r="N19" s="150"/>
       <c r="O19" s="126">
         <f>(IF($O18&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O18=$O$6+$P$6,$O$103,0),0),0)+IF($P18&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P18=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P19" s="150"/>
       <c r="Q19" s="126">
         <f>(IF($Q18&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q18=$Q$6+$R$6,$O$103,0),0),0)+IF($R18&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R18=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R19" s="153"/>
       <c r="S19" s="154"/>
@@ -5626,13 +5638,13 @@
         <f>IF(ISBLANK(P18),
 0,
 IF(P$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="124">
         <f>IF(ISBLANK(Q18),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="124">
         <f>IF(ISBLANK(R18),
@@ -5757,7 +5769,7 @@
         <f>IF(Q20 = 0,
 0,
 IF(Q18 = (Q$6+R$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="124">
         <f>IF(R20 = 0,
@@ -5785,7 +5797,7 @@
       <c r="AJ21" s="147"/>
       <c r="AK21" s="148">
         <f>SUM(C21:AI21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL21" s="130"/>
     </row>
@@ -5795,50 +5807,50 @@
         <v>4</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="46">
         <v>5</v>
       </c>
       <c r="D22" s="45"/>
-      <c r="E22" s="267">
+      <c r="E22" s="262">
         <v>7</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="48">
+        <v>6</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="44">
+        <v>6</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49">
         <v>4</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47">
-        <v>6</v>
-      </c>
-      <c r="K22" s="49">
+      <c r="L22" s="47"/>
+      <c r="M22" s="44">
         <v>5</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="269">
-        <v>6</v>
-      </c>
-      <c r="O22" s="44">
+      <c r="N22" s="45"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45">
         <v>7</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="48">
-        <v>6</v>
-      </c>
-      <c r="R22" s="50"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="50">
+        <v>7</v>
+      </c>
       <c r="S22" s="129">
         <f>SUM(C23:R23)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47"/>
       <c r="V22" s="44"/>
       <c r="W22" s="47"/>
       <c r="X22" s="49"/>
-      <c r="Y22" s="45"/>
+      <c r="Y22" s="127"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="50"/>
       <c r="AB22" s="129">
@@ -5846,14 +5858,14 @@
         <v>0</v>
       </c>
       <c r="AC22" s="48"/>
-      <c r="AD22" s="47"/>
+      <c r="AD22" s="321"/>
       <c r="AE22" s="49"/>
       <c r="AF22" s="47"/>
       <c r="AG22" s="129">
         <f>SUM(AC23:AF23)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="257"/>
+      <c r="AH22" s="320"/>
       <c r="AI22" s="57"/>
       <c r="AJ22" s="129">
         <f>AH23</f>
@@ -5861,11 +5873,11 @@
       </c>
       <c r="AK22" s="116">
         <f>MAX($AL$10:$AL$97) - AL22</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL22" s="129">
         <f>$S22+$AB22+$AG22+$AJ22</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5891,7 +5903,7 @@
       <c r="H23" s="163"/>
       <c r="I23" s="132">
         <f>(IF($I22&lt;&gt;"",($I$6*$O$104)+IF($I$6=4,($O$102)+IF($I22=$I$6+$J$6,$O$103,0),0),0)+IF($J22&lt;&gt;"",($J$6*$O$104)+IF($J$6=4,($O$102)+IF($J22=$I$6+$J$6,$O$103,0),0),0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J23" s="164"/>
       <c r="K23" s="165">
@@ -5901,17 +5913,17 @@
       <c r="L23" s="163"/>
       <c r="M23" s="132">
         <f>(IF($M22&lt;&gt;"",($M$6*$O$104)+IF($M$6=4,($O$102)+IF($M22=$M$6+$N$6,$O$103,0),0),0)+IF($N22&lt;&gt;"",($N$6*$O$104)+IF($N$6=4,($O$102)+IF($N22=$M$6+$N$6,$O$103,0),0),0))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="132">
         <f>(IF($O22&lt;&gt;"",($O$6*$O$104)+IF($O$6=4,($O$102)+IF($O22=$O$6+$P$6,$O$103,0),0),0)+IF($P22&lt;&gt;"",($P$6*$O$104)+IF($P$6=4,($O$102)+IF($P22=$O$6+$P$6,$O$103,0),0),0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P23" s="163"/>
       <c r="Q23" s="132">
         <f>(IF($Q22&lt;&gt;"",($Q$6*$O$104)+IF($Q$6=4,($O$102)+IF($Q22=$Q$6+$R$6,$O$103,0),0),0)+IF($R22&lt;&gt;"",($R$6*$O$104)+IF($R$6=4,($O$102)+IF($R22=$Q$6+$R$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R23" s="166"/>
       <c r="S23" s="154"/>
@@ -5983,7 +5995,7 @@
         <f>IF(ISBLANK(I22),
 0,
 IF(I$6= 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="124">
         <f>IF(ISBLANK(J22),
@@ -6013,7 +6025,7 @@
         <f>IF(ISBLANK(N22),
 0,
 IF(N$6 = 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="124">
         <f>IF(ISBLANK(O22),
@@ -6025,13 +6037,13 @@
         <f>IF(ISBLANK(P22),
 0,
 IF(P$6 = 4, 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="124">
         <f>IF(ISBLANK(Q22),
 0,
 IF(Q$6= 4, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="124">
         <f>IF(ISBLANK(R22),
@@ -6138,7 +6150,7 @@
         <f>IF(N24 = 0,
 0,
 IF(N22 = (M$6+N$6),1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="124">
         <f>IF(O24 = 0,
@@ -6184,7 +6196,7 @@
       <c r="AJ25" s="147"/>
       <c r="AK25" s="148">
         <f>SUM(C25:AI25)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="130"/>
     </row>
@@ -6194,20 +6206,20 @@
         <v>5</v>
       </c>
       <c r="B26" s="211" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C26" s="198">
         <v>5</v>
       </c>
       <c r="D26" s="199"/>
-      <c r="E26" s="200">
-        <v>6</v>
+      <c r="E26" s="263">
+        <v>7</v>
       </c>
       <c r="F26" s="199"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="202">
-        <v>7</v>
-      </c>
+      <c r="G26" s="201">
+        <v>4</v>
+      </c>
+      <c r="H26" s="202"/>
       <c r="I26" s="200"/>
       <c r="J26" s="202">
         <v>6</v>
@@ -6217,11 +6229,11 @@
       </c>
       <c r="L26" s="202"/>
       <c r="M26" s="200"/>
-      <c r="N26" s="270">
+      <c r="N26" s="265">
         <v>6</v>
       </c>
       <c r="O26" s="200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P26" s="199"/>
       <c r="Q26" s="201">
@@ -6230,7 +6242,7 @@
       <c r="R26" s="204"/>
       <c r="S26" s="205">
         <f>SUM(C27:R27)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T26" s="198"/>
       <c r="U26" s="202"/>
@@ -6252,7 +6264,7 @@
         <f>SUM(AC27:AF27)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="195"/>
+      <c r="AH26" s="326"/>
       <c r="AI26" s="196"/>
       <c r="AJ26" s="205">
         <f>AH27</f>
@@ -6260,11 +6272,11 @@
       </c>
       <c r="AK26" s="207">
         <f>MAX($AL$10:$AL$97) - AL26</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL26" s="205">
         <f>$S26+$AB26+$AG26+$AJ26</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="27" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6280,7 +6292,7 @@
       <c r="D27" s="150"/>
       <c r="E27" s="126">
         <f>(IF($E26&lt;&gt;"",($E$6*$O$104)+IF($E$6=4,($O$102)+IF($E26=$E$6+$F$6,$O$103,0),0),0)+IF($F26&lt;&gt;"",($F$6*$O$104)+IF($F$6=4,($O$102)+IF($F26=$E$6+$F$6,$O$103,0),0),0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="150"/>
       <c r="G27" s="126">
@@ -6483,7 +6495,7 @@
         <f>IF(E28 = 0,
 0,
 IF(E26 = (E$6+F$6),1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="124">
         <f>IF(F28 = 0,
@@ -6583,14 +6595,14 @@
       <c r="AJ29" s="147"/>
       <c r="AK29" s="148">
         <f>SUM(C29:AI29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL29" s="130"/>
     </row>
     <row r="30" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="122">
         <f>RANK(AL30,$AL$10:$AL$97,)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="88" t="s">
         <v>81</v>
@@ -6623,7 +6635,7 @@
         <v>6</v>
       </c>
       <c r="P30" s="45"/>
-      <c r="Q30" s="272">
+      <c r="Q30" s="267">
         <v>7</v>
       </c>
       <c r="R30" s="50"/>
@@ -6637,7 +6649,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="49"/>
       <c r="Y30" s="45"/>
-      <c r="Z30" s="243"/>
+      <c r="Z30" s="242"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="129">
         <f>SUM(T31:AA31)</f>
@@ -6989,34 +7001,34 @@
     <row r="34" spans="1:38" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="186">
         <f>RANK(AL34,$AL$10:$AL$97,)</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="211" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="198">
+        <v>5</v>
+      </c>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200">
+        <v>6</v>
+      </c>
+      <c r="F34" s="199"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="328">
         <v>7</v>
       </c>
-      <c r="B34" s="211" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="198">
-        <v>6</v>
-      </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="199">
-        <v>7</v>
-      </c>
-      <c r="G34" s="201">
-        <v>6</v>
-      </c>
-      <c r="H34" s="202"/>
       <c r="I34" s="200"/>
       <c r="J34" s="202">
         <v>6</v>
       </c>
-      <c r="K34" s="203"/>
-      <c r="L34" s="202">
-        <v>6</v>
-      </c>
+      <c r="K34" s="203">
+        <v>5</v>
+      </c>
+      <c r="L34" s="202"/>
       <c r="M34" s="200"/>
-      <c r="N34" s="270">
-        <v>6</v>
+      <c r="N34" s="199">
+        <v>7</v>
       </c>
       <c r="O34" s="200">
         <v>5</v>
@@ -7028